--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07363DF2-D700-4ABF-A97D-CD23B0E2BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -204,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -213,7 +212,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,6 +959,45 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -969,50 +1007,11 @@
     <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1020,1968 +1019,18 @@
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín 5" xfId="13" builtinId="45"/>
-    <cellStyle name="Name" xfId="10" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
+    <cellStyle name="Jelölőszín (5)" xfId="13" builtinId="45"/>
+    <cellStyle name="Name" xfId="10"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
+    <cellStyle name="Project Start" xfId="8"/>
     <cellStyle name="Semleges" xfId="12" builtinId="28"/>
-    <cellStyle name="Task" xfId="11" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="zHiddenText" xfId="2" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="Task" xfId="11"/>
+    <cellStyle name="zHiddenText" xfId="2"/>
   </cellStyles>
-  <dxfs count="243">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
@@ -3467,16 +1516,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="242"/>
-      <tableStyleElement type="headerRow" dxfId="241"/>
-      <tableStyleElement type="totalRow" dxfId="240"/>
-      <tableStyleElement type="firstColumn" dxfId="239"/>
-      <tableStyleElement type="lastColumn" dxfId="238"/>
-      <tableStyleElement type="firstRowStripe" dxfId="237"/>
-      <tableStyleElement type="secondRowStripe" dxfId="236"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="235"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="234"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="firstColumn" dxfId="44"/>
+      <tableStyleElement type="lastColumn" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3613,7 +1662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Calibri">
       <a:majorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3648,7 +1697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -3825,35 +1874,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>53</v>
@@ -3958,16 +2007,16 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="83"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -4047,14 +2096,14 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1">
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="83">
+      <c r="D3" s="92">
         <v>45197</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4134,125 +2183,125 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="80">
+      <c r="F4" s="96"/>
+      <c r="G4" s="93">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="93">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="80">
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="93">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="80">
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="93">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="80">
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="93">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="80">
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="93">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="80">
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="93">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="80">
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="93">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="80">
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="94"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="93">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="82"/>
-      <c r="BR4" s="80">
+      <c r="BL4" s="94"/>
+      <c r="BM4" s="94"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="94"/>
+      <c r="BP4" s="94"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="93">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="82"/>
-      <c r="BY4" s="80">
+      <c r="BS4" s="94"/>
+      <c r="BT4" s="94"/>
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="94"/>
+      <c r="BW4" s="94"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="93">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="82"/>
+      <c r="BZ4" s="94"/>
+      <c r="CA4" s="94"/>
+      <c r="CB4" s="94"/>
+      <c r="CC4" s="94"/>
+      <c r="CD4" s="94"/>
+      <c r="CE4" s="95"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
@@ -4266,7 +2315,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -4576,7 +2625,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="32"/>
@@ -4661,7 +2710,7 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -4748,7 +2797,7 @@
       <c r="CD7" s="69"/>
       <c r="CE7" s="69"/>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -4770,15 +2819,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -4842,7 +2891,7 @@
       <c r="CD8" s="39"/>
       <c r="CE8" s="39"/>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>12</v>
@@ -4936,7 +2985,7 @@
       <c r="CD9" s="39"/>
       <c r="CE9" s="39"/>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="7"/>
       <c r="B10" s="46" t="s">
         <v>6</v>
@@ -5023,7 +3072,7 @@
       <c r="CD10" s="69"/>
       <c r="CE10" s="69"/>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
@@ -5114,7 +3163,7 @@
       <c r="CD11" s="39"/>
       <c r="CE11" s="39"/>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="50" t="s">
         <v>14</v>
@@ -5205,7 +3254,7 @@
       <c r="CD12" s="39"/>
       <c r="CE12" s="39"/>
     </row>
-    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -5296,7 +3345,7 @@
       <c r="CD13" s="39"/>
       <c r="CE13" s="39"/>
     </row>
-    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="50" t="s">
         <v>16</v>
@@ -5387,7 +3436,7 @@
       <c r="CD14" s="39"/>
       <c r="CE14" s="39"/>
     </row>
-    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="50" t="s">
         <v>17</v>
@@ -5478,7 +3527,7 @@
       <c r="CD15" s="39"/>
       <c r="CE15" s="39"/>
     </row>
-    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="50" t="s">
         <v>18</v>
@@ -5518,12 +3567,12 @@
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
       <c r="AE16" s="34"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="91"/>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
@@ -5571,19 +3620,21 @@
       <c r="CD16" s="39"/>
       <c r="CE16" s="39"/>
     </row>
-    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="51" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="52">
         <v>45220</v>
       </c>
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -5662,7 +3713,7 @@
       <c r="CD17" s="39"/>
       <c r="CE17" s="39"/>
     </row>
-    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -5670,7 +3721,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -5749,7 +3800,7 @@
       <c r="CD18" s="74"/>
       <c r="CE18" s="75"/>
     </row>
-    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -5842,7 +3893,7 @@
       <c r="CD19" s="39"/>
       <c r="CE19" s="39"/>
     </row>
-    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="57" t="s">
         <v>48</v>
@@ -5933,7 +3984,7 @@
       <c r="CD20" s="39"/>
       <c r="CE20" s="39"/>
     </row>
-    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="57" t="s">
         <v>52</v>
@@ -6024,7 +4075,7 @@
       <c r="CD21" s="39"/>
       <c r="CE21" s="39"/>
     </row>
-    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="57" t="s">
         <v>20</v>
@@ -6115,7 +4166,7 @@
       <c r="CD22" s="39"/>
       <c r="CE22" s="39"/>
     </row>
-    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="57" t="s">
         <v>49</v>
@@ -6206,7 +4257,7 @@
       <c r="CD23" s="39"/>
       <c r="CE23" s="39"/>
     </row>
-    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="57" t="s">
         <v>50</v>
@@ -6297,7 +4348,7 @@
       <c r="CD24" s="39"/>
       <c r="CE24" s="39"/>
     </row>
-    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="60" t="s">
         <v>34</v>
@@ -6346,12 +4397,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="95"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="91"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -6390,7 +4441,7 @@
       <c r="CD25" s="39"/>
       <c r="CE25" s="39"/>
     </row>
-    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="60" t="s">
         <v>35</v>
@@ -6440,12 +4491,12 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="93"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="95"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="91"/>
       <c r="AV26" s="39"/>
       <c r="AW26" s="34"/>
       <c r="AX26" s="34"/>
@@ -6483,7 +4534,7 @@
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
     </row>
-    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="57" t="s">
         <v>36</v>
@@ -6534,12 +4585,12 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="93"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="95"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="91"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
       <c r="AY27" s="34"/>
@@ -6576,7 +4627,7 @@
       <c r="CD27" s="39"/>
       <c r="CE27" s="39"/>
     </row>
-    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="57" t="s">
         <v>37</v>
@@ -6667,7 +4718,7 @@
       <c r="CD28" s="39"/>
       <c r="CE28" s="39"/>
     </row>
-    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="57" t="s">
         <v>51</v>
@@ -6720,12 +4771,12 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="93"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="94"/>
-      <c r="AX29" s="95"/>
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="91"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
       <c r="BA29" s="34"/>
@@ -6760,7 +4811,7 @@
       <c r="CD29" s="39"/>
       <c r="CE29" s="39"/>
     </row>
-    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="57" t="s">
         <v>38</v>
@@ -6851,7 +4902,7 @@
       <c r="CD30" s="39"/>
       <c r="CE30" s="39"/>
     </row>
-    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="57" t="s">
         <v>39</v>
@@ -6942,19 +4993,21 @@
       <c r="CD31" s="39"/>
       <c r="CE31" s="39"/>
     </row>
-    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
       <c r="B32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="58"/>
+      <c r="C32" s="58" t="s">
+        <v>26</v>
+      </c>
       <c r="D32" s="59">
         <v>45235</v>
       </c>
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -7033,7 +5086,7 @@
       <c r="CD32" s="39"/>
       <c r="CE32" s="39"/>
     </row>
-    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="7"/>
       <c r="B33" s="61" t="s">
         <v>7</v>
@@ -7041,7 +5094,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="90"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -7120,7 +5173,7 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="74"/>
     </row>
-    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
       <c r="B34" s="65" t="s">
         <v>21</v>
@@ -7132,7 +5185,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="90"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -7211,7 +5264,7 @@
       <c r="CD34" s="39"/>
       <c r="CE34" s="39"/>
     </row>
-    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="7"/>
       <c r="B35" s="65" t="s">
         <v>22</v>
@@ -7302,7 +5355,7 @@
       <c r="CD35" s="39"/>
       <c r="CE35" s="39"/>
     </row>
-    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="7"/>
       <c r="B36" s="65" t="s">
         <v>23</v>
@@ -7393,7 +5446,7 @@
       <c r="CD36" s="39"/>
       <c r="CE36" s="39"/>
     </row>
-    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="7"/>
       <c r="B37" s="65" t="s">
         <v>24</v>
@@ -7484,7 +5537,7 @@
       <c r="CD37" s="39"/>
       <c r="CE37" s="39"/>
     </row>
-    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="7"/>
       <c r="B38" s="65" t="s">
         <v>41</v>
@@ -7575,7 +5628,7 @@
       <c r="CD38" s="39"/>
       <c r="CE38" s="39"/>
     </row>
-    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="7"/>
       <c r="B39" s="65" t="s">
         <v>42</v>
@@ -7666,7 +5719,7 @@
       <c r="CD39" s="39"/>
       <c r="CE39" s="39"/>
     </row>
-    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="7"/>
       <c r="B40" s="65" t="s">
         <v>43</v>
@@ -7757,7 +5810,7 @@
       <c r="CD40" s="39"/>
       <c r="CE40" s="39"/>
     </row>
-    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="7"/>
       <c r="B41" s="65" t="s">
         <v>25</v>
@@ -7819,21 +5872,21 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="96"/>
-      <c r="BC41" s="97"/>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97"/>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97"/>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97"/>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="97"/>
-      <c r="BM41" s="97"/>
-      <c r="BN41" s="97"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="95"/>
+      <c r="BB41" s="80"/>
+      <c r="BC41" s="81"/>
+      <c r="BD41" s="81"/>
+      <c r="BE41" s="81"/>
+      <c r="BF41" s="81"/>
+      <c r="BG41" s="81"/>
+      <c r="BH41" s="81"/>
+      <c r="BI41" s="81"/>
+      <c r="BJ41" s="81"/>
+      <c r="BK41" s="81"/>
+      <c r="BL41" s="81"/>
+      <c r="BM41" s="81"/>
+      <c r="BN41" s="81"/>
+      <c r="BO41" s="90"/>
+      <c r="BP41" s="91"/>
       <c r="BQ41" s="39"/>
       <c r="BR41" s="34"/>
       <c r="BS41" s="34"/>
@@ -7850,7 +5903,7 @@
       <c r="CD41" s="39"/>
       <c r="CE41" s="39"/>
     </row>
-    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="65" t="s">
         <v>44</v>
@@ -7941,7 +5994,7 @@
       <c r="CD42" s="39"/>
       <c r="CE42" s="39"/>
     </row>
-    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="7"/>
       <c r="B43" s="65" t="s">
         <v>45</v>
@@ -8032,7 +6085,7 @@
       <c r="CD43" s="39"/>
       <c r="CE43" s="39"/>
     </row>
-    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="7"/>
       <c r="B44" s="76" t="s">
         <v>10</v>
@@ -8041,93 +6094,107 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="89"/>
-      <c r="AJ44" s="89"/>
-      <c r="AK44" s="89"/>
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="89"/>
-      <c r="AO44" s="89"/>
-      <c r="AP44" s="89"/>
-      <c r="AQ44" s="89"/>
-      <c r="AR44" s="89"/>
-      <c r="AS44" s="89"/>
-      <c r="AT44" s="89"/>
-      <c r="AU44" s="89"/>
-      <c r="AV44" s="89"/>
-      <c r="AW44" s="89"/>
-      <c r="AX44" s="89"/>
-      <c r="AY44" s="89"/>
-      <c r="AZ44" s="89"/>
-      <c r="BA44" s="89"/>
-      <c r="BB44" s="89"/>
-      <c r="BC44" s="89"/>
-      <c r="BD44" s="89"/>
-      <c r="BE44" s="89"/>
-      <c r="BF44" s="89"/>
-      <c r="BG44" s="89"/>
-      <c r="BH44" s="89"/>
-      <c r="BI44" s="89"/>
-      <c r="BJ44" s="89"/>
-      <c r="BK44" s="89"/>
-      <c r="BL44" s="89"/>
-      <c r="BM44" s="89"/>
-      <c r="BN44" s="89"/>
-      <c r="BO44" s="89"/>
-      <c r="BP44" s="89"/>
-      <c r="BQ44" s="89"/>
-      <c r="BR44" s="89"/>
-      <c r="BS44" s="89"/>
-      <c r="BT44" s="89"/>
-      <c r="BU44" s="89"/>
-      <c r="BV44" s="89"/>
-      <c r="BW44" s="89"/>
-      <c r="BX44" s="89"/>
-      <c r="BY44" s="89"/>
-      <c r="BZ44" s="89"/>
-      <c r="CA44" s="89"/>
-      <c r="CB44" s="89"/>
-      <c r="CC44" s="89"/>
-      <c r="CD44" s="89"/>
-      <c r="CE44" s="89"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="85"/>
+      <c r="AM44" s="85"/>
+      <c r="AN44" s="85"/>
+      <c r="AO44" s="85"/>
+      <c r="AP44" s="85"/>
+      <c r="AQ44" s="85"/>
+      <c r="AR44" s="85"/>
+      <c r="AS44" s="85"/>
+      <c r="AT44" s="85"/>
+      <c r="AU44" s="85"/>
+      <c r="AV44" s="85"/>
+      <c r="AW44" s="85"/>
+      <c r="AX44" s="85"/>
+      <c r="AY44" s="85"/>
+      <c r="AZ44" s="85"/>
+      <c r="BA44" s="85"/>
+      <c r="BB44" s="85"/>
+      <c r="BC44" s="85"/>
+      <c r="BD44" s="85"/>
+      <c r="BE44" s="85"/>
+      <c r="BF44" s="85"/>
+      <c r="BG44" s="85"/>
+      <c r="BH44" s="85"/>
+      <c r="BI44" s="85"/>
+      <c r="BJ44" s="85"/>
+      <c r="BK44" s="85"/>
+      <c r="BL44" s="85"/>
+      <c r="BM44" s="85"/>
+      <c r="BN44" s="85"/>
+      <c r="BO44" s="85"/>
+      <c r="BP44" s="85"/>
+      <c r="BQ44" s="85"/>
+      <c r="BR44" s="85"/>
+      <c r="BS44" s="85"/>
+      <c r="BT44" s="85"/>
+      <c r="BU44" s="85"/>
+      <c r="BV44" s="85"/>
+      <c r="BW44" s="85"/>
+      <c r="BX44" s="85"/>
+      <c r="BY44" s="85"/>
+      <c r="BZ44" s="85"/>
+      <c r="CA44" s="85"/>
+      <c r="CB44" s="85"/>
+      <c r="CC44" s="85"/>
+      <c r="CD44" s="85"/>
+      <c r="CE44" s="85"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:83" ht="30" customHeight="1">
       <c r="C46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" ht="30" customHeight="1">
       <c r="C47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
@@ -8139,187 +6206,173 @@
     <mergeCell ref="AQ27:AV27"/>
     <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="BO41:BP41"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="233" priority="152">
+    <cfRule type="expression" dxfId="38" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
-    <cfRule type="expression" dxfId="232" priority="146">
+    <cfRule type="expression" dxfId="37" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="230" priority="154">
+    <cfRule type="expression" dxfId="35" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="229" priority="157">
+    <cfRule type="expression" dxfId="34" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="227" priority="103">
+    <cfRule type="expression" dxfId="32" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="226" priority="101">
+    <cfRule type="expression" dxfId="31" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="224" priority="97">
+    <cfRule type="expression" dxfId="29" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="223" priority="95">
+    <cfRule type="expression" dxfId="28" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="221" priority="73">
+    <cfRule type="expression" dxfId="26" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="220" priority="71">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="218" priority="61">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="217" priority="59">
+    <cfRule type="expression" dxfId="22" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="215" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="214" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="212" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="209" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="208" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="206" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="205" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="203" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="202" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="199" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="197" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="196" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB8BD5-1893-48FA-A222-CD5366414C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -18,9 +19,9 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -131,9 +135,6 @@
     <t>Durucz Ádám</t>
   </si>
   <si>
-    <t>Juhász Ferenc Nati</t>
-  </si>
-  <si>
     <t>Kiss Csaba</t>
   </si>
   <si>
@@ -199,11 +200,14 @@
   <si>
     <t>Pszichológus oldal</t>
   </si>
+  <si>
+    <t>Juhász Ferenc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
@@ -212,7 +216,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="169" formatCode="\ yyyy/\ mmm/\ d/"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,16 +1023,16 @@
     <cellStyle name="Címsor 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="7" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Ezres" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (5)" xfId="13" builtinId="45"/>
-    <cellStyle name="Name" xfId="10"/>
+    <cellStyle name="Jelölőszín 5" xfId="13" builtinId="45"/>
+    <cellStyle name="Name" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Semleges" xfId="12" builtinId="28"/>
-    <cellStyle name="Task" xfId="11"/>
-    <cellStyle name="zHiddenText" xfId="2"/>
+    <cellStyle name="Task" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="48">
     <dxf>
@@ -1516,7 +1520,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="47"/>
       <tableStyleElement type="headerRow" dxfId="46"/>
       <tableStyleElement type="totalRow" dxfId="45"/>
@@ -1874,38 +1878,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE31" sqref="BE31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="83" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="83" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
@@ -1964,7 +1968,7 @@
       <c r="AU1" s="18"/>
       <c r="AV1" s="13"/>
       <c r="AW1" s="12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AX1" s="12"/>
       <c r="AY1" s="12"/>
@@ -1974,7 +1978,7 @@
       <c r="BC1" s="19"/>
       <c r="BD1" s="13"/>
       <c r="BE1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BF1" s="12"/>
       <c r="BG1" s="12"/>
@@ -1984,7 +1988,7 @@
       <c r="BK1" s="20"/>
       <c r="BL1" s="13"/>
       <c r="BM1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BN1" s="12"/>
       <c r="BO1" s="12"/>
@@ -2007,10 +2011,10 @@
       <c r="CD1" s="12"/>
       <c r="CE1" s="12"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="92" t="s">
@@ -2096,7 +2100,7 @@
       <c r="CD2" s="12"/>
       <c r="CE2" s="12"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
@@ -2183,7 +2187,7 @@
       <c r="CD3" s="12"/>
       <c r="CE3" s="12"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2301,7 +2305,7 @@
       <c r="CD4" s="94"/>
       <c r="CE4" s="95"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
@@ -2625,7 +2629,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="32"/>
@@ -2710,7 +2714,7 @@
       <c r="CD6" s="34"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -2797,7 +2801,7 @@
       <c r="CD7" s="69"/>
       <c r="CE7" s="69"/>
     </row>
-    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="40" t="s">
         <v>11</v>
@@ -2891,7 +2895,7 @@
       <c r="CD8" s="39"/>
       <c r="CE8" s="39"/>
     </row>
-    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="40" t="s">
         <v>12</v>
@@ -2985,7 +2989,7 @@
       <c r="CD9" s="39"/>
       <c r="CE9" s="39"/>
     </row>
-    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="46" t="s">
         <v>6</v>
@@ -3072,7 +3076,7 @@
       <c r="CD10" s="69"/>
       <c r="CE10" s="69"/>
     </row>
-    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="50" t="s">
         <v>13</v>
@@ -3163,7 +3167,7 @@
       <c r="CD11" s="39"/>
       <c r="CE11" s="39"/>
     </row>
-    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="50" t="s">
         <v>14</v>
@@ -3254,7 +3258,7 @@
       <c r="CD12" s="39"/>
       <c r="CE12" s="39"/>
     </row>
-    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="50" t="s">
         <v>15</v>
@@ -3345,7 +3349,7 @@
       <c r="CD13" s="39"/>
       <c r="CE13" s="39"/>
     </row>
-    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="50" t="s">
         <v>16</v>
@@ -3436,7 +3440,7 @@
       <c r="CD14" s="39"/>
       <c r="CE14" s="39"/>
     </row>
-    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="50" t="s">
         <v>17</v>
@@ -3527,7 +3531,7 @@
       <c r="CD15" s="39"/>
       <c r="CE15" s="39"/>
     </row>
-    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="50" t="s">
         <v>18</v>
@@ -3620,7 +3624,7 @@
       <c r="CD16" s="39"/>
       <c r="CE16" s="39"/>
     </row>
-    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="50" t="s">
         <v>19</v>
@@ -3713,7 +3717,7 @@
       <c r="CD17" s="39"/>
       <c r="CE17" s="39"/>
     </row>
-    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="53" t="s">
         <v>9</v>
@@ -3800,12 +3804,12 @@
       <c r="CD18" s="74"/>
       <c r="CE18" s="75"/>
     </row>
-    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>1</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="59">
@@ -3893,10 +3897,10 @@
       <c r="CD19" s="39"/>
       <c r="CE19" s="39"/>
     </row>
-    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="59">
@@ -3984,12 +3988,14 @@
       <c r="CD20" s="39"/>
       <c r="CE20" s="39"/>
     </row>
-    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="58"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" s="59">
         <v>45224</v>
       </c>
@@ -4027,12 +4033,12 @@
       <c r="AH21" s="39"/>
       <c r="AI21" s="34"/>
       <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="34"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
       <c r="AQ21" s="34"/>
       <c r="AR21" s="34"/>
       <c r="AS21" s="34"/>
@@ -4075,7 +4081,7 @@
       <c r="CD21" s="39"/>
       <c r="CE21" s="39"/>
     </row>
-    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="57" t="s">
         <v>20</v>
@@ -4166,10 +4172,10 @@
       <c r="CD22" s="39"/>
       <c r="CE22" s="39"/>
     </row>
-    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="59">
@@ -4257,12 +4263,14 @@
       <c r="CD23" s="39"/>
       <c r="CE23" s="39"/>
     </row>
-    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="24" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="58"/>
+        <v>49</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" s="59">
         <v>45227</v>
       </c>
@@ -4303,12 +4311,12 @@
       <c r="AK24" s="34"/>
       <c r="AL24" s="34"/>
       <c r="AM24" s="34"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
       <c r="AT24" s="34"/>
       <c r="AU24" s="39"/>
       <c r="AV24" s="39"/>
@@ -4348,10 +4356,10 @@
       <c r="CD24" s="39"/>
       <c r="CE24" s="39"/>
     </row>
-    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>28</v>
@@ -4441,10 +4449,10 @@
       <c r="CD25" s="39"/>
       <c r="CE25" s="39"/>
     </row>
-    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>28</v>
@@ -4534,10 +4542,10 @@
       <c r="CD26" s="39"/>
       <c r="CE26" s="39"/>
     </row>
-    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="58" t="s">
         <v>28</v>
@@ -4627,10 +4635,10 @@
       <c r="CD27" s="39"/>
       <c r="CE27" s="39"/>
     </row>
-    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="59">
@@ -4718,10 +4726,10 @@
       <c r="CD28" s="39"/>
       <c r="CE28" s="39"/>
     </row>
-    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>28</v>
@@ -4811,10 +4819,10 @@
       <c r="CD29" s="39"/>
       <c r="CE29" s="39"/>
     </row>
-    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="59">
@@ -4902,10 +4910,10 @@
       <c r="CD30" s="39"/>
       <c r="CE30" s="39"/>
     </row>
-    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="58"/>
       <c r="D31" s="59">
@@ -4993,10 +5001,10 @@
       <c r="CD31" s="39"/>
       <c r="CE31" s="39"/>
     </row>
-    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>26</v>
@@ -5086,7 +5094,7 @@
       <c r="CD32" s="39"/>
       <c r="CE32" s="39"/>
     </row>
-    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="61" t="s">
         <v>7</v>
@@ -5173,12 +5181,14 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="74"/>
     </row>
-    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="66"/>
+      <c r="C34" s="66" t="s">
+        <v>53</v>
+      </c>
       <c r="D34" s="67">
         <v>45241</v>
       </c>
@@ -5233,10 +5243,10 @@
       <c r="AY34" s="34"/>
       <c r="AZ34" s="34"/>
       <c r="BA34" s="34"/>
-      <c r="BB34" s="39"/>
-      <c r="BC34" s="39"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
       <c r="BF34" s="34"/>
       <c r="BG34" s="34"/>
       <c r="BH34" s="34"/>
@@ -5264,12 +5274,14 @@
       <c r="CD34" s="39"/>
       <c r="CE34" s="39"/>
     </row>
-    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="66" t="s">
+        <v>53</v>
+      </c>
       <c r="D35" s="67">
         <v>45245</v>
       </c>
@@ -5328,11 +5340,11 @@
       <c r="BC35" s="39"/>
       <c r="BD35" s="34"/>
       <c r="BE35" s="34"/>
-      <c r="BF35" s="34"/>
-      <c r="BG35" s="34"/>
-      <c r="BH35" s="34"/>
-      <c r="BI35" s="39"/>
-      <c r="BJ35" s="39"/>
+      <c r="BF35" s="19"/>
+      <c r="BG35" s="19"/>
+      <c r="BH35" s="19"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="19"/>
       <c r="BK35" s="34"/>
       <c r="BL35" s="34"/>
       <c r="BM35" s="34"/>
@@ -5355,7 +5367,7 @@
       <c r="CD35" s="39"/>
       <c r="CE35" s="39"/>
     </row>
-    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="65" t="s">
         <v>23</v>
@@ -5446,7 +5458,7 @@
       <c r="CD36" s="39"/>
       <c r="CE36" s="39"/>
     </row>
-    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="65" t="s">
         <v>24</v>
@@ -5537,10 +5549,10 @@
       <c r="CD37" s="39"/>
       <c r="CE37" s="39"/>
     </row>
-    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="66"/>
       <c r="D38" s="67">
@@ -5628,10 +5640,10 @@
       <c r="CD38" s="39"/>
       <c r="CE38" s="39"/>
     </row>
-    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="66"/>
       <c r="D39" s="67">
@@ -5719,10 +5731,10 @@
       <c r="CD39" s="39"/>
       <c r="CE39" s="39"/>
     </row>
-    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="66"/>
       <c r="D40" s="67">
@@ -5810,7 +5822,7 @@
       <c r="CD40" s="39"/>
       <c r="CE40" s="39"/>
     </row>
-    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="65" t="s">
         <v>25</v>
@@ -5903,10 +5915,10 @@
       <c r="CD41" s="39"/>
       <c r="CE41" s="39"/>
     </row>
-    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="66"/>
       <c r="D42" s="67">
@@ -5994,10 +6006,10 @@
       <c r="CD42" s="39"/>
       <c r="CE42" s="39"/>
     </row>
-    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="66"/>
       <c r="D43" s="67">
@@ -6085,7 +6097,7 @@
       <c r="CD43" s="39"/>
       <c r="CE43" s="39"/>
     </row>
-    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:83" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="76" t="s">
         <v>10</v>
@@ -6172,11 +6184,11 @@
       <c r="CD44" s="85"/>
       <c r="CE44" s="85"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1">
+    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
     </row>
   </sheetData>
@@ -6207,12 +6219,12 @@
     <mergeCell ref="AS29:AX29"/>
     <mergeCell ref="BO41:BP41"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW36:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35">
     <cfRule type="expression" dxfId="38" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW34:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE24 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW36:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35">
     <cfRule type="expression" dxfId="37" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB8BD5-1893-48FA-A222-CD5366414C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DB72A-F00C-4B28-9B79-D81A2B6A9849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -389,7 +389,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7A5C9A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +768,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -963,20 +969,26 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,23 +1011,14 @@
     <xf numFmtId="0" fontId="14" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1034,7 +1037,2347 @@
     <cellStyle name="Task" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="282">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1521,15 +3864,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="47"/>
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="totalRow" dxfId="45"/>
-      <tableStyleElement type="firstColumn" dxfId="44"/>
-      <tableStyleElement type="lastColumn" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="281"/>
+      <tableStyleElement type="headerRow" dxfId="280"/>
+      <tableStyleElement type="totalRow" dxfId="279"/>
+      <tableStyleElement type="firstColumn" dxfId="278"/>
+      <tableStyleElement type="lastColumn" dxfId="277"/>
+      <tableStyleElement type="firstRowStripe" dxfId="276"/>
+      <tableStyleElement type="secondRowStripe" dxfId="275"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="274"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="273"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1600,6 +3943,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF7A5C9A"/>
       <color rgb="FFFFFF85"/>
       <color rgb="FFB1A0C7"/>
       <color rgb="FF4A6F9C"/>
@@ -1609,7 +3953,6 @@
       <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
-      <color rgb="FF3969AD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1891,16 +4234,16 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE31" sqref="BE31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN35" sqref="BN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="83" width="2.5546875" customWidth="1"/>
@@ -2017,10 +4360,10 @@
         <v>45</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="92"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="11"/>
       <c r="G2" s="25"/>
       <c r="H2" s="12"/>
@@ -2104,10 +4447,10 @@
       <c r="A3" s="23"/>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="92">
+      <c r="D3" s="84">
         <v>45197</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2193,117 +4536,117 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="93">
+      <c r="F4" s="85"/>
+      <c r="G4" s="81">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="93">
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="81">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="93">
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="81">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="93">
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="81">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="93">
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="81">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="93">
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="81">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="93">
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="81">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="93">
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="81">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="94"/>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="93">
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="81">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="94"/>
-      <c r="BM4" s="94"/>
-      <c r="BN4" s="94"/>
-      <c r="BO4" s="94"/>
-      <c r="BP4" s="94"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="93">
+      <c r="BL4" s="82"/>
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="82"/>
+      <c r="BP4" s="82"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="81">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="94"/>
-      <c r="BT4" s="94"/>
-      <c r="BU4" s="94"/>
-      <c r="BV4" s="94"/>
-      <c r="BW4" s="94"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="93">
+      <c r="BS4" s="82"/>
+      <c r="BT4" s="82"/>
+      <c r="BU4" s="82"/>
+      <c r="BV4" s="82"/>
+      <c r="BW4" s="82"/>
+      <c r="BX4" s="83"/>
+      <c r="BY4" s="81">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="94"/>
-      <c r="CA4" s="94"/>
-      <c r="CB4" s="94"/>
-      <c r="CC4" s="94"/>
-      <c r="CD4" s="94"/>
-      <c r="CE4" s="95"/>
+      <c r="BZ4" s="82"/>
+      <c r="CA4" s="82"/>
+      <c r="CB4" s="82"/>
+      <c r="CC4" s="82"/>
+      <c r="CD4" s="82"/>
+      <c r="CE4" s="83"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
@@ -2319,7 +4662,7 @@
       <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="29">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2813,8 +5156,8 @@
         <v>45197</v>
       </c>
       <c r="E8" s="42">
-        <f>D8+5</f>
-        <v>45202</v>
+        <f>D8+10</f>
+        <v>45207</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="43"/>
@@ -2823,15 +5166,15 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -3540,10 +5883,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="52">
-        <v>45219</v>
+        <v>45217</v>
       </c>
       <c r="E16" s="52">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="34"/>
@@ -3569,15 +5912,15 @@
       <c r="AA16" s="39"/>
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="34"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
       <c r="AM16" s="34"/>
       <c r="AN16" s="39"/>
       <c r="AO16" s="39"/>
@@ -3638,7 +5981,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -3725,7 +6068,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -4361,9 +6704,7 @@
       <c r="B25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="58"/>
       <c r="D25" s="59">
         <v>45228</v>
       </c>
@@ -4405,12 +6746,12 @@
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="39"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="91"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="96"/>
       <c r="AU25" s="39"/>
       <c r="AV25" s="39"/>
       <c r="AW25" s="34"/>
@@ -4461,7 +6802,7 @@
         <v>45229</v>
       </c>
       <c r="E26" s="59">
-        <v>45234</v>
+        <v>45238</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="34"/>
@@ -4499,16 +6840,16 @@
       <c r="AM26" s="34"/>
       <c r="AN26" s="39"/>
       <c r="AO26" s="39"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="34"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="92"/>
+      <c r="AS26" s="92"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="92"/>
+      <c r="AV26" s="92"/>
+      <c r="AW26" s="92"/>
+      <c r="AX26" s="92"/>
+      <c r="AY26" s="93"/>
       <c r="AZ26" s="34"/>
       <c r="BA26" s="34"/>
       <c r="BB26" s="39"/>
@@ -4551,10 +6892,10 @@
         <v>28</v>
       </c>
       <c r="D27" s="59">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="E27" s="59">
-        <v>45235</v>
+        <v>45250</v>
       </c>
       <c r="F27" s="73"/>
       <c r="G27" s="34"/>
@@ -4593,27 +6934,27 @@
       <c r="AN27" s="39"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="34"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="91"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
       <c r="AW27" s="34"/>
       <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="39"/>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="34"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="92"/>
+      <c r="BA27" s="92"/>
+      <c r="BB27" s="92"/>
+      <c r="BC27" s="92"/>
+      <c r="BD27" s="92"/>
+      <c r="BE27" s="92"/>
+      <c r="BF27" s="92"/>
+      <c r="BG27" s="92"/>
+      <c r="BH27" s="92"/>
+      <c r="BI27" s="92"/>
+      <c r="BJ27" s="92"/>
+      <c r="BK27" s="93"/>
       <c r="BL27" s="34"/>
       <c r="BM27" s="34"/>
       <c r="BN27" s="34"/>
@@ -4735,10 +7076,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="59">
-        <v>45232</v>
+        <v>45240</v>
       </c>
       <c r="E29" s="59">
-        <v>45237</v>
+        <v>45252</v>
       </c>
       <c r="F29" s="73"/>
       <c r="G29" s="34"/>
@@ -4779,27 +7120,27 @@
       <c r="AP29" s="34"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="34"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="91"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
       <c r="AY29" s="34"/>
       <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="39"/>
-      <c r="BC29" s="39"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
-      <c r="BG29" s="34"/>
-      <c r="BH29" s="34"/>
-      <c r="BI29" s="39"/>
-      <c r="BJ29" s="39"/>
-      <c r="BK29" s="34"/>
-      <c r="BL29" s="34"/>
-      <c r="BM29" s="34"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="92"/>
+      <c r="BC29" s="92"/>
+      <c r="BD29" s="92"/>
+      <c r="BE29" s="92"/>
+      <c r="BF29" s="92"/>
+      <c r="BG29" s="92"/>
+      <c r="BH29" s="92"/>
+      <c r="BI29" s="92"/>
+      <c r="BJ29" s="92"/>
+      <c r="BK29" s="92"/>
+      <c r="BL29" s="92"/>
+      <c r="BM29" s="93"/>
       <c r="BN29" s="34"/>
       <c r="BO29" s="34"/>
       <c r="BP29" s="39"/>
@@ -5015,7 +7356,7 @@
       <c r="E32" s="59">
         <v>45240</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -5102,7 +7443,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="86"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5195,7 +7536,7 @@
       <c r="E34" s="67">
         <v>45244</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
@@ -5831,10 +8172,10 @@
         <v>28</v>
       </c>
       <c r="D41" s="67">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="E41" s="67">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="F41" s="71"/>
       <c r="G41" s="34"/>
@@ -5884,24 +8225,24 @@
       <c r="AY41" s="34"/>
       <c r="AZ41" s="34"/>
       <c r="BA41" s="34"/>
-      <c r="BB41" s="80"/>
-      <c r="BC41" s="81"/>
-      <c r="BD41" s="81"/>
-      <c r="BE41" s="81"/>
-      <c r="BF41" s="81"/>
-      <c r="BG41" s="81"/>
-      <c r="BH41" s="81"/>
-      <c r="BI41" s="81"/>
-      <c r="BJ41" s="81"/>
-      <c r="BK41" s="81"/>
-      <c r="BL41" s="81"/>
-      <c r="BM41" s="81"/>
-      <c r="BN41" s="81"/>
-      <c r="BO41" s="90"/>
-      <c r="BP41" s="91"/>
-      <c r="BQ41" s="39"/>
-      <c r="BR41" s="34"/>
-      <c r="BS41" s="34"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="34"/>
+      <c r="BE41" s="34"/>
+      <c r="BF41" s="34"/>
+      <c r="BG41" s="34"/>
+      <c r="BH41" s="34"/>
+      <c r="BI41" s="39"/>
+      <c r="BJ41" s="39"/>
+      <c r="BK41" s="34"/>
+      <c r="BL41" s="34"/>
+      <c r="BM41" s="91"/>
+      <c r="BN41" s="92"/>
+      <c r="BO41" s="92"/>
+      <c r="BP41" s="92"/>
+      <c r="BQ41" s="92"/>
+      <c r="BR41" s="92"/>
+      <c r="BS41" s="93"/>
       <c r="BT41" s="34"/>
       <c r="BU41" s="34"/>
       <c r="BV41" s="34"/>
@@ -6106,83 +8447,83 @@
       <c r="D44" s="78"/>
       <c r="E44" s="79"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="85"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="85"/>
-      <c r="AK44" s="85"/>
-      <c r="AL44" s="85"/>
-      <c r="AM44" s="85"/>
-      <c r="AN44" s="85"/>
-      <c r="AO44" s="85"/>
-      <c r="AP44" s="85"/>
-      <c r="AQ44" s="85"/>
-      <c r="AR44" s="85"/>
-      <c r="AS44" s="85"/>
-      <c r="AT44" s="85"/>
-      <c r="AU44" s="85"/>
-      <c r="AV44" s="85"/>
-      <c r="AW44" s="85"/>
-      <c r="AX44" s="85"/>
-      <c r="AY44" s="85"/>
-      <c r="AZ44" s="85"/>
-      <c r="BA44" s="85"/>
-      <c r="BB44" s="85"/>
-      <c r="BC44" s="85"/>
-      <c r="BD44" s="85"/>
-      <c r="BE44" s="85"/>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="85"/>
-      <c r="BH44" s="85"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="85"/>
-      <c r="BL44" s="85"/>
-      <c r="BM44" s="85"/>
-      <c r="BN44" s="85"/>
-      <c r="BO44" s="85"/>
-      <c r="BP44" s="85"/>
-      <c r="BQ44" s="85"/>
-      <c r="BR44" s="85"/>
-      <c r="BS44" s="85"/>
-      <c r="BT44" s="85"/>
-      <c r="BU44" s="85"/>
-      <c r="BV44" s="85"/>
-      <c r="BW44" s="85"/>
-      <c r="BX44" s="85"/>
-      <c r="BY44" s="85"/>
-      <c r="BZ44" s="85"/>
-      <c r="CA44" s="85"/>
-      <c r="CB44" s="85"/>
-      <c r="CC44" s="85"/>
-      <c r="CD44" s="85"/>
-      <c r="CE44" s="85"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="87"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="87"/>
+      <c r="AG44" s="87"/>
+      <c r="AH44" s="87"/>
+      <c r="AI44" s="87"/>
+      <c r="AJ44" s="87"/>
+      <c r="AK44" s="87"/>
+      <c r="AL44" s="87"/>
+      <c r="AM44" s="87"/>
+      <c r="AN44" s="87"/>
+      <c r="AO44" s="87"/>
+      <c r="AP44" s="87"/>
+      <c r="AQ44" s="87"/>
+      <c r="AR44" s="87"/>
+      <c r="AS44" s="87"/>
+      <c r="AT44" s="87"/>
+      <c r="AU44" s="87"/>
+      <c r="AV44" s="87"/>
+      <c r="AW44" s="87"/>
+      <c r="AX44" s="87"/>
+      <c r="AY44" s="87"/>
+      <c r="AZ44" s="87"/>
+      <c r="BA44" s="87"/>
+      <c r="BB44" s="87"/>
+      <c r="BC44" s="87"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+      <c r="BF44" s="87"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="87"/>
+      <c r="BJ44" s="87"/>
+      <c r="BK44" s="87"/>
+      <c r="BL44" s="87"/>
+      <c r="BM44" s="87"/>
+      <c r="BN44" s="87"/>
+      <c r="BO44" s="87"/>
+      <c r="BP44" s="87"/>
+      <c r="BQ44" s="87"/>
+      <c r="BR44" s="87"/>
+      <c r="BS44" s="87"/>
+      <c r="BT44" s="87"/>
+      <c r="BU44" s="87"/>
+      <c r="BV44" s="87"/>
+      <c r="BW44" s="87"/>
+      <c r="BX44" s="87"/>
+      <c r="BY44" s="87"/>
+      <c r="BZ44" s="87"/>
+      <c r="CA44" s="87"/>
+      <c r="CB44" s="87"/>
+      <c r="CC44" s="87"/>
+      <c r="CD44" s="87"/>
+      <c r="CE44" s="87"/>
     </row>
     <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -6193,11 +8534,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="BM41:BS41"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AY27:BK27"/>
+    <mergeCell ref="BA29:BM29"/>
+    <mergeCell ref="M8:U8"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
@@ -6207,184 +8554,178 @@
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="AF16:AK16"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AU26"/>
-    <mergeCell ref="AQ27:AV27"/>
-    <mergeCell ref="AS29:AX29"/>
-    <mergeCell ref="BO41:BP41"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW36:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35">
-    <cfRule type="expression" dxfId="38" priority="152">
+  <conditionalFormatting sqref="G5:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AC16 AB17:AM17 AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AZ26:CE26 G30:CE32 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35 BL27:CE27 BN29:CE29 G27:AX27 G29:AZ29 AW36:BX40 AW42:BX43 AW41:BM41 BT41:BX41">
+    <cfRule type="expression" dxfId="272" priority="152">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 AW36:BX40 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AE16 AB17:AM17 AL16:AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AV26:CE26 G27:AP27 AW27:CE27 G30:CE32 G29:AR29 AY29:CE29 AW42:BX43 AW41:BB41 BQ41:BX41 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35">
-    <cfRule type="expression" dxfId="37" priority="146">
+  <conditionalFormatting sqref="G6:BW6 BY6:CD6 AI11:AM15 AP11:AT17 AW11:BA17 BD11:BH17 BK11:BO17 BR11:BV17 Z34:Z43 AP34:AT43 AB34:AM43 BY9:CC9 BR9:BV9 BK9:BO9 BD9:BH9 AI9:AM9 AB9:AF9 AP8:AT9 AW8:BA9 AB8:AM8 BD8:CE8 X8:Y9 AB11:AF15 U11:Y17 L34:M43 BW9:BX17 BP9:BQ17 BI9:BJ17 AG9:AH15 BB8:BC17 S10:T17 CD9:CE17 AN8:AO17 AU8:AV17 G19:CE20 S34:T43 CD34:CE43 AB16:AC16 AB17:AM17 AM16 G28:CE28 G25:AN25 AU25:CE25 G26:AO26 AZ26:CE26 G30:CE32 G22:CE23 G21:AJ21 AQ21:CE21 G24:AM24 AT24:CE24 AW34:BA34 BF34:BX34 AW35:BE35 BK35:BX35 BL27:CE27 BN29:CE29 G27:AX27 G29:AZ29 AW36:BX40 AW42:BX43 AW41:BM41 BT41:BX41">
+    <cfRule type="expression" dxfId="271" priority="146">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="147" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:CE5 BX5:BX6 CE6">
-    <cfRule type="expression" dxfId="35" priority="154">
+    <cfRule type="expression" dxfId="269" priority="154">
       <formula>AND(TODAY()&gt;=BX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX6 CE6">
-    <cfRule type="expression" dxfId="34" priority="157">
+    <cfRule type="expression" dxfId="268" priority="157">
       <formula>AND(task_start&lt;=BX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=BX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="32" priority="103">
+    <cfRule type="expression" dxfId="266" priority="103">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:CC10 U10:Y10 AB10:AF10 AI10:AM10 AP10:AT10 AW10:BA10 BD10:BH10 BK10:BO10 BR10:BV10 G10:R10">
-    <cfRule type="expression" dxfId="31" priority="101">
+    <cfRule type="expression" dxfId="265" priority="101">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="29" priority="97">
+    <cfRule type="expression" dxfId="263" priority="97">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:CC17 G11:R17">
-    <cfRule type="expression" dxfId="28" priority="95">
+    <cfRule type="expression" dxfId="262" priority="95">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="96" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="26" priority="73">
+    <cfRule type="expression" dxfId="260" priority="73">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K43 BZ34:CC43 U34:Y43 N34:R43">
-    <cfRule type="expression" dxfId="25" priority="71">
+    <cfRule type="expression" dxfId="259" priority="71">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="72" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="23" priority="61">
+    <cfRule type="expression" dxfId="257" priority="61">
       <formula>AND(TODAY()&gt;=Z$5,TODAY()&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA17">
-    <cfRule type="expression" dxfId="22" priority="59">
+    <cfRule type="expression" dxfId="256" priority="59">
       <formula>AND(task_start&lt;=Z$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Z$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=Z$5,task_start&lt;AA$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="254" priority="24">
       <formula>AND(TODAY()&gt;=AN$5,TODAY()&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN34:AO43">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="253" priority="22">
       <formula>AND(task_start&lt;=AN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=AN$5,task_start&lt;AO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="251" priority="21">
       <formula>AND(TODAY()&gt;=AU$5,TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU34:AV43">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="250" priority="19">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="248" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AA43 BY34:BY43">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="247" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="245" priority="15">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="244" priority="13">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8">
+    <cfRule type="expression" dxfId="242" priority="9">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8 P8:S8">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="N9:U9 V8:W8 G9:K9 G8">
+    <cfRule type="expression" dxfId="241" priority="7">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="239" priority="6">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 P8:R8">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="238" priority="4">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="236" priority="3">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9 N9:R9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="235" priority="1">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA21F56C-B170-44F9-821D-5F3DD6D5D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15066706-A613-4AC1-87A5-C72A0DD9F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -149,30 +149,6 @@
     <t>8.3.6. Cikk kezeléshez szükséges adatok létrehozása az adatbázisban</t>
   </si>
   <si>
-    <t>8.3.8. Teszt oldal kivitelezése</t>
-  </si>
-  <si>
-    <t>8.3.9. Bemutatkozó oldal</t>
-  </si>
-  <si>
-    <t>8.3.10. Páciensek lecke oldala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3.11. Email-es kiértesítés új időpontfoglalás esetén </t>
-  </si>
-  <si>
-    <t>8.3.12. Foglalt időpontok megjelenítése, kezdő és a vég időponttal együtt</t>
-  </si>
-  <si>
-    <t>8.3.13. Biztonsági mentés automatikus létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.14. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
-  </si>
-  <si>
-    <t>8.3.15. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Mérföldkő </t>
   </si>
   <si>
@@ -207,6 +183,33 @@
   </si>
   <si>
     <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
+  </si>
+  <si>
+    <t>8.3.7. Teszt oldal kivitelezése</t>
+  </si>
+  <si>
+    <t>8.3.8. Bemutatkozó oldal</t>
+  </si>
+  <si>
+    <t>8.3.9. Páciensek lecke oldala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3.10. Email-es kiértesítés új időpontfoglalás esetén </t>
+  </si>
+  <si>
+    <t>8.3.11. Foglalt időpontok megjelenítése, kezdő és a vég időponttal együtt</t>
+  </si>
+  <si>
+    <t>8.3.12. Biztonsági mentés automatikus létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.13. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
+  </si>
+  <si>
+    <t>8.3.14. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.3.15. A prototípus kitelepítése éles környezetbe</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -750,6 +753,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -772,7 +829,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,9 +970,6 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -973,6 +1027,39 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,37 +1087,28 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,12 +1506,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE47"/>
+  <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="BL41" sqref="BL41"/>
+      <selection pane="bottomLeft" activeCell="CE7" sqref="CE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,7 +1573,7 @@
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
-      <c r="AM1" s="79"/>
+      <c r="AM1" s="78"/>
       <c r="AN1" s="10"/>
       <c r="AO1" s="9" t="s">
         <v>5</v>
@@ -1557,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="97"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1644,10 +1722,10 @@
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="97">
+      <c r="D3" s="79">
         <v>45197</v>
       </c>
-      <c r="E3" s="97"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1733,117 +1811,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="95">
+      <c r="F4" s="80"/>
+      <c r="G4" s="81">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95">
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95">
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="81">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95">
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="81">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95">
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95">
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="81"/>
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="81"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="95"/>
-      <c r="BM4" s="95"/>
-      <c r="BN4" s="95"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="95"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="95">
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="81"/>
+      <c r="BO4" s="81"/>
+      <c r="BP4" s="81"/>
+      <c r="BQ4" s="81"/>
+      <c r="BR4" s="81">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="95"/>
-      <c r="BT4" s="95"/>
-      <c r="BU4" s="95"/>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="95">
+      <c r="BS4" s="81"/>
+      <c r="BT4" s="81"/>
+      <c r="BU4" s="81"/>
+      <c r="BV4" s="81"/>
+      <c r="BW4" s="81"/>
+      <c r="BX4" s="81"/>
+      <c r="BY4" s="81">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="95"/>
-      <c r="CA4" s="95"/>
-      <c r="CB4" s="95"/>
-      <c r="CC4" s="95"/>
-      <c r="CD4" s="95"/>
-      <c r="CE4" s="95"/>
+      <c r="BZ4" s="81"/>
+      <c r="CA4" s="81"/>
+      <c r="CB4" s="81"/>
+      <c r="CC4" s="81"/>
+      <c r="CD4" s="81"/>
+      <c r="CE4" s="81"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1859,7 +1937,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="98"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2339,7 +2417,7 @@
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
+      <c r="CE7" s="106"/>
     </row>
     <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -2363,15 +2441,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2614,7 +2692,7 @@
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
+      <c r="CE10" s="106"/>
     </row>
     <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -2651,15 +2729,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="82"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="92"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -3111,14 +3189,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
-      <c r="AK16" s="93"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="88"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="89"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3180,7 +3258,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3267,7 +3345,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3344,20 +3422,20 @@
       <c r="CB18" s="57"/>
       <c r="CC18" s="57"/>
       <c r="CD18" s="57"/>
-      <c r="CE18" s="58"/>
+      <c r="CE18" s="105"/>
     </row>
     <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60">
         <v>45222</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="60">
         <v>45227</v>
       </c>
       <c r="F19" s="41"/>
@@ -3441,17 +3519,17 @@
     </row>
     <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61">
+      <c r="C20" s="59"/>
+      <c r="D20" s="60">
         <v>45223</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="60">
         <v>45228</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -3532,19 +3610,19 @@
     </row>
     <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="60">
         <v>45224</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="60">
         <v>45229</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
@@ -3625,17 +3703,17 @@
     </row>
     <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61">
+      <c r="C22" s="59"/>
+      <c r="D22" s="60">
         <v>45225</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="60">
         <v>45230</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
@@ -3716,17 +3794,17 @@
     </row>
     <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61">
+      <c r="C23" s="59"/>
+      <c r="D23" s="60">
         <v>45226</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="60">
         <v>45231</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -3807,19 +3885,19 @@
     </row>
     <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="60">
         <v>45227</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="60">
         <v>45232</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
@@ -3900,17 +3978,17 @@
     </row>
     <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61">
+      <c r="B25" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60">
         <v>45228</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="60">
         <v>45233</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
@@ -3945,12 +4023,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="94"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
+      <c r="AO25" s="86"/>
+      <c r="AP25" s="86"/>
+      <c r="AQ25" s="86"/>
+      <c r="AR25" s="86"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="86"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -3991,19 +4069,19 @@
     </row>
     <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="60">
         <v>45229</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="60">
         <v>45238</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
@@ -4039,16 +4117,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4084,19 +4162,19 @@
     </row>
     <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
-      <c r="B27" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="60">
         <v>45235</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="60">
         <v>45245</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -4138,17 +4216,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="92"/>
-      <c r="AW27" s="99"/>
-      <c r="AX27" s="99"/>
-      <c r="AY27" s="99"/>
-      <c r="AZ27" s="99"/>
-      <c r="BA27" s="99"/>
-      <c r="BB27" s="99"/>
-      <c r="BC27" s="99"/>
-      <c r="BD27" s="99"/>
-      <c r="BE27" s="99"/>
-      <c r="BF27" s="93"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="88"/>
+      <c r="AY27" s="88"/>
+      <c r="AZ27" s="88"/>
+      <c r="BA27" s="88"/>
+      <c r="BB27" s="88"/>
+      <c r="BC27" s="88"/>
+      <c r="BD27" s="88"/>
+      <c r="BE27" s="88"/>
+      <c r="BF27" s="89"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4177,19 +4255,19 @@
     </row>
     <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="60">
         <v>45231</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="60">
         <v>45244</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
@@ -4227,20 +4305,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="84"/>
-      <c r="AT28" s="84"/>
-      <c r="AU28" s="84"/>
-      <c r="AV28" s="84"/>
-      <c r="AW28" s="84"/>
-      <c r="AX28" s="84"/>
-      <c r="AY28" s="84"/>
-      <c r="AZ28" s="84"/>
-      <c r="BA28" s="84"/>
-      <c r="BB28" s="84"/>
-      <c r="BC28" s="84"/>
-      <c r="BD28" s="84"/>
-      <c r="BE28" s="85"/>
+      <c r="AR28" s="93"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94"/>
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BA28" s="94"/>
+      <c r="BB28" s="94"/>
+      <c r="BC28" s="94"/>
+      <c r="BD28" s="94"/>
+      <c r="BE28" s="95"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4270,19 +4348,19 @@
     </row>
     <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
-      <c r="B29" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="60">
         <v>45232</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="60">
         <v>45242</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
@@ -4321,17 +4399,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="92"/>
-      <c r="AT29" s="99"/>
-      <c r="AU29" s="99"/>
-      <c r="AV29" s="99"/>
-      <c r="AW29" s="99"/>
-      <c r="AX29" s="99"/>
-      <c r="AY29" s="99"/>
-      <c r="AZ29" s="99"/>
-      <c r="BA29" s="99"/>
-      <c r="BB29" s="99"/>
-      <c r="BC29" s="93"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
+      <c r="BA29" s="88"/>
+      <c r="BB29" s="88"/>
+      <c r="BC29" s="89"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4363,19 +4441,19 @@
     </row>
     <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
-      <c r="B30" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="60">
         <v>45233</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="60">
         <v>45243</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
@@ -4415,17 +4493,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="84"/>
-      <c r="AV30" s="84"/>
-      <c r="AW30" s="84"/>
-      <c r="AX30" s="84"/>
-      <c r="AY30" s="84"/>
-      <c r="AZ30" s="84"/>
-      <c r="BA30" s="84"/>
-      <c r="BB30" s="84"/>
-      <c r="BC30" s="84"/>
-      <c r="BD30" s="85"/>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="94"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="94"/>
+      <c r="AX30" s="94"/>
+      <c r="AY30" s="94"/>
+      <c r="AZ30" s="94"/>
+      <c r="BA30" s="94"/>
+      <c r="BB30" s="94"/>
+      <c r="BC30" s="94"/>
+      <c r="BD30" s="95"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4456,17 +4534,17 @@
     </row>
     <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
-      <c r="B31" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61">
+      <c r="B31" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60">
         <v>45234</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="60">
         <v>45239</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
@@ -4545,294 +4623,288 @@
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
     </row>
-    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
-      <c r="B32" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="60" t="s">
+      <c r="B32" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="60">
         <v>45235</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="31"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="31"/>
-      <c r="BG32" s="31"/>
-      <c r="BH32" s="31"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="31"/>
-      <c r="BL32" s="31"/>
-      <c r="BM32" s="31"/>
-      <c r="BN32" s="31"/>
-      <c r="BO32" s="31"/>
-      <c r="BP32" s="44"/>
-      <c r="BQ32" s="44"/>
-      <c r="BR32" s="31"/>
-      <c r="BS32" s="31"/>
-      <c r="BT32" s="31"/>
-      <c r="BU32" s="31"/>
-      <c r="BV32" s="31"/>
-      <c r="BW32" s="44"/>
-      <c r="BX32" s="44"/>
-      <c r="BY32" s="31"/>
-      <c r="BZ32" s="31"/>
-      <c r="CA32" s="31"/>
-      <c r="CB32" s="31"/>
-      <c r="CC32" s="31"/>
-      <c r="CD32" s="44"/>
-      <c r="CE32" s="44"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="99"/>
+      <c r="AC32" s="99"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="99"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="99"/>
+      <c r="AS32" s="99"/>
+      <c r="AT32" s="99"/>
+      <c r="AU32" s="100"/>
+      <c r="AV32" s="100"/>
+      <c r="AW32" s="99"/>
+      <c r="AX32" s="99"/>
+      <c r="AY32" s="99"/>
+      <c r="AZ32" s="99"/>
+      <c r="BA32" s="99"/>
+      <c r="BB32" s="100"/>
+      <c r="BC32" s="100"/>
+      <c r="BD32" s="99"/>
+      <c r="BE32" s="99"/>
+      <c r="BF32" s="99"/>
+      <c r="BG32" s="99"/>
+      <c r="BH32" s="99"/>
+      <c r="BI32" s="100"/>
+      <c r="BJ32" s="100"/>
+      <c r="BK32" s="99"/>
+      <c r="BL32" s="99"/>
+      <c r="BM32" s="99"/>
+      <c r="BN32" s="99"/>
+      <c r="BO32" s="99"/>
+      <c r="BP32" s="100"/>
+      <c r="BQ32" s="100"/>
+      <c r="BR32" s="99"/>
+      <c r="BS32" s="99"/>
+      <c r="BT32" s="99"/>
+      <c r="BU32" s="99"/>
+      <c r="BV32" s="99"/>
+      <c r="BW32" s="100"/>
+      <c r="BX32" s="100"/>
+      <c r="BY32" s="99"/>
+      <c r="BZ32" s="99"/>
+      <c r="CA32" s="99"/>
+      <c r="CB32" s="99"/>
+      <c r="CC32" s="99"/>
+      <c r="CD32" s="100"/>
+      <c r="CE32" s="100"/>
     </row>
-    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-      <c r="B33" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
-      <c r="BP33" s="57"/>
-      <c r="BQ33" s="57"/>
-      <c r="BR33" s="57"/>
-      <c r="BS33" s="57"/>
-      <c r="BT33" s="57"/>
-      <c r="BU33" s="57"/>
-      <c r="BV33" s="57"/>
-      <c r="BW33" s="57"/>
-      <c r="BX33" s="57"/>
-      <c r="BY33" s="57"/>
-      <c r="BZ33" s="57"/>
-      <c r="CA33" s="57"/>
-      <c r="CB33" s="57"/>
-      <c r="CC33" s="57"/>
-      <c r="CD33" s="57"/>
-      <c r="CE33" s="57"/>
+      <c r="B33" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="102"/>
+      <c r="AO33" s="102"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="101"/>
+      <c r="AR33" s="101"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="101"/>
+      <c r="AU33" s="102"/>
+      <c r="AV33" s="102"/>
+      <c r="AW33" s="101"/>
+      <c r="AX33" s="101"/>
+      <c r="AY33" s="101"/>
+      <c r="AZ33" s="101"/>
+      <c r="BA33" s="101"/>
+      <c r="BB33" s="102"/>
+      <c r="BC33" s="102"/>
+      <c r="BD33" s="101"/>
+      <c r="BE33" s="101"/>
+      <c r="BF33" s="101"/>
+      <c r="BG33" s="101"/>
+      <c r="BH33" s="101"/>
+      <c r="BI33" s="102"/>
+      <c r="BJ33" s="102"/>
+      <c r="BK33" s="101"/>
+      <c r="BL33" s="101"/>
+      <c r="BM33" s="101"/>
+      <c r="BN33" s="101"/>
+      <c r="BO33" s="101"/>
+      <c r="BP33" s="102"/>
+      <c r="BQ33" s="102"/>
+      <c r="BR33" s="101"/>
+      <c r="BS33" s="101"/>
+      <c r="BT33" s="101"/>
+      <c r="BU33" s="101"/>
+      <c r="BV33" s="101"/>
+      <c r="BW33" s="102"/>
+      <c r="BX33" s="102"/>
+      <c r="BY33" s="101"/>
+      <c r="BZ33" s="101"/>
+      <c r="CA33" s="101"/>
+      <c r="CB33" s="101"/>
+      <c r="CC33" s="101"/>
+      <c r="CD33" s="102"/>
+      <c r="CE33" s="102"/>
     </row>
-    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="69" t="s">
+      <c r="B34" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="74"/>
+      <c r="BF34" s="74"/>
+      <c r="BG34" s="74"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="74"/>
+      <c r="BL34" s="74"/>
+      <c r="BM34" s="74"/>
+      <c r="BN34" s="74"/>
+      <c r="BO34" s="74"/>
+      <c r="BP34" s="74"/>
+      <c r="BQ34" s="74"/>
+      <c r="BR34" s="74"/>
+      <c r="BS34" s="74"/>
+      <c r="BT34" s="74"/>
+      <c r="BU34" s="74"/>
+      <c r="BV34" s="74"/>
+      <c r="BW34" s="74"/>
+      <c r="BX34" s="74"/>
+      <c r="BY34" s="74"/>
+      <c r="BZ34" s="74"/>
+      <c r="CA34" s="74"/>
+      <c r="CB34" s="74"/>
+      <c r="CC34" s="74"/>
+      <c r="CD34" s="74"/>
+      <c r="CE34" s="103"/>
+    </row>
+    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D35" s="69">
         <v>45241</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E35" s="69">
         <v>45244</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31"/>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="31"/>
-      <c r="BS34" s="31"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="31"/>
-      <c r="BV34" s="31"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="31"/>
-      <c r="CA34" s="31"/>
-      <c r="CB34" s="31"/>
-      <c r="CC34" s="31"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-    </row>
-    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="70">
-        <v>45245</v>
-      </c>
-      <c r="E35" s="70">
-        <v>45249</v>
-      </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -4880,15 +4952,15 @@
       <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="31"/>
-      <c r="BB35" s="44"/>
-      <c r="BC35" s="44"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="15"/>
-      <c r="BG35" s="15"/>
-      <c r="BH35" s="15"/>
-      <c r="BI35" s="15"/>
-      <c r="BJ35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
       <c r="BK35" s="31"/>
       <c r="BL35" s="31"/>
       <c r="BM35" s="31"/>
@@ -4911,17 +4983,19 @@
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
     </row>
-    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
-      <c r="B36" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70">
-        <v>45246</v>
-      </c>
-      <c r="E36" s="70">
-        <v>45250</v>
+      <c r="B36" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="69">
+        <v>45245</v>
+      </c>
+      <c r="E36" s="69">
+        <v>45249</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="31"/>
@@ -4975,11 +5049,11 @@
       <c r="BC36" s="44"/>
       <c r="BD36" s="31"/>
       <c r="BE36" s="31"/>
-      <c r="BF36" s="31"/>
-      <c r="BG36" s="31"/>
-      <c r="BH36" s="31"/>
-      <c r="BI36" s="44"/>
-      <c r="BJ36" s="44"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
       <c r="BK36" s="31"/>
       <c r="BL36" s="31"/>
       <c r="BM36" s="31"/>
@@ -5004,15 +5078,15 @@
     </row>
     <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
-      <c r="B37" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70">
-        <v>45247</v>
-      </c>
-      <c r="E37" s="70">
-        <v>45251</v>
+      <c r="B37" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69">
+        <v>45246</v>
+      </c>
+      <c r="E37" s="69">
+        <v>45250</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="31"/>
@@ -5095,17 +5169,15 @@
     </row>
     <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
-      <c r="B38" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="70">
-        <v>45248</v>
-      </c>
-      <c r="E38" s="70">
-        <v>44524</v>
+      <c r="B38" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69">
+        <v>45247</v>
+      </c>
+      <c r="E38" s="69">
+        <v>45251</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="31"/>
@@ -5162,13 +5234,13 @@
       <c r="BF38" s="31"/>
       <c r="BG38" s="31"/>
       <c r="BH38" s="31"/>
-      <c r="BI38" s="86"/>
-      <c r="BJ38" s="87"/>
-      <c r="BK38" s="87"/>
-      <c r="BL38" s="87"/>
-      <c r="BM38" s="87"/>
-      <c r="BN38" s="87"/>
-      <c r="BO38" s="88"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="31"/>
+      <c r="BO38" s="31"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
       <c r="BR38" s="31"/>
@@ -5188,15 +5260,17 @@
     </row>
     <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
-      <c r="B39" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70">
-        <v>45249</v>
-      </c>
-      <c r="E39" s="70">
-        <v>44522</v>
+      <c r="B39" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="69">
+        <v>45248</v>
+      </c>
+      <c r="E39" s="69">
+        <v>44524</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="31"/>
@@ -5253,13 +5327,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="44"/>
-      <c r="BJ39" s="44"/>
-      <c r="BK39" s="31"/>
-      <c r="BL39" s="31"/>
-      <c r="BM39" s="31"/>
-      <c r="BN39" s="31"/>
-      <c r="BO39" s="31"/>
+      <c r="BI39" s="96"/>
+      <c r="BJ39" s="97"/>
+      <c r="BK39" s="97"/>
+      <c r="BL39" s="97"/>
+      <c r="BM39" s="97"/>
+      <c r="BN39" s="97"/>
+      <c r="BO39" s="98"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5279,17 +5353,15 @@
     </row>
     <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
-      <c r="B40" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="70">
-        <v>45250</v>
-      </c>
-      <c r="E40" s="70">
-        <v>44528</v>
+      <c r="B40" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69">
+        <v>45249</v>
+      </c>
+      <c r="E40" s="69">
+        <v>44522</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="31"/>
@@ -5348,15 +5420,15 @@
       <c r="BH40" s="31"/>
       <c r="BI40" s="44"/>
       <c r="BJ40" s="44"/>
-      <c r="BK40" s="83"/>
-      <c r="BL40" s="84"/>
-      <c r="BM40" s="84"/>
-      <c r="BN40" s="84"/>
-      <c r="BO40" s="84"/>
-      <c r="BP40" s="84"/>
-      <c r="BQ40" s="84"/>
-      <c r="BR40" s="84"/>
-      <c r="BS40" s="85"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="44"/>
+      <c r="BQ40" s="44"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
       <c r="BT40" s="31"/>
       <c r="BU40" s="31"/>
       <c r="BV40" s="31"/>
@@ -5372,16 +5444,16 @@
     </row>
     <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
-      <c r="B41" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="70">
-        <v>45252</v>
-      </c>
-      <c r="E41" s="70">
+      <c r="B41" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="69">
+        <v>45250</v>
+      </c>
+      <c r="E41" s="69">
         <v>44528</v>
       </c>
       <c r="F41" s="41"/>
@@ -5441,15 +5513,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="31"/>
-      <c r="BL41" s="31"/>
-      <c r="BM41" s="89"/>
-      <c r="BN41" s="89"/>
-      <c r="BO41" s="89"/>
-      <c r="BP41" s="89"/>
-      <c r="BQ41" s="89"/>
-      <c r="BR41" s="89"/>
-      <c r="BS41" s="89"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="94"/>
+      <c r="BM41" s="94"/>
+      <c r="BN41" s="94"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="94"/>
+      <c r="BQ41" s="94"/>
+      <c r="BR41" s="94"/>
+      <c r="BS41" s="95"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5463,17 +5535,19 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
-      <c r="B42" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70">
+      <c r="B42" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="69">
         <v>45252</v>
       </c>
-      <c r="E42" s="70">
-        <v>44524</v>
+      <c r="E42" s="69">
+        <v>44528</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="31"/>
@@ -5534,13 +5608,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="31"/>
-      <c r="BN42" s="31"/>
-      <c r="BO42" s="31"/>
-      <c r="BP42" s="44"/>
-      <c r="BQ42" s="44"/>
-      <c r="BR42" s="31"/>
-      <c r="BS42" s="31"/>
+      <c r="BM42" s="84"/>
+      <c r="BN42" s="84"/>
+      <c r="BO42" s="84"/>
+      <c r="BP42" s="84"/>
+      <c r="BQ42" s="84"/>
+      <c r="BR42" s="84"/>
+      <c r="BS42" s="84"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5556,14 +5630,14 @@
     </row>
     <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70">
-        <v>45253</v>
-      </c>
-      <c r="E43" s="70">
+      <c r="B43" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69">
+        <v>45252</v>
+      </c>
+      <c r="E43" s="69">
         <v>44524</v>
       </c>
       <c r="F43" s="41"/>
@@ -5647,105 +5721,205 @@
     </row>
     <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="U44" s="91"/>
-      <c r="V44" s="91"/>
-      <c r="W44" s="91"/>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="91"/>
-      <c r="Z44" s="91"/>
-      <c r="AA44" s="91"/>
-      <c r="AB44" s="91"/>
-      <c r="AC44" s="91"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="91"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="91"/>
-      <c r="AK44" s="91"/>
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="91"/>
-      <c r="AN44" s="91"/>
-      <c r="AO44" s="91"/>
-      <c r="AP44" s="91"/>
-      <c r="AQ44" s="91"/>
-      <c r="AR44" s="91"/>
-      <c r="AS44" s="91"/>
-      <c r="AT44" s="91"/>
-      <c r="AU44" s="91"/>
-      <c r="AV44" s="91"/>
-      <c r="AW44" s="91"/>
-      <c r="AX44" s="91"/>
-      <c r="AY44" s="91"/>
-      <c r="AZ44" s="91"/>
-      <c r="BA44" s="91"/>
-      <c r="BB44" s="91"/>
-      <c r="BC44" s="91"/>
-      <c r="BD44" s="91"/>
-      <c r="BE44" s="91"/>
-      <c r="BF44" s="91"/>
-      <c r="BG44" s="91"/>
-      <c r="BH44" s="91"/>
-      <c r="BI44" s="91"/>
-      <c r="BJ44" s="91"/>
-      <c r="BK44" s="91"/>
-      <c r="BL44" s="91"/>
-      <c r="BM44" s="91"/>
-      <c r="BN44" s="91"/>
-      <c r="BO44" s="91"/>
-      <c r="BP44" s="91"/>
-      <c r="BQ44" s="91"/>
-      <c r="BR44" s="91"/>
-      <c r="BS44" s="91"/>
-      <c r="BT44" s="91"/>
-      <c r="BU44" s="91"/>
-      <c r="BV44" s="91"/>
-      <c r="BW44" s="91"/>
-      <c r="BX44" s="91"/>
-      <c r="BY44" s="91"/>
-      <c r="BZ44" s="91"/>
-      <c r="CA44" s="91"/>
-      <c r="CB44" s="91"/>
-      <c r="CC44" s="91"/>
-      <c r="CD44" s="91"/>
-      <c r="CE44" s="91"/>
+      <c r="B44" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69">
+        <v>45253</v>
+      </c>
+      <c r="E44" s="69">
+        <v>44524</v>
+      </c>
+      <c r="F44" s="41"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="31"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="31"/>
+      <c r="BM44" s="31"/>
+      <c r="BN44" s="31"/>
+      <c r="BO44" s="31"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="31"/>
+      <c r="BS44" s="31"/>
+      <c r="BT44" s="31"/>
+      <c r="BU44" s="31"/>
+      <c r="BV44" s="31"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="44"/>
+      <c r="BY44" s="44"/>
+      <c r="BZ44" s="31"/>
+      <c r="CA44" s="31"/>
+      <c r="CB44" s="31"/>
+      <c r="CC44" s="31"/>
+      <c r="CD44" s="44"/>
+      <c r="CE44" s="44"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="76"/>
-      <c r="E46" s="77"/>
+    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="85"/>
+      <c r="AH45" s="85"/>
+      <c r="AI45" s="85"/>
+      <c r="AJ45" s="85"/>
+      <c r="AK45" s="85"/>
+      <c r="AL45" s="85"/>
+      <c r="AM45" s="85"/>
+      <c r="AN45" s="85"/>
+      <c r="AO45" s="85"/>
+      <c r="AP45" s="85"/>
+      <c r="AQ45" s="85"/>
+      <c r="AR45" s="85"/>
+      <c r="AS45" s="85"/>
+      <c r="AT45" s="85"/>
+      <c r="AU45" s="85"/>
+      <c r="AV45" s="85"/>
+      <c r="AW45" s="85"/>
+      <c r="AX45" s="85"/>
+      <c r="AY45" s="85"/>
+      <c r="AZ45" s="85"/>
+      <c r="BA45" s="85"/>
+      <c r="BB45" s="85"/>
+      <c r="BC45" s="85"/>
+      <c r="BD45" s="85"/>
+      <c r="BE45" s="85"/>
+      <c r="BF45" s="85"/>
+      <c r="BG45" s="85"/>
+      <c r="BH45" s="85"/>
+      <c r="BI45" s="85"/>
+      <c r="BJ45" s="85"/>
+      <c r="BK45" s="85"/>
+      <c r="BL45" s="85"/>
+      <c r="BM45" s="85"/>
+      <c r="BN45" s="85"/>
+      <c r="BO45" s="85"/>
+      <c r="BP45" s="85"/>
+      <c r="BQ45" s="85"/>
+      <c r="BR45" s="85"/>
+      <c r="BS45" s="85"/>
+      <c r="BT45" s="85"/>
+      <c r="BU45" s="85"/>
+      <c r="BV45" s="85"/>
+      <c r="BW45" s="85"/>
+      <c r="BX45" s="85"/>
+      <c r="BY45" s="85"/>
+      <c r="BZ45" s="85"/>
+      <c r="CA45" s="85"/>
+      <c r="CB45" s="85"/>
+      <c r="CC45" s="85"/>
+      <c r="CD45" s="85"/>
+      <c r="CE45" s="104"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="78"/>
+      <c r="C47" s="75"/>
+      <c r="E47" s="76"/>
+    </row>
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AA11:AI11"/>
+    <mergeCell ref="AR28:BE28"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BK41:BS41"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5756,20 +5930,11 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="BM41:BS41"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AR28:BE28"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI38:BO38"/>
-    <mergeCell ref="BK40:BS40"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15066706-A613-4AC1-87A5-C72A0DD9F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291F445-16D3-4F11-A1A7-16911B627FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,15 +173,6 @@
     <t>8.4.7. Leckék kezelésének tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.4.9. Email-es funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.10. Biztonsági mentés tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.11. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
   </si>
   <si>
@@ -210,6 +201,15 @@
   </si>
   <si>
     <t>8.3.15. A prototípus kitelepítése éles környezetbe</t>
+  </si>
+  <si>
+    <t>8.4.8. Email-es funkciók tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.9. Biztonsági mentés tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.10. Bemutató elkészítése</t>
   </si>
 </sst>
 </file>
@@ -1027,89 +1027,89 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1511,7 +1511,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="CE7" sqref="CE7"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,10 +1635,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1722,10 +1722,10 @@
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="79">
+      <c r="D3" s="105">
         <v>45197</v>
       </c>
-      <c r="E3" s="79"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1811,117 +1811,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81">
+      <c r="F4" s="106"/>
+      <c r="G4" s="103">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81">
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81">
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81">
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81">
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81">
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81">
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81">
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81">
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81">
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="103"/>
+      <c r="BN4" s="103"/>
+      <c r="BO4" s="103"/>
+      <c r="BP4" s="103"/>
+      <c r="BQ4" s="103"/>
+      <c r="BR4" s="103">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="81"/>
-      <c r="BY4" s="81">
+      <c r="BS4" s="103"/>
+      <c r="BT4" s="103"/>
+      <c r="BU4" s="103"/>
+      <c r="BV4" s="103"/>
+      <c r="BW4" s="103"/>
+      <c r="BX4" s="103"/>
+      <c r="BY4" s="103">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="81"/>
+      <c r="BZ4" s="103"/>
+      <c r="CA4" s="103"/>
+      <c r="CB4" s="103"/>
+      <c r="CC4" s="103"/>
+      <c r="CD4" s="103"/>
+      <c r="CE4" s="103"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1937,7 +1937,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2417,7 +2417,7 @@
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="106"/>
+      <c r="CE7" s="84"/>
     </row>
     <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -2441,15 +2441,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2692,7 +2692,7 @@
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="106"/>
+      <c r="CE10" s="84"/>
     </row>
     <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -2729,15 +2729,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -3189,14 +3189,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="89"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="88"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3258,7 +3258,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3345,7 +3345,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="83"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3422,7 +3422,7 @@
       <c r="CB18" s="57"/>
       <c r="CC18" s="57"/>
       <c r="CD18" s="57"/>
-      <c r="CE18" s="105"/>
+      <c r="CE18" s="85"/>
     </row>
     <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -3979,7 +3979,7 @@
     <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60">
@@ -4023,12 +4023,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="86"/>
-      <c r="AP25" s="86"/>
-      <c r="AQ25" s="86"/>
-      <c r="AR25" s="86"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="86"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -4070,7 +4070,7 @@
     <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" s="59" t="s">
         <v>3</v>
@@ -4117,16 +4117,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="84"/>
-      <c r="AQ26" s="84"/>
-      <c r="AR26" s="84"/>
-      <c r="AS26" s="84"/>
-      <c r="AT26" s="84"/>
-      <c r="AU26" s="84"/>
-      <c r="AV26" s="84"/>
-      <c r="AW26" s="84"/>
-      <c r="AX26" s="84"/>
-      <c r="AY26" s="84"/>
+      <c r="AP26" s="96"/>
+      <c r="AQ26" s="96"/>
+      <c r="AR26" s="96"/>
+      <c r="AS26" s="96"/>
+      <c r="AT26" s="96"/>
+      <c r="AU26" s="96"/>
+      <c r="AV26" s="96"/>
+      <c r="AW26" s="96"/>
+      <c r="AX26" s="96"/>
+      <c r="AY26" s="96"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4163,7 +4163,7 @@
     <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>3</v>
@@ -4216,17 +4216,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="88"/>
-      <c r="AY27" s="88"/>
-      <c r="AZ27" s="88"/>
-      <c r="BA27" s="88"/>
-      <c r="BB27" s="88"/>
-      <c r="BC27" s="88"/>
-      <c r="BD27" s="88"/>
-      <c r="BE27" s="88"/>
-      <c r="BF27" s="89"/>
+      <c r="AV27" s="86"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="87"/>
+      <c r="BD27" s="87"/>
+      <c r="BE27" s="87"/>
+      <c r="BF27" s="88"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4256,7 +4256,7 @@
     <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>4</v>
@@ -4305,20 +4305,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="93"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="94"/>
-      <c r="BB28" s="94"/>
-      <c r="BC28" s="94"/>
-      <c r="BD28" s="94"/>
-      <c r="BE28" s="95"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="93"/>
+      <c r="AT28" s="93"/>
+      <c r="AU28" s="93"/>
+      <c r="AV28" s="93"/>
+      <c r="AW28" s="93"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="93"/>
+      <c r="BA28" s="93"/>
+      <c r="BB28" s="93"/>
+      <c r="BC28" s="93"/>
+      <c r="BD28" s="93"/>
+      <c r="BE28" s="94"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4349,7 +4349,7 @@
     <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="59" t="s">
         <v>3</v>
@@ -4399,17 +4399,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="88"/>
-      <c r="AY29" s="88"/>
-      <c r="AZ29" s="88"/>
-      <c r="BA29" s="88"/>
-      <c r="BB29" s="88"/>
-      <c r="BC29" s="89"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="87"/>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="88"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4442,7 +4442,7 @@
     <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>4</v>
@@ -4493,17 +4493,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="94"/>
-      <c r="AV30" s="94"/>
-      <c r="AW30" s="94"/>
-      <c r="AX30" s="94"/>
-      <c r="AY30" s="94"/>
-      <c r="AZ30" s="94"/>
-      <c r="BA30" s="94"/>
-      <c r="BB30" s="94"/>
-      <c r="BC30" s="94"/>
-      <c r="BD30" s="95"/>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="93"/>
+      <c r="AV30" s="93"/>
+      <c r="AW30" s="93"/>
+      <c r="AX30" s="93"/>
+      <c r="AY30" s="93"/>
+      <c r="AZ30" s="93"/>
+      <c r="BA30" s="93"/>
+      <c r="BB30" s="93"/>
+      <c r="BC30" s="93"/>
+      <c r="BD30" s="94"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4535,7 +4535,7 @@
     <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60">
@@ -4626,7 +4626,7 @@
     <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>1</v>
@@ -4637,171 +4637,171 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="99"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="99"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="99"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="99"/>
-      <c r="AN32" s="100"/>
-      <c r="AO32" s="100"/>
-      <c r="AP32" s="99"/>
-      <c r="AQ32" s="99"/>
-      <c r="AR32" s="99"/>
-      <c r="AS32" s="99"/>
-      <c r="AT32" s="99"/>
-      <c r="AU32" s="100"/>
-      <c r="AV32" s="100"/>
-      <c r="AW32" s="99"/>
-      <c r="AX32" s="99"/>
-      <c r="AY32" s="99"/>
-      <c r="AZ32" s="99"/>
-      <c r="BA32" s="99"/>
-      <c r="BB32" s="100"/>
-      <c r="BC32" s="100"/>
-      <c r="BD32" s="99"/>
-      <c r="BE32" s="99"/>
-      <c r="BF32" s="99"/>
-      <c r="BG32" s="99"/>
-      <c r="BH32" s="99"/>
-      <c r="BI32" s="100"/>
-      <c r="BJ32" s="100"/>
-      <c r="BK32" s="99"/>
-      <c r="BL32" s="99"/>
-      <c r="BM32" s="99"/>
-      <c r="BN32" s="99"/>
-      <c r="BO32" s="99"/>
-      <c r="BP32" s="100"/>
-      <c r="BQ32" s="100"/>
-      <c r="BR32" s="99"/>
-      <c r="BS32" s="99"/>
-      <c r="BT32" s="99"/>
-      <c r="BU32" s="99"/>
-      <c r="BV32" s="99"/>
-      <c r="BW32" s="100"/>
-      <c r="BX32" s="100"/>
-      <c r="BY32" s="99"/>
-      <c r="BZ32" s="99"/>
-      <c r="CA32" s="99"/>
-      <c r="CB32" s="99"/>
-      <c r="CC32" s="99"/>
-      <c r="CD32" s="100"/>
-      <c r="CE32" s="100"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="80"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="79"/>
+      <c r="AM32" s="79"/>
+      <c r="AN32" s="80"/>
+      <c r="AO32" s="80"/>
+      <c r="AP32" s="79"/>
+      <c r="AQ32" s="79"/>
+      <c r="AR32" s="79"/>
+      <c r="AS32" s="79"/>
+      <c r="AT32" s="79"/>
+      <c r="AU32" s="80"/>
+      <c r="AV32" s="80"/>
+      <c r="AW32" s="79"/>
+      <c r="AX32" s="79"/>
+      <c r="AY32" s="79"/>
+      <c r="AZ32" s="79"/>
+      <c r="BA32" s="79"/>
+      <c r="BB32" s="80"/>
+      <c r="BC32" s="80"/>
+      <c r="BD32" s="79"/>
+      <c r="BE32" s="79"/>
+      <c r="BF32" s="79"/>
+      <c r="BG32" s="79"/>
+      <c r="BH32" s="79"/>
+      <c r="BI32" s="80"/>
+      <c r="BJ32" s="80"/>
+      <c r="BK32" s="79"/>
+      <c r="BL32" s="79"/>
+      <c r="BM32" s="79"/>
+      <c r="BN32" s="79"/>
+      <c r="BO32" s="79"/>
+      <c r="BP32" s="80"/>
+      <c r="BQ32" s="80"/>
+      <c r="BR32" s="79"/>
+      <c r="BS32" s="79"/>
+      <c r="BT32" s="79"/>
+      <c r="BU32" s="79"/>
+      <c r="BV32" s="79"/>
+      <c r="BW32" s="80"/>
+      <c r="BX32" s="80"/>
+      <c r="BY32" s="79"/>
+      <c r="BZ32" s="79"/>
+      <c r="CA32" s="79"/>
+      <c r="CB32" s="79"/>
+      <c r="CC32" s="79"/>
+      <c r="CD32" s="80"/>
+      <c r="CE32" s="80"/>
     </row>
     <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="101"/>
-      <c r="AF33" s="101"/>
-      <c r="AG33" s="102"/>
-      <c r="AH33" s="102"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="101"/>
-      <c r="AQ33" s="101"/>
-      <c r="AR33" s="101"/>
-      <c r="AS33" s="101"/>
-      <c r="AT33" s="101"/>
-      <c r="AU33" s="102"/>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="101"/>
-      <c r="AX33" s="101"/>
-      <c r="AY33" s="101"/>
-      <c r="AZ33" s="101"/>
-      <c r="BA33" s="101"/>
-      <c r="BB33" s="102"/>
-      <c r="BC33" s="102"/>
-      <c r="BD33" s="101"/>
-      <c r="BE33" s="101"/>
-      <c r="BF33" s="101"/>
-      <c r="BG33" s="101"/>
-      <c r="BH33" s="101"/>
-      <c r="BI33" s="102"/>
-      <c r="BJ33" s="102"/>
-      <c r="BK33" s="101"/>
-      <c r="BL33" s="101"/>
-      <c r="BM33" s="101"/>
-      <c r="BN33" s="101"/>
-      <c r="BO33" s="101"/>
-      <c r="BP33" s="102"/>
-      <c r="BQ33" s="102"/>
-      <c r="BR33" s="101"/>
-      <c r="BS33" s="101"/>
-      <c r="BT33" s="101"/>
-      <c r="BU33" s="101"/>
-      <c r="BV33" s="101"/>
-      <c r="BW33" s="102"/>
-      <c r="BX33" s="102"/>
-      <c r="BY33" s="101"/>
-      <c r="BZ33" s="101"/>
-      <c r="CA33" s="101"/>
-      <c r="CB33" s="101"/>
-      <c r="CC33" s="101"/>
-      <c r="CD33" s="102"/>
-      <c r="CE33" s="102"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="81"/>
+      <c r="AX33" s="81"/>
+      <c r="AY33" s="81"/>
+      <c r="AZ33" s="81"/>
+      <c r="BA33" s="81"/>
+      <c r="BB33" s="82"/>
+      <c r="BC33" s="82"/>
+      <c r="BD33" s="81"/>
+      <c r="BE33" s="81"/>
+      <c r="BF33" s="81"/>
+      <c r="BG33" s="81"/>
+      <c r="BH33" s="81"/>
+      <c r="BI33" s="82"/>
+      <c r="BJ33" s="82"/>
+      <c r="BK33" s="81"/>
+      <c r="BL33" s="81"/>
+      <c r="BM33" s="81"/>
+      <c r="BN33" s="81"/>
+      <c r="BO33" s="81"/>
+      <c r="BP33" s="82"/>
+      <c r="BQ33" s="82"/>
+      <c r="BR33" s="81"/>
+      <c r="BS33" s="81"/>
+      <c r="BT33" s="81"/>
+      <c r="BU33" s="81"/>
+      <c r="BV33" s="81"/>
+      <c r="BW33" s="82"/>
+      <c r="BX33" s="82"/>
+      <c r="BY33" s="81"/>
+      <c r="BZ33" s="81"/>
+      <c r="CA33" s="81"/>
+      <c r="CB33" s="81"/>
+      <c r="CC33" s="81"/>
+      <c r="CD33" s="82"/>
+      <c r="CE33" s="82"/>
     </row>
     <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
@@ -4811,7 +4811,7 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="83"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -4888,7 +4888,7 @@
       <c r="CB34" s="74"/>
       <c r="CC34" s="74"/>
       <c r="CD34" s="74"/>
-      <c r="CE34" s="103"/>
+      <c r="CE34" s="83"/>
     </row>
     <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
@@ -4904,7 +4904,7 @@
       <c r="E35" s="69">
         <v>45244</v>
       </c>
-      <c r="F35" s="83"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -5327,13 +5327,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="96"/>
-      <c r="BJ39" s="97"/>
-      <c r="BK39" s="97"/>
-      <c r="BL39" s="97"/>
-      <c r="BM39" s="97"/>
-      <c r="BN39" s="97"/>
-      <c r="BO39" s="98"/>
+      <c r="BI39" s="100"/>
+      <c r="BJ39" s="101"/>
+      <c r="BK39" s="101"/>
+      <c r="BL39" s="101"/>
+      <c r="BM39" s="101"/>
+      <c r="BN39" s="101"/>
+      <c r="BO39" s="102"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5513,15 +5513,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="93"/>
-      <c r="BL41" s="94"/>
-      <c r="BM41" s="94"/>
-      <c r="BN41" s="94"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="94"/>
-      <c r="BQ41" s="94"/>
-      <c r="BR41" s="94"/>
-      <c r="BS41" s="95"/>
+      <c r="BK41" s="92"/>
+      <c r="BL41" s="93"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="93"/>
+      <c r="BQ41" s="93"/>
+      <c r="BR41" s="93"/>
+      <c r="BS41" s="94"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5538,7 +5538,7 @@
     <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>3</v>
@@ -5608,13 +5608,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="84"/>
-      <c r="BN42" s="84"/>
-      <c r="BO42" s="84"/>
-      <c r="BP42" s="84"/>
-      <c r="BQ42" s="84"/>
-      <c r="BR42" s="84"/>
-      <c r="BS42" s="84"/>
+      <c r="BM42" s="96"/>
+      <c r="BN42" s="96"/>
+      <c r="BO42" s="96"/>
+      <c r="BP42" s="96"/>
+      <c r="BQ42" s="96"/>
+      <c r="BR42" s="96"/>
+      <c r="BS42" s="96"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5631,7 +5631,7 @@
     <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="69">
@@ -5722,7 +5722,7 @@
     <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="67" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="69">
@@ -5813,89 +5813,89 @@
     <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="72"/>
       <c r="E45" s="73"/>
       <c r="F45" s="74"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
-      <c r="W45" s="85"/>
-      <c r="X45" s="85"/>
-      <c r="Y45" s="85"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="85"/>
-      <c r="AC45" s="85"/>
-      <c r="AD45" s="85"/>
-      <c r="AE45" s="85"/>
-      <c r="AF45" s="85"/>
-      <c r="AG45" s="85"/>
-      <c r="AH45" s="85"/>
-      <c r="AI45" s="85"/>
-      <c r="AJ45" s="85"/>
-      <c r="AK45" s="85"/>
-      <c r="AL45" s="85"/>
-      <c r="AM45" s="85"/>
-      <c r="AN45" s="85"/>
-      <c r="AO45" s="85"/>
-      <c r="AP45" s="85"/>
-      <c r="AQ45" s="85"/>
-      <c r="AR45" s="85"/>
-      <c r="AS45" s="85"/>
-      <c r="AT45" s="85"/>
-      <c r="AU45" s="85"/>
-      <c r="AV45" s="85"/>
-      <c r="AW45" s="85"/>
-      <c r="AX45" s="85"/>
-      <c r="AY45" s="85"/>
-      <c r="AZ45" s="85"/>
-      <c r="BA45" s="85"/>
-      <c r="BB45" s="85"/>
-      <c r="BC45" s="85"/>
-      <c r="BD45" s="85"/>
-      <c r="BE45" s="85"/>
-      <c r="BF45" s="85"/>
-      <c r="BG45" s="85"/>
-      <c r="BH45" s="85"/>
-      <c r="BI45" s="85"/>
-      <c r="BJ45" s="85"/>
-      <c r="BK45" s="85"/>
-      <c r="BL45" s="85"/>
-      <c r="BM45" s="85"/>
-      <c r="BN45" s="85"/>
-      <c r="BO45" s="85"/>
-      <c r="BP45" s="85"/>
-      <c r="BQ45" s="85"/>
-      <c r="BR45" s="85"/>
-      <c r="BS45" s="85"/>
-      <c r="BT45" s="85"/>
-      <c r="BU45" s="85"/>
-      <c r="BV45" s="85"/>
-      <c r="BW45" s="85"/>
-      <c r="BX45" s="85"/>
-      <c r="BY45" s="85"/>
-      <c r="BZ45" s="85"/>
-      <c r="CA45" s="85"/>
-      <c r="CB45" s="85"/>
-      <c r="CC45" s="85"/>
-      <c r="CD45" s="85"/>
-      <c r="CE45" s="104"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="97"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="97"/>
+      <c r="AQ45" s="97"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
+      <c r="AX45" s="97"/>
+      <c r="AY45" s="97"/>
+      <c r="AZ45" s="97"/>
+      <c r="BA45" s="97"/>
+      <c r="BB45" s="97"/>
+      <c r="BC45" s="97"/>
+      <c r="BD45" s="97"/>
+      <c r="BE45" s="97"/>
+      <c r="BF45" s="97"/>
+      <c r="BG45" s="97"/>
+      <c r="BH45" s="97"/>
+      <c r="BI45" s="97"/>
+      <c r="BJ45" s="97"/>
+      <c r="BK45" s="97"/>
+      <c r="BL45" s="97"/>
+      <c r="BM45" s="97"/>
+      <c r="BN45" s="97"/>
+      <c r="BO45" s="97"/>
+      <c r="BP45" s="97"/>
+      <c r="BQ45" s="97"/>
+      <c r="BR45" s="97"/>
+      <c r="BS45" s="97"/>
+      <c r="BT45" s="97"/>
+      <c r="BU45" s="97"/>
+      <c r="BV45" s="97"/>
+      <c r="BW45" s="97"/>
+      <c r="BX45" s="97"/>
+      <c r="BY45" s="97"/>
+      <c r="BZ45" s="97"/>
+      <c r="CA45" s="97"/>
+      <c r="CB45" s="97"/>
+      <c r="CC45" s="97"/>
+      <c r="CD45" s="97"/>
+      <c r="CE45" s="98"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="75"/>
@@ -5906,20 +5906,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AR28:BE28"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5930,11 +5921,20 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AA11:AI11"/>
+    <mergeCell ref="AR28:BE28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291F445-16D3-4F11-A1A7-16911B627FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237716B9-A0A3-4ED7-83DD-9A92B129CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -412,7 +412,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +573,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFB1A0C7"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +835,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,6 +1116,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1194,6 +1209,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC3D69B"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1508,10 +1526,10 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="AV27" sqref="AV27:BF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4165,9 +4183,7 @@
       <c r="B27" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>3</v>
-      </c>
+      <c r="C27" s="59"/>
       <c r="D27" s="60">
         <v>45235</v>
       </c>
@@ -4216,17 +4232,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="87"/>
-      <c r="BD27" s="87"/>
-      <c r="BE27" s="87"/>
-      <c r="BF27" s="88"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="108"/>
+      <c r="AZ27" s="108"/>
+      <c r="BA27" s="108"/>
+      <c r="BB27" s="108"/>
+      <c r="BC27" s="108"/>
+      <c r="BD27" s="108"/>
+      <c r="BE27" s="108"/>
+      <c r="BF27" s="109"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237716B9-A0A3-4ED7-83DD-9A92B129CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BE347-EACB-4F04-BC52-7AA7B2196F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,12 +197,6 @@
     <t>8.3.13. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
   </si>
   <si>
-    <t>8.3.14. Bemutató elkészítése</t>
-  </si>
-  <si>
-    <t>8.3.15. A prototípus kitelepítése éles környezetbe</t>
-  </si>
-  <si>
     <t>8.4.8. Email-es funkciók tesztelése (TR)</t>
   </si>
   <si>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>8.4.10. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.3.14. A prototípus kitelepítése éles környezetbe</t>
+  </si>
+  <si>
+    <t>8.3.15. Bemutató elkészítése</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1526,10 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AV27" sqref="AV27:BF27"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4642,11 +4642,9 @@
     <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C32" s="59"/>
       <c r="D32" s="60">
         <v>45235</v>
       </c>
@@ -4735,11 +4733,17 @@
     <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="60">
+        <v>45236</v>
+      </c>
+      <c r="E33" s="60">
+        <v>45241</v>
+      </c>
       <c r="F33" s="95"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
@@ -5554,7 +5558,7 @@
     <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="68" t="s">
         <v>3</v>
@@ -5647,7 +5651,7 @@
     <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="69">
@@ -5738,7 +5742,7 @@
     <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="69">

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64BE347-EACB-4F04-BC52-7AA7B2196F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6397087-52E6-4FCE-B7F7-CE073252F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -203,13 +203,10 @@
     <t>8.4.9. Biztonsági mentés tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.4.10. Bemutató elkészítése</t>
-  </si>
-  <si>
     <t>8.3.14. A prototípus kitelepítése éles környezetbe</t>
   </si>
   <si>
-    <t>8.3.15. Bemutató elkészítése</t>
+    <t>8.4.10. A prototípus kitelepítésének frissítése</t>
   </si>
 </sst>
 </file>
@@ -582,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -773,21 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -835,7 +817,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,21 +1021,15 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,7 +1066,7 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,12 +1500,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE48"/>
+  <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="105"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1740,10 +1716,10 @@
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="105">
+      <c r="D3" s="103">
         <v>45197</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1829,117 +1805,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="103">
+      <c r="F4" s="104"/>
+      <c r="G4" s="101">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103">
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103">
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103">
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103">
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103">
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103">
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103">
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="103"/>
-      <c r="BN4" s="103"/>
-      <c r="BO4" s="103"/>
-      <c r="BP4" s="103"/>
-      <c r="BQ4" s="103"/>
-      <c r="BR4" s="103">
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="101"/>
+      <c r="BN4" s="101"/>
+      <c r="BO4" s="101"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="101"/>
+      <c r="BR4" s="101">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="103"/>
-      <c r="BT4" s="103"/>
-      <c r="BU4" s="103"/>
-      <c r="BV4" s="103"/>
-      <c r="BW4" s="103"/>
-      <c r="BX4" s="103"/>
-      <c r="BY4" s="103">
+      <c r="BS4" s="101"/>
+      <c r="BT4" s="101"/>
+      <c r="BU4" s="101"/>
+      <c r="BV4" s="101"/>
+      <c r="BW4" s="101"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="101">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="103"/>
-      <c r="CA4" s="103"/>
-      <c r="CB4" s="103"/>
-      <c r="CC4" s="103"/>
-      <c r="CD4" s="103"/>
-      <c r="CE4" s="103"/>
+      <c r="BZ4" s="101"/>
+      <c r="CA4" s="101"/>
+      <c r="CB4" s="101"/>
+      <c r="CC4" s="101"/>
+      <c r="CD4" s="101"/>
+      <c r="CE4" s="101"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1955,7 +1931,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2435,7 +2411,7 @@
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="84"/>
+      <c r="CE7" s="82"/>
     </row>
     <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
@@ -2459,15 +2435,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2710,7 +2686,7 @@
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="84"/>
+      <c r="CE10" s="82"/>
     </row>
     <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
@@ -2747,15 +2723,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="89"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -3207,14 +3183,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="88"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="86"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3276,7 +3252,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="93"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3363,7 +3339,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="95"/>
+      <c r="F18" s="93"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3440,7 +3416,7 @@
       <c r="CB18" s="57"/>
       <c r="CC18" s="57"/>
       <c r="CD18" s="57"/>
-      <c r="CE18" s="85"/>
+      <c r="CE18" s="83"/>
     </row>
     <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -4041,12 +4017,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="99"/>
-      <c r="AP25" s="99"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="99"/>
-      <c r="AS25" s="99"/>
-      <c r="AT25" s="99"/>
+      <c r="AO25" s="97"/>
+      <c r="AP25" s="97"/>
+      <c r="AQ25" s="97"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="97"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -4135,16 +4111,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="96"/>
-      <c r="AQ26" s="96"/>
-      <c r="AR26" s="96"/>
-      <c r="AS26" s="96"/>
-      <c r="AT26" s="96"/>
-      <c r="AU26" s="96"/>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="96"/>
-      <c r="AX26" s="96"/>
-      <c r="AY26" s="96"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="94"/>
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4232,17 +4208,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="107"/>
-      <c r="AW27" s="108"/>
-      <c r="AX27" s="108"/>
-      <c r="AY27" s="108"/>
-      <c r="AZ27" s="108"/>
-      <c r="BA27" s="108"/>
-      <c r="BB27" s="108"/>
-      <c r="BC27" s="108"/>
-      <c r="BD27" s="108"/>
-      <c r="BE27" s="108"/>
-      <c r="BF27" s="109"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="106"/>
+      <c r="AX27" s="106"/>
+      <c r="AY27" s="106"/>
+      <c r="AZ27" s="106"/>
+      <c r="BA27" s="106"/>
+      <c r="BB27" s="106"/>
+      <c r="BC27" s="106"/>
+      <c r="BD27" s="106"/>
+      <c r="BE27" s="106"/>
+      <c r="BF27" s="107"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4321,20 +4297,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="93"/>
-      <c r="AT28" s="93"/>
-      <c r="AU28" s="93"/>
-      <c r="AV28" s="93"/>
-      <c r="AW28" s="93"/>
-      <c r="AX28" s="93"/>
-      <c r="AY28" s="93"/>
-      <c r="AZ28" s="93"/>
-      <c r="BA28" s="93"/>
-      <c r="BB28" s="93"/>
-      <c r="BC28" s="93"/>
-      <c r="BD28" s="93"/>
-      <c r="BE28" s="94"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="91"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="91"/>
+      <c r="BC28" s="91"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="92"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4415,17 +4391,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="86"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="88"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="85"/>
+      <c r="AU29" s="85"/>
+      <c r="AV29" s="85"/>
+      <c r="AW29" s="85"/>
+      <c r="AX29" s="85"/>
+      <c r="AY29" s="85"/>
+      <c r="AZ29" s="85"/>
+      <c r="BA29" s="85"/>
+      <c r="BB29" s="85"/>
+      <c r="BC29" s="86"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4509,17 +4485,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="93"/>
-      <c r="AV30" s="93"/>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="93"/>
-      <c r="AY30" s="93"/>
-      <c r="AZ30" s="93"/>
-      <c r="BA30" s="93"/>
-      <c r="BB30" s="93"/>
-      <c r="BC30" s="93"/>
-      <c r="BD30" s="94"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="92"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4642,7 +4618,7 @@
     <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="60">
@@ -4651,7 +4627,7 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="95"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4732,199 +4708,199 @@
     </row>
     <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-      <c r="B33" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="60">
-        <v>45236</v>
-      </c>
-      <c r="E33" s="60">
-        <v>45241</v>
-      </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="82"/>
-      <c r="AP33" s="81"/>
-      <c r="AQ33" s="81"/>
-      <c r="AR33" s="81"/>
-      <c r="AS33" s="81"/>
-      <c r="AT33" s="81"/>
-      <c r="AU33" s="82"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="81"/>
-      <c r="AX33" s="81"/>
-      <c r="AY33" s="81"/>
-      <c r="AZ33" s="81"/>
-      <c r="BA33" s="81"/>
-      <c r="BB33" s="82"/>
-      <c r="BC33" s="82"/>
-      <c r="BD33" s="81"/>
-      <c r="BE33" s="81"/>
-      <c r="BF33" s="81"/>
-      <c r="BG33" s="81"/>
-      <c r="BH33" s="81"/>
-      <c r="BI33" s="82"/>
-      <c r="BJ33" s="82"/>
-      <c r="BK33" s="81"/>
-      <c r="BL33" s="81"/>
-      <c r="BM33" s="81"/>
-      <c r="BN33" s="81"/>
-      <c r="BO33" s="81"/>
-      <c r="BP33" s="82"/>
-      <c r="BQ33" s="82"/>
-      <c r="BR33" s="81"/>
-      <c r="BS33" s="81"/>
-      <c r="BT33" s="81"/>
-      <c r="BU33" s="81"/>
-      <c r="BV33" s="81"/>
-      <c r="BW33" s="82"/>
-      <c r="BX33" s="82"/>
-      <c r="BY33" s="81"/>
-      <c r="BZ33" s="81"/>
-      <c r="CA33" s="81"/>
-      <c r="CB33" s="81"/>
-      <c r="CC33" s="81"/>
-      <c r="CD33" s="82"/>
-      <c r="CE33" s="82"/>
+      <c r="B33" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="74"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="74"/>
+      <c r="BF33" s="74"/>
+      <c r="BG33" s="74"/>
+      <c r="BH33" s="74"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="74"/>
+      <c r="BL33" s="74"/>
+      <c r="BM33" s="74"/>
+      <c r="BN33" s="74"/>
+      <c r="BO33" s="74"/>
+      <c r="BP33" s="74"/>
+      <c r="BQ33" s="74"/>
+      <c r="BR33" s="74"/>
+      <c r="BS33" s="74"/>
+      <c r="BT33" s="74"/>
+      <c r="BU33" s="74"/>
+      <c r="BV33" s="74"/>
+      <c r="BW33" s="74"/>
+      <c r="BX33" s="74"/>
+      <c r="BY33" s="74"/>
+      <c r="BZ33" s="74"/>
+      <c r="CA33" s="74"/>
+      <c r="CB33" s="74"/>
+      <c r="CC33" s="74"/>
+      <c r="CD33" s="74"/>
+      <c r="CE33" s="81"/>
     </row>
     <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
-      <c r="B34" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="74"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="74"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="74"/>
-      <c r="AI34" s="74"/>
-      <c r="AJ34" s="74"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="74"/>
-      <c r="AN34" s="74"/>
-      <c r="AO34" s="74"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="74"/>
-      <c r="AS34" s="74"/>
-      <c r="AT34" s="74"/>
-      <c r="AU34" s="74"/>
-      <c r="AV34" s="74"/>
-      <c r="AW34" s="74"/>
-      <c r="AX34" s="74"/>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="74"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="74"/>
-      <c r="BC34" s="74"/>
-      <c r="BD34" s="74"/>
-      <c r="BE34" s="74"/>
-      <c r="BF34" s="74"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="74"/>
-      <c r="BI34" s="74"/>
-      <c r="BJ34" s="74"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="74"/>
-      <c r="BM34" s="74"/>
-      <c r="BN34" s="74"/>
-      <c r="BO34" s="74"/>
-      <c r="BP34" s="74"/>
-      <c r="BQ34" s="74"/>
-      <c r="BR34" s="74"/>
-      <c r="BS34" s="74"/>
-      <c r="BT34" s="74"/>
-      <c r="BU34" s="74"/>
-      <c r="BV34" s="74"/>
-      <c r="BW34" s="74"/>
-      <c r="BX34" s="74"/>
-      <c r="BY34" s="74"/>
-      <c r="BZ34" s="74"/>
-      <c r="CA34" s="74"/>
-      <c r="CB34" s="74"/>
-      <c r="CC34" s="74"/>
-      <c r="CD34" s="74"/>
-      <c r="CE34" s="83"/>
+      <c r="B34" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="69">
+        <v>45241</v>
+      </c>
+      <c r="E34" s="69">
+        <v>45244</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="44"/>
+      <c r="BQ34" s="44"/>
+      <c r="BR34" s="31"/>
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31"/>
+      <c r="BW34" s="44"/>
+      <c r="BX34" s="44"/>
+      <c r="BY34" s="44"/>
+      <c r="BZ34" s="31"/>
+      <c r="CA34" s="31"/>
+      <c r="CB34" s="31"/>
+      <c r="CC34" s="31"/>
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="44"/>
     </row>
     <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="69">
-        <v>45241</v>
+        <v>45245</v>
       </c>
       <c r="E35" s="69">
-        <v>45244</v>
-      </c>
-      <c r="F35" s="95"/>
+        <v>45249</v>
+      </c>
+      <c r="F35" s="41"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -4972,15 +4948,15 @@
       <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="31"/>
-      <c r="BB35" s="15"/>
-      <c r="BC35" s="15"/>
-      <c r="BD35" s="15"/>
-      <c r="BE35" s="15"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
-      <c r="BH35" s="31"/>
-      <c r="BI35" s="44"/>
-      <c r="BJ35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
       <c r="BK35" s="31"/>
       <c r="BL35" s="31"/>
       <c r="BM35" s="31"/>
@@ -5006,16 +4982,14 @@
     <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>6</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C36" s="68"/>
       <c r="D36" s="69">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="E36" s="69">
-        <v>45249</v>
+        <v>45250</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="31"/>
@@ -5069,11 +5043,11 @@
       <c r="BC36" s="44"/>
       <c r="BD36" s="31"/>
       <c r="BE36" s="31"/>
-      <c r="BF36" s="15"/>
-      <c r="BG36" s="15"/>
-      <c r="BH36" s="15"/>
-      <c r="BI36" s="15"/>
-      <c r="BJ36" s="15"/>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
       <c r="BK36" s="31"/>
       <c r="BL36" s="31"/>
       <c r="BM36" s="31"/>
@@ -5099,14 +5073,14 @@
     <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="69">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="E37" s="69">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="31"/>
@@ -5190,14 +5164,16 @@
     <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="68"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="D38" s="69">
-        <v>45247</v>
+        <v>45248</v>
       </c>
       <c r="E38" s="69">
-        <v>45251</v>
+        <v>44524</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="31"/>
@@ -5254,13 +5230,13 @@
       <c r="BF38" s="31"/>
       <c r="BG38" s="31"/>
       <c r="BH38" s="31"/>
-      <c r="BI38" s="44"/>
-      <c r="BJ38" s="44"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-      <c r="BM38" s="31"/>
-      <c r="BN38" s="31"/>
-      <c r="BO38" s="31"/>
+      <c r="BI38" s="98"/>
+      <c r="BJ38" s="99"/>
+      <c r="BK38" s="99"/>
+      <c r="BL38" s="99"/>
+      <c r="BM38" s="99"/>
+      <c r="BN38" s="99"/>
+      <c r="BO38" s="100"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
       <c r="BR38" s="31"/>
@@ -5281,16 +5257,14 @@
     <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C39" s="68"/>
       <c r="D39" s="69">
-        <v>45248</v>
+        <v>45249</v>
       </c>
       <c r="E39" s="69">
-        <v>44524</v>
+        <v>44522</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="31"/>
@@ -5347,13 +5321,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="100"/>
-      <c r="BJ39" s="101"/>
-      <c r="BK39" s="101"/>
-      <c r="BL39" s="101"/>
-      <c r="BM39" s="101"/>
-      <c r="BN39" s="101"/>
-      <c r="BO39" s="102"/>
+      <c r="BI39" s="44"/>
+      <c r="BJ39" s="44"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+      <c r="BM39" s="31"/>
+      <c r="BN39" s="31"/>
+      <c r="BO39" s="31"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5374,14 +5348,16 @@
     <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="68"/>
+        <v>41</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="D40" s="69">
-        <v>45249</v>
+        <v>45250</v>
       </c>
       <c r="E40" s="69">
-        <v>44522</v>
+        <v>44528</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="31"/>
@@ -5440,15 +5416,15 @@
       <c r="BH40" s="31"/>
       <c r="BI40" s="44"/>
       <c r="BJ40" s="44"/>
-      <c r="BK40" s="31"/>
-      <c r="BL40" s="31"/>
-      <c r="BM40" s="31"/>
-      <c r="BN40" s="31"/>
-      <c r="BO40" s="31"/>
-      <c r="BP40" s="44"/>
-      <c r="BQ40" s="44"/>
-      <c r="BR40" s="31"/>
-      <c r="BS40" s="31"/>
+      <c r="BK40" s="90"/>
+      <c r="BL40" s="91"/>
+      <c r="BM40" s="91"/>
+      <c r="BN40" s="91"/>
+      <c r="BO40" s="91"/>
+      <c r="BP40" s="91"/>
+      <c r="BQ40" s="91"/>
+      <c r="BR40" s="91"/>
+      <c r="BS40" s="92"/>
       <c r="BT40" s="31"/>
       <c r="BU40" s="31"/>
       <c r="BV40" s="31"/>
@@ -5465,13 +5441,13 @@
     <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="67" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="69">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="E41" s="69">
         <v>44528</v>
@@ -5533,14 +5509,14 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="92"/>
-      <c r="BL41" s="93"/>
-      <c r="BM41" s="93"/>
-      <c r="BN41" s="93"/>
-      <c r="BO41" s="93"/>
-      <c r="BP41" s="93"/>
-      <c r="BQ41" s="93"/>
-      <c r="BR41" s="93"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="94"/>
+      <c r="BN41" s="94"/>
+      <c r="BO41" s="94"/>
+      <c r="BP41" s="94"/>
+      <c r="BQ41" s="94"/>
+      <c r="BR41" s="94"/>
       <c r="BS41" s="94"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
@@ -5555,19 +5531,17 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C42" s="68"/>
       <c r="D42" s="69">
         <v>45252</v>
       </c>
       <c r="E42" s="69">
-        <v>44528</v>
+        <v>44524</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="31"/>
@@ -5628,13 +5602,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="96"/>
-      <c r="BN42" s="96"/>
-      <c r="BO42" s="96"/>
-      <c r="BP42" s="96"/>
-      <c r="BQ42" s="96"/>
-      <c r="BR42" s="96"/>
-      <c r="BS42" s="96"/>
+      <c r="BM42" s="31"/>
+      <c r="BN42" s="31"/>
+      <c r="BO42" s="31"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="31"/>
+      <c r="BS42" s="31"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5651,11 +5625,11 @@
     <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="69">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="E43" s="69">
         <v>44524</v>
@@ -5741,188 +5715,97 @@
     </row>
     <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69">
-        <v>45253</v>
-      </c>
-      <c r="E44" s="69">
-        <v>44524</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="44"/>
-      <c r="AO44" s="44"/>
-      <c r="AP44" s="31"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="31"/>
-      <c r="AS44" s="31"/>
-      <c r="AT44" s="31"/>
-      <c r="AU44" s="44"/>
-      <c r="AV44" s="44"/>
-      <c r="AW44" s="31"/>
-      <c r="AX44" s="31"/>
-      <c r="AY44" s="31"/>
-      <c r="AZ44" s="31"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="44"/>
-      <c r="BC44" s="44"/>
-      <c r="BD44" s="31"/>
-      <c r="BE44" s="31"/>
-      <c r="BF44" s="31"/>
-      <c r="BG44" s="31"/>
-      <c r="BH44" s="31"/>
-      <c r="BI44" s="44"/>
-      <c r="BJ44" s="44"/>
-      <c r="BK44" s="31"/>
-      <c r="BL44" s="31"/>
-      <c r="BM44" s="31"/>
-      <c r="BN44" s="31"/>
-      <c r="BO44" s="31"/>
-      <c r="BP44" s="44"/>
-      <c r="BQ44" s="44"/>
-      <c r="BR44" s="31"/>
-      <c r="BS44" s="31"/>
-      <c r="BT44" s="31"/>
-      <c r="BU44" s="31"/>
-      <c r="BV44" s="31"/>
-      <c r="BW44" s="44"/>
-      <c r="BX44" s="44"/>
-      <c r="BY44" s="44"/>
-      <c r="BZ44" s="31"/>
-      <c r="CA44" s="31"/>
-      <c r="CB44" s="31"/>
-      <c r="CC44" s="31"/>
-      <c r="CD44" s="44"/>
-      <c r="CE44" s="44"/>
+      <c r="B44" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="95"/>
+      <c r="AG44" s="95"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="95"/>
+      <c r="AO44" s="95"/>
+      <c r="AP44" s="95"/>
+      <c r="AQ44" s="95"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="95"/>
+      <c r="AU44" s="95"/>
+      <c r="AV44" s="95"/>
+      <c r="AW44" s="95"/>
+      <c r="AX44" s="95"/>
+      <c r="AY44" s="95"/>
+      <c r="AZ44" s="95"/>
+      <c r="BA44" s="95"/>
+      <c r="BB44" s="95"/>
+      <c r="BC44" s="95"/>
+      <c r="BD44" s="95"/>
+      <c r="BE44" s="95"/>
+      <c r="BF44" s="95"/>
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
+      <c r="BM44" s="95"/>
+      <c r="BN44" s="95"/>
+      <c r="BO44" s="95"/>
+      <c r="BP44" s="95"/>
+      <c r="BQ44" s="95"/>
+      <c r="BR44" s="95"/>
+      <c r="BS44" s="95"/>
+      <c r="BT44" s="95"/>
+      <c r="BU44" s="95"/>
+      <c r="BV44" s="95"/>
+      <c r="BW44" s="95"/>
+      <c r="BX44" s="95"/>
+      <c r="BY44" s="95"/>
+      <c r="BZ44" s="95"/>
+      <c r="CA44" s="95"/>
+      <c r="CB44" s="95"/>
+      <c r="CC44" s="95"/>
+      <c r="CD44" s="95"/>
+      <c r="CE44" s="96"/>
     </row>
-    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="97"/>
-      <c r="AK45" s="97"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="97"/>
-      <c r="AN45" s="97"/>
-      <c r="AO45" s="97"/>
-      <c r="AP45" s="97"/>
-      <c r="AQ45" s="97"/>
-      <c r="AR45" s="97"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="97"/>
-      <c r="AW45" s="97"/>
-      <c r="AX45" s="97"/>
-      <c r="AY45" s="97"/>
-      <c r="AZ45" s="97"/>
-      <c r="BA45" s="97"/>
-      <c r="BB45" s="97"/>
-      <c r="BC45" s="97"/>
-      <c r="BD45" s="97"/>
-      <c r="BE45" s="97"/>
-      <c r="BF45" s="97"/>
-      <c r="BG45" s="97"/>
-      <c r="BH45" s="97"/>
-      <c r="BI45" s="97"/>
-      <c r="BJ45" s="97"/>
-      <c r="BK45" s="97"/>
-      <c r="BL45" s="97"/>
-      <c r="BM45" s="97"/>
-      <c r="BN45" s="97"/>
-      <c r="BO45" s="97"/>
-      <c r="BP45" s="97"/>
-      <c r="BQ45" s="97"/>
-      <c r="BR45" s="97"/>
-      <c r="BS45" s="97"/>
-      <c r="BT45" s="97"/>
-      <c r="BU45" s="97"/>
-      <c r="BV45" s="97"/>
-      <c r="BW45" s="97"/>
-      <c r="BX45" s="97"/>
-      <c r="BY45" s="97"/>
-      <c r="BZ45" s="97"/>
-      <c r="CA45" s="97"/>
-      <c r="CB45" s="97"/>
-      <c r="CC45" s="97"/>
-      <c r="CD45" s="97"/>
-      <c r="CE45" s="98"/>
+    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="75"/>
+      <c r="E46" s="76"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="75"/>
-      <c r="E47" s="76"/>
-    </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="77"/>
+      <c r="C47" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5941,15 +5824,15 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="BM41:BS41"/>
+    <mergeCell ref="G44:CE44"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="AO25:AT25"/>
     <mergeCell ref="AP26:AY26"/>
     <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BI38:BO38"/>
+    <mergeCell ref="BK40:BS40"/>
     <mergeCell ref="AD16:AK16"/>
     <mergeCell ref="AV27:BF27"/>
     <mergeCell ref="AS29:BC29"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d84a191c62c64342/Documents/rf1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6397087-52E6-4FCE-B7F7-CE073252F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C6397087-52E6-4FCE-B7F7-CE073252F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A065CC-5C5D-467B-8450-FCB7337C1758}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -817,7 +817,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,6 +1030,51 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,6 +1084,15 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,58 +1103,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1502,23 +1508,23 @@
   </sheetPr>
   <dimension ref="A1:CE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.5546875" customWidth="1"/>
+    <col min="6" max="83" width="2.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1623,16 +1629,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="103"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1712,14 +1718,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="103">
+      <c r="D3" s="84">
         <v>45197</v>
       </c>
-      <c r="E3" s="103"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1799,125 +1805,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="101">
+      <c r="F4" s="85"/>
+      <c r="G4" s="86">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101">
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101">
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101">
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101">
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101">
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="101"/>
-      <c r="AW4" s="101">
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="101"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101">
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="101"/>
-      <c r="BG4" s="101"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="101"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101">
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="86"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="101"/>
-      <c r="BN4" s="101"/>
-      <c r="BO4" s="101"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="101"/>
-      <c r="BR4" s="101">
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="86">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="101"/>
-      <c r="BT4" s="101"/>
-      <c r="BU4" s="101"/>
-      <c r="BV4" s="101"/>
-      <c r="BW4" s="101"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="101">
+      <c r="BS4" s="86"/>
+      <c r="BT4" s="86"/>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="86"/>
+      <c r="BW4" s="86"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="86">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="101"/>
-      <c r="CA4" s="101"/>
-      <c r="CB4" s="101"/>
-      <c r="CC4" s="101"/>
-      <c r="CD4" s="101"/>
-      <c r="CE4" s="101"/>
+      <c r="BZ4" s="86"/>
+      <c r="CA4" s="86"/>
+      <c r="CB4" s="86"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="86"/>
+      <c r="CE4" s="86"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4"/>
       <c r="B5" s="23" t="s">
         <v>12</v>
@@ -1931,7 +1937,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2241,7 +2247,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="B6" s="9"/>
       <c r="C6" s="29"/>
@@ -2326,7 +2332,7 @@
       <c r="CD6" s="31"/>
       <c r="CE6" s="31"/>
     </row>
-    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="32" t="s">
         <v>16</v>
@@ -2413,7 +2419,7 @@
       <c r="CD7" s="1"/>
       <c r="CE7" s="82"/>
     </row>
-    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
@@ -2435,15 +2441,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2507,7 +2513,7 @@
       <c r="CD8" s="44"/>
       <c r="CE8" s="44"/>
     </row>
-    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="38" t="s">
         <v>18</v>
@@ -2601,7 +2607,7 @@
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
     </row>
-    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -2688,7 +2694,7 @@
       <c r="CD10" s="1"/>
       <c r="CE10" s="82"/>
     </row>
-    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
       <c r="B11" s="50" t="s">
         <v>20</v>
@@ -2723,15 +2729,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="89"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="107"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -2781,7 +2787,7 @@
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
     </row>
-    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
       <c r="B12" s="50" t="s">
         <v>21</v>
@@ -2872,7 +2878,7 @@
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
     </row>
-    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="50" t="s">
         <v>22</v>
@@ -2963,7 +2969,7 @@
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
     </row>
-    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="50" t="s">
         <v>23</v>
@@ -3054,7 +3060,7 @@
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
     </row>
-    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="B15" s="50" t="s">
         <v>24</v>
@@ -3145,7 +3151,7 @@
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
     </row>
-    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="50" t="s">
         <v>25</v>
@@ -3183,14 +3189,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="86"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="101"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3238,7 +3244,7 @@
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
     </row>
-    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="B17" s="50" t="s">
         <v>26</v>
@@ -3252,7 +3258,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="93"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3331,7 +3337,7 @@
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
     </row>
-    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -3339,7 +3345,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="93"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3418,7 +3424,7 @@
       <c r="CD18" s="57"/>
       <c r="CE18" s="83"/>
     </row>
-    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -3511,7 +3517,7 @@
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
     </row>
-    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="58" t="s">
         <v>29</v>
@@ -3602,7 +3608,7 @@
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
     </row>
-    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="58" t="s">
         <v>30</v>
@@ -3695,7 +3701,7 @@
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
     </row>
-    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="58" t="s">
         <v>31</v>
@@ -3786,7 +3792,7 @@
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
     </row>
-    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="58" t="s">
         <v>32</v>
@@ -3877,7 +3883,7 @@
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
     </row>
-    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="58" t="s">
         <v>33</v>
@@ -3970,7 +3976,7 @@
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
     </row>
-    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
         <v>43</v>
@@ -4017,12 +4023,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="97"/>
-      <c r="AP25" s="97"/>
-      <c r="AQ25" s="97"/>
-      <c r="AR25" s="97"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="97"/>
+      <c r="AO25" s="92"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="92"/>
+      <c r="AT25" s="92"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -4061,7 +4067,7 @@
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
     </row>
-    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
         <v>44</v>
@@ -4111,16 +4117,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="94"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="94"/>
-      <c r="AS26" s="94"/>
-      <c r="AT26" s="94"/>
-      <c r="AU26" s="94"/>
-      <c r="AV26" s="94"/>
-      <c r="AW26" s="94"/>
-      <c r="AX26" s="94"/>
-      <c r="AY26" s="94"/>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="89"/>
+      <c r="AR26" s="89"/>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="89"/>
+      <c r="AU26" s="89"/>
+      <c r="AV26" s="89"/>
+      <c r="AW26" s="89"/>
+      <c r="AX26" s="89"/>
+      <c r="AY26" s="89"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4154,7 +4160,7 @@
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
     </row>
-    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
         <v>45</v>
@@ -4208,17 +4214,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="105"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="106"/>
-      <c r="AZ27" s="106"/>
-      <c r="BA27" s="106"/>
-      <c r="BB27" s="106"/>
-      <c r="BC27" s="106"/>
-      <c r="BD27" s="106"/>
-      <c r="BE27" s="106"/>
-      <c r="BF27" s="107"/>
+      <c r="AV27" s="102"/>
+      <c r="AW27" s="103"/>
+      <c r="AX27" s="103"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="103"/>
+      <c r="BA27" s="103"/>
+      <c r="BB27" s="103"/>
+      <c r="BC27" s="103"/>
+      <c r="BD27" s="103"/>
+      <c r="BE27" s="103"/>
+      <c r="BF27" s="104"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4245,7 +4251,7 @@
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
     </row>
-    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="58" t="s">
         <v>46</v>
@@ -4257,7 +4263,7 @@
         <v>45231</v>
       </c>
       <c r="E28" s="60">
-        <v>45244</v>
+        <v>45239</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="31"/>
@@ -4297,20 +4303,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="91"/>
-      <c r="BA28" s="91"/>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="91"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="92"/>
+      <c r="AR28" s="108"/>
+      <c r="AS28" s="109"/>
+      <c r="AT28" s="109"/>
+      <c r="AU28" s="109"/>
+      <c r="AV28" s="109"/>
+      <c r="AW28" s="109"/>
+      <c r="AX28" s="109"/>
+      <c r="AY28" s="109"/>
+      <c r="AZ28" s="109"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4338,7 +4344,7 @@
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
     </row>
-    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
         <v>47</v>
@@ -4391,17 +4397,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="84"/>
-      <c r="AT29" s="85"/>
-      <c r="AU29" s="85"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="85"/>
-      <c r="AY29" s="85"/>
-      <c r="AZ29" s="85"/>
-      <c r="BA29" s="85"/>
-      <c r="BB29" s="85"/>
-      <c r="BC29" s="86"/>
+      <c r="AS29" s="99"/>
+      <c r="AT29" s="100"/>
+      <c r="AU29" s="100"/>
+      <c r="AV29" s="100"/>
+      <c r="AW29" s="100"/>
+      <c r="AX29" s="100"/>
+      <c r="AY29" s="100"/>
+      <c r="AZ29" s="100"/>
+      <c r="BA29" s="100"/>
+      <c r="BB29" s="100"/>
+      <c r="BC29" s="101"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4431,7 +4437,7 @@
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
     </row>
-    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="B30" s="58" t="s">
         <v>48</v>
@@ -4485,17 +4491,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="90"/>
-      <c r="AU30" s="91"/>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="91"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="91"/>
-      <c r="BA30" s="91"/>
-      <c r="BB30" s="91"/>
-      <c r="BC30" s="91"/>
-      <c r="BD30" s="92"/>
+      <c r="AT30" s="93"/>
+      <c r="AU30" s="94"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="94"/>
+      <c r="AX30" s="94"/>
+      <c r="AY30" s="94"/>
+      <c r="AZ30" s="94"/>
+      <c r="BA30" s="94"/>
+      <c r="BB30" s="94"/>
+      <c r="BC30" s="94"/>
+      <c r="BD30" s="95"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4524,7 +4530,7 @@
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
     </row>
-    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4"/>
       <c r="B31" s="58" t="s">
         <v>49</v>
@@ -4615,7 +4621,7 @@
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
     </row>
-    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
         <v>52</v>
@@ -4627,7 +4633,7 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="93"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4706,7 +4712,7 @@
       <c r="CD32" s="80"/>
       <c r="CE32" s="80"/>
     </row>
-    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4"/>
       <c r="B33" s="63" t="s">
         <v>34</v>
@@ -4714,7 +4720,7 @@
       <c r="C33" s="64"/>
       <c r="D33" s="65"/>
       <c r="E33" s="66"/>
-      <c r="F33" s="93"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -4793,7 +4799,7 @@
       <c r="CD33" s="74"/>
       <c r="CE33" s="81"/>
     </row>
-    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="B34" s="67" t="s">
         <v>35</v>
@@ -4807,7 +4813,7 @@
       <c r="E34" s="69">
         <v>45244</v>
       </c>
-      <c r="F34" s="93"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
@@ -4886,7 +4892,7 @@
       <c r="CD34" s="44"/>
       <c r="CE34" s="44"/>
     </row>
-    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="B35" s="67" t="s">
         <v>36</v>
@@ -4979,7 +4985,7 @@
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
     </row>
-    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="B36" s="67" t="s">
         <v>37</v>
@@ -5070,7 +5076,7 @@
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
     </row>
-    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="B37" s="67" t="s">
         <v>38</v>
@@ -5161,7 +5167,7 @@
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
     </row>
-    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="B38" s="67" t="s">
         <v>39</v>
@@ -5230,13 +5236,13 @@
       <c r="BF38" s="31"/>
       <c r="BG38" s="31"/>
       <c r="BH38" s="31"/>
-      <c r="BI38" s="98"/>
-      <c r="BJ38" s="99"/>
-      <c r="BK38" s="99"/>
-      <c r="BL38" s="99"/>
-      <c r="BM38" s="99"/>
-      <c r="BN38" s="99"/>
-      <c r="BO38" s="100"/>
+      <c r="BI38" s="96"/>
+      <c r="BJ38" s="97"/>
+      <c r="BK38" s="97"/>
+      <c r="BL38" s="97"/>
+      <c r="BM38" s="97"/>
+      <c r="BN38" s="97"/>
+      <c r="BO38" s="98"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
       <c r="BR38" s="31"/>
@@ -5254,7 +5260,7 @@
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
     </row>
-    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="B39" s="67" t="s">
         <v>40</v>
@@ -5345,14 +5351,12 @@
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
     </row>
-    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="B40" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="C40" s="68"/>
       <c r="D40" s="69">
         <v>45250</v>
       </c>
@@ -5416,15 +5420,15 @@
       <c r="BH40" s="31"/>
       <c r="BI40" s="44"/>
       <c r="BJ40" s="44"/>
-      <c r="BK40" s="90"/>
-      <c r="BL40" s="91"/>
-      <c r="BM40" s="91"/>
-      <c r="BN40" s="91"/>
-      <c r="BO40" s="91"/>
-      <c r="BP40" s="91"/>
-      <c r="BQ40" s="91"/>
-      <c r="BR40" s="91"/>
-      <c r="BS40" s="92"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="44"/>
+      <c r="BQ40" s="44"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
       <c r="BT40" s="31"/>
       <c r="BU40" s="31"/>
       <c r="BV40" s="31"/>
@@ -5438,7 +5442,7 @@
       <c r="CD40" s="44"/>
       <c r="CE40" s="44"/>
     </row>
-    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="B41" s="67" t="s">
         <v>50</v>
@@ -5511,13 +5515,13 @@
       <c r="BJ41" s="44"/>
       <c r="BK41" s="31"/>
       <c r="BL41" s="31"/>
-      <c r="BM41" s="94"/>
-      <c r="BN41" s="94"/>
-      <c r="BO41" s="94"/>
-      <c r="BP41" s="94"/>
-      <c r="BQ41" s="94"/>
-      <c r="BR41" s="94"/>
-      <c r="BS41" s="94"/>
+      <c r="BM41" s="89"/>
+      <c r="BN41" s="89"/>
+      <c r="BO41" s="89"/>
+      <c r="BP41" s="89"/>
+      <c r="BQ41" s="89"/>
+      <c r="BR41" s="89"/>
+      <c r="BS41" s="89"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5531,7 +5535,7 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
         <v>51</v>
@@ -5622,7 +5626,7 @@
       <c r="CD42" s="44"/>
       <c r="CE42" s="44"/>
     </row>
-    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
         <v>53</v>
@@ -5713,7 +5717,7 @@
       <c r="CD43" s="44"/>
       <c r="CE43" s="44"/>
     </row>
-    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="70" t="s">
         <v>42</v>
@@ -5722,98 +5726,105 @@
       <c r="D44" s="72"/>
       <c r="E44" s="73"/>
       <c r="F44" s="74"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="95"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="95"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="95"/>
-      <c r="AC44" s="95"/>
-      <c r="AD44" s="95"/>
-      <c r="AE44" s="95"/>
-      <c r="AF44" s="95"/>
-      <c r="AG44" s="95"/>
-      <c r="AH44" s="95"/>
-      <c r="AI44" s="95"/>
-      <c r="AJ44" s="95"/>
-      <c r="AK44" s="95"/>
-      <c r="AL44" s="95"/>
-      <c r="AM44" s="95"/>
-      <c r="AN44" s="95"/>
-      <c r="AO44" s="95"/>
-      <c r="AP44" s="95"/>
-      <c r="AQ44" s="95"/>
-      <c r="AR44" s="95"/>
-      <c r="AS44" s="95"/>
-      <c r="AT44" s="95"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="95"/>
-      <c r="AW44" s="95"/>
-      <c r="AX44" s="95"/>
-      <c r="AY44" s="95"/>
-      <c r="AZ44" s="95"/>
-      <c r="BA44" s="95"/>
-      <c r="BB44" s="95"/>
-      <c r="BC44" s="95"/>
-      <c r="BD44" s="95"/>
-      <c r="BE44" s="95"/>
-      <c r="BF44" s="95"/>
-      <c r="BG44" s="95"/>
-      <c r="BH44" s="95"/>
-      <c r="BI44" s="95"/>
-      <c r="BJ44" s="95"/>
-      <c r="BK44" s="95"/>
-      <c r="BL44" s="95"/>
-      <c r="BM44" s="95"/>
-      <c r="BN44" s="95"/>
-      <c r="BO44" s="95"/>
-      <c r="BP44" s="95"/>
-      <c r="BQ44" s="95"/>
-      <c r="BR44" s="95"/>
-      <c r="BS44" s="95"/>
-      <c r="BT44" s="95"/>
-      <c r="BU44" s="95"/>
-      <c r="BV44" s="95"/>
-      <c r="BW44" s="95"/>
-      <c r="BX44" s="95"/>
-      <c r="BY44" s="95"/>
-      <c r="BZ44" s="95"/>
-      <c r="CA44" s="95"/>
-      <c r="CB44" s="95"/>
-      <c r="CC44" s="95"/>
-      <c r="CD44" s="95"/>
-      <c r="CE44" s="96"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="90"/>
+      <c r="AE44" s="90"/>
+      <c r="AF44" s="90"/>
+      <c r="AG44" s="90"/>
+      <c r="AH44" s="90"/>
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="90"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="90"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="90"/>
+      <c r="AO44" s="90"/>
+      <c r="AP44" s="90"/>
+      <c r="AQ44" s="90"/>
+      <c r="AR44" s="90"/>
+      <c r="AS44" s="90"/>
+      <c r="AT44" s="90"/>
+      <c r="AU44" s="90"/>
+      <c r="AV44" s="90"/>
+      <c r="AW44" s="90"/>
+      <c r="AX44" s="90"/>
+      <c r="AY44" s="90"/>
+      <c r="AZ44" s="90"/>
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="90"/>
+      <c r="BC44" s="90"/>
+      <c r="BD44" s="90"/>
+      <c r="BE44" s="90"/>
+      <c r="BF44" s="90"/>
+      <c r="BG44" s="90"/>
+      <c r="BH44" s="90"/>
+      <c r="BI44" s="90"/>
+      <c r="BJ44" s="90"/>
+      <c r="BK44" s="90"/>
+      <c r="BL44" s="90"/>
+      <c r="BM44" s="90"/>
+      <c r="BN44" s="90"/>
+      <c r="BO44" s="90"/>
+      <c r="BP44" s="90"/>
+      <c r="BQ44" s="90"/>
+      <c r="BR44" s="90"/>
+      <c r="BS44" s="90"/>
+      <c r="BT44" s="90"/>
+      <c r="BU44" s="90"/>
+      <c r="BV44" s="90"/>
+      <c r="BW44" s="90"/>
+      <c r="BX44" s="90"/>
+      <c r="BY44" s="90"/>
+      <c r="BZ44" s="90"/>
+      <c r="CA44" s="90"/>
+      <c r="CB44" s="90"/>
+      <c r="CC44" s="90"/>
+      <c r="CD44" s="90"/>
+      <c r="CE44" s="91"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="75"/>
       <c r="E46" s="76"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C47" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+  <mergeCells count="27">
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AA11:AI11"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="BM41:BS41"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI38:BO38"/>
+    <mergeCell ref="AS29:BC29"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5824,20 +5835,11 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="BM41:BS41"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI38:BO38"/>
-    <mergeCell ref="BK40:BS40"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AR28:BE28"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d84a191c62c64342/Documents/rf1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vesze\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{C6397087-52E6-4FCE-B7F7-CE073252F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A065CC-5C5D-467B-8450-FCB7337C1758}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD87C7-4309-4243-82A6-8ED7A5A0346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -45,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -197,16 +186,19 @@
     <t>8.3.13. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
   </si>
   <si>
+    <t>8.3.14. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.3.15. A prototípus kitelepítése éles környezetbe</t>
+  </si>
+  <si>
     <t>8.4.8. Email-es funkciók tesztelése (TR)</t>
   </si>
   <si>
     <t>8.4.9. Biztonsági mentés tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.3.14. A prototípus kitelepítése éles környezetbe</t>
-  </si>
-  <si>
-    <t>8.4.10. A prototípus kitelepítésének frissítése</t>
+    <t>8.4.10. Bemutató elkészítése</t>
   </si>
 </sst>
 </file>
@@ -220,7 +212,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,8 +400,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +537,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7A5C9A"/>
-        <bgColor rgb="FF8064A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
@@ -575,11 +568,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC3D69B"/>
-        <bgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FF8064A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -770,6 +781,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -817,7 +843,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,25 +999,25 @@
     <xf numFmtId="14" fontId="7" fillId="21" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="24" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="23" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,22 +1040,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,10 +1083,16 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,6 +1104,15 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,14 +1122,20 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,20 +1146,17 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1506,25 +1556,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE47"/>
+  <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AZ22" sqref="AZ22"/>
+      <selection pane="bottomLeft" activeCell="BI23" sqref="BI23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.53125" customWidth="1"/>
+    <col min="6" max="83" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1629,16 +1679,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="84"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1718,14 +1768,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="84">
+      <c r="D3" s="86">
         <v>45197</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1805,125 +1855,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86">
+      <c r="F4" s="87"/>
+      <c r="G4" s="88">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86">
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86">
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86">
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86">
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="86"/>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86">
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="86"/>
-      <c r="BM4" s="86"/>
-      <c r="BN4" s="86"/>
-      <c r="BO4" s="86"/>
-      <c r="BP4" s="86"/>
-      <c r="BQ4" s="86"/>
-      <c r="BR4" s="86">
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="86"/>
-      <c r="BT4" s="86"/>
-      <c r="BU4" s="86"/>
-      <c r="BV4" s="86"/>
-      <c r="BW4" s="86"/>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="86">
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="86"/>
-      <c r="CA4" s="86"/>
-      <c r="CB4" s="86"/>
-      <c r="CC4" s="86"/>
-      <c r="CD4" s="86"/>
-      <c r="CE4" s="86"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="23" t="s">
         <v>12</v>
@@ -1937,7 +1987,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2247,7 +2297,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="9"/>
       <c r="C6" s="29"/>
@@ -2332,7 +2382,7 @@
       <c r="CD6" s="31"/>
       <c r="CE6" s="31"/>
     </row>
-    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="32" t="s">
         <v>16</v>
@@ -2417,9 +2467,9 @@
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="82"/>
+      <c r="CE7" s="84"/>
     </row>
-    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
@@ -2441,15 +2491,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2513,7 +2563,7 @@
       <c r="CD8" s="44"/>
       <c r="CE8" s="44"/>
     </row>
-    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="38" t="s">
         <v>18</v>
@@ -2607,7 +2657,7 @@
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
     </row>
-    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -2692,9 +2742,9 @@
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="82"/>
+      <c r="CE10" s="84"/>
     </row>
-    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="50" t="s">
         <v>20</v>
@@ -2729,15 +2779,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="107"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="105"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -2787,7 +2837,7 @@
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
     </row>
-    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="50" t="s">
         <v>21</v>
@@ -2878,7 +2928,7 @@
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
     </row>
-    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="50" t="s">
         <v>22</v>
@@ -2969,17 +3019,19 @@
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
     </row>
-    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="52">
         <v>45217</v>
       </c>
       <c r="E14" s="52">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="31"/>
@@ -3005,13 +3057,13 @@
       <c r="AA14" s="44"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="109"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
@@ -3060,7 +3112,7 @@
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
     </row>
-    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="50" t="s">
         <v>24</v>
@@ -3151,7 +3203,7 @@
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
     </row>
-    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="50" t="s">
         <v>25</v>
@@ -3189,14 +3241,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="101"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="102"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3244,7 +3296,7 @@
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
     </row>
-    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="50" t="s">
         <v>26</v>
@@ -3258,7 +3310,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3337,7 +3389,7 @@
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
     </row>
-    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -3345,7 +3397,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="88"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3422,9 +3474,9 @@
       <c r="CB18" s="57"/>
       <c r="CC18" s="57"/>
       <c r="CD18" s="57"/>
-      <c r="CE18" s="83"/>
+      <c r="CE18" s="85"/>
     </row>
-    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -3517,7 +3569,7 @@
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
     </row>
-    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="58" t="s">
         <v>29</v>
@@ -3608,7 +3660,7 @@
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
     </row>
-    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="58" t="s">
         <v>30</v>
@@ -3701,7 +3753,7 @@
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
     </row>
-    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="58" t="s">
         <v>31</v>
@@ -3792,7 +3844,7 @@
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
     </row>
-    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="58" t="s">
         <v>32</v>
@@ -3883,7 +3935,7 @@
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
     </row>
-    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="58" t="s">
         <v>33</v>
@@ -3976,12 +4028,14 @@
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
     </row>
-    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="60">
         <v>45228</v>
       </c>
@@ -4023,17 +4077,17 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="92"/>
-      <c r="AP25" s="92"/>
-      <c r="AQ25" s="92"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="92"/>
-      <c r="AT25" s="92"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="106"/>
+      <c r="AQ25" s="106"/>
+      <c r="AR25" s="106"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="106"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
+      <c r="AY25" s="110"/>
       <c r="AZ25" s="31"/>
       <c r="BA25" s="31"/>
       <c r="BB25" s="44"/>
@@ -4067,7 +4121,7 @@
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
     </row>
-    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
         <v>44</v>
@@ -4117,16 +4171,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4160,12 +4214,14 @@
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
     </row>
-    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="59" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="60">
         <v>45235</v>
       </c>
@@ -4208,23 +4264,23 @@
       <c r="AM27" s="31"/>
       <c r="AN27" s="44"/>
       <c r="AO27" s="44"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
+      <c r="AP27" s="110"/>
+      <c r="AQ27" s="110"/>
+      <c r="AR27" s="110"/>
+      <c r="AS27" s="110"/>
+      <c r="AT27" s="110"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="102"/>
-      <c r="AW27" s="103"/>
-      <c r="AX27" s="103"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="103"/>
-      <c r="BA27" s="103"/>
-      <c r="BB27" s="103"/>
-      <c r="BC27" s="103"/>
-      <c r="BD27" s="103"/>
-      <c r="BE27" s="103"/>
-      <c r="BF27" s="104"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="112"/>
+      <c r="AX27" s="112"/>
+      <c r="AY27" s="112"/>
+      <c r="AZ27" s="112"/>
+      <c r="BA27" s="112"/>
+      <c r="BB27" s="112"/>
+      <c r="BC27" s="112"/>
+      <c r="BD27" s="112"/>
+      <c r="BE27" s="112"/>
+      <c r="BF27" s="113"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4251,7 +4307,7 @@
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
     </row>
-    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="58" t="s">
         <v>46</v>
@@ -4263,7 +4319,7 @@
         <v>45231</v>
       </c>
       <c r="E28" s="60">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="31"/>
@@ -4303,20 +4359,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="108"/>
-      <c r="AS28" s="109"/>
-      <c r="AT28" s="109"/>
-      <c r="AU28" s="109"/>
-      <c r="AV28" s="109"/>
-      <c r="AW28" s="109"/>
-      <c r="AX28" s="109"/>
-      <c r="AY28" s="109"/>
-      <c r="AZ28" s="109"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="95"/>
+      <c r="AT28" s="95"/>
+      <c r="AU28" s="95"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="95"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="95"/>
+      <c r="AZ28" s="95"/>
+      <c r="BA28" s="95"/>
+      <c r="BB28" s="95"/>
+      <c r="BC28" s="95"/>
+      <c r="BD28" s="95"/>
+      <c r="BE28" s="96"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4344,7 +4400,7 @@
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
     </row>
-    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
         <v>47</v>
@@ -4397,17 +4453,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="99"/>
-      <c r="AT29" s="100"/>
-      <c r="AU29" s="100"/>
-      <c r="AV29" s="100"/>
-      <c r="AW29" s="100"/>
-      <c r="AX29" s="100"/>
-      <c r="AY29" s="100"/>
-      <c r="AZ29" s="100"/>
-      <c r="BA29" s="100"/>
-      <c r="BB29" s="100"/>
-      <c r="BC29" s="101"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="101"/>
+      <c r="AU29" s="101"/>
+      <c r="AV29" s="101"/>
+      <c r="AW29" s="101"/>
+      <c r="AX29" s="101"/>
+      <c r="AY29" s="101"/>
+      <c r="AZ29" s="101"/>
+      <c r="BA29" s="101"/>
+      <c r="BB29" s="101"/>
+      <c r="BC29" s="102"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4437,7 +4493,7 @@
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
     </row>
-    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="58" t="s">
         <v>48</v>
@@ -4491,17 +4547,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="93"/>
-      <c r="AU30" s="94"/>
-      <c r="AV30" s="94"/>
-      <c r="AW30" s="94"/>
-      <c r="AX30" s="94"/>
-      <c r="AY30" s="94"/>
-      <c r="AZ30" s="94"/>
-      <c r="BA30" s="94"/>
-      <c r="BB30" s="94"/>
-      <c r="BC30" s="94"/>
-      <c r="BD30" s="95"/>
+      <c r="AT30" s="94"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="95"/>
+      <c r="BA30" s="95"/>
+      <c r="BB30" s="95"/>
+      <c r="BC30" s="95"/>
+      <c r="BD30" s="96"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4530,7 +4586,7 @@
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
     </row>
-    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="58" t="s">
         <v>49</v>
@@ -4621,19 +4677,21 @@
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
     </row>
-    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>1</v>
+      </c>
       <c r="D32" s="60">
         <v>45235</v>
       </c>
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="88"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4712,201 +4770,195 @@
       <c r="CD32" s="80"/>
       <c r="CE32" s="80"/>
     </row>
-    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="81"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="81"/>
+      <c r="AX33" s="81"/>
+      <c r="AY33" s="81"/>
+      <c r="AZ33" s="81"/>
+      <c r="BA33" s="81"/>
+      <c r="BB33" s="82"/>
+      <c r="BC33" s="82"/>
+      <c r="BD33" s="81"/>
+      <c r="BE33" s="81"/>
+      <c r="BF33" s="81"/>
+      <c r="BG33" s="81"/>
+      <c r="BH33" s="81"/>
+      <c r="BI33" s="82"/>
+      <c r="BJ33" s="82"/>
+      <c r="BK33" s="81"/>
+      <c r="BL33" s="81"/>
+      <c r="BM33" s="81"/>
+      <c r="BN33" s="81"/>
+      <c r="BO33" s="81"/>
+      <c r="BP33" s="82"/>
+      <c r="BQ33" s="82"/>
+      <c r="BR33" s="81"/>
+      <c r="BS33" s="81"/>
+      <c r="BT33" s="81"/>
+      <c r="BU33" s="81"/>
+      <c r="BV33" s="81"/>
+      <c r="BW33" s="82"/>
+      <c r="BX33" s="82"/>
+      <c r="BY33" s="81"/>
+      <c r="BZ33" s="81"/>
+      <c r="CA33" s="81"/>
+      <c r="CB33" s="81"/>
+      <c r="CC33" s="81"/>
+      <c r="CD33" s="82"/>
+      <c r="CE33" s="82"/>
+    </row>
+    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="74"/>
-      <c r="AE33" s="74"/>
-      <c r="AF33" s="74"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="74"/>
-      <c r="AI33" s="74"/>
-      <c r="AJ33" s="74"/>
-      <c r="AK33" s="74"/>
-      <c r="AL33" s="74"/>
-      <c r="AM33" s="74"/>
-      <c r="AN33" s="74"/>
-      <c r="AO33" s="74"/>
-      <c r="AP33" s="74"/>
-      <c r="AQ33" s="74"/>
-      <c r="AR33" s="74"/>
-      <c r="AS33" s="74"/>
-      <c r="AT33" s="74"/>
-      <c r="AU33" s="74"/>
-      <c r="AV33" s="74"/>
-      <c r="AW33" s="74"/>
-      <c r="AX33" s="74"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="74"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="74"/>
-      <c r="BC33" s="74"/>
-      <c r="BD33" s="74"/>
-      <c r="BE33" s="74"/>
-      <c r="BF33" s="74"/>
-      <c r="BG33" s="74"/>
-      <c r="BH33" s="74"/>
-      <c r="BI33" s="74"/>
-      <c r="BJ33" s="74"/>
-      <c r="BK33" s="74"/>
-      <c r="BL33" s="74"/>
-      <c r="BM33" s="74"/>
-      <c r="BN33" s="74"/>
-      <c r="BO33" s="74"/>
-      <c r="BP33" s="74"/>
-      <c r="BQ33" s="74"/>
-      <c r="BR33" s="74"/>
-      <c r="BS33" s="74"/>
-      <c r="BT33" s="74"/>
-      <c r="BU33" s="74"/>
-      <c r="BV33" s="74"/>
-      <c r="BW33" s="74"/>
-      <c r="BX33" s="74"/>
-      <c r="BY33" s="74"/>
-      <c r="BZ33" s="74"/>
-      <c r="CA33" s="74"/>
-      <c r="CB33" s="74"/>
-      <c r="CC33" s="74"/>
-      <c r="CD33" s="74"/>
-      <c r="CE33" s="81"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="74"/>
+      <c r="BF34" s="74"/>
+      <c r="BG34" s="74"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="74"/>
+      <c r="BL34" s="74"/>
+      <c r="BM34" s="74"/>
+      <c r="BN34" s="74"/>
+      <c r="BO34" s="74"/>
+      <c r="BP34" s="74"/>
+      <c r="BQ34" s="74"/>
+      <c r="BR34" s="74"/>
+      <c r="BS34" s="74"/>
+      <c r="BT34" s="74"/>
+      <c r="BU34" s="74"/>
+      <c r="BV34" s="74"/>
+      <c r="BW34" s="74"/>
+      <c r="BX34" s="74"/>
+      <c r="BY34" s="74"/>
+      <c r="BZ34" s="74"/>
+      <c r="CA34" s="74"/>
+      <c r="CB34" s="74"/>
+      <c r="CC34" s="74"/>
+      <c r="CD34" s="74"/>
+      <c r="CE34" s="83"/>
     </row>
-    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="69">
-        <v>45241</v>
-      </c>
-      <c r="E34" s="69">
-        <v>45244</v>
-      </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="31"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="31"/>
-      <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="31"/>
-      <c r="BL34" s="31"/>
-      <c r="BM34" s="31"/>
-      <c r="BN34" s="31"/>
-      <c r="BO34" s="31"/>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44"/>
-      <c r="BR34" s="31"/>
-      <c r="BS34" s="31"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="31"/>
-      <c r="BV34" s="31"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="31"/>
-      <c r="CA34" s="31"/>
-      <c r="CB34" s="31"/>
-      <c r="CC34" s="31"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-    </row>
-    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="69">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="E35" s="69">
-        <v>45249</v>
-      </c>
-      <c r="F35" s="41"/>
+        <v>45244</v>
+      </c>
+      <c r="F35" s="90"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -4954,15 +5006,15 @@
       <c r="AY35" s="31"/>
       <c r="AZ35" s="31"/>
       <c r="BA35" s="31"/>
-      <c r="BB35" s="44"/>
-      <c r="BC35" s="44"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="15"/>
-      <c r="BG35" s="15"/>
-      <c r="BH35" s="15"/>
-      <c r="BI35" s="15"/>
-      <c r="BJ35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
       <c r="BK35" s="31"/>
       <c r="BL35" s="31"/>
       <c r="BM35" s="31"/>
@@ -4985,17 +5037,19 @@
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
     </row>
-    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="68"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="69">
-        <v>45246</v>
+        <v>45245</v>
       </c>
       <c r="E36" s="69">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="F36" s="41"/>
       <c r="G36" s="31"/>
@@ -5049,11 +5103,11 @@
       <c r="BC36" s="44"/>
       <c r="BD36" s="31"/>
       <c r="BE36" s="31"/>
-      <c r="BF36" s="31"/>
-      <c r="BG36" s="31"/>
-      <c r="BH36" s="31"/>
-      <c r="BI36" s="44"/>
-      <c r="BJ36" s="44"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
       <c r="BK36" s="31"/>
       <c r="BL36" s="31"/>
       <c r="BM36" s="31"/>
@@ -5076,17 +5130,17 @@
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
     </row>
-    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="69">
-        <v>45247</v>
+        <v>45246</v>
       </c>
       <c r="E37" s="69">
-        <v>45251</v>
+        <v>45250</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="31"/>
@@ -5167,19 +5221,19 @@
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
     </row>
-    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="69">
-        <v>45248</v>
+        <v>45245</v>
       </c>
       <c r="E38" s="69">
-        <v>44524</v>
+        <v>45251</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="31"/>
@@ -5233,16 +5287,16 @@
       <c r="BC38" s="44"/>
       <c r="BD38" s="31"/>
       <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="96"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="97"/>
-      <c r="BM38" s="97"/>
-      <c r="BN38" s="97"/>
-      <c r="BO38" s="98"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="116"/>
+      <c r="BH38" s="116"/>
+      <c r="BI38" s="116"/>
+      <c r="BJ38" s="116"/>
+      <c r="BK38" s="116"/>
+      <c r="BL38" s="117"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="114"/>
+      <c r="BO38" s="31"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
       <c r="BR38" s="31"/>
@@ -5260,17 +5314,19 @@
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
     </row>
-    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="68"/>
+        <v>39</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="D39" s="69">
-        <v>45249</v>
+        <v>45248</v>
       </c>
       <c r="E39" s="69">
-        <v>44522</v>
+        <v>44524</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="31"/>
@@ -5327,13 +5383,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="44"/>
-      <c r="BJ39" s="44"/>
-      <c r="BK39" s="31"/>
-      <c r="BL39" s="31"/>
-      <c r="BM39" s="31"/>
-      <c r="BN39" s="31"/>
-      <c r="BO39" s="31"/>
+      <c r="BI39" s="97"/>
+      <c r="BJ39" s="98"/>
+      <c r="BK39" s="98"/>
+      <c r="BL39" s="98"/>
+      <c r="BM39" s="98"/>
+      <c r="BN39" s="98"/>
+      <c r="BO39" s="99"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5351,17 +5407,17 @@
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
     </row>
-    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="69">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="E40" s="69">
-        <v>44528</v>
+        <v>44522</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="31"/>
@@ -5442,16 +5498,16 @@
       <c r="CD40" s="44"/>
       <c r="CE40" s="44"/>
     </row>
-    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="67" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="69">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="E41" s="69">
         <v>44528</v>
@@ -5513,15 +5569,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="31"/>
-      <c r="BL41" s="31"/>
-      <c r="BM41" s="89"/>
-      <c r="BN41" s="89"/>
-      <c r="BO41" s="89"/>
-      <c r="BP41" s="89"/>
-      <c r="BQ41" s="89"/>
-      <c r="BR41" s="89"/>
-      <c r="BS41" s="89"/>
+      <c r="BK41" s="94"/>
+      <c r="BL41" s="95"/>
+      <c r="BM41" s="95"/>
+      <c r="BN41" s="95"/>
+      <c r="BO41" s="95"/>
+      <c r="BP41" s="95"/>
+      <c r="BQ41" s="95"/>
+      <c r="BR41" s="95"/>
+      <c r="BS41" s="96"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5535,17 +5591,19 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="68"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>3</v>
+      </c>
       <c r="D42" s="69">
         <v>45252</v>
       </c>
       <c r="E42" s="69">
-        <v>44524</v>
+        <v>44528</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="31"/>
@@ -5606,13 +5664,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="31"/>
-      <c r="BN42" s="31"/>
-      <c r="BO42" s="31"/>
-      <c r="BP42" s="44"/>
-      <c r="BQ42" s="44"/>
-      <c r="BR42" s="31"/>
-      <c r="BS42" s="31"/>
+      <c r="BM42" s="91"/>
+      <c r="BN42" s="91"/>
+      <c r="BO42" s="91"/>
+      <c r="BP42" s="91"/>
+      <c r="BQ42" s="91"/>
+      <c r="BR42" s="91"/>
+      <c r="BS42" s="91"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5626,14 +5684,14 @@
       <c r="CD42" s="44"/>
       <c r="CE42" s="44"/>
     </row>
-    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="69">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="E43" s="69">
         <v>44524</v>
@@ -5717,114 +5775,209 @@
       <c r="CD43" s="44"/>
       <c r="CE43" s="44"/>
     </row>
-    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69">
+        <v>45253</v>
+      </c>
+      <c r="E44" s="69">
+        <v>44524</v>
+      </c>
+      <c r="F44" s="41"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="31"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="31"/>
+      <c r="AZ44" s="31"/>
+      <c r="BA44" s="31"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="44"/>
+      <c r="BD44" s="31"/>
+      <c r="BE44" s="31"/>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="31"/>
+      <c r="BM44" s="31"/>
+      <c r="BN44" s="31"/>
+      <c r="BO44" s="31"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="44"/>
+      <c r="BR44" s="31"/>
+      <c r="BS44" s="31"/>
+      <c r="BT44" s="31"/>
+      <c r="BU44" s="31"/>
+      <c r="BV44" s="31"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="44"/>
+      <c r="BY44" s="44"/>
+      <c r="BZ44" s="31"/>
+      <c r="CA44" s="31"/>
+      <c r="CB44" s="31"/>
+      <c r="CC44" s="31"/>
+      <c r="CD44" s="44"/>
+      <c r="CE44" s="44"/>
+    </row>
+    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="90"/>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="90"/>
-      <c r="AD44" s="90"/>
-      <c r="AE44" s="90"/>
-      <c r="AF44" s="90"/>
-      <c r="AG44" s="90"/>
-      <c r="AH44" s="90"/>
-      <c r="AI44" s="90"/>
-      <c r="AJ44" s="90"/>
-      <c r="AK44" s="90"/>
-      <c r="AL44" s="90"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="90"/>
-      <c r="AO44" s="90"/>
-      <c r="AP44" s="90"/>
-      <c r="AQ44" s="90"/>
-      <c r="AR44" s="90"/>
-      <c r="AS44" s="90"/>
-      <c r="AT44" s="90"/>
-      <c r="AU44" s="90"/>
-      <c r="AV44" s="90"/>
-      <c r="AW44" s="90"/>
-      <c r="AX44" s="90"/>
-      <c r="AY44" s="90"/>
-      <c r="AZ44" s="90"/>
-      <c r="BA44" s="90"/>
-      <c r="BB44" s="90"/>
-      <c r="BC44" s="90"/>
-      <c r="BD44" s="90"/>
-      <c r="BE44" s="90"/>
-      <c r="BF44" s="90"/>
-      <c r="BG44" s="90"/>
-      <c r="BH44" s="90"/>
-      <c r="BI44" s="90"/>
-      <c r="BJ44" s="90"/>
-      <c r="BK44" s="90"/>
-      <c r="BL44" s="90"/>
-      <c r="BM44" s="90"/>
-      <c r="BN44" s="90"/>
-      <c r="BO44" s="90"/>
-      <c r="BP44" s="90"/>
-      <c r="BQ44" s="90"/>
-      <c r="BR44" s="90"/>
-      <c r="BS44" s="90"/>
-      <c r="BT44" s="90"/>
-      <c r="BU44" s="90"/>
-      <c r="BV44" s="90"/>
-      <c r="BW44" s="90"/>
-      <c r="BX44" s="90"/>
-      <c r="BY44" s="90"/>
-      <c r="BZ44" s="90"/>
-      <c r="CA44" s="90"/>
-      <c r="CB44" s="90"/>
-      <c r="CC44" s="90"/>
-      <c r="CD44" s="90"/>
-      <c r="CE44" s="91"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="92"/>
+      <c r="AG45" s="92"/>
+      <c r="AH45" s="92"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="92"/>
+      <c r="AK45" s="92"/>
+      <c r="AL45" s="92"/>
+      <c r="AM45" s="92"/>
+      <c r="AN45" s="92"/>
+      <c r="AO45" s="92"/>
+      <c r="AP45" s="92"/>
+      <c r="AQ45" s="92"/>
+      <c r="AR45" s="92"/>
+      <c r="AS45" s="92"/>
+      <c r="AT45" s="92"/>
+      <c r="AU45" s="92"/>
+      <c r="AV45" s="92"/>
+      <c r="AW45" s="92"/>
+      <c r="AX45" s="92"/>
+      <c r="AY45" s="92"/>
+      <c r="AZ45" s="92"/>
+      <c r="BA45" s="92"/>
+      <c r="BB45" s="92"/>
+      <c r="BC45" s="92"/>
+      <c r="BD45" s="92"/>
+      <c r="BE45" s="92"/>
+      <c r="BF45" s="92"/>
+      <c r="BG45" s="92"/>
+      <c r="BH45" s="92"/>
+      <c r="BI45" s="92"/>
+      <c r="BJ45" s="92"/>
+      <c r="BK45" s="92"/>
+      <c r="BL45" s="92"/>
+      <c r="BM45" s="92"/>
+      <c r="BN45" s="92"/>
+      <c r="BO45" s="92"/>
+      <c r="BP45" s="92"/>
+      <c r="BQ45" s="92"/>
+      <c r="BR45" s="92"/>
+      <c r="BS45" s="92"/>
+      <c r="BT45" s="92"/>
+      <c r="BU45" s="92"/>
+      <c r="BV45" s="92"/>
+      <c r="BW45" s="92"/>
+      <c r="BX45" s="92"/>
+      <c r="BY45" s="92"/>
+      <c r="BZ45" s="92"/>
+      <c r="CA45" s="92"/>
+      <c r="CB45" s="92"/>
+      <c r="CC45" s="92"/>
+      <c r="CD45" s="92"/>
+      <c r="CE45" s="93"/>
     </row>
-    <row r="46" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="75"/>
-      <c r="E46" s="76"/>
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="75"/>
+      <c r="E47" s="76"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="77"/>
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="31">
     <mergeCell ref="AD16:AK16"/>
     <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
     <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="BM41:BS41"/>
-    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="AR28:BE28"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="AO25:AT25"/>
     <mergeCell ref="AP26:AY26"/>
     <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI38:BO38"/>
-    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BF38:BL38"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vesze\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD87C7-4309-4243-82A6-8ED7A5A0346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A19D2D0-C6A6-4DA6-83FA-6A49C76F5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -843,7 +854,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,101 +1073,98 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1558,10 +1566,10 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="BI23" sqref="BI23"/>
+      <selection pane="bottomLeft" activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1772,10 +1780,10 @@
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="86">
+      <c r="D3" s="115">
         <v>45197</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1861,117 +1869,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88">
+      <c r="F4" s="116"/>
+      <c r="G4" s="113">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88">
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88">
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88">
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88">
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88">
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88">
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88">
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88">
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="113"/>
+      <c r="BH4" s="113"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="88"/>
-      <c r="BQ4" s="88"/>
-      <c r="BR4" s="88">
+      <c r="BL4" s="113"/>
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="113"/>
+      <c r="BO4" s="113"/>
+      <c r="BP4" s="113"/>
+      <c r="BQ4" s="113"/>
+      <c r="BR4" s="113">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="88"/>
-      <c r="BU4" s="88"/>
-      <c r="BV4" s="88"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="88"/>
-      <c r="BY4" s="88">
+      <c r="BS4" s="113"/>
+      <c r="BT4" s="113"/>
+      <c r="BU4" s="113"/>
+      <c r="BV4" s="113"/>
+      <c r="BW4" s="113"/>
+      <c r="BX4" s="113"/>
+      <c r="BY4" s="113">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="88"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="88"/>
-      <c r="CC4" s="88"/>
-      <c r="CD4" s="88"/>
-      <c r="CE4" s="88"/>
+      <c r="BZ4" s="113"/>
+      <c r="CA4" s="113"/>
+      <c r="CB4" s="113"/>
+      <c r="CC4" s="113"/>
+      <c r="CD4" s="113"/>
+      <c r="CE4" s="113"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1987,7 +1995,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2491,15 +2499,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2756,7 +2764,7 @@
         <v>45214</v>
       </c>
       <c r="E11" s="52">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="31"/>
@@ -2779,15 +2787,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="105"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="31"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -3057,13 +3065,13 @@
       <c r="AA14" s="44"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="108"/>
-      <c r="AH14" s="108"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="109"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="101"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
@@ -3241,14 +3249,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="101"/>
-      <c r="AK16" s="102"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="88"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="89"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3310,7 +3318,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3397,7 +3405,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -4087,7 +4095,7 @@
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
-      <c r="AY25" s="110"/>
+      <c r="AY25" s="31"/>
       <c r="AZ25" s="31"/>
       <c r="BA25" s="31"/>
       <c r="BB25" s="44"/>
@@ -4171,16 +4179,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4264,23 +4272,23 @@
       <c r="AM27" s="31"/>
       <c r="AN27" s="44"/>
       <c r="AO27" s="44"/>
-      <c r="AP27" s="110"/>
-      <c r="AQ27" s="110"/>
-      <c r="AR27" s="110"/>
-      <c r="AS27" s="110"/>
-      <c r="AT27" s="110"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="112"/>
-      <c r="AX27" s="112"/>
-      <c r="AY27" s="112"/>
-      <c r="AZ27" s="112"/>
-      <c r="BA27" s="112"/>
-      <c r="BB27" s="112"/>
-      <c r="BC27" s="112"/>
-      <c r="BD27" s="112"/>
-      <c r="BE27" s="112"/>
-      <c r="BF27" s="113"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="92"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4319,7 +4327,7 @@
         <v>45231</v>
       </c>
       <c r="E28" s="60">
-        <v>45244</v>
+        <v>45241</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="31"/>
@@ -4359,20 +4367,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="95"/>
-      <c r="BC28" s="95"/>
-      <c r="BD28" s="95"/>
-      <c r="BE28" s="96"/>
+      <c r="AR28" s="96"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="97"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="97"/>
+      <c r="AY28" s="97"/>
+      <c r="AZ28" s="97"/>
+      <c r="BA28" s="97"/>
+      <c r="BB28" s="98"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4453,17 +4461,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="100"/>
-      <c r="AT29" s="101"/>
-      <c r="AU29" s="101"/>
-      <c r="AV29" s="101"/>
-      <c r="AW29" s="101"/>
-      <c r="AX29" s="101"/>
-      <c r="AY29" s="101"/>
-      <c r="AZ29" s="101"/>
-      <c r="BA29" s="101"/>
-      <c r="BB29" s="101"/>
-      <c r="BC29" s="102"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
+      <c r="BA29" s="88"/>
+      <c r="BB29" s="88"/>
+      <c r="BC29" s="89"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4547,17 +4555,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="94"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="96"/>
+      <c r="AT30" s="96"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="97"/>
+      <c r="AY30" s="97"/>
+      <c r="AZ30" s="97"/>
+      <c r="BA30" s="97"/>
+      <c r="BB30" s="97"/>
+      <c r="BC30" s="97"/>
+      <c r="BD30" s="98"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4691,7 +4699,7 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4778,7 +4786,7 @@
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="90"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
@@ -4865,7 +4873,7 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="90"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -4958,7 +4966,7 @@
       <c r="E35" s="69">
         <v>45244</v>
       </c>
-      <c r="F35" s="90"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -5287,15 +5295,15 @@
       <c r="BC38" s="44"/>
       <c r="BD38" s="31"/>
       <c r="BE38" s="31"/>
-      <c r="BF38" s="115"/>
-      <c r="BG38" s="116"/>
-      <c r="BH38" s="116"/>
-      <c r="BI38" s="116"/>
-      <c r="BJ38" s="116"/>
-      <c r="BK38" s="116"/>
-      <c r="BL38" s="117"/>
+      <c r="BF38" s="110"/>
+      <c r="BG38" s="111"/>
+      <c r="BH38" s="111"/>
+      <c r="BI38" s="111"/>
+      <c r="BJ38" s="111"/>
+      <c r="BK38" s="111"/>
+      <c r="BL38" s="112"/>
       <c r="BM38" s="31"/>
-      <c r="BN38" s="114"/>
+      <c r="BN38" s="86"/>
       <c r="BO38" s="31"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
@@ -5383,13 +5391,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="98"/>
-      <c r="BK39" s="98"/>
-      <c r="BL39" s="98"/>
-      <c r="BM39" s="98"/>
-      <c r="BN39" s="98"/>
-      <c r="BO39" s="99"/>
+      <c r="BI39" s="107"/>
+      <c r="BJ39" s="108"/>
+      <c r="BK39" s="108"/>
+      <c r="BL39" s="108"/>
+      <c r="BM39" s="108"/>
+      <c r="BN39" s="108"/>
+      <c r="BO39" s="109"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5503,9 +5511,7 @@
       <c r="B41" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="C41" s="68"/>
       <c r="D41" s="69">
         <v>45250</v>
       </c>
@@ -5569,15 +5575,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="94"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="96"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
+      <c r="BN41" s="31"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="44"/>
+      <c r="BQ41" s="44"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5664,13 +5670,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="91"/>
-      <c r="BN42" s="91"/>
-      <c r="BO42" s="91"/>
-      <c r="BP42" s="91"/>
-      <c r="BQ42" s="91"/>
-      <c r="BR42" s="91"/>
-      <c r="BS42" s="91"/>
+      <c r="BM42" s="103"/>
+      <c r="BN42" s="103"/>
+      <c r="BO42" s="103"/>
+      <c r="BP42" s="103"/>
+      <c r="BQ42" s="103"/>
+      <c r="BR42" s="103"/>
+      <c r="BS42" s="103"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5875,83 +5881,83 @@
       <c r="D45" s="72"/>
       <c r="E45" s="73"/>
       <c r="F45" s="74"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="92"/>
-      <c r="AO45" s="92"/>
-      <c r="AP45" s="92"/>
-      <c r="AQ45" s="92"/>
-      <c r="AR45" s="92"/>
-      <c r="AS45" s="92"/>
-      <c r="AT45" s="92"/>
-      <c r="AU45" s="92"/>
-      <c r="AV45" s="92"/>
-      <c r="AW45" s="92"/>
-      <c r="AX45" s="92"/>
-      <c r="AY45" s="92"/>
-      <c r="AZ45" s="92"/>
-      <c r="BA45" s="92"/>
-      <c r="BB45" s="92"/>
-      <c r="BC45" s="92"/>
-      <c r="BD45" s="92"/>
-      <c r="BE45" s="92"/>
-      <c r="BF45" s="92"/>
-      <c r="BG45" s="92"/>
-      <c r="BH45" s="92"/>
-      <c r="BI45" s="92"/>
-      <c r="BJ45" s="92"/>
-      <c r="BK45" s="92"/>
-      <c r="BL45" s="92"/>
-      <c r="BM45" s="92"/>
-      <c r="BN45" s="92"/>
-      <c r="BO45" s="92"/>
-      <c r="BP45" s="92"/>
-      <c r="BQ45" s="92"/>
-      <c r="BR45" s="92"/>
-      <c r="BS45" s="92"/>
-      <c r="BT45" s="92"/>
-      <c r="BU45" s="92"/>
-      <c r="BV45" s="92"/>
-      <c r="BW45" s="92"/>
-      <c r="BX45" s="92"/>
-      <c r="BY45" s="92"/>
-      <c r="BZ45" s="92"/>
-      <c r="CA45" s="92"/>
-      <c r="CB45" s="92"/>
-      <c r="CC45" s="92"/>
-      <c r="CD45" s="92"/>
-      <c r="CE45" s="93"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="104"/>
+      <c r="AJ45" s="104"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="104"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="104"/>
+      <c r="AT45" s="104"/>
+      <c r="AU45" s="104"/>
+      <c r="AV45" s="104"/>
+      <c r="AW45" s="104"/>
+      <c r="AX45" s="104"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="104"/>
+      <c r="BG45" s="104"/>
+      <c r="BH45" s="104"/>
+      <c r="BI45" s="104"/>
+      <c r="BJ45" s="104"/>
+      <c r="BK45" s="104"/>
+      <c r="BL45" s="104"/>
+      <c r="BM45" s="104"/>
+      <c r="BN45" s="104"/>
+      <c r="BO45" s="104"/>
+      <c r="BP45" s="104"/>
+      <c r="BQ45" s="104"/>
+      <c r="BR45" s="104"/>
+      <c r="BS45" s="104"/>
+      <c r="BT45" s="104"/>
+      <c r="BU45" s="104"/>
+      <c r="BV45" s="104"/>
+      <c r="BW45" s="104"/>
+      <c r="BX45" s="104"/>
+      <c r="BY45" s="104"/>
+      <c r="BZ45" s="104"/>
+      <c r="CA45" s="104"/>
+      <c r="CB45" s="104"/>
+      <c r="CC45" s="104"/>
+      <c r="CD45" s="104"/>
+      <c r="CE45" s="105"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="75"/>
@@ -5961,23 +5967,12 @@
       <c r="C48" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AR28:BE28"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BK41:BS41"/>
-    <mergeCell ref="BF38:BL38"/>
+  <mergeCells count="30">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5988,11 +5983,21 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AA11:AH11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duruczadam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A19D2D0-C6A6-4DA6-83FA-6A49C76F5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B24670-37A4-C248-839B-7A7EC163B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -223,7 +223,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -411,15 +411,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="31">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7A5C9A"/>
+        <bgColor rgb="FF8064A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
@@ -574,30 +573,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3D69B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3D69B"/>
-        <bgColor rgb="FFEBF1DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3D69B"/>
-        <bgColor rgb="FF8064A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -854,7 +829,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,25 +985,25 @@
     <xf numFmtId="14" fontId="7" fillId="21" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="23" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="7" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="24" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1026,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1073,8 +1048,50 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,33 +1102,6 @@
     <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,51 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1249,9 +1194,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFC3D69B"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1566,23 +1508,23 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AF21" sqref="AF21"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.5546875" customWidth="1"/>
+    <col min="6" max="83" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1687,16 +1629,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1776,14 +1718,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="115">
+      <c r="D3" s="86">
         <v>45197</v>
       </c>
-      <c r="E3" s="115"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1863,125 +1805,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="113">
+      <c r="F4" s="87"/>
+      <c r="G4" s="88">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113">
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="113">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="113"/>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113">
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="113"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="113"/>
-      <c r="AS4" s="113"/>
-      <c r="AT4" s="113"/>
-      <c r="AU4" s="113"/>
-      <c r="AV4" s="113"/>
-      <c r="AW4" s="113">
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="113"/>
-      <c r="AY4" s="113"/>
-      <c r="AZ4" s="113"/>
-      <c r="BA4" s="113"/>
-      <c r="BB4" s="113"/>
-      <c r="BC4" s="113"/>
-      <c r="BD4" s="113">
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="113"/>
-      <c r="BF4" s="113"/>
-      <c r="BG4" s="113"/>
-      <c r="BH4" s="113"/>
-      <c r="BI4" s="113"/>
-      <c r="BJ4" s="113"/>
-      <c r="BK4" s="113">
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="113"/>
-      <c r="BM4" s="113"/>
-      <c r="BN4" s="113"/>
-      <c r="BO4" s="113"/>
-      <c r="BP4" s="113"/>
-      <c r="BQ4" s="113"/>
-      <c r="BR4" s="113">
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="113"/>
-      <c r="BT4" s="113"/>
-      <c r="BU4" s="113"/>
-      <c r="BV4" s="113"/>
-      <c r="BW4" s="113"/>
-      <c r="BX4" s="113"/>
-      <c r="BY4" s="113">
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="113"/>
-      <c r="CA4" s="113"/>
-      <c r="CB4" s="113"/>
-      <c r="CC4" s="113"/>
-      <c r="CD4" s="113"/>
-      <c r="CE4" s="113"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="23" t="s">
         <v>12</v>
@@ -1995,7 +1937,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="116"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2305,7 +2247,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="9"/>
       <c r="C6" s="29"/>
@@ -2390,7 +2332,7 @@
       <c r="CD6" s="31"/>
       <c r="CE6" s="31"/>
     </row>
-    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="32" t="s">
         <v>16</v>
@@ -2477,7 +2419,7 @@
       <c r="CD7" s="1"/>
       <c r="CE7" s="84"/>
     </row>
-    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
@@ -2499,15 +2441,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2571,7 +2513,7 @@
       <c r="CD8" s="44"/>
       <c r="CE8" s="44"/>
     </row>
-    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="38" t="s">
         <v>18</v>
@@ -2665,7 +2607,7 @@
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
     </row>
-    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -2752,7 +2694,7 @@
       <c r="CD10" s="1"/>
       <c r="CE10" s="84"/>
     </row>
-    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="50" t="s">
         <v>20</v>
@@ -2764,7 +2706,7 @@
         <v>45214</v>
       </c>
       <c r="E11" s="52">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="31"/>
@@ -2787,15 +2729,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="31"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="106"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -2845,7 +2787,7 @@
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
     </row>
-    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="50" t="s">
         <v>21</v>
@@ -2936,7 +2878,7 @@
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
     </row>
-    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="50" t="s">
         <v>22</v>
@@ -3027,19 +2969,19 @@
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
     </row>
-    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="52">
         <v>45217</v>
       </c>
       <c r="E14" s="52">
-        <v>45223</v>
+        <v>45222</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="31"/>
@@ -3065,13 +3007,13 @@
       <c r="AA14" s="44"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="101"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
@@ -3120,7 +3062,7 @@
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
     </row>
-    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="50" t="s">
         <v>24</v>
@@ -3211,7 +3153,7 @@
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
     </row>
-    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="50" t="s">
         <v>25</v>
@@ -3249,14 +3191,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="89"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="103"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3304,7 +3246,7 @@
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
     </row>
-    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="50" t="s">
         <v>26</v>
@@ -3318,7 +3260,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3397,7 +3339,7 @@
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
     </row>
-    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -3405,7 +3347,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="102"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3484,14 +3426,16 @@
       <c r="CD18" s="57"/>
       <c r="CE18" s="85"/>
     </row>
-    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="59" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="60">
         <v>45222</v>
       </c>
@@ -3577,12 +3521,14 @@
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
     </row>
-    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="59" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="60">
         <v>45223</v>
       </c>
@@ -3668,7 +3614,7 @@
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
     </row>
-    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="58" t="s">
         <v>30</v>
@@ -3761,7 +3707,7 @@
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
     </row>
-    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="58" t="s">
         <v>31</v>
@@ -3852,7 +3798,7 @@
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
     </row>
-    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="58" t="s">
         <v>32</v>
@@ -3943,7 +3889,7 @@
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
     </row>
-    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="58" t="s">
         <v>33</v>
@@ -4036,14 +3982,12 @@
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
     </row>
-    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>2</v>
-      </c>
+      <c r="C25" s="59"/>
       <c r="D25" s="60">
         <v>45228</v>
       </c>
@@ -4085,12 +4029,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -4129,7 +4073,7 @@
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
     </row>
-    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
         <v>44</v>
@@ -4179,16 +4123,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="103"/>
-      <c r="AU26" s="103"/>
-      <c r="AV26" s="103"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4222,13 +4166,13 @@
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
     </row>
-    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="60">
         <v>45235</v>
@@ -4278,17 +4222,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="91"/>
-      <c r="BE27" s="91"/>
-      <c r="BF27" s="92"/>
+      <c r="AV27" s="101"/>
+      <c r="AW27" s="102"/>
+      <c r="AX27" s="102"/>
+      <c r="AY27" s="102"/>
+      <c r="AZ27" s="102"/>
+      <c r="BA27" s="102"/>
+      <c r="BB27" s="102"/>
+      <c r="BC27" s="102"/>
+      <c r="BD27" s="102"/>
+      <c r="BE27" s="102"/>
+      <c r="BF27" s="103"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4315,7 +4259,7 @@
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
     </row>
-    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="58" t="s">
         <v>46</v>
@@ -4327,7 +4271,7 @@
         <v>45231</v>
       </c>
       <c r="E28" s="60">
-        <v>45241</v>
+        <v>45244</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="31"/>
@@ -4367,20 +4311,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="96"/>
-      <c r="AS28" s="97"/>
-      <c r="AT28" s="97"/>
-      <c r="AU28" s="97"/>
-      <c r="AV28" s="97"/>
-      <c r="AW28" s="97"/>
-      <c r="AX28" s="97"/>
-      <c r="AY28" s="97"/>
-      <c r="AZ28" s="97"/>
-      <c r="BA28" s="97"/>
-      <c r="BB28" s="98"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
+      <c r="AR28" s="95"/>
+      <c r="AS28" s="96"/>
+      <c r="AT28" s="96"/>
+      <c r="AU28" s="96"/>
+      <c r="AV28" s="96"/>
+      <c r="AW28" s="96"/>
+      <c r="AX28" s="96"/>
+      <c r="AY28" s="96"/>
+      <c r="AZ28" s="96"/>
+      <c r="BA28" s="96"/>
+      <c r="BB28" s="96"/>
+      <c r="BC28" s="96"/>
+      <c r="BD28" s="96"/>
+      <c r="BE28" s="97"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4408,7 +4352,7 @@
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
     </row>
-    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
         <v>47</v>
@@ -4461,17 +4405,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="88"/>
-      <c r="AY29" s="88"/>
-      <c r="AZ29" s="88"/>
-      <c r="BA29" s="88"/>
-      <c r="BB29" s="88"/>
-      <c r="BC29" s="89"/>
+      <c r="AS29" s="101"/>
+      <c r="AT29" s="102"/>
+      <c r="AU29" s="102"/>
+      <c r="AV29" s="102"/>
+      <c r="AW29" s="102"/>
+      <c r="AX29" s="102"/>
+      <c r="AY29" s="102"/>
+      <c r="AZ29" s="102"/>
+      <c r="BA29" s="102"/>
+      <c r="BB29" s="102"/>
+      <c r="BC29" s="103"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4501,7 +4445,7 @@
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
     </row>
-    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="58" t="s">
         <v>48</v>
@@ -4555,17 +4499,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="97"/>
-      <c r="AV30" s="97"/>
-      <c r="AW30" s="97"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="97"/>
-      <c r="AZ30" s="97"/>
-      <c r="BA30" s="97"/>
-      <c r="BB30" s="97"/>
-      <c r="BC30" s="97"/>
-      <c r="BD30" s="98"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="96"/>
+      <c r="AV30" s="96"/>
+      <c r="AW30" s="96"/>
+      <c r="AX30" s="96"/>
+      <c r="AY30" s="96"/>
+      <c r="AZ30" s="96"/>
+      <c r="BA30" s="96"/>
+      <c r="BB30" s="96"/>
+      <c r="BC30" s="96"/>
+      <c r="BD30" s="97"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4594,7 +4538,7 @@
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
     </row>
-    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="58" t="s">
         <v>49</v>
@@ -4685,7 +4629,7 @@
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
     </row>
-    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
         <v>50</v>
@@ -4699,7 +4643,7 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="102"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4778,7 +4722,7 @@
       <c r="CD32" s="80"/>
       <c r="CE32" s="80"/>
     </row>
-    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="58" t="s">
         <v>51</v>
@@ -4786,7 +4730,7 @@
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="102"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
@@ -4865,7 +4809,7 @@
       <c r="CD33" s="82"/>
       <c r="CE33" s="82"/>
     </row>
-    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="63" t="s">
         <v>34</v>
@@ -4873,7 +4817,7 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="102"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -4952,7 +4896,7 @@
       <c r="CD34" s="74"/>
       <c r="CE34" s="83"/>
     </row>
-    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="67" t="s">
         <v>35</v>
@@ -4966,7 +4910,7 @@
       <c r="E35" s="69">
         <v>45244</v>
       </c>
-      <c r="F35" s="102"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -5045,7 +4989,7 @@
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
     </row>
-    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="67" t="s">
         <v>36</v>
@@ -5138,7 +5082,7 @@
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
     </row>
-    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="67" t="s">
         <v>37</v>
@@ -5229,16 +5173,16 @@
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
     </row>
-    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" s="69">
-        <v>45245</v>
+        <v>45247</v>
       </c>
       <c r="E38" s="69">
         <v>45251</v>
@@ -5295,15 +5239,15 @@
       <c r="BC38" s="44"/>
       <c r="BD38" s="31"/>
       <c r="BE38" s="31"/>
-      <c r="BF38" s="110"/>
-      <c r="BG38" s="111"/>
-      <c r="BH38" s="111"/>
-      <c r="BI38" s="111"/>
-      <c r="BJ38" s="111"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="112"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="44"/>
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
       <c r="BM38" s="31"/>
-      <c r="BN38" s="86"/>
+      <c r="BN38" s="31"/>
       <c r="BO38" s="31"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
@@ -5322,7 +5266,7 @@
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
     </row>
-    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="67" t="s">
         <v>39</v>
@@ -5391,13 +5335,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="107"/>
-      <c r="BJ39" s="108"/>
-      <c r="BK39" s="108"/>
-      <c r="BL39" s="108"/>
-      <c r="BM39" s="108"/>
-      <c r="BN39" s="108"/>
-      <c r="BO39" s="109"/>
+      <c r="BI39" s="98"/>
+      <c r="BJ39" s="99"/>
+      <c r="BK39" s="99"/>
+      <c r="BL39" s="99"/>
+      <c r="BM39" s="99"/>
+      <c r="BN39" s="99"/>
+      <c r="BO39" s="100"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5415,7 +5359,7 @@
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
     </row>
-    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="67" t="s">
         <v>40</v>
@@ -5506,12 +5450,14 @@
       <c r="CD40" s="44"/>
       <c r="CE40" s="44"/>
     </row>
-    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="68" t="s">
+        <v>4</v>
+      </c>
       <c r="D41" s="69">
         <v>45250</v>
       </c>
@@ -5575,15 +5521,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="31"/>
-      <c r="BL41" s="31"/>
-      <c r="BM41" s="31"/>
-      <c r="BN41" s="31"/>
-      <c r="BO41" s="31"/>
-      <c r="BP41" s="44"/>
-      <c r="BQ41" s="44"/>
-      <c r="BR41" s="31"/>
-      <c r="BS41" s="31"/>
+      <c r="BK41" s="95"/>
+      <c r="BL41" s="96"/>
+      <c r="BM41" s="96"/>
+      <c r="BN41" s="96"/>
+      <c r="BO41" s="96"/>
+      <c r="BP41" s="96"/>
+      <c r="BQ41" s="96"/>
+      <c r="BR41" s="96"/>
+      <c r="BS41" s="97"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5597,7 +5543,7 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
         <v>52</v>
@@ -5670,13 +5616,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="103"/>
-      <c r="BN42" s="103"/>
-      <c r="BO42" s="103"/>
-      <c r="BP42" s="103"/>
-      <c r="BQ42" s="103"/>
-      <c r="BR42" s="103"/>
-      <c r="BS42" s="103"/>
+      <c r="BM42" s="91"/>
+      <c r="BN42" s="91"/>
+      <c r="BO42" s="91"/>
+      <c r="BP42" s="91"/>
+      <c r="BQ42" s="91"/>
+      <c r="BR42" s="91"/>
+      <c r="BS42" s="91"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5690,12 +5636,14 @@
       <c r="CD42" s="44"/>
       <c r="CE42" s="44"/>
     </row>
-    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="68" t="s">
+        <v>5</v>
+      </c>
       <c r="D43" s="69">
         <v>45252</v>
       </c>
@@ -5781,7 +5729,7 @@
       <c r="CD43" s="44"/>
       <c r="CE43" s="44"/>
     </row>
-    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="67" t="s">
         <v>54</v>
@@ -5872,7 +5820,7 @@
       <c r="CD44" s="44"/>
       <c r="CE44" s="44"/>
     </row>
-    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="70" t="s">
         <v>42</v>
@@ -5881,98 +5829,107 @@
       <c r="D45" s="72"/>
       <c r="E45" s="73"/>
       <c r="F45" s="74"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="104"/>
-      <c r="V45" s="104"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="104"/>
-      <c r="AG45" s="104"/>
-      <c r="AH45" s="104"/>
-      <c r="AI45" s="104"/>
-      <c r="AJ45" s="104"/>
-      <c r="AK45" s="104"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="104"/>
-      <c r="AN45" s="104"/>
-      <c r="AO45" s="104"/>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="104"/>
-      <c r="AR45" s="104"/>
-      <c r="AS45" s="104"/>
-      <c r="AT45" s="104"/>
-      <c r="AU45" s="104"/>
-      <c r="AV45" s="104"/>
-      <c r="AW45" s="104"/>
-      <c r="AX45" s="104"/>
-      <c r="AY45" s="104"/>
-      <c r="AZ45" s="104"/>
-      <c r="BA45" s="104"/>
-      <c r="BB45" s="104"/>
-      <c r="BC45" s="104"/>
-      <c r="BD45" s="104"/>
-      <c r="BE45" s="104"/>
-      <c r="BF45" s="104"/>
-      <c r="BG45" s="104"/>
-      <c r="BH45" s="104"/>
-      <c r="BI45" s="104"/>
-      <c r="BJ45" s="104"/>
-      <c r="BK45" s="104"/>
-      <c r="BL45" s="104"/>
-      <c r="BM45" s="104"/>
-      <c r="BN45" s="104"/>
-      <c r="BO45" s="104"/>
-      <c r="BP45" s="104"/>
-      <c r="BQ45" s="104"/>
-      <c r="BR45" s="104"/>
-      <c r="BS45" s="104"/>
-      <c r="BT45" s="104"/>
-      <c r="BU45" s="104"/>
-      <c r="BV45" s="104"/>
-      <c r="BW45" s="104"/>
-      <c r="BX45" s="104"/>
-      <c r="BY45" s="104"/>
-      <c r="BZ45" s="104"/>
-      <c r="CA45" s="104"/>
-      <c r="CB45" s="104"/>
-      <c r="CC45" s="104"/>
-      <c r="CD45" s="104"/>
-      <c r="CE45" s="105"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+      <c r="AF45" s="92"/>
+      <c r="AG45" s="92"/>
+      <c r="AH45" s="92"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="92"/>
+      <c r="AK45" s="92"/>
+      <c r="AL45" s="92"/>
+      <c r="AM45" s="92"/>
+      <c r="AN45" s="92"/>
+      <c r="AO45" s="92"/>
+      <c r="AP45" s="92"/>
+      <c r="AQ45" s="92"/>
+      <c r="AR45" s="92"/>
+      <c r="AS45" s="92"/>
+      <c r="AT45" s="92"/>
+      <c r="AU45" s="92"/>
+      <c r="AV45" s="92"/>
+      <c r="AW45" s="92"/>
+      <c r="AX45" s="92"/>
+      <c r="AY45" s="92"/>
+      <c r="AZ45" s="92"/>
+      <c r="BA45" s="92"/>
+      <c r="BB45" s="92"/>
+      <c r="BC45" s="92"/>
+      <c r="BD45" s="92"/>
+      <c r="BE45" s="92"/>
+      <c r="BF45" s="92"/>
+      <c r="BG45" s="92"/>
+      <c r="BH45" s="92"/>
+      <c r="BI45" s="92"/>
+      <c r="BJ45" s="92"/>
+      <c r="BK45" s="92"/>
+      <c r="BL45" s="92"/>
+      <c r="BM45" s="92"/>
+      <c r="BN45" s="92"/>
+      <c r="BO45" s="92"/>
+      <c r="BP45" s="92"/>
+      <c r="BQ45" s="92"/>
+      <c r="BR45" s="92"/>
+      <c r="BS45" s="92"/>
+      <c r="BT45" s="92"/>
+      <c r="BU45" s="92"/>
+      <c r="BV45" s="92"/>
+      <c r="BW45" s="92"/>
+      <c r="BX45" s="92"/>
+      <c r="BY45" s="92"/>
+      <c r="BZ45" s="92"/>
+      <c r="CA45" s="92"/>
+      <c r="CB45" s="92"/>
+      <c r="CC45" s="92"/>
+      <c r="CD45" s="92"/>
+      <c r="CE45" s="93"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="75"/>
       <c r="E47" s="76"/>
     </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+  <mergeCells count="29">
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AA11:AI11"/>
+    <mergeCell ref="AR28:BE28"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BK41:BS41"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5983,21 +5940,11 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duruczadam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B24670-37A4-C248-839B-7A7EC163B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A19D2D0-C6A6-4DA6-83FA-6A49C76F5F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -223,7 +223,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -411,8 +411,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,12 +548,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7A5C9A"/>
-        <bgColor rgb="FF8064A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
@@ -573,6 +574,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FF8064A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +854,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,25 +1010,25 @@
     <xf numFmtId="14" fontId="7" fillId="21" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="24" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="7" fillId="23" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1051,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1048,68 +1073,98 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1194,6 +1249,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC3D69B"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1508,23 +1566,23 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.5" customWidth="1"/>
+    <col min="6" max="83" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1629,16 +1687,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="8"/>
       <c r="G2" s="21"/>
       <c r="H2" s="9"/>
@@ -1718,14 +1776,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="22"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="86">
+      <c r="D3" s="115">
         <v>45197</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1805,125 +1863,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88">
+      <c r="F4" s="116"/>
+      <c r="G4" s="113">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88">
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88">
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88">
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88">
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88">
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88">
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88">
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88">
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="113"/>
+      <c r="BH4" s="113"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="88"/>
-      <c r="BQ4" s="88"/>
-      <c r="BR4" s="88">
+      <c r="BL4" s="113"/>
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="113"/>
+      <c r="BO4" s="113"/>
+      <c r="BP4" s="113"/>
+      <c r="BQ4" s="113"/>
+      <c r="BR4" s="113">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="88"/>
-      <c r="BU4" s="88"/>
-      <c r="BV4" s="88"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="88"/>
-      <c r="BY4" s="88">
+      <c r="BS4" s="113"/>
+      <c r="BT4" s="113"/>
+      <c r="BU4" s="113"/>
+      <c r="BV4" s="113"/>
+      <c r="BW4" s="113"/>
+      <c r="BX4" s="113"/>
+      <c r="BY4" s="113">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="88"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="88"/>
-      <c r="CC4" s="88"/>
-      <c r="CD4" s="88"/>
-      <c r="CE4" s="88"/>
+      <c r="BZ4" s="113"/>
+      <c r="CA4" s="113"/>
+      <c r="CB4" s="113"/>
+      <c r="CC4" s="113"/>
+      <c r="CD4" s="113"/>
+      <c r="CE4" s="113"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="23" t="s">
         <v>12</v>
@@ -1937,7 +1995,7 @@
       <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="25">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2247,7 +2305,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="9"/>
       <c r="C6" s="29"/>
@@ -2332,7 +2390,7 @@
       <c r="CD6" s="31"/>
       <c r="CE6" s="31"/>
     </row>
-    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="32" t="s">
         <v>16</v>
@@ -2419,7 +2477,7 @@
       <c r="CD7" s="1"/>
       <c r="CE7" s="84"/>
     </row>
-    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="38" t="s">
         <v>17</v>
@@ -2441,15 +2499,15 @@
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
       <c r="L8" s="43"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
@@ -2513,7 +2571,7 @@
       <c r="CD8" s="44"/>
       <c r="CE8" s="44"/>
     </row>
-    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="38" t="s">
         <v>18</v>
@@ -2607,7 +2665,7 @@
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
     </row>
-    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="46" t="s">
         <v>19</v>
@@ -2694,7 +2752,7 @@
       <c r="CD10" s="1"/>
       <c r="CE10" s="84"/>
     </row>
-    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="50" t="s">
         <v>20</v>
@@ -2706,7 +2764,7 @@
         <v>45214</v>
       </c>
       <c r="E11" s="52">
-        <v>45222</v>
+        <v>45221</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="31"/>
@@ -2729,15 +2787,15 @@
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="106"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="31"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
@@ -2787,7 +2845,7 @@
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
     </row>
-    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="50" t="s">
         <v>21</v>
@@ -2878,7 +2936,7 @@
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
     </row>
-    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="50" t="s">
         <v>22</v>
@@ -2969,19 +3027,19 @@
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
     </row>
-    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="52">
         <v>45217</v>
       </c>
       <c r="E14" s="52">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="31"/>
@@ -3007,13 +3065,13 @@
       <c r="AA14" s="44"/>
       <c r="AB14" s="31"/>
       <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="101"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
@@ -3062,7 +3120,7 @@
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
     </row>
-    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="50" t="s">
         <v>24</v>
@@ -3153,7 +3211,7 @@
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
     </row>
-    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="50" t="s">
         <v>25</v>
@@ -3191,14 +3249,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="103"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="88"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="89"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="44"/>
@@ -3246,7 +3304,7 @@
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
     </row>
-    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="50" t="s">
         <v>26</v>
@@ -3260,7 +3318,7 @@
       <c r="E17" s="52">
         <v>45225</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -3339,7 +3397,7 @@
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
     </row>
-    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="53" t="s">
         <v>27</v>
@@ -3347,7 +3405,7 @@
       <c r="C18" s="54"/>
       <c r="D18" s="55"/>
       <c r="E18" s="56"/>
-      <c r="F18" s="90"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
@@ -3426,16 +3484,14 @@
       <c r="CD18" s="57"/>
       <c r="CE18" s="85"/>
     </row>
-    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="59"/>
       <c r="D19" s="60">
         <v>45222</v>
       </c>
@@ -3521,14 +3577,12 @@
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
     </row>
-    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>5</v>
-      </c>
+      <c r="C20" s="59"/>
       <c r="D20" s="60">
         <v>45223</v>
       </c>
@@ -3614,7 +3668,7 @@
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
     </row>
-    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="58" t="s">
         <v>30</v>
@@ -3707,7 +3761,7 @@
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
     </row>
-    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="58" t="s">
         <v>31</v>
@@ -3798,7 +3852,7 @@
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
     </row>
-    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="58" t="s">
         <v>32</v>
@@ -3889,7 +3943,7 @@
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
     </row>
-    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="58" t="s">
         <v>33</v>
@@ -3982,12 +4036,14 @@
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
     </row>
-    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="60">
         <v>45228</v>
       </c>
@@ -4029,12 +4085,12 @@
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="44"/>
-      <c r="AO25" s="94"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="94"/>
-      <c r="AS25" s="94"/>
-      <c r="AT25" s="94"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="106"/>
+      <c r="AQ25" s="106"/>
+      <c r="AR25" s="106"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="106"/>
       <c r="AU25" s="44"/>
       <c r="AV25" s="44"/>
       <c r="AW25" s="31"/>
@@ -4073,7 +4129,7 @@
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
     </row>
-    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="62" t="s">
         <v>44</v>
@@ -4123,16 +4179,16 @@
       <c r="AM26" s="31"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="44"/>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
       <c r="AZ26" s="31"/>
       <c r="BA26" s="31"/>
       <c r="BB26" s="44"/>
@@ -4166,13 +4222,13 @@
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
     </row>
-    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="60">
         <v>45235</v>
@@ -4222,17 +4278,17 @@
       <c r="AS27" s="31"/>
       <c r="AT27" s="31"/>
       <c r="AU27" s="44"/>
-      <c r="AV27" s="101"/>
-      <c r="AW27" s="102"/>
-      <c r="AX27" s="102"/>
-      <c r="AY27" s="102"/>
-      <c r="AZ27" s="102"/>
-      <c r="BA27" s="102"/>
-      <c r="BB27" s="102"/>
-      <c r="BC27" s="102"/>
-      <c r="BD27" s="102"/>
-      <c r="BE27" s="102"/>
-      <c r="BF27" s="103"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="92"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
       <c r="BI27" s="44"/>
@@ -4259,7 +4315,7 @@
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
     </row>
-    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="58" t="s">
         <v>46</v>
@@ -4271,7 +4327,7 @@
         <v>45231</v>
       </c>
       <c r="E28" s="60">
-        <v>45244</v>
+        <v>45241</v>
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="31"/>
@@ -4311,20 +4367,20 @@
       <c r="AO28" s="44"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
-      <c r="AR28" s="95"/>
-      <c r="AS28" s="96"/>
-      <c r="AT28" s="96"/>
-      <c r="AU28" s="96"/>
-      <c r="AV28" s="96"/>
-      <c r="AW28" s="96"/>
-      <c r="AX28" s="96"/>
-      <c r="AY28" s="96"/>
-      <c r="AZ28" s="96"/>
-      <c r="BA28" s="96"/>
-      <c r="BB28" s="96"/>
-      <c r="BC28" s="96"/>
-      <c r="BD28" s="96"/>
-      <c r="BE28" s="97"/>
+      <c r="AR28" s="96"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="97"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="97"/>
+      <c r="AY28" s="97"/>
+      <c r="AZ28" s="97"/>
+      <c r="BA28" s="97"/>
+      <c r="BB28" s="98"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4352,7 +4408,7 @@
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
     </row>
-    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
         <v>47</v>
@@ -4405,17 +4461,17 @@
       <c r="AP29" s="31"/>
       <c r="AQ29" s="31"/>
       <c r="AR29" s="31"/>
-      <c r="AS29" s="101"/>
-      <c r="AT29" s="102"/>
-      <c r="AU29" s="102"/>
-      <c r="AV29" s="102"/>
-      <c r="AW29" s="102"/>
-      <c r="AX29" s="102"/>
-      <c r="AY29" s="102"/>
-      <c r="AZ29" s="102"/>
-      <c r="BA29" s="102"/>
-      <c r="BB29" s="102"/>
-      <c r="BC29" s="103"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="88"/>
+      <c r="BA29" s="88"/>
+      <c r="BB29" s="88"/>
+      <c r="BC29" s="89"/>
       <c r="BD29" s="31"/>
       <c r="BE29" s="31"/>
       <c r="BF29" s="31"/>
@@ -4445,7 +4501,7 @@
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
     </row>
-    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="58" t="s">
         <v>48</v>
@@ -4499,17 +4555,17 @@
       <c r="AQ30" s="31"/>
       <c r="AR30" s="31"/>
       <c r="AS30" s="31"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="96"/>
-      <c r="AV30" s="96"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="96"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="96"/>
-      <c r="BA30" s="96"/>
-      <c r="BB30" s="96"/>
-      <c r="BC30" s="96"/>
-      <c r="BD30" s="97"/>
+      <c r="AT30" s="96"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="97"/>
+      <c r="AY30" s="97"/>
+      <c r="AZ30" s="97"/>
+      <c r="BA30" s="97"/>
+      <c r="BB30" s="97"/>
+      <c r="BC30" s="97"/>
+      <c r="BD30" s="98"/>
       <c r="BE30" s="31"/>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
@@ -4538,7 +4594,7 @@
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
     </row>
-    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="58" t="s">
         <v>49</v>
@@ -4629,7 +4685,7 @@
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
     </row>
-    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="58" t="s">
         <v>50</v>
@@ -4643,7 +4699,7 @@
       <c r="E32" s="60">
         <v>45240</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="102"/>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="79"/>
@@ -4722,7 +4778,7 @@
       <c r="CD32" s="80"/>
       <c r="CE32" s="80"/>
     </row>
-    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="58" t="s">
         <v>51</v>
@@ -4730,7 +4786,7 @@
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="90"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
@@ -4809,7 +4865,7 @@
       <c r="CD33" s="82"/>
       <c r="CE33" s="82"/>
     </row>
-    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="63" t="s">
         <v>34</v>
@@ -4817,7 +4873,7 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="90"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -4896,7 +4952,7 @@
       <c r="CD34" s="74"/>
       <c r="CE34" s="83"/>
     </row>
-    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="67" t="s">
         <v>35</v>
@@ -4910,7 +4966,7 @@
       <c r="E35" s="69">
         <v>45244</v>
       </c>
-      <c r="F35" s="90"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
@@ -4989,7 +5045,7 @@
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
     </row>
-    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="67" t="s">
         <v>36</v>
@@ -5082,7 +5138,7 @@
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
     </row>
-    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="67" t="s">
         <v>37</v>
@@ -5173,16 +5229,16 @@
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
     </row>
-    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="67" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="69">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="E38" s="69">
         <v>45251</v>
@@ -5239,15 +5295,15 @@
       <c r="BC38" s="44"/>
       <c r="BD38" s="31"/>
       <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="44"/>
-      <c r="BJ38" s="44"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
+      <c r="BF38" s="110"/>
+      <c r="BG38" s="111"/>
+      <c r="BH38" s="111"/>
+      <c r="BI38" s="111"/>
+      <c r="BJ38" s="111"/>
+      <c r="BK38" s="111"/>
+      <c r="BL38" s="112"/>
       <c r="BM38" s="31"/>
-      <c r="BN38" s="31"/>
+      <c r="BN38" s="86"/>
       <c r="BO38" s="31"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="44"/>
@@ -5266,7 +5322,7 @@
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
     </row>
-    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="67" t="s">
         <v>39</v>
@@ -5335,13 +5391,13 @@
       <c r="BF39" s="31"/>
       <c r="BG39" s="31"/>
       <c r="BH39" s="31"/>
-      <c r="BI39" s="98"/>
-      <c r="BJ39" s="99"/>
-      <c r="BK39" s="99"/>
-      <c r="BL39" s="99"/>
-      <c r="BM39" s="99"/>
-      <c r="BN39" s="99"/>
-      <c r="BO39" s="100"/>
+      <c r="BI39" s="107"/>
+      <c r="BJ39" s="108"/>
+      <c r="BK39" s="108"/>
+      <c r="BL39" s="108"/>
+      <c r="BM39" s="108"/>
+      <c r="BN39" s="108"/>
+      <c r="BO39" s="109"/>
       <c r="BP39" s="44"/>
       <c r="BQ39" s="44"/>
       <c r="BR39" s="31"/>
@@ -5359,7 +5415,7 @@
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
     </row>
-    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="67" t="s">
         <v>40</v>
@@ -5450,14 +5506,12 @@
       <c r="CD40" s="44"/>
       <c r="CE40" s="44"/>
     </row>
-    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>4</v>
-      </c>
+      <c r="C41" s="68"/>
       <c r="D41" s="69">
         <v>45250</v>
       </c>
@@ -5521,15 +5575,15 @@
       <c r="BH41" s="31"/>
       <c r="BI41" s="44"/>
       <c r="BJ41" s="44"/>
-      <c r="BK41" s="95"/>
-      <c r="BL41" s="96"/>
-      <c r="BM41" s="96"/>
-      <c r="BN41" s="96"/>
-      <c r="BO41" s="96"/>
-      <c r="BP41" s="96"/>
-      <c r="BQ41" s="96"/>
-      <c r="BR41" s="96"/>
-      <c r="BS41" s="97"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
+      <c r="BN41" s="31"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="44"/>
+      <c r="BQ41" s="44"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
       <c r="BT41" s="31"/>
       <c r="BU41" s="31"/>
       <c r="BV41" s="31"/>
@@ -5543,7 +5597,7 @@
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
     </row>
-    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="67" t="s">
         <v>52</v>
@@ -5616,13 +5670,13 @@
       <c r="BJ42" s="44"/>
       <c r="BK42" s="31"/>
       <c r="BL42" s="31"/>
-      <c r="BM42" s="91"/>
-      <c r="BN42" s="91"/>
-      <c r="BO42" s="91"/>
-      <c r="BP42" s="91"/>
-      <c r="BQ42" s="91"/>
-      <c r="BR42" s="91"/>
-      <c r="BS42" s="91"/>
+      <c r="BM42" s="103"/>
+      <c r="BN42" s="103"/>
+      <c r="BO42" s="103"/>
+      <c r="BP42" s="103"/>
+      <c r="BQ42" s="103"/>
+      <c r="BR42" s="103"/>
+      <c r="BS42" s="103"/>
       <c r="BT42" s="31"/>
       <c r="BU42" s="31"/>
       <c r="BV42" s="31"/>
@@ -5636,14 +5690,12 @@
       <c r="CD42" s="44"/>
       <c r="CE42" s="44"/>
     </row>
-    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="68" t="s">
-        <v>5</v>
-      </c>
+      <c r="C43" s="68"/>
       <c r="D43" s="69">
         <v>45252</v>
       </c>
@@ -5729,7 +5781,7 @@
       <c r="CD43" s="44"/>
       <c r="CE43" s="44"/>
     </row>
-    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="67" t="s">
         <v>54</v>
@@ -5820,7 +5872,7 @@
       <c r="CD44" s="44"/>
       <c r="CE44" s="44"/>
     </row>
-    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:83" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="70" t="s">
         <v>42</v>
@@ -5829,107 +5881,98 @@
       <c r="D45" s="72"/>
       <c r="E45" s="73"/>
       <c r="F45" s="74"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="92"/>
-      <c r="AO45" s="92"/>
-      <c r="AP45" s="92"/>
-      <c r="AQ45" s="92"/>
-      <c r="AR45" s="92"/>
-      <c r="AS45" s="92"/>
-      <c r="AT45" s="92"/>
-      <c r="AU45" s="92"/>
-      <c r="AV45" s="92"/>
-      <c r="AW45" s="92"/>
-      <c r="AX45" s="92"/>
-      <c r="AY45" s="92"/>
-      <c r="AZ45" s="92"/>
-      <c r="BA45" s="92"/>
-      <c r="BB45" s="92"/>
-      <c r="BC45" s="92"/>
-      <c r="BD45" s="92"/>
-      <c r="BE45" s="92"/>
-      <c r="BF45" s="92"/>
-      <c r="BG45" s="92"/>
-      <c r="BH45" s="92"/>
-      <c r="BI45" s="92"/>
-      <c r="BJ45" s="92"/>
-      <c r="BK45" s="92"/>
-      <c r="BL45" s="92"/>
-      <c r="BM45" s="92"/>
-      <c r="BN45" s="92"/>
-      <c r="BO45" s="92"/>
-      <c r="BP45" s="92"/>
-      <c r="BQ45" s="92"/>
-      <c r="BR45" s="92"/>
-      <c r="BS45" s="92"/>
-      <c r="BT45" s="92"/>
-      <c r="BU45" s="92"/>
-      <c r="BV45" s="92"/>
-      <c r="BW45" s="92"/>
-      <c r="BX45" s="92"/>
-      <c r="BY45" s="92"/>
-      <c r="BZ45" s="92"/>
-      <c r="CA45" s="92"/>
-      <c r="CB45" s="92"/>
-      <c r="CC45" s="92"/>
-      <c r="CD45" s="92"/>
-      <c r="CE45" s="93"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="104"/>
+      <c r="AJ45" s="104"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="104"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="104"/>
+      <c r="AT45" s="104"/>
+      <c r="AU45" s="104"/>
+      <c r="AV45" s="104"/>
+      <c r="AW45" s="104"/>
+      <c r="AX45" s="104"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="104"/>
+      <c r="BG45" s="104"/>
+      <c r="BH45" s="104"/>
+      <c r="BI45" s="104"/>
+      <c r="BJ45" s="104"/>
+      <c r="BK45" s="104"/>
+      <c r="BL45" s="104"/>
+      <c r="BM45" s="104"/>
+      <c r="BN45" s="104"/>
+      <c r="BO45" s="104"/>
+      <c r="BP45" s="104"/>
+      <c r="BQ45" s="104"/>
+      <c r="BR45" s="104"/>
+      <c r="BS45" s="104"/>
+      <c r="BT45" s="104"/>
+      <c r="BU45" s="104"/>
+      <c r="BV45" s="104"/>
+      <c r="BW45" s="104"/>
+      <c r="BX45" s="104"/>
+      <c r="BY45" s="104"/>
+      <c r="BZ45" s="104"/>
+      <c r="CA45" s="104"/>
+      <c r="CB45" s="104"/>
+      <c r="CC45" s="104"/>
+      <c r="CD45" s="104"/>
+      <c r="CE45" s="105"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="75"/>
       <c r="E47" s="76"/>
     </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AA11:AI11"/>
-    <mergeCell ref="AR28:BE28"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BK41:BS41"/>
+  <mergeCells count="30">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -5940,11 +5983,21 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AA11:AH11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -217,13 +217,21 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -421,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -834,349 +848,358 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="20" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="8" fillId="20" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="22" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="22" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="11" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="11" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="12"/>
+    <xf numFmtId="164" fontId="28" fillId="30" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
+    <cellStyle name="20% - 3. jelölőszín" xfId="12" builtinId="38"/>
     <cellStyle name="Date" xfId="2"/>
     <cellStyle name="Excel Built-in Accent5" xfId="10"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="8"/>
@@ -1563,7 +1586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,7 +1602,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
@@ -1611,7 +1634,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="116"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
         <v>2</v>
@@ -1703,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="85"/>
+      <c r="E2" s="118"/>
       <c r="F2" s="8"/>
       <c r="G2" s="20"/>
       <c r="H2" s="9"/>
@@ -1790,10 +1813,10 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="85">
+      <c r="D3" s="118">
         <v>45197</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1879,117 +1902,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87">
+      <c r="F4" s="119"/>
+      <c r="G4" s="116">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87">
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87">
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87">
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87">
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87">
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87">
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87">
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87">
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="87"/>
-      <c r="BR4" s="87">
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="116"/>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="87"/>
-      <c r="BT4" s="87"/>
-      <c r="BU4" s="87"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="87"/>
-      <c r="BY4" s="87">
+      <c r="BS4" s="116"/>
+      <c r="BT4" s="116"/>
+      <c r="BU4" s="116"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="87"/>
-      <c r="CA4" s="87"/>
-      <c r="CB4" s="87"/>
-      <c r="CC4" s="87"/>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="87"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="116"/>
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="4"/>
@@ -2005,7 +2028,7 @@
       <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="24">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2509,15 +2532,15 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
@@ -2612,11 +2635,11 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
@@ -2797,14 +2820,14 @@
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="43"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="114"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="101"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
@@ -2891,12 +2914,12 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="115"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
       <c r="AH12" s="43"/>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30"/>
@@ -3077,13 +3100,13 @@
       <c r="AA14" s="43"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="111"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="98"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
@@ -3261,14 +3284,14 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="105"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="92"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
       <c r="AN16" s="43"/>
@@ -3330,7 +3353,7 @@
       <c r="E17" s="50">
         <v>45225</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3357,12 +3380,12 @@
       <c r="AD17" s="30"/>
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
-      <c r="AG17" s="115"/>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="115"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="115"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="120"/>
       <c r="AM17" s="30"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
@@ -3417,7 +3440,7 @@
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="89"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -4097,12 +4120,12 @@
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="43"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="93"/>
-      <c r="AQ25" s="93"/>
-      <c r="AR25" s="93"/>
-      <c r="AS25" s="93"/>
-      <c r="AT25" s="93"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="106"/>
+      <c r="AQ25" s="106"/>
+      <c r="AR25" s="106"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="106"/>
       <c r="AU25" s="43"/>
       <c r="AV25" s="43"/>
       <c r="AW25" s="30"/>
@@ -4191,16 +4214,16 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="90"/>
-      <c r="AW26" s="90"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="90"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="103"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="103"/>
+      <c r="AT26" s="103"/>
+      <c r="AU26" s="103"/>
+      <c r="AV26" s="103"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
       <c r="AZ26" s="30"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="43"/>
@@ -4290,17 +4313,17 @@
       <c r="AS27" s="30"/>
       <c r="AT27" s="30"/>
       <c r="AU27" s="43"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="107"/>
-      <c r="AX27" s="107"/>
-      <c r="AY27" s="107"/>
-      <c r="AZ27" s="107"/>
-      <c r="BA27" s="107"/>
-      <c r="BB27" s="107"/>
-      <c r="BC27" s="107"/>
-      <c r="BD27" s="107"/>
-      <c r="BE27" s="107"/>
-      <c r="BF27" s="108"/>
+      <c r="AV27" s="93"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
+      <c r="BB27" s="94"/>
+      <c r="BC27" s="94"/>
+      <c r="BD27" s="94"/>
+      <c r="BE27" s="94"/>
+      <c r="BF27" s="95"/>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="43"/>
@@ -4379,17 +4402,17 @@
       <c r="AO28" s="43"/>
       <c r="AP28" s="30"/>
       <c r="AQ28" s="30"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="96"/>
+      <c r="AR28" s="107"/>
+      <c r="AS28" s="108"/>
+      <c r="AT28" s="108"/>
+      <c r="AU28" s="108"/>
+      <c r="AV28" s="108"/>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="108"/>
+      <c r="AY28" s="108"/>
+      <c r="AZ28" s="108"/>
+      <c r="BA28" s="108"/>
+      <c r="BB28" s="109"/>
       <c r="BC28" s="43"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
@@ -4473,17 +4496,17 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-      <c r="AS29" s="103"/>
-      <c r="AT29" s="104"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
-      <c r="AX29" s="104"/>
-      <c r="AY29" s="104"/>
-      <c r="AZ29" s="104"/>
-      <c r="BA29" s="104"/>
-      <c r="BB29" s="104"/>
-      <c r="BC29" s="105"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
+      <c r="BC29" s="92"/>
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
       <c r="BF29" s="30"/>
@@ -4567,17 +4590,17 @@
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
-      <c r="AT30" s="94"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="96"/>
+      <c r="AT30" s="107"/>
+      <c r="AU30" s="108"/>
+      <c r="AV30" s="108"/>
+      <c r="AW30" s="108"/>
+      <c r="AX30" s="108"/>
+      <c r="AY30" s="108"/>
+      <c r="AZ30" s="108"/>
+      <c r="BA30" s="108"/>
+      <c r="BB30" s="108"/>
+      <c r="BC30" s="108"/>
+      <c r="BD30" s="109"/>
       <c r="BE30" s="30"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="30"/>
@@ -4706,12 +4729,12 @@
         <v>1</v>
       </c>
       <c r="D32" s="58">
-        <v>45235</v>
+        <v>45240</v>
       </c>
       <c r="E32" s="58">
-        <v>45240</v>
-      </c>
-      <c r="F32" s="89"/>
+        <v>45245</v>
+      </c>
+      <c r="F32" s="102"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -4753,17 +4776,17 @@
       <c r="AS32" s="77"/>
       <c r="AT32" s="77"/>
       <c r="AU32" s="78"/>
-      <c r="AV32" s="119"/>
-      <c r="AW32" s="119"/>
-      <c r="AX32" s="119"/>
-      <c r="AY32" s="119"/>
-      <c r="AZ32" s="119"/>
-      <c r="BA32" s="119"/>
-      <c r="BB32" s="78"/>
-      <c r="BC32" s="78"/>
-      <c r="BD32" s="77"/>
-      <c r="BE32" s="77"/>
-      <c r="BF32" s="77"/>
+      <c r="AV32" s="121"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="120"/>
+      <c r="AY32" s="120"/>
+      <c r="AZ32" s="120"/>
+      <c r="BA32" s="122"/>
+      <c r="BB32" s="89"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="89"/>
+      <c r="BE32" s="89"/>
+      <c r="BF32" s="89"/>
       <c r="BG32" s="77"/>
       <c r="BH32" s="77"/>
       <c r="BI32" s="78"/>
@@ -4798,7 +4821,7 @@
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="89"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
@@ -4885,7 +4908,7 @@
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="102"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
@@ -4978,7 +5001,7 @@
       <c r="E35" s="67">
         <v>45244</v>
       </c>
-      <c r="F35" s="89"/>
+      <c r="F35" s="102"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5307,13 +5330,13 @@
       <c r="BC38" s="43"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="100"/>
-      <c r="BG38" s="101"/>
-      <c r="BH38" s="101"/>
-      <c r="BI38" s="101"/>
-      <c r="BJ38" s="101"/>
-      <c r="BK38" s="101"/>
-      <c r="BL38" s="102"/>
+      <c r="BF38" s="113"/>
+      <c r="BG38" s="114"/>
+      <c r="BH38" s="114"/>
+      <c r="BI38" s="114"/>
+      <c r="BJ38" s="114"/>
+      <c r="BK38" s="114"/>
+      <c r="BL38" s="115"/>
       <c r="BM38" s="30"/>
       <c r="BN38" s="84"/>
       <c r="BO38" s="30"/>
@@ -5403,13 +5426,13 @@
       <c r="BF39" s="30"/>
       <c r="BG39" s="30"/>
       <c r="BH39" s="30"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="98"/>
-      <c r="BK39" s="98"/>
-      <c r="BL39" s="98"/>
-      <c r="BM39" s="98"/>
-      <c r="BN39" s="98"/>
-      <c r="BO39" s="99"/>
+      <c r="BI39" s="110"/>
+      <c r="BJ39" s="111"/>
+      <c r="BK39" s="111"/>
+      <c r="BL39" s="111"/>
+      <c r="BM39" s="111"/>
+      <c r="BN39" s="111"/>
+      <c r="BO39" s="112"/>
       <c r="BP39" s="43"/>
       <c r="BQ39" s="43"/>
       <c r="BR39" s="30"/>
@@ -5682,13 +5705,13 @@
       <c r="BJ42" s="43"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="90"/>
-      <c r="BN42" s="90"/>
-      <c r="BO42" s="90"/>
-      <c r="BP42" s="90"/>
-      <c r="BQ42" s="90"/>
-      <c r="BR42" s="90"/>
-      <c r="BS42" s="90"/>
+      <c r="BM42" s="103"/>
+      <c r="BN42" s="103"/>
+      <c r="BO42" s="103"/>
+      <c r="BP42" s="103"/>
+      <c r="BQ42" s="103"/>
+      <c r="BR42" s="103"/>
+      <c r="BS42" s="103"/>
       <c r="BT42" s="30"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="30"/>
@@ -5702,7 +5725,7 @@
       <c r="CD42" s="43"/>
       <c r="CE42" s="43"/>
     </row>
-    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="65" t="s">
         <v>53</v>
@@ -5793,17 +5816,19 @@
       <c r="CD43" s="43"/>
       <c r="CE43" s="43"/>
     </row>
-    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="66"/>
+      <c r="C44" s="66" t="s">
+        <v>1</v>
+      </c>
       <c r="D44" s="67">
-        <v>45253</v>
+        <v>45255</v>
       </c>
       <c r="E44" s="67">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="30"/>
@@ -5867,14 +5892,14 @@
       <c r="BM44" s="30"/>
       <c r="BN44" s="30"/>
       <c r="BO44" s="30"/>
-      <c r="BP44" s="43"/>
-      <c r="BQ44" s="43"/>
-      <c r="BR44" s="30"/>
-      <c r="BS44" s="30"/>
-      <c r="BT44" s="30"/>
-      <c r="BU44" s="30"/>
-      <c r="BV44" s="30"/>
-      <c r="BW44" s="43"/>
+      <c r="BP44" s="85"/>
+      <c r="BQ44" s="85"/>
+      <c r="BR44" s="85"/>
+      <c r="BS44" s="85"/>
+      <c r="BT44" s="85"/>
+      <c r="BU44" s="120"/>
+      <c r="BV44" s="120"/>
+      <c r="BW44" s="121"/>
       <c r="BX44" s="43"/>
       <c r="BY44" s="43"/>
       <c r="BZ44" s="30"/>
@@ -5884,7 +5909,7 @@
       <c r="CD44" s="43"/>
       <c r="CE44" s="43"/>
     </row>
-    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="68" t="s">
         <v>42</v>
@@ -5893,83 +5918,83 @@
       <c r="D45" s="70"/>
       <c r="E45" s="71"/>
       <c r="F45" s="72"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="91"/>
-      <c r="U45" s="91"/>
-      <c r="V45" s="91"/>
-      <c r="W45" s="91"/>
-      <c r="X45" s="91"/>
-      <c r="Y45" s="91"/>
-      <c r="Z45" s="91"/>
-      <c r="AA45" s="91"/>
-      <c r="AB45" s="91"/>
-      <c r="AC45" s="91"/>
-      <c r="AD45" s="91"/>
-      <c r="AE45" s="91"/>
-      <c r="AF45" s="91"/>
-      <c r="AG45" s="91"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="91"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="91"/>
-      <c r="AM45" s="91"/>
-      <c r="AN45" s="91"/>
-      <c r="AO45" s="91"/>
-      <c r="AP45" s="91"/>
-      <c r="AQ45" s="91"/>
-      <c r="AR45" s="91"/>
-      <c r="AS45" s="91"/>
-      <c r="AT45" s="91"/>
-      <c r="AU45" s="91"/>
-      <c r="AV45" s="91"/>
-      <c r="AW45" s="91"/>
-      <c r="AX45" s="91"/>
-      <c r="AY45" s="91"/>
-      <c r="AZ45" s="91"/>
-      <c r="BA45" s="91"/>
-      <c r="BB45" s="91"/>
-      <c r="BC45" s="91"/>
-      <c r="BD45" s="91"/>
-      <c r="BE45" s="91"/>
-      <c r="BF45" s="91"/>
-      <c r="BG45" s="91"/>
-      <c r="BH45" s="91"/>
-      <c r="BI45" s="91"/>
-      <c r="BJ45" s="91"/>
-      <c r="BK45" s="91"/>
-      <c r="BL45" s="91"/>
-      <c r="BM45" s="91"/>
-      <c r="BN45" s="91"/>
-      <c r="BO45" s="91"/>
-      <c r="BP45" s="91"/>
-      <c r="BQ45" s="91"/>
-      <c r="BR45" s="91"/>
-      <c r="BS45" s="91"/>
-      <c r="BT45" s="91"/>
-      <c r="BU45" s="91"/>
-      <c r="BV45" s="91"/>
-      <c r="BW45" s="91"/>
-      <c r="BX45" s="91"/>
-      <c r="BY45" s="91"/>
-      <c r="BZ45" s="91"/>
-      <c r="CA45" s="91"/>
-      <c r="CB45" s="91"/>
-      <c r="CC45" s="91"/>
-      <c r="CD45" s="91"/>
-      <c r="CE45" s="92"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
+      <c r="AH45" s="104"/>
+      <c r="AI45" s="104"/>
+      <c r="AJ45" s="104"/>
+      <c r="AK45" s="104"/>
+      <c r="AL45" s="104"/>
+      <c r="AM45" s="104"/>
+      <c r="AN45" s="104"/>
+      <c r="AO45" s="104"/>
+      <c r="AP45" s="104"/>
+      <c r="AQ45" s="104"/>
+      <c r="AR45" s="104"/>
+      <c r="AS45" s="104"/>
+      <c r="AT45" s="104"/>
+      <c r="AU45" s="104"/>
+      <c r="AV45" s="104"/>
+      <c r="AW45" s="104"/>
+      <c r="AX45" s="104"/>
+      <c r="AY45" s="104"/>
+      <c r="AZ45" s="104"/>
+      <c r="BA45" s="104"/>
+      <c r="BB45" s="104"/>
+      <c r="BC45" s="104"/>
+      <c r="BD45" s="104"/>
+      <c r="BE45" s="104"/>
+      <c r="BF45" s="104"/>
+      <c r="BG45" s="104"/>
+      <c r="BH45" s="104"/>
+      <c r="BI45" s="104"/>
+      <c r="BJ45" s="104"/>
+      <c r="BK45" s="104"/>
+      <c r="BL45" s="104"/>
+      <c r="BM45" s="104"/>
+      <c r="BN45" s="104"/>
+      <c r="BO45" s="104"/>
+      <c r="BP45" s="104"/>
+      <c r="BQ45" s="104"/>
+      <c r="BR45" s="104"/>
+      <c r="BS45" s="104"/>
+      <c r="BT45" s="104"/>
+      <c r="BU45" s="104"/>
+      <c r="BV45" s="104"/>
+      <c r="BW45" s="104"/>
+      <c r="BX45" s="104"/>
+      <c r="BY45" s="104"/>
+      <c r="BZ45" s="104"/>
+      <c r="CA45" s="104"/>
+      <c r="CB45" s="104"/>
+      <c r="CC45" s="104"/>
+      <c r="CD45" s="104"/>
+      <c r="CE45" s="105"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1">
       <c r="C47" s="73"/>
@@ -5980,11 +6005,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="BM42:BS42"/>
     <mergeCell ref="G45:CE45"/>
@@ -5995,21 +6030,11 @@
     <mergeCell ref="BI39:BO39"/>
     <mergeCell ref="BF38:BL38"/>
     <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AA11:AH11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duruczadam/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554B8F5-4CB7-F147-BDBB-5D43BB840580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -209,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd&quot;, &quot;m/d/yyyy"/>
@@ -217,7 +223,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -429,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +619,24 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
   </fills>
@@ -871,7 +895,7 @@
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,83 +1124,18 @@
     <xf numFmtId="0" fontId="28" fillId="30" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="12"/>
+    <xf numFmtId="164" fontId="28" fillId="30" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1184,34 +1143,114 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="12"/>
-    <xf numFmtId="164" fontId="28" fillId="30" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20% - 3. jelölőszín" xfId="12" builtinId="38"/>
-    <cellStyle name="Date" xfId="2"/>
-    <cellStyle name="Excel Built-in Accent5" xfId="10"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="8"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="9"/>
-    <cellStyle name="Excel Built-in Title" xfId="7"/>
+    <cellStyle name="Date" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Accent5" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Excel Built-in Title" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
-    <cellStyle name="Jelölőszín (5)" xfId="11" builtinId="45"/>
-    <cellStyle name="Name" xfId="3"/>
+    <cellStyle name="Jelölőszín 5" xfId="11" builtinId="45"/>
+    <cellStyle name="Name" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Project Start" xfId="4"/>
-    <cellStyle name="Task" xfId="5"/>
-    <cellStyle name="zHiddenText" xfId="6"/>
+    <cellStyle name="Project Start" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Task" xfId="5" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="zHiddenText" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1586,36 +1625,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="83" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="83" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1720,16 +1759,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="118"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="8"/>
       <c r="G2" s="20"/>
       <c r="H2" s="9"/>
@@ -1809,14 +1848,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="118">
+      <c r="D3" s="93">
         <v>45197</v>
       </c>
-      <c r="E3" s="118"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1896,125 +1935,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="116">
+      <c r="F4" s="94"/>
+      <c r="G4" s="95">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116">
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116">
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116">
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116">
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116">
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116">
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116">
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="116">
+      <c r="BL4" s="95"/>
+      <c r="BM4" s="95"/>
+      <c r="BN4" s="95"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="95"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="95">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="116"/>
-      <c r="BT4" s="116"/>
-      <c r="BU4" s="116"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="116"/>
-      <c r="BY4" s="116">
+      <c r="BS4" s="95"/>
+      <c r="BT4" s="95"/>
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="95"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="95">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="116"/>
-      <c r="CA4" s="116"/>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
+      <c r="BZ4" s="95"/>
+      <c r="CA4" s="95"/>
+      <c r="CB4" s="95"/>
+      <c r="CC4" s="95"/>
+      <c r="CD4" s="95"/>
+      <c r="CE4" s="95"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>12</v>
@@ -2028,7 +2067,7 @@
       <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="119"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="24">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2338,7 +2377,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="28"/>
@@ -2423,7 +2462,7 @@
       <c r="CD6" s="30"/>
       <c r="CE6" s="30"/>
     </row>
-    <row r="7" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>16</v>
@@ -2510,7 +2549,7 @@
       <c r="CD7" s="1"/>
       <c r="CE7" s="82"/>
     </row>
-    <row r="8" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="37" t="s">
         <v>17</v>
@@ -2532,15 +2571,15 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
@@ -2604,7 +2643,7 @@
       <c r="CD8" s="43"/>
       <c r="CE8" s="43"/>
     </row>
-    <row r="9" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="37" t="s">
         <v>18</v>
@@ -2698,7 +2737,7 @@
       <c r="CD9" s="43"/>
       <c r="CE9" s="43"/>
     </row>
-    <row r="10" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="44" t="s">
         <v>19</v>
@@ -2785,7 +2824,7 @@
       <c r="CD10" s="1"/>
       <c r="CE10" s="82"/>
     </row>
-    <row r="11" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="48" t="s">
         <v>20</v>
@@ -2820,14 +2859,14 @@
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="43"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="101"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="122"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
@@ -2878,7 +2917,7 @@
       <c r="CD11" s="43"/>
       <c r="CE11" s="43"/>
     </row>
-    <row r="12" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
@@ -2971,12 +3010,14 @@
       <c r="CD12" s="43"/>
       <c r="CE12" s="43"/>
     </row>
-    <row r="13" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="49" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="50">
         <v>45216</v>
       </c>
@@ -3007,11 +3048,11 @@
       <c r="AA13" s="43"/>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
@@ -3062,7 +3103,7 @@
       <c r="CD13" s="43"/>
       <c r="CE13" s="43"/>
     </row>
-    <row r="14" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="48" t="s">
         <v>23</v>
@@ -3100,13 +3141,13 @@
       <c r="AA14" s="43"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="98"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="119"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
@@ -3155,12 +3196,14 @@
       <c r="CD14" s="43"/>
       <c r="CE14" s="43"/>
     </row>
-    <row r="15" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="50">
         <v>45218</v>
       </c>
@@ -3192,12 +3235,12 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
@@ -3246,7 +3289,7 @@
       <c r="CD15" s="43"/>
       <c r="CE15" s="43"/>
     </row>
-    <row r="16" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="48" t="s">
         <v>25</v>
@@ -3284,14 +3327,14 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="92"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+      <c r="AK16" s="113"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
       <c r="AN16" s="43"/>
@@ -3339,7 +3382,7 @@
       <c r="CD16" s="43"/>
       <c r="CE16" s="43"/>
     </row>
-    <row r="17" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="48" t="s">
         <v>26</v>
@@ -3353,7 +3396,7 @@
       <c r="E17" s="50">
         <v>45225</v>
       </c>
-      <c r="F17" s="102"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3385,7 +3428,7 @@
       <c r="AI17" s="85"/>
       <c r="AJ17" s="85"/>
       <c r="AK17" s="85"/>
-      <c r="AL17" s="120"/>
+      <c r="AL17" s="90"/>
       <c r="AM17" s="30"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
@@ -3432,7 +3475,7 @@
       <c r="CD17" s="43"/>
       <c r="CE17" s="43"/>
     </row>
-    <row r="18" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="18" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
         <v>27</v>
@@ -3440,7 +3483,7 @@
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="102"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -3519,14 +3562,16 @@
       <c r="CD18" s="55"/>
       <c r="CE18" s="83"/>
     </row>
-    <row r="19" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="57" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="58">
         <v>45222</v>
       </c>
@@ -3562,12 +3607,12 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="43"/>
       <c r="AH19" s="43"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="43"/>
+      <c r="AI19" s="125"/>
+      <c r="AJ19" s="123"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="124"/>
       <c r="AO19" s="43"/>
       <c r="AP19" s="30"/>
       <c r="AQ19" s="30"/>
@@ -3612,7 +3657,7 @@
       <c r="CD19" s="43"/>
       <c r="CE19" s="43"/>
     </row>
-    <row r="20" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="56" t="s">
         <v>29</v>
@@ -3654,12 +3699,12 @@
       <c r="AG20" s="43"/>
       <c r="AH20" s="43"/>
       <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
+      <c r="AJ20" s="126"/>
+      <c r="AK20" s="126"/>
+      <c r="AL20" s="126"/>
+      <c r="AM20" s="126"/>
+      <c r="AN20" s="127"/>
+      <c r="AO20" s="127"/>
       <c r="AP20" s="30"/>
       <c r="AQ20" s="30"/>
       <c r="AR20" s="30"/>
@@ -3703,7 +3748,7 @@
       <c r="CD20" s="43"/>
       <c r="CE20" s="43"/>
     </row>
-    <row r="21" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="56" t="s">
         <v>30</v>
@@ -3796,7 +3841,7 @@
       <c r="CD21" s="43"/>
       <c r="CE21" s="43"/>
     </row>
-    <row r="22" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="56" t="s">
         <v>31</v>
@@ -3887,7 +3932,7 @@
       <c r="CD22" s="43"/>
       <c r="CE22" s="43"/>
     </row>
-    <row r="23" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="56" t="s">
         <v>32</v>
@@ -3978,7 +4023,7 @@
       <c r="CD23" s="43"/>
       <c r="CE23" s="43"/>
     </row>
-    <row r="24" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="56" t="s">
         <v>33</v>
@@ -4071,7 +4116,7 @@
       <c r="CD24" s="43"/>
       <c r="CE24" s="43"/>
     </row>
-    <row r="25" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="60" t="s">
         <v>43</v>
@@ -4120,12 +4165,12 @@
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="43"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="101"/>
+      <c r="AQ25" s="101"/>
+      <c r="AR25" s="101"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="101"/>
       <c r="AU25" s="43"/>
       <c r="AV25" s="43"/>
       <c r="AW25" s="30"/>
@@ -4164,7 +4209,7 @@
       <c r="CD25" s="43"/>
       <c r="CE25" s="43"/>
     </row>
-    <row r="26" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="60" t="s">
         <v>44</v>
@@ -4214,16 +4259,16 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="103"/>
-      <c r="AU26" s="103"/>
-      <c r="AV26" s="103"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="98"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="AW26" s="98"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
       <c r="AZ26" s="30"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="43"/>
@@ -4257,7 +4302,7 @@
       <c r="CD26" s="43"/>
       <c r="CE26" s="43"/>
     </row>
-    <row r="27" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="56" t="s">
         <v>45</v>
@@ -4313,17 +4358,17 @@
       <c r="AS27" s="30"/>
       <c r="AT27" s="30"/>
       <c r="AU27" s="43"/>
-      <c r="AV27" s="93"/>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="94"/>
-      <c r="AY27" s="94"/>
-      <c r="AZ27" s="94"/>
-      <c r="BA27" s="94"/>
-      <c r="BB27" s="94"/>
-      <c r="BC27" s="94"/>
-      <c r="BD27" s="94"/>
-      <c r="BE27" s="94"/>
-      <c r="BF27" s="95"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="115"/>
+      <c r="AX27" s="115"/>
+      <c r="AY27" s="115"/>
+      <c r="AZ27" s="115"/>
+      <c r="BA27" s="115"/>
+      <c r="BB27" s="115"/>
+      <c r="BC27" s="115"/>
+      <c r="BD27" s="115"/>
+      <c r="BE27" s="115"/>
+      <c r="BF27" s="116"/>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="43"/>
@@ -4350,7 +4395,7 @@
       <c r="CD27" s="43"/>
       <c r="CE27" s="43"/>
     </row>
-    <row r="28" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="56" t="s">
         <v>46</v>
@@ -4402,17 +4447,17 @@
       <c r="AO28" s="43"/>
       <c r="AP28" s="30"/>
       <c r="AQ28" s="30"/>
-      <c r="AR28" s="107"/>
-      <c r="AS28" s="108"/>
-      <c r="AT28" s="108"/>
-      <c r="AU28" s="108"/>
-      <c r="AV28" s="108"/>
-      <c r="AW28" s="108"/>
-      <c r="AX28" s="108"/>
-      <c r="AY28" s="108"/>
-      <c r="AZ28" s="108"/>
-      <c r="BA28" s="108"/>
-      <c r="BB28" s="109"/>
+      <c r="AR28" s="102"/>
+      <c r="AS28" s="103"/>
+      <c r="AT28" s="103"/>
+      <c r="AU28" s="103"/>
+      <c r="AV28" s="103"/>
+      <c r="AW28" s="103"/>
+      <c r="AX28" s="103"/>
+      <c r="AY28" s="103"/>
+      <c r="AZ28" s="103"/>
+      <c r="BA28" s="103"/>
+      <c r="BB28" s="104"/>
       <c r="BC28" s="43"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
@@ -4443,7 +4488,7 @@
       <c r="CD28" s="43"/>
       <c r="CE28" s="43"/>
     </row>
-    <row r="29" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="56" t="s">
         <v>47</v>
@@ -4496,17 +4541,17 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="91"/>
-      <c r="BA29" s="91"/>
-      <c r="BB29" s="91"/>
-      <c r="BC29" s="92"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="112"/>
+      <c r="AU29" s="112"/>
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="112"/>
+      <c r="AX29" s="112"/>
+      <c r="AY29" s="112"/>
+      <c r="AZ29" s="112"/>
+      <c r="BA29" s="112"/>
+      <c r="BB29" s="112"/>
+      <c r="BC29" s="113"/>
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
       <c r="BF29" s="30"/>
@@ -4536,7 +4581,7 @@
       <c r="CD29" s="43"/>
       <c r="CE29" s="43"/>
     </row>
-    <row r="30" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="56" t="s">
         <v>48</v>
@@ -4590,17 +4635,17 @@
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
-      <c r="AT30" s="107"/>
-      <c r="AU30" s="108"/>
-      <c r="AV30" s="108"/>
-      <c r="AW30" s="108"/>
-      <c r="AX30" s="108"/>
-      <c r="AY30" s="108"/>
-      <c r="AZ30" s="108"/>
-      <c r="BA30" s="108"/>
-      <c r="BB30" s="108"/>
-      <c r="BC30" s="108"/>
-      <c r="BD30" s="109"/>
+      <c r="AT30" s="102"/>
+      <c r="AU30" s="103"/>
+      <c r="AV30" s="103"/>
+      <c r="AW30" s="103"/>
+      <c r="AX30" s="103"/>
+      <c r="AY30" s="103"/>
+      <c r="AZ30" s="103"/>
+      <c r="BA30" s="103"/>
+      <c r="BB30" s="103"/>
+      <c r="BC30" s="103"/>
+      <c r="BD30" s="104"/>
       <c r="BE30" s="30"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="30"/>
@@ -4629,12 +4674,14 @@
       <c r="CD30" s="43"/>
       <c r="CE30" s="43"/>
     </row>
-    <row r="31" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="58">
         <v>45234</v>
       </c>
@@ -4683,11 +4730,11 @@
       <c r="AS31" s="30"/>
       <c r="AT31" s="30"/>
       <c r="AU31" s="43"/>
-      <c r="AV31" s="43"/>
-      <c r="AW31" s="30"/>
-      <c r="AX31" s="30"/>
-      <c r="AY31" s="30"/>
-      <c r="AZ31" s="30"/>
+      <c r="AV31" s="124"/>
+      <c r="AW31" s="124"/>
+      <c r="AX31" s="124"/>
+      <c r="AY31" s="124"/>
+      <c r="AZ31" s="124"/>
       <c r="BA31" s="30"/>
       <c r="BB31" s="43"/>
       <c r="BC31" s="43"/>
@@ -4720,7 +4767,7 @@
       <c r="CD31" s="43"/>
       <c r="CE31" s="43"/>
     </row>
-    <row r="32" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="56" t="s">
         <v>50</v>
@@ -4734,7 +4781,7 @@
       <c r="E32" s="58">
         <v>45245</v>
       </c>
-      <c r="F32" s="102"/>
+      <c r="F32" s="97"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -4776,12 +4823,12 @@
       <c r="AS32" s="77"/>
       <c r="AT32" s="77"/>
       <c r="AU32" s="78"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="120"/>
-      <c r="AX32" s="120"/>
-      <c r="AY32" s="120"/>
-      <c r="AZ32" s="120"/>
-      <c r="BA32" s="122"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="90"/>
+      <c r="AZ32" s="90"/>
+      <c r="BA32" s="92"/>
       <c r="BB32" s="89"/>
       <c r="BC32" s="89"/>
       <c r="BD32" s="89"/>
@@ -4813,7 +4860,7 @@
       <c r="CD32" s="78"/>
       <c r="CE32" s="78"/>
     </row>
-    <row r="33" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="33" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="56" t="s">
         <v>51</v>
@@ -4821,7 +4868,7 @@
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="102"/>
+      <c r="F33" s="97"/>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
@@ -4900,7 +4947,7 @@
       <c r="CD33" s="80"/>
       <c r="CE33" s="80"/>
     </row>
-    <row r="34" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="61" t="s">
         <v>34</v>
@@ -4908,7 +4955,7 @@
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="102"/>
+      <c r="F34" s="97"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
@@ -4987,7 +5034,7 @@
       <c r="CD34" s="72"/>
       <c r="CE34" s="81"/>
     </row>
-    <row r="35" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="65" t="s">
         <v>35</v>
@@ -5001,7 +5048,7 @@
       <c r="E35" s="67">
         <v>45244</v>
       </c>
-      <c r="F35" s="102"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5080,7 +5127,7 @@
       <c r="CD35" s="43"/>
       <c r="CE35" s="43"/>
     </row>
-    <row r="36" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="65" t="s">
         <v>36</v>
@@ -5173,7 +5220,7 @@
       <c r="CD36" s="43"/>
       <c r="CE36" s="43"/>
     </row>
-    <row r="37" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="65" t="s">
         <v>37</v>
@@ -5264,7 +5311,7 @@
       <c r="CD37" s="43"/>
       <c r="CE37" s="43"/>
     </row>
-    <row r="38" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="38" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="65" t="s">
         <v>38</v>
@@ -5330,13 +5377,13 @@
       <c r="BC38" s="43"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="113"/>
-      <c r="BG38" s="114"/>
-      <c r="BH38" s="114"/>
-      <c r="BI38" s="114"/>
-      <c r="BJ38" s="114"/>
-      <c r="BK38" s="114"/>
-      <c r="BL38" s="115"/>
+      <c r="BF38" s="108"/>
+      <c r="BG38" s="109"/>
+      <c r="BH38" s="109"/>
+      <c r="BI38" s="109"/>
+      <c r="BJ38" s="109"/>
+      <c r="BK38" s="109"/>
+      <c r="BL38" s="110"/>
       <c r="BM38" s="30"/>
       <c r="BN38" s="84"/>
       <c r="BO38" s="30"/>
@@ -5357,7 +5404,7 @@
       <c r="CD38" s="43"/>
       <c r="CE38" s="43"/>
     </row>
-    <row r="39" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="65" t="s">
         <v>39</v>
@@ -5426,13 +5473,13 @@
       <c r="BF39" s="30"/>
       <c r="BG39" s="30"/>
       <c r="BH39" s="30"/>
-      <c r="BI39" s="110"/>
-      <c r="BJ39" s="111"/>
-      <c r="BK39" s="111"/>
-      <c r="BL39" s="111"/>
-      <c r="BM39" s="111"/>
-      <c r="BN39" s="111"/>
-      <c r="BO39" s="112"/>
+      <c r="BI39" s="105"/>
+      <c r="BJ39" s="106"/>
+      <c r="BK39" s="106"/>
+      <c r="BL39" s="106"/>
+      <c r="BM39" s="106"/>
+      <c r="BN39" s="106"/>
+      <c r="BO39" s="107"/>
       <c r="BP39" s="43"/>
       <c r="BQ39" s="43"/>
       <c r="BR39" s="30"/>
@@ -5450,7 +5497,7 @@
       <c r="CD39" s="43"/>
       <c r="CE39" s="43"/>
     </row>
-    <row r="40" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="40" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="65" t="s">
         <v>40</v>
@@ -5541,12 +5588,14 @@
       <c r="CD40" s="43"/>
       <c r="CE40" s="43"/>
     </row>
-    <row r="41" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="41" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="66"/>
+      <c r="C41" s="66" t="s">
+        <v>5</v>
+      </c>
       <c r="D41" s="67">
         <v>45250</v>
       </c>
@@ -5610,15 +5659,15 @@
       <c r="BH41" s="30"/>
       <c r="BI41" s="43"/>
       <c r="BJ41" s="43"/>
-      <c r="BK41" s="30"/>
-      <c r="BL41" s="30"/>
-      <c r="BM41" s="30"/>
-      <c r="BN41" s="30"/>
-      <c r="BO41" s="30"/>
-      <c r="BP41" s="43"/>
-      <c r="BQ41" s="43"/>
-      <c r="BR41" s="30"/>
-      <c r="BS41" s="30"/>
+      <c r="BK41" s="123"/>
+      <c r="BL41" s="123"/>
+      <c r="BM41" s="123"/>
+      <c r="BN41" s="123"/>
+      <c r="BO41" s="123"/>
+      <c r="BP41" s="124"/>
+      <c r="BQ41" s="124"/>
+      <c r="BR41" s="123"/>
+      <c r="BS41" s="123"/>
       <c r="BT41" s="30"/>
       <c r="BU41" s="30"/>
       <c r="BV41" s="30"/>
@@ -5632,7 +5681,7 @@
       <c r="CD41" s="43"/>
       <c r="CE41" s="43"/>
     </row>
-    <row r="42" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="65" t="s">
         <v>52</v>
@@ -5705,13 +5754,13 @@
       <c r="BJ42" s="43"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="103"/>
-      <c r="BN42" s="103"/>
-      <c r="BO42" s="103"/>
-      <c r="BP42" s="103"/>
-      <c r="BQ42" s="103"/>
-      <c r="BR42" s="103"/>
-      <c r="BS42" s="103"/>
+      <c r="BM42" s="98"/>
+      <c r="BN42" s="98"/>
+      <c r="BO42" s="98"/>
+      <c r="BP42" s="98"/>
+      <c r="BQ42" s="98"/>
+      <c r="BR42" s="98"/>
+      <c r="BS42" s="98"/>
       <c r="BT42" s="30"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="30"/>
@@ -5725,12 +5774,14 @@
       <c r="CD42" s="43"/>
       <c r="CE42" s="43"/>
     </row>
-    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="66"/>
+      <c r="C43" s="66" t="s">
+        <v>5</v>
+      </c>
       <c r="D43" s="67">
         <v>45252</v>
       </c>
@@ -5796,11 +5847,11 @@
       <c r="BJ43" s="43"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
-      <c r="BM43" s="30"/>
-      <c r="BN43" s="30"/>
-      <c r="BO43" s="30"/>
-      <c r="BP43" s="43"/>
-      <c r="BQ43" s="43"/>
+      <c r="BM43" s="123"/>
+      <c r="BN43" s="123"/>
+      <c r="BO43" s="123"/>
+      <c r="BP43" s="124"/>
+      <c r="BQ43" s="124"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
       <c r="BT43" s="30"/>
@@ -5816,7 +5867,7 @@
       <c r="CD43" s="43"/>
       <c r="CE43" s="43"/>
     </row>
-    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="65" t="s">
         <v>54</v>
@@ -5897,9 +5948,9 @@
       <c r="BR44" s="85"/>
       <c r="BS44" s="85"/>
       <c r="BT44" s="85"/>
-      <c r="BU44" s="120"/>
-      <c r="BV44" s="120"/>
-      <c r="BW44" s="121"/>
+      <c r="BU44" s="90"/>
+      <c r="BV44" s="90"/>
+      <c r="BW44" s="91"/>
       <c r="BX44" s="43"/>
       <c r="BY44" s="43"/>
       <c r="BZ44" s="30"/>
@@ -5909,7 +5960,7 @@
       <c r="CD44" s="43"/>
       <c r="CE44" s="43"/>
     </row>
-    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="68" t="s">
         <v>42</v>
@@ -5918,98 +5969,108 @@
       <c r="D45" s="70"/>
       <c r="E45" s="71"/>
       <c r="F45" s="72"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="104"/>
-      <c r="V45" s="104"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="104"/>
-      <c r="AG45" s="104"/>
-      <c r="AH45" s="104"/>
-      <c r="AI45" s="104"/>
-      <c r="AJ45" s="104"/>
-      <c r="AK45" s="104"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="104"/>
-      <c r="AN45" s="104"/>
-      <c r="AO45" s="104"/>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="104"/>
-      <c r="AR45" s="104"/>
-      <c r="AS45" s="104"/>
-      <c r="AT45" s="104"/>
-      <c r="AU45" s="104"/>
-      <c r="AV45" s="104"/>
-      <c r="AW45" s="104"/>
-      <c r="AX45" s="104"/>
-      <c r="AY45" s="104"/>
-      <c r="AZ45" s="104"/>
-      <c r="BA45" s="104"/>
-      <c r="BB45" s="104"/>
-      <c r="BC45" s="104"/>
-      <c r="BD45" s="104"/>
-      <c r="BE45" s="104"/>
-      <c r="BF45" s="104"/>
-      <c r="BG45" s="104"/>
-      <c r="BH45" s="104"/>
-      <c r="BI45" s="104"/>
-      <c r="BJ45" s="104"/>
-      <c r="BK45" s="104"/>
-      <c r="BL45" s="104"/>
-      <c r="BM45" s="104"/>
-      <c r="BN45" s="104"/>
-      <c r="BO45" s="104"/>
-      <c r="BP45" s="104"/>
-      <c r="BQ45" s="104"/>
-      <c r="BR45" s="104"/>
-      <c r="BS45" s="104"/>
-      <c r="BT45" s="104"/>
-      <c r="BU45" s="104"/>
-      <c r="BV45" s="104"/>
-      <c r="BW45" s="104"/>
-      <c r="BX45" s="104"/>
-      <c r="BY45" s="104"/>
-      <c r="BZ45" s="104"/>
-      <c r="CA45" s="104"/>
-      <c r="CB45" s="104"/>
-      <c r="CC45" s="104"/>
-      <c r="CD45" s="104"/>
-      <c r="CE45" s="105"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="99"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="99"/>
+      <c r="R45" s="99"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="99"/>
+      <c r="AA45" s="99"/>
+      <c r="AB45" s="99"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="99"/>
+      <c r="AI45" s="99"/>
+      <c r="AJ45" s="99"/>
+      <c r="AK45" s="99"/>
+      <c r="AL45" s="99"/>
+      <c r="AM45" s="99"/>
+      <c r="AN45" s="99"/>
+      <c r="AO45" s="99"/>
+      <c r="AP45" s="99"/>
+      <c r="AQ45" s="99"/>
+      <c r="AR45" s="99"/>
+      <c r="AS45" s="99"/>
+      <c r="AT45" s="99"/>
+      <c r="AU45" s="99"/>
+      <c r="AV45" s="99"/>
+      <c r="AW45" s="99"/>
+      <c r="AX45" s="99"/>
+      <c r="AY45" s="99"/>
+      <c r="AZ45" s="99"/>
+      <c r="BA45" s="99"/>
+      <c r="BB45" s="99"/>
+      <c r="BC45" s="99"/>
+      <c r="BD45" s="99"/>
+      <c r="BE45" s="99"/>
+      <c r="BF45" s="99"/>
+      <c r="BG45" s="99"/>
+      <c r="BH45" s="99"/>
+      <c r="BI45" s="99"/>
+      <c r="BJ45" s="99"/>
+      <c r="BK45" s="99"/>
+      <c r="BL45" s="99"/>
+      <c r="BM45" s="99"/>
+      <c r="BN45" s="99"/>
+      <c r="BO45" s="99"/>
+      <c r="BP45" s="99"/>
+      <c r="BQ45" s="99"/>
+      <c r="BR45" s="99"/>
+      <c r="BS45" s="99"/>
+      <c r="BT45" s="99"/>
+      <c r="BU45" s="99"/>
+      <c r="BV45" s="99"/>
+      <c r="BW45" s="99"/>
+      <c r="BX45" s="99"/>
+      <c r="BY45" s="99"/>
+      <c r="BZ45" s="99"/>
+      <c r="CA45" s="99"/>
+      <c r="CB45" s="99"/>
+      <c r="CC45" s="99"/>
+      <c r="CD45" s="99"/>
+      <c r="CE45" s="100"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1">
+    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="73"/>
       <c r="E47" s="74"/>
     </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1">
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="AR28:BB28"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
     <mergeCell ref="BR4:BX4"/>
@@ -6020,21 +6081,11 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duruczadam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554B8F5-4CB7-F147-BDBB-5D43BB840580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025A621-0B84-BC41-B9DB-673F816BED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,109 +1131,109 @@
     <xf numFmtId="164" fontId="28" fillId="30" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1431,7 +1431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1638,10 +1638,10 @@
   </sheetPr>
   <dimension ref="A1:CE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AB23" sqref="AB23"/>
+      <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1765,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="93"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="8"/>
       <c r="G2" s="20"/>
       <c r="H2" s="9"/>
@@ -1852,10 +1852,10 @@
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="93">
+      <c r="D3" s="125">
         <v>45197</v>
       </c>
-      <c r="E3" s="93"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1941,117 +1941,117 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95">
+      <c r="F4" s="126"/>
+      <c r="G4" s="123">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95">
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95">
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95">
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="95">
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95">
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95">
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="95">
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="95"/>
-      <c r="BK4" s="95">
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="95"/>
-      <c r="BM4" s="95"/>
-      <c r="BN4" s="95"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="95"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="95">
+      <c r="BL4" s="123"/>
+      <c r="BM4" s="123"/>
+      <c r="BN4" s="123"/>
+      <c r="BO4" s="123"/>
+      <c r="BP4" s="123"/>
+      <c r="BQ4" s="123"/>
+      <c r="BR4" s="123">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="95"/>
-      <c r="BT4" s="95"/>
-      <c r="BU4" s="95"/>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="95">
+      <c r="BS4" s="123"/>
+      <c r="BT4" s="123"/>
+      <c r="BU4" s="123"/>
+      <c r="BV4" s="123"/>
+      <c r="BW4" s="123"/>
+      <c r="BX4" s="123"/>
+      <c r="BY4" s="123">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="95"/>
-      <c r="CA4" s="95"/>
-      <c r="CB4" s="95"/>
-      <c r="CC4" s="95"/>
-      <c r="CD4" s="95"/>
-      <c r="CE4" s="95"/>
+      <c r="BZ4" s="123"/>
+      <c r="CA4" s="123"/>
+      <c r="CB4" s="123"/>
+      <c r="CC4" s="123"/>
+      <c r="CD4" s="123"/>
+      <c r="CE4" s="123"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -2067,7 +2067,7 @@
       <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="24">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2571,15 +2571,15 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
@@ -2859,14 +2859,14 @@
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="43"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="122"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="108"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
@@ -3048,11 +3048,11 @@
       <c r="AA13" s="43"/>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
@@ -3141,13 +3141,13 @@
       <c r="AA14" s="43"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="119"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="105"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
@@ -3235,12 +3235,12 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
@@ -3327,14 +3327,14 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="112"/>
-      <c r="AJ16" s="112"/>
-      <c r="AK16" s="113"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="99"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
       <c r="AN16" s="43"/>
@@ -3396,7 +3396,7 @@
       <c r="E17" s="50">
         <v>45225</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3483,7 +3483,7 @@
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="97"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -3569,9 +3569,7 @@
       <c r="B19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>5</v>
-      </c>
+      <c r="C19" s="57"/>
       <c r="D19" s="58">
         <v>45222</v>
       </c>
@@ -3607,12 +3605,12 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="43"/>
       <c r="AH19" s="43"/>
-      <c r="AI19" s="125"/>
-      <c r="AJ19" s="123"/>
-      <c r="AK19" s="123"/>
-      <c r="AL19" s="123"/>
-      <c r="AM19" s="123"/>
-      <c r="AN19" s="124"/>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="96"/>
       <c r="AO19" s="43"/>
       <c r="AP19" s="30"/>
       <c r="AQ19" s="30"/>
@@ -3662,7 +3660,9 @@
       <c r="B20" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="57" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="58">
         <v>45223</v>
       </c>
@@ -3699,12 +3699,12 @@
       <c r="AG20" s="43"/>
       <c r="AH20" s="43"/>
       <c r="AI20" s="30"/>
-      <c r="AJ20" s="126"/>
-      <c r="AK20" s="126"/>
-      <c r="AL20" s="126"/>
-      <c r="AM20" s="126"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
       <c r="AP20" s="30"/>
       <c r="AQ20" s="30"/>
       <c r="AR20" s="30"/>
@@ -4165,12 +4165,12 @@
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="43"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="101"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="101"/>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="101"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="113"/>
+      <c r="AS25" s="113"/>
+      <c r="AT25" s="113"/>
       <c r="AU25" s="43"/>
       <c r="AV25" s="43"/>
       <c r="AW25" s="30"/>
@@ -4259,16 +4259,16 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="98"/>
-      <c r="AR26" s="98"/>
-      <c r="AS26" s="98"/>
-      <c r="AT26" s="98"/>
-      <c r="AU26" s="98"/>
-      <c r="AV26" s="98"/>
-      <c r="AW26" s="98"/>
-      <c r="AX26" s="98"/>
-      <c r="AY26" s="98"/>
+      <c r="AP26" s="110"/>
+      <c r="AQ26" s="110"/>
+      <c r="AR26" s="110"/>
+      <c r="AS26" s="110"/>
+      <c r="AT26" s="110"/>
+      <c r="AU26" s="110"/>
+      <c r="AV26" s="110"/>
+      <c r="AW26" s="110"/>
+      <c r="AX26" s="110"/>
+      <c r="AY26" s="110"/>
       <c r="AZ26" s="30"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="43"/>
@@ -4358,17 +4358,17 @@
       <c r="AS27" s="30"/>
       <c r="AT27" s="30"/>
       <c r="AU27" s="43"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="115"/>
-      <c r="AX27" s="115"/>
-      <c r="AY27" s="115"/>
-      <c r="AZ27" s="115"/>
-      <c r="BA27" s="115"/>
-      <c r="BB27" s="115"/>
-      <c r="BC27" s="115"/>
-      <c r="BD27" s="115"/>
-      <c r="BE27" s="115"/>
-      <c r="BF27" s="116"/>
+      <c r="AV27" s="100"/>
+      <c r="AW27" s="101"/>
+      <c r="AX27" s="101"/>
+      <c r="AY27" s="101"/>
+      <c r="AZ27" s="101"/>
+      <c r="BA27" s="101"/>
+      <c r="BB27" s="101"/>
+      <c r="BC27" s="101"/>
+      <c r="BD27" s="101"/>
+      <c r="BE27" s="101"/>
+      <c r="BF27" s="102"/>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="43"/>
@@ -4447,17 +4447,17 @@
       <c r="AO28" s="43"/>
       <c r="AP28" s="30"/>
       <c r="AQ28" s="30"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="103"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="103"/>
-      <c r="AV28" s="103"/>
-      <c r="AW28" s="103"/>
-      <c r="AX28" s="103"/>
-      <c r="AY28" s="103"/>
-      <c r="AZ28" s="103"/>
-      <c r="BA28" s="103"/>
-      <c r="BB28" s="104"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="115"/>
+      <c r="AV28" s="115"/>
+      <c r="AW28" s="115"/>
+      <c r="AX28" s="115"/>
+      <c r="AY28" s="115"/>
+      <c r="AZ28" s="115"/>
+      <c r="BA28" s="115"/>
+      <c r="BB28" s="116"/>
       <c r="BC28" s="43"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
@@ -4541,17 +4541,17 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="112"/>
-      <c r="AU29" s="112"/>
-      <c r="AV29" s="112"/>
-      <c r="AW29" s="112"/>
-      <c r="AX29" s="112"/>
-      <c r="AY29" s="112"/>
-      <c r="AZ29" s="112"/>
-      <c r="BA29" s="112"/>
-      <c r="BB29" s="112"/>
-      <c r="BC29" s="113"/>
+      <c r="AS29" s="97"/>
+      <c r="AT29" s="98"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="98"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
+      <c r="BC29" s="99"/>
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
       <c r="BF29" s="30"/>
@@ -4635,17 +4635,17 @@
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
-      <c r="AT30" s="102"/>
-      <c r="AU30" s="103"/>
-      <c r="AV30" s="103"/>
-      <c r="AW30" s="103"/>
-      <c r="AX30" s="103"/>
-      <c r="AY30" s="103"/>
-      <c r="AZ30" s="103"/>
-      <c r="BA30" s="103"/>
-      <c r="BB30" s="103"/>
-      <c r="BC30" s="103"/>
-      <c r="BD30" s="104"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
+      <c r="AX30" s="115"/>
+      <c r="AY30" s="115"/>
+      <c r="AZ30" s="115"/>
+      <c r="BA30" s="115"/>
+      <c r="BB30" s="115"/>
+      <c r="BC30" s="115"/>
+      <c r="BD30" s="116"/>
       <c r="BE30" s="30"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="30"/>
@@ -4730,11 +4730,11 @@
       <c r="AS31" s="30"/>
       <c r="AT31" s="30"/>
       <c r="AU31" s="43"/>
-      <c r="AV31" s="124"/>
-      <c r="AW31" s="124"/>
-      <c r="AX31" s="124"/>
-      <c r="AY31" s="124"/>
-      <c r="AZ31" s="124"/>
+      <c r="AV31" s="94"/>
+      <c r="AW31" s="94"/>
+      <c r="AX31" s="94"/>
+      <c r="AY31" s="94"/>
+      <c r="AZ31" s="94"/>
       <c r="BA31" s="30"/>
       <c r="BB31" s="43"/>
       <c r="BC31" s="43"/>
@@ -4781,7 +4781,7 @@
       <c r="E32" s="58">
         <v>45245</v>
       </c>
-      <c r="F32" s="97"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -4868,7 +4868,7 @@
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="97"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
       <c r="I33" s="79"/>
@@ -4955,7 +4955,7 @@
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="97"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
@@ -5048,7 +5048,7 @@
       <c r="E35" s="67">
         <v>45244</v>
       </c>
-      <c r="F35" s="97"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5377,13 +5377,13 @@
       <c r="BC38" s="43"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="108"/>
-      <c r="BG38" s="109"/>
-      <c r="BH38" s="109"/>
-      <c r="BI38" s="109"/>
-      <c r="BJ38" s="109"/>
-      <c r="BK38" s="109"/>
-      <c r="BL38" s="110"/>
+      <c r="BF38" s="120"/>
+      <c r="BG38" s="121"/>
+      <c r="BH38" s="121"/>
+      <c r="BI38" s="121"/>
+      <c r="BJ38" s="121"/>
+      <c r="BK38" s="121"/>
+      <c r="BL38" s="122"/>
       <c r="BM38" s="30"/>
       <c r="BN38" s="84"/>
       <c r="BO38" s="30"/>
@@ -5473,13 +5473,13 @@
       <c r="BF39" s="30"/>
       <c r="BG39" s="30"/>
       <c r="BH39" s="30"/>
-      <c r="BI39" s="105"/>
-      <c r="BJ39" s="106"/>
-      <c r="BK39" s="106"/>
-      <c r="BL39" s="106"/>
-      <c r="BM39" s="106"/>
-      <c r="BN39" s="106"/>
-      <c r="BO39" s="107"/>
+      <c r="BI39" s="117"/>
+      <c r="BJ39" s="118"/>
+      <c r="BK39" s="118"/>
+      <c r="BL39" s="118"/>
+      <c r="BM39" s="118"/>
+      <c r="BN39" s="118"/>
+      <c r="BO39" s="119"/>
       <c r="BP39" s="43"/>
       <c r="BQ39" s="43"/>
       <c r="BR39" s="30"/>
@@ -5659,15 +5659,15 @@
       <c r="BH41" s="30"/>
       <c r="BI41" s="43"/>
       <c r="BJ41" s="43"/>
-      <c r="BK41" s="123"/>
-      <c r="BL41" s="123"/>
-      <c r="BM41" s="123"/>
-      <c r="BN41" s="123"/>
-      <c r="BO41" s="123"/>
-      <c r="BP41" s="124"/>
-      <c r="BQ41" s="124"/>
-      <c r="BR41" s="123"/>
-      <c r="BS41" s="123"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="93"/>
+      <c r="BM41" s="93"/>
+      <c r="BN41" s="93"/>
+      <c r="BO41" s="93"/>
+      <c r="BP41" s="94"/>
+      <c r="BQ41" s="94"/>
+      <c r="BR41" s="93"/>
+      <c r="BS41" s="93"/>
       <c r="BT41" s="30"/>
       <c r="BU41" s="30"/>
       <c r="BV41" s="30"/>
@@ -5754,13 +5754,13 @@
       <c r="BJ42" s="43"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="98"/>
-      <c r="BN42" s="98"/>
-      <c r="BO42" s="98"/>
-      <c r="BP42" s="98"/>
-      <c r="BQ42" s="98"/>
-      <c r="BR42" s="98"/>
-      <c r="BS42" s="98"/>
+      <c r="BM42" s="110"/>
+      <c r="BN42" s="110"/>
+      <c r="BO42" s="110"/>
+      <c r="BP42" s="110"/>
+      <c r="BQ42" s="110"/>
+      <c r="BR42" s="110"/>
+      <c r="BS42" s="110"/>
       <c r="BT42" s="30"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="30"/>
@@ -5847,11 +5847,11 @@
       <c r="BJ43" s="43"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
-      <c r="BM43" s="123"/>
-      <c r="BN43" s="123"/>
-      <c r="BO43" s="123"/>
-      <c r="BP43" s="124"/>
-      <c r="BQ43" s="124"/>
+      <c r="BM43" s="93"/>
+      <c r="BN43" s="93"/>
+      <c r="BO43" s="93"/>
+      <c r="BP43" s="94"/>
+      <c r="BQ43" s="94"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
       <c r="BT43" s="30"/>
@@ -5969,83 +5969,83 @@
       <c r="D45" s="70"/>
       <c r="E45" s="71"/>
       <c r="F45" s="72"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
-      <c r="P45" s="99"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="99"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
-      <c r="AC45" s="99"/>
-      <c r="AD45" s="99"/>
-      <c r="AE45" s="99"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="99"/>
-      <c r="AH45" s="99"/>
-      <c r="AI45" s="99"/>
-      <c r="AJ45" s="99"/>
-      <c r="AK45" s="99"/>
-      <c r="AL45" s="99"/>
-      <c r="AM45" s="99"/>
-      <c r="AN45" s="99"/>
-      <c r="AO45" s="99"/>
-      <c r="AP45" s="99"/>
-      <c r="AQ45" s="99"/>
-      <c r="AR45" s="99"/>
-      <c r="AS45" s="99"/>
-      <c r="AT45" s="99"/>
-      <c r="AU45" s="99"/>
-      <c r="AV45" s="99"/>
-      <c r="AW45" s="99"/>
-      <c r="AX45" s="99"/>
-      <c r="AY45" s="99"/>
-      <c r="AZ45" s="99"/>
-      <c r="BA45" s="99"/>
-      <c r="BB45" s="99"/>
-      <c r="BC45" s="99"/>
-      <c r="BD45" s="99"/>
-      <c r="BE45" s="99"/>
-      <c r="BF45" s="99"/>
-      <c r="BG45" s="99"/>
-      <c r="BH45" s="99"/>
-      <c r="BI45" s="99"/>
-      <c r="BJ45" s="99"/>
-      <c r="BK45" s="99"/>
-      <c r="BL45" s="99"/>
-      <c r="BM45" s="99"/>
-      <c r="BN45" s="99"/>
-      <c r="BO45" s="99"/>
-      <c r="BP45" s="99"/>
-      <c r="BQ45" s="99"/>
-      <c r="BR45" s="99"/>
-      <c r="BS45" s="99"/>
-      <c r="BT45" s="99"/>
-      <c r="BU45" s="99"/>
-      <c r="BV45" s="99"/>
-      <c r="BW45" s="99"/>
-      <c r="BX45" s="99"/>
-      <c r="BY45" s="99"/>
-      <c r="BZ45" s="99"/>
-      <c r="CA45" s="99"/>
-      <c r="CB45" s="99"/>
-      <c r="CC45" s="99"/>
-      <c r="CD45" s="99"/>
-      <c r="CE45" s="100"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="111"/>
+      <c r="AH45" s="111"/>
+      <c r="AI45" s="111"/>
+      <c r="AJ45" s="111"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="111"/>
+      <c r="AM45" s="111"/>
+      <c r="AN45" s="111"/>
+      <c r="AO45" s="111"/>
+      <c r="AP45" s="111"/>
+      <c r="AQ45" s="111"/>
+      <c r="AR45" s="111"/>
+      <c r="AS45" s="111"/>
+      <c r="AT45" s="111"/>
+      <c r="AU45" s="111"/>
+      <c r="AV45" s="111"/>
+      <c r="AW45" s="111"/>
+      <c r="AX45" s="111"/>
+      <c r="AY45" s="111"/>
+      <c r="AZ45" s="111"/>
+      <c r="BA45" s="111"/>
+      <c r="BB45" s="111"/>
+      <c r="BC45" s="111"/>
+      <c r="BD45" s="111"/>
+      <c r="BE45" s="111"/>
+      <c r="BF45" s="111"/>
+      <c r="BG45" s="111"/>
+      <c r="BH45" s="111"/>
+      <c r="BI45" s="111"/>
+      <c r="BJ45" s="111"/>
+      <c r="BK45" s="111"/>
+      <c r="BL45" s="111"/>
+      <c r="BM45" s="111"/>
+      <c r="BN45" s="111"/>
+      <c r="BO45" s="111"/>
+      <c r="BP45" s="111"/>
+      <c r="BQ45" s="111"/>
+      <c r="BR45" s="111"/>
+      <c r="BS45" s="111"/>
+      <c r="BT45" s="111"/>
+      <c r="BU45" s="111"/>
+      <c r="BV45" s="111"/>
+      <c r="BW45" s="111"/>
+      <c r="BX45" s="111"/>
+      <c r="BY45" s="111"/>
+      <c r="BZ45" s="111"/>
+      <c r="CA45" s="111"/>
+      <c r="CB45" s="111"/>
+      <c r="CC45" s="111"/>
+      <c r="CD45" s="111"/>
+      <c r="CE45" s="112"/>
     </row>
     <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="73"/>
@@ -6056,11 +6056,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="F32:F35"/>
     <mergeCell ref="BM42:BS42"/>
     <mergeCell ref="G45:CE45"/>
@@ -6071,21 +6081,11 @@
     <mergeCell ref="BI39:BO39"/>
     <mergeCell ref="BF38:BL38"/>
     <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AA11:AH11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duruczadam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F025A621-0B84-BC41-B9DB-673F816BED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51DA0F-8471-4BDC-B36E-AEF949B55C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -197,19 +194,22 @@
     <t>8.3.13. Tesztelési dokumentum az összes funkcióhoz (TP, TC)</t>
   </si>
   <si>
-    <t>8.3.14. Bemutató elkészítése</t>
-  </si>
-  <si>
-    <t>8.3.15. A prototípus kitelepítése éles környezetbe</t>
-  </si>
-  <si>
     <t>8.4.8. Email-es funkciók tesztelése (TR)</t>
   </si>
   <si>
     <t>8.4.9. Biztonsági mentés tesztelése (TR)</t>
   </si>
   <si>
-    <t>8.4.10. Bemutató elkészítése</t>
+    <t>8.3.14. A prototípus kitelepítése éles környezetbe</t>
+  </si>
+  <si>
+    <t>8.3.15. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.4.11. Bemutató elkészítése</t>
+  </si>
+  <si>
+    <t>8.4.10 A prototípus kitelepítésének frissítése</t>
   </si>
 </sst>
 </file>
@@ -223,13 +223,21 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -433,6 +441,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -831,21 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -871,374 +871,457 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="20" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="9" fillId="20" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="22" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="22" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="11"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="11" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="22" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="30" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="30" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="13" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="13" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="1" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="12" xfId="11" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="12"/>
-    <xf numFmtId="164" fontId="28" fillId="30" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="22" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="20% - 3. jelölőszín" xfId="12" builtinId="38"/>
+    <cellStyle name="20% - 3. jelölőszín 2" xfId="13" xr:uid="{0AEAE1DD-1123-4F7B-8AAE-9D3906B5E1AB}"/>
     <cellStyle name="Date" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Excel Built-in Accent5" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -1636,25 +1719,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE48"/>
+  <dimension ref="A1:CE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.5" customWidth="1"/>
+    <col min="6" max="83" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1673,7 +1756,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="86"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="9" t="s">
         <v>2</v>
@@ -1759,16 +1842,16 @@
       <c r="CD1" s="9"/>
       <c r="CE1" s="9"/>
     </row>
-    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="125"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="8"/>
       <c r="G2" s="20"/>
       <c r="H2" s="9"/>
@@ -1848,14 +1931,14 @@
       <c r="CD2" s="9"/>
       <c r="CE2" s="9"/>
     </row>
-    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="21"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="125">
+      <c r="D3" s="114">
         <v>45197</v>
       </c>
-      <c r="E3" s="125"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1935,125 +2018,125 @@
       <c r="CD3" s="9"/>
       <c r="CE3" s="9"/>
     </row>
-    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="123">
+      <c r="F4" s="115"/>
+      <c r="G4" s="112">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123">
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123">
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123">
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123">
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123">
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123">
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123">
+      <c r="AX4" s="112"/>
+      <c r="AY4" s="112"/>
+      <c r="AZ4" s="112"/>
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112"/>
+      <c r="BD4" s="112">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="123">
+      <c r="BE4" s="112"/>
+      <c r="BF4" s="112"/>
+      <c r="BG4" s="112"/>
+      <c r="BH4" s="112"/>
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="112">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="123"/>
-      <c r="BM4" s="123"/>
-      <c r="BN4" s="123"/>
-      <c r="BO4" s="123"/>
-      <c r="BP4" s="123"/>
-      <c r="BQ4" s="123"/>
-      <c r="BR4" s="123">
+      <c r="BL4" s="112"/>
+      <c r="BM4" s="112"/>
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="112"/>
+      <c r="BP4" s="112"/>
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="112">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="123"/>
-      <c r="BT4" s="123"/>
-      <c r="BU4" s="123"/>
-      <c r="BV4" s="123"/>
-      <c r="BW4" s="123"/>
-      <c r="BX4" s="123"/>
-      <c r="BY4" s="123">
+      <c r="BS4" s="112"/>
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="112"/>
+      <c r="BV4" s="112"/>
+      <c r="BW4" s="112"/>
+      <c r="BX4" s="112"/>
+      <c r="BY4" s="112">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="123"/>
-      <c r="CA4" s="123"/>
-      <c r="CB4" s="123"/>
-      <c r="CC4" s="123"/>
-      <c r="CD4" s="123"/>
-      <c r="CE4" s="123"/>
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="112"/>
+      <c r="CB4" s="112"/>
+      <c r="CC4" s="112"/>
+      <c r="CD4" s="112"/>
+      <c r="CE4" s="112"/>
     </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
         <v>12</v>
@@ -2067,7 +2150,7 @@
       <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="24">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2377,7 +2460,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="28"/>
@@ -2462,7 +2545,7 @@
       <c r="CD6" s="30"/>
       <c r="CE6" s="30"/>
     </row>
-    <row r="7" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>16</v>
@@ -2547,9 +2630,9 @@
       <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="82"/>
+      <c r="CE7" s="80"/>
     </row>
-    <row r="8" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="37" t="s">
         <v>17</v>
@@ -2571,15 +2654,15 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
@@ -2643,7 +2726,7 @@
       <c r="CD8" s="43"/>
       <c r="CE8" s="43"/>
     </row>
-    <row r="9" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="37" t="s">
         <v>18</v>
@@ -2674,11 +2757,11 @@
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="133"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
@@ -2737,7 +2820,7 @@
       <c r="CD9" s="43"/>
       <c r="CE9" s="43"/>
     </row>
-    <row r="10" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="44" t="s">
         <v>19</v>
@@ -2822,9 +2905,9 @@
       <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="82"/>
+      <c r="CE10" s="80"/>
     </row>
-    <row r="11" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="48" t="s">
         <v>20</v>
@@ -2859,14 +2942,14 @@
       <c r="X11" s="30"/>
       <c r="Y11" s="30"/>
       <c r="Z11" s="43"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="108"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="97"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
@@ -2917,7 +3000,7 @@
       <c r="CD11" s="43"/>
       <c r="CE11" s="43"/>
     </row>
-    <row r="12" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="48" t="s">
         <v>21</v>
@@ -2953,12 +3036,12 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="129"/>
+      <c r="AD12" s="129"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="130"/>
       <c r="AH12" s="43"/>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30"/>
@@ -3010,7 +3093,7 @@
       <c r="CD12" s="43"/>
       <c r="CE12" s="43"/>
     </row>
-    <row r="13" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="48" t="s">
         <v>22</v>
@@ -3048,11 +3131,11 @@
       <c r="AA13" s="43"/>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="125"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
@@ -3103,7 +3186,7 @@
       <c r="CD13" s="43"/>
       <c r="CE13" s="43"/>
     </row>
-    <row r="14" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="48" t="s">
         <v>23</v>
@@ -3141,13 +3224,13 @@
       <c r="AA14" s="43"/>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="105"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="94"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
       <c r="AM14" s="30"/>
@@ -3196,7 +3279,7 @@
       <c r="CD14" s="43"/>
       <c r="CE14" s="43"/>
     </row>
-    <row r="15" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="48" t="s">
         <v>24</v>
@@ -3235,12 +3318,12 @@
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="125"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
       <c r="AM15" s="30"/>
@@ -3289,7 +3372,7 @@
       <c r="CD15" s="43"/>
       <c r="CE15" s="43"/>
     </row>
-    <row r="16" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="48" t="s">
         <v>25</v>
@@ -3327,14 +3410,14 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="99"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="88"/>
       <c r="AL16" s="30"/>
       <c r="AM16" s="30"/>
       <c r="AN16" s="43"/>
@@ -3382,7 +3465,7 @@
       <c r="CD16" s="43"/>
       <c r="CE16" s="43"/>
     </row>
-    <row r="17" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="48" t="s">
         <v>26</v>
@@ -3396,7 +3479,7 @@
       <c r="E17" s="50">
         <v>45225</v>
       </c>
-      <c r="F17" s="109"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3423,12 +3506,12 @@
       <c r="AD17" s="30"/>
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="90"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="129"/>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="129"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="84"/>
       <c r="AM17" s="30"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
@@ -3475,7 +3558,7 @@
       <c r="CD17" s="43"/>
       <c r="CE17" s="43"/>
     </row>
-    <row r="18" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="51" t="s">
         <v>27</v>
@@ -3483,7 +3566,7 @@
       <c r="C18" s="52"/>
       <c r="D18" s="53"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="109"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -3560,9 +3643,9 @@
       <c r="CB18" s="55"/>
       <c r="CC18" s="55"/>
       <c r="CD18" s="55"/>
-      <c r="CE18" s="83"/>
+      <c r="CE18" s="81"/>
     </row>
-    <row r="19" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -3605,12 +3688,12 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="43"/>
       <c r="AH19" s="43"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="96"/>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="137"/>
+      <c r="AN19" s="138"/>
       <c r="AO19" s="43"/>
       <c r="AP19" s="30"/>
       <c r="AQ19" s="30"/>
@@ -3655,18 +3738,18 @@
       <c r="CD19" s="43"/>
       <c r="CE19" s="43"/>
     </row>
-    <row r="20" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="136">
         <v>45223</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="136">
         <v>45228</v>
       </c>
       <c r="F20" s="59"/>
@@ -3699,12 +3782,12 @@
       <c r="AG20" s="43"/>
       <c r="AH20" s="43"/>
       <c r="AI20" s="30"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="140"/>
+      <c r="AM20" s="140"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="141"/>
       <c r="AP20" s="30"/>
       <c r="AQ20" s="30"/>
       <c r="AR20" s="30"/>
@@ -3748,7 +3831,7 @@
       <c r="CD20" s="43"/>
       <c r="CE20" s="43"/>
     </row>
-    <row r="21" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="56" t="s">
         <v>30</v>
@@ -3841,7 +3924,7 @@
       <c r="CD21" s="43"/>
       <c r="CE21" s="43"/>
     </row>
-    <row r="22" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="56" t="s">
         <v>31</v>
@@ -3932,7 +4015,7 @@
       <c r="CD22" s="43"/>
       <c r="CE22" s="43"/>
     </row>
-    <row r="23" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="56" t="s">
         <v>32</v>
@@ -4023,7 +4106,7 @@
       <c r="CD23" s="43"/>
       <c r="CE23" s="43"/>
     </row>
-    <row r="24" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="56" t="s">
         <v>33</v>
@@ -4116,7 +4199,7 @@
       <c r="CD24" s="43"/>
       <c r="CE24" s="43"/>
     </row>
-    <row r="25" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="60" t="s">
         <v>43</v>
@@ -4165,12 +4248,12 @@
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="43"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
-      <c r="AR25" s="113"/>
-      <c r="AS25" s="113"/>
-      <c r="AT25" s="113"/>
+      <c r="AO25" s="102"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="102"/>
+      <c r="AR25" s="102"/>
+      <c r="AS25" s="102"/>
+      <c r="AT25" s="102"/>
       <c r="AU25" s="43"/>
       <c r="AV25" s="43"/>
       <c r="AW25" s="30"/>
@@ -4209,7 +4292,7 @@
       <c r="CD25" s="43"/>
       <c r="CE25" s="43"/>
     </row>
-    <row r="26" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="60" t="s">
         <v>44</v>
@@ -4259,16 +4342,16 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="110"/>
-      <c r="AS26" s="110"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="110"/>
-      <c r="AV26" s="110"/>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="110"/>
-      <c r="AY26" s="110"/>
+      <c r="AP26" s="99"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="99"/>
+      <c r="AS26" s="99"/>
+      <c r="AT26" s="99"/>
+      <c r="AU26" s="99"/>
+      <c r="AV26" s="99"/>
+      <c r="AW26" s="99"/>
+      <c r="AX26" s="99"/>
+      <c r="AY26" s="99"/>
       <c r="AZ26" s="30"/>
       <c r="BA26" s="30"/>
       <c r="BB26" s="43"/>
@@ -4302,7 +4385,7 @@
       <c r="CD26" s="43"/>
       <c r="CE26" s="43"/>
     </row>
-    <row r="27" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="56" t="s">
         <v>45</v>
@@ -4358,17 +4441,17 @@
       <c r="AS27" s="30"/>
       <c r="AT27" s="30"/>
       <c r="AU27" s="43"/>
-      <c r="AV27" s="100"/>
-      <c r="AW27" s="101"/>
-      <c r="AX27" s="101"/>
-      <c r="AY27" s="101"/>
-      <c r="AZ27" s="101"/>
-      <c r="BA27" s="101"/>
-      <c r="BB27" s="101"/>
-      <c r="BC27" s="101"/>
-      <c r="BD27" s="101"/>
-      <c r="BE27" s="101"/>
-      <c r="BF27" s="102"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="90"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="91"/>
       <c r="BG27" s="30"/>
       <c r="BH27" s="30"/>
       <c r="BI27" s="43"/>
@@ -4395,7 +4478,7 @@
       <c r="CD27" s="43"/>
       <c r="CE27" s="43"/>
     </row>
-    <row r="28" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="56" t="s">
         <v>46</v>
@@ -4447,17 +4530,17 @@
       <c r="AO28" s="43"/>
       <c r="AP28" s="30"/>
       <c r="AQ28" s="30"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="115"/>
-      <c r="AT28" s="115"/>
-      <c r="AU28" s="115"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
-      <c r="AX28" s="115"/>
-      <c r="AY28" s="115"/>
-      <c r="AZ28" s="115"/>
-      <c r="BA28" s="115"/>
-      <c r="BB28" s="116"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="104"/>
+      <c r="AT28" s="104"/>
+      <c r="AU28" s="104"/>
+      <c r="AV28" s="104"/>
+      <c r="AW28" s="104"/>
+      <c r="AX28" s="104"/>
+      <c r="AY28" s="104"/>
+      <c r="AZ28" s="104"/>
+      <c r="BA28" s="104"/>
+      <c r="BB28" s="105"/>
       <c r="BC28" s="43"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
@@ -4488,7 +4571,7 @@
       <c r="CD28" s="43"/>
       <c r="CE28" s="43"/>
     </row>
-    <row r="29" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="56" t="s">
         <v>47</v>
@@ -4541,17 +4624,17 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="30"/>
       <c r="AR29" s="30"/>
-      <c r="AS29" s="97"/>
-      <c r="AT29" s="98"/>
-      <c r="AU29" s="98"/>
-      <c r="AV29" s="98"/>
-      <c r="AW29" s="98"/>
-      <c r="AX29" s="98"/>
-      <c r="AY29" s="98"/>
-      <c r="AZ29" s="98"/>
-      <c r="BA29" s="98"/>
-      <c r="BB29" s="98"/>
-      <c r="BC29" s="99"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="87"/>
+      <c r="BA29" s="87"/>
+      <c r="BB29" s="87"/>
+      <c r="BC29" s="88"/>
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
       <c r="BF29" s="30"/>
@@ -4581,7 +4664,7 @@
       <c r="CD29" s="43"/>
       <c r="CE29" s="43"/>
     </row>
-    <row r="30" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="56" t="s">
         <v>48</v>
@@ -4635,17 +4718,17 @@
       <c r="AQ30" s="30"/>
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="115"/>
-      <c r="AV30" s="115"/>
-      <c r="AW30" s="115"/>
-      <c r="AX30" s="115"/>
-      <c r="AY30" s="115"/>
-      <c r="AZ30" s="115"/>
-      <c r="BA30" s="115"/>
-      <c r="BB30" s="115"/>
-      <c r="BC30" s="115"/>
-      <c r="BD30" s="116"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="104"/>
+      <c r="AV30" s="104"/>
+      <c r="AW30" s="104"/>
+      <c r="AX30" s="104"/>
+      <c r="AY30" s="104"/>
+      <c r="AZ30" s="104"/>
+      <c r="BA30" s="104"/>
+      <c r="BB30" s="104"/>
+      <c r="BC30" s="104"/>
+      <c r="BD30" s="105"/>
       <c r="BE30" s="30"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="30"/>
@@ -4674,18 +4757,18 @@
       <c r="CD30" s="43"/>
       <c r="CE30" s="43"/>
     </row>
-    <row r="31" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="144">
         <v>45234</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="144">
         <v>45239</v>
       </c>
       <c r="F31" s="59"/>
@@ -4730,11 +4813,11 @@
       <c r="AS31" s="30"/>
       <c r="AT31" s="30"/>
       <c r="AU31" s="43"/>
-      <c r="AV31" s="94"/>
-      <c r="AW31" s="94"/>
-      <c r="AX31" s="94"/>
-      <c r="AY31" s="94"/>
-      <c r="AZ31" s="94"/>
+      <c r="AV31" s="120"/>
+      <c r="AW31" s="121"/>
+      <c r="AX31" s="121"/>
+      <c r="AY31" s="121"/>
+      <c r="AZ31" s="122"/>
       <c r="BA31" s="30"/>
       <c r="BB31" s="43"/>
       <c r="BC31" s="43"/>
@@ -4767,21 +4850,15 @@
       <c r="CD31" s="43"/>
       <c r="CE31" s="43"/>
     </row>
-    <row r="32" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
-      <c r="B32" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="58">
-        <v>45240</v>
-      </c>
-      <c r="E32" s="58">
-        <v>45245</v>
-      </c>
-      <c r="F32" s="109"/>
+      <c r="B32" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -4823,17 +4900,17 @@
       <c r="AS32" s="77"/>
       <c r="AT32" s="77"/>
       <c r="AU32" s="78"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="90"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="90"/>
-      <c r="AZ32" s="90"/>
-      <c r="BA32" s="92"/>
-      <c r="BB32" s="89"/>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="89"/>
-      <c r="BE32" s="89"/>
-      <c r="BF32" s="89"/>
+      <c r="AV32" s="145"/>
+      <c r="AW32" s="142"/>
+      <c r="AX32" s="142"/>
+      <c r="AY32" s="142"/>
+      <c r="AZ32" s="142"/>
+      <c r="BA32" s="116"/>
+      <c r="BB32" s="78"/>
+      <c r="BC32" s="78"/>
+      <c r="BD32" s="77"/>
+      <c r="BE32" s="77"/>
+      <c r="BF32" s="77"/>
       <c r="BG32" s="77"/>
       <c r="BH32" s="77"/>
       <c r="BI32" s="78"/>
@@ -4860,94 +4937,100 @@
       <c r="CD32" s="78"/>
       <c r="CE32" s="78"/>
     </row>
-    <row r="33" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="80"/>
-      <c r="AO33" s="80"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
-      <c r="AR33" s="79"/>
-      <c r="AS33" s="79"/>
-      <c r="AT33" s="79"/>
-      <c r="AU33" s="80"/>
-      <c r="AV33" s="80"/>
-      <c r="AW33" s="79"/>
-      <c r="AX33" s="79"/>
-      <c r="AY33" s="79"/>
-      <c r="AZ33" s="79"/>
-      <c r="BA33" s="79"/>
-      <c r="BB33" s="80"/>
-      <c r="BC33" s="80"/>
-      <c r="BD33" s="79"/>
-      <c r="BE33" s="79"/>
-      <c r="BF33" s="79"/>
-      <c r="BG33" s="79"/>
-      <c r="BH33" s="79"/>
-      <c r="BI33" s="80"/>
-      <c r="BJ33" s="80"/>
-      <c r="BK33" s="79"/>
-      <c r="BL33" s="79"/>
-      <c r="BM33" s="79"/>
-      <c r="BN33" s="79"/>
-      <c r="BO33" s="79"/>
-      <c r="BP33" s="80"/>
-      <c r="BQ33" s="80"/>
-      <c r="BR33" s="79"/>
-      <c r="BS33" s="79"/>
-      <c r="BT33" s="79"/>
-      <c r="BU33" s="79"/>
-      <c r="BV33" s="79"/>
-      <c r="BW33" s="80"/>
-      <c r="BX33" s="80"/>
-      <c r="BY33" s="79"/>
-      <c r="BZ33" s="79"/>
-      <c r="CA33" s="79"/>
-      <c r="CB33" s="79"/>
-      <c r="CC33" s="79"/>
-      <c r="CD33" s="80"/>
-      <c r="CE33" s="80"/>
+        <v>53</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="58">
+        <v>45240</v>
+      </c>
+      <c r="E33" s="58">
+        <v>45245</v>
+      </c>
+      <c r="F33" s="98"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="77"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="77"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="77"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="77"/>
+      <c r="AT33" s="77"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="30"/>
+      <c r="AX33" s="30"/>
+      <c r="AY33" s="30"/>
+      <c r="AZ33" s="30"/>
+      <c r="BA33" s="126"/>
+      <c r="BB33" s="126"/>
+      <c r="BC33" s="126"/>
+      <c r="BD33" s="126"/>
+      <c r="BE33" s="126"/>
+      <c r="BF33" s="127"/>
+      <c r="BG33" s="77"/>
+      <c r="BH33" s="77"/>
+      <c r="BI33" s="78"/>
+      <c r="BJ33" s="78"/>
+      <c r="BK33" s="77"/>
+      <c r="BL33" s="77"/>
+      <c r="BM33" s="77"/>
+      <c r="BN33" s="77"/>
+      <c r="BO33" s="77"/>
+      <c r="BP33" s="78"/>
+      <c r="BQ33" s="78"/>
+      <c r="BR33" s="77"/>
+      <c r="BS33" s="77"/>
+      <c r="BT33" s="77"/>
+      <c r="BU33" s="77"/>
+      <c r="BV33" s="77"/>
+      <c r="BW33" s="78"/>
+      <c r="BX33" s="78"/>
+      <c r="BY33" s="77"/>
+      <c r="BZ33" s="77"/>
+      <c r="CA33" s="77"/>
+      <c r="CB33" s="77"/>
+      <c r="CC33" s="77"/>
+      <c r="CD33" s="78"/>
+      <c r="CE33" s="78"/>
     </row>
-    <row r="34" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="61" t="s">
         <v>34</v>
@@ -4955,7 +5038,7 @@
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="109"/>
+      <c r="F34" s="98"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72"/>
       <c r="I34" s="72"/>
@@ -5032,9 +5115,9 @@
       <c r="CB34" s="72"/>
       <c r="CC34" s="72"/>
       <c r="CD34" s="72"/>
-      <c r="CE34" s="81"/>
+      <c r="CE34" s="79"/>
     </row>
-    <row r="35" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="65" t="s">
         <v>35</v>
@@ -5048,7 +5131,7 @@
       <c r="E35" s="67">
         <v>45244</v>
       </c>
-      <c r="F35" s="109"/>
+      <c r="F35" s="98"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5127,7 +5210,7 @@
       <c r="CD35" s="43"/>
       <c r="CE35" s="43"/>
     </row>
-    <row r="36" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="65" t="s">
         <v>36</v>
@@ -5220,7 +5303,7 @@
       <c r="CD36" s="43"/>
       <c r="CE36" s="43"/>
     </row>
-    <row r="37" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="65" t="s">
         <v>37</v>
@@ -5311,7 +5394,7 @@
       <c r="CD37" s="43"/>
       <c r="CE37" s="43"/>
     </row>
-    <row r="38" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="65" t="s">
         <v>38</v>
@@ -5377,15 +5460,15 @@
       <c r="BC38" s="43"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="120"/>
-      <c r="BG38" s="121"/>
-      <c r="BH38" s="121"/>
-      <c r="BI38" s="121"/>
-      <c r="BJ38" s="121"/>
-      <c r="BK38" s="121"/>
-      <c r="BL38" s="122"/>
+      <c r="BF38" s="109"/>
+      <c r="BG38" s="110"/>
+      <c r="BH38" s="110"/>
+      <c r="BI38" s="110"/>
+      <c r="BJ38" s="110"/>
+      <c r="BK38" s="110"/>
+      <c r="BL38" s="111"/>
       <c r="BM38" s="30"/>
-      <c r="BN38" s="84"/>
+      <c r="BN38" s="82"/>
       <c r="BO38" s="30"/>
       <c r="BP38" s="43"/>
       <c r="BQ38" s="43"/>
@@ -5404,7 +5487,7 @@
       <c r="CD38" s="43"/>
       <c r="CE38" s="43"/>
     </row>
-    <row r="39" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="65" t="s">
         <v>39</v>
@@ -5473,13 +5556,13 @@
       <c r="BF39" s="30"/>
       <c r="BG39" s="30"/>
       <c r="BH39" s="30"/>
-      <c r="BI39" s="117"/>
-      <c r="BJ39" s="118"/>
-      <c r="BK39" s="118"/>
-      <c r="BL39" s="118"/>
-      <c r="BM39" s="118"/>
-      <c r="BN39" s="118"/>
-      <c r="BO39" s="119"/>
+      <c r="BI39" s="106"/>
+      <c r="BJ39" s="107"/>
+      <c r="BK39" s="107"/>
+      <c r="BL39" s="107"/>
+      <c r="BM39" s="107"/>
+      <c r="BN39" s="107"/>
+      <c r="BO39" s="108"/>
       <c r="BP39" s="43"/>
       <c r="BQ39" s="43"/>
       <c r="BR39" s="30"/>
@@ -5497,7 +5580,7 @@
       <c r="CD39" s="43"/>
       <c r="CE39" s="43"/>
     </row>
-    <row r="40" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="65" t="s">
         <v>40</v>
@@ -5588,7 +5671,7 @@
       <c r="CD40" s="43"/>
       <c r="CE40" s="43"/>
     </row>
-    <row r="41" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="65" t="s">
         <v>41</v>
@@ -5659,15 +5742,15 @@
       <c r="BH41" s="30"/>
       <c r="BI41" s="43"/>
       <c r="BJ41" s="43"/>
-      <c r="BK41" s="93"/>
-      <c r="BL41" s="93"/>
-      <c r="BM41" s="93"/>
-      <c r="BN41" s="93"/>
-      <c r="BO41" s="93"/>
-      <c r="BP41" s="94"/>
-      <c r="BQ41" s="94"/>
-      <c r="BR41" s="93"/>
-      <c r="BS41" s="93"/>
+      <c r="BK41" s="123"/>
+      <c r="BL41" s="124"/>
+      <c r="BM41" s="124"/>
+      <c r="BN41" s="124"/>
+      <c r="BO41" s="124"/>
+      <c r="BP41" s="124"/>
+      <c r="BQ41" s="124"/>
+      <c r="BR41" s="124"/>
+      <c r="BS41" s="125"/>
       <c r="BT41" s="30"/>
       <c r="BU41" s="30"/>
       <c r="BV41" s="30"/>
@@ -5681,10 +5764,10 @@
       <c r="CD41" s="43"/>
       <c r="CE41" s="43"/>
     </row>
-    <row r="42" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="66" t="s">
         <v>3</v>
@@ -5754,13 +5837,13 @@
       <c r="BJ42" s="43"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="110"/>
-      <c r="BN42" s="110"/>
-      <c r="BO42" s="110"/>
-      <c r="BP42" s="110"/>
-      <c r="BQ42" s="110"/>
-      <c r="BR42" s="110"/>
-      <c r="BS42" s="110"/>
+      <c r="BM42" s="99"/>
+      <c r="BN42" s="99"/>
+      <c r="BO42" s="99"/>
+      <c r="BP42" s="99"/>
+      <c r="BQ42" s="99"/>
+      <c r="BR42" s="99"/>
+      <c r="BS42" s="99"/>
       <c r="BT42" s="30"/>
       <c r="BU42" s="30"/>
       <c r="BV42" s="30"/>
@@ -5774,18 +5857,18 @@
       <c r="CD42" s="43"/>
       <c r="CE42" s="43"/>
     </row>
-    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="149">
         <v>45252</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="149">
         <v>44524</v>
       </c>
       <c r="F43" s="40"/>
@@ -5847,11 +5930,11 @@
       <c r="BJ43" s="43"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
-      <c r="BM43" s="93"/>
-      <c r="BN43" s="93"/>
-      <c r="BO43" s="93"/>
-      <c r="BP43" s="94"/>
-      <c r="BQ43" s="94"/>
+      <c r="BM43" s="123"/>
+      <c r="BN43" s="124"/>
+      <c r="BO43" s="124"/>
+      <c r="BP43" s="124"/>
+      <c r="BQ43" s="125"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
       <c r="BT43" s="30"/>
@@ -5867,20 +5950,14 @@
       <c r="CD43" s="43"/>
       <c r="CE43" s="43"/>
     </row>
-    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
-      <c r="B44" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="67">
-        <v>45255</v>
-      </c>
-      <c r="E44" s="67">
-        <v>44529</v>
-      </c>
+      <c r="B44" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
       <c r="F44" s="40"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
@@ -5940,17 +6017,17 @@
       <c r="BJ44" s="43"/>
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="30"/>
-      <c r="BO44" s="30"/>
-      <c r="BP44" s="85"/>
-      <c r="BQ44" s="85"/>
-      <c r="BR44" s="85"/>
-      <c r="BS44" s="85"/>
-      <c r="BT44" s="85"/>
-      <c r="BU44" s="90"/>
-      <c r="BV44" s="90"/>
-      <c r="BW44" s="91"/>
+      <c r="BM44" s="146"/>
+      <c r="BN44" s="146"/>
+      <c r="BO44" s="146"/>
+      <c r="BP44" s="147"/>
+      <c r="BQ44" s="147"/>
+      <c r="BR44" s="30"/>
+      <c r="BS44" s="30"/>
+      <c r="BT44" s="30"/>
+      <c r="BU44" s="116"/>
+      <c r="BV44" s="116"/>
+      <c r="BW44" s="117"/>
       <c r="BX44" s="43"/>
       <c r="BY44" s="43"/>
       <c r="BZ44" s="30"/>
@@ -5960,102 +6037,201 @@
       <c r="CD44" s="43"/>
       <c r="CE44" s="43"/>
     </row>
-    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="67">
+        <v>45255</v>
+      </c>
+      <c r="E45" s="67">
+        <v>44529</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="43"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="43"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="43"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="30"/>
+      <c r="AX45" s="30"/>
+      <c r="AY45" s="30"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="43"/>
+      <c r="BC45" s="43"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="43"/>
+      <c r="BJ45" s="43"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+      <c r="BM45" s="30"/>
+      <c r="BN45" s="30"/>
+      <c r="BO45" s="30"/>
+      <c r="BP45" s="128"/>
+      <c r="BQ45" s="129"/>
+      <c r="BR45" s="129"/>
+      <c r="BS45" s="129"/>
+      <c r="BT45" s="130"/>
+      <c r="BU45" s="84"/>
+      <c r="BV45" s="84"/>
+      <c r="BW45" s="85"/>
+      <c r="BX45" s="43"/>
+      <c r="BY45" s="43"/>
+      <c r="BZ45" s="30"/>
+      <c r="CA45" s="30"/>
+      <c r="CB45" s="30"/>
+      <c r="CC45" s="30"/>
+      <c r="CD45" s="43"/>
+      <c r="CE45" s="43"/>
+    </row>
+    <row r="46" spans="1:83" s="36" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="111"/>
-      <c r="AE45" s="111"/>
-      <c r="AF45" s="111"/>
-      <c r="AG45" s="111"/>
-      <c r="AH45" s="111"/>
-      <c r="AI45" s="111"/>
-      <c r="AJ45" s="111"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="111"/>
-      <c r="AM45" s="111"/>
-      <c r="AN45" s="111"/>
-      <c r="AO45" s="111"/>
-      <c r="AP45" s="111"/>
-      <c r="AQ45" s="111"/>
-      <c r="AR45" s="111"/>
-      <c r="AS45" s="111"/>
-      <c r="AT45" s="111"/>
-      <c r="AU45" s="111"/>
-      <c r="AV45" s="111"/>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="111"/>
-      <c r="AY45" s="111"/>
-      <c r="AZ45" s="111"/>
-      <c r="BA45" s="111"/>
-      <c r="BB45" s="111"/>
-      <c r="BC45" s="111"/>
-      <c r="BD45" s="111"/>
-      <c r="BE45" s="111"/>
-      <c r="BF45" s="111"/>
-      <c r="BG45" s="111"/>
-      <c r="BH45" s="111"/>
-      <c r="BI45" s="111"/>
-      <c r="BJ45" s="111"/>
-      <c r="BK45" s="111"/>
-      <c r="BL45" s="111"/>
-      <c r="BM45" s="111"/>
-      <c r="BN45" s="111"/>
-      <c r="BO45" s="111"/>
-      <c r="BP45" s="111"/>
-      <c r="BQ45" s="111"/>
-      <c r="BR45" s="111"/>
-      <c r="BS45" s="111"/>
-      <c r="BT45" s="111"/>
-      <c r="BU45" s="111"/>
-      <c r="BV45" s="111"/>
-      <c r="BW45" s="111"/>
-      <c r="BX45" s="111"/>
-      <c r="BY45" s="111"/>
-      <c r="BZ45" s="111"/>
-      <c r="CA45" s="111"/>
-      <c r="CB45" s="111"/>
-      <c r="CC45" s="111"/>
-      <c r="CD45" s="111"/>
-      <c r="CE45" s="112"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="100"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="100"/>
+      <c r="T46" s="100"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="100"/>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="100"/>
+      <c r="AB46" s="100"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="100"/>
+      <c r="AF46" s="100"/>
+      <c r="AG46" s="100"/>
+      <c r="AH46" s="100"/>
+      <c r="AI46" s="100"/>
+      <c r="AJ46" s="100"/>
+      <c r="AK46" s="100"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="100"/>
+      <c r="AN46" s="100"/>
+      <c r="AO46" s="100"/>
+      <c r="AP46" s="100"/>
+      <c r="AQ46" s="100"/>
+      <c r="AR46" s="100"/>
+      <c r="AS46" s="100"/>
+      <c r="AT46" s="100"/>
+      <c r="AU46" s="100"/>
+      <c r="AV46" s="100"/>
+      <c r="AW46" s="100"/>
+      <c r="AX46" s="100"/>
+      <c r="AY46" s="100"/>
+      <c r="AZ46" s="100"/>
+      <c r="BA46" s="100"/>
+      <c r="BB46" s="100"/>
+      <c r="BC46" s="100"/>
+      <c r="BD46" s="100"/>
+      <c r="BE46" s="100"/>
+      <c r="BF46" s="100"/>
+      <c r="BG46" s="100"/>
+      <c r="BH46" s="100"/>
+      <c r="BI46" s="100"/>
+      <c r="BJ46" s="100"/>
+      <c r="BK46" s="100"/>
+      <c r="BL46" s="100"/>
+      <c r="BM46" s="100"/>
+      <c r="BN46" s="100"/>
+      <c r="BO46" s="100"/>
+      <c r="BP46" s="100"/>
+      <c r="BQ46" s="100"/>
+      <c r="BR46" s="100"/>
+      <c r="BS46" s="100"/>
+      <c r="BT46" s="100"/>
+      <c r="BU46" s="100"/>
+      <c r="BV46" s="100"/>
+      <c r="BW46" s="100"/>
+      <c r="BX46" s="100"/>
+      <c r="BY46" s="100"/>
+      <c r="BZ46" s="100"/>
+      <c r="CA46" s="100"/>
+      <c r="CB46" s="100"/>
+      <c r="CC46" s="100"/>
+      <c r="CD46" s="100"/>
+      <c r="CE46" s="101"/>
     </row>
-    <row r="47" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="73"/>
-      <c r="E47" s="74"/>
+    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="73"/>
+      <c r="E48" s="74"/>
     </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="75"/>
+    <row r="49" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="41">
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AJ20:AO20"/>
+    <mergeCell ref="BP45:BT45"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="AD13:AH13"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F4:F5"/>
@@ -6071,9 +6247,9 @@
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
     <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F33:F35"/>
     <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G45:CE45"/>
+    <mergeCell ref="G46:CE46"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="AO25:AT25"/>
     <mergeCell ref="AP26:AY26"/>
@@ -6081,11 +6257,16 @@
     <mergeCell ref="BI39:BO39"/>
     <mergeCell ref="BF38:BL38"/>
     <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="AV31:AZ31"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BA33:BF33"/>
+    <mergeCell ref="BM43:BQ43"/>
     <mergeCell ref="AD16:AK16"/>
     <mergeCell ref="AV27:BF27"/>
     <mergeCell ref="AS29:BC29"/>
     <mergeCell ref="AD14:AJ14"/>
     <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0.511811023622047" footer="0.3"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF27E3-1CD0-4E34-A21F-26BDFE36952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37218360-FF3C-4C86-87CA-A63948B2E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,19 @@
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -206,7 +219,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -312,11 +325,6 @@
       <name val="Play"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,7 +352,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +489,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E0EC"/>
         <bgColor rgb="FFE6E0EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECECEC"/>
-        <bgColor rgb="FFECECEC"/>
       </patternFill>
     </fill>
     <fill>
@@ -874,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -995,9 +997,6 @@
     <xf numFmtId="167" fontId="5" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1070,34 +1069,71 @@
     <xf numFmtId="14" fontId="5" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,50 +1147,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1375,18 +1367,18 @@
   </sheetPr>
   <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN40" sqref="BN40:BO40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BI43" sqref="BI43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="83" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="83" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
@@ -1478,7 +1470,7 @@
       <c r="BP1" s="6"/>
       <c r="BQ1" s="6"/>
       <c r="BR1" s="6"/>
-      <c r="BS1" s="113"/>
+      <c r="BS1" s="83"/>
       <c r="BT1" s="7"/>
       <c r="BU1" s="6" t="s">
         <v>9</v>
@@ -1500,10 +1492,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -1587,10 +1579,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="90">
+      <c r="D3" s="106">
         <v>45197</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1676,117 +1668,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="87">
+      <c r="F4" s="108"/>
+      <c r="G4" s="103">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="87">
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="103">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="87">
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="103">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="87">
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="103">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="87">
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="103">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="87">
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="103">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="87">
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="103">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="87">
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="103">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="87">
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="103">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="88"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="87">
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="104"/>
+      <c r="BO4" s="104"/>
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="105"/>
+      <c r="BR4" s="103">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="88"/>
-      <c r="BU4" s="88"/>
-      <c r="BV4" s="88"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="87">
+      <c r="BS4" s="104"/>
+      <c r="BT4" s="104"/>
+      <c r="BU4" s="104"/>
+      <c r="BV4" s="104"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="105"/>
+      <c r="BY4" s="103">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="88"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="88"/>
-      <c r="CC4" s="88"/>
-      <c r="CD4" s="88"/>
-      <c r="CE4" s="89"/>
+      <c r="BZ4" s="104"/>
+      <c r="CA4" s="104"/>
+      <c r="CB4" s="104"/>
+      <c r="CC4" s="104"/>
+      <c r="CD4" s="104"/>
+      <c r="CE4" s="105"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1">
       <c r="A5" s="1"/>
@@ -1802,7 +1794,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="93"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2306,15 +2298,15 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="96"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
@@ -2409,11 +2401,11 @@
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="96"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="92"/>
       <c r="AA9" s="42"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -2594,14 +2586,14 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="42"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="96"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
       <c r="AI11" s="28"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
@@ -2688,12 +2680,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="96"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
       <c r="AH12" s="42"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
@@ -2783,11 +2775,11 @@
       <c r="AA13" s="42"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="96"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="92"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
@@ -2876,13 +2868,13 @@
       <c r="AA14" s="42"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="96"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="92"/>
       <c r="AK14" s="28"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -2970,12 +2962,12 @@
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="96"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
       <c r="AK15" s="28"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
@@ -3062,14 +3054,14 @@
       <c r="AA16" s="42"/>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="96"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="92"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
       <c r="AN16" s="42"/>
@@ -3131,7 +3123,7 @@
       <c r="E17" s="49">
         <v>45225</v>
       </c>
-      <c r="F17" s="103"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -3158,12 +3150,12 @@
       <c r="AD17" s="28"/>
       <c r="AE17" s="28"/>
       <c r="AF17" s="28"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="50"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="28"/>
       <c r="AM17" s="28"/>
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
@@ -3212,105 +3204,105 @@
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="55"/>
-      <c r="AV18" s="55"/>
-      <c r="AW18" s="55"/>
-      <c r="AX18" s="55"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="55"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55"/>
-      <c r="BD18" s="55"/>
-      <c r="BE18" s="55"/>
-      <c r="BF18" s="55"/>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55"/>
-      <c r="BJ18" s="55"/>
-      <c r="BK18" s="55"/>
-      <c r="BL18" s="55"/>
-      <c r="BM18" s="55"/>
-      <c r="BN18" s="55"/>
-      <c r="BO18" s="55"/>
-      <c r="BP18" s="55"/>
-      <c r="BQ18" s="55"/>
-      <c r="BR18" s="55"/>
-      <c r="BS18" s="55"/>
-      <c r="BT18" s="55"/>
-      <c r="BU18" s="55"/>
-      <c r="BV18" s="55"/>
-      <c r="BW18" s="55"/>
-      <c r="BX18" s="55"/>
-      <c r="BY18" s="55"/>
-      <c r="BZ18" s="55"/>
-      <c r="CA18" s="55"/>
-      <c r="CB18" s="55"/>
-      <c r="CC18" s="55"/>
-      <c r="CD18" s="55"/>
-      <c r="CE18" s="56"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
+      <c r="BQ18" s="54"/>
+      <c r="BR18" s="54"/>
+      <c r="BS18" s="54"/>
+      <c r="BT18" s="54"/>
+      <c r="BU18" s="54"/>
+      <c r="BV18" s="54"/>
+      <c r="BW18" s="54"/>
+      <c r="BX18" s="54"/>
+      <c r="BY18" s="54"/>
+      <c r="BZ18" s="54"/>
+      <c r="CA18" s="54"/>
+      <c r="CB18" s="54"/>
+      <c r="CC18" s="54"/>
+      <c r="CD18" s="54"/>
+      <c r="CE18" s="55"/>
     </row>
     <row r="19" spans="1:83" ht="15" customHeight="1">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="58">
         <v>45222</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="58">
         <v>45227</v>
       </c>
       <c r="F19" s="39"/>
@@ -3342,12 +3334,12 @@
       <c r="AF19" s="28"/>
       <c r="AG19" s="42"/>
       <c r="AH19" s="42"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="83"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="28"/>
@@ -3394,19 +3386,19 @@
     </row>
     <row r="20" spans="1:83" ht="15" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="58">
         <v>45223</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="58">
         <v>45228</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -3436,12 +3428,12 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="28"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="96"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="91"/>
+      <c r="AN20" s="91"/>
+      <c r="AO20" s="92"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
@@ -3487,19 +3479,19 @@
     </row>
     <row r="21" spans="1:83" ht="15" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="58">
         <v>45224</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="58">
         <v>45229</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -3580,19 +3572,19 @@
     </row>
     <row r="22" spans="1:83" ht="15" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="58">
         <v>45225</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="58">
         <v>45230</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
@@ -3624,12 +3616,12 @@
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="83"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="83"/>
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -3673,19 +3665,19 @@
     </row>
     <row r="23" spans="1:83" ht="15" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="58">
         <v>45224</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="58">
         <v>45230</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -3766,19 +3758,19 @@
     </row>
     <row r="24" spans="1:83" ht="15" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="58">
         <v>45227</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="58">
         <v>45232</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -3859,19 +3851,19 @@
     </row>
     <row r="25" spans="1:83" ht="15" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="58">
         <v>45228</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="58">
         <v>45233</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="59"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
@@ -3906,12 +3898,12 @@
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="42"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="95"/>
-      <c r="AQ25" s="95"/>
-      <c r="AR25" s="95"/>
-      <c r="AS25" s="95"/>
-      <c r="AT25" s="96"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="91"/>
+      <c r="AQ25" s="91"/>
+      <c r="AR25" s="91"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="92"/>
       <c r="AU25" s="42"/>
       <c r="AV25" s="42"/>
       <c r="AW25" s="28"/>
@@ -3952,19 +3944,19 @@
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="58">
         <v>45229</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="58">
         <v>45238</v>
       </c>
-      <c r="F26" s="60"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -4000,16 +3992,16 @@
       <c r="AM26" s="28"/>
       <c r="AN26" s="42"/>
       <c r="AO26" s="42"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="95"/>
-      <c r="AR26" s="95"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="95"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="95"/>
-      <c r="AW26" s="95"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="96"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="92"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="28"/>
       <c r="BB26" s="42"/>
@@ -4045,19 +4037,19 @@
     </row>
     <row r="27" spans="1:83" ht="15" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="58">
         <v>45235</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="58">
         <v>45245</v>
       </c>
-      <c r="F27" s="60"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -4099,17 +4091,17 @@
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
       <c r="AU27" s="42"/>
-      <c r="AV27" s="101"/>
-      <c r="AW27" s="95"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="95"/>
-      <c r="BA27" s="95"/>
-      <c r="BB27" s="95"/>
-      <c r="BC27" s="95"/>
-      <c r="BD27" s="95"/>
-      <c r="BE27" s="95"/>
-      <c r="BF27" s="96"/>
+      <c r="AV27" s="99"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BA27" s="91"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="92"/>
       <c r="BG27" s="28"/>
       <c r="BH27" s="28"/>
       <c r="BI27" s="42"/>
@@ -4138,19 +4130,19 @@
     </row>
     <row r="28" spans="1:83" ht="15" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="58">
         <v>45231</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="58">
         <v>45241</v>
       </c>
-      <c r="F28" s="60"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -4188,17 +4180,17 @@
       <c r="AO28" s="42"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="98"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="95"/>
-      <c r="BA28" s="95"/>
-      <c r="BB28" s="96"/>
+      <c r="AR28" s="100"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="91"/>
+      <c r="BA28" s="91"/>
+      <c r="BB28" s="92"/>
       <c r="BC28" s="42"/>
       <c r="BD28" s="28"/>
       <c r="BE28" s="28"/>
@@ -4231,19 +4223,19 @@
     </row>
     <row r="29" spans="1:83" ht="15" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="58">
         <v>45232</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="58">
         <v>45242</v>
       </c>
-      <c r="F29" s="60"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -4282,17 +4274,17 @@
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28"/>
       <c r="AR29" s="28"/>
-      <c r="AS29" s="102"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="95"/>
-      <c r="BA29" s="95"/>
-      <c r="BB29" s="95"/>
-      <c r="BC29" s="96"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="91"/>
+      <c r="BA29" s="91"/>
+      <c r="BB29" s="91"/>
+      <c r="BC29" s="92"/>
       <c r="BD29" s="28"/>
       <c r="BE29" s="28"/>
       <c r="BF29" s="28"/>
@@ -4324,19 +4316,19 @@
     </row>
     <row r="30" spans="1:83" ht="15" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="58">
         <v>45233</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="58">
         <v>45243</v>
       </c>
-      <c r="F30" s="60"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -4376,17 +4368,17 @@
       <c r="AQ30" s="28"/>
       <c r="AR30" s="28"/>
       <c r="AS30" s="28"/>
-      <c r="AT30" s="98"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="95"/>
-      <c r="BA30" s="95"/>
-      <c r="BB30" s="95"/>
-      <c r="BC30" s="95"/>
-      <c r="BD30" s="96"/>
+      <c r="AT30" s="100"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="91"/>
+      <c r="BA30" s="91"/>
+      <c r="BB30" s="91"/>
+      <c r="BC30" s="91"/>
+      <c r="BD30" s="92"/>
       <c r="BE30" s="28"/>
       <c r="BF30" s="28"/>
       <c r="BG30" s="28"/>
@@ -4417,19 +4409,19 @@
     </row>
     <row r="31" spans="1:83" ht="15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="58">
         <v>45234</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="58">
         <v>45239</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -4471,11 +4463,11 @@
       <c r="AS31" s="28"/>
       <c r="AT31" s="28"/>
       <c r="AU31" s="42"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="96"/>
+      <c r="AV31" s="93"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="92"/>
       <c r="BA31" s="28"/>
       <c r="BB31" s="42"/>
       <c r="BC31" s="42"/>
@@ -4510,61 +4502,61 @@
     </row>
     <row r="32" spans="1:83" ht="15" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="58">
         <v>45236</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="58">
         <v>45245</v>
       </c>
       <c r="F32" s="39"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="61"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
+      <c r="AK32" s="61"/>
+      <c r="AL32" s="61"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
       <c r="AW32" s="14"/>
       <c r="AX32" s="14"/>
       <c r="AY32" s="14"/>
@@ -4575,227 +4567,227 @@
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
       <c r="BF32" s="14"/>
-      <c r="BG32" s="62"/>
-      <c r="BH32" s="62"/>
-      <c r="BI32" s="63"/>
-      <c r="BJ32" s="63"/>
-      <c r="BK32" s="62"/>
-      <c r="BL32" s="62"/>
-      <c r="BM32" s="62"/>
-      <c r="BN32" s="62"/>
-      <c r="BO32" s="62"/>
-      <c r="BP32" s="63"/>
-      <c r="BQ32" s="63"/>
-      <c r="BR32" s="62"/>
-      <c r="BS32" s="62"/>
-      <c r="BT32" s="62"/>
-      <c r="BU32" s="62"/>
-      <c r="BV32" s="62"/>
-      <c r="BW32" s="63"/>
-      <c r="BX32" s="63"/>
-      <c r="BY32" s="62"/>
-      <c r="BZ32" s="62"/>
-      <c r="CA32" s="62"/>
-      <c r="CB32" s="62"/>
-      <c r="CC32" s="62"/>
-      <c r="CD32" s="63"/>
-      <c r="CE32" s="63"/>
+      <c r="BG32" s="61"/>
+      <c r="BH32" s="61"/>
+      <c r="BI32" s="62"/>
+      <c r="BJ32" s="62"/>
+      <c r="BK32" s="61"/>
+      <c r="BL32" s="61"/>
+      <c r="BM32" s="61"/>
+      <c r="BN32" s="61"/>
+      <c r="BO32" s="61"/>
+      <c r="BP32" s="62"/>
+      <c r="BQ32" s="62"/>
+      <c r="BR32" s="61"/>
+      <c r="BS32" s="61"/>
+      <c r="BT32" s="61"/>
+      <c r="BU32" s="61"/>
+      <c r="BV32" s="61"/>
+      <c r="BW32" s="62"/>
+      <c r="BX32" s="62"/>
+      <c r="BY32" s="61"/>
+      <c r="BZ32" s="61"/>
+      <c r="CA32" s="61"/>
+      <c r="CB32" s="61"/>
+      <c r="CC32" s="61"/>
+      <c r="CD32" s="62"/>
+      <c r="CE32" s="62"/>
     </row>
     <row r="33" spans="1:83" ht="15" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="58">
         <v>45240</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="58">
         <v>45245</v>
       </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="63"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="61"/>
+      <c r="AJ33" s="61"/>
+      <c r="AK33" s="61"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
       <c r="AW33" s="28"/>
       <c r="AX33" s="28"/>
       <c r="AY33" s="28"/>
       <c r="AZ33" s="28"/>
-      <c r="BA33" s="109"/>
-      <c r="BB33" s="110"/>
-      <c r="BC33" s="110"/>
-      <c r="BD33" s="110"/>
-      <c r="BE33" s="110"/>
-      <c r="BF33" s="111"/>
-      <c r="BG33" s="62"/>
-      <c r="BH33" s="62"/>
-      <c r="BI33" s="63"/>
-      <c r="BJ33" s="63"/>
-      <c r="BK33" s="62"/>
-      <c r="BL33" s="62"/>
-      <c r="BM33" s="62"/>
-      <c r="BN33" s="62"/>
-      <c r="BO33" s="62"/>
-      <c r="BP33" s="63"/>
-      <c r="BQ33" s="63"/>
-      <c r="BR33" s="62"/>
-      <c r="BS33" s="62"/>
-      <c r="BT33" s="62"/>
-      <c r="BU33" s="62"/>
-      <c r="BV33" s="62"/>
-      <c r="BW33" s="63"/>
-      <c r="BX33" s="63"/>
-      <c r="BY33" s="62"/>
-      <c r="BZ33" s="62"/>
-      <c r="CA33" s="62"/>
-      <c r="CB33" s="62"/>
-      <c r="CC33" s="62"/>
-      <c r="CD33" s="63"/>
-      <c r="CE33" s="63"/>
+      <c r="BA33" s="87"/>
+      <c r="BB33" s="88"/>
+      <c r="BC33" s="88"/>
+      <c r="BD33" s="88"/>
+      <c r="BE33" s="88"/>
+      <c r="BF33" s="89"/>
+      <c r="BG33" s="61"/>
+      <c r="BH33" s="61"/>
+      <c r="BI33" s="62"/>
+      <c r="BJ33" s="62"/>
+      <c r="BK33" s="61"/>
+      <c r="BL33" s="61"/>
+      <c r="BM33" s="61"/>
+      <c r="BN33" s="61"/>
+      <c r="BO33" s="61"/>
+      <c r="BP33" s="62"/>
+      <c r="BQ33" s="62"/>
+      <c r="BR33" s="61"/>
+      <c r="BS33" s="61"/>
+      <c r="BT33" s="61"/>
+      <c r="BU33" s="61"/>
+      <c r="BV33" s="61"/>
+      <c r="BW33" s="62"/>
+      <c r="BX33" s="62"/>
+      <c r="BY33" s="61"/>
+      <c r="BZ33" s="61"/>
+      <c r="CA33" s="61"/>
+      <c r="CB33" s="61"/>
+      <c r="CC33" s="61"/>
+      <c r="CD33" s="62"/>
+      <c r="CE33" s="62"/>
     </row>
     <row r="34" spans="1:83" ht="15" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="68"/>
-      <c r="AO34" s="68"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
-      <c r="AR34" s="68"/>
-      <c r="AS34" s="68"/>
-      <c r="AT34" s="68"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="68"/>
-      <c r="BG34" s="68"/>
-      <c r="BH34" s="68"/>
-      <c r="BI34" s="68"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="68"/>
-      <c r="BL34" s="68"/>
-      <c r="BM34" s="68"/>
-      <c r="BN34" s="68"/>
-      <c r="BO34" s="68"/>
-      <c r="BP34" s="68"/>
-      <c r="BQ34" s="68"/>
-      <c r="BR34" s="68"/>
-      <c r="BS34" s="68"/>
-      <c r="BT34" s="68"/>
-      <c r="BU34" s="68"/>
-      <c r="BV34" s="68"/>
-      <c r="BW34" s="68"/>
-      <c r="BX34" s="68"/>
-      <c r="BY34" s="68"/>
-      <c r="BZ34" s="68"/>
-      <c r="CA34" s="68"/>
-      <c r="CB34" s="68"/>
-      <c r="CC34" s="68"/>
-      <c r="CD34" s="68"/>
-      <c r="CE34" s="69"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="67"/>
+      <c r="BK34" s="67"/>
+      <c r="BL34" s="67"/>
+      <c r="BM34" s="67"/>
+      <c r="BN34" s="67"/>
+      <c r="BO34" s="67"/>
+      <c r="BP34" s="67"/>
+      <c r="BQ34" s="67"/>
+      <c r="BR34" s="67"/>
+      <c r="BS34" s="67"/>
+      <c r="BT34" s="67"/>
+      <c r="BU34" s="67"/>
+      <c r="BV34" s="67"/>
+      <c r="BW34" s="67"/>
+      <c r="BX34" s="67"/>
+      <c r="BY34" s="67"/>
+      <c r="BZ34" s="67"/>
+      <c r="CA34" s="67"/>
+      <c r="CB34" s="67"/>
+      <c r="CC34" s="67"/>
+      <c r="CD34" s="67"/>
+      <c r="CE34" s="68"/>
     </row>
     <row r="35" spans="1:83" ht="15" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="71">
         <v>45241</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="71">
         <v>45244</v>
       </c>
-      <c r="F35" s="104"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -4876,16 +4868,16 @@
     </row>
     <row r="36" spans="1:83" ht="15" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="71">
         <v>45245</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="71">
         <v>45249</v>
       </c>
       <c r="F36" s="39"/>
@@ -4969,16 +4961,16 @@
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="71">
         <v>45244</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="71">
         <v>45251</v>
       </c>
       <c r="F37" s="39"/>
@@ -5062,16 +5054,16 @@
     </row>
     <row r="38" spans="1:83" ht="15" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="71">
         <v>45245</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="71">
         <v>45251</v>
       </c>
       <c r="F38" s="39"/>
@@ -5126,15 +5118,15 @@
       <c r="BC38" s="42"/>
       <c r="BD38" s="28"/>
       <c r="BE38" s="28"/>
-      <c r="BF38" s="112"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="95"/>
-      <c r="BJ38" s="95"/>
-      <c r="BK38" s="95"/>
-      <c r="BL38" s="96"/>
+      <c r="BF38" s="90"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="91"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="92"/>
       <c r="BM38" s="28"/>
-      <c r="BN38" s="73"/>
+      <c r="BN38" s="72"/>
       <c r="BO38" s="28"/>
       <c r="BP38" s="42"/>
       <c r="BQ38" s="42"/>
@@ -5155,16 +5147,16 @@
     </row>
     <row r="39" spans="1:83" ht="15" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="71">
         <v>45248</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="71">
         <v>44524</v>
       </c>
       <c r="F39" s="39"/>
@@ -5222,13 +5214,13 @@
       <c r="BF39" s="28"/>
       <c r="BG39" s="28"/>
       <c r="BH39" s="28"/>
-      <c r="BI39" s="98"/>
-      <c r="BJ39" s="95"/>
-      <c r="BK39" s="95"/>
-      <c r="BL39" s="95"/>
-      <c r="BM39" s="95"/>
-      <c r="BN39" s="95"/>
-      <c r="BO39" s="96"/>
+      <c r="BI39" s="100"/>
+      <c r="BJ39" s="91"/>
+      <c r="BK39" s="91"/>
+      <c r="BL39" s="91"/>
+      <c r="BM39" s="91"/>
+      <c r="BN39" s="91"/>
+      <c r="BO39" s="92"/>
       <c r="BP39" s="42"/>
       <c r="BQ39" s="42"/>
       <c r="BR39" s="28"/>
@@ -5248,16 +5240,16 @@
     </row>
     <row r="40" spans="1:83" ht="15" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="71">
         <v>45249</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="71">
         <v>44524</v>
       </c>
       <c r="F40" s="39"/>
@@ -5316,12 +5308,12 @@
       <c r="BG40" s="28"/>
       <c r="BH40" s="28"/>
       <c r="BI40" s="42"/>
-      <c r="BJ40" s="113"/>
-      <c r="BK40" s="113"/>
-      <c r="BL40" s="113"/>
-      <c r="BM40" s="113"/>
-      <c r="BN40" s="113"/>
-      <c r="BO40" s="113"/>
+      <c r="BJ40" s="83"/>
+      <c r="BK40" s="83"/>
+      <c r="BL40" s="83"/>
+      <c r="BM40" s="83"/>
+      <c r="BN40" s="83"/>
+      <c r="BO40" s="83"/>
       <c r="BP40" s="42"/>
       <c r="BQ40" s="42"/>
       <c r="BR40" s="28"/>
@@ -5341,16 +5333,16 @@
     </row>
     <row r="41" spans="1:83" ht="15" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="71">
         <v>45250</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="71">
         <v>44528</v>
       </c>
       <c r="F41" s="39"/>
@@ -5410,15 +5402,15 @@
       <c r="BH41" s="28"/>
       <c r="BI41" s="42"/>
       <c r="BJ41" s="42"/>
-      <c r="BK41" s="100"/>
-      <c r="BL41" s="95"/>
-      <c r="BM41" s="95"/>
-      <c r="BN41" s="95"/>
-      <c r="BO41" s="95"/>
-      <c r="BP41" s="95"/>
-      <c r="BQ41" s="95"/>
-      <c r="BR41" s="95"/>
-      <c r="BS41" s="96"/>
+      <c r="BK41" s="93"/>
+      <c r="BL41" s="91"/>
+      <c r="BM41" s="91"/>
+      <c r="BN41" s="91"/>
+      <c r="BO41" s="91"/>
+      <c r="BP41" s="91"/>
+      <c r="BQ41" s="91"/>
+      <c r="BR41" s="91"/>
+      <c r="BS41" s="92"/>
       <c r="BT41" s="28"/>
       <c r="BU41" s="28"/>
       <c r="BV41" s="28"/>
@@ -5434,16 +5426,16 @@
     </row>
     <row r="42" spans="1:83" ht="15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="71">
         <v>45252</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="71">
         <v>44528</v>
       </c>
       <c r="F42" s="39"/>
@@ -5505,13 +5497,13 @@
       <c r="BJ42" s="42"/>
       <c r="BK42" s="28"/>
       <c r="BL42" s="28"/>
-      <c r="BM42" s="102"/>
-      <c r="BN42" s="95"/>
-      <c r="BO42" s="95"/>
-      <c r="BP42" s="95"/>
-      <c r="BQ42" s="95"/>
-      <c r="BR42" s="95"/>
-      <c r="BS42" s="96"/>
+      <c r="BM42" s="94"/>
+      <c r="BN42" s="91"/>
+      <c r="BO42" s="91"/>
+      <c r="BP42" s="91"/>
+      <c r="BQ42" s="91"/>
+      <c r="BR42" s="91"/>
+      <c r="BS42" s="92"/>
       <c r="BT42" s="28"/>
       <c r="BU42" s="28"/>
       <c r="BV42" s="28"/>
@@ -5525,18 +5517,18 @@
       <c r="CD42" s="42"/>
       <c r="CE42" s="42"/>
     </row>
-    <row r="43" spans="1:83" ht="15" customHeight="1">
+    <row r="43" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="71">
         <v>45252</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="71">
         <v>44524</v>
       </c>
       <c r="F43" s="39"/>
@@ -5598,11 +5590,11 @@
       <c r="BJ43" s="42"/>
       <c r="BK43" s="28"/>
       <c r="BL43" s="28"/>
-      <c r="BM43" s="100"/>
-      <c r="BN43" s="95"/>
-      <c r="BO43" s="95"/>
-      <c r="BP43" s="95"/>
-      <c r="BQ43" s="96"/>
+      <c r="BM43" s="93"/>
+      <c r="BN43" s="91"/>
+      <c r="BO43" s="91"/>
+      <c r="BP43" s="91"/>
+      <c r="BQ43" s="92"/>
       <c r="BR43" s="28"/>
       <c r="BS43" s="28"/>
       <c r="BT43" s="28"/>
@@ -5618,18 +5610,18 @@
       <c r="CD43" s="42"/>
       <c r="CE43" s="42"/>
     </row>
-    <row r="44" spans="1:83" ht="15" customHeight="1">
+    <row r="44" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="71">
         <v>45253</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="71">
         <v>45259</v>
       </c>
       <c r="F44" s="39"/>
@@ -5699,9 +5691,9 @@
       <c r="BR44" s="14"/>
       <c r="BS44" s="14"/>
       <c r="BT44" s="14"/>
-      <c r="BU44" s="75"/>
-      <c r="BV44" s="75"/>
-      <c r="BW44" s="76"/>
+      <c r="BU44" s="28"/>
+      <c r="BV44" s="28"/>
+      <c r="BW44" s="42"/>
       <c r="BX44" s="42"/>
       <c r="BY44" s="42"/>
       <c r="BZ44" s="28"/>
@@ -5711,18 +5703,18 @@
       <c r="CD44" s="42"/>
       <c r="CE44" s="42"/>
     </row>
-    <row r="45" spans="1:83" ht="15" customHeight="1">
+    <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="71">
         <v>45255</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="71">
         <v>44529</v>
       </c>
       <c r="F45" s="39"/>
@@ -5787,14 +5779,14 @@
       <c r="BM45" s="28"/>
       <c r="BN45" s="28"/>
       <c r="BO45" s="28"/>
-      <c r="BP45" s="99"/>
-      <c r="BQ45" s="95"/>
-      <c r="BR45" s="95"/>
-      <c r="BS45" s="95"/>
-      <c r="BT45" s="96"/>
-      <c r="BU45" s="50"/>
-      <c r="BV45" s="50"/>
-      <c r="BW45" s="77"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="91"/>
+      <c r="BR45" s="91"/>
+      <c r="BS45" s="91"/>
+      <c r="BT45" s="92"/>
+      <c r="BU45" s="28"/>
+      <c r="BV45" s="28"/>
+      <c r="BW45" s="42"/>
       <c r="BX45" s="42"/>
       <c r="BY45" s="42"/>
       <c r="BZ45" s="28"/>
@@ -5804,3941 +5796,3914 @@
       <c r="CD45" s="42"/>
       <c r="CE45" s="42"/>
     </row>
-    <row r="46" spans="1:83" ht="15" customHeight="1">
+    <row r="46" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-      <c r="W46" s="95"/>
-      <c r="X46" s="95"/>
-      <c r="Y46" s="95"/>
-      <c r="Z46" s="95"/>
-      <c r="AA46" s="95"/>
-      <c r="AB46" s="95"/>
-      <c r="AC46" s="95"/>
-      <c r="AD46" s="95"/>
-      <c r="AE46" s="95"/>
-      <c r="AF46" s="95"/>
-      <c r="AG46" s="95"/>
-      <c r="AH46" s="95"/>
-      <c r="AI46" s="95"/>
-      <c r="AJ46" s="95"/>
-      <c r="AK46" s="95"/>
-      <c r="AL46" s="95"/>
-      <c r="AM46" s="95"/>
-      <c r="AN46" s="95"/>
-      <c r="AO46" s="95"/>
-      <c r="AP46" s="95"/>
-      <c r="AQ46" s="95"/>
-      <c r="AR46" s="95"/>
-      <c r="AS46" s="95"/>
-      <c r="AT46" s="95"/>
-      <c r="AU46" s="95"/>
-      <c r="AV46" s="95"/>
-      <c r="AW46" s="95"/>
-      <c r="AX46" s="95"/>
-      <c r="AY46" s="95"/>
-      <c r="AZ46" s="95"/>
-      <c r="BA46" s="95"/>
-      <c r="BB46" s="95"/>
-      <c r="BC46" s="95"/>
-      <c r="BD46" s="95"/>
-      <c r="BE46" s="95"/>
-      <c r="BF46" s="95"/>
-      <c r="BG46" s="95"/>
-      <c r="BH46" s="95"/>
-      <c r="BI46" s="95"/>
-      <c r="BJ46" s="95"/>
-      <c r="BK46" s="95"/>
-      <c r="BL46" s="95"/>
-      <c r="BM46" s="95"/>
-      <c r="BN46" s="95"/>
-      <c r="BO46" s="95"/>
-      <c r="BP46" s="95"/>
-      <c r="BQ46" s="95"/>
-      <c r="BR46" s="95"/>
-      <c r="BS46" s="95"/>
-      <c r="BT46" s="95"/>
-      <c r="BU46" s="95"/>
-      <c r="BV46" s="95"/>
-      <c r="BW46" s="95"/>
-      <c r="BX46" s="95"/>
-      <c r="BY46" s="95"/>
-      <c r="BZ46" s="95"/>
-      <c r="CA46" s="95"/>
-      <c r="CB46" s="95"/>
-      <c r="CC46" s="95"/>
-      <c r="CD46" s="95"/>
-      <c r="CE46" s="107"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
+      <c r="AB46" s="91"/>
+      <c r="AC46" s="91"/>
+      <c r="AD46" s="91"/>
+      <c r="AE46" s="91"/>
+      <c r="AF46" s="91"/>
+      <c r="AG46" s="91"/>
+      <c r="AH46" s="91"/>
+      <c r="AI46" s="91"/>
+      <c r="AJ46" s="91"/>
+      <c r="AK46" s="91"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91"/>
+      <c r="AN46" s="91"/>
+      <c r="AO46" s="91"/>
+      <c r="AP46" s="91"/>
+      <c r="AQ46" s="91"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="91"/>
+      <c r="AZ46" s="91"/>
+      <c r="BA46" s="91"/>
+      <c r="BB46" s="91"/>
+      <c r="BC46" s="91"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="91"/>
+      <c r="BF46" s="91"/>
+      <c r="BG46" s="91"/>
+      <c r="BH46" s="91"/>
+      <c r="BI46" s="91"/>
+      <c r="BJ46" s="91"/>
+      <c r="BK46" s="91"/>
+      <c r="BL46" s="91"/>
+      <c r="BM46" s="91"/>
+      <c r="BN46" s="91"/>
+      <c r="BO46" s="91"/>
+      <c r="BP46" s="91"/>
+      <c r="BQ46" s="91"/>
+      <c r="BR46" s="91"/>
+      <c r="BS46" s="91"/>
+      <c r="BT46" s="91"/>
+      <c r="BU46" s="91"/>
+      <c r="BV46" s="91"/>
+      <c r="BW46" s="91"/>
+      <c r="BX46" s="91"/>
+      <c r="BY46" s="91"/>
+      <c r="BZ46" s="91"/>
+      <c r="CA46" s="91"/>
+      <c r="CB46" s="91"/>
+      <c r="CC46" s="91"/>
+      <c r="CD46" s="91"/>
+      <c r="CE46" s="97"/>
     </row>
     <row r="47" spans="1:83" ht="14.25" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="D47" s="83"/>
+      <c r="A47" s="78"/>
+      <c r="D47" s="79"/>
     </row>
     <row r="48" spans="1:83" ht="30" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="85"/>
+      <c r="A48" s="78"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="81"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="82"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="83"/>
+      <c r="A49" s="78"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="79"/>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A50" s="82"/>
-      <c r="D50" s="83"/>
+      <c r="A50" s="78"/>
+      <c r="D50" s="79"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="D51" s="83"/>
+      <c r="A51" s="78"/>
+      <c r="D51" s="79"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A52" s="82"/>
-      <c r="D52" s="83"/>
+      <c r="A52" s="78"/>
+      <c r="D52" s="79"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A53" s="82"/>
-      <c r="D53" s="83"/>
+      <c r="A53" s="78"/>
+      <c r="D53" s="79"/>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A54" s="82"/>
-      <c r="D54" s="83"/>
+      <c r="A54" s="78"/>
+      <c r="D54" s="79"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="A55" s="78"/>
+      <c r="D55" s="79"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="A56" s="78"/>
+      <c r="D56" s="79"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A57" s="82"/>
-      <c r="D57" s="83"/>
+      <c r="A57" s="78"/>
+      <c r="D57" s="79"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A58" s="82"/>
-      <c r="D58" s="83"/>
+      <c r="A58" s="78"/>
+      <c r="D58" s="79"/>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A59" s="82"/>
-      <c r="D59" s="83"/>
+      <c r="A59" s="78"/>
+      <c r="D59" s="79"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A60" s="82"/>
-      <c r="D60" s="83"/>
+      <c r="A60" s="78"/>
+      <c r="D60" s="79"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A61" s="82"/>
-      <c r="D61" s="83"/>
+      <c r="A61" s="78"/>
+      <c r="D61" s="79"/>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A62" s="82"/>
-      <c r="D62" s="83"/>
+      <c r="A62" s="78"/>
+      <c r="D62" s="79"/>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A63" s="82"/>
-      <c r="D63" s="83"/>
+      <c r="A63" s="78"/>
+      <c r="D63" s="79"/>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A64" s="82"/>
-      <c r="D64" s="83"/>
+      <c r="A64" s="78"/>
+      <c r="D64" s="79"/>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A65" s="82"/>
-      <c r="D65" s="83"/>
+      <c r="A65" s="78"/>
+      <c r="D65" s="79"/>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A66" s="82"/>
-      <c r="D66" s="83"/>
+      <c r="A66" s="78"/>
+      <c r="D66" s="79"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A67" s="82"/>
-      <c r="D67" s="83"/>
+      <c r="A67" s="78"/>
+      <c r="D67" s="79"/>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A68" s="82"/>
-      <c r="D68" s="83"/>
+      <c r="A68" s="78"/>
+      <c r="D68" s="79"/>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A69" s="82"/>
-      <c r="D69" s="83"/>
+      <c r="A69" s="78"/>
+      <c r="D69" s="79"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A70" s="82"/>
-      <c r="D70" s="83"/>
+      <c r="A70" s="78"/>
+      <c r="D70" s="79"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A71" s="82"/>
-      <c r="D71" s="83"/>
+      <c r="A71" s="78"/>
+      <c r="D71" s="79"/>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="A72" s="78"/>
+      <c r="D72" s="79"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="A73" s="78"/>
+      <c r="D73" s="79"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A74" s="82"/>
-      <c r="D74" s="83"/>
+      <c r="A74" s="78"/>
+      <c r="D74" s="79"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A75" s="82"/>
-      <c r="D75" s="83"/>
+      <c r="A75" s="78"/>
+      <c r="D75" s="79"/>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A76" s="82"/>
-      <c r="D76" s="83"/>
+      <c r="A76" s="78"/>
+      <c r="D76" s="79"/>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="A77" s="78"/>
+      <c r="D77" s="79"/>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="A78" s="78"/>
+      <c r="D78" s="79"/>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A79" s="82"/>
-      <c r="D79" s="83"/>
+      <c r="A79" s="78"/>
+      <c r="D79" s="79"/>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A80" s="82"/>
-      <c r="D80" s="83"/>
+      <c r="A80" s="78"/>
+      <c r="D80" s="79"/>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A81" s="82"/>
-      <c r="D81" s="83"/>
+      <c r="A81" s="78"/>
+      <c r="D81" s="79"/>
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A82" s="82"/>
-      <c r="D82" s="83"/>
+      <c r="A82" s="78"/>
+      <c r="D82" s="79"/>
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A83" s="82"/>
-      <c r="D83" s="83"/>
+      <c r="A83" s="78"/>
+      <c r="D83" s="79"/>
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A84" s="82"/>
-      <c r="D84" s="83"/>
+      <c r="A84" s="78"/>
+      <c r="D84" s="79"/>
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A85" s="82"/>
-      <c r="D85" s="83"/>
+      <c r="A85" s="78"/>
+      <c r="D85" s="79"/>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A86" s="82"/>
-      <c r="D86" s="83"/>
+      <c r="A86" s="78"/>
+      <c r="D86" s="79"/>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="A87" s="78"/>
+      <c r="D87" s="79"/>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="A88" s="78"/>
+      <c r="D88" s="79"/>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A89" s="82"/>
-      <c r="D89" s="83"/>
+      <c r="A89" s="78"/>
+      <c r="D89" s="79"/>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A90" s="82"/>
-      <c r="D90" s="83"/>
+      <c r="A90" s="78"/>
+      <c r="D90" s="79"/>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A91" s="82"/>
-      <c r="D91" s="83"/>
+      <c r="A91" s="78"/>
+      <c r="D91" s="79"/>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A92" s="82"/>
-      <c r="D92" s="83"/>
+      <c r="A92" s="78"/>
+      <c r="D92" s="79"/>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A93" s="82"/>
-      <c r="D93" s="83"/>
+      <c r="A93" s="78"/>
+      <c r="D93" s="79"/>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A94" s="82"/>
-      <c r="D94" s="83"/>
+      <c r="A94" s="78"/>
+      <c r="D94" s="79"/>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A95" s="82"/>
-      <c r="D95" s="83"/>
+      <c r="A95" s="78"/>
+      <c r="D95" s="79"/>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A96" s="82"/>
-      <c r="D96" s="83"/>
+      <c r="A96" s="78"/>
+      <c r="D96" s="79"/>
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A97" s="82"/>
-      <c r="D97" s="83"/>
+      <c r="A97" s="78"/>
+      <c r="D97" s="79"/>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A98" s="82"/>
-      <c r="D98" s="83"/>
+      <c r="A98" s="78"/>
+      <c r="D98" s="79"/>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A99" s="82"/>
-      <c r="D99" s="83"/>
+      <c r="A99" s="78"/>
+      <c r="D99" s="79"/>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A100" s="82"/>
-      <c r="D100" s="83"/>
+      <c r="A100" s="78"/>
+      <c r="D100" s="79"/>
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A101" s="82"/>
-      <c r="D101" s="83"/>
+      <c r="A101" s="78"/>
+      <c r="D101" s="79"/>
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A102" s="82"/>
-      <c r="D102" s="83"/>
+      <c r="A102" s="78"/>
+      <c r="D102" s="79"/>
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A103" s="82"/>
-      <c r="D103" s="83"/>
+      <c r="A103" s="78"/>
+      <c r="D103" s="79"/>
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A104" s="82"/>
-      <c r="D104" s="83"/>
+      <c r="A104" s="78"/>
+      <c r="D104" s="79"/>
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A105" s="82"/>
-      <c r="D105" s="83"/>
+      <c r="A105" s="78"/>
+      <c r="D105" s="79"/>
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A106" s="82"/>
-      <c r="D106" s="83"/>
+      <c r="A106" s="78"/>
+      <c r="D106" s="79"/>
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A107" s="82"/>
-      <c r="D107" s="83"/>
+      <c r="A107" s="78"/>
+      <c r="D107" s="79"/>
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A108" s="82"/>
-      <c r="D108" s="83"/>
+      <c r="A108" s="78"/>
+      <c r="D108" s="79"/>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A109" s="82"/>
-      <c r="D109" s="83"/>
+      <c r="A109" s="78"/>
+      <c r="D109" s="79"/>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A110" s="82"/>
-      <c r="D110" s="83"/>
+      <c r="A110" s="78"/>
+      <c r="D110" s="79"/>
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A111" s="82"/>
-      <c r="D111" s="83"/>
+      <c r="A111" s="78"/>
+      <c r="D111" s="79"/>
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A112" s="82"/>
-      <c r="D112" s="83"/>
+      <c r="A112" s="78"/>
+      <c r="D112" s="79"/>
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A113" s="82"/>
-      <c r="D113" s="83"/>
+      <c r="A113" s="78"/>
+      <c r="D113" s="79"/>
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A114" s="82"/>
-      <c r="D114" s="83"/>
+      <c r="A114" s="78"/>
+      <c r="D114" s="79"/>
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A115" s="82"/>
-      <c r="D115" s="83"/>
+      <c r="A115" s="78"/>
+      <c r="D115" s="79"/>
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A116" s="82"/>
-      <c r="D116" s="83"/>
+      <c r="A116" s="78"/>
+      <c r="D116" s="79"/>
     </row>
     <row r="117" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A117" s="82"/>
-      <c r="D117" s="83"/>
+      <c r="A117" s="78"/>
+      <c r="D117" s="79"/>
     </row>
     <row r="118" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A118" s="82"/>
-      <c r="D118" s="83"/>
+      <c r="A118" s="78"/>
+      <c r="D118" s="79"/>
     </row>
     <row r="119" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A119" s="82"/>
-      <c r="D119" s="83"/>
+      <c r="A119" s="78"/>
+      <c r="D119" s="79"/>
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A120" s="82"/>
-      <c r="D120" s="83"/>
+      <c r="A120" s="78"/>
+      <c r="D120" s="79"/>
     </row>
     <row r="121" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A121" s="82"/>
-      <c r="D121" s="83"/>
+      <c r="A121" s="78"/>
+      <c r="D121" s="79"/>
     </row>
     <row r="122" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A122" s="82"/>
-      <c r="D122" s="83"/>
+      <c r="A122" s="78"/>
+      <c r="D122" s="79"/>
     </row>
     <row r="123" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A123" s="82"/>
-      <c r="D123" s="83"/>
+      <c r="A123" s="78"/>
+      <c r="D123" s="79"/>
     </row>
     <row r="124" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A124" s="82"/>
-      <c r="D124" s="83"/>
+      <c r="A124" s="78"/>
+      <c r="D124" s="79"/>
     </row>
     <row r="125" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A125" s="82"/>
-      <c r="D125" s="83"/>
+      <c r="A125" s="78"/>
+      <c r="D125" s="79"/>
     </row>
     <row r="126" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A126" s="82"/>
-      <c r="D126" s="83"/>
+      <c r="A126" s="78"/>
+      <c r="D126" s="79"/>
     </row>
     <row r="127" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A127" s="82"/>
-      <c r="D127" s="83"/>
+      <c r="A127" s="78"/>
+      <c r="D127" s="79"/>
     </row>
     <row r="128" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A128" s="82"/>
-      <c r="D128" s="83"/>
+      <c r="A128" s="78"/>
+      <c r="D128" s="79"/>
     </row>
     <row r="129" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A129" s="82"/>
-      <c r="D129" s="83"/>
+      <c r="A129" s="78"/>
+      <c r="D129" s="79"/>
     </row>
     <row r="130" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A130" s="82"/>
-      <c r="D130" s="83"/>
+      <c r="A130" s="78"/>
+      <c r="D130" s="79"/>
     </row>
     <row r="131" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A131" s="82"/>
-      <c r="D131" s="83"/>
+      <c r="A131" s="78"/>
+      <c r="D131" s="79"/>
     </row>
     <row r="132" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A132" s="82"/>
-      <c r="D132" s="83"/>
+      <c r="A132" s="78"/>
+      <c r="D132" s="79"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A133" s="82"/>
-      <c r="D133" s="83"/>
+      <c r="A133" s="78"/>
+      <c r="D133" s="79"/>
     </row>
     <row r="134" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A134" s="82"/>
-      <c r="D134" s="83"/>
+      <c r="A134" s="78"/>
+      <c r="D134" s="79"/>
     </row>
     <row r="135" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A135" s="82"/>
-      <c r="D135" s="83"/>
+      <c r="A135" s="78"/>
+      <c r="D135" s="79"/>
     </row>
     <row r="136" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A136" s="82"/>
-      <c r="D136" s="83"/>
+      <c r="A136" s="78"/>
+      <c r="D136" s="79"/>
     </row>
     <row r="137" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A137" s="82"/>
-      <c r="D137" s="83"/>
+      <c r="A137" s="78"/>
+      <c r="D137" s="79"/>
     </row>
     <row r="138" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A138" s="82"/>
-      <c r="D138" s="83"/>
+      <c r="A138" s="78"/>
+      <c r="D138" s="79"/>
     </row>
     <row r="139" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A139" s="82"/>
-      <c r="D139" s="83"/>
+      <c r="A139" s="78"/>
+      <c r="D139" s="79"/>
     </row>
     <row r="140" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A140" s="82"/>
-      <c r="D140" s="83"/>
+      <c r="A140" s="78"/>
+      <c r="D140" s="79"/>
     </row>
     <row r="141" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A141" s="82"/>
-      <c r="D141" s="83"/>
+      <c r="A141" s="78"/>
+      <c r="D141" s="79"/>
     </row>
     <row r="142" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A142" s="82"/>
-      <c r="D142" s="83"/>
+      <c r="A142" s="78"/>
+      <c r="D142" s="79"/>
     </row>
     <row r="143" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A143" s="82"/>
-      <c r="D143" s="83"/>
+      <c r="A143" s="78"/>
+      <c r="D143" s="79"/>
     </row>
     <row r="144" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A144" s="82"/>
-      <c r="D144" s="83"/>
+      <c r="A144" s="78"/>
+      <c r="D144" s="79"/>
     </row>
     <row r="145" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A145" s="82"/>
-      <c r="D145" s="83"/>
+      <c r="A145" s="78"/>
+      <c r="D145" s="79"/>
     </row>
     <row r="146" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A146" s="82"/>
-      <c r="D146" s="83"/>
+      <c r="A146" s="78"/>
+      <c r="D146" s="79"/>
     </row>
     <row r="147" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A147" s="82"/>
-      <c r="D147" s="83"/>
+      <c r="A147" s="78"/>
+      <c r="D147" s="79"/>
     </row>
     <row r="148" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A148" s="82"/>
-      <c r="D148" s="83"/>
+      <c r="A148" s="78"/>
+      <c r="D148" s="79"/>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A149" s="82"/>
-      <c r="D149" s="83"/>
+      <c r="A149" s="78"/>
+      <c r="D149" s="79"/>
     </row>
     <row r="150" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A150" s="82"/>
-      <c r="D150" s="83"/>
+      <c r="A150" s="78"/>
+      <c r="D150" s="79"/>
     </row>
     <row r="151" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A151" s="82"/>
-      <c r="D151" s="83"/>
+      <c r="A151" s="78"/>
+      <c r="D151" s="79"/>
     </row>
     <row r="152" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A152" s="82"/>
-      <c r="D152" s="83"/>
+      <c r="A152" s="78"/>
+      <c r="D152" s="79"/>
     </row>
     <row r="153" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A153" s="82"/>
-      <c r="D153" s="83"/>
+      <c r="A153" s="78"/>
+      <c r="D153" s="79"/>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A154" s="82"/>
-      <c r="D154" s="83"/>
+      <c r="A154" s="78"/>
+      <c r="D154" s="79"/>
     </row>
     <row r="155" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A155" s="82"/>
-      <c r="D155" s="83"/>
+      <c r="A155" s="78"/>
+      <c r="D155" s="79"/>
     </row>
     <row r="156" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A156" s="82"/>
-      <c r="D156" s="83"/>
+      <c r="A156" s="78"/>
+      <c r="D156" s="79"/>
     </row>
     <row r="157" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A157" s="82"/>
-      <c r="D157" s="83"/>
+      <c r="A157" s="78"/>
+      <c r="D157" s="79"/>
     </row>
     <row r="158" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A158" s="82"/>
-      <c r="D158" s="83"/>
+      <c r="A158" s="78"/>
+      <c r="D158" s="79"/>
     </row>
     <row r="159" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A159" s="82"/>
-      <c r="D159" s="83"/>
+      <c r="A159" s="78"/>
+      <c r="D159" s="79"/>
     </row>
     <row r="160" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A160" s="82"/>
-      <c r="D160" s="83"/>
+      <c r="A160" s="78"/>
+      <c r="D160" s="79"/>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A161" s="82"/>
-      <c r="D161" s="83"/>
+      <c r="A161" s="78"/>
+      <c r="D161" s="79"/>
     </row>
     <row r="162" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A162" s="82"/>
-      <c r="D162" s="83"/>
+      <c r="A162" s="78"/>
+      <c r="D162" s="79"/>
     </row>
     <row r="163" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A163" s="82"/>
-      <c r="D163" s="83"/>
+      <c r="A163" s="78"/>
+      <c r="D163" s="79"/>
     </row>
     <row r="164" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A164" s="82"/>
-      <c r="D164" s="83"/>
+      <c r="A164" s="78"/>
+      <c r="D164" s="79"/>
     </row>
     <row r="165" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A165" s="82"/>
-      <c r="D165" s="83"/>
+      <c r="A165" s="78"/>
+      <c r="D165" s="79"/>
     </row>
     <row r="166" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A166" s="82"/>
-      <c r="D166" s="83"/>
+      <c r="A166" s="78"/>
+      <c r="D166" s="79"/>
     </row>
     <row r="167" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A167" s="82"/>
-      <c r="D167" s="83"/>
+      <c r="A167" s="78"/>
+      <c r="D167" s="79"/>
     </row>
     <row r="168" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A168" s="82"/>
-      <c r="D168" s="83"/>
+      <c r="A168" s="78"/>
+      <c r="D168" s="79"/>
     </row>
     <row r="169" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A169" s="82"/>
-      <c r="D169" s="83"/>
+      <c r="A169" s="78"/>
+      <c r="D169" s="79"/>
     </row>
     <row r="170" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A170" s="82"/>
-      <c r="D170" s="83"/>
+      <c r="A170" s="78"/>
+      <c r="D170" s="79"/>
     </row>
     <row r="171" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A171" s="82"/>
-      <c r="D171" s="83"/>
+      <c r="A171" s="78"/>
+      <c r="D171" s="79"/>
     </row>
     <row r="172" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A172" s="82"/>
-      <c r="D172" s="83"/>
+      <c r="A172" s="78"/>
+      <c r="D172" s="79"/>
     </row>
     <row r="173" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A173" s="82"/>
-      <c r="D173" s="83"/>
+      <c r="A173" s="78"/>
+      <c r="D173" s="79"/>
     </row>
     <row r="174" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A174" s="82"/>
-      <c r="D174" s="83"/>
+      <c r="A174" s="78"/>
+      <c r="D174" s="79"/>
     </row>
     <row r="175" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A175" s="82"/>
-      <c r="D175" s="83"/>
+      <c r="A175" s="78"/>
+      <c r="D175" s="79"/>
     </row>
     <row r="176" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A176" s="82"/>
-      <c r="D176" s="83"/>
+      <c r="A176" s="78"/>
+      <c r="D176" s="79"/>
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A177" s="82"/>
-      <c r="D177" s="83"/>
+      <c r="A177" s="78"/>
+      <c r="D177" s="79"/>
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A178" s="82"/>
-      <c r="D178" s="83"/>
+      <c r="A178" s="78"/>
+      <c r="D178" s="79"/>
     </row>
     <row r="179" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A179" s="82"/>
-      <c r="D179" s="83"/>
+      <c r="A179" s="78"/>
+      <c r="D179" s="79"/>
     </row>
     <row r="180" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A180" s="82"/>
-      <c r="D180" s="83"/>
+      <c r="A180" s="78"/>
+      <c r="D180" s="79"/>
     </row>
     <row r="181" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A181" s="82"/>
-      <c r="D181" s="83"/>
+      <c r="A181" s="78"/>
+      <c r="D181" s="79"/>
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A182" s="82"/>
-      <c r="D182" s="83"/>
+      <c r="A182" s="78"/>
+      <c r="D182" s="79"/>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A183" s="82"/>
-      <c r="D183" s="83"/>
+      <c r="A183" s="78"/>
+      <c r="D183" s="79"/>
     </row>
     <row r="184" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A184" s="82"/>
-      <c r="D184" s="83"/>
+      <c r="A184" s="78"/>
+      <c r="D184" s="79"/>
     </row>
     <row r="185" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A185" s="82"/>
-      <c r="D185" s="83"/>
+      <c r="A185" s="78"/>
+      <c r="D185" s="79"/>
     </row>
     <row r="186" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A186" s="82"/>
-      <c r="D186" s="83"/>
+      <c r="A186" s="78"/>
+      <c r="D186" s="79"/>
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A187" s="82"/>
-      <c r="D187" s="83"/>
+      <c r="A187" s="78"/>
+      <c r="D187" s="79"/>
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A188" s="82"/>
-      <c r="D188" s="83"/>
+      <c r="A188" s="78"/>
+      <c r="D188" s="79"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A189" s="82"/>
-      <c r="D189" s="83"/>
+      <c r="A189" s="78"/>
+      <c r="D189" s="79"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A190" s="82"/>
-      <c r="D190" s="83"/>
+      <c r="A190" s="78"/>
+      <c r="D190" s="79"/>
     </row>
     <row r="191" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A191" s="82"/>
-      <c r="D191" s="83"/>
+      <c r="A191" s="78"/>
+      <c r="D191" s="79"/>
     </row>
     <row r="192" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A192" s="82"/>
-      <c r="D192" s="83"/>
+      <c r="A192" s="78"/>
+      <c r="D192" s="79"/>
     </row>
     <row r="193" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A193" s="82"/>
-      <c r="D193" s="83"/>
+      <c r="A193" s="78"/>
+      <c r="D193" s="79"/>
     </row>
     <row r="194" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A194" s="82"/>
-      <c r="D194" s="83"/>
+      <c r="A194" s="78"/>
+      <c r="D194" s="79"/>
     </row>
     <row r="195" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A195" s="82"/>
-      <c r="D195" s="83"/>
+      <c r="A195" s="78"/>
+      <c r="D195" s="79"/>
     </row>
     <row r="196" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A196" s="82"/>
-      <c r="D196" s="83"/>
+      <c r="A196" s="78"/>
+      <c r="D196" s="79"/>
     </row>
     <row r="197" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A197" s="82"/>
-      <c r="D197" s="83"/>
+      <c r="A197" s="78"/>
+      <c r="D197" s="79"/>
     </row>
     <row r="198" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A198" s="82"/>
-      <c r="D198" s="83"/>
+      <c r="A198" s="78"/>
+      <c r="D198" s="79"/>
     </row>
     <row r="199" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A199" s="82"/>
-      <c r="D199" s="83"/>
+      <c r="A199" s="78"/>
+      <c r="D199" s="79"/>
     </row>
     <row r="200" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A200" s="82"/>
-      <c r="D200" s="83"/>
+      <c r="A200" s="78"/>
+      <c r="D200" s="79"/>
     </row>
     <row r="201" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A201" s="82"/>
-      <c r="D201" s="83"/>
+      <c r="A201" s="78"/>
+      <c r="D201" s="79"/>
     </row>
     <row r="202" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A202" s="82"/>
-      <c r="D202" s="83"/>
+      <c r="A202" s="78"/>
+      <c r="D202" s="79"/>
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A203" s="82"/>
-      <c r="D203" s="83"/>
+      <c r="A203" s="78"/>
+      <c r="D203" s="79"/>
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A204" s="82"/>
-      <c r="D204" s="83"/>
+      <c r="A204" s="78"/>
+      <c r="D204" s="79"/>
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A205" s="82"/>
-      <c r="D205" s="83"/>
+      <c r="A205" s="78"/>
+      <c r="D205" s="79"/>
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A206" s="82"/>
-      <c r="D206" s="83"/>
+      <c r="A206" s="78"/>
+      <c r="D206" s="79"/>
     </row>
     <row r="207" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A207" s="82"/>
-      <c r="D207" s="83"/>
+      <c r="A207" s="78"/>
+      <c r="D207" s="79"/>
     </row>
     <row r="208" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A208" s="82"/>
-      <c r="D208" s="83"/>
+      <c r="A208" s="78"/>
+      <c r="D208" s="79"/>
     </row>
     <row r="209" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A209" s="82"/>
-      <c r="D209" s="83"/>
+      <c r="A209" s="78"/>
+      <c r="D209" s="79"/>
     </row>
     <row r="210" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A210" s="82"/>
-      <c r="D210" s="83"/>
+      <c r="A210" s="78"/>
+      <c r="D210" s="79"/>
     </row>
     <row r="211" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A211" s="82"/>
-      <c r="D211" s="83"/>
+      <c r="A211" s="78"/>
+      <c r="D211" s="79"/>
     </row>
     <row r="212" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A212" s="82"/>
-      <c r="D212" s="83"/>
+      <c r="A212" s="78"/>
+      <c r="D212" s="79"/>
     </row>
     <row r="213" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A213" s="82"/>
-      <c r="D213" s="83"/>
+      <c r="A213" s="78"/>
+      <c r="D213" s="79"/>
     </row>
     <row r="214" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A214" s="82"/>
-      <c r="D214" s="83"/>
+      <c r="A214" s="78"/>
+      <c r="D214" s="79"/>
     </row>
     <row r="215" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A215" s="82"/>
-      <c r="D215" s="83"/>
+      <c r="A215" s="78"/>
+      <c r="D215" s="79"/>
     </row>
     <row r="216" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A216" s="82"/>
-      <c r="D216" s="83"/>
+      <c r="A216" s="78"/>
+      <c r="D216" s="79"/>
     </row>
     <row r="217" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A217" s="82"/>
-      <c r="D217" s="83"/>
+      <c r="A217" s="78"/>
+      <c r="D217" s="79"/>
     </row>
     <row r="218" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A218" s="82"/>
-      <c r="D218" s="83"/>
+      <c r="A218" s="78"/>
+      <c r="D218" s="79"/>
     </row>
     <row r="219" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A219" s="82"/>
-      <c r="D219" s="83"/>
+      <c r="A219" s="78"/>
+      <c r="D219" s="79"/>
     </row>
     <row r="220" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A220" s="82"/>
-      <c r="D220" s="83"/>
+      <c r="A220" s="78"/>
+      <c r="D220" s="79"/>
     </row>
     <row r="221" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A221" s="82"/>
-      <c r="D221" s="83"/>
+      <c r="A221" s="78"/>
+      <c r="D221" s="79"/>
     </row>
     <row r="222" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A222" s="82"/>
-      <c r="D222" s="83"/>
+      <c r="A222" s="78"/>
+      <c r="D222" s="79"/>
     </row>
     <row r="223" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A223" s="82"/>
-      <c r="D223" s="83"/>
+      <c r="A223" s="78"/>
+      <c r="D223" s="79"/>
     </row>
     <row r="224" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A224" s="82"/>
-      <c r="D224" s="83"/>
+      <c r="A224" s="78"/>
+      <c r="D224" s="79"/>
     </row>
     <row r="225" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A225" s="82"/>
-      <c r="D225" s="83"/>
+      <c r="A225" s="78"/>
+      <c r="D225" s="79"/>
     </row>
     <row r="226" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A226" s="82"/>
-      <c r="D226" s="83"/>
+      <c r="A226" s="78"/>
+      <c r="D226" s="79"/>
     </row>
     <row r="227" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A227" s="82"/>
-      <c r="D227" s="83"/>
+      <c r="A227" s="78"/>
+      <c r="D227" s="79"/>
     </row>
     <row r="228" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A228" s="82"/>
-      <c r="D228" s="83"/>
+      <c r="A228" s="78"/>
+      <c r="D228" s="79"/>
     </row>
     <row r="229" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A229" s="82"/>
-      <c r="D229" s="83"/>
+      <c r="A229" s="78"/>
+      <c r="D229" s="79"/>
     </row>
     <row r="230" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A230" s="82"/>
-      <c r="D230" s="83"/>
+      <c r="A230" s="78"/>
+      <c r="D230" s="79"/>
     </row>
     <row r="231" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A231" s="82"/>
-      <c r="D231" s="83"/>
+      <c r="A231" s="78"/>
+      <c r="D231" s="79"/>
     </row>
     <row r="232" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A232" s="82"/>
-      <c r="D232" s="83"/>
+      <c r="A232" s="78"/>
+      <c r="D232" s="79"/>
     </row>
     <row r="233" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A233" s="82"/>
-      <c r="D233" s="83"/>
+      <c r="A233" s="78"/>
+      <c r="D233" s="79"/>
     </row>
     <row r="234" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A234" s="82"/>
-      <c r="D234" s="83"/>
+      <c r="A234" s="78"/>
+      <c r="D234" s="79"/>
     </row>
     <row r="235" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A235" s="82"/>
-      <c r="D235" s="83"/>
+      <c r="A235" s="78"/>
+      <c r="D235" s="79"/>
     </row>
     <row r="236" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A236" s="82"/>
-      <c r="D236" s="83"/>
+      <c r="A236" s="78"/>
+      <c r="D236" s="79"/>
     </row>
     <row r="237" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A237" s="82"/>
-      <c r="D237" s="83"/>
+      <c r="A237" s="78"/>
+      <c r="D237" s="79"/>
     </row>
     <row r="238" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A238" s="82"/>
-      <c r="D238" s="83"/>
+      <c r="A238" s="78"/>
+      <c r="D238" s="79"/>
     </row>
     <row r="239" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A239" s="82"/>
-      <c r="D239" s="83"/>
+      <c r="A239" s="78"/>
+      <c r="D239" s="79"/>
     </row>
     <row r="240" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A240" s="82"/>
-      <c r="D240" s="83"/>
+      <c r="A240" s="78"/>
+      <c r="D240" s="79"/>
     </row>
     <row r="241" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A241" s="82"/>
-      <c r="D241" s="83"/>
+      <c r="A241" s="78"/>
+      <c r="D241" s="79"/>
     </row>
     <row r="242" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A242" s="82"/>
-      <c r="D242" s="83"/>
+      <c r="A242" s="78"/>
+      <c r="D242" s="79"/>
     </row>
     <row r="243" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A243" s="82"/>
-      <c r="D243" s="83"/>
+      <c r="A243" s="78"/>
+      <c r="D243" s="79"/>
     </row>
     <row r="244" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A244" s="82"/>
-      <c r="D244" s="83"/>
+      <c r="A244" s="78"/>
+      <c r="D244" s="79"/>
     </row>
     <row r="245" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A245" s="82"/>
-      <c r="D245" s="83"/>
+      <c r="A245" s="78"/>
+      <c r="D245" s="79"/>
     </row>
     <row r="246" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A246" s="82"/>
-      <c r="D246" s="83"/>
+      <c r="A246" s="78"/>
+      <c r="D246" s="79"/>
     </row>
     <row r="247" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A247" s="82"/>
-      <c r="D247" s="83"/>
+      <c r="A247" s="78"/>
+      <c r="D247" s="79"/>
     </row>
     <row r="248" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A248" s="82"/>
-      <c r="D248" s="83"/>
+      <c r="A248" s="78"/>
+      <c r="D248" s="79"/>
     </row>
     <row r="249" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A249" s="82"/>
-      <c r="D249" s="83"/>
+      <c r="A249" s="78"/>
+      <c r="D249" s="79"/>
     </row>
     <row r="250" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A250" s="82"/>
-      <c r="D250" s="83"/>
+      <c r="A250" s="78"/>
+      <c r="D250" s="79"/>
     </row>
     <row r="251" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A251" s="82"/>
-      <c r="D251" s="83"/>
+      <c r="A251" s="78"/>
+      <c r="D251" s="79"/>
     </row>
     <row r="252" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A252" s="82"/>
-      <c r="D252" s="83"/>
+      <c r="A252" s="78"/>
+      <c r="D252" s="79"/>
     </row>
     <row r="253" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A253" s="82"/>
-      <c r="D253" s="83"/>
+      <c r="A253" s="78"/>
+      <c r="D253" s="79"/>
     </row>
     <row r="254" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A254" s="82"/>
-      <c r="D254" s="83"/>
+      <c r="A254" s="78"/>
+      <c r="D254" s="79"/>
     </row>
     <row r="255" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A255" s="82"/>
-      <c r="D255" s="83"/>
+      <c r="A255" s="78"/>
+      <c r="D255" s="79"/>
     </row>
     <row r="256" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A256" s="82"/>
-      <c r="D256" s="83"/>
+      <c r="A256" s="78"/>
+      <c r="D256" s="79"/>
     </row>
     <row r="257" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A257" s="82"/>
-      <c r="D257" s="83"/>
+      <c r="A257" s="78"/>
+      <c r="D257" s="79"/>
     </row>
     <row r="258" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A258" s="82"/>
-      <c r="D258" s="83"/>
+      <c r="A258" s="78"/>
+      <c r="D258" s="79"/>
     </row>
     <row r="259" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A259" s="82"/>
-      <c r="D259" s="83"/>
+      <c r="A259" s="78"/>
+      <c r="D259" s="79"/>
     </row>
     <row r="260" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A260" s="82"/>
-      <c r="D260" s="83"/>
+      <c r="A260" s="78"/>
+      <c r="D260" s="79"/>
     </row>
     <row r="261" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A261" s="82"/>
-      <c r="D261" s="83"/>
+      <c r="A261" s="78"/>
+      <c r="D261" s="79"/>
     </row>
     <row r="262" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A262" s="82"/>
-      <c r="D262" s="83"/>
+      <c r="A262" s="78"/>
+      <c r="D262" s="79"/>
     </row>
     <row r="263" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A263" s="82"/>
-      <c r="D263" s="83"/>
+      <c r="A263" s="78"/>
+      <c r="D263" s="79"/>
     </row>
     <row r="264" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A264" s="82"/>
-      <c r="D264" s="83"/>
+      <c r="A264" s="78"/>
+      <c r="D264" s="79"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A265" s="82"/>
-      <c r="D265" s="83"/>
+      <c r="A265" s="78"/>
+      <c r="D265" s="79"/>
     </row>
     <row r="266" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A266" s="82"/>
-      <c r="D266" s="83"/>
+      <c r="A266" s="78"/>
+      <c r="D266" s="79"/>
     </row>
     <row r="267" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A267" s="82"/>
-      <c r="D267" s="83"/>
+      <c r="A267" s="78"/>
+      <c r="D267" s="79"/>
     </row>
     <row r="268" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A268" s="82"/>
-      <c r="D268" s="83"/>
+      <c r="A268" s="78"/>
+      <c r="D268" s="79"/>
     </row>
     <row r="269" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A269" s="82"/>
-      <c r="D269" s="83"/>
+      <c r="A269" s="78"/>
+      <c r="D269" s="79"/>
     </row>
     <row r="270" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A270" s="82"/>
-      <c r="D270" s="83"/>
+      <c r="A270" s="78"/>
+      <c r="D270" s="79"/>
     </row>
     <row r="271" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A271" s="82"/>
-      <c r="D271" s="83"/>
+      <c r="A271" s="78"/>
+      <c r="D271" s="79"/>
     </row>
     <row r="272" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A272" s="82"/>
-      <c r="D272" s="83"/>
+      <c r="A272" s="78"/>
+      <c r="D272" s="79"/>
     </row>
     <row r="273" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A273" s="82"/>
-      <c r="D273" s="83"/>
+      <c r="A273" s="78"/>
+      <c r="D273" s="79"/>
     </row>
     <row r="274" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A274" s="82"/>
-      <c r="D274" s="83"/>
+      <c r="A274" s="78"/>
+      <c r="D274" s="79"/>
     </row>
     <row r="275" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A275" s="82"/>
-      <c r="D275" s="83"/>
+      <c r="A275" s="78"/>
+      <c r="D275" s="79"/>
     </row>
     <row r="276" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A276" s="82"/>
-      <c r="D276" s="83"/>
+      <c r="A276" s="78"/>
+      <c r="D276" s="79"/>
     </row>
     <row r="277" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A277" s="82"/>
-      <c r="D277" s="83"/>
+      <c r="A277" s="78"/>
+      <c r="D277" s="79"/>
     </row>
     <row r="278" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A278" s="82"/>
-      <c r="D278" s="83"/>
+      <c r="A278" s="78"/>
+      <c r="D278" s="79"/>
     </row>
     <row r="279" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A279" s="82"/>
-      <c r="D279" s="83"/>
+      <c r="A279" s="78"/>
+      <c r="D279" s="79"/>
     </row>
     <row r="280" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A280" s="82"/>
-      <c r="D280" s="83"/>
+      <c r="A280" s="78"/>
+      <c r="D280" s="79"/>
     </row>
     <row r="281" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A281" s="82"/>
-      <c r="D281" s="83"/>
+      <c r="A281" s="78"/>
+      <c r="D281" s="79"/>
     </row>
     <row r="282" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A282" s="82"/>
-      <c r="D282" s="83"/>
+      <c r="A282" s="78"/>
+      <c r="D282" s="79"/>
     </row>
     <row r="283" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A283" s="82"/>
-      <c r="D283" s="83"/>
+      <c r="A283" s="78"/>
+      <c r="D283" s="79"/>
     </row>
     <row r="284" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A284" s="82"/>
-      <c r="D284" s="83"/>
+      <c r="A284" s="78"/>
+      <c r="D284" s="79"/>
     </row>
     <row r="285" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A285" s="82"/>
-      <c r="D285" s="83"/>
+      <c r="A285" s="78"/>
+      <c r="D285" s="79"/>
     </row>
     <row r="286" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A286" s="82"/>
-      <c r="D286" s="83"/>
+      <c r="A286" s="78"/>
+      <c r="D286" s="79"/>
     </row>
     <row r="287" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A287" s="82"/>
-      <c r="D287" s="83"/>
+      <c r="A287" s="78"/>
+      <c r="D287" s="79"/>
     </row>
     <row r="288" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A288" s="82"/>
-      <c r="D288" s="83"/>
+      <c r="A288" s="78"/>
+      <c r="D288" s="79"/>
     </row>
     <row r="289" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A289" s="82"/>
-      <c r="D289" s="83"/>
+      <c r="A289" s="78"/>
+      <c r="D289" s="79"/>
     </row>
     <row r="290" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A290" s="82"/>
-      <c r="D290" s="83"/>
+      <c r="A290" s="78"/>
+      <c r="D290" s="79"/>
     </row>
     <row r="291" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A291" s="82"/>
-      <c r="D291" s="83"/>
+      <c r="A291" s="78"/>
+      <c r="D291" s="79"/>
     </row>
     <row r="292" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A292" s="82"/>
-      <c r="D292" s="83"/>
+      <c r="A292" s="78"/>
+      <c r="D292" s="79"/>
     </row>
     <row r="293" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A293" s="82"/>
-      <c r="D293" s="83"/>
+      <c r="A293" s="78"/>
+      <c r="D293" s="79"/>
     </row>
     <row r="294" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A294" s="82"/>
-      <c r="D294" s="83"/>
+      <c r="A294" s="78"/>
+      <c r="D294" s="79"/>
     </row>
     <row r="295" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A295" s="82"/>
-      <c r="D295" s="83"/>
+      <c r="A295" s="78"/>
+      <c r="D295" s="79"/>
     </row>
     <row r="296" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A296" s="82"/>
-      <c r="D296" s="83"/>
+      <c r="A296" s="78"/>
+      <c r="D296" s="79"/>
     </row>
     <row r="297" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A297" s="82"/>
-      <c r="D297" s="83"/>
+      <c r="A297" s="78"/>
+      <c r="D297" s="79"/>
     </row>
     <row r="298" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A298" s="82"/>
-      <c r="D298" s="83"/>
+      <c r="A298" s="78"/>
+      <c r="D298" s="79"/>
     </row>
     <row r="299" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A299" s="82"/>
-      <c r="D299" s="83"/>
+      <c r="A299" s="78"/>
+      <c r="D299" s="79"/>
     </row>
     <row r="300" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A300" s="82"/>
-      <c r="D300" s="83"/>
+      <c r="A300" s="78"/>
+      <c r="D300" s="79"/>
     </row>
     <row r="301" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A301" s="82"/>
-      <c r="D301" s="83"/>
+      <c r="A301" s="78"/>
+      <c r="D301" s="79"/>
     </row>
     <row r="302" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A302" s="82"/>
-      <c r="D302" s="83"/>
+      <c r="A302" s="78"/>
+      <c r="D302" s="79"/>
     </row>
     <row r="303" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A303" s="82"/>
-      <c r="D303" s="83"/>
+      <c r="A303" s="78"/>
+      <c r="D303" s="79"/>
     </row>
     <row r="304" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A304" s="82"/>
-      <c r="D304" s="83"/>
+      <c r="A304" s="78"/>
+      <c r="D304" s="79"/>
     </row>
     <row r="305" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A305" s="82"/>
-      <c r="D305" s="83"/>
+      <c r="A305" s="78"/>
+      <c r="D305" s="79"/>
     </row>
     <row r="306" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A306" s="82"/>
-      <c r="D306" s="83"/>
+      <c r="A306" s="78"/>
+      <c r="D306" s="79"/>
     </row>
     <row r="307" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A307" s="82"/>
-      <c r="D307" s="83"/>
+      <c r="A307" s="78"/>
+      <c r="D307" s="79"/>
     </row>
     <row r="308" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A308" s="82"/>
-      <c r="D308" s="83"/>
+      <c r="A308" s="78"/>
+      <c r="D308" s="79"/>
     </row>
     <row r="309" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A309" s="82"/>
-      <c r="D309" s="83"/>
+      <c r="A309" s="78"/>
+      <c r="D309" s="79"/>
     </row>
     <row r="310" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A310" s="82"/>
-      <c r="D310" s="83"/>
+      <c r="A310" s="78"/>
+      <c r="D310" s="79"/>
     </row>
     <row r="311" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A311" s="82"/>
-      <c r="D311" s="83"/>
+      <c r="A311" s="78"/>
+      <c r="D311" s="79"/>
     </row>
     <row r="312" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A312" s="82"/>
-      <c r="D312" s="83"/>
+      <c r="A312" s="78"/>
+      <c r="D312" s="79"/>
     </row>
     <row r="313" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A313" s="82"/>
-      <c r="D313" s="83"/>
+      <c r="A313" s="78"/>
+      <c r="D313" s="79"/>
     </row>
     <row r="314" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A314" s="82"/>
-      <c r="D314" s="83"/>
+      <c r="A314" s="78"/>
+      <c r="D314" s="79"/>
     </row>
     <row r="315" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A315" s="82"/>
-      <c r="D315" s="83"/>
+      <c r="A315" s="78"/>
+      <c r="D315" s="79"/>
     </row>
     <row r="316" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A316" s="82"/>
-      <c r="D316" s="83"/>
+      <c r="A316" s="78"/>
+      <c r="D316" s="79"/>
     </row>
     <row r="317" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A317" s="82"/>
-      <c r="D317" s="83"/>
+      <c r="A317" s="78"/>
+      <c r="D317" s="79"/>
     </row>
     <row r="318" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A318" s="82"/>
-      <c r="D318" s="83"/>
+      <c r="A318" s="78"/>
+      <c r="D318" s="79"/>
     </row>
     <row r="319" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A319" s="82"/>
-      <c r="D319" s="83"/>
+      <c r="A319" s="78"/>
+      <c r="D319" s="79"/>
     </row>
     <row r="320" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A320" s="82"/>
-      <c r="D320" s="83"/>
+      <c r="A320" s="78"/>
+      <c r="D320" s="79"/>
     </row>
     <row r="321" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A321" s="82"/>
-      <c r="D321" s="83"/>
+      <c r="A321" s="78"/>
+      <c r="D321" s="79"/>
     </row>
     <row r="322" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A322" s="82"/>
-      <c r="D322" s="83"/>
+      <c r="A322" s="78"/>
+      <c r="D322" s="79"/>
     </row>
     <row r="323" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A323" s="82"/>
-      <c r="D323" s="83"/>
+      <c r="A323" s="78"/>
+      <c r="D323" s="79"/>
     </row>
     <row r="324" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A324" s="82"/>
-      <c r="D324" s="83"/>
+      <c r="A324" s="78"/>
+      <c r="D324" s="79"/>
     </row>
     <row r="325" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A325" s="82"/>
-      <c r="D325" s="83"/>
+      <c r="A325" s="78"/>
+      <c r="D325" s="79"/>
     </row>
     <row r="326" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A326" s="82"/>
-      <c r="D326" s="83"/>
+      <c r="A326" s="78"/>
+      <c r="D326" s="79"/>
     </row>
     <row r="327" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A327" s="82"/>
-      <c r="D327" s="83"/>
+      <c r="A327" s="78"/>
+      <c r="D327" s="79"/>
     </row>
     <row r="328" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A328" s="82"/>
-      <c r="D328" s="83"/>
+      <c r="A328" s="78"/>
+      <c r="D328" s="79"/>
     </row>
     <row r="329" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A329" s="82"/>
-      <c r="D329" s="83"/>
+      <c r="A329" s="78"/>
+      <c r="D329" s="79"/>
     </row>
     <row r="330" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A330" s="82"/>
-      <c r="D330" s="83"/>
+      <c r="A330" s="78"/>
+      <c r="D330" s="79"/>
     </row>
     <row r="331" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A331" s="82"/>
-      <c r="D331" s="83"/>
+      <c r="A331" s="78"/>
+      <c r="D331" s="79"/>
     </row>
     <row r="332" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A332" s="82"/>
-      <c r="D332" s="83"/>
+      <c r="A332" s="78"/>
+      <c r="D332" s="79"/>
     </row>
     <row r="333" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A333" s="82"/>
-      <c r="D333" s="83"/>
+      <c r="A333" s="78"/>
+      <c r="D333" s="79"/>
     </row>
     <row r="334" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A334" s="82"/>
-      <c r="D334" s="83"/>
+      <c r="A334" s="78"/>
+      <c r="D334" s="79"/>
     </row>
     <row r="335" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A335" s="82"/>
-      <c r="D335" s="83"/>
+      <c r="A335" s="78"/>
+      <c r="D335" s="79"/>
     </row>
     <row r="336" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A336" s="82"/>
-      <c r="D336" s="83"/>
+      <c r="A336" s="78"/>
+      <c r="D336" s="79"/>
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A337" s="82"/>
-      <c r="D337" s="83"/>
+      <c r="A337" s="78"/>
+      <c r="D337" s="79"/>
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A338" s="82"/>
-      <c r="D338" s="83"/>
+      <c r="A338" s="78"/>
+      <c r="D338" s="79"/>
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A339" s="82"/>
-      <c r="D339" s="83"/>
+      <c r="A339" s="78"/>
+      <c r="D339" s="79"/>
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A340" s="82"/>
-      <c r="D340" s="83"/>
+      <c r="A340" s="78"/>
+      <c r="D340" s="79"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A341" s="82"/>
-      <c r="D341" s="83"/>
+      <c r="A341" s="78"/>
+      <c r="D341" s="79"/>
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A342" s="82"/>
-      <c r="D342" s="83"/>
+      <c r="A342" s="78"/>
+      <c r="D342" s="79"/>
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A343" s="82"/>
-      <c r="D343" s="83"/>
+      <c r="A343" s="78"/>
+      <c r="D343" s="79"/>
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A344" s="82"/>
-      <c r="D344" s="83"/>
+      <c r="A344" s="78"/>
+      <c r="D344" s="79"/>
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A345" s="82"/>
-      <c r="D345" s="83"/>
+      <c r="A345" s="78"/>
+      <c r="D345" s="79"/>
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A346" s="82"/>
-      <c r="D346" s="83"/>
+      <c r="A346" s="78"/>
+      <c r="D346" s="79"/>
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A347" s="82"/>
-      <c r="D347" s="83"/>
+      <c r="A347" s="78"/>
+      <c r="D347" s="79"/>
     </row>
     <row r="348" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A348" s="82"/>
-      <c r="D348" s="83"/>
+      <c r="A348" s="78"/>
+      <c r="D348" s="79"/>
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A349" s="82"/>
-      <c r="D349" s="83"/>
+      <c r="A349" s="78"/>
+      <c r="D349" s="79"/>
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A350" s="82"/>
-      <c r="D350" s="83"/>
+      <c r="A350" s="78"/>
+      <c r="D350" s="79"/>
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A351" s="82"/>
-      <c r="D351" s="83"/>
+      <c r="A351" s="78"/>
+      <c r="D351" s="79"/>
     </row>
     <row r="352" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A352" s="82"/>
-      <c r="D352" s="83"/>
+      <c r="A352" s="78"/>
+      <c r="D352" s="79"/>
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A353" s="82"/>
-      <c r="D353" s="83"/>
+      <c r="A353" s="78"/>
+      <c r="D353" s="79"/>
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A354" s="82"/>
-      <c r="D354" s="83"/>
+      <c r="A354" s="78"/>
+      <c r="D354" s="79"/>
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A355" s="82"/>
-      <c r="D355" s="83"/>
+      <c r="A355" s="78"/>
+      <c r="D355" s="79"/>
     </row>
     <row r="356" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A356" s="82"/>
-      <c r="D356" s="83"/>
+      <c r="A356" s="78"/>
+      <c r="D356" s="79"/>
     </row>
     <row r="357" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A357" s="82"/>
-      <c r="D357" s="83"/>
+      <c r="A357" s="78"/>
+      <c r="D357" s="79"/>
     </row>
     <row r="358" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A358" s="82"/>
-      <c r="D358" s="83"/>
+      <c r="A358" s="78"/>
+      <c r="D358" s="79"/>
     </row>
     <row r="359" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A359" s="82"/>
-      <c r="D359" s="83"/>
+      <c r="A359" s="78"/>
+      <c r="D359" s="79"/>
     </row>
     <row r="360" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A360" s="82"/>
-      <c r="D360" s="83"/>
+      <c r="A360" s="78"/>
+      <c r="D360" s="79"/>
     </row>
     <row r="361" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A361" s="82"/>
-      <c r="D361" s="83"/>
+      <c r="A361" s="78"/>
+      <c r="D361" s="79"/>
     </row>
     <row r="362" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A362" s="82"/>
-      <c r="D362" s="83"/>
+      <c r="A362" s="78"/>
+      <c r="D362" s="79"/>
     </row>
     <row r="363" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A363" s="82"/>
-      <c r="D363" s="83"/>
+      <c r="A363" s="78"/>
+      <c r="D363" s="79"/>
     </row>
     <row r="364" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A364" s="82"/>
-      <c r="D364" s="83"/>
+      <c r="A364" s="78"/>
+      <c r="D364" s="79"/>
     </row>
     <row r="365" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A365" s="82"/>
-      <c r="D365" s="83"/>
+      <c r="A365" s="78"/>
+      <c r="D365" s="79"/>
     </row>
     <row r="366" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A366" s="82"/>
-      <c r="D366" s="83"/>
+      <c r="A366" s="78"/>
+      <c r="D366" s="79"/>
     </row>
     <row r="367" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A367" s="82"/>
-      <c r="D367" s="83"/>
+      <c r="A367" s="78"/>
+      <c r="D367" s="79"/>
     </row>
     <row r="368" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A368" s="82"/>
-      <c r="D368" s="83"/>
+      <c r="A368" s="78"/>
+      <c r="D368" s="79"/>
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A369" s="82"/>
-      <c r="D369" s="83"/>
+      <c r="A369" s="78"/>
+      <c r="D369" s="79"/>
     </row>
     <row r="370" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A370" s="82"/>
-      <c r="D370" s="83"/>
+      <c r="A370" s="78"/>
+      <c r="D370" s="79"/>
     </row>
     <row r="371" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A371" s="82"/>
-      <c r="D371" s="83"/>
+      <c r="A371" s="78"/>
+      <c r="D371" s="79"/>
     </row>
     <row r="372" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A372" s="82"/>
-      <c r="D372" s="83"/>
+      <c r="A372" s="78"/>
+      <c r="D372" s="79"/>
     </row>
     <row r="373" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A373" s="82"/>
-      <c r="D373" s="83"/>
+      <c r="A373" s="78"/>
+      <c r="D373" s="79"/>
     </row>
     <row r="374" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A374" s="82"/>
-      <c r="D374" s="83"/>
+      <c r="A374" s="78"/>
+      <c r="D374" s="79"/>
     </row>
     <row r="375" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A375" s="82"/>
-      <c r="D375" s="83"/>
+      <c r="A375" s="78"/>
+      <c r="D375" s="79"/>
     </row>
     <row r="376" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A376" s="82"/>
-      <c r="D376" s="83"/>
+      <c r="A376" s="78"/>
+      <c r="D376" s="79"/>
     </row>
     <row r="377" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A377" s="82"/>
-      <c r="D377" s="83"/>
+      <c r="A377" s="78"/>
+      <c r="D377" s="79"/>
     </row>
     <row r="378" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A378" s="82"/>
-      <c r="D378" s="83"/>
+      <c r="A378" s="78"/>
+      <c r="D378" s="79"/>
     </row>
     <row r="379" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A379" s="82"/>
-      <c r="D379" s="83"/>
+      <c r="A379" s="78"/>
+      <c r="D379" s="79"/>
     </row>
     <row r="380" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A380" s="82"/>
-      <c r="D380" s="83"/>
+      <c r="A380" s="78"/>
+      <c r="D380" s="79"/>
     </row>
     <row r="381" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A381" s="82"/>
-      <c r="D381" s="83"/>
+      <c r="A381" s="78"/>
+      <c r="D381" s="79"/>
     </row>
     <row r="382" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A382" s="82"/>
-      <c r="D382" s="83"/>
+      <c r="A382" s="78"/>
+      <c r="D382" s="79"/>
     </row>
     <row r="383" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A383" s="82"/>
-      <c r="D383" s="83"/>
+      <c r="A383" s="78"/>
+      <c r="D383" s="79"/>
     </row>
     <row r="384" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A384" s="82"/>
-      <c r="D384" s="83"/>
+      <c r="A384" s="78"/>
+      <c r="D384" s="79"/>
     </row>
     <row r="385" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A385" s="82"/>
-      <c r="D385" s="83"/>
+      <c r="A385" s="78"/>
+      <c r="D385" s="79"/>
     </row>
     <row r="386" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A386" s="82"/>
-      <c r="D386" s="83"/>
+      <c r="A386" s="78"/>
+      <c r="D386" s="79"/>
     </row>
     <row r="387" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A387" s="82"/>
-      <c r="D387" s="83"/>
+      <c r="A387" s="78"/>
+      <c r="D387" s="79"/>
     </row>
     <row r="388" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A388" s="82"/>
-      <c r="D388" s="83"/>
+      <c r="A388" s="78"/>
+      <c r="D388" s="79"/>
     </row>
     <row r="389" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A389" s="82"/>
-      <c r="D389" s="83"/>
+      <c r="A389" s="78"/>
+      <c r="D389" s="79"/>
     </row>
     <row r="390" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A390" s="82"/>
-      <c r="D390" s="83"/>
+      <c r="A390" s="78"/>
+      <c r="D390" s="79"/>
     </row>
     <row r="391" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A391" s="82"/>
-      <c r="D391" s="83"/>
+      <c r="A391" s="78"/>
+      <c r="D391" s="79"/>
     </row>
     <row r="392" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A392" s="82"/>
-      <c r="D392" s="83"/>
+      <c r="A392" s="78"/>
+      <c r="D392" s="79"/>
     </row>
     <row r="393" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A393" s="82"/>
-      <c r="D393" s="83"/>
+      <c r="A393" s="78"/>
+      <c r="D393" s="79"/>
     </row>
     <row r="394" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A394" s="82"/>
-      <c r="D394" s="83"/>
+      <c r="A394" s="78"/>
+      <c r="D394" s="79"/>
     </row>
     <row r="395" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A395" s="82"/>
-      <c r="D395" s="83"/>
+      <c r="A395" s="78"/>
+      <c r="D395" s="79"/>
     </row>
     <row r="396" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A396" s="82"/>
-      <c r="D396" s="83"/>
+      <c r="A396" s="78"/>
+      <c r="D396" s="79"/>
     </row>
     <row r="397" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A397" s="82"/>
-      <c r="D397" s="83"/>
+      <c r="A397" s="78"/>
+      <c r="D397" s="79"/>
     </row>
     <row r="398" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A398" s="82"/>
-      <c r="D398" s="83"/>
+      <c r="A398" s="78"/>
+      <c r="D398" s="79"/>
     </row>
     <row r="399" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A399" s="82"/>
-      <c r="D399" s="83"/>
+      <c r="A399" s="78"/>
+      <c r="D399" s="79"/>
     </row>
     <row r="400" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A400" s="82"/>
-      <c r="D400" s="83"/>
+      <c r="A400" s="78"/>
+      <c r="D400" s="79"/>
     </row>
     <row r="401" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A401" s="82"/>
-      <c r="D401" s="83"/>
+      <c r="A401" s="78"/>
+      <c r="D401" s="79"/>
     </row>
     <row r="402" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A402" s="82"/>
-      <c r="D402" s="83"/>
+      <c r="A402" s="78"/>
+      <c r="D402" s="79"/>
     </row>
     <row r="403" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A403" s="82"/>
-      <c r="D403" s="83"/>
+      <c r="A403" s="78"/>
+      <c r="D403" s="79"/>
     </row>
     <row r="404" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A404" s="82"/>
-      <c r="D404" s="83"/>
+      <c r="A404" s="78"/>
+      <c r="D404" s="79"/>
     </row>
     <row r="405" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A405" s="82"/>
-      <c r="D405" s="83"/>
+      <c r="A405" s="78"/>
+      <c r="D405" s="79"/>
     </row>
     <row r="406" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A406" s="82"/>
-      <c r="D406" s="83"/>
+      <c r="A406" s="78"/>
+      <c r="D406" s="79"/>
     </row>
     <row r="407" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A407" s="82"/>
-      <c r="D407" s="83"/>
+      <c r="A407" s="78"/>
+      <c r="D407" s="79"/>
     </row>
     <row r="408" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A408" s="82"/>
-      <c r="D408" s="83"/>
+      <c r="A408" s="78"/>
+      <c r="D408" s="79"/>
     </row>
     <row r="409" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A409" s="82"/>
-      <c r="D409" s="83"/>
+      <c r="A409" s="78"/>
+      <c r="D409" s="79"/>
     </row>
     <row r="410" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A410" s="82"/>
-      <c r="D410" s="83"/>
+      <c r="A410" s="78"/>
+      <c r="D410" s="79"/>
     </row>
     <row r="411" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A411" s="82"/>
-      <c r="D411" s="83"/>
+      <c r="A411" s="78"/>
+      <c r="D411" s="79"/>
     </row>
     <row r="412" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A412" s="82"/>
-      <c r="D412" s="83"/>
+      <c r="A412" s="78"/>
+      <c r="D412" s="79"/>
     </row>
     <row r="413" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A413" s="82"/>
-      <c r="D413" s="83"/>
+      <c r="A413" s="78"/>
+      <c r="D413" s="79"/>
     </row>
     <row r="414" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A414" s="82"/>
-      <c r="D414" s="83"/>
+      <c r="A414" s="78"/>
+      <c r="D414" s="79"/>
     </row>
     <row r="415" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A415" s="82"/>
-      <c r="D415" s="83"/>
+      <c r="A415" s="78"/>
+      <c r="D415" s="79"/>
     </row>
     <row r="416" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A416" s="82"/>
-      <c r="D416" s="83"/>
+      <c r="A416" s="78"/>
+      <c r="D416" s="79"/>
     </row>
     <row r="417" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A417" s="82"/>
-      <c r="D417" s="83"/>
+      <c r="A417" s="78"/>
+      <c r="D417" s="79"/>
     </row>
     <row r="418" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A418" s="82"/>
-      <c r="D418" s="83"/>
+      <c r="A418" s="78"/>
+      <c r="D418" s="79"/>
     </row>
     <row r="419" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A419" s="82"/>
-      <c r="D419" s="83"/>
+      <c r="A419" s="78"/>
+      <c r="D419" s="79"/>
     </row>
     <row r="420" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A420" s="82"/>
-      <c r="D420" s="83"/>
+      <c r="A420" s="78"/>
+      <c r="D420" s="79"/>
     </row>
     <row r="421" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A421" s="82"/>
-      <c r="D421" s="83"/>
+      <c r="A421" s="78"/>
+      <c r="D421" s="79"/>
     </row>
     <row r="422" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A422" s="82"/>
-      <c r="D422" s="83"/>
+      <c r="A422" s="78"/>
+      <c r="D422" s="79"/>
     </row>
     <row r="423" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A423" s="82"/>
-      <c r="D423" s="83"/>
+      <c r="A423" s="78"/>
+      <c r="D423" s="79"/>
     </row>
     <row r="424" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A424" s="82"/>
-      <c r="D424" s="83"/>
+      <c r="A424" s="78"/>
+      <c r="D424" s="79"/>
     </row>
     <row r="425" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A425" s="82"/>
-      <c r="D425" s="83"/>
+      <c r="A425" s="78"/>
+      <c r="D425" s="79"/>
     </row>
     <row r="426" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A426" s="82"/>
-      <c r="D426" s="83"/>
+      <c r="A426" s="78"/>
+      <c r="D426" s="79"/>
     </row>
     <row r="427" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A427" s="82"/>
-      <c r="D427" s="83"/>
+      <c r="A427" s="78"/>
+      <c r="D427" s="79"/>
     </row>
     <row r="428" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A428" s="82"/>
-      <c r="D428" s="83"/>
+      <c r="A428" s="78"/>
+      <c r="D428" s="79"/>
     </row>
     <row r="429" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A429" s="82"/>
-      <c r="D429" s="83"/>
+      <c r="A429" s="78"/>
+      <c r="D429" s="79"/>
     </row>
     <row r="430" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A430" s="82"/>
-      <c r="D430" s="83"/>
+      <c r="A430" s="78"/>
+      <c r="D430" s="79"/>
     </row>
     <row r="431" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A431" s="82"/>
-      <c r="D431" s="83"/>
+      <c r="A431" s="78"/>
+      <c r="D431" s="79"/>
     </row>
     <row r="432" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A432" s="82"/>
-      <c r="D432" s="83"/>
+      <c r="A432" s="78"/>
+      <c r="D432" s="79"/>
     </row>
     <row r="433" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A433" s="82"/>
-      <c r="D433" s="83"/>
+      <c r="A433" s="78"/>
+      <c r="D433" s="79"/>
     </row>
     <row r="434" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A434" s="82"/>
-      <c r="D434" s="83"/>
+      <c r="A434" s="78"/>
+      <c r="D434" s="79"/>
     </row>
     <row r="435" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A435" s="82"/>
-      <c r="D435" s="83"/>
+      <c r="A435" s="78"/>
+      <c r="D435" s="79"/>
     </row>
     <row r="436" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A436" s="82"/>
-      <c r="D436" s="83"/>
+      <c r="A436" s="78"/>
+      <c r="D436" s="79"/>
     </row>
     <row r="437" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A437" s="82"/>
-      <c r="D437" s="83"/>
+      <c r="A437" s="78"/>
+      <c r="D437" s="79"/>
     </row>
     <row r="438" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A438" s="82"/>
-      <c r="D438" s="83"/>
+      <c r="A438" s="78"/>
+      <c r="D438" s="79"/>
     </row>
     <row r="439" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A439" s="82"/>
-      <c r="D439" s="83"/>
+      <c r="A439" s="78"/>
+      <c r="D439" s="79"/>
     </row>
     <row r="440" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A440" s="82"/>
-      <c r="D440" s="83"/>
+      <c r="A440" s="78"/>
+      <c r="D440" s="79"/>
     </row>
     <row r="441" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A441" s="82"/>
-      <c r="D441" s="83"/>
+      <c r="A441" s="78"/>
+      <c r="D441" s="79"/>
     </row>
     <row r="442" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A442" s="82"/>
-      <c r="D442" s="83"/>
+      <c r="A442" s="78"/>
+      <c r="D442" s="79"/>
     </row>
     <row r="443" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A443" s="82"/>
-      <c r="D443" s="83"/>
+      <c r="A443" s="78"/>
+      <c r="D443" s="79"/>
     </row>
     <row r="444" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A444" s="82"/>
-      <c r="D444" s="83"/>
+      <c r="A444" s="78"/>
+      <c r="D444" s="79"/>
     </row>
     <row r="445" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A445" s="82"/>
-      <c r="D445" s="83"/>
+      <c r="A445" s="78"/>
+      <c r="D445" s="79"/>
     </row>
     <row r="446" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A446" s="82"/>
-      <c r="D446" s="83"/>
+      <c r="A446" s="78"/>
+      <c r="D446" s="79"/>
     </row>
     <row r="447" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A447" s="82"/>
-      <c r="D447" s="83"/>
+      <c r="A447" s="78"/>
+      <c r="D447" s="79"/>
     </row>
     <row r="448" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A448" s="82"/>
-      <c r="D448" s="83"/>
+      <c r="A448" s="78"/>
+      <c r="D448" s="79"/>
     </row>
     <row r="449" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A449" s="82"/>
-      <c r="D449" s="83"/>
+      <c r="A449" s="78"/>
+      <c r="D449" s="79"/>
     </row>
     <row r="450" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A450" s="82"/>
-      <c r="D450" s="83"/>
+      <c r="A450" s="78"/>
+      <c r="D450" s="79"/>
     </row>
     <row r="451" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A451" s="82"/>
-      <c r="D451" s="83"/>
+      <c r="A451" s="78"/>
+      <c r="D451" s="79"/>
     </row>
     <row r="452" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A452" s="82"/>
-      <c r="D452" s="83"/>
+      <c r="A452" s="78"/>
+      <c r="D452" s="79"/>
     </row>
     <row r="453" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A453" s="82"/>
-      <c r="D453" s="83"/>
+      <c r="A453" s="78"/>
+      <c r="D453" s="79"/>
     </row>
     <row r="454" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A454" s="82"/>
-      <c r="D454" s="83"/>
+      <c r="A454" s="78"/>
+      <c r="D454" s="79"/>
     </row>
     <row r="455" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A455" s="82"/>
-      <c r="D455" s="83"/>
+      <c r="A455" s="78"/>
+      <c r="D455" s="79"/>
     </row>
     <row r="456" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A456" s="82"/>
-      <c r="D456" s="83"/>
+      <c r="A456" s="78"/>
+      <c r="D456" s="79"/>
     </row>
     <row r="457" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A457" s="82"/>
-      <c r="D457" s="83"/>
+      <c r="A457" s="78"/>
+      <c r="D457" s="79"/>
     </row>
     <row r="458" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A458" s="82"/>
-      <c r="D458" s="83"/>
+      <c r="A458" s="78"/>
+      <c r="D458" s="79"/>
     </row>
     <row r="459" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A459" s="82"/>
-      <c r="D459" s="83"/>
+      <c r="A459" s="78"/>
+      <c r="D459" s="79"/>
     </row>
     <row r="460" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A460" s="82"/>
-      <c r="D460" s="83"/>
+      <c r="A460" s="78"/>
+      <c r="D460" s="79"/>
     </row>
     <row r="461" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A461" s="82"/>
-      <c r="D461" s="83"/>
+      <c r="A461" s="78"/>
+      <c r="D461" s="79"/>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A462" s="82"/>
-      <c r="D462" s="83"/>
+      <c r="A462" s="78"/>
+      <c r="D462" s="79"/>
     </row>
     <row r="463" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A463" s="82"/>
-      <c r="D463" s="83"/>
+      <c r="A463" s="78"/>
+      <c r="D463" s="79"/>
     </row>
     <row r="464" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A464" s="82"/>
-      <c r="D464" s="83"/>
+      <c r="A464" s="78"/>
+      <c r="D464" s="79"/>
     </row>
     <row r="465" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A465" s="82"/>
-      <c r="D465" s="83"/>
+      <c r="A465" s="78"/>
+      <c r="D465" s="79"/>
     </row>
     <row r="466" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A466" s="82"/>
-      <c r="D466" s="83"/>
+      <c r="A466" s="78"/>
+      <c r="D466" s="79"/>
     </row>
     <row r="467" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A467" s="82"/>
-      <c r="D467" s="83"/>
+      <c r="A467" s="78"/>
+      <c r="D467" s="79"/>
     </row>
     <row r="468" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A468" s="82"/>
-      <c r="D468" s="83"/>
+      <c r="A468" s="78"/>
+      <c r="D468" s="79"/>
     </row>
     <row r="469" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A469" s="82"/>
-      <c r="D469" s="83"/>
+      <c r="A469" s="78"/>
+      <c r="D469" s="79"/>
     </row>
     <row r="470" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A470" s="82"/>
-      <c r="D470" s="83"/>
+      <c r="A470" s="78"/>
+      <c r="D470" s="79"/>
     </row>
     <row r="471" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A471" s="82"/>
-      <c r="D471" s="83"/>
+      <c r="A471" s="78"/>
+      <c r="D471" s="79"/>
     </row>
     <row r="472" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A472" s="82"/>
-      <c r="D472" s="83"/>
+      <c r="A472" s="78"/>
+      <c r="D472" s="79"/>
     </row>
     <row r="473" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A473" s="82"/>
-      <c r="D473" s="83"/>
+      <c r="A473" s="78"/>
+      <c r="D473" s="79"/>
     </row>
     <row r="474" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A474" s="82"/>
-      <c r="D474" s="83"/>
+      <c r="A474" s="78"/>
+      <c r="D474" s="79"/>
     </row>
     <row r="475" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A475" s="82"/>
-      <c r="D475" s="83"/>
+      <c r="A475" s="78"/>
+      <c r="D475" s="79"/>
     </row>
     <row r="476" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A476" s="82"/>
-      <c r="D476" s="83"/>
+      <c r="A476" s="78"/>
+      <c r="D476" s="79"/>
     </row>
     <row r="477" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A477" s="82"/>
-      <c r="D477" s="83"/>
+      <c r="A477" s="78"/>
+      <c r="D477" s="79"/>
     </row>
     <row r="478" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A478" s="82"/>
-      <c r="D478" s="83"/>
+      <c r="A478" s="78"/>
+      <c r="D478" s="79"/>
     </row>
     <row r="479" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A479" s="82"/>
-      <c r="D479" s="83"/>
+      <c r="A479" s="78"/>
+      <c r="D479" s="79"/>
     </row>
     <row r="480" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A480" s="82"/>
-      <c r="D480" s="83"/>
+      <c r="A480" s="78"/>
+      <c r="D480" s="79"/>
     </row>
     <row r="481" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A481" s="82"/>
-      <c r="D481" s="83"/>
+      <c r="A481" s="78"/>
+      <c r="D481" s="79"/>
     </row>
     <row r="482" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A482" s="82"/>
-      <c r="D482" s="83"/>
+      <c r="A482" s="78"/>
+      <c r="D482" s="79"/>
     </row>
     <row r="483" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A483" s="82"/>
-      <c r="D483" s="83"/>
+      <c r="A483" s="78"/>
+      <c r="D483" s="79"/>
     </row>
     <row r="484" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A484" s="82"/>
-      <c r="D484" s="83"/>
+      <c r="A484" s="78"/>
+      <c r="D484" s="79"/>
     </row>
     <row r="485" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A485" s="82"/>
-      <c r="D485" s="83"/>
+      <c r="A485" s="78"/>
+      <c r="D485" s="79"/>
     </row>
     <row r="486" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A486" s="82"/>
-      <c r="D486" s="83"/>
+      <c r="A486" s="78"/>
+      <c r="D486" s="79"/>
     </row>
     <row r="487" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A487" s="82"/>
-      <c r="D487" s="83"/>
+      <c r="A487" s="78"/>
+      <c r="D487" s="79"/>
     </row>
     <row r="488" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A488" s="82"/>
-      <c r="D488" s="83"/>
+      <c r="A488" s="78"/>
+      <c r="D488" s="79"/>
     </row>
     <row r="489" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A489" s="82"/>
-      <c r="D489" s="83"/>
+      <c r="A489" s="78"/>
+      <c r="D489" s="79"/>
     </row>
     <row r="490" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A490" s="82"/>
-      <c r="D490" s="83"/>
+      <c r="A490" s="78"/>
+      <c r="D490" s="79"/>
     </row>
     <row r="491" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A491" s="82"/>
-      <c r="D491" s="83"/>
+      <c r="A491" s="78"/>
+      <c r="D491" s="79"/>
     </row>
     <row r="492" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A492" s="82"/>
-      <c r="D492" s="83"/>
+      <c r="A492" s="78"/>
+      <c r="D492" s="79"/>
     </row>
     <row r="493" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A493" s="82"/>
-      <c r="D493" s="83"/>
+      <c r="A493" s="78"/>
+      <c r="D493" s="79"/>
     </row>
     <row r="494" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A494" s="82"/>
-      <c r="D494" s="83"/>
+      <c r="A494" s="78"/>
+      <c r="D494" s="79"/>
     </row>
     <row r="495" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A495" s="82"/>
-      <c r="D495" s="83"/>
+      <c r="A495" s="78"/>
+      <c r="D495" s="79"/>
     </row>
     <row r="496" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A496" s="82"/>
-      <c r="D496" s="83"/>
+      <c r="A496" s="78"/>
+      <c r="D496" s="79"/>
     </row>
     <row r="497" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A497" s="82"/>
-      <c r="D497" s="83"/>
+      <c r="A497" s="78"/>
+      <c r="D497" s="79"/>
     </row>
     <row r="498" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A498" s="82"/>
-      <c r="D498" s="83"/>
+      <c r="A498" s="78"/>
+      <c r="D498" s="79"/>
     </row>
     <row r="499" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A499" s="82"/>
-      <c r="D499" s="83"/>
+      <c r="A499" s="78"/>
+      <c r="D499" s="79"/>
     </row>
     <row r="500" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A500" s="82"/>
-      <c r="D500" s="83"/>
+      <c r="A500" s="78"/>
+      <c r="D500" s="79"/>
     </row>
     <row r="501" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A501" s="82"/>
-      <c r="D501" s="83"/>
+      <c r="A501" s="78"/>
+      <c r="D501" s="79"/>
     </row>
     <row r="502" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A502" s="82"/>
-      <c r="D502" s="83"/>
+      <c r="A502" s="78"/>
+      <c r="D502" s="79"/>
     </row>
     <row r="503" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A503" s="82"/>
-      <c r="D503" s="83"/>
+      <c r="A503" s="78"/>
+      <c r="D503" s="79"/>
     </row>
     <row r="504" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A504" s="82"/>
-      <c r="D504" s="83"/>
+      <c r="A504" s="78"/>
+      <c r="D504" s="79"/>
     </row>
     <row r="505" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A505" s="82"/>
-      <c r="D505" s="83"/>
+      <c r="A505" s="78"/>
+      <c r="D505" s="79"/>
     </row>
     <row r="506" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A506" s="82"/>
-      <c r="D506" s="83"/>
+      <c r="A506" s="78"/>
+      <c r="D506" s="79"/>
     </row>
     <row r="507" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A507" s="82"/>
-      <c r="D507" s="83"/>
+      <c r="A507" s="78"/>
+      <c r="D507" s="79"/>
     </row>
     <row r="508" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A508" s="82"/>
-      <c r="D508" s="83"/>
+      <c r="A508" s="78"/>
+      <c r="D508" s="79"/>
     </row>
     <row r="509" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A509" s="82"/>
-      <c r="D509" s="83"/>
+      <c r="A509" s="78"/>
+      <c r="D509" s="79"/>
     </row>
     <row r="510" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A510" s="82"/>
-      <c r="D510" s="83"/>
+      <c r="A510" s="78"/>
+      <c r="D510" s="79"/>
     </row>
     <row r="511" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A511" s="82"/>
-      <c r="D511" s="83"/>
+      <c r="A511" s="78"/>
+      <c r="D511" s="79"/>
     </row>
     <row r="512" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A512" s="82"/>
-      <c r="D512" s="83"/>
+      <c r="A512" s="78"/>
+      <c r="D512" s="79"/>
     </row>
     <row r="513" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A513" s="82"/>
-      <c r="D513" s="83"/>
+      <c r="A513" s="78"/>
+      <c r="D513" s="79"/>
     </row>
     <row r="514" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A514" s="82"/>
-      <c r="D514" s="83"/>
+      <c r="A514" s="78"/>
+      <c r="D514" s="79"/>
     </row>
     <row r="515" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A515" s="82"/>
-      <c r="D515" s="83"/>
+      <c r="A515" s="78"/>
+      <c r="D515" s="79"/>
     </row>
     <row r="516" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A516" s="82"/>
-      <c r="D516" s="83"/>
+      <c r="A516" s="78"/>
+      <c r="D516" s="79"/>
     </row>
     <row r="517" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A517" s="82"/>
-      <c r="D517" s="83"/>
+      <c r="A517" s="78"/>
+      <c r="D517" s="79"/>
     </row>
     <row r="518" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A518" s="82"/>
-      <c r="D518" s="83"/>
+      <c r="A518" s="78"/>
+      <c r="D518" s="79"/>
     </row>
     <row r="519" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A519" s="82"/>
-      <c r="D519" s="83"/>
+      <c r="A519" s="78"/>
+      <c r="D519" s="79"/>
     </row>
     <row r="520" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A520" s="82"/>
-      <c r="D520" s="83"/>
+      <c r="A520" s="78"/>
+      <c r="D520" s="79"/>
     </row>
     <row r="521" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A521" s="82"/>
-      <c r="D521" s="83"/>
+      <c r="A521" s="78"/>
+      <c r="D521" s="79"/>
     </row>
     <row r="522" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A522" s="82"/>
-      <c r="D522" s="83"/>
+      <c r="A522" s="78"/>
+      <c r="D522" s="79"/>
     </row>
     <row r="523" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A523" s="82"/>
-      <c r="D523" s="83"/>
+      <c r="A523" s="78"/>
+      <c r="D523" s="79"/>
     </row>
     <row r="524" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A524" s="82"/>
-      <c r="D524" s="83"/>
+      <c r="A524" s="78"/>
+      <c r="D524" s="79"/>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A525" s="82"/>
-      <c r="D525" s="83"/>
+      <c r="A525" s="78"/>
+      <c r="D525" s="79"/>
     </row>
     <row r="526" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A526" s="82"/>
-      <c r="D526" s="83"/>
+      <c r="A526" s="78"/>
+      <c r="D526" s="79"/>
     </row>
     <row r="527" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A527" s="82"/>
-      <c r="D527" s="83"/>
+      <c r="A527" s="78"/>
+      <c r="D527" s="79"/>
     </row>
     <row r="528" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A528" s="82"/>
-      <c r="D528" s="83"/>
+      <c r="A528" s="78"/>
+      <c r="D528" s="79"/>
     </row>
     <row r="529" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A529" s="82"/>
-      <c r="D529" s="83"/>
+      <c r="A529" s="78"/>
+      <c r="D529" s="79"/>
     </row>
     <row r="530" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A530" s="82"/>
-      <c r="D530" s="83"/>
+      <c r="A530" s="78"/>
+      <c r="D530" s="79"/>
     </row>
     <row r="531" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A531" s="82"/>
-      <c r="D531" s="83"/>
+      <c r="A531" s="78"/>
+      <c r="D531" s="79"/>
     </row>
     <row r="532" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A532" s="82"/>
-      <c r="D532" s="83"/>
+      <c r="A532" s="78"/>
+      <c r="D532" s="79"/>
     </row>
     <row r="533" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A533" s="82"/>
-      <c r="D533" s="83"/>
+      <c r="A533" s="78"/>
+      <c r="D533" s="79"/>
     </row>
     <row r="534" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A534" s="82"/>
-      <c r="D534" s="83"/>
+      <c r="A534" s="78"/>
+      <c r="D534" s="79"/>
     </row>
     <row r="535" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A535" s="82"/>
-      <c r="D535" s="83"/>
+      <c r="A535" s="78"/>
+      <c r="D535" s="79"/>
     </row>
     <row r="536" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A536" s="82"/>
-      <c r="D536" s="83"/>
+      <c r="A536" s="78"/>
+      <c r="D536" s="79"/>
     </row>
     <row r="537" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A537" s="82"/>
-      <c r="D537" s="83"/>
+      <c r="A537" s="78"/>
+      <c r="D537" s="79"/>
     </row>
     <row r="538" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A538" s="82"/>
-      <c r="D538" s="83"/>
+      <c r="A538" s="78"/>
+      <c r="D538" s="79"/>
     </row>
     <row r="539" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A539" s="82"/>
-      <c r="D539" s="83"/>
+      <c r="A539" s="78"/>
+      <c r="D539" s="79"/>
     </row>
     <row r="540" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A540" s="82"/>
-      <c r="D540" s="83"/>
+      <c r="A540" s="78"/>
+      <c r="D540" s="79"/>
     </row>
     <row r="541" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A541" s="82"/>
-      <c r="D541" s="83"/>
+      <c r="A541" s="78"/>
+      <c r="D541" s="79"/>
     </row>
     <row r="542" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A542" s="82"/>
-      <c r="D542" s="83"/>
+      <c r="A542" s="78"/>
+      <c r="D542" s="79"/>
     </row>
     <row r="543" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A543" s="82"/>
-      <c r="D543" s="83"/>
+      <c r="A543" s="78"/>
+      <c r="D543" s="79"/>
     </row>
     <row r="544" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A544" s="82"/>
-      <c r="D544" s="83"/>
+      <c r="A544" s="78"/>
+      <c r="D544" s="79"/>
     </row>
     <row r="545" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A545" s="82"/>
-      <c r="D545" s="83"/>
+      <c r="A545" s="78"/>
+      <c r="D545" s="79"/>
     </row>
     <row r="546" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A546" s="82"/>
-      <c r="D546" s="83"/>
+      <c r="A546" s="78"/>
+      <c r="D546" s="79"/>
     </row>
     <row r="547" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A547" s="82"/>
-      <c r="D547" s="83"/>
+      <c r="A547" s="78"/>
+      <c r="D547" s="79"/>
     </row>
     <row r="548" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A548" s="82"/>
-      <c r="D548" s="83"/>
+      <c r="A548" s="78"/>
+      <c r="D548" s="79"/>
     </row>
     <row r="549" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A549" s="82"/>
-      <c r="D549" s="83"/>
+      <c r="A549" s="78"/>
+      <c r="D549" s="79"/>
     </row>
     <row r="550" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A550" s="82"/>
-      <c r="D550" s="83"/>
+      <c r="A550" s="78"/>
+      <c r="D550" s="79"/>
     </row>
     <row r="551" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A551" s="82"/>
-      <c r="D551" s="83"/>
+      <c r="A551" s="78"/>
+      <c r="D551" s="79"/>
     </row>
     <row r="552" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A552" s="82"/>
-      <c r="D552" s="83"/>
+      <c r="A552" s="78"/>
+      <c r="D552" s="79"/>
     </row>
     <row r="553" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A553" s="82"/>
-      <c r="D553" s="83"/>
+      <c r="A553" s="78"/>
+      <c r="D553" s="79"/>
     </row>
     <row r="554" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A554" s="82"/>
-      <c r="D554" s="83"/>
+      <c r="A554" s="78"/>
+      <c r="D554" s="79"/>
     </row>
     <row r="555" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A555" s="82"/>
-      <c r="D555" s="83"/>
+      <c r="A555" s="78"/>
+      <c r="D555" s="79"/>
     </row>
     <row r="556" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A556" s="82"/>
-      <c r="D556" s="83"/>
+      <c r="A556" s="78"/>
+      <c r="D556" s="79"/>
     </row>
     <row r="557" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A557" s="82"/>
-      <c r="D557" s="83"/>
+      <c r="A557" s="78"/>
+      <c r="D557" s="79"/>
     </row>
     <row r="558" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A558" s="82"/>
-      <c r="D558" s="83"/>
+      <c r="A558" s="78"/>
+      <c r="D558" s="79"/>
     </row>
     <row r="559" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A559" s="82"/>
-      <c r="D559" s="83"/>
+      <c r="A559" s="78"/>
+      <c r="D559" s="79"/>
     </row>
     <row r="560" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A560" s="82"/>
-      <c r="D560" s="83"/>
+      <c r="A560" s="78"/>
+      <c r="D560" s="79"/>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A561" s="82"/>
-      <c r="D561" s="83"/>
+      <c r="A561" s="78"/>
+      <c r="D561" s="79"/>
     </row>
     <row r="562" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A562" s="82"/>
-      <c r="D562" s="83"/>
+      <c r="A562" s="78"/>
+      <c r="D562" s="79"/>
     </row>
     <row r="563" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A563" s="82"/>
-      <c r="D563" s="83"/>
+      <c r="A563" s="78"/>
+      <c r="D563" s="79"/>
     </row>
     <row r="564" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A564" s="82"/>
-      <c r="D564" s="83"/>
+      <c r="A564" s="78"/>
+      <c r="D564" s="79"/>
     </row>
     <row r="565" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A565" s="82"/>
-      <c r="D565" s="83"/>
+      <c r="A565" s="78"/>
+      <c r="D565" s="79"/>
     </row>
     <row r="566" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A566" s="82"/>
-      <c r="D566" s="83"/>
+      <c r="A566" s="78"/>
+      <c r="D566" s="79"/>
     </row>
     <row r="567" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A567" s="82"/>
-      <c r="D567" s="83"/>
+      <c r="A567" s="78"/>
+      <c r="D567" s="79"/>
     </row>
     <row r="568" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A568" s="82"/>
-      <c r="D568" s="83"/>
+      <c r="A568" s="78"/>
+      <c r="D568" s="79"/>
     </row>
     <row r="569" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A569" s="82"/>
-      <c r="D569" s="83"/>
+      <c r="A569" s="78"/>
+      <c r="D569" s="79"/>
     </row>
     <row r="570" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A570" s="82"/>
-      <c r="D570" s="83"/>
+      <c r="A570" s="78"/>
+      <c r="D570" s="79"/>
     </row>
     <row r="571" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A571" s="82"/>
-      <c r="D571" s="83"/>
+      <c r="A571" s="78"/>
+      <c r="D571" s="79"/>
     </row>
     <row r="572" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A572" s="82"/>
-      <c r="D572" s="83"/>
+      <c r="A572" s="78"/>
+      <c r="D572" s="79"/>
     </row>
     <row r="573" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A573" s="82"/>
-      <c r="D573" s="83"/>
+      <c r="A573" s="78"/>
+      <c r="D573" s="79"/>
     </row>
     <row r="574" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A574" s="82"/>
-      <c r="D574" s="83"/>
+      <c r="A574" s="78"/>
+      <c r="D574" s="79"/>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A575" s="82"/>
-      <c r="D575" s="83"/>
+      <c r="A575" s="78"/>
+      <c r="D575" s="79"/>
     </row>
     <row r="576" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A576" s="82"/>
-      <c r="D576" s="83"/>
+      <c r="A576" s="78"/>
+      <c r="D576" s="79"/>
     </row>
     <row r="577" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A577" s="82"/>
-      <c r="D577" s="83"/>
+      <c r="A577" s="78"/>
+      <c r="D577" s="79"/>
     </row>
     <row r="578" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A578" s="82"/>
-      <c r="D578" s="83"/>
+      <c r="A578" s="78"/>
+      <c r="D578" s="79"/>
     </row>
     <row r="579" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A579" s="82"/>
-      <c r="D579" s="83"/>
+      <c r="A579" s="78"/>
+      <c r="D579" s="79"/>
     </row>
     <row r="580" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A580" s="82"/>
-      <c r="D580" s="83"/>
+      <c r="A580" s="78"/>
+      <c r="D580" s="79"/>
     </row>
     <row r="581" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A581" s="82"/>
-      <c r="D581" s="83"/>
+      <c r="A581" s="78"/>
+      <c r="D581" s="79"/>
     </row>
     <row r="582" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A582" s="82"/>
-      <c r="D582" s="83"/>
+      <c r="A582" s="78"/>
+      <c r="D582" s="79"/>
     </row>
     <row r="583" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A583" s="82"/>
-      <c r="D583" s="83"/>
+      <c r="A583" s="78"/>
+      <c r="D583" s="79"/>
     </row>
     <row r="584" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A584" s="82"/>
-      <c r="D584" s="83"/>
+      <c r="A584" s="78"/>
+      <c r="D584" s="79"/>
     </row>
     <row r="585" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A585" s="82"/>
-      <c r="D585" s="83"/>
+      <c r="A585" s="78"/>
+      <c r="D585" s="79"/>
     </row>
     <row r="586" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A586" s="82"/>
-      <c r="D586" s="83"/>
+      <c r="A586" s="78"/>
+      <c r="D586" s="79"/>
     </row>
     <row r="587" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A587" s="82"/>
-      <c r="D587" s="83"/>
+      <c r="A587" s="78"/>
+      <c r="D587" s="79"/>
     </row>
     <row r="588" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A588" s="82"/>
-      <c r="D588" s="83"/>
+      <c r="A588" s="78"/>
+      <c r="D588" s="79"/>
     </row>
     <row r="589" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A589" s="82"/>
-      <c r="D589" s="83"/>
+      <c r="A589" s="78"/>
+      <c r="D589" s="79"/>
     </row>
     <row r="590" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A590" s="82"/>
-      <c r="D590" s="83"/>
+      <c r="A590" s="78"/>
+      <c r="D590" s="79"/>
     </row>
     <row r="591" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A591" s="82"/>
-      <c r="D591" s="83"/>
+      <c r="A591" s="78"/>
+      <c r="D591" s="79"/>
     </row>
     <row r="592" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A592" s="82"/>
-      <c r="D592" s="83"/>
+      <c r="A592" s="78"/>
+      <c r="D592" s="79"/>
     </row>
     <row r="593" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A593" s="82"/>
-      <c r="D593" s="83"/>
+      <c r="A593" s="78"/>
+      <c r="D593" s="79"/>
     </row>
     <row r="594" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A594" s="82"/>
-      <c r="D594" s="83"/>
+      <c r="A594" s="78"/>
+      <c r="D594" s="79"/>
     </row>
     <row r="595" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A595" s="82"/>
-      <c r="D595" s="83"/>
+      <c r="A595" s="78"/>
+      <c r="D595" s="79"/>
     </row>
     <row r="596" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A596" s="82"/>
-      <c r="D596" s="83"/>
+      <c r="A596" s="78"/>
+      <c r="D596" s="79"/>
     </row>
     <row r="597" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A597" s="82"/>
-      <c r="D597" s="83"/>
+      <c r="A597" s="78"/>
+      <c r="D597" s="79"/>
     </row>
     <row r="598" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A598" s="82"/>
-      <c r="D598" s="83"/>
+      <c r="A598" s="78"/>
+      <c r="D598" s="79"/>
     </row>
     <row r="599" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A599" s="82"/>
-      <c r="D599" s="83"/>
+      <c r="A599" s="78"/>
+      <c r="D599" s="79"/>
     </row>
     <row r="600" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A600" s="82"/>
-      <c r="D600" s="83"/>
+      <c r="A600" s="78"/>
+      <c r="D600" s="79"/>
     </row>
     <row r="601" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A601" s="82"/>
-      <c r="D601" s="83"/>
+      <c r="A601" s="78"/>
+      <c r="D601" s="79"/>
     </row>
     <row r="602" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A602" s="82"/>
-      <c r="D602" s="83"/>
+      <c r="A602" s="78"/>
+      <c r="D602" s="79"/>
     </row>
     <row r="603" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A603" s="82"/>
-      <c r="D603" s="83"/>
+      <c r="A603" s="78"/>
+      <c r="D603" s="79"/>
     </row>
     <row r="604" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A604" s="82"/>
-      <c r="D604" s="83"/>
+      <c r="A604" s="78"/>
+      <c r="D604" s="79"/>
     </row>
     <row r="605" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A605" s="82"/>
-      <c r="D605" s="83"/>
+      <c r="A605" s="78"/>
+      <c r="D605" s="79"/>
     </row>
     <row r="606" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A606" s="82"/>
-      <c r="D606" s="83"/>
+      <c r="A606" s="78"/>
+      <c r="D606" s="79"/>
     </row>
     <row r="607" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A607" s="82"/>
-      <c r="D607" s="83"/>
+      <c r="A607" s="78"/>
+      <c r="D607" s="79"/>
     </row>
     <row r="608" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A608" s="82"/>
-      <c r="D608" s="83"/>
+      <c r="A608" s="78"/>
+      <c r="D608" s="79"/>
     </row>
     <row r="609" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A609" s="82"/>
-      <c r="D609" s="83"/>
+      <c r="A609" s="78"/>
+      <c r="D609" s="79"/>
     </row>
     <row r="610" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A610" s="82"/>
-      <c r="D610" s="83"/>
+      <c r="A610" s="78"/>
+      <c r="D610" s="79"/>
     </row>
     <row r="611" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A611" s="82"/>
-      <c r="D611" s="83"/>
+      <c r="A611" s="78"/>
+      <c r="D611" s="79"/>
     </row>
     <row r="612" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A612" s="82"/>
-      <c r="D612" s="83"/>
+      <c r="A612" s="78"/>
+      <c r="D612" s="79"/>
     </row>
     <row r="613" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A613" s="82"/>
-      <c r="D613" s="83"/>
+      <c r="A613" s="78"/>
+      <c r="D613" s="79"/>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A614" s="82"/>
-      <c r="D614" s="83"/>
+      <c r="A614" s="78"/>
+      <c r="D614" s="79"/>
     </row>
     <row r="615" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A615" s="82"/>
-      <c r="D615" s="83"/>
+      <c r="A615" s="78"/>
+      <c r="D615" s="79"/>
     </row>
     <row r="616" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A616" s="82"/>
-      <c r="D616" s="83"/>
+      <c r="A616" s="78"/>
+      <c r="D616" s="79"/>
     </row>
     <row r="617" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A617" s="82"/>
-      <c r="D617" s="83"/>
+      <c r="A617" s="78"/>
+      <c r="D617" s="79"/>
     </row>
     <row r="618" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A618" s="82"/>
-      <c r="D618" s="83"/>
+      <c r="A618" s="78"/>
+      <c r="D618" s="79"/>
     </row>
     <row r="619" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A619" s="82"/>
-      <c r="D619" s="83"/>
+      <c r="A619" s="78"/>
+      <c r="D619" s="79"/>
     </row>
     <row r="620" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A620" s="82"/>
-      <c r="D620" s="83"/>
+      <c r="A620" s="78"/>
+      <c r="D620" s="79"/>
     </row>
     <row r="621" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A621" s="82"/>
-      <c r="D621" s="83"/>
+      <c r="A621" s="78"/>
+      <c r="D621" s="79"/>
     </row>
     <row r="622" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A622" s="82"/>
-      <c r="D622" s="83"/>
+      <c r="A622" s="78"/>
+      <c r="D622" s="79"/>
     </row>
     <row r="623" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A623" s="82"/>
-      <c r="D623" s="83"/>
+      <c r="A623" s="78"/>
+      <c r="D623" s="79"/>
     </row>
     <row r="624" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A624" s="82"/>
-      <c r="D624" s="83"/>
+      <c r="A624" s="78"/>
+      <c r="D624" s="79"/>
     </row>
     <row r="625" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A625" s="82"/>
-      <c r="D625" s="83"/>
+      <c r="A625" s="78"/>
+      <c r="D625" s="79"/>
     </row>
     <row r="626" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A626" s="82"/>
-      <c r="D626" s="83"/>
+      <c r="A626" s="78"/>
+      <c r="D626" s="79"/>
     </row>
     <row r="627" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A627" s="82"/>
-      <c r="D627" s="83"/>
+      <c r="A627" s="78"/>
+      <c r="D627" s="79"/>
     </row>
     <row r="628" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A628" s="82"/>
-      <c r="D628" s="83"/>
+      <c r="A628" s="78"/>
+      <c r="D628" s="79"/>
     </row>
     <row r="629" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A629" s="82"/>
-      <c r="D629" s="83"/>
+      <c r="A629" s="78"/>
+      <c r="D629" s="79"/>
     </row>
     <row r="630" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A630" s="82"/>
-      <c r="D630" s="83"/>
+      <c r="A630" s="78"/>
+      <c r="D630" s="79"/>
     </row>
     <row r="631" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A631" s="82"/>
-      <c r="D631" s="83"/>
+      <c r="A631" s="78"/>
+      <c r="D631" s="79"/>
     </row>
     <row r="632" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A632" s="82"/>
-      <c r="D632" s="83"/>
+      <c r="A632" s="78"/>
+      <c r="D632" s="79"/>
     </row>
     <row r="633" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A633" s="82"/>
-      <c r="D633" s="83"/>
+      <c r="A633" s="78"/>
+      <c r="D633" s="79"/>
     </row>
     <row r="634" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A634" s="82"/>
-      <c r="D634" s="83"/>
+      <c r="A634" s="78"/>
+      <c r="D634" s="79"/>
     </row>
     <row r="635" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A635" s="82"/>
-      <c r="D635" s="83"/>
+      <c r="A635" s="78"/>
+      <c r="D635" s="79"/>
     </row>
     <row r="636" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A636" s="82"/>
-      <c r="D636" s="83"/>
+      <c r="A636" s="78"/>
+      <c r="D636" s="79"/>
     </row>
     <row r="637" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A637" s="82"/>
-      <c r="D637" s="83"/>
+      <c r="A637" s="78"/>
+      <c r="D637" s="79"/>
     </row>
     <row r="638" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A638" s="82"/>
-      <c r="D638" s="83"/>
+      <c r="A638" s="78"/>
+      <c r="D638" s="79"/>
     </row>
     <row r="639" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A639" s="82"/>
-      <c r="D639" s="83"/>
+      <c r="A639" s="78"/>
+      <c r="D639" s="79"/>
     </row>
     <row r="640" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A640" s="82"/>
-      <c r="D640" s="83"/>
+      <c r="A640" s="78"/>
+      <c r="D640" s="79"/>
     </row>
     <row r="641" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A641" s="82"/>
-      <c r="D641" s="83"/>
+      <c r="A641" s="78"/>
+      <c r="D641" s="79"/>
     </row>
     <row r="642" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A642" s="82"/>
-      <c r="D642" s="83"/>
+      <c r="A642" s="78"/>
+      <c r="D642" s="79"/>
     </row>
     <row r="643" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A643" s="82"/>
-      <c r="D643" s="83"/>
+      <c r="A643" s="78"/>
+      <c r="D643" s="79"/>
     </row>
     <row r="644" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A644" s="82"/>
-      <c r="D644" s="83"/>
+      <c r="A644" s="78"/>
+      <c r="D644" s="79"/>
     </row>
     <row r="645" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A645" s="82"/>
-      <c r="D645" s="83"/>
+      <c r="A645" s="78"/>
+      <c r="D645" s="79"/>
     </row>
     <row r="646" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A646" s="82"/>
-      <c r="D646" s="83"/>
+      <c r="A646" s="78"/>
+      <c r="D646" s="79"/>
     </row>
     <row r="647" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A647" s="82"/>
-      <c r="D647" s="83"/>
+      <c r="A647" s="78"/>
+      <c r="D647" s="79"/>
     </row>
     <row r="648" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A648" s="82"/>
-      <c r="D648" s="83"/>
+      <c r="A648" s="78"/>
+      <c r="D648" s="79"/>
     </row>
     <row r="649" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A649" s="82"/>
-      <c r="D649" s="83"/>
+      <c r="A649" s="78"/>
+      <c r="D649" s="79"/>
     </row>
     <row r="650" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A650" s="82"/>
-      <c r="D650" s="83"/>
+      <c r="A650" s="78"/>
+      <c r="D650" s="79"/>
     </row>
     <row r="651" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A651" s="82"/>
-      <c r="D651" s="83"/>
+      <c r="A651" s="78"/>
+      <c r="D651" s="79"/>
     </row>
     <row r="652" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A652" s="82"/>
-      <c r="D652" s="83"/>
+      <c r="A652" s="78"/>
+      <c r="D652" s="79"/>
     </row>
     <row r="653" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A653" s="82"/>
-      <c r="D653" s="83"/>
+      <c r="A653" s="78"/>
+      <c r="D653" s="79"/>
     </row>
     <row r="654" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A654" s="82"/>
-      <c r="D654" s="83"/>
+      <c r="A654" s="78"/>
+      <c r="D654" s="79"/>
     </row>
     <row r="655" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A655" s="82"/>
-      <c r="D655" s="83"/>
+      <c r="A655" s="78"/>
+      <c r="D655" s="79"/>
     </row>
     <row r="656" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A656" s="82"/>
-      <c r="D656" s="83"/>
+      <c r="A656" s="78"/>
+      <c r="D656" s="79"/>
     </row>
     <row r="657" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A657" s="82"/>
-      <c r="D657" s="83"/>
+      <c r="A657" s="78"/>
+      <c r="D657" s="79"/>
     </row>
     <row r="658" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A658" s="82"/>
-      <c r="D658" s="83"/>
+      <c r="A658" s="78"/>
+      <c r="D658" s="79"/>
     </row>
     <row r="659" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A659" s="82"/>
-      <c r="D659" s="83"/>
+      <c r="A659" s="78"/>
+      <c r="D659" s="79"/>
     </row>
     <row r="660" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A660" s="82"/>
-      <c r="D660" s="83"/>
+      <c r="A660" s="78"/>
+      <c r="D660" s="79"/>
     </row>
     <row r="661" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A661" s="82"/>
-      <c r="D661" s="83"/>
+      <c r="A661" s="78"/>
+      <c r="D661" s="79"/>
     </row>
     <row r="662" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A662" s="82"/>
-      <c r="D662" s="83"/>
+      <c r="A662" s="78"/>
+      <c r="D662" s="79"/>
     </row>
     <row r="663" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A663" s="82"/>
-      <c r="D663" s="83"/>
+      <c r="A663" s="78"/>
+      <c r="D663" s="79"/>
     </row>
     <row r="664" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A664" s="82"/>
-      <c r="D664" s="83"/>
+      <c r="A664" s="78"/>
+      <c r="D664" s="79"/>
     </row>
     <row r="665" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A665" s="82"/>
-      <c r="D665" s="83"/>
+      <c r="A665" s="78"/>
+      <c r="D665" s="79"/>
     </row>
     <row r="666" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A666" s="82"/>
-      <c r="D666" s="83"/>
+      <c r="A666" s="78"/>
+      <c r="D666" s="79"/>
     </row>
     <row r="667" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A667" s="82"/>
-      <c r="D667" s="83"/>
+      <c r="A667" s="78"/>
+      <c r="D667" s="79"/>
     </row>
     <row r="668" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A668" s="82"/>
-      <c r="D668" s="83"/>
+      <c r="A668" s="78"/>
+      <c r="D668" s="79"/>
     </row>
     <row r="669" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A669" s="82"/>
-      <c r="D669" s="83"/>
+      <c r="A669" s="78"/>
+      <c r="D669" s="79"/>
     </row>
     <row r="670" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A670" s="82"/>
-      <c r="D670" s="83"/>
+      <c r="A670" s="78"/>
+      <c r="D670" s="79"/>
     </row>
     <row r="671" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A671" s="82"/>
-      <c r="D671" s="83"/>
+      <c r="A671" s="78"/>
+      <c r="D671" s="79"/>
     </row>
     <row r="672" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A672" s="82"/>
-      <c r="D672" s="83"/>
+      <c r="A672" s="78"/>
+      <c r="D672" s="79"/>
     </row>
     <row r="673" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A673" s="82"/>
-      <c r="D673" s="83"/>
+      <c r="A673" s="78"/>
+      <c r="D673" s="79"/>
     </row>
     <row r="674" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A674" s="82"/>
-      <c r="D674" s="83"/>
+      <c r="A674" s="78"/>
+      <c r="D674" s="79"/>
     </row>
     <row r="675" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A675" s="82"/>
-      <c r="D675" s="83"/>
+      <c r="A675" s="78"/>
+      <c r="D675" s="79"/>
     </row>
     <row r="676" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A676" s="82"/>
-      <c r="D676" s="83"/>
+      <c r="A676" s="78"/>
+      <c r="D676" s="79"/>
     </row>
     <row r="677" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A677" s="82"/>
-      <c r="D677" s="83"/>
+      <c r="A677" s="78"/>
+      <c r="D677" s="79"/>
     </row>
     <row r="678" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A678" s="82"/>
-      <c r="D678" s="83"/>
+      <c r="A678" s="78"/>
+      <c r="D678" s="79"/>
     </row>
     <row r="679" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A679" s="82"/>
-      <c r="D679" s="83"/>
+      <c r="A679" s="78"/>
+      <c r="D679" s="79"/>
     </row>
     <row r="680" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A680" s="82"/>
-      <c r="D680" s="83"/>
+      <c r="A680" s="78"/>
+      <c r="D680" s="79"/>
     </row>
     <row r="681" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A681" s="82"/>
-      <c r="D681" s="83"/>
+      <c r="A681" s="78"/>
+      <c r="D681" s="79"/>
     </row>
     <row r="682" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A682" s="82"/>
-      <c r="D682" s="83"/>
+      <c r="A682" s="78"/>
+      <c r="D682" s="79"/>
     </row>
     <row r="683" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A683" s="82"/>
-      <c r="D683" s="83"/>
+      <c r="A683" s="78"/>
+      <c r="D683" s="79"/>
     </row>
     <row r="684" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A684" s="82"/>
-      <c r="D684" s="83"/>
+      <c r="A684" s="78"/>
+      <c r="D684" s="79"/>
     </row>
     <row r="685" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A685" s="82"/>
-      <c r="D685" s="83"/>
+      <c r="A685" s="78"/>
+      <c r="D685" s="79"/>
     </row>
     <row r="686" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A686" s="82"/>
-      <c r="D686" s="83"/>
+      <c r="A686" s="78"/>
+      <c r="D686" s="79"/>
     </row>
     <row r="687" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A687" s="82"/>
-      <c r="D687" s="83"/>
+      <c r="A687" s="78"/>
+      <c r="D687" s="79"/>
     </row>
     <row r="688" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A688" s="82"/>
-      <c r="D688" s="83"/>
+      <c r="A688" s="78"/>
+      <c r="D688" s="79"/>
     </row>
     <row r="689" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A689" s="82"/>
-      <c r="D689" s="83"/>
+      <c r="A689" s="78"/>
+      <c r="D689" s="79"/>
     </row>
     <row r="690" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A690" s="82"/>
-      <c r="D690" s="83"/>
+      <c r="A690" s="78"/>
+      <c r="D690" s="79"/>
     </row>
     <row r="691" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A691" s="82"/>
-      <c r="D691" s="83"/>
+      <c r="A691" s="78"/>
+      <c r="D691" s="79"/>
     </row>
     <row r="692" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A692" s="82"/>
-      <c r="D692" s="83"/>
+      <c r="A692" s="78"/>
+      <c r="D692" s="79"/>
     </row>
     <row r="693" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A693" s="82"/>
-      <c r="D693" s="83"/>
+      <c r="A693" s="78"/>
+      <c r="D693" s="79"/>
     </row>
     <row r="694" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A694" s="82"/>
-      <c r="D694" s="83"/>
+      <c r="A694" s="78"/>
+      <c r="D694" s="79"/>
     </row>
     <row r="695" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A695" s="82"/>
-      <c r="D695" s="83"/>
+      <c r="A695" s="78"/>
+      <c r="D695" s="79"/>
     </row>
     <row r="696" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A696" s="82"/>
-      <c r="D696" s="83"/>
+      <c r="A696" s="78"/>
+      <c r="D696" s="79"/>
     </row>
     <row r="697" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A697" s="82"/>
-      <c r="D697" s="83"/>
+      <c r="A697" s="78"/>
+      <c r="D697" s="79"/>
     </row>
     <row r="698" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A698" s="82"/>
-      <c r="D698" s="83"/>
+      <c r="A698" s="78"/>
+      <c r="D698" s="79"/>
     </row>
     <row r="699" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A699" s="82"/>
-      <c r="D699" s="83"/>
+      <c r="A699" s="78"/>
+      <c r="D699" s="79"/>
     </row>
     <row r="700" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A700" s="82"/>
-      <c r="D700" s="83"/>
+      <c r="A700" s="78"/>
+      <c r="D700" s="79"/>
     </row>
     <row r="701" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A701" s="82"/>
-      <c r="D701" s="83"/>
+      <c r="A701" s="78"/>
+      <c r="D701" s="79"/>
     </row>
     <row r="702" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A702" s="82"/>
-      <c r="D702" s="83"/>
+      <c r="A702" s="78"/>
+      <c r="D702" s="79"/>
     </row>
     <row r="703" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A703" s="82"/>
-      <c r="D703" s="83"/>
+      <c r="A703" s="78"/>
+      <c r="D703" s="79"/>
     </row>
     <row r="704" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A704" s="82"/>
-      <c r="D704" s="83"/>
+      <c r="A704" s="78"/>
+      <c r="D704" s="79"/>
     </row>
     <row r="705" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A705" s="82"/>
-      <c r="D705" s="83"/>
+      <c r="A705" s="78"/>
+      <c r="D705" s="79"/>
     </row>
     <row r="706" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A706" s="82"/>
-      <c r="D706" s="83"/>
+      <c r="A706" s="78"/>
+      <c r="D706" s="79"/>
     </row>
     <row r="707" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A707" s="82"/>
-      <c r="D707" s="83"/>
+      <c r="A707" s="78"/>
+      <c r="D707" s="79"/>
     </row>
     <row r="708" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A708" s="82"/>
-      <c r="D708" s="83"/>
+      <c r="A708" s="78"/>
+      <c r="D708" s="79"/>
     </row>
     <row r="709" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A709" s="82"/>
-      <c r="D709" s="83"/>
+      <c r="A709" s="78"/>
+      <c r="D709" s="79"/>
     </row>
     <row r="710" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A710" s="82"/>
-      <c r="D710" s="83"/>
+      <c r="A710" s="78"/>
+      <c r="D710" s="79"/>
     </row>
     <row r="711" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A711" s="82"/>
-      <c r="D711" s="83"/>
+      <c r="A711" s="78"/>
+      <c r="D711" s="79"/>
     </row>
     <row r="712" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A712" s="82"/>
-      <c r="D712" s="83"/>
+      <c r="A712" s="78"/>
+      <c r="D712" s="79"/>
     </row>
     <row r="713" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A713" s="82"/>
-      <c r="D713" s="83"/>
+      <c r="A713" s="78"/>
+      <c r="D713" s="79"/>
     </row>
     <row r="714" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A714" s="82"/>
-      <c r="D714" s="83"/>
+      <c r="A714" s="78"/>
+      <c r="D714" s="79"/>
     </row>
     <row r="715" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A715" s="82"/>
-      <c r="D715" s="83"/>
+      <c r="A715" s="78"/>
+      <c r="D715" s="79"/>
     </row>
     <row r="716" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A716" s="82"/>
-      <c r="D716" s="83"/>
+      <c r="A716" s="78"/>
+      <c r="D716" s="79"/>
     </row>
     <row r="717" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A717" s="82"/>
-      <c r="D717" s="83"/>
+      <c r="A717" s="78"/>
+      <c r="D717" s="79"/>
     </row>
     <row r="718" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A718" s="82"/>
-      <c r="D718" s="83"/>
+      <c r="A718" s="78"/>
+      <c r="D718" s="79"/>
     </row>
     <row r="719" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A719" s="82"/>
-      <c r="D719" s="83"/>
+      <c r="A719" s="78"/>
+      <c r="D719" s="79"/>
     </row>
     <row r="720" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A720" s="82"/>
-      <c r="D720" s="83"/>
+      <c r="A720" s="78"/>
+      <c r="D720" s="79"/>
     </row>
     <row r="721" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A721" s="82"/>
-      <c r="D721" s="83"/>
+      <c r="A721" s="78"/>
+      <c r="D721" s="79"/>
     </row>
     <row r="722" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A722" s="82"/>
-      <c r="D722" s="83"/>
+      <c r="A722" s="78"/>
+      <c r="D722" s="79"/>
     </row>
     <row r="723" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A723" s="82"/>
-      <c r="D723" s="83"/>
+      <c r="A723" s="78"/>
+      <c r="D723" s="79"/>
     </row>
     <row r="724" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A724" s="82"/>
-      <c r="D724" s="83"/>
+      <c r="A724" s="78"/>
+      <c r="D724" s="79"/>
     </row>
     <row r="725" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A725" s="82"/>
-      <c r="D725" s="83"/>
+      <c r="A725" s="78"/>
+      <c r="D725" s="79"/>
     </row>
     <row r="726" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A726" s="82"/>
-      <c r="D726" s="83"/>
+      <c r="A726" s="78"/>
+      <c r="D726" s="79"/>
     </row>
     <row r="727" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A727" s="82"/>
-      <c r="D727" s="83"/>
+      <c r="A727" s="78"/>
+      <c r="D727" s="79"/>
     </row>
     <row r="728" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A728" s="82"/>
-      <c r="D728" s="83"/>
+      <c r="A728" s="78"/>
+      <c r="D728" s="79"/>
     </row>
     <row r="729" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A729" s="82"/>
-      <c r="D729" s="83"/>
+      <c r="A729" s="78"/>
+      <c r="D729" s="79"/>
     </row>
     <row r="730" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A730" s="82"/>
-      <c r="D730" s="83"/>
+      <c r="A730" s="78"/>
+      <c r="D730" s="79"/>
     </row>
     <row r="731" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A731" s="82"/>
-      <c r="D731" s="83"/>
+      <c r="A731" s="78"/>
+      <c r="D731" s="79"/>
     </row>
     <row r="732" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A732" s="82"/>
-      <c r="D732" s="83"/>
+      <c r="A732" s="78"/>
+      <c r="D732" s="79"/>
     </row>
     <row r="733" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A733" s="82"/>
-      <c r="D733" s="83"/>
+      <c r="A733" s="78"/>
+      <c r="D733" s="79"/>
     </row>
     <row r="734" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A734" s="82"/>
-      <c r="D734" s="83"/>
+      <c r="A734" s="78"/>
+      <c r="D734" s="79"/>
     </row>
     <row r="735" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A735" s="82"/>
-      <c r="D735" s="83"/>
+      <c r="A735" s="78"/>
+      <c r="D735" s="79"/>
     </row>
     <row r="736" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A736" s="82"/>
-      <c r="D736" s="83"/>
+      <c r="A736" s="78"/>
+      <c r="D736" s="79"/>
     </row>
     <row r="737" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A737" s="82"/>
-      <c r="D737" s="83"/>
+      <c r="A737" s="78"/>
+      <c r="D737" s="79"/>
     </row>
     <row r="738" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A738" s="82"/>
-      <c r="D738" s="83"/>
+      <c r="A738" s="78"/>
+      <c r="D738" s="79"/>
     </row>
     <row r="739" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A739" s="82"/>
-      <c r="D739" s="83"/>
+      <c r="A739" s="78"/>
+      <c r="D739" s="79"/>
     </row>
     <row r="740" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A740" s="82"/>
-      <c r="D740" s="83"/>
+      <c r="A740" s="78"/>
+      <c r="D740" s="79"/>
     </row>
     <row r="741" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A741" s="82"/>
-      <c r="D741" s="83"/>
+      <c r="A741" s="78"/>
+      <c r="D741" s="79"/>
     </row>
     <row r="742" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A742" s="82"/>
-      <c r="D742" s="83"/>
+      <c r="A742" s="78"/>
+      <c r="D742" s="79"/>
     </row>
     <row r="743" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A743" s="82"/>
-      <c r="D743" s="83"/>
+      <c r="A743" s="78"/>
+      <c r="D743" s="79"/>
     </row>
     <row r="744" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A744" s="82"/>
-      <c r="D744" s="83"/>
+      <c r="A744" s="78"/>
+      <c r="D744" s="79"/>
     </row>
     <row r="745" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A745" s="82"/>
-      <c r="D745" s="83"/>
+      <c r="A745" s="78"/>
+      <c r="D745" s="79"/>
     </row>
     <row r="746" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A746" s="82"/>
-      <c r="D746" s="83"/>
+      <c r="A746" s="78"/>
+      <c r="D746" s="79"/>
     </row>
     <row r="747" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A747" s="82"/>
-      <c r="D747" s="83"/>
+      <c r="A747" s="78"/>
+      <c r="D747" s="79"/>
     </row>
     <row r="748" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A748" s="82"/>
-      <c r="D748" s="83"/>
+      <c r="A748" s="78"/>
+      <c r="D748" s="79"/>
     </row>
     <row r="749" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A749" s="82"/>
-      <c r="D749" s="83"/>
+      <c r="A749" s="78"/>
+      <c r="D749" s="79"/>
     </row>
     <row r="750" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A750" s="82"/>
-      <c r="D750" s="83"/>
+      <c r="A750" s="78"/>
+      <c r="D750" s="79"/>
     </row>
     <row r="751" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A751" s="82"/>
-      <c r="D751" s="83"/>
+      <c r="A751" s="78"/>
+      <c r="D751" s="79"/>
     </row>
     <row r="752" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A752" s="82"/>
-      <c r="D752" s="83"/>
+      <c r="A752" s="78"/>
+      <c r="D752" s="79"/>
     </row>
     <row r="753" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A753" s="82"/>
-      <c r="D753" s="83"/>
+      <c r="A753" s="78"/>
+      <c r="D753" s="79"/>
     </row>
     <row r="754" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A754" s="82"/>
-      <c r="D754" s="83"/>
+      <c r="A754" s="78"/>
+      <c r="D754" s="79"/>
     </row>
     <row r="755" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A755" s="82"/>
-      <c r="D755" s="83"/>
+      <c r="A755" s="78"/>
+      <c r="D755" s="79"/>
     </row>
     <row r="756" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A756" s="82"/>
-      <c r="D756" s="83"/>
+      <c r="A756" s="78"/>
+      <c r="D756" s="79"/>
     </row>
     <row r="757" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A757" s="82"/>
-      <c r="D757" s="83"/>
+      <c r="A757" s="78"/>
+      <c r="D757" s="79"/>
     </row>
     <row r="758" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A758" s="82"/>
-      <c r="D758" s="83"/>
+      <c r="A758" s="78"/>
+      <c r="D758" s="79"/>
     </row>
     <row r="759" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A759" s="82"/>
-      <c r="D759" s="83"/>
+      <c r="A759" s="78"/>
+      <c r="D759" s="79"/>
     </row>
     <row r="760" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A760" s="82"/>
-      <c r="D760" s="83"/>
+      <c r="A760" s="78"/>
+      <c r="D760" s="79"/>
     </row>
     <row r="761" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A761" s="82"/>
-      <c r="D761" s="83"/>
+      <c r="A761" s="78"/>
+      <c r="D761" s="79"/>
     </row>
     <row r="762" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A762" s="82"/>
-      <c r="D762" s="83"/>
+      <c r="A762" s="78"/>
+      <c r="D762" s="79"/>
     </row>
     <row r="763" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A763" s="82"/>
-      <c r="D763" s="83"/>
+      <c r="A763" s="78"/>
+      <c r="D763" s="79"/>
     </row>
     <row r="764" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A764" s="82"/>
-      <c r="D764" s="83"/>
+      <c r="A764" s="78"/>
+      <c r="D764" s="79"/>
     </row>
     <row r="765" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A765" s="82"/>
-      <c r="D765" s="83"/>
+      <c r="A765" s="78"/>
+      <c r="D765" s="79"/>
     </row>
     <row r="766" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A766" s="82"/>
-      <c r="D766" s="83"/>
+      <c r="A766" s="78"/>
+      <c r="D766" s="79"/>
     </row>
     <row r="767" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A767" s="82"/>
-      <c r="D767" s="83"/>
+      <c r="A767" s="78"/>
+      <c r="D767" s="79"/>
     </row>
     <row r="768" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A768" s="82"/>
-      <c r="D768" s="83"/>
+      <c r="A768" s="78"/>
+      <c r="D768" s="79"/>
     </row>
     <row r="769" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A769" s="82"/>
-      <c r="D769" s="83"/>
+      <c r="A769" s="78"/>
+      <c r="D769" s="79"/>
     </row>
     <row r="770" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A770" s="82"/>
-      <c r="D770" s="83"/>
+      <c r="A770" s="78"/>
+      <c r="D770" s="79"/>
     </row>
     <row r="771" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A771" s="82"/>
-      <c r="D771" s="83"/>
+      <c r="A771" s="78"/>
+      <c r="D771" s="79"/>
     </row>
     <row r="772" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A772" s="82"/>
-      <c r="D772" s="83"/>
+      <c r="A772" s="78"/>
+      <c r="D772" s="79"/>
     </row>
     <row r="773" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A773" s="82"/>
-      <c r="D773" s="83"/>
+      <c r="A773" s="78"/>
+      <c r="D773" s="79"/>
     </row>
     <row r="774" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A774" s="82"/>
-      <c r="D774" s="83"/>
+      <c r="A774" s="78"/>
+      <c r="D774" s="79"/>
     </row>
     <row r="775" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A775" s="82"/>
-      <c r="D775" s="83"/>
+      <c r="A775" s="78"/>
+      <c r="D775" s="79"/>
     </row>
     <row r="776" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A776" s="82"/>
-      <c r="D776" s="83"/>
+      <c r="A776" s="78"/>
+      <c r="D776" s="79"/>
     </row>
     <row r="777" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A777" s="82"/>
-      <c r="D777" s="83"/>
+      <c r="A777" s="78"/>
+      <c r="D777" s="79"/>
     </row>
     <row r="778" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A778" s="82"/>
-      <c r="D778" s="83"/>
+      <c r="A778" s="78"/>
+      <c r="D778" s="79"/>
     </row>
     <row r="779" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A779" s="82"/>
-      <c r="D779" s="83"/>
+      <c r="A779" s="78"/>
+      <c r="D779" s="79"/>
     </row>
     <row r="780" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A780" s="82"/>
-      <c r="D780" s="83"/>
+      <c r="A780" s="78"/>
+      <c r="D780" s="79"/>
     </row>
     <row r="781" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A781" s="82"/>
-      <c r="D781" s="83"/>
+      <c r="A781" s="78"/>
+      <c r="D781" s="79"/>
     </row>
     <row r="782" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A782" s="82"/>
-      <c r="D782" s="83"/>
+      <c r="A782" s="78"/>
+      <c r="D782" s="79"/>
     </row>
     <row r="783" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A783" s="82"/>
-      <c r="D783" s="83"/>
+      <c r="A783" s="78"/>
+      <c r="D783" s="79"/>
     </row>
     <row r="784" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A784" s="82"/>
-      <c r="D784" s="83"/>
+      <c r="A784" s="78"/>
+      <c r="D784" s="79"/>
     </row>
     <row r="785" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A785" s="82"/>
-      <c r="D785" s="83"/>
+      <c r="A785" s="78"/>
+      <c r="D785" s="79"/>
     </row>
     <row r="786" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A786" s="82"/>
-      <c r="D786" s="83"/>
+      <c r="A786" s="78"/>
+      <c r="D786" s="79"/>
     </row>
     <row r="787" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A787" s="82"/>
-      <c r="D787" s="83"/>
+      <c r="A787" s="78"/>
+      <c r="D787" s="79"/>
     </row>
     <row r="788" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A788" s="82"/>
-      <c r="D788" s="83"/>
+      <c r="A788" s="78"/>
+      <c r="D788" s="79"/>
     </row>
     <row r="789" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A789" s="82"/>
-      <c r="D789" s="83"/>
+      <c r="A789" s="78"/>
+      <c r="D789" s="79"/>
     </row>
     <row r="790" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A790" s="82"/>
-      <c r="D790" s="83"/>
+      <c r="A790" s="78"/>
+      <c r="D790" s="79"/>
     </row>
     <row r="791" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A791" s="82"/>
-      <c r="D791" s="83"/>
+      <c r="A791" s="78"/>
+      <c r="D791" s="79"/>
     </row>
     <row r="792" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A792" s="82"/>
-      <c r="D792" s="83"/>
+      <c r="A792" s="78"/>
+      <c r="D792" s="79"/>
     </row>
     <row r="793" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A793" s="82"/>
-      <c r="D793" s="83"/>
+      <c r="A793" s="78"/>
+      <c r="D793" s="79"/>
     </row>
     <row r="794" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A794" s="82"/>
-      <c r="D794" s="83"/>
+      <c r="A794" s="78"/>
+      <c r="D794" s="79"/>
     </row>
     <row r="795" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A795" s="82"/>
-      <c r="D795" s="83"/>
+      <c r="A795" s="78"/>
+      <c r="D795" s="79"/>
     </row>
     <row r="796" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A796" s="82"/>
-      <c r="D796" s="83"/>
+      <c r="A796" s="78"/>
+      <c r="D796" s="79"/>
     </row>
     <row r="797" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A797" s="82"/>
-      <c r="D797" s="83"/>
+      <c r="A797" s="78"/>
+      <c r="D797" s="79"/>
     </row>
     <row r="798" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A798" s="82"/>
-      <c r="D798" s="83"/>
+      <c r="A798" s="78"/>
+      <c r="D798" s="79"/>
     </row>
     <row r="799" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A799" s="82"/>
-      <c r="D799" s="83"/>
+      <c r="A799" s="78"/>
+      <c r="D799" s="79"/>
     </row>
     <row r="800" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A800" s="82"/>
-      <c r="D800" s="83"/>
+      <c r="A800" s="78"/>
+      <c r="D800" s="79"/>
     </row>
     <row r="801" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A801" s="82"/>
-      <c r="D801" s="83"/>
+      <c r="A801" s="78"/>
+      <c r="D801" s="79"/>
     </row>
     <row r="802" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A802" s="82"/>
-      <c r="D802" s="83"/>
+      <c r="A802" s="78"/>
+      <c r="D802" s="79"/>
     </row>
     <row r="803" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A803" s="82"/>
-      <c r="D803" s="83"/>
+      <c r="A803" s="78"/>
+      <c r="D803" s="79"/>
     </row>
     <row r="804" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A804" s="82"/>
-      <c r="D804" s="83"/>
+      <c r="A804" s="78"/>
+      <c r="D804" s="79"/>
     </row>
     <row r="805" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A805" s="82"/>
-      <c r="D805" s="83"/>
+      <c r="A805" s="78"/>
+      <c r="D805" s="79"/>
     </row>
     <row r="806" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A806" s="82"/>
-      <c r="D806" s="83"/>
+      <c r="A806" s="78"/>
+      <c r="D806" s="79"/>
     </row>
     <row r="807" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A807" s="82"/>
-      <c r="D807" s="83"/>
+      <c r="A807" s="78"/>
+      <c r="D807" s="79"/>
     </row>
     <row r="808" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A808" s="82"/>
-      <c r="D808" s="83"/>
+      <c r="A808" s="78"/>
+      <c r="D808" s="79"/>
     </row>
     <row r="809" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A809" s="82"/>
-      <c r="D809" s="83"/>
+      <c r="A809" s="78"/>
+      <c r="D809" s="79"/>
     </row>
     <row r="810" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A810" s="82"/>
-      <c r="D810" s="83"/>
+      <c r="A810" s="78"/>
+      <c r="D810" s="79"/>
     </row>
     <row r="811" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A811" s="82"/>
-      <c r="D811" s="83"/>
+      <c r="A811" s="78"/>
+      <c r="D811" s="79"/>
     </row>
     <row r="812" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A812" s="82"/>
-      <c r="D812" s="83"/>
+      <c r="A812" s="78"/>
+      <c r="D812" s="79"/>
     </row>
     <row r="813" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A813" s="82"/>
-      <c r="D813" s="83"/>
+      <c r="A813" s="78"/>
+      <c r="D813" s="79"/>
     </row>
     <row r="814" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A814" s="82"/>
-      <c r="D814" s="83"/>
+      <c r="A814" s="78"/>
+      <c r="D814" s="79"/>
     </row>
     <row r="815" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A815" s="82"/>
-      <c r="D815" s="83"/>
+      <c r="A815" s="78"/>
+      <c r="D815" s="79"/>
     </row>
     <row r="816" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A816" s="82"/>
-      <c r="D816" s="83"/>
+      <c r="A816" s="78"/>
+      <c r="D816" s="79"/>
     </row>
     <row r="817" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A817" s="82"/>
-      <c r="D817" s="83"/>
+      <c r="A817" s="78"/>
+      <c r="D817" s="79"/>
     </row>
     <row r="818" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A818" s="82"/>
-      <c r="D818" s="83"/>
+      <c r="A818" s="78"/>
+      <c r="D818" s="79"/>
     </row>
     <row r="819" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A819" s="82"/>
-      <c r="D819" s="83"/>
+      <c r="A819" s="78"/>
+      <c r="D819" s="79"/>
     </row>
     <row r="820" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A820" s="82"/>
-      <c r="D820" s="83"/>
+      <c r="A820" s="78"/>
+      <c r="D820" s="79"/>
     </row>
     <row r="821" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A821" s="82"/>
-      <c r="D821" s="83"/>
+      <c r="A821" s="78"/>
+      <c r="D821" s="79"/>
     </row>
     <row r="822" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A822" s="82"/>
-      <c r="D822" s="83"/>
+      <c r="A822" s="78"/>
+      <c r="D822" s="79"/>
     </row>
     <row r="823" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A823" s="82"/>
-      <c r="D823" s="83"/>
+      <c r="A823" s="78"/>
+      <c r="D823" s="79"/>
     </row>
     <row r="824" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A824" s="82"/>
-      <c r="D824" s="83"/>
+      <c r="A824" s="78"/>
+      <c r="D824" s="79"/>
     </row>
     <row r="825" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A825" s="82"/>
-      <c r="D825" s="83"/>
+      <c r="A825" s="78"/>
+      <c r="D825" s="79"/>
     </row>
     <row r="826" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A826" s="82"/>
-      <c r="D826" s="83"/>
+      <c r="A826" s="78"/>
+      <c r="D826" s="79"/>
     </row>
     <row r="827" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A827" s="82"/>
-      <c r="D827" s="83"/>
+      <c r="A827" s="78"/>
+      <c r="D827" s="79"/>
     </row>
     <row r="828" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A828" s="82"/>
-      <c r="D828" s="83"/>
+      <c r="A828" s="78"/>
+      <c r="D828" s="79"/>
     </row>
     <row r="829" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A829" s="82"/>
-      <c r="D829" s="83"/>
+      <c r="A829" s="78"/>
+      <c r="D829" s="79"/>
     </row>
     <row r="830" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A830" s="82"/>
-      <c r="D830" s="83"/>
+      <c r="A830" s="78"/>
+      <c r="D830" s="79"/>
     </row>
     <row r="831" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A831" s="82"/>
-      <c r="D831" s="83"/>
+      <c r="A831" s="78"/>
+      <c r="D831" s="79"/>
     </row>
     <row r="832" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A832" s="82"/>
-      <c r="D832" s="83"/>
+      <c r="A832" s="78"/>
+      <c r="D832" s="79"/>
     </row>
     <row r="833" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A833" s="82"/>
-      <c r="D833" s="83"/>
+      <c r="A833" s="78"/>
+      <c r="D833" s="79"/>
     </row>
     <row r="834" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A834" s="82"/>
-      <c r="D834" s="83"/>
+      <c r="A834" s="78"/>
+      <c r="D834" s="79"/>
     </row>
     <row r="835" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A835" s="82"/>
-      <c r="D835" s="83"/>
+      <c r="A835" s="78"/>
+      <c r="D835" s="79"/>
     </row>
     <row r="836" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A836" s="82"/>
-      <c r="D836" s="83"/>
+      <c r="A836" s="78"/>
+      <c r="D836" s="79"/>
     </row>
     <row r="837" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A837" s="82"/>
-      <c r="D837" s="83"/>
+      <c r="A837" s="78"/>
+      <c r="D837" s="79"/>
     </row>
     <row r="838" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A838" s="82"/>
-      <c r="D838" s="83"/>
+      <c r="A838" s="78"/>
+      <c r="D838" s="79"/>
     </row>
     <row r="839" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A839" s="82"/>
-      <c r="D839" s="83"/>
+      <c r="A839" s="78"/>
+      <c r="D839" s="79"/>
     </row>
     <row r="840" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A840" s="82"/>
-      <c r="D840" s="83"/>
+      <c r="A840" s="78"/>
+      <c r="D840" s="79"/>
     </row>
     <row r="841" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A841" s="82"/>
-      <c r="D841" s="83"/>
+      <c r="A841" s="78"/>
+      <c r="D841" s="79"/>
     </row>
     <row r="842" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A842" s="82"/>
-      <c r="D842" s="83"/>
+      <c r="A842" s="78"/>
+      <c r="D842" s="79"/>
     </row>
     <row r="843" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A843" s="82"/>
-      <c r="D843" s="83"/>
+      <c r="A843" s="78"/>
+      <c r="D843" s="79"/>
     </row>
     <row r="844" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A844" s="82"/>
-      <c r="D844" s="83"/>
+      <c r="A844" s="78"/>
+      <c r="D844" s="79"/>
     </row>
     <row r="845" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A845" s="82"/>
-      <c r="D845" s="83"/>
+      <c r="A845" s="78"/>
+      <c r="D845" s="79"/>
     </row>
     <row r="846" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A846" s="82"/>
-      <c r="D846" s="83"/>
+      <c r="A846" s="78"/>
+      <c r="D846" s="79"/>
     </row>
     <row r="847" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A847" s="82"/>
-      <c r="D847" s="83"/>
+      <c r="A847" s="78"/>
+      <c r="D847" s="79"/>
     </row>
     <row r="848" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A848" s="82"/>
-      <c r="D848" s="83"/>
+      <c r="A848" s="78"/>
+      <c r="D848" s="79"/>
     </row>
     <row r="849" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A849" s="82"/>
-      <c r="D849" s="83"/>
+      <c r="A849" s="78"/>
+      <c r="D849" s="79"/>
     </row>
     <row r="850" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A850" s="82"/>
-      <c r="D850" s="83"/>
+      <c r="A850" s="78"/>
+      <c r="D850" s="79"/>
     </row>
     <row r="851" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A851" s="82"/>
-      <c r="D851" s="83"/>
+      <c r="A851" s="78"/>
+      <c r="D851" s="79"/>
     </row>
     <row r="852" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A852" s="82"/>
-      <c r="D852" s="83"/>
+      <c r="A852" s="78"/>
+      <c r="D852" s="79"/>
     </row>
     <row r="853" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A853" s="82"/>
-      <c r="D853" s="83"/>
+      <c r="A853" s="78"/>
+      <c r="D853" s="79"/>
     </row>
     <row r="854" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A854" s="82"/>
-      <c r="D854" s="83"/>
+      <c r="A854" s="78"/>
+      <c r="D854" s="79"/>
     </row>
     <row r="855" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A855" s="82"/>
-      <c r="D855" s="83"/>
+      <c r="A855" s="78"/>
+      <c r="D855" s="79"/>
     </row>
     <row r="856" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A856" s="82"/>
-      <c r="D856" s="83"/>
+      <c r="A856" s="78"/>
+      <c r="D856" s="79"/>
     </row>
     <row r="857" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A857" s="82"/>
-      <c r="D857" s="83"/>
+      <c r="A857" s="78"/>
+      <c r="D857" s="79"/>
     </row>
     <row r="858" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A858" s="82"/>
-      <c r="D858" s="83"/>
+      <c r="A858" s="78"/>
+      <c r="D858" s="79"/>
     </row>
     <row r="859" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A859" s="82"/>
-      <c r="D859" s="83"/>
+      <c r="A859" s="78"/>
+      <c r="D859" s="79"/>
     </row>
     <row r="860" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A860" s="82"/>
-      <c r="D860" s="83"/>
+      <c r="A860" s="78"/>
+      <c r="D860" s="79"/>
     </row>
     <row r="861" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A861" s="82"/>
-      <c r="D861" s="83"/>
+      <c r="A861" s="78"/>
+      <c r="D861" s="79"/>
     </row>
     <row r="862" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A862" s="82"/>
-      <c r="D862" s="83"/>
+      <c r="A862" s="78"/>
+      <c r="D862" s="79"/>
     </row>
     <row r="863" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A863" s="82"/>
-      <c r="D863" s="83"/>
+      <c r="A863" s="78"/>
+      <c r="D863" s="79"/>
     </row>
     <row r="864" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A864" s="82"/>
-      <c r="D864" s="83"/>
+      <c r="A864" s="78"/>
+      <c r="D864" s="79"/>
     </row>
     <row r="865" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A865" s="82"/>
-      <c r="D865" s="83"/>
+      <c r="A865" s="78"/>
+      <c r="D865" s="79"/>
     </row>
     <row r="866" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A866" s="82"/>
-      <c r="D866" s="83"/>
+      <c r="A866" s="78"/>
+      <c r="D866" s="79"/>
     </row>
     <row r="867" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A867" s="82"/>
-      <c r="D867" s="83"/>
+      <c r="A867" s="78"/>
+      <c r="D867" s="79"/>
     </row>
     <row r="868" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A868" s="82"/>
-      <c r="D868" s="83"/>
+      <c r="A868" s="78"/>
+      <c r="D868" s="79"/>
     </row>
     <row r="869" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A869" s="82"/>
-      <c r="D869" s="83"/>
+      <c r="A869" s="78"/>
+      <c r="D869" s="79"/>
     </row>
     <row r="870" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A870" s="82"/>
-      <c r="D870" s="83"/>
+      <c r="A870" s="78"/>
+      <c r="D870" s="79"/>
     </row>
     <row r="871" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A871" s="82"/>
-      <c r="D871" s="83"/>
+      <c r="A871" s="78"/>
+      <c r="D871" s="79"/>
     </row>
     <row r="872" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A872" s="82"/>
-      <c r="D872" s="83"/>
+      <c r="A872" s="78"/>
+      <c r="D872" s="79"/>
     </row>
     <row r="873" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A873" s="82"/>
-      <c r="D873" s="83"/>
+      <c r="A873" s="78"/>
+      <c r="D873" s="79"/>
     </row>
     <row r="874" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A874" s="82"/>
-      <c r="D874" s="83"/>
+      <c r="A874" s="78"/>
+      <c r="D874" s="79"/>
     </row>
     <row r="875" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A875" s="82"/>
-      <c r="D875" s="83"/>
+      <c r="A875" s="78"/>
+      <c r="D875" s="79"/>
     </row>
     <row r="876" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A876" s="82"/>
-      <c r="D876" s="83"/>
+      <c r="A876" s="78"/>
+      <c r="D876" s="79"/>
     </row>
     <row r="877" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A877" s="82"/>
-      <c r="D877" s="83"/>
+      <c r="A877" s="78"/>
+      <c r="D877" s="79"/>
     </row>
     <row r="878" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A878" s="82"/>
-      <c r="D878" s="83"/>
+      <c r="A878" s="78"/>
+      <c r="D878" s="79"/>
     </row>
     <row r="879" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A879" s="82"/>
-      <c r="D879" s="83"/>
+      <c r="A879" s="78"/>
+      <c r="D879" s="79"/>
     </row>
     <row r="880" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A880" s="82"/>
-      <c r="D880" s="83"/>
+      <c r="A880" s="78"/>
+      <c r="D880" s="79"/>
     </row>
     <row r="881" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A881" s="82"/>
-      <c r="D881" s="83"/>
+      <c r="A881" s="78"/>
+      <c r="D881" s="79"/>
     </row>
     <row r="882" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A882" s="82"/>
-      <c r="D882" s="83"/>
+      <c r="A882" s="78"/>
+      <c r="D882" s="79"/>
     </row>
     <row r="883" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A883" s="82"/>
-      <c r="D883" s="83"/>
+      <c r="A883" s="78"/>
+      <c r="D883" s="79"/>
     </row>
     <row r="884" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A884" s="82"/>
-      <c r="D884" s="83"/>
+      <c r="A884" s="78"/>
+      <c r="D884" s="79"/>
     </row>
     <row r="885" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A885" s="82"/>
-      <c r="D885" s="83"/>
+      <c r="A885" s="78"/>
+      <c r="D885" s="79"/>
     </row>
     <row r="886" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A886" s="82"/>
-      <c r="D886" s="83"/>
+      <c r="A886" s="78"/>
+      <c r="D886" s="79"/>
     </row>
     <row r="887" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A887" s="82"/>
-      <c r="D887" s="83"/>
+      <c r="A887" s="78"/>
+      <c r="D887" s="79"/>
     </row>
     <row r="888" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A888" s="82"/>
-      <c r="D888" s="83"/>
+      <c r="A888" s="78"/>
+      <c r="D888" s="79"/>
     </row>
     <row r="889" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A889" s="82"/>
-      <c r="D889" s="83"/>
+      <c r="A889" s="78"/>
+      <c r="D889" s="79"/>
     </row>
     <row r="890" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A890" s="82"/>
-      <c r="D890" s="83"/>
+      <c r="A890" s="78"/>
+      <c r="D890" s="79"/>
     </row>
     <row r="891" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A891" s="82"/>
-      <c r="D891" s="83"/>
+      <c r="A891" s="78"/>
+      <c r="D891" s="79"/>
     </row>
     <row r="892" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A892" s="82"/>
-      <c r="D892" s="83"/>
+      <c r="A892" s="78"/>
+      <c r="D892" s="79"/>
     </row>
     <row r="893" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A893" s="82"/>
-      <c r="D893" s="83"/>
+      <c r="A893" s="78"/>
+      <c r="D893" s="79"/>
     </row>
     <row r="894" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A894" s="82"/>
-      <c r="D894" s="83"/>
+      <c r="A894" s="78"/>
+      <c r="D894" s="79"/>
     </row>
     <row r="895" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A895" s="82"/>
-      <c r="D895" s="83"/>
+      <c r="A895" s="78"/>
+      <c r="D895" s="79"/>
     </row>
     <row r="896" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A896" s="82"/>
-      <c r="D896" s="83"/>
+      <c r="A896" s="78"/>
+      <c r="D896" s="79"/>
     </row>
     <row r="897" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A897" s="82"/>
-      <c r="D897" s="83"/>
+      <c r="A897" s="78"/>
+      <c r="D897" s="79"/>
     </row>
     <row r="898" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A898" s="82"/>
-      <c r="D898" s="83"/>
+      <c r="A898" s="78"/>
+      <c r="D898" s="79"/>
     </row>
     <row r="899" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A899" s="82"/>
-      <c r="D899" s="83"/>
+      <c r="A899" s="78"/>
+      <c r="D899" s="79"/>
     </row>
     <row r="900" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A900" s="82"/>
-      <c r="D900" s="83"/>
+      <c r="A900" s="78"/>
+      <c r="D900" s="79"/>
     </row>
     <row r="901" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A901" s="82"/>
-      <c r="D901" s="83"/>
+      <c r="A901" s="78"/>
+      <c r="D901" s="79"/>
     </row>
     <row r="902" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A902" s="82"/>
-      <c r="D902" s="83"/>
+      <c r="A902" s="78"/>
+      <c r="D902" s="79"/>
     </row>
     <row r="903" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A903" s="82"/>
-      <c r="D903" s="83"/>
+      <c r="A903" s="78"/>
+      <c r="D903" s="79"/>
     </row>
     <row r="904" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A904" s="82"/>
-      <c r="D904" s="83"/>
+      <c r="A904" s="78"/>
+      <c r="D904" s="79"/>
     </row>
     <row r="905" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A905" s="82"/>
-      <c r="D905" s="83"/>
+      <c r="A905" s="78"/>
+      <c r="D905" s="79"/>
     </row>
     <row r="906" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A906" s="82"/>
-      <c r="D906" s="83"/>
+      <c r="A906" s="78"/>
+      <c r="D906" s="79"/>
     </row>
     <row r="907" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A907" s="82"/>
-      <c r="D907" s="83"/>
+      <c r="A907" s="78"/>
+      <c r="D907" s="79"/>
     </row>
     <row r="908" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A908" s="82"/>
-      <c r="D908" s="83"/>
+      <c r="A908" s="78"/>
+      <c r="D908" s="79"/>
     </row>
     <row r="909" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A909" s="82"/>
-      <c r="D909" s="83"/>
+      <c r="A909" s="78"/>
+      <c r="D909" s="79"/>
     </row>
     <row r="910" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A910" s="82"/>
-      <c r="D910" s="83"/>
+      <c r="A910" s="78"/>
+      <c r="D910" s="79"/>
     </row>
     <row r="911" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A911" s="82"/>
-      <c r="D911" s="83"/>
+      <c r="A911" s="78"/>
+      <c r="D911" s="79"/>
     </row>
     <row r="912" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A912" s="82"/>
-      <c r="D912" s="83"/>
+      <c r="A912" s="78"/>
+      <c r="D912" s="79"/>
     </row>
     <row r="913" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A913" s="82"/>
-      <c r="D913" s="83"/>
+      <c r="A913" s="78"/>
+      <c r="D913" s="79"/>
     </row>
     <row r="914" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A914" s="82"/>
-      <c r="D914" s="83"/>
+      <c r="A914" s="78"/>
+      <c r="D914" s="79"/>
     </row>
     <row r="915" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A915" s="82"/>
-      <c r="D915" s="83"/>
+      <c r="A915" s="78"/>
+      <c r="D915" s="79"/>
     </row>
     <row r="916" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A916" s="82"/>
-      <c r="D916" s="83"/>
+      <c r="A916" s="78"/>
+      <c r="D916" s="79"/>
     </row>
     <row r="917" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A917" s="82"/>
-      <c r="D917" s="83"/>
+      <c r="A917" s="78"/>
+      <c r="D917" s="79"/>
     </row>
     <row r="918" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A918" s="82"/>
-      <c r="D918" s="83"/>
+      <c r="A918" s="78"/>
+      <c r="D918" s="79"/>
     </row>
     <row r="919" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A919" s="82"/>
-      <c r="D919" s="83"/>
+      <c r="A919" s="78"/>
+      <c r="D919" s="79"/>
     </row>
     <row r="920" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A920" s="82"/>
-      <c r="D920" s="83"/>
+      <c r="A920" s="78"/>
+      <c r="D920" s="79"/>
     </row>
     <row r="921" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A921" s="82"/>
-      <c r="D921" s="83"/>
+      <c r="A921" s="78"/>
+      <c r="D921" s="79"/>
     </row>
     <row r="922" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A922" s="82"/>
-      <c r="D922" s="83"/>
+      <c r="A922" s="78"/>
+      <c r="D922" s="79"/>
     </row>
     <row r="923" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A923" s="82"/>
-      <c r="D923" s="83"/>
+      <c r="A923" s="78"/>
+      <c r="D923" s="79"/>
     </row>
     <row r="924" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A924" s="82"/>
-      <c r="D924" s="83"/>
+      <c r="A924" s="78"/>
+      <c r="D924" s="79"/>
     </row>
     <row r="925" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A925" s="82"/>
-      <c r="D925" s="83"/>
+      <c r="A925" s="78"/>
+      <c r="D925" s="79"/>
     </row>
     <row r="926" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A926" s="82"/>
-      <c r="D926" s="83"/>
+      <c r="A926" s="78"/>
+      <c r="D926" s="79"/>
     </row>
     <row r="927" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A927" s="82"/>
-      <c r="D927" s="83"/>
+      <c r="A927" s="78"/>
+      <c r="D927" s="79"/>
     </row>
     <row r="928" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A928" s="82"/>
-      <c r="D928" s="83"/>
+      <c r="A928" s="78"/>
+      <c r="D928" s="79"/>
     </row>
     <row r="929" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A929" s="82"/>
-      <c r="D929" s="83"/>
+      <c r="A929" s="78"/>
+      <c r="D929" s="79"/>
     </row>
     <row r="930" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A930" s="82"/>
-      <c r="D930" s="83"/>
+      <c r="A930" s="78"/>
+      <c r="D930" s="79"/>
     </row>
     <row r="931" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A931" s="82"/>
-      <c r="D931" s="83"/>
+      <c r="A931" s="78"/>
+      <c r="D931" s="79"/>
     </row>
     <row r="932" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A932" s="82"/>
-      <c r="D932" s="83"/>
+      <c r="A932" s="78"/>
+      <c r="D932" s="79"/>
     </row>
     <row r="933" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A933" s="82"/>
-      <c r="D933" s="83"/>
+      <c r="A933" s="78"/>
+      <c r="D933" s="79"/>
     </row>
     <row r="934" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A934" s="82"/>
-      <c r="D934" s="83"/>
+      <c r="A934" s="78"/>
+      <c r="D934" s="79"/>
     </row>
     <row r="935" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A935" s="82"/>
-      <c r="D935" s="83"/>
+      <c r="A935" s="78"/>
+      <c r="D935" s="79"/>
     </row>
     <row r="936" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A936" s="82"/>
-      <c r="D936" s="83"/>
+      <c r="A936" s="78"/>
+      <c r="D936" s="79"/>
     </row>
     <row r="937" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A937" s="82"/>
-      <c r="D937" s="83"/>
+      <c r="A937" s="78"/>
+      <c r="D937" s="79"/>
     </row>
     <row r="938" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A938" s="82"/>
-      <c r="D938" s="83"/>
+      <c r="A938" s="78"/>
+      <c r="D938" s="79"/>
     </row>
     <row r="939" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A939" s="82"/>
-      <c r="D939" s="83"/>
+      <c r="A939" s="78"/>
+      <c r="D939" s="79"/>
     </row>
     <row r="940" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A940" s="82"/>
-      <c r="D940" s="83"/>
+      <c r="A940" s="78"/>
+      <c r="D940" s="79"/>
     </row>
     <row r="941" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A941" s="82"/>
-      <c r="D941" s="83"/>
+      <c r="A941" s="78"/>
+      <c r="D941" s="79"/>
     </row>
     <row r="942" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A942" s="82"/>
-      <c r="D942" s="83"/>
+      <c r="A942" s="78"/>
+      <c r="D942" s="79"/>
     </row>
     <row r="943" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A943" s="82"/>
-      <c r="D943" s="83"/>
+      <c r="A943" s="78"/>
+      <c r="D943" s="79"/>
     </row>
     <row r="944" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A944" s="82"/>
-      <c r="D944" s="83"/>
+      <c r="A944" s="78"/>
+      <c r="D944" s="79"/>
     </row>
     <row r="945" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A945" s="82"/>
-      <c r="D945" s="83"/>
+      <c r="A945" s="78"/>
+      <c r="D945" s="79"/>
     </row>
     <row r="946" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A946" s="82"/>
-      <c r="D946" s="83"/>
+      <c r="A946" s="78"/>
+      <c r="D946" s="79"/>
     </row>
     <row r="947" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A947" s="82"/>
-      <c r="D947" s="83"/>
+      <c r="A947" s="78"/>
+      <c r="D947" s="79"/>
     </row>
     <row r="948" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A948" s="82"/>
-      <c r="D948" s="83"/>
+      <c r="A948" s="78"/>
+      <c r="D948" s="79"/>
     </row>
     <row r="949" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A949" s="82"/>
-      <c r="D949" s="83"/>
+      <c r="A949" s="78"/>
+      <c r="D949" s="79"/>
     </row>
     <row r="950" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A950" s="82"/>
-      <c r="D950" s="83"/>
+      <c r="A950" s="78"/>
+      <c r="D950" s="79"/>
     </row>
     <row r="951" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A951" s="82"/>
-      <c r="D951" s="83"/>
+      <c r="A951" s="78"/>
+      <c r="D951" s="79"/>
     </row>
     <row r="952" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A952" s="82"/>
-      <c r="D952" s="83"/>
+      <c r="A952" s="78"/>
+      <c r="D952" s="79"/>
     </row>
     <row r="953" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A953" s="82"/>
-      <c r="D953" s="83"/>
+      <c r="A953" s="78"/>
+      <c r="D953" s="79"/>
     </row>
     <row r="954" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A954" s="82"/>
-      <c r="D954" s="83"/>
+      <c r="A954" s="78"/>
+      <c r="D954" s="79"/>
     </row>
     <row r="955" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A955" s="82"/>
-      <c r="D955" s="83"/>
+      <c r="A955" s="78"/>
+      <c r="D955" s="79"/>
     </row>
     <row r="956" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A956" s="82"/>
-      <c r="D956" s="83"/>
+      <c r="A956" s="78"/>
+      <c r="D956" s="79"/>
     </row>
     <row r="957" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A957" s="82"/>
-      <c r="D957" s="83"/>
+      <c r="A957" s="78"/>
+      <c r="D957" s="79"/>
     </row>
     <row r="958" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A958" s="82"/>
-      <c r="D958" s="83"/>
+      <c r="A958" s="78"/>
+      <c r="D958" s="79"/>
     </row>
     <row r="959" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A959" s="82"/>
-      <c r="D959" s="83"/>
+      <c r="A959" s="78"/>
+      <c r="D959" s="79"/>
     </row>
     <row r="960" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A960" s="82"/>
-      <c r="D960" s="83"/>
+      <c r="A960" s="78"/>
+      <c r="D960" s="79"/>
     </row>
     <row r="961" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A961" s="82"/>
-      <c r="D961" s="83"/>
+      <c r="A961" s="78"/>
+      <c r="D961" s="79"/>
     </row>
     <row r="962" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A962" s="82"/>
-      <c r="D962" s="83"/>
+      <c r="A962" s="78"/>
+      <c r="D962" s="79"/>
     </row>
     <row r="963" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A963" s="82"/>
-      <c r="D963" s="83"/>
+      <c r="A963" s="78"/>
+      <c r="D963" s="79"/>
     </row>
     <row r="964" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A964" s="82"/>
-      <c r="D964" s="83"/>
+      <c r="A964" s="78"/>
+      <c r="D964" s="79"/>
     </row>
     <row r="965" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A965" s="82"/>
-      <c r="D965" s="83"/>
+      <c r="A965" s="78"/>
+      <c r="D965" s="79"/>
     </row>
     <row r="966" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A966" s="82"/>
-      <c r="D966" s="83"/>
+      <c r="A966" s="78"/>
+      <c r="D966" s="79"/>
     </row>
     <row r="967" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A967" s="82"/>
-      <c r="D967" s="83"/>
+      <c r="A967" s="78"/>
+      <c r="D967" s="79"/>
     </row>
     <row r="968" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A968" s="82"/>
-      <c r="D968" s="83"/>
+      <c r="A968" s="78"/>
+      <c r="D968" s="79"/>
     </row>
     <row r="969" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A969" s="82"/>
-      <c r="D969" s="83"/>
+      <c r="A969" s="78"/>
+      <c r="D969" s="79"/>
     </row>
     <row r="970" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A970" s="82"/>
-      <c r="D970" s="83"/>
+      <c r="A970" s="78"/>
+      <c r="D970" s="79"/>
     </row>
     <row r="971" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A971" s="82"/>
-      <c r="D971" s="83"/>
+      <c r="A971" s="78"/>
+      <c r="D971" s="79"/>
     </row>
     <row r="972" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A972" s="82"/>
-      <c r="D972" s="83"/>
+      <c r="A972" s="78"/>
+      <c r="D972" s="79"/>
     </row>
     <row r="973" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A973" s="82"/>
-      <c r="D973" s="83"/>
+      <c r="A973" s="78"/>
+      <c r="D973" s="79"/>
     </row>
     <row r="974" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A974" s="82"/>
-      <c r="D974" s="83"/>
+      <c r="A974" s="78"/>
+      <c r="D974" s="79"/>
     </row>
     <row r="975" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A975" s="82"/>
-      <c r="D975" s="83"/>
+      <c r="A975" s="78"/>
+      <c r="D975" s="79"/>
     </row>
     <row r="976" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A976" s="82"/>
-      <c r="D976" s="83"/>
+      <c r="A976" s="78"/>
+      <c r="D976" s="79"/>
     </row>
     <row r="977" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A977" s="82"/>
-      <c r="D977" s="83"/>
+      <c r="A977" s="78"/>
+      <c r="D977" s="79"/>
     </row>
     <row r="978" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A978" s="82"/>
-      <c r="D978" s="83"/>
+      <c r="A978" s="78"/>
+      <c r="D978" s="79"/>
     </row>
     <row r="979" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A979" s="82"/>
-      <c r="D979" s="83"/>
+      <c r="A979" s="78"/>
+      <c r="D979" s="79"/>
     </row>
     <row r="980" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A980" s="82"/>
-      <c r="D980" s="83"/>
+      <c r="A980" s="78"/>
+      <c r="D980" s="79"/>
     </row>
     <row r="981" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A981" s="82"/>
-      <c r="D981" s="83"/>
+      <c r="A981" s="78"/>
+      <c r="D981" s="79"/>
     </row>
     <row r="982" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A982" s="82"/>
-      <c r="D982" s="83"/>
+      <c r="A982" s="78"/>
+      <c r="D982" s="79"/>
     </row>
     <row r="983" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A983" s="82"/>
-      <c r="D983" s="83"/>
+      <c r="A983" s="78"/>
+      <c r="D983" s="79"/>
     </row>
     <row r="984" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A984" s="82"/>
-      <c r="D984" s="83"/>
+      <c r="A984" s="78"/>
+      <c r="D984" s="79"/>
     </row>
     <row r="985" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A985" s="82"/>
-      <c r="D985" s="83"/>
+      <c r="A985" s="78"/>
+      <c r="D985" s="79"/>
     </row>
     <row r="986" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A986" s="82"/>
-      <c r="D986" s="83"/>
+      <c r="A986" s="78"/>
+      <c r="D986" s="79"/>
     </row>
     <row r="987" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A987" s="82"/>
-      <c r="D987" s="83"/>
+      <c r="A987" s="78"/>
+      <c r="D987" s="79"/>
     </row>
     <row r="988" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A988" s="82"/>
-      <c r="D988" s="83"/>
+      <c r="A988" s="78"/>
+      <c r="D988" s="79"/>
     </row>
     <row r="989" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A989" s="82"/>
-      <c r="D989" s="83"/>
+      <c r="A989" s="78"/>
+      <c r="D989" s="79"/>
     </row>
     <row r="990" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A990" s="82"/>
-      <c r="D990" s="83"/>
+      <c r="A990" s="78"/>
+      <c r="D990" s="79"/>
     </row>
     <row r="991" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A991" s="82"/>
-      <c r="D991" s="83"/>
+      <c r="A991" s="78"/>
+      <c r="D991" s="79"/>
     </row>
     <row r="992" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A992" s="82"/>
-      <c r="D992" s="83"/>
+      <c r="A992" s="78"/>
+      <c r="D992" s="79"/>
     </row>
     <row r="993" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A993" s="82"/>
-      <c r="D993" s="83"/>
+      <c r="A993" s="78"/>
+      <c r="D993" s="79"/>
     </row>
     <row r="994" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A994" s="82"/>
-      <c r="D994" s="83"/>
+      <c r="A994" s="78"/>
+      <c r="D994" s="79"/>
     </row>
     <row r="995" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A995" s="82"/>
-      <c r="D995" s="83"/>
+      <c r="A995" s="78"/>
+      <c r="D995" s="79"/>
     </row>
     <row r="996" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A996" s="82"/>
-      <c r="D996" s="83"/>
+      <c r="A996" s="78"/>
+      <c r="D996" s="79"/>
     </row>
     <row r="997" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A997" s="82"/>
-      <c r="D997" s="83"/>
+      <c r="A997" s="78"/>
+      <c r="D997" s="79"/>
     </row>
     <row r="998" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A998" s="82"/>
-      <c r="D998" s="83"/>
+      <c r="A998" s="78"/>
+      <c r="D998" s="79"/>
     </row>
     <row r="999" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A999" s="82"/>
-      <c r="D999" s="83"/>
+      <c r="A999" s="78"/>
+      <c r="D999" s="79"/>
     </row>
     <row r="1000" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A1000" s="82"/>
-      <c r="D1000" s="83"/>
+      <c r="A1000" s="78"/>
+      <c r="D1000" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="BA33:BF33"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="BK41:BS41"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BP45:BT45"/>
-    <mergeCell ref="G46:CE46"/>
-    <mergeCell ref="AJ20:AO20"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="AV31:AZ31"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD13:AH13"/>
     <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="D2:E2"/>
@@ -9753,10 +9718,37 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BP45:BT45"/>
+    <mergeCell ref="G46:CE46"/>
+    <mergeCell ref="AJ20:AO20"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="AV31:AZ31"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="BA33:BF33"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BM42:BS42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P of</oddFooter>
   </headerFooter>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37218360-FF3C-4C86-87CA-A63948B2E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB900F-5214-4574-AE32-23FC5ACD4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -836,19 +836,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFD8D8D8"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD8D8D8"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
       <top style="medium">
@@ -876,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1051,9 +1038,6 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1063,7 +1047,7 @@
     <xf numFmtId="167" fontId="5" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,49 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1147,6 +1088,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1367,9 +1351,9 @@
   </sheetPr>
   <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI43" sqref="BI43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1470,7 +1454,7 @@
       <c r="BP1" s="6"/>
       <c r="BQ1" s="6"/>
       <c r="BR1" s="6"/>
-      <c r="BS1" s="83"/>
+      <c r="BS1" s="82"/>
       <c r="BT1" s="7"/>
       <c r="BU1" s="6" t="s">
         <v>9</v>
@@ -1492,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -1579,10 +1563,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="106">
+      <c r="D3" s="86">
         <v>45197</v>
       </c>
-      <c r="E3" s="107"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1668,119 +1652,119 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="103">
+      <c r="F4" s="88"/>
+      <c r="G4" s="83">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="103">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="103">
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="83">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="103">
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="83">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="103">
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="83">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="103">
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="83">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="103">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="83">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="103">
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="83">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="103">
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="84"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="84"/>
+      <c r="BI4" s="84"/>
+      <c r="BJ4" s="85"/>
+      <c r="BK4" s="83">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="105"/>
-      <c r="BR4" s="103">
+      <c r="BL4" s="84"/>
+      <c r="BM4" s="84"/>
+      <c r="BN4" s="84"/>
+      <c r="BO4" s="84"/>
+      <c r="BP4" s="84"/>
+      <c r="BQ4" s="85"/>
+      <c r="BR4" s="83">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="105"/>
-      <c r="BY4" s="103">
+      <c r="BS4" s="84"/>
+      <c r="BT4" s="84"/>
+      <c r="BU4" s="84"/>
+      <c r="BV4" s="84"/>
+      <c r="BW4" s="84"/>
+      <c r="BX4" s="85"/>
+      <c r="BY4" s="83">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="104"/>
-      <c r="CA4" s="104"/>
-      <c r="CB4" s="104"/>
-      <c r="CC4" s="104"/>
-      <c r="CD4" s="104"/>
-      <c r="CE4" s="105"/>
-    </row>
-    <row r="5" spans="1:83" ht="25.5" customHeight="1">
+      <c r="BZ4" s="84"/>
+      <c r="CA4" s="84"/>
+      <c r="CB4" s="84"/>
+      <c r="CC4" s="84"/>
+      <c r="CD4" s="84"/>
+      <c r="CE4" s="85"/>
+    </row>
+    <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
         <v>12</v>
@@ -1794,7 +1778,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="109"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2189,7 +2173,7 @@
       <c r="CD6" s="28"/>
       <c r="CE6" s="28"/>
     </row>
-    <row r="7" spans="1:83" ht="15" customHeight="1">
+    <row r="7" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="29" t="s">
         <v>16</v>
@@ -2276,7 +2260,7 @@
       <c r="CD7" s="34"/>
       <c r="CE7" s="35"/>
     </row>
-    <row r="8" spans="1:83" ht="15" customHeight="1">
+    <row r="8" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="36" t="s">
         <v>17</v>
@@ -2298,7 +2282,7 @@
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
-      <c r="M8" s="101"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="91"/>
@@ -2401,7 +2385,7 @@
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="93"/>
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
       <c r="Y9" s="91"/>
@@ -2586,7 +2570,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="42"/>
-      <c r="AA11" s="100"/>
+      <c r="AA11" s="94"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="91"/>
       <c r="AD11" s="91"/>
@@ -2775,7 +2759,7 @@
       <c r="AA13" s="42"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
-      <c r="AD13" s="93"/>
+      <c r="AD13" s="96"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="91"/>
       <c r="AG13" s="91"/>
@@ -2868,7 +2852,7 @@
       <c r="AA14" s="42"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
-      <c r="AD14" s="99"/>
+      <c r="AD14" s="97"/>
       <c r="AE14" s="91"/>
       <c r="AF14" s="91"/>
       <c r="AG14" s="91"/>
@@ -2962,7 +2946,7 @@
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
       <c r="AD15" s="28"/>
-      <c r="AE15" s="93"/>
+      <c r="AE15" s="96"/>
       <c r="AF15" s="91"/>
       <c r="AG15" s="91"/>
       <c r="AH15" s="91"/>
@@ -3054,7 +3038,7 @@
       <c r="AA16" s="42"/>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
-      <c r="AD16" s="94"/>
+      <c r="AD16" s="98"/>
       <c r="AE16" s="91"/>
       <c r="AF16" s="91"/>
       <c r="AG16" s="91"/>
@@ -3123,7 +3107,7 @@
       <c r="E17" s="49">
         <v>45225</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -3210,7 +3194,7 @@
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
       <c r="I18" s="54"/>
@@ -3334,12 +3318,12 @@
       <c r="AF19" s="28"/>
       <c r="AG19" s="42"/>
       <c r="AH19" s="42"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="83"/>
-      <c r="AM19" s="83"/>
-      <c r="AN19" s="83"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="28"/>
@@ -3428,7 +3412,7 @@
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
       <c r="AI20" s="28"/>
-      <c r="AJ20" s="98"/>
+      <c r="AJ20" s="103"/>
       <c r="AK20" s="91"/>
       <c r="AL20" s="91"/>
       <c r="AM20" s="91"/>
@@ -3616,12 +3600,12 @@
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
-      <c r="AL22" s="83"/>
-      <c r="AM22" s="83"/>
-      <c r="AN22" s="83"/>
-      <c r="AO22" s="83"/>
-      <c r="AP22" s="83"/>
-      <c r="AQ22" s="83"/>
+      <c r="AL22" s="82"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -3898,7 +3882,7 @@
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="42"/>
-      <c r="AO25" s="99"/>
+      <c r="AO25" s="97"/>
       <c r="AP25" s="91"/>
       <c r="AQ25" s="91"/>
       <c r="AR25" s="91"/>
@@ -3992,7 +3976,7 @@
       <c r="AM26" s="28"/>
       <c r="AN26" s="42"/>
       <c r="AO26" s="42"/>
-      <c r="AP26" s="94"/>
+      <c r="AP26" s="98"/>
       <c r="AQ26" s="91"/>
       <c r="AR26" s="91"/>
       <c r="AS26" s="91"/>
@@ -4091,7 +4075,7 @@
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
       <c r="AU27" s="42"/>
-      <c r="AV27" s="99"/>
+      <c r="AV27" s="97"/>
       <c r="AW27" s="91"/>
       <c r="AX27" s="91"/>
       <c r="AY27" s="91"/>
@@ -4180,7 +4164,7 @@
       <c r="AO28" s="42"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="100"/>
+      <c r="AR28" s="94"/>
       <c r="AS28" s="91"/>
       <c r="AT28" s="91"/>
       <c r="AU28" s="91"/>
@@ -4274,7 +4258,7 @@
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28"/>
       <c r="AR29" s="28"/>
-      <c r="AS29" s="94"/>
+      <c r="AS29" s="98"/>
       <c r="AT29" s="91"/>
       <c r="AU29" s="91"/>
       <c r="AV29" s="91"/>
@@ -4368,7 +4352,7 @@
       <c r="AQ30" s="28"/>
       <c r="AR30" s="28"/>
       <c r="AS30" s="28"/>
-      <c r="AT30" s="100"/>
+      <c r="AT30" s="94"/>
       <c r="AU30" s="91"/>
       <c r="AV30" s="91"/>
       <c r="AW30" s="91"/>
@@ -4463,7 +4447,7 @@
       <c r="AS31" s="28"/>
       <c r="AT31" s="28"/>
       <c r="AU31" s="42"/>
-      <c r="AV31" s="93"/>
+      <c r="AV31" s="96"/>
       <c r="AW31" s="91"/>
       <c r="AX31" s="91"/>
       <c r="AY31" s="91"/>
@@ -4593,7 +4577,7 @@
       <c r="CD32" s="62"/>
       <c r="CE32" s="62"/>
     </row>
-    <row r="33" spans="1:83" ht="15" customHeight="1">
+    <row r="33" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="56" t="s">
         <v>42</v>
@@ -4607,7 +4591,7 @@
       <c r="E33" s="58">
         <v>45245</v>
       </c>
-      <c r="F33" s="84"/>
+      <c r="F33" s="99"/>
       <c r="G33" s="61"/>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
@@ -4654,12 +4638,12 @@
       <c r="AX33" s="28"/>
       <c r="AY33" s="28"/>
       <c r="AZ33" s="28"/>
-      <c r="BA33" s="87"/>
-      <c r="BB33" s="88"/>
-      <c r="BC33" s="88"/>
-      <c r="BD33" s="88"/>
-      <c r="BE33" s="88"/>
-      <c r="BF33" s="89"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="106"/>
+      <c r="BC33" s="106"/>
+      <c r="BD33" s="106"/>
+      <c r="BE33" s="106"/>
+      <c r="BF33" s="107"/>
       <c r="BG33" s="61"/>
       <c r="BH33" s="61"/>
       <c r="BI33" s="62"/>
@@ -4686,7 +4670,7 @@
       <c r="CD33" s="62"/>
       <c r="CE33" s="62"/>
     </row>
-    <row r="34" spans="1:83" ht="15" customHeight="1">
+    <row r="34" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="1"/>
       <c r="B34" s="63" t="s">
         <v>43</v>
@@ -4694,100 +4678,100 @@
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="67"/>
-      <c r="BK34" s="67"/>
-      <c r="BL34" s="67"/>
-      <c r="BM34" s="67"/>
-      <c r="BN34" s="67"/>
-      <c r="BO34" s="67"/>
-      <c r="BP34" s="67"/>
-      <c r="BQ34" s="67"/>
-      <c r="BR34" s="67"/>
-      <c r="BS34" s="67"/>
-      <c r="BT34" s="67"/>
-      <c r="BU34" s="67"/>
-      <c r="BV34" s="67"/>
-      <c r="BW34" s="67"/>
-      <c r="BX34" s="67"/>
-      <c r="BY34" s="67"/>
-      <c r="BZ34" s="67"/>
-      <c r="CA34" s="67"/>
-      <c r="CB34" s="67"/>
-      <c r="CC34" s="67"/>
-      <c r="CD34" s="67"/>
-      <c r="CE34" s="68"/>
-    </row>
-    <row r="35" spans="1:83" ht="15" customHeight="1">
+      <c r="F34" s="104"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="91"/>
+      <c r="AJ34" s="91"/>
+      <c r="AK34" s="91"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="91"/>
+      <c r="AO34" s="91"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="91"/>
+      <c r="AR34" s="91"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="91"/>
+      <c r="BA34" s="91"/>
+      <c r="BB34" s="91"/>
+      <c r="BC34" s="91"/>
+      <c r="BD34" s="91"/>
+      <c r="BE34" s="91"/>
+      <c r="BF34" s="91"/>
+      <c r="BG34" s="91"/>
+      <c r="BH34" s="91"/>
+      <c r="BI34" s="91"/>
+      <c r="BJ34" s="91"/>
+      <c r="BK34" s="91"/>
+      <c r="BL34" s="91"/>
+      <c r="BM34" s="91"/>
+      <c r="BN34" s="91"/>
+      <c r="BO34" s="91"/>
+      <c r="BP34" s="91"/>
+      <c r="BQ34" s="91"/>
+      <c r="BR34" s="91"/>
+      <c r="BS34" s="91"/>
+      <c r="BT34" s="91"/>
+      <c r="BU34" s="91"/>
+      <c r="BV34" s="91"/>
+      <c r="BW34" s="91"/>
+      <c r="BX34" s="91"/>
+      <c r="BY34" s="91"/>
+      <c r="BZ34" s="91"/>
+      <c r="CA34" s="91"/>
+      <c r="CB34" s="91"/>
+      <c r="CC34" s="91"/>
+      <c r="CD34" s="91"/>
+      <c r="CE34" s="102"/>
+    </row>
+    <row r="35" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="71">
+      <c r="D35" s="70">
         <v>45241</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="70">
         <v>45244</v>
       </c>
-      <c r="F35" s="86"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -4868,16 +4852,16 @@
     </row>
     <row r="36" spans="1:83" ht="15" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="70">
         <v>45245</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="70">
         <v>45249</v>
       </c>
       <c r="F36" s="39"/>
@@ -4961,16 +4945,16 @@
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="70">
         <v>45244</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="70">
         <v>45251</v>
       </c>
       <c r="F37" s="39"/>
@@ -5054,16 +5038,16 @@
     </row>
     <row r="38" spans="1:83" ht="15" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="71">
+      <c r="D38" s="70">
         <v>45245</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="70">
         <v>45251</v>
       </c>
       <c r="F38" s="39"/>
@@ -5118,7 +5102,7 @@
       <c r="BC38" s="42"/>
       <c r="BD38" s="28"/>
       <c r="BE38" s="28"/>
-      <c r="BF38" s="90"/>
+      <c r="BF38" s="108"/>
       <c r="BG38" s="91"/>
       <c r="BH38" s="91"/>
       <c r="BI38" s="91"/>
@@ -5126,7 +5110,7 @@
       <c r="BK38" s="91"/>
       <c r="BL38" s="92"/>
       <c r="BM38" s="28"/>
-      <c r="BN38" s="72"/>
+      <c r="BN38" s="71"/>
       <c r="BO38" s="28"/>
       <c r="BP38" s="42"/>
       <c r="BQ38" s="42"/>
@@ -5147,16 +5131,16 @@
     </row>
     <row r="39" spans="1:83" ht="15" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="70">
         <v>45248</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="70">
         <v>44524</v>
       </c>
       <c r="F39" s="39"/>
@@ -5214,7 +5198,7 @@
       <c r="BF39" s="28"/>
       <c r="BG39" s="28"/>
       <c r="BH39" s="28"/>
-      <c r="BI39" s="100"/>
+      <c r="BI39" s="94"/>
       <c r="BJ39" s="91"/>
       <c r="BK39" s="91"/>
       <c r="BL39" s="91"/>
@@ -5240,16 +5224,16 @@
     </row>
     <row r="40" spans="1:83" ht="15" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="71">
+      <c r="D40" s="70">
         <v>45249</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="70">
         <v>44524</v>
       </c>
       <c r="F40" s="39"/>
@@ -5308,12 +5292,12 @@
       <c r="BG40" s="28"/>
       <c r="BH40" s="28"/>
       <c r="BI40" s="42"/>
-      <c r="BJ40" s="83"/>
-      <c r="BK40" s="83"/>
-      <c r="BL40" s="83"/>
-      <c r="BM40" s="83"/>
-      <c r="BN40" s="83"/>
-      <c r="BO40" s="83"/>
+      <c r="BJ40" s="82"/>
+      <c r="BK40" s="82"/>
+      <c r="BL40" s="82"/>
+      <c r="BM40" s="82"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="82"/>
       <c r="BP40" s="42"/>
       <c r="BQ40" s="42"/>
       <c r="BR40" s="28"/>
@@ -5333,16 +5317,16 @@
     </row>
     <row r="41" spans="1:83" ht="15" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="71">
+      <c r="D41" s="70">
         <v>45250</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="70">
         <v>44528</v>
       </c>
       <c r="F41" s="39"/>
@@ -5402,7 +5386,7 @@
       <c r="BH41" s="28"/>
       <c r="BI41" s="42"/>
       <c r="BJ41" s="42"/>
-      <c r="BK41" s="93"/>
+      <c r="BK41" s="96"/>
       <c r="BL41" s="91"/>
       <c r="BM41" s="91"/>
       <c r="BN41" s="91"/>
@@ -5426,16 +5410,16 @@
     </row>
     <row r="42" spans="1:83" ht="15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="71">
+      <c r="D42" s="70">
         <v>45252</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="70">
         <v>44528</v>
       </c>
       <c r="F42" s="39"/>
@@ -5497,7 +5481,7 @@
       <c r="BJ42" s="42"/>
       <c r="BK42" s="28"/>
       <c r="BL42" s="28"/>
-      <c r="BM42" s="94"/>
+      <c r="BM42" s="98"/>
       <c r="BN42" s="91"/>
       <c r="BO42" s="91"/>
       <c r="BP42" s="91"/>
@@ -5519,16 +5503,16 @@
     </row>
     <row r="43" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="71">
+      <c r="D43" s="70">
         <v>45252</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="70">
         <v>44524</v>
       </c>
       <c r="F43" s="39"/>
@@ -5590,7 +5574,7 @@
       <c r="BJ43" s="42"/>
       <c r="BK43" s="28"/>
       <c r="BL43" s="28"/>
-      <c r="BM43" s="93"/>
+      <c r="BM43" s="96"/>
       <c r="BN43" s="91"/>
       <c r="BO43" s="91"/>
       <c r="BP43" s="91"/>
@@ -5612,16 +5596,16 @@
     </row>
     <row r="44" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="71">
+      <c r="D44" s="70">
         <v>45253</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="70">
         <v>45259</v>
       </c>
       <c r="F44" s="39"/>
@@ -5705,16 +5689,16 @@
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="71">
+      <c r="D45" s="70">
         <v>45255</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="70">
         <v>44529</v>
       </c>
       <c r="F45" s="39"/>
@@ -5798,14 +5782,14 @@
     </row>
     <row r="46" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="77"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="67"/>
-      <c r="G46" s="96"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="91"/>
       <c r="I46" s="91"/>
       <c r="J46" s="91"/>
@@ -5881,3829 +5865,3857 @@
       <c r="CB46" s="91"/>
       <c r="CC46" s="91"/>
       <c r="CD46" s="91"/>
-      <c r="CE46" s="97"/>
+      <c r="CE46" s="102"/>
     </row>
     <row r="47" spans="1:83" ht="14.25" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="D47" s="79"/>
+      <c r="A47" s="77"/>
+      <c r="D47" s="78"/>
     </row>
     <row r="48" spans="1:83" ht="30" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="81"/>
+      <c r="A48" s="77"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="80"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="78"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="79"/>
+      <c r="A49" s="77"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="78"/>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A50" s="78"/>
-      <c r="D50" s="79"/>
+      <c r="A50" s="77"/>
+      <c r="D50" s="78"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="77"/>
+      <c r="D51" s="78"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A52" s="78"/>
-      <c r="D52" s="79"/>
+      <c r="A52" s="77"/>
+      <c r="D52" s="78"/>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A53" s="78"/>
-      <c r="D53" s="79"/>
+      <c r="A53" s="77"/>
+      <c r="D53" s="78"/>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A54" s="78"/>
-      <c r="D54" s="79"/>
+      <c r="A54" s="77"/>
+      <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="A55" s="77"/>
+      <c r="D55" s="78"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A56" s="78"/>
-      <c r="D56" s="79"/>
+      <c r="A56" s="77"/>
+      <c r="D56" s="78"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A57" s="78"/>
-      <c r="D57" s="79"/>
+      <c r="A57" s="77"/>
+      <c r="D57" s="78"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A58" s="78"/>
-      <c r="D58" s="79"/>
+      <c r="A58" s="77"/>
+      <c r="D58" s="78"/>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A59" s="78"/>
-      <c r="D59" s="79"/>
+      <c r="A59" s="77"/>
+      <c r="D59" s="78"/>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A60" s="78"/>
-      <c r="D60" s="79"/>
+      <c r="A60" s="77"/>
+      <c r="D60" s="78"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A61" s="78"/>
-      <c r="D61" s="79"/>
+      <c r="A61" s="77"/>
+      <c r="D61" s="78"/>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A62" s="78"/>
-      <c r="D62" s="79"/>
+      <c r="A62" s="77"/>
+      <c r="D62" s="78"/>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A63" s="78"/>
-      <c r="D63" s="79"/>
+      <c r="A63" s="77"/>
+      <c r="D63" s="78"/>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A64" s="78"/>
-      <c r="D64" s="79"/>
+      <c r="A64" s="77"/>
+      <c r="D64" s="78"/>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A65" s="78"/>
-      <c r="D65" s="79"/>
+      <c r="A65" s="77"/>
+      <c r="D65" s="78"/>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A66" s="78"/>
-      <c r="D66" s="79"/>
+      <c r="A66" s="77"/>
+      <c r="D66" s="78"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A67" s="78"/>
-      <c r="D67" s="79"/>
+      <c r="A67" s="77"/>
+      <c r="D67" s="78"/>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="D68" s="79"/>
+      <c r="A68" s="77"/>
+      <c r="D68" s="78"/>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A69" s="78"/>
-      <c r="D69" s="79"/>
+      <c r="A69" s="77"/>
+      <c r="D69" s="78"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A70" s="78"/>
-      <c r="D70" s="79"/>
+      <c r="A70" s="77"/>
+      <c r="D70" s="78"/>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A71" s="78"/>
-      <c r="D71" s="79"/>
+      <c r="A71" s="77"/>
+      <c r="D71" s="78"/>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A72" s="78"/>
-      <c r="D72" s="79"/>
+      <c r="A72" s="77"/>
+      <c r="D72" s="78"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="A73" s="77"/>
+      <c r="D73" s="78"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="A74" s="77"/>
+      <c r="D74" s="78"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="A75" s="77"/>
+      <c r="D75" s="78"/>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A76" s="78"/>
-      <c r="D76" s="79"/>
+      <c r="A76" s="77"/>
+      <c r="D76" s="78"/>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A77" s="78"/>
-      <c r="D77" s="79"/>
+      <c r="A77" s="77"/>
+      <c r="D77" s="78"/>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A78" s="78"/>
-      <c r="D78" s="79"/>
+      <c r="A78" s="77"/>
+      <c r="D78" s="78"/>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A79" s="78"/>
-      <c r="D79" s="79"/>
+      <c r="A79" s="77"/>
+      <c r="D79" s="78"/>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A80" s="78"/>
-      <c r="D80" s="79"/>
+      <c r="A80" s="77"/>
+      <c r="D80" s="78"/>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A81" s="78"/>
-      <c r="D81" s="79"/>
+      <c r="A81" s="77"/>
+      <c r="D81" s="78"/>
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A82" s="78"/>
-      <c r="D82" s="79"/>
+      <c r="A82" s="77"/>
+      <c r="D82" s="78"/>
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A83" s="78"/>
-      <c r="D83" s="79"/>
+      <c r="A83" s="77"/>
+      <c r="D83" s="78"/>
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A84" s="78"/>
-      <c r="D84" s="79"/>
+      <c r="A84" s="77"/>
+      <c r="D84" s="78"/>
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A85" s="78"/>
-      <c r="D85" s="79"/>
+      <c r="A85" s="77"/>
+      <c r="D85" s="78"/>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A86" s="78"/>
-      <c r="D86" s="79"/>
+      <c r="A86" s="77"/>
+      <c r="D86" s="78"/>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A87" s="78"/>
-      <c r="D87" s="79"/>
+      <c r="A87" s="77"/>
+      <c r="D87" s="78"/>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A88" s="78"/>
-      <c r="D88" s="79"/>
+      <c r="A88" s="77"/>
+      <c r="D88" s="78"/>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A89" s="78"/>
-      <c r="D89" s="79"/>
+      <c r="A89" s="77"/>
+      <c r="D89" s="78"/>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A90" s="78"/>
-      <c r="D90" s="79"/>
+      <c r="A90" s="77"/>
+      <c r="D90" s="78"/>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A91" s="78"/>
-      <c r="D91" s="79"/>
+      <c r="A91" s="77"/>
+      <c r="D91" s="78"/>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A92" s="78"/>
-      <c r="D92" s="79"/>
+      <c r="A92" s="77"/>
+      <c r="D92" s="78"/>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A93" s="78"/>
-      <c r="D93" s="79"/>
+      <c r="A93" s="77"/>
+      <c r="D93" s="78"/>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A94" s="78"/>
-      <c r="D94" s="79"/>
+      <c r="A94" s="77"/>
+      <c r="D94" s="78"/>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A95" s="78"/>
-      <c r="D95" s="79"/>
+      <c r="A95" s="77"/>
+      <c r="D95" s="78"/>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A96" s="78"/>
-      <c r="D96" s="79"/>
+      <c r="A96" s="77"/>
+      <c r="D96" s="78"/>
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A97" s="78"/>
-      <c r="D97" s="79"/>
+      <c r="A97" s="77"/>
+      <c r="D97" s="78"/>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A98" s="78"/>
-      <c r="D98" s="79"/>
+      <c r="A98" s="77"/>
+      <c r="D98" s="78"/>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A99" s="78"/>
-      <c r="D99" s="79"/>
+      <c r="A99" s="77"/>
+      <c r="D99" s="78"/>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A100" s="78"/>
-      <c r="D100" s="79"/>
+      <c r="A100" s="77"/>
+      <c r="D100" s="78"/>
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A101" s="78"/>
-      <c r="D101" s="79"/>
+      <c r="A101" s="77"/>
+      <c r="D101" s="78"/>
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A102" s="78"/>
-      <c r="D102" s="79"/>
+      <c r="A102" s="77"/>
+      <c r="D102" s="78"/>
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A103" s="78"/>
-      <c r="D103" s="79"/>
+      <c r="A103" s="77"/>
+      <c r="D103" s="78"/>
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A104" s="78"/>
-      <c r="D104" s="79"/>
+      <c r="A104" s="77"/>
+      <c r="D104" s="78"/>
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A105" s="78"/>
-      <c r="D105" s="79"/>
+      <c r="A105" s="77"/>
+      <c r="D105" s="78"/>
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A106" s="78"/>
-      <c r="D106" s="79"/>
+      <c r="A106" s="77"/>
+      <c r="D106" s="78"/>
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A107" s="78"/>
-      <c r="D107" s="79"/>
+      <c r="A107" s="77"/>
+      <c r="D107" s="78"/>
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A108" s="78"/>
-      <c r="D108" s="79"/>
+      <c r="A108" s="77"/>
+      <c r="D108" s="78"/>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A109" s="78"/>
-      <c r="D109" s="79"/>
+      <c r="A109" s="77"/>
+      <c r="D109" s="78"/>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A110" s="78"/>
-      <c r="D110" s="79"/>
+      <c r="A110" s="77"/>
+      <c r="D110" s="78"/>
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A111" s="78"/>
-      <c r="D111" s="79"/>
+      <c r="A111" s="77"/>
+      <c r="D111" s="78"/>
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A112" s="78"/>
-      <c r="D112" s="79"/>
+      <c r="A112" s="77"/>
+      <c r="D112" s="78"/>
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A113" s="78"/>
-      <c r="D113" s="79"/>
+      <c r="A113" s="77"/>
+      <c r="D113" s="78"/>
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A114" s="78"/>
-      <c r="D114" s="79"/>
+      <c r="A114" s="77"/>
+      <c r="D114" s="78"/>
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A115" s="78"/>
-      <c r="D115" s="79"/>
+      <c r="A115" s="77"/>
+      <c r="D115" s="78"/>
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A116" s="78"/>
-      <c r="D116" s="79"/>
+      <c r="A116" s="77"/>
+      <c r="D116" s="78"/>
     </row>
     <row r="117" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A117" s="78"/>
-      <c r="D117" s="79"/>
+      <c r="A117" s="77"/>
+      <c r="D117" s="78"/>
     </row>
     <row r="118" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A118" s="78"/>
-      <c r="D118" s="79"/>
+      <c r="A118" s="77"/>
+      <c r="D118" s="78"/>
     </row>
     <row r="119" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A119" s="78"/>
-      <c r="D119" s="79"/>
+      <c r="A119" s="77"/>
+      <c r="D119" s="78"/>
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A120" s="78"/>
-      <c r="D120" s="79"/>
+      <c r="A120" s="77"/>
+      <c r="D120" s="78"/>
     </row>
     <row r="121" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A121" s="78"/>
-      <c r="D121" s="79"/>
+      <c r="A121" s="77"/>
+      <c r="D121" s="78"/>
     </row>
     <row r="122" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A122" s="78"/>
-      <c r="D122" s="79"/>
+      <c r="A122" s="77"/>
+      <c r="D122" s="78"/>
     </row>
     <row r="123" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A123" s="78"/>
-      <c r="D123" s="79"/>
+      <c r="A123" s="77"/>
+      <c r="D123" s="78"/>
     </row>
     <row r="124" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A124" s="78"/>
-      <c r="D124" s="79"/>
+      <c r="A124" s="77"/>
+      <c r="D124" s="78"/>
     </row>
     <row r="125" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A125" s="78"/>
-      <c r="D125" s="79"/>
+      <c r="A125" s="77"/>
+      <c r="D125" s="78"/>
     </row>
     <row r="126" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A126" s="78"/>
-      <c r="D126" s="79"/>
+      <c r="A126" s="77"/>
+      <c r="D126" s="78"/>
     </row>
     <row r="127" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A127" s="78"/>
-      <c r="D127" s="79"/>
+      <c r="A127" s="77"/>
+      <c r="D127" s="78"/>
     </row>
     <row r="128" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A128" s="78"/>
-      <c r="D128" s="79"/>
+      <c r="A128" s="77"/>
+      <c r="D128" s="78"/>
     </row>
     <row r="129" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A129" s="78"/>
-      <c r="D129" s="79"/>
+      <c r="A129" s="77"/>
+      <c r="D129" s="78"/>
     </row>
     <row r="130" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A130" s="78"/>
-      <c r="D130" s="79"/>
+      <c r="A130" s="77"/>
+      <c r="D130" s="78"/>
     </row>
     <row r="131" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A131" s="78"/>
-      <c r="D131" s="79"/>
+      <c r="A131" s="77"/>
+      <c r="D131" s="78"/>
     </row>
     <row r="132" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A132" s="78"/>
-      <c r="D132" s="79"/>
+      <c r="A132" s="77"/>
+      <c r="D132" s="78"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A133" s="78"/>
-      <c r="D133" s="79"/>
+      <c r="A133" s="77"/>
+      <c r="D133" s="78"/>
     </row>
     <row r="134" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A134" s="78"/>
-      <c r="D134" s="79"/>
+      <c r="A134" s="77"/>
+      <c r="D134" s="78"/>
     </row>
     <row r="135" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A135" s="78"/>
-      <c r="D135" s="79"/>
+      <c r="A135" s="77"/>
+      <c r="D135" s="78"/>
     </row>
     <row r="136" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A136" s="78"/>
-      <c r="D136" s="79"/>
+      <c r="A136" s="77"/>
+      <c r="D136" s="78"/>
     </row>
     <row r="137" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A137" s="78"/>
-      <c r="D137" s="79"/>
+      <c r="A137" s="77"/>
+      <c r="D137" s="78"/>
     </row>
     <row r="138" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A138" s="78"/>
-      <c r="D138" s="79"/>
+      <c r="A138" s="77"/>
+      <c r="D138" s="78"/>
     </row>
     <row r="139" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A139" s="78"/>
-      <c r="D139" s="79"/>
+      <c r="A139" s="77"/>
+      <c r="D139" s="78"/>
     </row>
     <row r="140" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A140" s="78"/>
-      <c r="D140" s="79"/>
+      <c r="A140" s="77"/>
+      <c r="D140" s="78"/>
     </row>
     <row r="141" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A141" s="78"/>
-      <c r="D141" s="79"/>
+      <c r="A141" s="77"/>
+      <c r="D141" s="78"/>
     </row>
     <row r="142" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A142" s="78"/>
-      <c r="D142" s="79"/>
+      <c r="A142" s="77"/>
+      <c r="D142" s="78"/>
     </row>
     <row r="143" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A143" s="78"/>
-      <c r="D143" s="79"/>
+      <c r="A143" s="77"/>
+      <c r="D143" s="78"/>
     </row>
     <row r="144" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A144" s="78"/>
-      <c r="D144" s="79"/>
+      <c r="A144" s="77"/>
+      <c r="D144" s="78"/>
     </row>
     <row r="145" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A145" s="78"/>
-      <c r="D145" s="79"/>
+      <c r="A145" s="77"/>
+      <c r="D145" s="78"/>
     </row>
     <row r="146" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A146" s="78"/>
-      <c r="D146" s="79"/>
+      <c r="A146" s="77"/>
+      <c r="D146" s="78"/>
     </row>
     <row r="147" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A147" s="78"/>
-      <c r="D147" s="79"/>
+      <c r="A147" s="77"/>
+      <c r="D147" s="78"/>
     </row>
     <row r="148" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A148" s="78"/>
-      <c r="D148" s="79"/>
+      <c r="A148" s="77"/>
+      <c r="D148" s="78"/>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A149" s="78"/>
-      <c r="D149" s="79"/>
+      <c r="A149" s="77"/>
+      <c r="D149" s="78"/>
     </row>
     <row r="150" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A150" s="78"/>
-      <c r="D150" s="79"/>
+      <c r="A150" s="77"/>
+      <c r="D150" s="78"/>
     </row>
     <row r="151" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A151" s="78"/>
-      <c r="D151" s="79"/>
+      <c r="A151" s="77"/>
+      <c r="D151" s="78"/>
     </row>
     <row r="152" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A152" s="78"/>
-      <c r="D152" s="79"/>
+      <c r="A152" s="77"/>
+      <c r="D152" s="78"/>
     </row>
     <row r="153" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A153" s="78"/>
-      <c r="D153" s="79"/>
+      <c r="A153" s="77"/>
+      <c r="D153" s="78"/>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A154" s="78"/>
-      <c r="D154" s="79"/>
+      <c r="A154" s="77"/>
+      <c r="D154" s="78"/>
     </row>
     <row r="155" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A155" s="78"/>
-      <c r="D155" s="79"/>
+      <c r="A155" s="77"/>
+      <c r="D155" s="78"/>
     </row>
     <row r="156" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A156" s="78"/>
-      <c r="D156" s="79"/>
+      <c r="A156" s="77"/>
+      <c r="D156" s="78"/>
     </row>
     <row r="157" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A157" s="78"/>
-      <c r="D157" s="79"/>
+      <c r="A157" s="77"/>
+      <c r="D157" s="78"/>
     </row>
     <row r="158" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A158" s="78"/>
-      <c r="D158" s="79"/>
+      <c r="A158" s="77"/>
+      <c r="D158" s="78"/>
     </row>
     <row r="159" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A159" s="78"/>
-      <c r="D159" s="79"/>
+      <c r="A159" s="77"/>
+      <c r="D159" s="78"/>
     </row>
     <row r="160" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A160" s="78"/>
-      <c r="D160" s="79"/>
+      <c r="A160" s="77"/>
+      <c r="D160" s="78"/>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A161" s="78"/>
-      <c r="D161" s="79"/>
+      <c r="A161" s="77"/>
+      <c r="D161" s="78"/>
     </row>
     <row r="162" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A162" s="78"/>
-      <c r="D162" s="79"/>
+      <c r="A162" s="77"/>
+      <c r="D162" s="78"/>
     </row>
     <row r="163" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A163" s="78"/>
-      <c r="D163" s="79"/>
+      <c r="A163" s="77"/>
+      <c r="D163" s="78"/>
     </row>
     <row r="164" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A164" s="78"/>
-      <c r="D164" s="79"/>
+      <c r="A164" s="77"/>
+      <c r="D164" s="78"/>
     </row>
     <row r="165" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A165" s="78"/>
-      <c r="D165" s="79"/>
+      <c r="A165" s="77"/>
+      <c r="D165" s="78"/>
     </row>
     <row r="166" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A166" s="78"/>
-      <c r="D166" s="79"/>
+      <c r="A166" s="77"/>
+      <c r="D166" s="78"/>
     </row>
     <row r="167" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A167" s="78"/>
-      <c r="D167" s="79"/>
+      <c r="A167" s="77"/>
+      <c r="D167" s="78"/>
     </row>
     <row r="168" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A168" s="78"/>
-      <c r="D168" s="79"/>
+      <c r="A168" s="77"/>
+      <c r="D168" s="78"/>
     </row>
     <row r="169" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A169" s="78"/>
-      <c r="D169" s="79"/>
+      <c r="A169" s="77"/>
+      <c r="D169" s="78"/>
     </row>
     <row r="170" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A170" s="78"/>
-      <c r="D170" s="79"/>
+      <c r="A170" s="77"/>
+      <c r="D170" s="78"/>
     </row>
     <row r="171" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A171" s="78"/>
-      <c r="D171" s="79"/>
+      <c r="A171" s="77"/>
+      <c r="D171" s="78"/>
     </row>
     <row r="172" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A172" s="78"/>
-      <c r="D172" s="79"/>
+      <c r="A172" s="77"/>
+      <c r="D172" s="78"/>
     </row>
     <row r="173" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A173" s="78"/>
-      <c r="D173" s="79"/>
+      <c r="A173" s="77"/>
+      <c r="D173" s="78"/>
     </row>
     <row r="174" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A174" s="78"/>
-      <c r="D174" s="79"/>
+      <c r="A174" s="77"/>
+      <c r="D174" s="78"/>
     </row>
     <row r="175" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A175" s="78"/>
-      <c r="D175" s="79"/>
+      <c r="A175" s="77"/>
+      <c r="D175" s="78"/>
     </row>
     <row r="176" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A176" s="78"/>
-      <c r="D176" s="79"/>
+      <c r="A176" s="77"/>
+      <c r="D176" s="78"/>
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A177" s="78"/>
-      <c r="D177" s="79"/>
+      <c r="A177" s="77"/>
+      <c r="D177" s="78"/>
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A178" s="78"/>
-      <c r="D178" s="79"/>
+      <c r="A178" s="77"/>
+      <c r="D178" s="78"/>
     </row>
     <row r="179" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A179" s="78"/>
-      <c r="D179" s="79"/>
+      <c r="A179" s="77"/>
+      <c r="D179" s="78"/>
     </row>
     <row r="180" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A180" s="78"/>
-      <c r="D180" s="79"/>
+      <c r="A180" s="77"/>
+      <c r="D180" s="78"/>
     </row>
     <row r="181" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A181" s="78"/>
-      <c r="D181" s="79"/>
+      <c r="A181" s="77"/>
+      <c r="D181" s="78"/>
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A182" s="78"/>
-      <c r="D182" s="79"/>
+      <c r="A182" s="77"/>
+      <c r="D182" s="78"/>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A183" s="78"/>
-      <c r="D183" s="79"/>
+      <c r="A183" s="77"/>
+      <c r="D183" s="78"/>
     </row>
     <row r="184" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A184" s="78"/>
-      <c r="D184" s="79"/>
+      <c r="A184" s="77"/>
+      <c r="D184" s="78"/>
     </row>
     <row r="185" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A185" s="78"/>
-      <c r="D185" s="79"/>
+      <c r="A185" s="77"/>
+      <c r="D185" s="78"/>
     </row>
     <row r="186" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A186" s="78"/>
-      <c r="D186" s="79"/>
+      <c r="A186" s="77"/>
+      <c r="D186" s="78"/>
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A187" s="78"/>
-      <c r="D187" s="79"/>
+      <c r="A187" s="77"/>
+      <c r="D187" s="78"/>
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A188" s="78"/>
-      <c r="D188" s="79"/>
+      <c r="A188" s="77"/>
+      <c r="D188" s="78"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A189" s="78"/>
-      <c r="D189" s="79"/>
+      <c r="A189" s="77"/>
+      <c r="D189" s="78"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A190" s="78"/>
-      <c r="D190" s="79"/>
+      <c r="A190" s="77"/>
+      <c r="D190" s="78"/>
     </row>
     <row r="191" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A191" s="78"/>
-      <c r="D191" s="79"/>
+      <c r="A191" s="77"/>
+      <c r="D191" s="78"/>
     </row>
     <row r="192" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A192" s="78"/>
-      <c r="D192" s="79"/>
+      <c r="A192" s="77"/>
+      <c r="D192" s="78"/>
     </row>
     <row r="193" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A193" s="78"/>
-      <c r="D193" s="79"/>
+      <c r="A193" s="77"/>
+      <c r="D193" s="78"/>
     </row>
     <row r="194" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A194" s="78"/>
-      <c r="D194" s="79"/>
+      <c r="A194" s="77"/>
+      <c r="D194" s="78"/>
     </row>
     <row r="195" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A195" s="78"/>
-      <c r="D195" s="79"/>
+      <c r="A195" s="77"/>
+      <c r="D195" s="78"/>
     </row>
     <row r="196" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A196" s="78"/>
-      <c r="D196" s="79"/>
+      <c r="A196" s="77"/>
+      <c r="D196" s="78"/>
     </row>
     <row r="197" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A197" s="78"/>
-      <c r="D197" s="79"/>
+      <c r="A197" s="77"/>
+      <c r="D197" s="78"/>
     </row>
     <row r="198" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A198" s="78"/>
-      <c r="D198" s="79"/>
+      <c r="A198" s="77"/>
+      <c r="D198" s="78"/>
     </row>
     <row r="199" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A199" s="78"/>
-      <c r="D199" s="79"/>
+      <c r="A199" s="77"/>
+      <c r="D199" s="78"/>
     </row>
     <row r="200" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A200" s="78"/>
-      <c r="D200" s="79"/>
+      <c r="A200" s="77"/>
+      <c r="D200" s="78"/>
     </row>
     <row r="201" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A201" s="78"/>
-      <c r="D201" s="79"/>
+      <c r="A201" s="77"/>
+      <c r="D201" s="78"/>
     </row>
     <row r="202" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A202" s="78"/>
-      <c r="D202" s="79"/>
+      <c r="A202" s="77"/>
+      <c r="D202" s="78"/>
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A203" s="78"/>
-      <c r="D203" s="79"/>
+      <c r="A203" s="77"/>
+      <c r="D203" s="78"/>
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A204" s="78"/>
-      <c r="D204" s="79"/>
+      <c r="A204" s="77"/>
+      <c r="D204" s="78"/>
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A205" s="78"/>
-      <c r="D205" s="79"/>
+      <c r="A205" s="77"/>
+      <c r="D205" s="78"/>
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A206" s="78"/>
-      <c r="D206" s="79"/>
+      <c r="A206" s="77"/>
+      <c r="D206" s="78"/>
     </row>
     <row r="207" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A207" s="78"/>
-      <c r="D207" s="79"/>
+      <c r="A207" s="77"/>
+      <c r="D207" s="78"/>
     </row>
     <row r="208" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A208" s="78"/>
-      <c r="D208" s="79"/>
+      <c r="A208" s="77"/>
+      <c r="D208" s="78"/>
     </row>
     <row r="209" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A209" s="78"/>
-      <c r="D209" s="79"/>
+      <c r="A209" s="77"/>
+      <c r="D209" s="78"/>
     </row>
     <row r="210" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A210" s="78"/>
-      <c r="D210" s="79"/>
+      <c r="A210" s="77"/>
+      <c r="D210" s="78"/>
     </row>
     <row r="211" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A211" s="78"/>
-      <c r="D211" s="79"/>
+      <c r="A211" s="77"/>
+      <c r="D211" s="78"/>
     </row>
     <row r="212" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A212" s="78"/>
-      <c r="D212" s="79"/>
+      <c r="A212" s="77"/>
+      <c r="D212" s="78"/>
     </row>
     <row r="213" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A213" s="78"/>
-      <c r="D213" s="79"/>
+      <c r="A213" s="77"/>
+      <c r="D213" s="78"/>
     </row>
     <row r="214" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A214" s="78"/>
-      <c r="D214" s="79"/>
+      <c r="A214" s="77"/>
+      <c r="D214" s="78"/>
     </row>
     <row r="215" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A215" s="78"/>
-      <c r="D215" s="79"/>
+      <c r="A215" s="77"/>
+      <c r="D215" s="78"/>
     </row>
     <row r="216" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A216" s="78"/>
-      <c r="D216" s="79"/>
+      <c r="A216" s="77"/>
+      <c r="D216" s="78"/>
     </row>
     <row r="217" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A217" s="78"/>
-      <c r="D217" s="79"/>
+      <c r="A217" s="77"/>
+      <c r="D217" s="78"/>
     </row>
     <row r="218" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A218" s="78"/>
-      <c r="D218" s="79"/>
+      <c r="A218" s="77"/>
+      <c r="D218" s="78"/>
     </row>
     <row r="219" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A219" s="78"/>
-      <c r="D219" s="79"/>
+      <c r="A219" s="77"/>
+      <c r="D219" s="78"/>
     </row>
     <row r="220" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A220" s="78"/>
-      <c r="D220" s="79"/>
+      <c r="A220" s="77"/>
+      <c r="D220" s="78"/>
     </row>
     <row r="221" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A221" s="78"/>
-      <c r="D221" s="79"/>
+      <c r="A221" s="77"/>
+      <c r="D221" s="78"/>
     </row>
     <row r="222" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A222" s="78"/>
-      <c r="D222" s="79"/>
+      <c r="A222" s="77"/>
+      <c r="D222" s="78"/>
     </row>
     <row r="223" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A223" s="78"/>
-      <c r="D223" s="79"/>
+      <c r="A223" s="77"/>
+      <c r="D223" s="78"/>
     </row>
     <row r="224" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A224" s="78"/>
-      <c r="D224" s="79"/>
+      <c r="A224" s="77"/>
+      <c r="D224" s="78"/>
     </row>
     <row r="225" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A225" s="78"/>
-      <c r="D225" s="79"/>
+      <c r="A225" s="77"/>
+      <c r="D225" s="78"/>
     </row>
     <row r="226" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A226" s="78"/>
-      <c r="D226" s="79"/>
+      <c r="A226" s="77"/>
+      <c r="D226" s="78"/>
     </row>
     <row r="227" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A227" s="78"/>
-      <c r="D227" s="79"/>
+      <c r="A227" s="77"/>
+      <c r="D227" s="78"/>
     </row>
     <row r="228" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A228" s="78"/>
-      <c r="D228" s="79"/>
+      <c r="A228" s="77"/>
+      <c r="D228" s="78"/>
     </row>
     <row r="229" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A229" s="78"/>
-      <c r="D229" s="79"/>
+      <c r="A229" s="77"/>
+      <c r="D229" s="78"/>
     </row>
     <row r="230" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A230" s="78"/>
-      <c r="D230" s="79"/>
+      <c r="A230" s="77"/>
+      <c r="D230" s="78"/>
     </row>
     <row r="231" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A231" s="78"/>
-      <c r="D231" s="79"/>
+      <c r="A231" s="77"/>
+      <c r="D231" s="78"/>
     </row>
     <row r="232" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A232" s="78"/>
-      <c r="D232" s="79"/>
+      <c r="A232" s="77"/>
+      <c r="D232" s="78"/>
     </row>
     <row r="233" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A233" s="78"/>
-      <c r="D233" s="79"/>
+      <c r="A233" s="77"/>
+      <c r="D233" s="78"/>
     </row>
     <row r="234" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A234" s="78"/>
-      <c r="D234" s="79"/>
+      <c r="A234" s="77"/>
+      <c r="D234" s="78"/>
     </row>
     <row r="235" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A235" s="78"/>
-      <c r="D235" s="79"/>
+      <c r="A235" s="77"/>
+      <c r="D235" s="78"/>
     </row>
     <row r="236" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A236" s="78"/>
-      <c r="D236" s="79"/>
+      <c r="A236" s="77"/>
+      <c r="D236" s="78"/>
     </row>
     <row r="237" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A237" s="78"/>
-      <c r="D237" s="79"/>
+      <c r="A237" s="77"/>
+      <c r="D237" s="78"/>
     </row>
     <row r="238" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A238" s="78"/>
-      <c r="D238" s="79"/>
+      <c r="A238" s="77"/>
+      <c r="D238" s="78"/>
     </row>
     <row r="239" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A239" s="78"/>
-      <c r="D239" s="79"/>
+      <c r="A239" s="77"/>
+      <c r="D239" s="78"/>
     </row>
     <row r="240" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A240" s="78"/>
-      <c r="D240" s="79"/>
+      <c r="A240" s="77"/>
+      <c r="D240" s="78"/>
     </row>
     <row r="241" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A241" s="78"/>
-      <c r="D241" s="79"/>
+      <c r="A241" s="77"/>
+      <c r="D241" s="78"/>
     </row>
     <row r="242" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A242" s="78"/>
-      <c r="D242" s="79"/>
+      <c r="A242" s="77"/>
+      <c r="D242" s="78"/>
     </row>
     <row r="243" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A243" s="78"/>
-      <c r="D243" s="79"/>
+      <c r="A243" s="77"/>
+      <c r="D243" s="78"/>
     </row>
     <row r="244" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A244" s="78"/>
-      <c r="D244" s="79"/>
+      <c r="A244" s="77"/>
+      <c r="D244" s="78"/>
     </row>
     <row r="245" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A245" s="78"/>
-      <c r="D245" s="79"/>
+      <c r="A245" s="77"/>
+      <c r="D245" s="78"/>
     </row>
     <row r="246" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A246" s="78"/>
-      <c r="D246" s="79"/>
+      <c r="A246" s="77"/>
+      <c r="D246" s="78"/>
     </row>
     <row r="247" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A247" s="78"/>
-      <c r="D247" s="79"/>
+      <c r="A247" s="77"/>
+      <c r="D247" s="78"/>
     </row>
     <row r="248" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A248" s="78"/>
-      <c r="D248" s="79"/>
+      <c r="A248" s="77"/>
+      <c r="D248" s="78"/>
     </row>
     <row r="249" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A249" s="78"/>
-      <c r="D249" s="79"/>
+      <c r="A249" s="77"/>
+      <c r="D249" s="78"/>
     </row>
     <row r="250" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A250" s="78"/>
-      <c r="D250" s="79"/>
+      <c r="A250" s="77"/>
+      <c r="D250" s="78"/>
     </row>
     <row r="251" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A251" s="78"/>
-      <c r="D251" s="79"/>
+      <c r="A251" s="77"/>
+      <c r="D251" s="78"/>
     </row>
     <row r="252" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A252" s="78"/>
-      <c r="D252" s="79"/>
+      <c r="A252" s="77"/>
+      <c r="D252" s="78"/>
     </row>
     <row r="253" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A253" s="78"/>
-      <c r="D253" s="79"/>
+      <c r="A253" s="77"/>
+      <c r="D253" s="78"/>
     </row>
     <row r="254" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A254" s="78"/>
-      <c r="D254" s="79"/>
+      <c r="A254" s="77"/>
+      <c r="D254" s="78"/>
     </row>
     <row r="255" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A255" s="78"/>
-      <c r="D255" s="79"/>
+      <c r="A255" s="77"/>
+      <c r="D255" s="78"/>
     </row>
     <row r="256" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A256" s="78"/>
-      <c r="D256" s="79"/>
+      <c r="A256" s="77"/>
+      <c r="D256" s="78"/>
     </row>
     <row r="257" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A257" s="78"/>
-      <c r="D257" s="79"/>
+      <c r="A257" s="77"/>
+      <c r="D257" s="78"/>
     </row>
     <row r="258" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A258" s="78"/>
-      <c r="D258" s="79"/>
+      <c r="A258" s="77"/>
+      <c r="D258" s="78"/>
     </row>
     <row r="259" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A259" s="78"/>
-      <c r="D259" s="79"/>
+      <c r="A259" s="77"/>
+      <c r="D259" s="78"/>
     </row>
     <row r="260" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A260" s="78"/>
-      <c r="D260" s="79"/>
+      <c r="A260" s="77"/>
+      <c r="D260" s="78"/>
     </row>
     <row r="261" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A261" s="78"/>
-      <c r="D261" s="79"/>
+      <c r="A261" s="77"/>
+      <c r="D261" s="78"/>
     </row>
     <row r="262" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A262" s="78"/>
-      <c r="D262" s="79"/>
+      <c r="A262" s="77"/>
+      <c r="D262" s="78"/>
     </row>
     <row r="263" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A263" s="78"/>
-      <c r="D263" s="79"/>
+      <c r="A263" s="77"/>
+      <c r="D263" s="78"/>
     </row>
     <row r="264" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A264" s="78"/>
-      <c r="D264" s="79"/>
+      <c r="A264" s="77"/>
+      <c r="D264" s="78"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A265" s="78"/>
-      <c r="D265" s="79"/>
+      <c r="A265" s="77"/>
+      <c r="D265" s="78"/>
     </row>
     <row r="266" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A266" s="78"/>
-      <c r="D266" s="79"/>
+      <c r="A266" s="77"/>
+      <c r="D266" s="78"/>
     </row>
     <row r="267" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A267" s="78"/>
-      <c r="D267" s="79"/>
+      <c r="A267" s="77"/>
+      <c r="D267" s="78"/>
     </row>
     <row r="268" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A268" s="78"/>
-      <c r="D268" s="79"/>
+      <c r="A268" s="77"/>
+      <c r="D268" s="78"/>
     </row>
     <row r="269" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A269" s="78"/>
-      <c r="D269" s="79"/>
+      <c r="A269" s="77"/>
+      <c r="D269" s="78"/>
     </row>
     <row r="270" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A270" s="78"/>
-      <c r="D270" s="79"/>
+      <c r="A270" s="77"/>
+      <c r="D270" s="78"/>
     </row>
     <row r="271" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A271" s="78"/>
-      <c r="D271" s="79"/>
+      <c r="A271" s="77"/>
+      <c r="D271" s="78"/>
     </row>
     <row r="272" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A272" s="78"/>
-      <c r="D272" s="79"/>
+      <c r="A272" s="77"/>
+      <c r="D272" s="78"/>
     </row>
     <row r="273" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A273" s="78"/>
-      <c r="D273" s="79"/>
+      <c r="A273" s="77"/>
+      <c r="D273" s="78"/>
     </row>
     <row r="274" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A274" s="78"/>
-      <c r="D274" s="79"/>
+      <c r="A274" s="77"/>
+      <c r="D274" s="78"/>
     </row>
     <row r="275" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A275" s="78"/>
-      <c r="D275" s="79"/>
+      <c r="A275" s="77"/>
+      <c r="D275" s="78"/>
     </row>
     <row r="276" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A276" s="78"/>
-      <c r="D276" s="79"/>
+      <c r="A276" s="77"/>
+      <c r="D276" s="78"/>
     </row>
     <row r="277" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A277" s="78"/>
-      <c r="D277" s="79"/>
+      <c r="A277" s="77"/>
+      <c r="D277" s="78"/>
     </row>
     <row r="278" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A278" s="78"/>
-      <c r="D278" s="79"/>
+      <c r="A278" s="77"/>
+      <c r="D278" s="78"/>
     </row>
     <row r="279" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A279" s="78"/>
-      <c r="D279" s="79"/>
+      <c r="A279" s="77"/>
+      <c r="D279" s="78"/>
     </row>
     <row r="280" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A280" s="78"/>
-      <c r="D280" s="79"/>
+      <c r="A280" s="77"/>
+      <c r="D280" s="78"/>
     </row>
     <row r="281" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A281" s="78"/>
-      <c r="D281" s="79"/>
+      <c r="A281" s="77"/>
+      <c r="D281" s="78"/>
     </row>
     <row r="282" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A282" s="78"/>
-      <c r="D282" s="79"/>
+      <c r="A282" s="77"/>
+      <c r="D282" s="78"/>
     </row>
     <row r="283" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A283" s="78"/>
-      <c r="D283" s="79"/>
+      <c r="A283" s="77"/>
+      <c r="D283" s="78"/>
     </row>
     <row r="284" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A284" s="78"/>
-      <c r="D284" s="79"/>
+      <c r="A284" s="77"/>
+      <c r="D284" s="78"/>
     </row>
     <row r="285" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A285" s="78"/>
-      <c r="D285" s="79"/>
+      <c r="A285" s="77"/>
+      <c r="D285" s="78"/>
     </row>
     <row r="286" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A286" s="78"/>
-      <c r="D286" s="79"/>
+      <c r="A286" s="77"/>
+      <c r="D286" s="78"/>
     </row>
     <row r="287" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A287" s="78"/>
-      <c r="D287" s="79"/>
+      <c r="A287" s="77"/>
+      <c r="D287" s="78"/>
     </row>
     <row r="288" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A288" s="78"/>
-      <c r="D288" s="79"/>
+      <c r="A288" s="77"/>
+      <c r="D288" s="78"/>
     </row>
     <row r="289" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A289" s="78"/>
-      <c r="D289" s="79"/>
+      <c r="A289" s="77"/>
+      <c r="D289" s="78"/>
     </row>
     <row r="290" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A290" s="78"/>
-      <c r="D290" s="79"/>
+      <c r="A290" s="77"/>
+      <c r="D290" s="78"/>
     </row>
     <row r="291" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A291" s="78"/>
-      <c r="D291" s="79"/>
+      <c r="A291" s="77"/>
+      <c r="D291" s="78"/>
     </row>
     <row r="292" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A292" s="78"/>
-      <c r="D292" s="79"/>
+      <c r="A292" s="77"/>
+      <c r="D292" s="78"/>
     </row>
     <row r="293" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A293" s="78"/>
-      <c r="D293" s="79"/>
+      <c r="A293" s="77"/>
+      <c r="D293" s="78"/>
     </row>
     <row r="294" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A294" s="78"/>
-      <c r="D294" s="79"/>
+      <c r="A294" s="77"/>
+      <c r="D294" s="78"/>
     </row>
     <row r="295" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A295" s="78"/>
-      <c r="D295" s="79"/>
+      <c r="A295" s="77"/>
+      <c r="D295" s="78"/>
     </row>
     <row r="296" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A296" s="78"/>
-      <c r="D296" s="79"/>
+      <c r="A296" s="77"/>
+      <c r="D296" s="78"/>
     </row>
     <row r="297" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A297" s="78"/>
-      <c r="D297" s="79"/>
+      <c r="A297" s="77"/>
+      <c r="D297" s="78"/>
     </row>
     <row r="298" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A298" s="78"/>
-      <c r="D298" s="79"/>
+      <c r="A298" s="77"/>
+      <c r="D298" s="78"/>
     </row>
     <row r="299" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A299" s="78"/>
-      <c r="D299" s="79"/>
+      <c r="A299" s="77"/>
+      <c r="D299" s="78"/>
     </row>
     <row r="300" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A300" s="78"/>
-      <c r="D300" s="79"/>
+      <c r="A300" s="77"/>
+      <c r="D300" s="78"/>
     </row>
     <row r="301" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A301" s="78"/>
-      <c r="D301" s="79"/>
+      <c r="A301" s="77"/>
+      <c r="D301" s="78"/>
     </row>
     <row r="302" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A302" s="78"/>
-      <c r="D302" s="79"/>
+      <c r="A302" s="77"/>
+      <c r="D302" s="78"/>
     </row>
     <row r="303" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A303" s="78"/>
-      <c r="D303" s="79"/>
+      <c r="A303" s="77"/>
+      <c r="D303" s="78"/>
     </row>
     <row r="304" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A304" s="78"/>
-      <c r="D304" s="79"/>
+      <c r="A304" s="77"/>
+      <c r="D304" s="78"/>
     </row>
     <row r="305" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A305" s="78"/>
-      <c r="D305" s="79"/>
+      <c r="A305" s="77"/>
+      <c r="D305" s="78"/>
     </row>
     <row r="306" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A306" s="78"/>
-      <c r="D306" s="79"/>
+      <c r="A306" s="77"/>
+      <c r="D306" s="78"/>
     </row>
     <row r="307" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A307" s="78"/>
-      <c r="D307" s="79"/>
+      <c r="A307" s="77"/>
+      <c r="D307" s="78"/>
     </row>
     <row r="308" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A308" s="78"/>
-      <c r="D308" s="79"/>
+      <c r="A308" s="77"/>
+      <c r="D308" s="78"/>
     </row>
     <row r="309" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A309" s="78"/>
-      <c r="D309" s="79"/>
+      <c r="A309" s="77"/>
+      <c r="D309" s="78"/>
     </row>
     <row r="310" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A310" s="78"/>
-      <c r="D310" s="79"/>
+      <c r="A310" s="77"/>
+      <c r="D310" s="78"/>
     </row>
     <row r="311" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A311" s="78"/>
-      <c r="D311" s="79"/>
+      <c r="A311" s="77"/>
+      <c r="D311" s="78"/>
     </row>
     <row r="312" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A312" s="78"/>
-      <c r="D312" s="79"/>
+      <c r="A312" s="77"/>
+      <c r="D312" s="78"/>
     </row>
     <row r="313" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A313" s="78"/>
-      <c r="D313" s="79"/>
+      <c r="A313" s="77"/>
+      <c r="D313" s="78"/>
     </row>
     <row r="314" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A314" s="78"/>
-      <c r="D314" s="79"/>
+      <c r="A314" s="77"/>
+      <c r="D314" s="78"/>
     </row>
     <row r="315" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A315" s="78"/>
-      <c r="D315" s="79"/>
+      <c r="A315" s="77"/>
+      <c r="D315" s="78"/>
     </row>
     <row r="316" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A316" s="78"/>
-      <c r="D316" s="79"/>
+      <c r="A316" s="77"/>
+      <c r="D316" s="78"/>
     </row>
     <row r="317" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A317" s="78"/>
-      <c r="D317" s="79"/>
+      <c r="A317" s="77"/>
+      <c r="D317" s="78"/>
     </row>
     <row r="318" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A318" s="78"/>
-      <c r="D318" s="79"/>
+      <c r="A318" s="77"/>
+      <c r="D318" s="78"/>
     </row>
     <row r="319" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A319" s="78"/>
-      <c r="D319" s="79"/>
+      <c r="A319" s="77"/>
+      <c r="D319" s="78"/>
     </row>
     <row r="320" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A320" s="78"/>
-      <c r="D320" s="79"/>
+      <c r="A320" s="77"/>
+      <c r="D320" s="78"/>
     </row>
     <row r="321" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A321" s="78"/>
-      <c r="D321" s="79"/>
+      <c r="A321" s="77"/>
+      <c r="D321" s="78"/>
     </row>
     <row r="322" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A322" s="78"/>
-      <c r="D322" s="79"/>
+      <c r="A322" s="77"/>
+      <c r="D322" s="78"/>
     </row>
     <row r="323" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A323" s="78"/>
-      <c r="D323" s="79"/>
+      <c r="A323" s="77"/>
+      <c r="D323" s="78"/>
     </row>
     <row r="324" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A324" s="78"/>
-      <c r="D324" s="79"/>
+      <c r="A324" s="77"/>
+      <c r="D324" s="78"/>
     </row>
     <row r="325" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A325" s="78"/>
-      <c r="D325" s="79"/>
+      <c r="A325" s="77"/>
+      <c r="D325" s="78"/>
     </row>
     <row r="326" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A326" s="78"/>
-      <c r="D326" s="79"/>
+      <c r="A326" s="77"/>
+      <c r="D326" s="78"/>
     </row>
     <row r="327" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A327" s="78"/>
-      <c r="D327" s="79"/>
+      <c r="A327" s="77"/>
+      <c r="D327" s="78"/>
     </row>
     <row r="328" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A328" s="78"/>
-      <c r="D328" s="79"/>
+      <c r="A328" s="77"/>
+      <c r="D328" s="78"/>
     </row>
     <row r="329" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A329" s="78"/>
-      <c r="D329" s="79"/>
+      <c r="A329" s="77"/>
+      <c r="D329" s="78"/>
     </row>
     <row r="330" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A330" s="78"/>
-      <c r="D330" s="79"/>
+      <c r="A330" s="77"/>
+      <c r="D330" s="78"/>
     </row>
     <row r="331" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A331" s="78"/>
-      <c r="D331" s="79"/>
+      <c r="A331" s="77"/>
+      <c r="D331" s="78"/>
     </row>
     <row r="332" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A332" s="78"/>
-      <c r="D332" s="79"/>
+      <c r="A332" s="77"/>
+      <c r="D332" s="78"/>
     </row>
     <row r="333" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A333" s="78"/>
-      <c r="D333" s="79"/>
+      <c r="A333" s="77"/>
+      <c r="D333" s="78"/>
     </row>
     <row r="334" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A334" s="78"/>
-      <c r="D334" s="79"/>
+      <c r="A334" s="77"/>
+      <c r="D334" s="78"/>
     </row>
     <row r="335" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A335" s="78"/>
-      <c r="D335" s="79"/>
+      <c r="A335" s="77"/>
+      <c r="D335" s="78"/>
     </row>
     <row r="336" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A336" s="78"/>
-      <c r="D336" s="79"/>
+      <c r="A336" s="77"/>
+      <c r="D336" s="78"/>
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A337" s="78"/>
-      <c r="D337" s="79"/>
+      <c r="A337" s="77"/>
+      <c r="D337" s="78"/>
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A338" s="78"/>
-      <c r="D338" s="79"/>
+      <c r="A338" s="77"/>
+      <c r="D338" s="78"/>
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A339" s="78"/>
-      <c r="D339" s="79"/>
+      <c r="A339" s="77"/>
+      <c r="D339" s="78"/>
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A340" s="78"/>
-      <c r="D340" s="79"/>
+      <c r="A340" s="77"/>
+      <c r="D340" s="78"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A341" s="78"/>
-      <c r="D341" s="79"/>
+      <c r="A341" s="77"/>
+      <c r="D341" s="78"/>
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A342" s="78"/>
-      <c r="D342" s="79"/>
+      <c r="A342" s="77"/>
+      <c r="D342" s="78"/>
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A343" s="78"/>
-      <c r="D343" s="79"/>
+      <c r="A343" s="77"/>
+      <c r="D343" s="78"/>
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A344" s="78"/>
-      <c r="D344" s="79"/>
+      <c r="A344" s="77"/>
+      <c r="D344" s="78"/>
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A345" s="78"/>
-      <c r="D345" s="79"/>
+      <c r="A345" s="77"/>
+      <c r="D345" s="78"/>
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A346" s="78"/>
-      <c r="D346" s="79"/>
+      <c r="A346" s="77"/>
+      <c r="D346" s="78"/>
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A347" s="78"/>
-      <c r="D347" s="79"/>
+      <c r="A347" s="77"/>
+      <c r="D347" s="78"/>
     </row>
     <row r="348" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A348" s="78"/>
-      <c r="D348" s="79"/>
+      <c r="A348" s="77"/>
+      <c r="D348" s="78"/>
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A349" s="78"/>
-      <c r="D349" s="79"/>
+      <c r="A349" s="77"/>
+      <c r="D349" s="78"/>
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A350" s="78"/>
-      <c r="D350" s="79"/>
+      <c r="A350" s="77"/>
+      <c r="D350" s="78"/>
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A351" s="78"/>
-      <c r="D351" s="79"/>
+      <c r="A351" s="77"/>
+      <c r="D351" s="78"/>
     </row>
     <row r="352" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A352" s="78"/>
-      <c r="D352" s="79"/>
+      <c r="A352" s="77"/>
+      <c r="D352" s="78"/>
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A353" s="78"/>
-      <c r="D353" s="79"/>
+      <c r="A353" s="77"/>
+      <c r="D353" s="78"/>
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A354" s="78"/>
-      <c r="D354" s="79"/>
+      <c r="A354" s="77"/>
+      <c r="D354" s="78"/>
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A355" s="78"/>
-      <c r="D355" s="79"/>
+      <c r="A355" s="77"/>
+      <c r="D355" s="78"/>
     </row>
     <row r="356" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A356" s="78"/>
-      <c r="D356" s="79"/>
+      <c r="A356" s="77"/>
+      <c r="D356" s="78"/>
     </row>
     <row r="357" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A357" s="78"/>
-      <c r="D357" s="79"/>
+      <c r="A357" s="77"/>
+      <c r="D357" s="78"/>
     </row>
     <row r="358" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A358" s="78"/>
-      <c r="D358" s="79"/>
+      <c r="A358" s="77"/>
+      <c r="D358" s="78"/>
     </row>
     <row r="359" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A359" s="78"/>
-      <c r="D359" s="79"/>
+      <c r="A359" s="77"/>
+      <c r="D359" s="78"/>
     </row>
     <row r="360" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A360" s="78"/>
-      <c r="D360" s="79"/>
+      <c r="A360" s="77"/>
+      <c r="D360" s="78"/>
     </row>
     <row r="361" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A361" s="78"/>
-      <c r="D361" s="79"/>
+      <c r="A361" s="77"/>
+      <c r="D361" s="78"/>
     </row>
     <row r="362" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A362" s="78"/>
-      <c r="D362" s="79"/>
+      <c r="A362" s="77"/>
+      <c r="D362" s="78"/>
     </row>
     <row r="363" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A363" s="78"/>
-      <c r="D363" s="79"/>
+      <c r="A363" s="77"/>
+      <c r="D363" s="78"/>
     </row>
     <row r="364" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A364" s="78"/>
-      <c r="D364" s="79"/>
+      <c r="A364" s="77"/>
+      <c r="D364" s="78"/>
     </row>
     <row r="365" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A365" s="78"/>
-      <c r="D365" s="79"/>
+      <c r="A365" s="77"/>
+      <c r="D365" s="78"/>
     </row>
     <row r="366" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A366" s="78"/>
-      <c r="D366" s="79"/>
+      <c r="A366" s="77"/>
+      <c r="D366" s="78"/>
     </row>
     <row r="367" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A367" s="78"/>
-      <c r="D367" s="79"/>
+      <c r="A367" s="77"/>
+      <c r="D367" s="78"/>
     </row>
     <row r="368" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A368" s="78"/>
-      <c r="D368" s="79"/>
+      <c r="A368" s="77"/>
+      <c r="D368" s="78"/>
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A369" s="78"/>
-      <c r="D369" s="79"/>
+      <c r="A369" s="77"/>
+      <c r="D369" s="78"/>
     </row>
     <row r="370" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A370" s="78"/>
-      <c r="D370" s="79"/>
+      <c r="A370" s="77"/>
+      <c r="D370" s="78"/>
     </row>
     <row r="371" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A371" s="78"/>
-      <c r="D371" s="79"/>
+      <c r="A371" s="77"/>
+      <c r="D371" s="78"/>
     </row>
     <row r="372" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A372" s="78"/>
-      <c r="D372" s="79"/>
+      <c r="A372" s="77"/>
+      <c r="D372" s="78"/>
     </row>
     <row r="373" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A373" s="78"/>
-      <c r="D373" s="79"/>
+      <c r="A373" s="77"/>
+      <c r="D373" s="78"/>
     </row>
     <row r="374" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A374" s="78"/>
-      <c r="D374" s="79"/>
+      <c r="A374" s="77"/>
+      <c r="D374" s="78"/>
     </row>
     <row r="375" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A375" s="78"/>
-      <c r="D375" s="79"/>
+      <c r="A375" s="77"/>
+      <c r="D375" s="78"/>
     </row>
     <row r="376" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A376" s="78"/>
-      <c r="D376" s="79"/>
+      <c r="A376" s="77"/>
+      <c r="D376" s="78"/>
     </row>
     <row r="377" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A377" s="78"/>
-      <c r="D377" s="79"/>
+      <c r="A377" s="77"/>
+      <c r="D377" s="78"/>
     </row>
     <row r="378" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A378" s="78"/>
-      <c r="D378" s="79"/>
+      <c r="A378" s="77"/>
+      <c r="D378" s="78"/>
     </row>
     <row r="379" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A379" s="78"/>
-      <c r="D379" s="79"/>
+      <c r="A379" s="77"/>
+      <c r="D379" s="78"/>
     </row>
     <row r="380" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A380" s="78"/>
-      <c r="D380" s="79"/>
+      <c r="A380" s="77"/>
+      <c r="D380" s="78"/>
     </row>
     <row r="381" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A381" s="78"/>
-      <c r="D381" s="79"/>
+      <c r="A381" s="77"/>
+      <c r="D381" s="78"/>
     </row>
     <row r="382" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A382" s="78"/>
-      <c r="D382" s="79"/>
+      <c r="A382" s="77"/>
+      <c r="D382" s="78"/>
     </row>
     <row r="383" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A383" s="78"/>
-      <c r="D383" s="79"/>
+      <c r="A383" s="77"/>
+      <c r="D383" s="78"/>
     </row>
     <row r="384" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A384" s="78"/>
-      <c r="D384" s="79"/>
+      <c r="A384" s="77"/>
+      <c r="D384" s="78"/>
     </row>
     <row r="385" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A385" s="78"/>
-      <c r="D385" s="79"/>
+      <c r="A385" s="77"/>
+      <c r="D385" s="78"/>
     </row>
     <row r="386" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A386" s="78"/>
-      <c r="D386" s="79"/>
+      <c r="A386" s="77"/>
+      <c r="D386" s="78"/>
     </row>
     <row r="387" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A387" s="78"/>
-      <c r="D387" s="79"/>
+      <c r="A387" s="77"/>
+      <c r="D387" s="78"/>
     </row>
     <row r="388" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A388" s="78"/>
-      <c r="D388" s="79"/>
+      <c r="A388" s="77"/>
+      <c r="D388" s="78"/>
     </row>
     <row r="389" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A389" s="78"/>
-      <c r="D389" s="79"/>
+      <c r="A389" s="77"/>
+      <c r="D389" s="78"/>
     </row>
     <row r="390" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A390" s="78"/>
-      <c r="D390" s="79"/>
+      <c r="A390" s="77"/>
+      <c r="D390" s="78"/>
     </row>
     <row r="391" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A391" s="78"/>
-      <c r="D391" s="79"/>
+      <c r="A391" s="77"/>
+      <c r="D391" s="78"/>
     </row>
     <row r="392" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A392" s="78"/>
-      <c r="D392" s="79"/>
+      <c r="A392" s="77"/>
+      <c r="D392" s="78"/>
     </row>
     <row r="393" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A393" s="78"/>
-      <c r="D393" s="79"/>
+      <c r="A393" s="77"/>
+      <c r="D393" s="78"/>
     </row>
     <row r="394" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A394" s="78"/>
-      <c r="D394" s="79"/>
+      <c r="A394" s="77"/>
+      <c r="D394" s="78"/>
     </row>
     <row r="395" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A395" s="78"/>
-      <c r="D395" s="79"/>
+      <c r="A395" s="77"/>
+      <c r="D395" s="78"/>
     </row>
     <row r="396" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A396" s="78"/>
-      <c r="D396" s="79"/>
+      <c r="A396" s="77"/>
+      <c r="D396" s="78"/>
     </row>
     <row r="397" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A397" s="78"/>
-      <c r="D397" s="79"/>
+      <c r="A397" s="77"/>
+      <c r="D397" s="78"/>
     </row>
     <row r="398" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A398" s="78"/>
-      <c r="D398" s="79"/>
+      <c r="A398" s="77"/>
+      <c r="D398" s="78"/>
     </row>
     <row r="399" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A399" s="78"/>
-      <c r="D399" s="79"/>
+      <c r="A399" s="77"/>
+      <c r="D399" s="78"/>
     </row>
     <row r="400" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A400" s="78"/>
-      <c r="D400" s="79"/>
+      <c r="A400" s="77"/>
+      <c r="D400" s="78"/>
     </row>
     <row r="401" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A401" s="78"/>
-      <c r="D401" s="79"/>
+      <c r="A401" s="77"/>
+      <c r="D401" s="78"/>
     </row>
     <row r="402" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A402" s="78"/>
-      <c r="D402" s="79"/>
+      <c r="A402" s="77"/>
+      <c r="D402" s="78"/>
     </row>
     <row r="403" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A403" s="78"/>
-      <c r="D403" s="79"/>
+      <c r="A403" s="77"/>
+      <c r="D403" s="78"/>
     </row>
     <row r="404" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A404" s="78"/>
-      <c r="D404" s="79"/>
+      <c r="A404" s="77"/>
+      <c r="D404" s="78"/>
     </row>
     <row r="405" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A405" s="78"/>
-      <c r="D405" s="79"/>
+      <c r="A405" s="77"/>
+      <c r="D405" s="78"/>
     </row>
     <row r="406" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A406" s="78"/>
-      <c r="D406" s="79"/>
+      <c r="A406" s="77"/>
+      <c r="D406" s="78"/>
     </row>
     <row r="407" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A407" s="78"/>
-      <c r="D407" s="79"/>
+      <c r="A407" s="77"/>
+      <c r="D407" s="78"/>
     </row>
     <row r="408" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A408" s="78"/>
-      <c r="D408" s="79"/>
+      <c r="A408" s="77"/>
+      <c r="D408" s="78"/>
     </row>
     <row r="409" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A409" s="78"/>
-      <c r="D409" s="79"/>
+      <c r="A409" s="77"/>
+      <c r="D409" s="78"/>
     </row>
     <row r="410" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A410" s="78"/>
-      <c r="D410" s="79"/>
+      <c r="A410" s="77"/>
+      <c r="D410" s="78"/>
     </row>
     <row r="411" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A411" s="78"/>
-      <c r="D411" s="79"/>
+      <c r="A411" s="77"/>
+      <c r="D411" s="78"/>
     </row>
     <row r="412" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A412" s="78"/>
-      <c r="D412" s="79"/>
+      <c r="A412" s="77"/>
+      <c r="D412" s="78"/>
     </row>
     <row r="413" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A413" s="78"/>
-      <c r="D413" s="79"/>
+      <c r="A413" s="77"/>
+      <c r="D413" s="78"/>
     </row>
     <row r="414" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A414" s="78"/>
-      <c r="D414" s="79"/>
+      <c r="A414" s="77"/>
+      <c r="D414" s="78"/>
     </row>
     <row r="415" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A415" s="78"/>
-      <c r="D415" s="79"/>
+      <c r="A415" s="77"/>
+      <c r="D415" s="78"/>
     </row>
     <row r="416" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A416" s="78"/>
-      <c r="D416" s="79"/>
+      <c r="A416" s="77"/>
+      <c r="D416" s="78"/>
     </row>
     <row r="417" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A417" s="78"/>
-      <c r="D417" s="79"/>
+      <c r="A417" s="77"/>
+      <c r="D417" s="78"/>
     </row>
     <row r="418" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A418" s="78"/>
-      <c r="D418" s="79"/>
+      <c r="A418" s="77"/>
+      <c r="D418" s="78"/>
     </row>
     <row r="419" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A419" s="78"/>
-      <c r="D419" s="79"/>
+      <c r="A419" s="77"/>
+      <c r="D419" s="78"/>
     </row>
     <row r="420" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A420" s="78"/>
-      <c r="D420" s="79"/>
+      <c r="A420" s="77"/>
+      <c r="D420" s="78"/>
     </row>
     <row r="421" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A421" s="78"/>
-      <c r="D421" s="79"/>
+      <c r="A421" s="77"/>
+      <c r="D421" s="78"/>
     </row>
     <row r="422" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A422" s="78"/>
-      <c r="D422" s="79"/>
+      <c r="A422" s="77"/>
+      <c r="D422" s="78"/>
     </row>
     <row r="423" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A423" s="78"/>
-      <c r="D423" s="79"/>
+      <c r="A423" s="77"/>
+      <c r="D423" s="78"/>
     </row>
     <row r="424" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A424" s="78"/>
-      <c r="D424" s="79"/>
+      <c r="A424" s="77"/>
+      <c r="D424" s="78"/>
     </row>
     <row r="425" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A425" s="78"/>
-      <c r="D425" s="79"/>
+      <c r="A425" s="77"/>
+      <c r="D425" s="78"/>
     </row>
     <row r="426" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A426" s="78"/>
-      <c r="D426" s="79"/>
+      <c r="A426" s="77"/>
+      <c r="D426" s="78"/>
     </row>
     <row r="427" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A427" s="78"/>
-      <c r="D427" s="79"/>
+      <c r="A427" s="77"/>
+      <c r="D427" s="78"/>
     </row>
     <row r="428" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A428" s="78"/>
-      <c r="D428" s="79"/>
+      <c r="A428" s="77"/>
+      <c r="D428" s="78"/>
     </row>
     <row r="429" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A429" s="78"/>
-      <c r="D429" s="79"/>
+      <c r="A429" s="77"/>
+      <c r="D429" s="78"/>
     </row>
     <row r="430" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A430" s="78"/>
-      <c r="D430" s="79"/>
+      <c r="A430" s="77"/>
+      <c r="D430" s="78"/>
     </row>
     <row r="431" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A431" s="78"/>
-      <c r="D431" s="79"/>
+      <c r="A431" s="77"/>
+      <c r="D431" s="78"/>
     </row>
     <row r="432" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A432" s="78"/>
-      <c r="D432" s="79"/>
+      <c r="A432" s="77"/>
+      <c r="D432" s="78"/>
     </row>
     <row r="433" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A433" s="78"/>
-      <c r="D433" s="79"/>
+      <c r="A433" s="77"/>
+      <c r="D433" s="78"/>
     </row>
     <row r="434" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A434" s="78"/>
-      <c r="D434" s="79"/>
+      <c r="A434" s="77"/>
+      <c r="D434" s="78"/>
     </row>
     <row r="435" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A435" s="78"/>
-      <c r="D435" s="79"/>
+      <c r="A435" s="77"/>
+      <c r="D435" s="78"/>
     </row>
     <row r="436" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A436" s="78"/>
-      <c r="D436" s="79"/>
+      <c r="A436" s="77"/>
+      <c r="D436" s="78"/>
     </row>
     <row r="437" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A437" s="78"/>
-      <c r="D437" s="79"/>
+      <c r="A437" s="77"/>
+      <c r="D437" s="78"/>
     </row>
     <row r="438" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A438" s="78"/>
-      <c r="D438" s="79"/>
+      <c r="A438" s="77"/>
+      <c r="D438" s="78"/>
     </row>
     <row r="439" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A439" s="78"/>
-      <c r="D439" s="79"/>
+      <c r="A439" s="77"/>
+      <c r="D439" s="78"/>
     </row>
     <row r="440" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A440" s="78"/>
-      <c r="D440" s="79"/>
+      <c r="A440" s="77"/>
+      <c r="D440" s="78"/>
     </row>
     <row r="441" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A441" s="78"/>
-      <c r="D441" s="79"/>
+      <c r="A441" s="77"/>
+      <c r="D441" s="78"/>
     </row>
     <row r="442" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A442" s="78"/>
-      <c r="D442" s="79"/>
+      <c r="A442" s="77"/>
+      <c r="D442" s="78"/>
     </row>
     <row r="443" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A443" s="78"/>
-      <c r="D443" s="79"/>
+      <c r="A443" s="77"/>
+      <c r="D443" s="78"/>
     </row>
     <row r="444" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A444" s="78"/>
-      <c r="D444" s="79"/>
+      <c r="A444" s="77"/>
+      <c r="D444" s="78"/>
     </row>
     <row r="445" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A445" s="78"/>
-      <c r="D445" s="79"/>
+      <c r="A445" s="77"/>
+      <c r="D445" s="78"/>
     </row>
     <row r="446" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A446" s="78"/>
-      <c r="D446" s="79"/>
+      <c r="A446" s="77"/>
+      <c r="D446" s="78"/>
     </row>
     <row r="447" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A447" s="78"/>
-      <c r="D447" s="79"/>
+      <c r="A447" s="77"/>
+      <c r="D447" s="78"/>
     </row>
     <row r="448" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A448" s="78"/>
-      <c r="D448" s="79"/>
+      <c r="A448" s="77"/>
+      <c r="D448" s="78"/>
     </row>
     <row r="449" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A449" s="78"/>
-      <c r="D449" s="79"/>
+      <c r="A449" s="77"/>
+      <c r="D449" s="78"/>
     </row>
     <row r="450" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A450" s="78"/>
-      <c r="D450" s="79"/>
+      <c r="A450" s="77"/>
+      <c r="D450" s="78"/>
     </row>
     <row r="451" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A451" s="78"/>
-      <c r="D451" s="79"/>
+      <c r="A451" s="77"/>
+      <c r="D451" s="78"/>
     </row>
     <row r="452" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A452" s="78"/>
-      <c r="D452" s="79"/>
+      <c r="A452" s="77"/>
+      <c r="D452" s="78"/>
     </row>
     <row r="453" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A453" s="78"/>
-      <c r="D453" s="79"/>
+      <c r="A453" s="77"/>
+      <c r="D453" s="78"/>
     </row>
     <row r="454" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A454" s="78"/>
-      <c r="D454" s="79"/>
+      <c r="A454" s="77"/>
+      <c r="D454" s="78"/>
     </row>
     <row r="455" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A455" s="78"/>
-      <c r="D455" s="79"/>
+      <c r="A455" s="77"/>
+      <c r="D455" s="78"/>
     </row>
     <row r="456" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A456" s="78"/>
-      <c r="D456" s="79"/>
+      <c r="A456" s="77"/>
+      <c r="D456" s="78"/>
     </row>
     <row r="457" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A457" s="78"/>
-      <c r="D457" s="79"/>
+      <c r="A457" s="77"/>
+      <c r="D457" s="78"/>
     </row>
     <row r="458" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A458" s="78"/>
-      <c r="D458" s="79"/>
+      <c r="A458" s="77"/>
+      <c r="D458" s="78"/>
     </row>
     <row r="459" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A459" s="78"/>
-      <c r="D459" s="79"/>
+      <c r="A459" s="77"/>
+      <c r="D459" s="78"/>
     </row>
     <row r="460" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A460" s="78"/>
-      <c r="D460" s="79"/>
+      <c r="A460" s="77"/>
+      <c r="D460" s="78"/>
     </row>
     <row r="461" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A461" s="78"/>
-      <c r="D461" s="79"/>
+      <c r="A461" s="77"/>
+      <c r="D461" s="78"/>
     </row>
     <row r="462" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A462" s="78"/>
-      <c r="D462" s="79"/>
+      <c r="A462" s="77"/>
+      <c r="D462" s="78"/>
     </row>
     <row r="463" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A463" s="78"/>
-      <c r="D463" s="79"/>
+      <c r="A463" s="77"/>
+      <c r="D463" s="78"/>
     </row>
     <row r="464" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A464" s="78"/>
-      <c r="D464" s="79"/>
+      <c r="A464" s="77"/>
+      <c r="D464" s="78"/>
     </row>
     <row r="465" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A465" s="78"/>
-      <c r="D465" s="79"/>
+      <c r="A465" s="77"/>
+      <c r="D465" s="78"/>
     </row>
     <row r="466" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A466" s="78"/>
-      <c r="D466" s="79"/>
+      <c r="A466" s="77"/>
+      <c r="D466" s="78"/>
     </row>
     <row r="467" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A467" s="78"/>
-      <c r="D467" s="79"/>
+      <c r="A467" s="77"/>
+      <c r="D467" s="78"/>
     </row>
     <row r="468" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A468" s="78"/>
-      <c r="D468" s="79"/>
+      <c r="A468" s="77"/>
+      <c r="D468" s="78"/>
     </row>
     <row r="469" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A469" s="78"/>
-      <c r="D469" s="79"/>
+      <c r="A469" s="77"/>
+      <c r="D469" s="78"/>
     </row>
     <row r="470" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A470" s="78"/>
-      <c r="D470" s="79"/>
+      <c r="A470" s="77"/>
+      <c r="D470" s="78"/>
     </row>
     <row r="471" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A471" s="78"/>
-      <c r="D471" s="79"/>
+      <c r="A471" s="77"/>
+      <c r="D471" s="78"/>
     </row>
     <row r="472" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A472" s="78"/>
-      <c r="D472" s="79"/>
+      <c r="A472" s="77"/>
+      <c r="D472" s="78"/>
     </row>
     <row r="473" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A473" s="78"/>
-      <c r="D473" s="79"/>
+      <c r="A473" s="77"/>
+      <c r="D473" s="78"/>
     </row>
     <row r="474" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A474" s="78"/>
-      <c r="D474" s="79"/>
+      <c r="A474" s="77"/>
+      <c r="D474" s="78"/>
     </row>
     <row r="475" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A475" s="78"/>
-      <c r="D475" s="79"/>
+      <c r="A475" s="77"/>
+      <c r="D475" s="78"/>
     </row>
     <row r="476" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A476" s="78"/>
-      <c r="D476" s="79"/>
+      <c r="A476" s="77"/>
+      <c r="D476" s="78"/>
     </row>
     <row r="477" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A477" s="78"/>
-      <c r="D477" s="79"/>
+      <c r="A477" s="77"/>
+      <c r="D477" s="78"/>
     </row>
     <row r="478" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A478" s="78"/>
-      <c r="D478" s="79"/>
+      <c r="A478" s="77"/>
+      <c r="D478" s="78"/>
     </row>
     <row r="479" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A479" s="78"/>
-      <c r="D479" s="79"/>
+      <c r="A479" s="77"/>
+      <c r="D479" s="78"/>
     </row>
     <row r="480" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A480" s="78"/>
-      <c r="D480" s="79"/>
+      <c r="A480" s="77"/>
+      <c r="D480" s="78"/>
     </row>
     <row r="481" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A481" s="78"/>
-      <c r="D481" s="79"/>
+      <c r="A481" s="77"/>
+      <c r="D481" s="78"/>
     </row>
     <row r="482" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A482" s="78"/>
-      <c r="D482" s="79"/>
+      <c r="A482" s="77"/>
+      <c r="D482" s="78"/>
     </row>
     <row r="483" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A483" s="78"/>
-      <c r="D483" s="79"/>
+      <c r="A483" s="77"/>
+      <c r="D483" s="78"/>
     </row>
     <row r="484" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A484" s="78"/>
-      <c r="D484" s="79"/>
+      <c r="A484" s="77"/>
+      <c r="D484" s="78"/>
     </row>
     <row r="485" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A485" s="78"/>
-      <c r="D485" s="79"/>
+      <c r="A485" s="77"/>
+      <c r="D485" s="78"/>
     </row>
     <row r="486" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A486" s="78"/>
-      <c r="D486" s="79"/>
+      <c r="A486" s="77"/>
+      <c r="D486" s="78"/>
     </row>
     <row r="487" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A487" s="78"/>
-      <c r="D487" s="79"/>
+      <c r="A487" s="77"/>
+      <c r="D487" s="78"/>
     </row>
     <row r="488" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A488" s="78"/>
-      <c r="D488" s="79"/>
+      <c r="A488" s="77"/>
+      <c r="D488" s="78"/>
     </row>
     <row r="489" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A489" s="78"/>
-      <c r="D489" s="79"/>
+      <c r="A489" s="77"/>
+      <c r="D489" s="78"/>
     </row>
     <row r="490" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A490" s="78"/>
-      <c r="D490" s="79"/>
+      <c r="A490" s="77"/>
+      <c r="D490" s="78"/>
     </row>
     <row r="491" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A491" s="78"/>
-      <c r="D491" s="79"/>
+      <c r="A491" s="77"/>
+      <c r="D491" s="78"/>
     </row>
     <row r="492" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A492" s="78"/>
-      <c r="D492" s="79"/>
+      <c r="A492" s="77"/>
+      <c r="D492" s="78"/>
     </row>
     <row r="493" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A493" s="78"/>
-      <c r="D493" s="79"/>
+      <c r="A493" s="77"/>
+      <c r="D493" s="78"/>
     </row>
     <row r="494" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A494" s="78"/>
-      <c r="D494" s="79"/>
+      <c r="A494" s="77"/>
+      <c r="D494" s="78"/>
     </row>
     <row r="495" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A495" s="78"/>
-      <c r="D495" s="79"/>
+      <c r="A495" s="77"/>
+      <c r="D495" s="78"/>
     </row>
     <row r="496" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A496" s="78"/>
-      <c r="D496" s="79"/>
+      <c r="A496" s="77"/>
+      <c r="D496" s="78"/>
     </row>
     <row r="497" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A497" s="78"/>
-      <c r="D497" s="79"/>
+      <c r="A497" s="77"/>
+      <c r="D497" s="78"/>
     </row>
     <row r="498" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A498" s="78"/>
-      <c r="D498" s="79"/>
+      <c r="A498" s="77"/>
+      <c r="D498" s="78"/>
     </row>
     <row r="499" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A499" s="78"/>
-      <c r="D499" s="79"/>
+      <c r="A499" s="77"/>
+      <c r="D499" s="78"/>
     </row>
     <row r="500" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A500" s="78"/>
-      <c r="D500" s="79"/>
+      <c r="A500" s="77"/>
+      <c r="D500" s="78"/>
     </row>
     <row r="501" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A501" s="78"/>
-      <c r="D501" s="79"/>
+      <c r="A501" s="77"/>
+      <c r="D501" s="78"/>
     </row>
     <row r="502" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A502" s="78"/>
-      <c r="D502" s="79"/>
+      <c r="A502" s="77"/>
+      <c r="D502" s="78"/>
     </row>
     <row r="503" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A503" s="78"/>
-      <c r="D503" s="79"/>
+      <c r="A503" s="77"/>
+      <c r="D503" s="78"/>
     </row>
     <row r="504" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A504" s="78"/>
-      <c r="D504" s="79"/>
+      <c r="A504" s="77"/>
+      <c r="D504" s="78"/>
     </row>
     <row r="505" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A505" s="78"/>
-      <c r="D505" s="79"/>
+      <c r="A505" s="77"/>
+      <c r="D505" s="78"/>
     </row>
     <row r="506" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A506" s="78"/>
-      <c r="D506" s="79"/>
+      <c r="A506" s="77"/>
+      <c r="D506" s="78"/>
     </row>
     <row r="507" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A507" s="78"/>
-      <c r="D507" s="79"/>
+      <c r="A507" s="77"/>
+      <c r="D507" s="78"/>
     </row>
     <row r="508" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A508" s="78"/>
-      <c r="D508" s="79"/>
+      <c r="A508" s="77"/>
+      <c r="D508" s="78"/>
     </row>
     <row r="509" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A509" s="78"/>
-      <c r="D509" s="79"/>
+      <c r="A509" s="77"/>
+      <c r="D509" s="78"/>
     </row>
     <row r="510" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A510" s="78"/>
-      <c r="D510" s="79"/>
+      <c r="A510" s="77"/>
+      <c r="D510" s="78"/>
     </row>
     <row r="511" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A511" s="78"/>
-      <c r="D511" s="79"/>
+      <c r="A511" s="77"/>
+      <c r="D511" s="78"/>
     </row>
     <row r="512" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A512" s="78"/>
-      <c r="D512" s="79"/>
+      <c r="A512" s="77"/>
+      <c r="D512" s="78"/>
     </row>
     <row r="513" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A513" s="78"/>
-      <c r="D513" s="79"/>
+      <c r="A513" s="77"/>
+      <c r="D513" s="78"/>
     </row>
     <row r="514" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A514" s="78"/>
-      <c r="D514" s="79"/>
+      <c r="A514" s="77"/>
+      <c r="D514" s="78"/>
     </row>
     <row r="515" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A515" s="78"/>
-      <c r="D515" s="79"/>
+      <c r="A515" s="77"/>
+      <c r="D515" s="78"/>
     </row>
     <row r="516" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A516" s="78"/>
-      <c r="D516" s="79"/>
+      <c r="A516" s="77"/>
+      <c r="D516" s="78"/>
     </row>
     <row r="517" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A517" s="78"/>
-      <c r="D517" s="79"/>
+      <c r="A517" s="77"/>
+      <c r="D517" s="78"/>
     </row>
     <row r="518" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A518" s="78"/>
-      <c r="D518" s="79"/>
+      <c r="A518" s="77"/>
+      <c r="D518" s="78"/>
     </row>
     <row r="519" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A519" s="78"/>
-      <c r="D519" s="79"/>
+      <c r="A519" s="77"/>
+      <c r="D519" s="78"/>
     </row>
     <row r="520" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A520" s="78"/>
-      <c r="D520" s="79"/>
+      <c r="A520" s="77"/>
+      <c r="D520" s="78"/>
     </row>
     <row r="521" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A521" s="78"/>
-      <c r="D521" s="79"/>
+      <c r="A521" s="77"/>
+      <c r="D521" s="78"/>
     </row>
     <row r="522" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A522" s="78"/>
-      <c r="D522" s="79"/>
+      <c r="A522" s="77"/>
+      <c r="D522" s="78"/>
     </row>
     <row r="523" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A523" s="78"/>
-      <c r="D523" s="79"/>
+      <c r="A523" s="77"/>
+      <c r="D523" s="78"/>
     </row>
     <row r="524" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A524" s="78"/>
-      <c r="D524" s="79"/>
+      <c r="A524" s="77"/>
+      <c r="D524" s="78"/>
     </row>
     <row r="525" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A525" s="78"/>
-      <c r="D525" s="79"/>
+      <c r="A525" s="77"/>
+      <c r="D525" s="78"/>
     </row>
     <row r="526" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A526" s="78"/>
-      <c r="D526" s="79"/>
+      <c r="A526" s="77"/>
+      <c r="D526" s="78"/>
     </row>
     <row r="527" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A527" s="78"/>
-      <c r="D527" s="79"/>
+      <c r="A527" s="77"/>
+      <c r="D527" s="78"/>
     </row>
     <row r="528" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A528" s="78"/>
-      <c r="D528" s="79"/>
+      <c r="A528" s="77"/>
+      <c r="D528" s="78"/>
     </row>
     <row r="529" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A529" s="78"/>
-      <c r="D529" s="79"/>
+      <c r="A529" s="77"/>
+      <c r="D529" s="78"/>
     </row>
     <row r="530" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A530" s="78"/>
-      <c r="D530" s="79"/>
+      <c r="A530" s="77"/>
+      <c r="D530" s="78"/>
     </row>
     <row r="531" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A531" s="78"/>
-      <c r="D531" s="79"/>
+      <c r="A531" s="77"/>
+      <c r="D531" s="78"/>
     </row>
     <row r="532" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A532" s="78"/>
-      <c r="D532" s="79"/>
+      <c r="A532" s="77"/>
+      <c r="D532" s="78"/>
     </row>
     <row r="533" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A533" s="78"/>
-      <c r="D533" s="79"/>
+      <c r="A533" s="77"/>
+      <c r="D533" s="78"/>
     </row>
     <row r="534" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A534" s="78"/>
-      <c r="D534" s="79"/>
+      <c r="A534" s="77"/>
+      <c r="D534" s="78"/>
     </row>
     <row r="535" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A535" s="78"/>
-      <c r="D535" s="79"/>
+      <c r="A535" s="77"/>
+      <c r="D535" s="78"/>
     </row>
     <row r="536" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A536" s="78"/>
-      <c r="D536" s="79"/>
+      <c r="A536" s="77"/>
+      <c r="D536" s="78"/>
     </row>
     <row r="537" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A537" s="78"/>
-      <c r="D537" s="79"/>
+      <c r="A537" s="77"/>
+      <c r="D537" s="78"/>
     </row>
     <row r="538" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A538" s="78"/>
-      <c r="D538" s="79"/>
+      <c r="A538" s="77"/>
+      <c r="D538" s="78"/>
     </row>
     <row r="539" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A539" s="78"/>
-      <c r="D539" s="79"/>
+      <c r="A539" s="77"/>
+      <c r="D539" s="78"/>
     </row>
     <row r="540" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A540" s="78"/>
-      <c r="D540" s="79"/>
+      <c r="A540" s="77"/>
+      <c r="D540" s="78"/>
     </row>
     <row r="541" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A541" s="78"/>
-      <c r="D541" s="79"/>
+      <c r="A541" s="77"/>
+      <c r="D541" s="78"/>
     </row>
     <row r="542" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A542" s="78"/>
-      <c r="D542" s="79"/>
+      <c r="A542" s="77"/>
+      <c r="D542" s="78"/>
     </row>
     <row r="543" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A543" s="78"/>
-      <c r="D543" s="79"/>
+      <c r="A543" s="77"/>
+      <c r="D543" s="78"/>
     </row>
     <row r="544" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A544" s="78"/>
-      <c r="D544" s="79"/>
+      <c r="A544" s="77"/>
+      <c r="D544" s="78"/>
     </row>
     <row r="545" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A545" s="78"/>
-      <c r="D545" s="79"/>
+      <c r="A545" s="77"/>
+      <c r="D545" s="78"/>
     </row>
     <row r="546" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A546" s="78"/>
-      <c r="D546" s="79"/>
+      <c r="A546" s="77"/>
+      <c r="D546" s="78"/>
     </row>
     <row r="547" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A547" s="78"/>
-      <c r="D547" s="79"/>
+      <c r="A547" s="77"/>
+      <c r="D547" s="78"/>
     </row>
     <row r="548" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A548" s="78"/>
-      <c r="D548" s="79"/>
+      <c r="A548" s="77"/>
+      <c r="D548" s="78"/>
     </row>
     <row r="549" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A549" s="78"/>
-      <c r="D549" s="79"/>
+      <c r="A549" s="77"/>
+      <c r="D549" s="78"/>
     </row>
     <row r="550" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A550" s="78"/>
-      <c r="D550" s="79"/>
+      <c r="A550" s="77"/>
+      <c r="D550" s="78"/>
     </row>
     <row r="551" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A551" s="78"/>
-      <c r="D551" s="79"/>
+      <c r="A551" s="77"/>
+      <c r="D551" s="78"/>
     </row>
     <row r="552" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A552" s="78"/>
-      <c r="D552" s="79"/>
+      <c r="A552" s="77"/>
+      <c r="D552" s="78"/>
     </row>
     <row r="553" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A553" s="78"/>
-      <c r="D553" s="79"/>
+      <c r="A553" s="77"/>
+      <c r="D553" s="78"/>
     </row>
     <row r="554" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A554" s="78"/>
-      <c r="D554" s="79"/>
+      <c r="A554" s="77"/>
+      <c r="D554" s="78"/>
     </row>
     <row r="555" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A555" s="78"/>
-      <c r="D555" s="79"/>
+      <c r="A555" s="77"/>
+      <c r="D555" s="78"/>
     </row>
     <row r="556" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A556" s="78"/>
-      <c r="D556" s="79"/>
+      <c r="A556" s="77"/>
+      <c r="D556" s="78"/>
     </row>
     <row r="557" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A557" s="78"/>
-      <c r="D557" s="79"/>
+      <c r="A557" s="77"/>
+      <c r="D557" s="78"/>
     </row>
     <row r="558" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A558" s="78"/>
-      <c r="D558" s="79"/>
+      <c r="A558" s="77"/>
+      <c r="D558" s="78"/>
     </row>
     <row r="559" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A559" s="78"/>
-      <c r="D559" s="79"/>
+      <c r="A559" s="77"/>
+      <c r="D559" s="78"/>
     </row>
     <row r="560" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A560" s="78"/>
-      <c r="D560" s="79"/>
+      <c r="A560" s="77"/>
+      <c r="D560" s="78"/>
     </row>
     <row r="561" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A561" s="78"/>
-      <c r="D561" s="79"/>
+      <c r="A561" s="77"/>
+      <c r="D561" s="78"/>
     </row>
     <row r="562" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A562" s="78"/>
-      <c r="D562" s="79"/>
+      <c r="A562" s="77"/>
+      <c r="D562" s="78"/>
     </row>
     <row r="563" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A563" s="78"/>
-      <c r="D563" s="79"/>
+      <c r="A563" s="77"/>
+      <c r="D563" s="78"/>
     </row>
     <row r="564" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A564" s="78"/>
-      <c r="D564" s="79"/>
+      <c r="A564" s="77"/>
+      <c r="D564" s="78"/>
     </row>
     <row r="565" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A565" s="78"/>
-      <c r="D565" s="79"/>
+      <c r="A565" s="77"/>
+      <c r="D565" s="78"/>
     </row>
     <row r="566" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A566" s="78"/>
-      <c r="D566" s="79"/>
+      <c r="A566" s="77"/>
+      <c r="D566" s="78"/>
     </row>
     <row r="567" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A567" s="78"/>
-      <c r="D567" s="79"/>
+      <c r="A567" s="77"/>
+      <c r="D567" s="78"/>
     </row>
     <row r="568" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A568" s="78"/>
-      <c r="D568" s="79"/>
+      <c r="A568" s="77"/>
+      <c r="D568" s="78"/>
     </row>
     <row r="569" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A569" s="78"/>
-      <c r="D569" s="79"/>
+      <c r="A569" s="77"/>
+      <c r="D569" s="78"/>
     </row>
     <row r="570" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A570" s="78"/>
-      <c r="D570" s="79"/>
+      <c r="A570" s="77"/>
+      <c r="D570" s="78"/>
     </row>
     <row r="571" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A571" s="78"/>
-      <c r="D571" s="79"/>
+      <c r="A571" s="77"/>
+      <c r="D571" s="78"/>
     </row>
     <row r="572" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A572" s="78"/>
-      <c r="D572" s="79"/>
+      <c r="A572" s="77"/>
+      <c r="D572" s="78"/>
     </row>
     <row r="573" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A573" s="78"/>
-      <c r="D573" s="79"/>
+      <c r="A573" s="77"/>
+      <c r="D573" s="78"/>
     </row>
     <row r="574" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A574" s="78"/>
-      <c r="D574" s="79"/>
+      <c r="A574" s="77"/>
+      <c r="D574" s="78"/>
     </row>
     <row r="575" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A575" s="78"/>
-      <c r="D575" s="79"/>
+      <c r="A575" s="77"/>
+      <c r="D575" s="78"/>
     </row>
     <row r="576" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A576" s="78"/>
-      <c r="D576" s="79"/>
+      <c r="A576" s="77"/>
+      <c r="D576" s="78"/>
     </row>
     <row r="577" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A577" s="78"/>
-      <c r="D577" s="79"/>
+      <c r="A577" s="77"/>
+      <c r="D577" s="78"/>
     </row>
     <row r="578" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A578" s="78"/>
-      <c r="D578" s="79"/>
+      <c r="A578" s="77"/>
+      <c r="D578" s="78"/>
     </row>
     <row r="579" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A579" s="78"/>
-      <c r="D579" s="79"/>
+      <c r="A579" s="77"/>
+      <c r="D579" s="78"/>
     </row>
     <row r="580" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A580" s="78"/>
-      <c r="D580" s="79"/>
+      <c r="A580" s="77"/>
+      <c r="D580" s="78"/>
     </row>
     <row r="581" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A581" s="78"/>
-      <c r="D581" s="79"/>
+      <c r="A581" s="77"/>
+      <c r="D581" s="78"/>
     </row>
     <row r="582" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A582" s="78"/>
-      <c r="D582" s="79"/>
+      <c r="A582" s="77"/>
+      <c r="D582" s="78"/>
     </row>
     <row r="583" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A583" s="78"/>
-      <c r="D583" s="79"/>
+      <c r="A583" s="77"/>
+      <c r="D583" s="78"/>
     </row>
     <row r="584" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A584" s="78"/>
-      <c r="D584" s="79"/>
+      <c r="A584" s="77"/>
+      <c r="D584" s="78"/>
     </row>
     <row r="585" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A585" s="78"/>
-      <c r="D585" s="79"/>
+      <c r="A585" s="77"/>
+      <c r="D585" s="78"/>
     </row>
     <row r="586" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A586" s="78"/>
-      <c r="D586" s="79"/>
+      <c r="A586" s="77"/>
+      <c r="D586" s="78"/>
     </row>
     <row r="587" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A587" s="78"/>
-      <c r="D587" s="79"/>
+      <c r="A587" s="77"/>
+      <c r="D587" s="78"/>
     </row>
     <row r="588" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A588" s="78"/>
-      <c r="D588" s="79"/>
+      <c r="A588" s="77"/>
+      <c r="D588" s="78"/>
     </row>
     <row r="589" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A589" s="78"/>
-      <c r="D589" s="79"/>
+      <c r="A589" s="77"/>
+      <c r="D589" s="78"/>
     </row>
     <row r="590" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A590" s="78"/>
-      <c r="D590" s="79"/>
+      <c r="A590" s="77"/>
+      <c r="D590" s="78"/>
     </row>
     <row r="591" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A591" s="78"/>
-      <c r="D591" s="79"/>
+      <c r="A591" s="77"/>
+      <c r="D591" s="78"/>
     </row>
     <row r="592" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A592" s="78"/>
-      <c r="D592" s="79"/>
+      <c r="A592" s="77"/>
+      <c r="D592" s="78"/>
     </row>
     <row r="593" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A593" s="78"/>
-      <c r="D593" s="79"/>
+      <c r="A593" s="77"/>
+      <c r="D593" s="78"/>
     </row>
     <row r="594" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A594" s="78"/>
-      <c r="D594" s="79"/>
+      <c r="A594" s="77"/>
+      <c r="D594" s="78"/>
     </row>
     <row r="595" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A595" s="78"/>
-      <c r="D595" s="79"/>
+      <c r="A595" s="77"/>
+      <c r="D595" s="78"/>
     </row>
     <row r="596" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A596" s="78"/>
-      <c r="D596" s="79"/>
+      <c r="A596" s="77"/>
+      <c r="D596" s="78"/>
     </row>
     <row r="597" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A597" s="78"/>
-      <c r="D597" s="79"/>
+      <c r="A597" s="77"/>
+      <c r="D597" s="78"/>
     </row>
     <row r="598" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A598" s="78"/>
-      <c r="D598" s="79"/>
+      <c r="A598" s="77"/>
+      <c r="D598" s="78"/>
     </row>
     <row r="599" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A599" s="78"/>
-      <c r="D599" s="79"/>
+      <c r="A599" s="77"/>
+      <c r="D599" s="78"/>
     </row>
     <row r="600" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A600" s="78"/>
-      <c r="D600" s="79"/>
+      <c r="A600" s="77"/>
+      <c r="D600" s="78"/>
     </row>
     <row r="601" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A601" s="78"/>
-      <c r="D601" s="79"/>
+      <c r="A601" s="77"/>
+      <c r="D601" s="78"/>
     </row>
     <row r="602" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A602" s="78"/>
-      <c r="D602" s="79"/>
+      <c r="A602" s="77"/>
+      <c r="D602" s="78"/>
     </row>
     <row r="603" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A603" s="78"/>
-      <c r="D603" s="79"/>
+      <c r="A603" s="77"/>
+      <c r="D603" s="78"/>
     </row>
     <row r="604" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A604" s="78"/>
-      <c r="D604" s="79"/>
+      <c r="A604" s="77"/>
+      <c r="D604" s="78"/>
     </row>
     <row r="605" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A605" s="78"/>
-      <c r="D605" s="79"/>
+      <c r="A605" s="77"/>
+      <c r="D605" s="78"/>
     </row>
     <row r="606" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A606" s="78"/>
-      <c r="D606" s="79"/>
+      <c r="A606" s="77"/>
+      <c r="D606" s="78"/>
     </row>
     <row r="607" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A607" s="78"/>
-      <c r="D607" s="79"/>
+      <c r="A607" s="77"/>
+      <c r="D607" s="78"/>
     </row>
     <row r="608" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A608" s="78"/>
-      <c r="D608" s="79"/>
+      <c r="A608" s="77"/>
+      <c r="D608" s="78"/>
     </row>
     <row r="609" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A609" s="78"/>
-      <c r="D609" s="79"/>
+      <c r="A609" s="77"/>
+      <c r="D609" s="78"/>
     </row>
     <row r="610" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A610" s="78"/>
-      <c r="D610" s="79"/>
+      <c r="A610" s="77"/>
+      <c r="D610" s="78"/>
     </row>
     <row r="611" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A611" s="78"/>
-      <c r="D611" s="79"/>
+      <c r="A611" s="77"/>
+      <c r="D611" s="78"/>
     </row>
     <row r="612" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A612" s="78"/>
-      <c r="D612" s="79"/>
+      <c r="A612" s="77"/>
+      <c r="D612" s="78"/>
     </row>
     <row r="613" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A613" s="78"/>
-      <c r="D613" s="79"/>
+      <c r="A613" s="77"/>
+      <c r="D613" s="78"/>
     </row>
     <row r="614" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A614" s="78"/>
-      <c r="D614" s="79"/>
+      <c r="A614" s="77"/>
+      <c r="D614" s="78"/>
     </row>
     <row r="615" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A615" s="78"/>
-      <c r="D615" s="79"/>
+      <c r="A615" s="77"/>
+      <c r="D615" s="78"/>
     </row>
     <row r="616" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A616" s="78"/>
-      <c r="D616" s="79"/>
+      <c r="A616" s="77"/>
+      <c r="D616" s="78"/>
     </row>
     <row r="617" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A617" s="78"/>
-      <c r="D617" s="79"/>
+      <c r="A617" s="77"/>
+      <c r="D617" s="78"/>
     </row>
     <row r="618" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A618" s="78"/>
-      <c r="D618" s="79"/>
+      <c r="A618" s="77"/>
+      <c r="D618" s="78"/>
     </row>
     <row r="619" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A619" s="78"/>
-      <c r="D619" s="79"/>
+      <c r="A619" s="77"/>
+      <c r="D619" s="78"/>
     </row>
     <row r="620" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A620" s="78"/>
-      <c r="D620" s="79"/>
+      <c r="A620" s="77"/>
+      <c r="D620" s="78"/>
     </row>
     <row r="621" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A621" s="78"/>
-      <c r="D621" s="79"/>
+      <c r="A621" s="77"/>
+      <c r="D621" s="78"/>
     </row>
     <row r="622" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A622" s="78"/>
-      <c r="D622" s="79"/>
+      <c r="A622" s="77"/>
+      <c r="D622" s="78"/>
     </row>
     <row r="623" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A623" s="78"/>
-      <c r="D623" s="79"/>
+      <c r="A623" s="77"/>
+      <c r="D623" s="78"/>
     </row>
     <row r="624" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A624" s="78"/>
-      <c r="D624" s="79"/>
+      <c r="A624" s="77"/>
+      <c r="D624" s="78"/>
     </row>
     <row r="625" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A625" s="78"/>
-      <c r="D625" s="79"/>
+      <c r="A625" s="77"/>
+      <c r="D625" s="78"/>
     </row>
     <row r="626" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A626" s="78"/>
-      <c r="D626" s="79"/>
+      <c r="A626" s="77"/>
+      <c r="D626" s="78"/>
     </row>
     <row r="627" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A627" s="78"/>
-      <c r="D627" s="79"/>
+      <c r="A627" s="77"/>
+      <c r="D627" s="78"/>
     </row>
     <row r="628" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A628" s="78"/>
-      <c r="D628" s="79"/>
+      <c r="A628" s="77"/>
+      <c r="D628" s="78"/>
     </row>
     <row r="629" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A629" s="78"/>
-      <c r="D629" s="79"/>
+      <c r="A629" s="77"/>
+      <c r="D629" s="78"/>
     </row>
     <row r="630" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A630" s="78"/>
-      <c r="D630" s="79"/>
+      <c r="A630" s="77"/>
+      <c r="D630" s="78"/>
     </row>
     <row r="631" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A631" s="78"/>
-      <c r="D631" s="79"/>
+      <c r="A631" s="77"/>
+      <c r="D631" s="78"/>
     </row>
     <row r="632" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A632" s="78"/>
-      <c r="D632" s="79"/>
+      <c r="A632" s="77"/>
+      <c r="D632" s="78"/>
     </row>
     <row r="633" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A633" s="78"/>
-      <c r="D633" s="79"/>
+      <c r="A633" s="77"/>
+      <c r="D633" s="78"/>
     </row>
     <row r="634" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A634" s="78"/>
-      <c r="D634" s="79"/>
+      <c r="A634" s="77"/>
+      <c r="D634" s="78"/>
     </row>
     <row r="635" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A635" s="78"/>
-      <c r="D635" s="79"/>
+      <c r="A635" s="77"/>
+      <c r="D635" s="78"/>
     </row>
     <row r="636" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A636" s="78"/>
-      <c r="D636" s="79"/>
+      <c r="A636" s="77"/>
+      <c r="D636" s="78"/>
     </row>
     <row r="637" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A637" s="78"/>
-      <c r="D637" s="79"/>
+      <c r="A637" s="77"/>
+      <c r="D637" s="78"/>
     </row>
     <row r="638" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A638" s="78"/>
-      <c r="D638" s="79"/>
+      <c r="A638" s="77"/>
+      <c r="D638" s="78"/>
     </row>
     <row r="639" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A639" s="78"/>
-      <c r="D639" s="79"/>
+      <c r="A639" s="77"/>
+      <c r="D639" s="78"/>
     </row>
     <row r="640" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A640" s="78"/>
-      <c r="D640" s="79"/>
+      <c r="A640" s="77"/>
+      <c r="D640" s="78"/>
     </row>
     <row r="641" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A641" s="78"/>
-      <c r="D641" s="79"/>
+      <c r="A641" s="77"/>
+      <c r="D641" s="78"/>
     </row>
     <row r="642" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A642" s="78"/>
-      <c r="D642" s="79"/>
+      <c r="A642" s="77"/>
+      <c r="D642" s="78"/>
     </row>
     <row r="643" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A643" s="78"/>
-      <c r="D643" s="79"/>
+      <c r="A643" s="77"/>
+      <c r="D643" s="78"/>
     </row>
     <row r="644" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A644" s="78"/>
-      <c r="D644" s="79"/>
+      <c r="A644" s="77"/>
+      <c r="D644" s="78"/>
     </row>
     <row r="645" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A645" s="78"/>
-      <c r="D645" s="79"/>
+      <c r="A645" s="77"/>
+      <c r="D645" s="78"/>
     </row>
     <row r="646" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A646" s="78"/>
-      <c r="D646" s="79"/>
+      <c r="A646" s="77"/>
+      <c r="D646" s="78"/>
     </row>
     <row r="647" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A647" s="78"/>
-      <c r="D647" s="79"/>
+      <c r="A647" s="77"/>
+      <c r="D647" s="78"/>
     </row>
     <row r="648" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A648" s="78"/>
-      <c r="D648" s="79"/>
+      <c r="A648" s="77"/>
+      <c r="D648" s="78"/>
     </row>
     <row r="649" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A649" s="78"/>
-      <c r="D649" s="79"/>
+      <c r="A649" s="77"/>
+      <c r="D649" s="78"/>
     </row>
     <row r="650" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A650" s="78"/>
-      <c r="D650" s="79"/>
+      <c r="A650" s="77"/>
+      <c r="D650" s="78"/>
     </row>
     <row r="651" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A651" s="78"/>
-      <c r="D651" s="79"/>
+      <c r="A651" s="77"/>
+      <c r="D651" s="78"/>
     </row>
     <row r="652" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A652" s="78"/>
-      <c r="D652" s="79"/>
+      <c r="A652" s="77"/>
+      <c r="D652" s="78"/>
     </row>
     <row r="653" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A653" s="78"/>
-      <c r="D653" s="79"/>
+      <c r="A653" s="77"/>
+      <c r="D653" s="78"/>
     </row>
     <row r="654" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A654" s="78"/>
-      <c r="D654" s="79"/>
+      <c r="A654" s="77"/>
+      <c r="D654" s="78"/>
     </row>
     <row r="655" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A655" s="78"/>
-      <c r="D655" s="79"/>
+      <c r="A655" s="77"/>
+      <c r="D655" s="78"/>
     </row>
     <row r="656" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A656" s="78"/>
-      <c r="D656" s="79"/>
+      <c r="A656" s="77"/>
+      <c r="D656" s="78"/>
     </row>
     <row r="657" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A657" s="78"/>
-      <c r="D657" s="79"/>
+      <c r="A657" s="77"/>
+      <c r="D657" s="78"/>
     </row>
     <row r="658" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A658" s="78"/>
-      <c r="D658" s="79"/>
+      <c r="A658" s="77"/>
+      <c r="D658" s="78"/>
     </row>
     <row r="659" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A659" s="78"/>
-      <c r="D659" s="79"/>
+      <c r="A659" s="77"/>
+      <c r="D659" s="78"/>
     </row>
     <row r="660" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A660" s="78"/>
-      <c r="D660" s="79"/>
+      <c r="A660" s="77"/>
+      <c r="D660" s="78"/>
     </row>
     <row r="661" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A661" s="78"/>
-      <c r="D661" s="79"/>
+      <c r="A661" s="77"/>
+      <c r="D661" s="78"/>
     </row>
     <row r="662" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A662" s="78"/>
-      <c r="D662" s="79"/>
+      <c r="A662" s="77"/>
+      <c r="D662" s="78"/>
     </row>
     <row r="663" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A663" s="78"/>
-      <c r="D663" s="79"/>
+      <c r="A663" s="77"/>
+      <c r="D663" s="78"/>
     </row>
     <row r="664" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A664" s="78"/>
-      <c r="D664" s="79"/>
+      <c r="A664" s="77"/>
+      <c r="D664" s="78"/>
     </row>
     <row r="665" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A665" s="78"/>
-      <c r="D665" s="79"/>
+      <c r="A665" s="77"/>
+      <c r="D665" s="78"/>
     </row>
     <row r="666" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A666" s="78"/>
-      <c r="D666" s="79"/>
+      <c r="A666" s="77"/>
+      <c r="D666" s="78"/>
     </row>
     <row r="667" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A667" s="78"/>
-      <c r="D667" s="79"/>
+      <c r="A667" s="77"/>
+      <c r="D667" s="78"/>
     </row>
     <row r="668" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A668" s="78"/>
-      <c r="D668" s="79"/>
+      <c r="A668" s="77"/>
+      <c r="D668" s="78"/>
     </row>
     <row r="669" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A669" s="78"/>
-      <c r="D669" s="79"/>
+      <c r="A669" s="77"/>
+      <c r="D669" s="78"/>
     </row>
     <row r="670" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A670" s="78"/>
-      <c r="D670" s="79"/>
+      <c r="A670" s="77"/>
+      <c r="D670" s="78"/>
     </row>
     <row r="671" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A671" s="78"/>
-      <c r="D671" s="79"/>
+      <c r="A671" s="77"/>
+      <c r="D671" s="78"/>
     </row>
     <row r="672" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A672" s="78"/>
-      <c r="D672" s="79"/>
+      <c r="A672" s="77"/>
+      <c r="D672" s="78"/>
     </row>
     <row r="673" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A673" s="78"/>
-      <c r="D673" s="79"/>
+      <c r="A673" s="77"/>
+      <c r="D673" s="78"/>
     </row>
     <row r="674" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A674" s="78"/>
-      <c r="D674" s="79"/>
+      <c r="A674" s="77"/>
+      <c r="D674" s="78"/>
     </row>
     <row r="675" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A675" s="78"/>
-      <c r="D675" s="79"/>
+      <c r="A675" s="77"/>
+      <c r="D675" s="78"/>
     </row>
     <row r="676" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A676" s="78"/>
-      <c r="D676" s="79"/>
+      <c r="A676" s="77"/>
+      <c r="D676" s="78"/>
     </row>
     <row r="677" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A677" s="78"/>
-      <c r="D677" s="79"/>
+      <c r="A677" s="77"/>
+      <c r="D677" s="78"/>
     </row>
     <row r="678" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A678" s="78"/>
-      <c r="D678" s="79"/>
+      <c r="A678" s="77"/>
+      <c r="D678" s="78"/>
     </row>
     <row r="679" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A679" s="78"/>
-      <c r="D679" s="79"/>
+      <c r="A679" s="77"/>
+      <c r="D679" s="78"/>
     </row>
     <row r="680" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A680" s="78"/>
-      <c r="D680" s="79"/>
+      <c r="A680" s="77"/>
+      <c r="D680" s="78"/>
     </row>
     <row r="681" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A681" s="78"/>
-      <c r="D681" s="79"/>
+      <c r="A681" s="77"/>
+      <c r="D681" s="78"/>
     </row>
     <row r="682" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A682" s="78"/>
-      <c r="D682" s="79"/>
+      <c r="A682" s="77"/>
+      <c r="D682" s="78"/>
     </row>
     <row r="683" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A683" s="78"/>
-      <c r="D683" s="79"/>
+      <c r="A683" s="77"/>
+      <c r="D683" s="78"/>
     </row>
     <row r="684" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A684" s="78"/>
-      <c r="D684" s="79"/>
+      <c r="A684" s="77"/>
+      <c r="D684" s="78"/>
     </row>
     <row r="685" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A685" s="78"/>
-      <c r="D685" s="79"/>
+      <c r="A685" s="77"/>
+      <c r="D685" s="78"/>
     </row>
     <row r="686" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A686" s="78"/>
-      <c r="D686" s="79"/>
+      <c r="A686" s="77"/>
+      <c r="D686" s="78"/>
     </row>
     <row r="687" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A687" s="78"/>
-      <c r="D687" s="79"/>
+      <c r="A687" s="77"/>
+      <c r="D687" s="78"/>
     </row>
     <row r="688" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A688" s="78"/>
-      <c r="D688" s="79"/>
+      <c r="A688" s="77"/>
+      <c r="D688" s="78"/>
     </row>
     <row r="689" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A689" s="78"/>
-      <c r="D689" s="79"/>
+      <c r="A689" s="77"/>
+      <c r="D689" s="78"/>
     </row>
     <row r="690" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A690" s="78"/>
-      <c r="D690" s="79"/>
+      <c r="A690" s="77"/>
+      <c r="D690" s="78"/>
     </row>
     <row r="691" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A691" s="78"/>
-      <c r="D691" s="79"/>
+      <c r="A691" s="77"/>
+      <c r="D691" s="78"/>
     </row>
     <row r="692" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A692" s="78"/>
-      <c r="D692" s="79"/>
+      <c r="A692" s="77"/>
+      <c r="D692" s="78"/>
     </row>
     <row r="693" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A693" s="78"/>
-      <c r="D693" s="79"/>
+      <c r="A693" s="77"/>
+      <c r="D693" s="78"/>
     </row>
     <row r="694" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A694" s="78"/>
-      <c r="D694" s="79"/>
+      <c r="A694" s="77"/>
+      <c r="D694" s="78"/>
     </row>
     <row r="695" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A695" s="78"/>
-      <c r="D695" s="79"/>
+      <c r="A695" s="77"/>
+      <c r="D695" s="78"/>
     </row>
     <row r="696" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A696" s="78"/>
-      <c r="D696" s="79"/>
+      <c r="A696" s="77"/>
+      <c r="D696" s="78"/>
     </row>
     <row r="697" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A697" s="78"/>
-      <c r="D697" s="79"/>
+      <c r="A697" s="77"/>
+      <c r="D697" s="78"/>
     </row>
     <row r="698" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A698" s="78"/>
-      <c r="D698" s="79"/>
+      <c r="A698" s="77"/>
+      <c r="D698" s="78"/>
     </row>
     <row r="699" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A699" s="78"/>
-      <c r="D699" s="79"/>
+      <c r="A699" s="77"/>
+      <c r="D699" s="78"/>
     </row>
     <row r="700" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A700" s="78"/>
-      <c r="D700" s="79"/>
+      <c r="A700" s="77"/>
+      <c r="D700" s="78"/>
     </row>
     <row r="701" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A701" s="78"/>
-      <c r="D701" s="79"/>
+      <c r="A701" s="77"/>
+      <c r="D701" s="78"/>
     </row>
     <row r="702" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A702" s="78"/>
-      <c r="D702" s="79"/>
+      <c r="A702" s="77"/>
+      <c r="D702" s="78"/>
     </row>
     <row r="703" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A703" s="78"/>
-      <c r="D703" s="79"/>
+      <c r="A703" s="77"/>
+      <c r="D703" s="78"/>
     </row>
     <row r="704" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A704" s="78"/>
-      <c r="D704" s="79"/>
+      <c r="A704" s="77"/>
+      <c r="D704" s="78"/>
     </row>
     <row r="705" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A705" s="78"/>
-      <c r="D705" s="79"/>
+      <c r="A705" s="77"/>
+      <c r="D705" s="78"/>
     </row>
     <row r="706" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A706" s="78"/>
-      <c r="D706" s="79"/>
+      <c r="A706" s="77"/>
+      <c r="D706" s="78"/>
     </row>
     <row r="707" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A707" s="78"/>
-      <c r="D707" s="79"/>
+      <c r="A707" s="77"/>
+      <c r="D707" s="78"/>
     </row>
     <row r="708" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A708" s="78"/>
-      <c r="D708" s="79"/>
+      <c r="A708" s="77"/>
+      <c r="D708" s="78"/>
     </row>
     <row r="709" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A709" s="78"/>
-      <c r="D709" s="79"/>
+      <c r="A709" s="77"/>
+      <c r="D709" s="78"/>
     </row>
     <row r="710" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A710" s="78"/>
-      <c r="D710" s="79"/>
+      <c r="A710" s="77"/>
+      <c r="D710" s="78"/>
     </row>
     <row r="711" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A711" s="78"/>
-      <c r="D711" s="79"/>
+      <c r="A711" s="77"/>
+      <c r="D711" s="78"/>
     </row>
     <row r="712" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A712" s="78"/>
-      <c r="D712" s="79"/>
+      <c r="A712" s="77"/>
+      <c r="D712" s="78"/>
     </row>
     <row r="713" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A713" s="78"/>
-      <c r="D713" s="79"/>
+      <c r="A713" s="77"/>
+      <c r="D713" s="78"/>
     </row>
     <row r="714" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A714" s="78"/>
-      <c r="D714" s="79"/>
+      <c r="A714" s="77"/>
+      <c r="D714" s="78"/>
     </row>
     <row r="715" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A715" s="78"/>
-      <c r="D715" s="79"/>
+      <c r="A715" s="77"/>
+      <c r="D715" s="78"/>
     </row>
     <row r="716" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A716" s="78"/>
-      <c r="D716" s="79"/>
+      <c r="A716" s="77"/>
+      <c r="D716" s="78"/>
     </row>
     <row r="717" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A717" s="78"/>
-      <c r="D717" s="79"/>
+      <c r="A717" s="77"/>
+      <c r="D717" s="78"/>
     </row>
     <row r="718" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A718" s="78"/>
-      <c r="D718" s="79"/>
+      <c r="A718" s="77"/>
+      <c r="D718" s="78"/>
     </row>
     <row r="719" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A719" s="78"/>
-      <c r="D719" s="79"/>
+      <c r="A719" s="77"/>
+      <c r="D719" s="78"/>
     </row>
     <row r="720" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A720" s="78"/>
-      <c r="D720" s="79"/>
+      <c r="A720" s="77"/>
+      <c r="D720" s="78"/>
     </row>
     <row r="721" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A721" s="78"/>
-      <c r="D721" s="79"/>
+      <c r="A721" s="77"/>
+      <c r="D721" s="78"/>
     </row>
     <row r="722" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A722" s="78"/>
-      <c r="D722" s="79"/>
+      <c r="A722" s="77"/>
+      <c r="D722" s="78"/>
     </row>
     <row r="723" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A723" s="78"/>
-      <c r="D723" s="79"/>
+      <c r="A723" s="77"/>
+      <c r="D723" s="78"/>
     </row>
     <row r="724" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A724" s="78"/>
-      <c r="D724" s="79"/>
+      <c r="A724" s="77"/>
+      <c r="D724" s="78"/>
     </row>
     <row r="725" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A725" s="78"/>
-      <c r="D725" s="79"/>
+      <c r="A725" s="77"/>
+      <c r="D725" s="78"/>
     </row>
     <row r="726" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A726" s="78"/>
-      <c r="D726" s="79"/>
+      <c r="A726" s="77"/>
+      <c r="D726" s="78"/>
     </row>
     <row r="727" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A727" s="78"/>
-      <c r="D727" s="79"/>
+      <c r="A727" s="77"/>
+      <c r="D727" s="78"/>
     </row>
     <row r="728" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A728" s="78"/>
-      <c r="D728" s="79"/>
+      <c r="A728" s="77"/>
+      <c r="D728" s="78"/>
     </row>
     <row r="729" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A729" s="78"/>
-      <c r="D729" s="79"/>
+      <c r="A729" s="77"/>
+      <c r="D729" s="78"/>
     </row>
     <row r="730" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A730" s="78"/>
-      <c r="D730" s="79"/>
+      <c r="A730" s="77"/>
+      <c r="D730" s="78"/>
     </row>
     <row r="731" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A731" s="78"/>
-      <c r="D731" s="79"/>
+      <c r="A731" s="77"/>
+      <c r="D731" s="78"/>
     </row>
     <row r="732" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A732" s="78"/>
-      <c r="D732" s="79"/>
+      <c r="A732" s="77"/>
+      <c r="D732" s="78"/>
     </row>
     <row r="733" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A733" s="78"/>
-      <c r="D733" s="79"/>
+      <c r="A733" s="77"/>
+      <c r="D733" s="78"/>
     </row>
     <row r="734" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A734" s="78"/>
-      <c r="D734" s="79"/>
+      <c r="A734" s="77"/>
+      <c r="D734" s="78"/>
     </row>
     <row r="735" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A735" s="78"/>
-      <c r="D735" s="79"/>
+      <c r="A735" s="77"/>
+      <c r="D735" s="78"/>
     </row>
     <row r="736" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A736" s="78"/>
-      <c r="D736" s="79"/>
+      <c r="A736" s="77"/>
+      <c r="D736" s="78"/>
     </row>
     <row r="737" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A737" s="78"/>
-      <c r="D737" s="79"/>
+      <c r="A737" s="77"/>
+      <c r="D737" s="78"/>
     </row>
     <row r="738" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A738" s="78"/>
-      <c r="D738" s="79"/>
+      <c r="A738" s="77"/>
+      <c r="D738" s="78"/>
     </row>
     <row r="739" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A739" s="78"/>
-      <c r="D739" s="79"/>
+      <c r="A739" s="77"/>
+      <c r="D739" s="78"/>
     </row>
     <row r="740" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A740" s="78"/>
-      <c r="D740" s="79"/>
+      <c r="A740" s="77"/>
+      <c r="D740" s="78"/>
     </row>
     <row r="741" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A741" s="78"/>
-      <c r="D741" s="79"/>
+      <c r="A741" s="77"/>
+      <c r="D741" s="78"/>
     </row>
     <row r="742" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A742" s="78"/>
-      <c r="D742" s="79"/>
+      <c r="A742" s="77"/>
+      <c r="D742" s="78"/>
     </row>
     <row r="743" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A743" s="78"/>
-      <c r="D743" s="79"/>
+      <c r="A743" s="77"/>
+      <c r="D743" s="78"/>
     </row>
     <row r="744" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A744" s="78"/>
-      <c r="D744" s="79"/>
+      <c r="A744" s="77"/>
+      <c r="D744" s="78"/>
     </row>
     <row r="745" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A745" s="78"/>
-      <c r="D745" s="79"/>
+      <c r="A745" s="77"/>
+      <c r="D745" s="78"/>
     </row>
     <row r="746" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A746" s="78"/>
-      <c r="D746" s="79"/>
+      <c r="A746" s="77"/>
+      <c r="D746" s="78"/>
     </row>
     <row r="747" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A747" s="78"/>
-      <c r="D747" s="79"/>
+      <c r="A747" s="77"/>
+      <c r="D747" s="78"/>
     </row>
     <row r="748" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A748" s="78"/>
-      <c r="D748" s="79"/>
+      <c r="A748" s="77"/>
+      <c r="D748" s="78"/>
     </row>
     <row r="749" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A749" s="78"/>
-      <c r="D749" s="79"/>
+      <c r="A749" s="77"/>
+      <c r="D749" s="78"/>
     </row>
     <row r="750" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A750" s="78"/>
-      <c r="D750" s="79"/>
+      <c r="A750" s="77"/>
+      <c r="D750" s="78"/>
     </row>
     <row r="751" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A751" s="78"/>
-      <c r="D751" s="79"/>
+      <c r="A751" s="77"/>
+      <c r="D751" s="78"/>
     </row>
     <row r="752" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A752" s="78"/>
-      <c r="D752" s="79"/>
+      <c r="A752" s="77"/>
+      <c r="D752" s="78"/>
     </row>
     <row r="753" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A753" s="78"/>
-      <c r="D753" s="79"/>
+      <c r="A753" s="77"/>
+      <c r="D753" s="78"/>
     </row>
     <row r="754" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A754" s="78"/>
-      <c r="D754" s="79"/>
+      <c r="A754" s="77"/>
+      <c r="D754" s="78"/>
     </row>
     <row r="755" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A755" s="78"/>
-      <c r="D755" s="79"/>
+      <c r="A755" s="77"/>
+      <c r="D755" s="78"/>
     </row>
     <row r="756" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A756" s="78"/>
-      <c r="D756" s="79"/>
+      <c r="A756" s="77"/>
+      <c r="D756" s="78"/>
     </row>
     <row r="757" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A757" s="78"/>
-      <c r="D757" s="79"/>
+      <c r="A757" s="77"/>
+      <c r="D757" s="78"/>
     </row>
     <row r="758" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A758" s="78"/>
-      <c r="D758" s="79"/>
+      <c r="A758" s="77"/>
+      <c r="D758" s="78"/>
     </row>
     <row r="759" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A759" s="78"/>
-      <c r="D759" s="79"/>
+      <c r="A759" s="77"/>
+      <c r="D759" s="78"/>
     </row>
     <row r="760" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A760" s="78"/>
-      <c r="D760" s="79"/>
+      <c r="A760" s="77"/>
+      <c r="D760" s="78"/>
     </row>
     <row r="761" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A761" s="78"/>
-      <c r="D761" s="79"/>
+      <c r="A761" s="77"/>
+      <c r="D761" s="78"/>
     </row>
     <row r="762" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A762" s="78"/>
-      <c r="D762" s="79"/>
+      <c r="A762" s="77"/>
+      <c r="D762" s="78"/>
     </row>
     <row r="763" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A763" s="78"/>
-      <c r="D763" s="79"/>
+      <c r="A763" s="77"/>
+      <c r="D763" s="78"/>
     </row>
     <row r="764" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A764" s="78"/>
-      <c r="D764" s="79"/>
+      <c r="A764" s="77"/>
+      <c r="D764" s="78"/>
     </row>
     <row r="765" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A765" s="78"/>
-      <c r="D765" s="79"/>
+      <c r="A765" s="77"/>
+      <c r="D765" s="78"/>
     </row>
     <row r="766" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A766" s="78"/>
-      <c r="D766" s="79"/>
+      <c r="A766" s="77"/>
+      <c r="D766" s="78"/>
     </row>
     <row r="767" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A767" s="78"/>
-      <c r="D767" s="79"/>
+      <c r="A767" s="77"/>
+      <c r="D767" s="78"/>
     </row>
     <row r="768" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A768" s="78"/>
-      <c r="D768" s="79"/>
+      <c r="A768" s="77"/>
+      <c r="D768" s="78"/>
     </row>
     <row r="769" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A769" s="78"/>
-      <c r="D769" s="79"/>
+      <c r="A769" s="77"/>
+      <c r="D769" s="78"/>
     </row>
     <row r="770" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A770" s="78"/>
-      <c r="D770" s="79"/>
+      <c r="A770" s="77"/>
+      <c r="D770" s="78"/>
     </row>
     <row r="771" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A771" s="78"/>
-      <c r="D771" s="79"/>
+      <c r="A771" s="77"/>
+      <c r="D771" s="78"/>
     </row>
     <row r="772" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A772" s="78"/>
-      <c r="D772" s="79"/>
+      <c r="A772" s="77"/>
+      <c r="D772" s="78"/>
     </row>
     <row r="773" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A773" s="78"/>
-      <c r="D773" s="79"/>
+      <c r="A773" s="77"/>
+      <c r="D773" s="78"/>
     </row>
     <row r="774" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A774" s="78"/>
-      <c r="D774" s="79"/>
+      <c r="A774" s="77"/>
+      <c r="D774" s="78"/>
     </row>
     <row r="775" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A775" s="78"/>
-      <c r="D775" s="79"/>
+      <c r="A775" s="77"/>
+      <c r="D775" s="78"/>
     </row>
     <row r="776" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A776" s="78"/>
-      <c r="D776" s="79"/>
+      <c r="A776" s="77"/>
+      <c r="D776" s="78"/>
     </row>
     <row r="777" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A777" s="78"/>
-      <c r="D777" s="79"/>
+      <c r="A777" s="77"/>
+      <c r="D777" s="78"/>
     </row>
     <row r="778" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A778" s="78"/>
-      <c r="D778" s="79"/>
+      <c r="A778" s="77"/>
+      <c r="D778" s="78"/>
     </row>
     <row r="779" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A779" s="78"/>
-      <c r="D779" s="79"/>
+      <c r="A779" s="77"/>
+      <c r="D779" s="78"/>
     </row>
     <row r="780" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A780" s="78"/>
-      <c r="D780" s="79"/>
+      <c r="A780" s="77"/>
+      <c r="D780" s="78"/>
     </row>
     <row r="781" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A781" s="78"/>
-      <c r="D781" s="79"/>
+      <c r="A781" s="77"/>
+      <c r="D781" s="78"/>
     </row>
     <row r="782" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A782" s="78"/>
-      <c r="D782" s="79"/>
+      <c r="A782" s="77"/>
+      <c r="D782" s="78"/>
     </row>
     <row r="783" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A783" s="78"/>
-      <c r="D783" s="79"/>
+      <c r="A783" s="77"/>
+      <c r="D783" s="78"/>
     </row>
     <row r="784" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A784" s="78"/>
-      <c r="D784" s="79"/>
+      <c r="A784" s="77"/>
+      <c r="D784" s="78"/>
     </row>
     <row r="785" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A785" s="78"/>
-      <c r="D785" s="79"/>
+      <c r="A785" s="77"/>
+      <c r="D785" s="78"/>
     </row>
     <row r="786" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A786" s="78"/>
-      <c r="D786" s="79"/>
+      <c r="A786" s="77"/>
+      <c r="D786" s="78"/>
     </row>
     <row r="787" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A787" s="78"/>
-      <c r="D787" s="79"/>
+      <c r="A787" s="77"/>
+      <c r="D787" s="78"/>
     </row>
     <row r="788" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A788" s="78"/>
-      <c r="D788" s="79"/>
+      <c r="A788" s="77"/>
+      <c r="D788" s="78"/>
     </row>
     <row r="789" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A789" s="78"/>
-      <c r="D789" s="79"/>
+      <c r="A789" s="77"/>
+      <c r="D789" s="78"/>
     </row>
     <row r="790" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A790" s="78"/>
-      <c r="D790" s="79"/>
+      <c r="A790" s="77"/>
+      <c r="D790" s="78"/>
     </row>
     <row r="791" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A791" s="78"/>
-      <c r="D791" s="79"/>
+      <c r="A791" s="77"/>
+      <c r="D791" s="78"/>
     </row>
     <row r="792" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A792" s="78"/>
-      <c r="D792" s="79"/>
+      <c r="A792" s="77"/>
+      <c r="D792" s="78"/>
     </row>
     <row r="793" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A793" s="78"/>
-      <c r="D793" s="79"/>
+      <c r="A793" s="77"/>
+      <c r="D793" s="78"/>
     </row>
     <row r="794" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A794" s="78"/>
-      <c r="D794" s="79"/>
+      <c r="A794" s="77"/>
+      <c r="D794" s="78"/>
     </row>
     <row r="795" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A795" s="78"/>
-      <c r="D795" s="79"/>
+      <c r="A795" s="77"/>
+      <c r="D795" s="78"/>
     </row>
     <row r="796" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A796" s="78"/>
-      <c r="D796" s="79"/>
+      <c r="A796" s="77"/>
+      <c r="D796" s="78"/>
     </row>
     <row r="797" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A797" s="78"/>
-      <c r="D797" s="79"/>
+      <c r="A797" s="77"/>
+      <c r="D797" s="78"/>
     </row>
     <row r="798" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A798" s="78"/>
-      <c r="D798" s="79"/>
+      <c r="A798" s="77"/>
+      <c r="D798" s="78"/>
     </row>
     <row r="799" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A799" s="78"/>
-      <c r="D799" s="79"/>
+      <c r="A799" s="77"/>
+      <c r="D799" s="78"/>
     </row>
     <row r="800" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A800" s="78"/>
-      <c r="D800" s="79"/>
+      <c r="A800" s="77"/>
+      <c r="D800" s="78"/>
     </row>
     <row r="801" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A801" s="78"/>
-      <c r="D801" s="79"/>
+      <c r="A801" s="77"/>
+      <c r="D801" s="78"/>
     </row>
     <row r="802" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A802" s="78"/>
-      <c r="D802" s="79"/>
+      <c r="A802" s="77"/>
+      <c r="D802" s="78"/>
     </row>
     <row r="803" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A803" s="78"/>
-      <c r="D803" s="79"/>
+      <c r="A803" s="77"/>
+      <c r="D803" s="78"/>
     </row>
     <row r="804" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A804" s="78"/>
-      <c r="D804" s="79"/>
+      <c r="A804" s="77"/>
+      <c r="D804" s="78"/>
     </row>
     <row r="805" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A805" s="78"/>
-      <c r="D805" s="79"/>
+      <c r="A805" s="77"/>
+      <c r="D805" s="78"/>
     </row>
     <row r="806" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A806" s="78"/>
-      <c r="D806" s="79"/>
+      <c r="A806" s="77"/>
+      <c r="D806" s="78"/>
     </row>
     <row r="807" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A807" s="78"/>
-      <c r="D807" s="79"/>
+      <c r="A807" s="77"/>
+      <c r="D807" s="78"/>
     </row>
     <row r="808" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A808" s="78"/>
-      <c r="D808" s="79"/>
+      <c r="A808" s="77"/>
+      <c r="D808" s="78"/>
     </row>
     <row r="809" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A809" s="78"/>
-      <c r="D809" s="79"/>
+      <c r="A809" s="77"/>
+      <c r="D809" s="78"/>
     </row>
     <row r="810" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A810" s="78"/>
-      <c r="D810" s="79"/>
+      <c r="A810" s="77"/>
+      <c r="D810" s="78"/>
     </row>
     <row r="811" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A811" s="78"/>
-      <c r="D811" s="79"/>
+      <c r="A811" s="77"/>
+      <c r="D811" s="78"/>
     </row>
     <row r="812" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A812" s="78"/>
-      <c r="D812" s="79"/>
+      <c r="A812" s="77"/>
+      <c r="D812" s="78"/>
     </row>
     <row r="813" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A813" s="78"/>
-      <c r="D813" s="79"/>
+      <c r="A813" s="77"/>
+      <c r="D813" s="78"/>
     </row>
     <row r="814" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A814" s="78"/>
-      <c r="D814" s="79"/>
+      <c r="A814" s="77"/>
+      <c r="D814" s="78"/>
     </row>
     <row r="815" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A815" s="78"/>
-      <c r="D815" s="79"/>
+      <c r="A815" s="77"/>
+      <c r="D815" s="78"/>
     </row>
     <row r="816" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A816" s="78"/>
-      <c r="D816" s="79"/>
+      <c r="A816" s="77"/>
+      <c r="D816" s="78"/>
     </row>
     <row r="817" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A817" s="78"/>
-      <c r="D817" s="79"/>
+      <c r="A817" s="77"/>
+      <c r="D817" s="78"/>
     </row>
     <row r="818" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A818" s="78"/>
-      <c r="D818" s="79"/>
+      <c r="A818" s="77"/>
+      <c r="D818" s="78"/>
     </row>
     <row r="819" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A819" s="78"/>
-      <c r="D819" s="79"/>
+      <c r="A819" s="77"/>
+      <c r="D819" s="78"/>
     </row>
     <row r="820" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A820" s="78"/>
-      <c r="D820" s="79"/>
+      <c r="A820" s="77"/>
+      <c r="D820" s="78"/>
     </row>
     <row r="821" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A821" s="78"/>
-      <c r="D821" s="79"/>
+      <c r="A821" s="77"/>
+      <c r="D821" s="78"/>
     </row>
     <row r="822" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A822" s="78"/>
-      <c r="D822" s="79"/>
+      <c r="A822" s="77"/>
+      <c r="D822" s="78"/>
     </row>
     <row r="823" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A823" s="78"/>
-      <c r="D823" s="79"/>
+      <c r="A823" s="77"/>
+      <c r="D823" s="78"/>
     </row>
     <row r="824" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A824" s="78"/>
-      <c r="D824" s="79"/>
+      <c r="A824" s="77"/>
+      <c r="D824" s="78"/>
     </row>
     <row r="825" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A825" s="78"/>
-      <c r="D825" s="79"/>
+      <c r="A825" s="77"/>
+      <c r="D825" s="78"/>
     </row>
     <row r="826" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A826" s="78"/>
-      <c r="D826" s="79"/>
+      <c r="A826" s="77"/>
+      <c r="D826" s="78"/>
     </row>
     <row r="827" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A827" s="78"/>
-      <c r="D827" s="79"/>
+      <c r="A827" s="77"/>
+      <c r="D827" s="78"/>
     </row>
     <row r="828" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A828" s="78"/>
-      <c r="D828" s="79"/>
+      <c r="A828" s="77"/>
+      <c r="D828" s="78"/>
     </row>
     <row r="829" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A829" s="78"/>
-      <c r="D829" s="79"/>
+      <c r="A829" s="77"/>
+      <c r="D829" s="78"/>
     </row>
     <row r="830" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A830" s="78"/>
-      <c r="D830" s="79"/>
+      <c r="A830" s="77"/>
+      <c r="D830" s="78"/>
     </row>
     <row r="831" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A831" s="78"/>
-      <c r="D831" s="79"/>
+      <c r="A831" s="77"/>
+      <c r="D831" s="78"/>
     </row>
     <row r="832" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A832" s="78"/>
-      <c r="D832" s="79"/>
+      <c r="A832" s="77"/>
+      <c r="D832" s="78"/>
     </row>
     <row r="833" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A833" s="78"/>
-      <c r="D833" s="79"/>
+      <c r="A833" s="77"/>
+      <c r="D833" s="78"/>
     </row>
     <row r="834" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A834" s="78"/>
-      <c r="D834" s="79"/>
+      <c r="A834" s="77"/>
+      <c r="D834" s="78"/>
     </row>
     <row r="835" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A835" s="78"/>
-      <c r="D835" s="79"/>
+      <c r="A835" s="77"/>
+      <c r="D835" s="78"/>
     </row>
     <row r="836" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A836" s="78"/>
-      <c r="D836" s="79"/>
+      <c r="A836" s="77"/>
+      <c r="D836" s="78"/>
     </row>
     <row r="837" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A837" s="78"/>
-      <c r="D837" s="79"/>
+      <c r="A837" s="77"/>
+      <c r="D837" s="78"/>
     </row>
     <row r="838" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A838" s="78"/>
-      <c r="D838" s="79"/>
+      <c r="A838" s="77"/>
+      <c r="D838" s="78"/>
     </row>
     <row r="839" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A839" s="78"/>
-      <c r="D839" s="79"/>
+      <c r="A839" s="77"/>
+      <c r="D839" s="78"/>
     </row>
     <row r="840" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A840" s="78"/>
-      <c r="D840" s="79"/>
+      <c r="A840" s="77"/>
+      <c r="D840" s="78"/>
     </row>
     <row r="841" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A841" s="78"/>
-      <c r="D841" s="79"/>
+      <c r="A841" s="77"/>
+      <c r="D841" s="78"/>
     </row>
     <row r="842" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A842" s="78"/>
-      <c r="D842" s="79"/>
+      <c r="A842" s="77"/>
+      <c r="D842" s="78"/>
     </row>
     <row r="843" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A843" s="78"/>
-      <c r="D843" s="79"/>
+      <c r="A843" s="77"/>
+      <c r="D843" s="78"/>
     </row>
     <row r="844" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A844" s="78"/>
-      <c r="D844" s="79"/>
+      <c r="A844" s="77"/>
+      <c r="D844" s="78"/>
     </row>
     <row r="845" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A845" s="78"/>
-      <c r="D845" s="79"/>
+      <c r="A845" s="77"/>
+      <c r="D845" s="78"/>
     </row>
     <row r="846" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A846" s="78"/>
-      <c r="D846" s="79"/>
+      <c r="A846" s="77"/>
+      <c r="D846" s="78"/>
     </row>
     <row r="847" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A847" s="78"/>
-      <c r="D847" s="79"/>
+      <c r="A847" s="77"/>
+      <c r="D847" s="78"/>
     </row>
     <row r="848" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A848" s="78"/>
-      <c r="D848" s="79"/>
+      <c r="A848" s="77"/>
+      <c r="D848" s="78"/>
     </row>
     <row r="849" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A849" s="78"/>
-      <c r="D849" s="79"/>
+      <c r="A849" s="77"/>
+      <c r="D849" s="78"/>
     </row>
     <row r="850" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A850" s="78"/>
-      <c r="D850" s="79"/>
+      <c r="A850" s="77"/>
+      <c r="D850" s="78"/>
     </row>
     <row r="851" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A851" s="78"/>
-      <c r="D851" s="79"/>
+      <c r="A851" s="77"/>
+      <c r="D851" s="78"/>
     </row>
     <row r="852" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A852" s="78"/>
-      <c r="D852" s="79"/>
+      <c r="A852" s="77"/>
+      <c r="D852" s="78"/>
     </row>
     <row r="853" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A853" s="78"/>
-      <c r="D853" s="79"/>
+      <c r="A853" s="77"/>
+      <c r="D853" s="78"/>
     </row>
     <row r="854" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A854" s="78"/>
-      <c r="D854" s="79"/>
+      <c r="A854" s="77"/>
+      <c r="D854" s="78"/>
     </row>
     <row r="855" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A855" s="78"/>
-      <c r="D855" s="79"/>
+      <c r="A855" s="77"/>
+      <c r="D855" s="78"/>
     </row>
     <row r="856" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A856" s="78"/>
-      <c r="D856" s="79"/>
+      <c r="A856" s="77"/>
+      <c r="D856" s="78"/>
     </row>
     <row r="857" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A857" s="78"/>
-      <c r="D857" s="79"/>
+      <c r="A857" s="77"/>
+      <c r="D857" s="78"/>
     </row>
     <row r="858" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A858" s="78"/>
-      <c r="D858" s="79"/>
+      <c r="A858" s="77"/>
+      <c r="D858" s="78"/>
     </row>
     <row r="859" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A859" s="78"/>
-      <c r="D859" s="79"/>
+      <c r="A859" s="77"/>
+      <c r="D859" s="78"/>
     </row>
     <row r="860" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A860" s="78"/>
-      <c r="D860" s="79"/>
+      <c r="A860" s="77"/>
+      <c r="D860" s="78"/>
     </row>
     <row r="861" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A861" s="78"/>
-      <c r="D861" s="79"/>
+      <c r="A861" s="77"/>
+      <c r="D861" s="78"/>
     </row>
     <row r="862" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A862" s="78"/>
-      <c r="D862" s="79"/>
+      <c r="A862" s="77"/>
+      <c r="D862" s="78"/>
     </row>
     <row r="863" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A863" s="78"/>
-      <c r="D863" s="79"/>
+      <c r="A863" s="77"/>
+      <c r="D863" s="78"/>
     </row>
     <row r="864" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A864" s="78"/>
-      <c r="D864" s="79"/>
+      <c r="A864" s="77"/>
+      <c r="D864" s="78"/>
     </row>
     <row r="865" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A865" s="78"/>
-      <c r="D865" s="79"/>
+      <c r="A865" s="77"/>
+      <c r="D865" s="78"/>
     </row>
     <row r="866" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A866" s="78"/>
-      <c r="D866" s="79"/>
+      <c r="A866" s="77"/>
+      <c r="D866" s="78"/>
     </row>
     <row r="867" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A867" s="78"/>
-      <c r="D867" s="79"/>
+      <c r="A867" s="77"/>
+      <c r="D867" s="78"/>
     </row>
     <row r="868" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A868" s="78"/>
-      <c r="D868" s="79"/>
+      <c r="A868" s="77"/>
+      <c r="D868" s="78"/>
     </row>
     <row r="869" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A869" s="78"/>
-      <c r="D869" s="79"/>
+      <c r="A869" s="77"/>
+      <c r="D869" s="78"/>
     </row>
     <row r="870" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A870" s="78"/>
-      <c r="D870" s="79"/>
+      <c r="A870" s="77"/>
+      <c r="D870" s="78"/>
     </row>
     <row r="871" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A871" s="78"/>
-      <c r="D871" s="79"/>
+      <c r="A871" s="77"/>
+      <c r="D871" s="78"/>
     </row>
     <row r="872" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A872" s="78"/>
-      <c r="D872" s="79"/>
+      <c r="A872" s="77"/>
+      <c r="D872" s="78"/>
     </row>
     <row r="873" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A873" s="78"/>
-      <c r="D873" s="79"/>
+      <c r="A873" s="77"/>
+      <c r="D873" s="78"/>
     </row>
     <row r="874" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A874" s="78"/>
-      <c r="D874" s="79"/>
+      <c r="A874" s="77"/>
+      <c r="D874" s="78"/>
     </row>
     <row r="875" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A875" s="78"/>
-      <c r="D875" s="79"/>
+      <c r="A875" s="77"/>
+      <c r="D875" s="78"/>
     </row>
     <row r="876" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A876" s="78"/>
-      <c r="D876" s="79"/>
+      <c r="A876" s="77"/>
+      <c r="D876" s="78"/>
     </row>
     <row r="877" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A877" s="78"/>
-      <c r="D877" s="79"/>
+      <c r="A877" s="77"/>
+      <c r="D877" s="78"/>
     </row>
     <row r="878" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A878" s="78"/>
-      <c r="D878" s="79"/>
+      <c r="A878" s="77"/>
+      <c r="D878" s="78"/>
     </row>
     <row r="879" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A879" s="78"/>
-      <c r="D879" s="79"/>
+      <c r="A879" s="77"/>
+      <c r="D879" s="78"/>
     </row>
     <row r="880" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A880" s="78"/>
-      <c r="D880" s="79"/>
+      <c r="A880" s="77"/>
+      <c r="D880" s="78"/>
     </row>
     <row r="881" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A881" s="78"/>
-      <c r="D881" s="79"/>
+      <c r="A881" s="77"/>
+      <c r="D881" s="78"/>
     </row>
     <row r="882" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A882" s="78"/>
-      <c r="D882" s="79"/>
+      <c r="A882" s="77"/>
+      <c r="D882" s="78"/>
     </row>
     <row r="883" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A883" s="78"/>
-      <c r="D883" s="79"/>
+      <c r="A883" s="77"/>
+      <c r="D883" s="78"/>
     </row>
     <row r="884" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A884" s="78"/>
-      <c r="D884" s="79"/>
+      <c r="A884" s="77"/>
+      <c r="D884" s="78"/>
     </row>
     <row r="885" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A885" s="78"/>
-      <c r="D885" s="79"/>
+      <c r="A885" s="77"/>
+      <c r="D885" s="78"/>
     </row>
     <row r="886" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A886" s="78"/>
-      <c r="D886" s="79"/>
+      <c r="A886" s="77"/>
+      <c r="D886" s="78"/>
     </row>
     <row r="887" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A887" s="78"/>
-      <c r="D887" s="79"/>
+      <c r="A887" s="77"/>
+      <c r="D887" s="78"/>
     </row>
     <row r="888" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A888" s="78"/>
-      <c r="D888" s="79"/>
+      <c r="A888" s="77"/>
+      <c r="D888" s="78"/>
     </row>
     <row r="889" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A889" s="78"/>
-      <c r="D889" s="79"/>
+      <c r="A889" s="77"/>
+      <c r="D889" s="78"/>
     </row>
     <row r="890" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A890" s="78"/>
-      <c r="D890" s="79"/>
+      <c r="A890" s="77"/>
+      <c r="D890" s="78"/>
     </row>
     <row r="891" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A891" s="78"/>
-      <c r="D891" s="79"/>
+      <c r="A891" s="77"/>
+      <c r="D891" s="78"/>
     </row>
     <row r="892" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A892" s="78"/>
-      <c r="D892" s="79"/>
+      <c r="A892" s="77"/>
+      <c r="D892" s="78"/>
     </row>
     <row r="893" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A893" s="78"/>
-      <c r="D893" s="79"/>
+      <c r="A893" s="77"/>
+      <c r="D893" s="78"/>
     </row>
     <row r="894" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A894" s="78"/>
-      <c r="D894" s="79"/>
+      <c r="A894" s="77"/>
+      <c r="D894" s="78"/>
     </row>
     <row r="895" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A895" s="78"/>
-      <c r="D895" s="79"/>
+      <c r="A895" s="77"/>
+      <c r="D895" s="78"/>
     </row>
     <row r="896" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A896" s="78"/>
-      <c r="D896" s="79"/>
+      <c r="A896" s="77"/>
+      <c r="D896" s="78"/>
     </row>
     <row r="897" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A897" s="78"/>
-      <c r="D897" s="79"/>
+      <c r="A897" s="77"/>
+      <c r="D897" s="78"/>
     </row>
     <row r="898" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A898" s="78"/>
-      <c r="D898" s="79"/>
+      <c r="A898" s="77"/>
+      <c r="D898" s="78"/>
     </row>
     <row r="899" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A899" s="78"/>
-      <c r="D899" s="79"/>
+      <c r="A899" s="77"/>
+      <c r="D899" s="78"/>
     </row>
     <row r="900" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A900" s="78"/>
-      <c r="D900" s="79"/>
+      <c r="A900" s="77"/>
+      <c r="D900" s="78"/>
     </row>
     <row r="901" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A901" s="78"/>
-      <c r="D901" s="79"/>
+      <c r="A901" s="77"/>
+      <c r="D901" s="78"/>
     </row>
     <row r="902" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A902" s="78"/>
-      <c r="D902" s="79"/>
+      <c r="A902" s="77"/>
+      <c r="D902" s="78"/>
     </row>
     <row r="903" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A903" s="78"/>
-      <c r="D903" s="79"/>
+      <c r="A903" s="77"/>
+      <c r="D903" s="78"/>
     </row>
     <row r="904" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A904" s="78"/>
-      <c r="D904" s="79"/>
+      <c r="A904" s="77"/>
+      <c r="D904" s="78"/>
     </row>
     <row r="905" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A905" s="78"/>
-      <c r="D905" s="79"/>
+      <c r="A905" s="77"/>
+      <c r="D905" s="78"/>
     </row>
     <row r="906" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A906" s="78"/>
-      <c r="D906" s="79"/>
+      <c r="A906" s="77"/>
+      <c r="D906" s="78"/>
     </row>
     <row r="907" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A907" s="78"/>
-      <c r="D907" s="79"/>
+      <c r="A907" s="77"/>
+      <c r="D907" s="78"/>
     </row>
     <row r="908" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A908" s="78"/>
-      <c r="D908" s="79"/>
+      <c r="A908" s="77"/>
+      <c r="D908" s="78"/>
     </row>
     <row r="909" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A909" s="78"/>
-      <c r="D909" s="79"/>
+      <c r="A909" s="77"/>
+      <c r="D909" s="78"/>
     </row>
     <row r="910" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A910" s="78"/>
-      <c r="D910" s="79"/>
+      <c r="A910" s="77"/>
+      <c r="D910" s="78"/>
     </row>
     <row r="911" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A911" s="78"/>
-      <c r="D911" s="79"/>
+      <c r="A911" s="77"/>
+      <c r="D911" s="78"/>
     </row>
     <row r="912" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A912" s="78"/>
-      <c r="D912" s="79"/>
+      <c r="A912" s="77"/>
+      <c r="D912" s="78"/>
     </row>
     <row r="913" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A913" s="78"/>
-      <c r="D913" s="79"/>
+      <c r="A913" s="77"/>
+      <c r="D913" s="78"/>
     </row>
     <row r="914" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A914" s="78"/>
-      <c r="D914" s="79"/>
+      <c r="A914" s="77"/>
+      <c r="D914" s="78"/>
     </row>
     <row r="915" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A915" s="78"/>
-      <c r="D915" s="79"/>
+      <c r="A915" s="77"/>
+      <c r="D915" s="78"/>
     </row>
     <row r="916" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A916" s="78"/>
-      <c r="D916" s="79"/>
+      <c r="A916" s="77"/>
+      <c r="D916" s="78"/>
     </row>
     <row r="917" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A917" s="78"/>
-      <c r="D917" s="79"/>
+      <c r="A917" s="77"/>
+      <c r="D917" s="78"/>
     </row>
     <row r="918" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A918" s="78"/>
-      <c r="D918" s="79"/>
+      <c r="A918" s="77"/>
+      <c r="D918" s="78"/>
     </row>
     <row r="919" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A919" s="78"/>
-      <c r="D919" s="79"/>
+      <c r="A919" s="77"/>
+      <c r="D919" s="78"/>
     </row>
     <row r="920" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A920" s="78"/>
-      <c r="D920" s="79"/>
+      <c r="A920" s="77"/>
+      <c r="D920" s="78"/>
     </row>
     <row r="921" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A921" s="78"/>
-      <c r="D921" s="79"/>
+      <c r="A921" s="77"/>
+      <c r="D921" s="78"/>
     </row>
     <row r="922" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A922" s="78"/>
-      <c r="D922" s="79"/>
+      <c r="A922" s="77"/>
+      <c r="D922" s="78"/>
     </row>
     <row r="923" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A923" s="78"/>
-      <c r="D923" s="79"/>
+      <c r="A923" s="77"/>
+      <c r="D923" s="78"/>
     </row>
     <row r="924" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A924" s="78"/>
-      <c r="D924" s="79"/>
+      <c r="A924" s="77"/>
+      <c r="D924" s="78"/>
     </row>
     <row r="925" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A925" s="78"/>
-      <c r="D925" s="79"/>
+      <c r="A925" s="77"/>
+      <c r="D925" s="78"/>
     </row>
     <row r="926" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A926" s="78"/>
-      <c r="D926" s="79"/>
+      <c r="A926" s="77"/>
+      <c r="D926" s="78"/>
     </row>
     <row r="927" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A927" s="78"/>
-      <c r="D927" s="79"/>
+      <c r="A927" s="77"/>
+      <c r="D927" s="78"/>
     </row>
     <row r="928" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A928" s="78"/>
-      <c r="D928" s="79"/>
+      <c r="A928" s="77"/>
+      <c r="D928" s="78"/>
     </row>
     <row r="929" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A929" s="78"/>
-      <c r="D929" s="79"/>
+      <c r="A929" s="77"/>
+      <c r="D929" s="78"/>
     </row>
     <row r="930" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A930" s="78"/>
-      <c r="D930" s="79"/>
+      <c r="A930" s="77"/>
+      <c r="D930" s="78"/>
     </row>
     <row r="931" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A931" s="78"/>
-      <c r="D931" s="79"/>
+      <c r="A931" s="77"/>
+      <c r="D931" s="78"/>
     </row>
     <row r="932" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A932" s="78"/>
-      <c r="D932" s="79"/>
+      <c r="A932" s="77"/>
+      <c r="D932" s="78"/>
     </row>
     <row r="933" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A933" s="78"/>
-      <c r="D933" s="79"/>
+      <c r="A933" s="77"/>
+      <c r="D933" s="78"/>
     </row>
     <row r="934" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A934" s="78"/>
-      <c r="D934" s="79"/>
+      <c r="A934" s="77"/>
+      <c r="D934" s="78"/>
     </row>
     <row r="935" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A935" s="78"/>
-      <c r="D935" s="79"/>
+      <c r="A935" s="77"/>
+      <c r="D935" s="78"/>
     </row>
     <row r="936" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A936" s="78"/>
-      <c r="D936" s="79"/>
+      <c r="A936" s="77"/>
+      <c r="D936" s="78"/>
     </row>
     <row r="937" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A937" s="78"/>
-      <c r="D937" s="79"/>
+      <c r="A937" s="77"/>
+      <c r="D937" s="78"/>
     </row>
     <row r="938" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A938" s="78"/>
-      <c r="D938" s="79"/>
+      <c r="A938" s="77"/>
+      <c r="D938" s="78"/>
     </row>
     <row r="939" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A939" s="78"/>
-      <c r="D939" s="79"/>
+      <c r="A939" s="77"/>
+      <c r="D939" s="78"/>
     </row>
     <row r="940" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A940" s="78"/>
-      <c r="D940" s="79"/>
+      <c r="A940" s="77"/>
+      <c r="D940" s="78"/>
     </row>
     <row r="941" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A941" s="78"/>
-      <c r="D941" s="79"/>
+      <c r="A941" s="77"/>
+      <c r="D941" s="78"/>
     </row>
     <row r="942" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A942" s="78"/>
-      <c r="D942" s="79"/>
+      <c r="A942" s="77"/>
+      <c r="D942" s="78"/>
     </row>
     <row r="943" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A943" s="78"/>
-      <c r="D943" s="79"/>
+      <c r="A943" s="77"/>
+      <c r="D943" s="78"/>
     </row>
     <row r="944" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A944" s="78"/>
-      <c r="D944" s="79"/>
+      <c r="A944" s="77"/>
+      <c r="D944" s="78"/>
     </row>
     <row r="945" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A945" s="78"/>
-      <c r="D945" s="79"/>
+      <c r="A945" s="77"/>
+      <c r="D945" s="78"/>
     </row>
     <row r="946" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A946" s="78"/>
-      <c r="D946" s="79"/>
+      <c r="A946" s="77"/>
+      <c r="D946" s="78"/>
     </row>
     <row r="947" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A947" s="78"/>
-      <c r="D947" s="79"/>
+      <c r="A947" s="77"/>
+      <c r="D947" s="78"/>
     </row>
     <row r="948" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A948" s="78"/>
-      <c r="D948" s="79"/>
+      <c r="A948" s="77"/>
+      <c r="D948" s="78"/>
     </row>
     <row r="949" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A949" s="78"/>
-      <c r="D949" s="79"/>
+      <c r="A949" s="77"/>
+      <c r="D949" s="78"/>
     </row>
     <row r="950" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A950" s="78"/>
-      <c r="D950" s="79"/>
+      <c r="A950" s="77"/>
+      <c r="D950" s="78"/>
     </row>
     <row r="951" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A951" s="78"/>
-      <c r="D951" s="79"/>
+      <c r="A951" s="77"/>
+      <c r="D951" s="78"/>
     </row>
     <row r="952" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A952" s="78"/>
-      <c r="D952" s="79"/>
+      <c r="A952" s="77"/>
+      <c r="D952" s="78"/>
     </row>
     <row r="953" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A953" s="78"/>
-      <c r="D953" s="79"/>
+      <c r="A953" s="77"/>
+      <c r="D953" s="78"/>
     </row>
     <row r="954" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A954" s="78"/>
-      <c r="D954" s="79"/>
+      <c r="A954" s="77"/>
+      <c r="D954" s="78"/>
     </row>
     <row r="955" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A955" s="78"/>
-      <c r="D955" s="79"/>
+      <c r="A955" s="77"/>
+      <c r="D955" s="78"/>
     </row>
     <row r="956" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A956" s="78"/>
-      <c r="D956" s="79"/>
+      <c r="A956" s="77"/>
+      <c r="D956" s="78"/>
     </row>
     <row r="957" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A957" s="78"/>
-      <c r="D957" s="79"/>
+      <c r="A957" s="77"/>
+      <c r="D957" s="78"/>
     </row>
     <row r="958" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A958" s="78"/>
-      <c r="D958" s="79"/>
+      <c r="A958" s="77"/>
+      <c r="D958" s="78"/>
     </row>
     <row r="959" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A959" s="78"/>
-      <c r="D959" s="79"/>
+      <c r="A959" s="77"/>
+      <c r="D959" s="78"/>
     </row>
     <row r="960" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A960" s="78"/>
-      <c r="D960" s="79"/>
+      <c r="A960" s="77"/>
+      <c r="D960" s="78"/>
     </row>
     <row r="961" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A961" s="78"/>
-      <c r="D961" s="79"/>
+      <c r="A961" s="77"/>
+      <c r="D961" s="78"/>
     </row>
     <row r="962" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A962" s="78"/>
-      <c r="D962" s="79"/>
+      <c r="A962" s="77"/>
+      <c r="D962" s="78"/>
     </row>
     <row r="963" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A963" s="78"/>
-      <c r="D963" s="79"/>
+      <c r="A963" s="77"/>
+      <c r="D963" s="78"/>
     </row>
     <row r="964" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A964" s="78"/>
-      <c r="D964" s="79"/>
+      <c r="A964" s="77"/>
+      <c r="D964" s="78"/>
     </row>
     <row r="965" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A965" s="78"/>
-      <c r="D965" s="79"/>
+      <c r="A965" s="77"/>
+      <c r="D965" s="78"/>
     </row>
     <row r="966" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A966" s="78"/>
-      <c r="D966" s="79"/>
+      <c r="A966" s="77"/>
+      <c r="D966" s="78"/>
     </row>
     <row r="967" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A967" s="78"/>
-      <c r="D967" s="79"/>
+      <c r="A967" s="77"/>
+      <c r="D967" s="78"/>
     </row>
     <row r="968" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A968" s="78"/>
-      <c r="D968" s="79"/>
+      <c r="A968" s="77"/>
+      <c r="D968" s="78"/>
     </row>
     <row r="969" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A969" s="78"/>
-      <c r="D969" s="79"/>
+      <c r="A969" s="77"/>
+      <c r="D969" s="78"/>
     </row>
     <row r="970" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A970" s="78"/>
-      <c r="D970" s="79"/>
+      <c r="A970" s="77"/>
+      <c r="D970" s="78"/>
     </row>
     <row r="971" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A971" s="78"/>
-      <c r="D971" s="79"/>
+      <c r="A971" s="77"/>
+      <c r="D971" s="78"/>
     </row>
     <row r="972" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A972" s="78"/>
-      <c r="D972" s="79"/>
+      <c r="A972" s="77"/>
+      <c r="D972" s="78"/>
     </row>
     <row r="973" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A973" s="78"/>
-      <c r="D973" s="79"/>
+      <c r="A973" s="77"/>
+      <c r="D973" s="78"/>
     </row>
     <row r="974" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A974" s="78"/>
-      <c r="D974" s="79"/>
+      <c r="A974" s="77"/>
+      <c r="D974" s="78"/>
     </row>
     <row r="975" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A975" s="78"/>
-      <c r="D975" s="79"/>
+      <c r="A975" s="77"/>
+      <c r="D975" s="78"/>
     </row>
     <row r="976" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A976" s="78"/>
-      <c r="D976" s="79"/>
+      <c r="A976" s="77"/>
+      <c r="D976" s="78"/>
     </row>
     <row r="977" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A977" s="78"/>
-      <c r="D977" s="79"/>
+      <c r="A977" s="77"/>
+      <c r="D977" s="78"/>
     </row>
     <row r="978" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A978" s="78"/>
-      <c r="D978" s="79"/>
+      <c r="A978" s="77"/>
+      <c r="D978" s="78"/>
     </row>
     <row r="979" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A979" s="78"/>
-      <c r="D979" s="79"/>
+      <c r="A979" s="77"/>
+      <c r="D979" s="78"/>
     </row>
     <row r="980" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A980" s="78"/>
-      <c r="D980" s="79"/>
+      <c r="A980" s="77"/>
+      <c r="D980" s="78"/>
     </row>
     <row r="981" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A981" s="78"/>
-      <c r="D981" s="79"/>
+      <c r="A981" s="77"/>
+      <c r="D981" s="78"/>
     </row>
     <row r="982" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A982" s="78"/>
-      <c r="D982" s="79"/>
+      <c r="A982" s="77"/>
+      <c r="D982" s="78"/>
     </row>
     <row r="983" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A983" s="78"/>
-      <c r="D983" s="79"/>
+      <c r="A983" s="77"/>
+      <c r="D983" s="78"/>
     </row>
     <row r="984" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A984" s="78"/>
-      <c r="D984" s="79"/>
+      <c r="A984" s="77"/>
+      <c r="D984" s="78"/>
     </row>
     <row r="985" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A985" s="78"/>
-      <c r="D985" s="79"/>
+      <c r="A985" s="77"/>
+      <c r="D985" s="78"/>
     </row>
     <row r="986" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A986" s="78"/>
-      <c r="D986" s="79"/>
+      <c r="A986" s="77"/>
+      <c r="D986" s="78"/>
     </row>
     <row r="987" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A987" s="78"/>
-      <c r="D987" s="79"/>
+      <c r="A987" s="77"/>
+      <c r="D987" s="78"/>
     </row>
     <row r="988" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A988" s="78"/>
-      <c r="D988" s="79"/>
+      <c r="A988" s="77"/>
+      <c r="D988" s="78"/>
     </row>
     <row r="989" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A989" s="78"/>
-      <c r="D989" s="79"/>
+      <c r="A989" s="77"/>
+      <c r="D989" s="78"/>
     </row>
     <row r="990" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A990" s="78"/>
-      <c r="D990" s="79"/>
+      <c r="A990" s="77"/>
+      <c r="D990" s="78"/>
     </row>
     <row r="991" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A991" s="78"/>
-      <c r="D991" s="79"/>
+      <c r="A991" s="77"/>
+      <c r="D991" s="78"/>
     </row>
     <row r="992" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A992" s="78"/>
-      <c r="D992" s="79"/>
+      <c r="A992" s="77"/>
+      <c r="D992" s="78"/>
     </row>
     <row r="993" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A993" s="78"/>
-      <c r="D993" s="79"/>
+      <c r="A993" s="77"/>
+      <c r="D993" s="78"/>
     </row>
     <row r="994" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A994" s="78"/>
-      <c r="D994" s="79"/>
+      <c r="A994" s="77"/>
+      <c r="D994" s="78"/>
     </row>
     <row r="995" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A995" s="78"/>
-      <c r="D995" s="79"/>
+      <c r="A995" s="77"/>
+      <c r="D995" s="78"/>
     </row>
     <row r="996" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A996" s="78"/>
-      <c r="D996" s="79"/>
+      <c r="A996" s="77"/>
+      <c r="D996" s="78"/>
     </row>
     <row r="997" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A997" s="78"/>
-      <c r="D997" s="79"/>
+      <c r="A997" s="77"/>
+      <c r="D997" s="78"/>
     </row>
     <row r="998" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A998" s="78"/>
-      <c r="D998" s="79"/>
+      <c r="A998" s="77"/>
+      <c r="D998" s="78"/>
     </row>
     <row r="999" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A999" s="78"/>
-      <c r="D999" s="79"/>
+      <c r="A999" s="77"/>
+      <c r="D999" s="78"/>
     </row>
     <row r="1000" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A1000" s="78"/>
-      <c r="D1000" s="79"/>
+      <c r="A1000" s="77"/>
+      <c r="D1000" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="BA33:BF33"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G34:CE34"/>
+    <mergeCell ref="BM43:BQ43"/>
+    <mergeCell ref="BP45:BT45"/>
+    <mergeCell ref="G46:CE46"/>
+    <mergeCell ref="AJ20:AO20"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="AP26:AY26"/>
+    <mergeCell ref="AV27:BF27"/>
+    <mergeCell ref="BI39:BO39"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="AS29:BC29"/>
+    <mergeCell ref="AT30:BD30"/>
+    <mergeCell ref="AV31:AZ31"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD13:AH13"/>
     <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="D2:E2"/>
@@ -9718,33 +9730,6 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="M8:U8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BP45:BT45"/>
-    <mergeCell ref="G46:CE46"/>
-    <mergeCell ref="AJ20:AO20"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="AV31:AZ31"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="BA33:BF33"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="BK41:BS41"/>
-    <mergeCell ref="BM42:BS42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\Rendszerfejlesztés1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E88B5-F706-4870-A735-A08DFD45E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93E3B9D-1157-480A-A6D7-A9749609AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +497,14 @@
         <bgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF953735"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -933,11 +939,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,16 +1210,111 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,140 +1328,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,6 +1387,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF953735"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1520,9 +1606,9 @@
   </sheetPr>
   <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN10" sqref="AN10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1645,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="90"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -1732,10 +1818,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="89">
+      <c r="D3" s="118">
         <v>45197</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1821,117 +1907,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="86">
+      <c r="F4" s="120"/>
+      <c r="G4" s="115">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86">
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="115">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="86">
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="115">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="86">
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="115">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="86">
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="115">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="86">
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="115">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="86">
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="115">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="86">
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="115">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="86">
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="115">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="88"/>
-      <c r="BR4" s="86">
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="116"/>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="117"/>
+      <c r="BR4" s="115">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="87"/>
-      <c r="BT4" s="87"/>
-      <c r="BU4" s="87"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="88"/>
-      <c r="BY4" s="86">
+      <c r="BS4" s="116"/>
+      <c r="BT4" s="116"/>
+      <c r="BU4" s="116"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="117"/>
+      <c r="BY4" s="115">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="87"/>
-      <c r="CA4" s="87"/>
-      <c r="CB4" s="87"/>
-      <c r="CC4" s="87"/>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="88"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="116"/>
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="117"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -1947,7 +2033,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2351,21 +2437,21 @@
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="103"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="34"/>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
@@ -2444,26 +2530,26 @@
         <f>D8+10</f>
         <v>45207</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
       <c r="Z8" s="60"/>
       <c r="AA8" s="40"/>
       <c r="AB8" s="28"/>
@@ -2539,27 +2625,27 @@
         <v>45214</v>
       </c>
       <c r="F9" s="39"/>
-      <c r="G9" s="105"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="97"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="84"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
@@ -2641,19 +2727,19 @@
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
       <c r="AI10" s="34"/>
       <c r="AJ10" s="34"/>
       <c r="AK10" s="34"/>
@@ -2738,16 +2824,16 @@
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="96"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="83"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
       <c r="AL11" s="28"/>
@@ -2832,17 +2918,17 @@
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
       <c r="AN12" s="40"/>
@@ -2896,13 +2982,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="47">
         <v>45216</v>
       </c>
       <c r="E13" s="47">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="28"/>
@@ -2926,17 +3012,17 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="146"/>
+      <c r="AG13" s="146"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="146"/>
+      <c r="AJ13" s="146"/>
+      <c r="AK13" s="146"/>
+      <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
       <c r="AO13" s="40"/>
@@ -3020,15 +3106,15 @@
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="96"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="141"/>
+      <c r="AJ14" s="144"/>
+      <c r="AK14" s="145"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
       <c r="AN14" s="40"/>
@@ -3114,14 +3200,14 @@
       <c r="AA15" s="40"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="98"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="85"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3206,16 +3292,16 @@
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="28"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="96"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="129"/>
+      <c r="AE16" s="123"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="123"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="123"/>
+      <c r="AJ16" s="123"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="83"/>
       <c r="AM16" s="28"/>
       <c r="AN16" s="40"/>
       <c r="AO16" s="40"/>
@@ -3276,7 +3362,7 @@
       <c r="E17" s="47">
         <v>45225</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -3300,15 +3386,15 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="28"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="96"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="123"/>
+      <c r="AJ17" s="123"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="83"/>
       <c r="AM17" s="28"/>
       <c r="AN17" s="40"/>
       <c r="AO17" s="40"/>
@@ -3363,7 +3449,7 @@
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
-      <c r="F18" s="82"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
@@ -3392,12 +3478,12 @@
       <c r="AF18" s="52"/>
       <c r="AG18" s="65"/>
       <c r="AH18" s="65"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="102"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="102"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
       <c r="AO18" s="52"/>
       <c r="AP18" s="52"/>
       <c r="AQ18" s="52"/>
@@ -3486,14 +3572,14 @@
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
       <c r="AG19" s="40"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="125"/>
-      <c r="AK19" s="125"/>
-      <c r="AL19" s="125"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="100"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="109"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="87"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="28"/>
       <c r="AR19" s="28"/>
@@ -3580,14 +3666,14 @@
       <c r="AF20" s="28"/>
       <c r="AG20" s="40"/>
       <c r="AH20" s="40"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="134"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="98"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="136"/>
+      <c r="AK20" s="123"/>
+      <c r="AL20" s="123"/>
+      <c r="AM20" s="123"/>
+      <c r="AN20" s="123"/>
+      <c r="AO20" s="124"/>
+      <c r="AP20" s="85"/>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
@@ -3674,14 +3760,14 @@
       <c r="AG21" s="40"/>
       <c r="AH21" s="40"/>
       <c r="AI21" s="28"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="129"/>
-      <c r="AL21" s="130"/>
-      <c r="AM21" s="130"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="130"/>
-      <c r="AP21" s="131"/>
-      <c r="AQ21" s="98"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="85"/>
       <c r="AR21" s="28"/>
       <c r="AS21" s="28"/>
       <c r="AT21" s="28"/>
@@ -3768,14 +3854,14 @@
       <c r="AH22" s="40"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="28"/>
-      <c r="AK22" s="111"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="125"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="126"/>
-      <c r="AR22" s="96"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="109"/>
+      <c r="AM22" s="110"/>
+      <c r="AN22" s="110"/>
+      <c r="AO22" s="110"/>
+      <c r="AP22" s="110"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="83"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
       <c r="AU22" s="40"/>
@@ -3860,16 +3946,16 @@
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="119"/>
-      <c r="AL23" s="120"/>
-      <c r="AM23" s="120"/>
-      <c r="AN23" s="120"/>
-      <c r="AO23" s="120"/>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="99"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="103"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="86"/>
       <c r="AT23" s="28"/>
       <c r="AU23" s="40"/>
       <c r="AV23" s="40"/>
@@ -3954,16 +4040,16 @@
       <c r="AH24" s="40"/>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="105"/>
-      <c r="AM24" s="106"/>
-      <c r="AN24" s="129"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="130"/>
-      <c r="AQ24" s="130"/>
-      <c r="AR24" s="130"/>
-      <c r="AS24" s="131"/>
-      <c r="AT24" s="98"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="113"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="113"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="85"/>
       <c r="AU24" s="40"/>
       <c r="AV24" s="40"/>
       <c r="AW24" s="28"/>
@@ -4050,18 +4136,18 @@
       <c r="AK25" s="28"/>
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
-      <c r="AN25" s="109"/>
-      <c r="AO25" s="133"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="117"/>
-      <c r="AS25" s="117"/>
-      <c r="AT25" s="118"/>
-      <c r="AU25" s="100"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="123"/>
+      <c r="AQ25" s="123"/>
+      <c r="AR25" s="123"/>
+      <c r="AS25" s="123"/>
+      <c r="AT25" s="124"/>
+      <c r="AU25" s="87"/>
       <c r="AV25" s="60"/>
-      <c r="AW25" s="99"/>
-      <c r="AX25" s="99"/>
-      <c r="AY25" s="99"/>
+      <c r="AW25" s="86"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="86"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="28"/>
       <c r="BB25" s="40"/>
@@ -4144,24 +4230,24 @@
       <c r="AL26" s="28"/>
       <c r="AM26" s="28"/>
       <c r="AN26" s="40"/>
-      <c r="AO26" s="109"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="117"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
-      <c r="AX26" s="117"/>
-      <c r="AY26" s="118"/>
-      <c r="AZ26" s="98"/>
-      <c r="BA26" s="99"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="123"/>
+      <c r="AR26" s="123"/>
+      <c r="AS26" s="123"/>
+      <c r="AT26" s="123"/>
+      <c r="AU26" s="123"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="123"/>
+      <c r="AX26" s="123"/>
+      <c r="AY26" s="124"/>
+      <c r="AZ26" s="85"/>
+      <c r="BA26" s="86"/>
       <c r="BB26" s="60"/>
       <c r="BC26" s="60"/>
-      <c r="BD26" s="99"/>
-      <c r="BE26" s="99"/>
-      <c r="BF26" s="99"/>
+      <c r="BD26" s="86"/>
+      <c r="BE26" s="86"/>
+      <c r="BF26" s="86"/>
       <c r="BG26" s="28"/>
       <c r="BH26" s="28"/>
       <c r="BI26" s="40"/>
@@ -4238,24 +4324,24 @@
       <c r="AM27" s="28"/>
       <c r="AN27" s="40"/>
       <c r="AO27" s="40"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="108"/>
-      <c r="AS27" s="108"/>
-      <c r="AT27" s="108"/>
-      <c r="AU27" s="112"/>
-      <c r="AV27" s="133"/>
-      <c r="AW27" s="117"/>
-      <c r="AX27" s="117"/>
-      <c r="AY27" s="117"/>
-      <c r="AZ27" s="117"/>
-      <c r="BA27" s="117"/>
-      <c r="BB27" s="117"/>
-      <c r="BC27" s="117"/>
-      <c r="BD27" s="117"/>
-      <c r="BE27" s="117"/>
-      <c r="BF27" s="118"/>
-      <c r="BG27" s="96"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="98"/>
+      <c r="AV27" s="128"/>
+      <c r="AW27" s="123"/>
+      <c r="AX27" s="123"/>
+      <c r="AY27" s="123"/>
+      <c r="AZ27" s="123"/>
+      <c r="BA27" s="123"/>
+      <c r="BB27" s="123"/>
+      <c r="BC27" s="123"/>
+      <c r="BD27" s="123"/>
+      <c r="BE27" s="123"/>
+      <c r="BF27" s="124"/>
+      <c r="BG27" s="83"/>
       <c r="BH27" s="28"/>
       <c r="BI27" s="40"/>
       <c r="BJ27" s="40"/>
@@ -4332,22 +4418,22 @@
       <c r="AN28" s="40"/>
       <c r="AO28" s="40"/>
       <c r="AP28" s="28"/>
-      <c r="AQ28" s="93"/>
-      <c r="AR28" s="127"/>
-      <c r="AS28" s="117"/>
-      <c r="AT28" s="117"/>
-      <c r="AU28" s="117"/>
-      <c r="AV28" s="117"/>
-      <c r="AW28" s="117"/>
-      <c r="AX28" s="117"/>
-      <c r="AY28" s="117"/>
-      <c r="AZ28" s="117"/>
-      <c r="BA28" s="117"/>
-      <c r="BB28" s="118"/>
-      <c r="BC28" s="114"/>
-      <c r="BD28" s="105"/>
-      <c r="BE28" s="105"/>
-      <c r="BF28" s="105"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="125"/>
+      <c r="AS28" s="123"/>
+      <c r="AT28" s="123"/>
+      <c r="AU28" s="123"/>
+      <c r="AV28" s="123"/>
+      <c r="AW28" s="123"/>
+      <c r="AX28" s="123"/>
+      <c r="AY28" s="123"/>
+      <c r="AZ28" s="123"/>
+      <c r="BA28" s="123"/>
+      <c r="BB28" s="124"/>
+      <c r="BC28" s="100"/>
+      <c r="BD28" s="91"/>
+      <c r="BE28" s="91"/>
+      <c r="BF28" s="91"/>
       <c r="BG28" s="28"/>
       <c r="BH28" s="28"/>
       <c r="BI28" s="40"/>
@@ -4426,19 +4512,19 @@
       <c r="AO29" s="40"/>
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28"/>
-      <c r="AR29" s="106"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="117"/>
-      <c r="AU29" s="117"/>
-      <c r="AV29" s="117"/>
-      <c r="AW29" s="117"/>
-      <c r="AX29" s="117"/>
-      <c r="AY29" s="117"/>
-      <c r="AZ29" s="117"/>
-      <c r="BA29" s="117"/>
-      <c r="BB29" s="117"/>
-      <c r="BC29" s="118"/>
-      <c r="BD29" s="98"/>
+      <c r="AR29" s="92"/>
+      <c r="AS29" s="129"/>
+      <c r="AT29" s="123"/>
+      <c r="AU29" s="123"/>
+      <c r="AV29" s="123"/>
+      <c r="AW29" s="123"/>
+      <c r="AX29" s="123"/>
+      <c r="AY29" s="123"/>
+      <c r="AZ29" s="123"/>
+      <c r="BA29" s="123"/>
+      <c r="BB29" s="123"/>
+      <c r="BC29" s="124"/>
+      <c r="BD29" s="85"/>
       <c r="BE29" s="28"/>
       <c r="BF29" s="28"/>
       <c r="BG29" s="28"/>
@@ -4520,19 +4606,19 @@
       <c r="AP30" s="28"/>
       <c r="AQ30" s="28"/>
       <c r="AR30" s="28"/>
-      <c r="AS30" s="106"/>
-      <c r="AT30" s="127"/>
-      <c r="AU30" s="117"/>
-      <c r="AV30" s="117"/>
-      <c r="AW30" s="117"/>
-      <c r="AX30" s="117"/>
-      <c r="AY30" s="117"/>
-      <c r="AZ30" s="117"/>
-      <c r="BA30" s="117"/>
-      <c r="BB30" s="117"/>
-      <c r="BC30" s="117"/>
-      <c r="BD30" s="118"/>
-      <c r="BE30" s="96"/>
+      <c r="AS30" s="92"/>
+      <c r="AT30" s="125"/>
+      <c r="AU30" s="123"/>
+      <c r="AV30" s="123"/>
+      <c r="AW30" s="123"/>
+      <c r="AX30" s="123"/>
+      <c r="AY30" s="123"/>
+      <c r="AZ30" s="123"/>
+      <c r="BA30" s="123"/>
+      <c r="BB30" s="123"/>
+      <c r="BC30" s="123"/>
+      <c r="BD30" s="124"/>
+      <c r="BE30" s="83"/>
       <c r="BF30" s="28"/>
       <c r="BG30" s="28"/>
       <c r="BH30" s="28"/>
@@ -4614,19 +4700,19 @@
       <c r="AQ31" s="28"/>
       <c r="AR31" s="28"/>
       <c r="AS31" s="28"/>
-      <c r="AT31" s="105"/>
-      <c r="AU31" s="109"/>
-      <c r="AV31" s="122"/>
-      <c r="AW31" s="117"/>
-      <c r="AX31" s="117"/>
-      <c r="AY31" s="117"/>
-      <c r="AZ31" s="118"/>
-      <c r="BA31" s="107"/>
-      <c r="BB31" s="113"/>
-      <c r="BC31" s="113"/>
-      <c r="BD31" s="108"/>
-      <c r="BE31" s="99"/>
-      <c r="BF31" s="99"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="127"/>
+      <c r="AW31" s="123"/>
+      <c r="AX31" s="123"/>
+      <c r="AY31" s="123"/>
+      <c r="AZ31" s="124"/>
+      <c r="BA31" s="93"/>
+      <c r="BB31" s="99"/>
+      <c r="BC31" s="99"/>
+      <c r="BD31" s="94"/>
+      <c r="BE31" s="86"/>
+      <c r="BF31" s="86"/>
       <c r="BG31" s="28"/>
       <c r="BH31" s="28"/>
       <c r="BI31" s="40"/>
@@ -4709,18 +4795,18 @@
       <c r="AS32" s="59"/>
       <c r="AT32" s="59"/>
       <c r="AU32" s="60"/>
-      <c r="AV32" s="112"/>
-      <c r="AW32" s="119"/>
-      <c r="AX32" s="120"/>
-      <c r="AY32" s="120"/>
-      <c r="AZ32" s="120"/>
-      <c r="BA32" s="120"/>
-      <c r="BB32" s="120"/>
-      <c r="BC32" s="120"/>
-      <c r="BD32" s="120"/>
-      <c r="BE32" s="120"/>
-      <c r="BF32" s="121"/>
-      <c r="BG32" s="98"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="103"/>
+      <c r="AX32" s="104"/>
+      <c r="AY32" s="104"/>
+      <c r="AZ32" s="104"/>
+      <c r="BA32" s="104"/>
+      <c r="BB32" s="104"/>
+      <c r="BC32" s="104"/>
+      <c r="BD32" s="104"/>
+      <c r="BE32" s="104"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="85"/>
       <c r="BH32" s="59"/>
       <c r="BI32" s="60"/>
       <c r="BJ32" s="60"/>
@@ -4760,7 +4846,7 @@
       <c r="E33" s="56">
         <v>45245</v>
       </c>
-      <c r="F33" s="80"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -4803,17 +4889,17 @@
       <c r="AT33" s="59"/>
       <c r="AU33" s="60"/>
       <c r="AV33" s="60"/>
-      <c r="AW33" s="105"/>
-      <c r="AX33" s="105"/>
-      <c r="AY33" s="105"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="132"/>
-      <c r="BB33" s="117"/>
-      <c r="BC33" s="117"/>
-      <c r="BD33" s="117"/>
-      <c r="BE33" s="117"/>
-      <c r="BF33" s="118"/>
-      <c r="BG33" s="98"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="92"/>
+      <c r="BA33" s="138"/>
+      <c r="BB33" s="123"/>
+      <c r="BC33" s="123"/>
+      <c r="BD33" s="123"/>
+      <c r="BE33" s="123"/>
+      <c r="BF33" s="124"/>
+      <c r="BG33" s="85"/>
       <c r="BH33" s="59"/>
       <c r="BI33" s="60"/>
       <c r="BJ33" s="60"/>
@@ -4847,84 +4933,84 @@
       <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="64"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="83"/>
-      <c r="AI34" s="83"/>
-      <c r="AJ34" s="83"/>
-      <c r="AK34" s="83"/>
-      <c r="AL34" s="83"/>
-      <c r="AM34" s="83"/>
-      <c r="AN34" s="83"/>
-      <c r="AO34" s="83"/>
-      <c r="AP34" s="83"/>
-      <c r="AQ34" s="83"/>
-      <c r="AR34" s="83"/>
-      <c r="AS34" s="83"/>
-      <c r="AT34" s="83"/>
-      <c r="AU34" s="83"/>
-      <c r="AV34" s="83"/>
-      <c r="AW34" s="83"/>
-      <c r="AX34" s="83"/>
-      <c r="AY34" s="83"/>
-      <c r="AZ34" s="83"/>
-      <c r="BA34" s="104"/>
-      <c r="BB34" s="81"/>
-      <c r="BC34" s="81"/>
-      <c r="BD34" s="81"/>
-      <c r="BE34" s="81"/>
-      <c r="BF34" s="104"/>
-      <c r="BG34" s="83"/>
-      <c r="BH34" s="83"/>
-      <c r="BI34" s="83"/>
-      <c r="BJ34" s="83"/>
-      <c r="BK34" s="83"/>
-      <c r="BL34" s="83"/>
-      <c r="BM34" s="83"/>
-      <c r="BN34" s="83"/>
-      <c r="BO34" s="83"/>
-      <c r="BP34" s="83"/>
-      <c r="BQ34" s="83"/>
-      <c r="BR34" s="83"/>
-      <c r="BS34" s="83"/>
-      <c r="BT34" s="83"/>
-      <c r="BU34" s="83"/>
-      <c r="BV34" s="83"/>
-      <c r="BW34" s="83"/>
-      <c r="BX34" s="83"/>
-      <c r="BY34" s="83"/>
-      <c r="BZ34" s="83"/>
-      <c r="CA34" s="83"/>
-      <c r="CB34" s="83"/>
-      <c r="CC34" s="83"/>
-      <c r="CD34" s="83"/>
-      <c r="CE34" s="85"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="133"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="133"/>
+      <c r="Q34" s="133"/>
+      <c r="R34" s="133"/>
+      <c r="S34" s="133"/>
+      <c r="T34" s="133"/>
+      <c r="U34" s="133"/>
+      <c r="V34" s="133"/>
+      <c r="W34" s="133"/>
+      <c r="X34" s="133"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="133"/>
+      <c r="AA34" s="133"/>
+      <c r="AB34" s="133"/>
+      <c r="AC34" s="133"/>
+      <c r="AD34" s="133"/>
+      <c r="AE34" s="133"/>
+      <c r="AF34" s="133"/>
+      <c r="AG34" s="133"/>
+      <c r="AH34" s="133"/>
+      <c r="AI34" s="133"/>
+      <c r="AJ34" s="133"/>
+      <c r="AK34" s="133"/>
+      <c r="AL34" s="133"/>
+      <c r="AM34" s="133"/>
+      <c r="AN34" s="133"/>
+      <c r="AO34" s="133"/>
+      <c r="AP34" s="133"/>
+      <c r="AQ34" s="133"/>
+      <c r="AR34" s="133"/>
+      <c r="AS34" s="133"/>
+      <c r="AT34" s="133"/>
+      <c r="AU34" s="133"/>
+      <c r="AV34" s="133"/>
+      <c r="AW34" s="133"/>
+      <c r="AX34" s="133"/>
+      <c r="AY34" s="133"/>
+      <c r="AZ34" s="133"/>
+      <c r="BA34" s="134"/>
+      <c r="BB34" s="137"/>
+      <c r="BC34" s="137"/>
+      <c r="BD34" s="137"/>
+      <c r="BE34" s="137"/>
+      <c r="BF34" s="134"/>
+      <c r="BG34" s="133"/>
+      <c r="BH34" s="133"/>
+      <c r="BI34" s="133"/>
+      <c r="BJ34" s="133"/>
+      <c r="BK34" s="133"/>
+      <c r="BL34" s="133"/>
+      <c r="BM34" s="133"/>
+      <c r="BN34" s="133"/>
+      <c r="BO34" s="133"/>
+      <c r="BP34" s="133"/>
+      <c r="BQ34" s="133"/>
+      <c r="BR34" s="133"/>
+      <c r="BS34" s="133"/>
+      <c r="BT34" s="133"/>
+      <c r="BU34" s="133"/>
+      <c r="BV34" s="133"/>
+      <c r="BW34" s="133"/>
+      <c r="BX34" s="133"/>
+      <c r="BY34" s="133"/>
+      <c r="BZ34" s="133"/>
+      <c r="CA34" s="133"/>
+      <c r="CB34" s="133"/>
+      <c r="CC34" s="133"/>
+      <c r="CD34" s="133"/>
+      <c r="CE34" s="135"/>
     </row>
     <row r="35" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
@@ -4940,7 +5026,7 @@
       <c r="E35" s="68">
         <v>45244</v>
       </c>
-      <c r="F35" s="82"/>
+      <c r="F35" s="131"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -4987,14 +5073,14 @@
       <c r="AX35" s="28"/>
       <c r="AY35" s="28"/>
       <c r="AZ35" s="28"/>
-      <c r="BA35" s="93"/>
-      <c r="BB35" s="129"/>
-      <c r="BC35" s="130"/>
-      <c r="BD35" s="130"/>
-      <c r="BE35" s="131"/>
-      <c r="BF35" s="98"/>
-      <c r="BG35" s="99"/>
-      <c r="BH35" s="99"/>
+      <c r="BA35" s="80"/>
+      <c r="BB35" s="112"/>
+      <c r="BC35" s="113"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="114"/>
+      <c r="BF35" s="85"/>
+      <c r="BG35" s="86"/>
+      <c r="BH35" s="86"/>
       <c r="BI35" s="60"/>
       <c r="BJ35" s="60"/>
       <c r="BK35" s="28"/>
@@ -5081,17 +5167,17 @@
       <c r="AY36" s="28"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="28"/>
-      <c r="BB36" s="110"/>
-      <c r="BC36" s="110"/>
-      <c r="BD36" s="105"/>
-      <c r="BE36" s="111"/>
-      <c r="BF36" s="129"/>
-      <c r="BG36" s="130"/>
-      <c r="BH36" s="130"/>
-      <c r="BI36" s="130"/>
-      <c r="BJ36" s="131"/>
-      <c r="BK36" s="98"/>
-      <c r="BL36" s="99"/>
+      <c r="BB36" s="96"/>
+      <c r="BC36" s="96"/>
+      <c r="BD36" s="91"/>
+      <c r="BE36" s="97"/>
+      <c r="BF36" s="112"/>
+      <c r="BG36" s="113"/>
+      <c r="BH36" s="113"/>
+      <c r="BI36" s="113"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="85"/>
+      <c r="BL36" s="86"/>
       <c r="BM36" s="28"/>
       <c r="BN36" s="28"/>
       <c r="BO36" s="28"/>
@@ -5176,16 +5262,16 @@
       <c r="BA37" s="28"/>
       <c r="BB37" s="40"/>
       <c r="BC37" s="40"/>
-      <c r="BD37" s="93"/>
-      <c r="BE37" s="119"/>
-      <c r="BF37" s="120"/>
-      <c r="BG37" s="120"/>
-      <c r="BH37" s="120"/>
-      <c r="BI37" s="120"/>
-      <c r="BJ37" s="120"/>
-      <c r="BK37" s="120"/>
-      <c r="BL37" s="121"/>
-      <c r="BM37" s="96"/>
+      <c r="BD37" s="80"/>
+      <c r="BE37" s="103"/>
+      <c r="BF37" s="104"/>
+      <c r="BG37" s="104"/>
+      <c r="BH37" s="104"/>
+      <c r="BI37" s="104"/>
+      <c r="BJ37" s="104"/>
+      <c r="BK37" s="104"/>
+      <c r="BL37" s="105"/>
+      <c r="BM37" s="83"/>
       <c r="BN37" s="28"/>
       <c r="BO37" s="28"/>
       <c r="BP37" s="40"/>
@@ -5270,17 +5356,17 @@
       <c r="BB38" s="40"/>
       <c r="BC38" s="40"/>
       <c r="BD38" s="28"/>
-      <c r="BE38" s="106"/>
-      <c r="BF38" s="128"/>
-      <c r="BG38" s="117"/>
-      <c r="BH38" s="117"/>
-      <c r="BI38" s="117"/>
-      <c r="BJ38" s="117"/>
-      <c r="BK38" s="117"/>
-      <c r="BL38" s="118"/>
-      <c r="BM38" s="98"/>
-      <c r="BN38" s="101"/>
-      <c r="BO38" s="99"/>
+      <c r="BE38" s="92"/>
+      <c r="BF38" s="139"/>
+      <c r="BG38" s="123"/>
+      <c r="BH38" s="123"/>
+      <c r="BI38" s="123"/>
+      <c r="BJ38" s="123"/>
+      <c r="BK38" s="123"/>
+      <c r="BL38" s="124"/>
+      <c r="BM38" s="85"/>
+      <c r="BN38" s="88"/>
+      <c r="BO38" s="86"/>
       <c r="BP38" s="40"/>
       <c r="BQ38" s="40"/>
       <c r="BR38" s="28"/>
@@ -5364,17 +5450,17 @@
       <c r="BC39" s="40"/>
       <c r="BD39" s="28"/>
       <c r="BE39" s="28"/>
-      <c r="BF39" s="105"/>
-      <c r="BG39" s="105"/>
-      <c r="BH39" s="106"/>
-      <c r="BI39" s="127"/>
-      <c r="BJ39" s="117"/>
-      <c r="BK39" s="117"/>
-      <c r="BL39" s="117"/>
-      <c r="BM39" s="117"/>
-      <c r="BN39" s="117"/>
-      <c r="BO39" s="118"/>
-      <c r="BP39" s="97"/>
+      <c r="BF39" s="91"/>
+      <c r="BG39" s="91"/>
+      <c r="BH39" s="92"/>
+      <c r="BI39" s="125"/>
+      <c r="BJ39" s="123"/>
+      <c r="BK39" s="123"/>
+      <c r="BL39" s="123"/>
+      <c r="BM39" s="123"/>
+      <c r="BN39" s="123"/>
+      <c r="BO39" s="124"/>
+      <c r="BP39" s="84"/>
       <c r="BQ39" s="40"/>
       <c r="BR39" s="28"/>
       <c r="BS39" s="28"/>
@@ -5460,17 +5546,17 @@
       <c r="BF40" s="28"/>
       <c r="BG40" s="28"/>
       <c r="BH40" s="28"/>
-      <c r="BI40" s="109"/>
-      <c r="BJ40" s="124"/>
-      <c r="BK40" s="125"/>
-      <c r="BL40" s="125"/>
-      <c r="BM40" s="125"/>
-      <c r="BN40" s="125"/>
-      <c r="BO40" s="126"/>
-      <c r="BP40" s="100"/>
+      <c r="BI40" s="95"/>
+      <c r="BJ40" s="109"/>
+      <c r="BK40" s="110"/>
+      <c r="BL40" s="110"/>
+      <c r="BM40" s="110"/>
+      <c r="BN40" s="110"/>
+      <c r="BO40" s="111"/>
+      <c r="BP40" s="87"/>
       <c r="BQ40" s="60"/>
-      <c r="BR40" s="99"/>
-      <c r="BS40" s="99"/>
+      <c r="BR40" s="86"/>
+      <c r="BS40" s="86"/>
       <c r="BT40" s="28"/>
       <c r="BU40" s="28"/>
       <c r="BV40" s="28"/>
@@ -5554,17 +5640,17 @@
       <c r="BG41" s="28"/>
       <c r="BH41" s="28"/>
       <c r="BI41" s="40"/>
-      <c r="BJ41" s="109"/>
-      <c r="BK41" s="122"/>
-      <c r="BL41" s="117"/>
-      <c r="BM41" s="117"/>
-      <c r="BN41" s="117"/>
-      <c r="BO41" s="117"/>
-      <c r="BP41" s="117"/>
-      <c r="BQ41" s="117"/>
-      <c r="BR41" s="117"/>
-      <c r="BS41" s="118"/>
-      <c r="BT41" s="96"/>
+      <c r="BJ41" s="95"/>
+      <c r="BK41" s="127"/>
+      <c r="BL41" s="123"/>
+      <c r="BM41" s="123"/>
+      <c r="BN41" s="123"/>
+      <c r="BO41" s="123"/>
+      <c r="BP41" s="123"/>
+      <c r="BQ41" s="123"/>
+      <c r="BR41" s="123"/>
+      <c r="BS41" s="124"/>
+      <c r="BT41" s="83"/>
       <c r="BU41" s="28"/>
       <c r="BV41" s="28"/>
       <c r="BW41" s="40"/>
@@ -5648,16 +5734,16 @@
       <c r="BH42" s="28"/>
       <c r="BI42" s="40"/>
       <c r="BJ42" s="40"/>
-      <c r="BK42" s="105"/>
-      <c r="BL42" s="106"/>
-      <c r="BM42" s="123"/>
-      <c r="BN42" s="117"/>
-      <c r="BO42" s="117"/>
-      <c r="BP42" s="117"/>
-      <c r="BQ42" s="117"/>
-      <c r="BR42" s="117"/>
-      <c r="BS42" s="118"/>
-      <c r="BT42" s="96"/>
+      <c r="BK42" s="91"/>
+      <c r="BL42" s="92"/>
+      <c r="BM42" s="129"/>
+      <c r="BN42" s="123"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="124"/>
+      <c r="BT42" s="83"/>
       <c r="BU42" s="28"/>
       <c r="BV42" s="28"/>
       <c r="BW42" s="40"/>
@@ -5742,15 +5828,15 @@
       <c r="BI43" s="40"/>
       <c r="BJ43" s="40"/>
       <c r="BK43" s="28"/>
-      <c r="BL43" s="93"/>
-      <c r="BM43" s="122"/>
-      <c r="BN43" s="117"/>
-      <c r="BO43" s="117"/>
-      <c r="BP43" s="117"/>
-      <c r="BQ43" s="118"/>
-      <c r="BR43" s="107"/>
-      <c r="BS43" s="108"/>
-      <c r="BT43" s="99"/>
+      <c r="BL43" s="80"/>
+      <c r="BM43" s="127"/>
+      <c r="BN43" s="123"/>
+      <c r="BO43" s="123"/>
+      <c r="BP43" s="123"/>
+      <c r="BQ43" s="124"/>
+      <c r="BR43" s="93"/>
+      <c r="BS43" s="94"/>
+      <c r="BT43" s="86"/>
       <c r="BU43" s="28"/>
       <c r="BV43" s="28"/>
       <c r="BW43" s="40"/>
@@ -5836,15 +5922,15 @@
       <c r="BJ44" s="40"/>
       <c r="BK44" s="28"/>
       <c r="BL44" s="28"/>
-      <c r="BM44" s="106"/>
-      <c r="BN44" s="119"/>
-      <c r="BO44" s="120"/>
-      <c r="BP44" s="120"/>
-      <c r="BQ44" s="120"/>
-      <c r="BR44" s="120"/>
-      <c r="BS44" s="120"/>
-      <c r="BT44" s="121"/>
-      <c r="BU44" s="96"/>
+      <c r="BM44" s="92"/>
+      <c r="BN44" s="103"/>
+      <c r="BO44" s="104"/>
+      <c r="BP44" s="104"/>
+      <c r="BQ44" s="104"/>
+      <c r="BR44" s="104"/>
+      <c r="BS44" s="104"/>
+      <c r="BT44" s="105"/>
+      <c r="BU44" s="83"/>
       <c r="BV44" s="28"/>
       <c r="BW44" s="40"/>
       <c r="BX44" s="40"/>
@@ -5930,14 +6016,14 @@
       <c r="BK45" s="28"/>
       <c r="BL45" s="28"/>
       <c r="BM45" s="28"/>
-      <c r="BN45" s="105"/>
-      <c r="BO45" s="106"/>
-      <c r="BP45" s="116"/>
-      <c r="BQ45" s="117"/>
-      <c r="BR45" s="117"/>
-      <c r="BS45" s="117"/>
-      <c r="BT45" s="118"/>
-      <c r="BU45" s="96"/>
+      <c r="BN45" s="91"/>
+      <c r="BO45" s="92"/>
+      <c r="BP45" s="126"/>
+      <c r="BQ45" s="123"/>
+      <c r="BR45" s="123"/>
+      <c r="BS45" s="123"/>
+      <c r="BT45" s="124"/>
+      <c r="BU45" s="83"/>
       <c r="BV45" s="28"/>
       <c r="BW45" s="40"/>
       <c r="BX45" s="40"/>
@@ -5958,83 +6044,83 @@
       <c r="D46" s="72"/>
       <c r="E46" s="73"/>
       <c r="F46" s="65"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="83"/>
-      <c r="U46" s="83"/>
-      <c r="V46" s="83"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="83"/>
-      <c r="Y46" s="83"/>
-      <c r="Z46" s="83"/>
-      <c r="AA46" s="83"/>
-      <c r="AB46" s="83"/>
-      <c r="AC46" s="83"/>
-      <c r="AD46" s="83"/>
-      <c r="AE46" s="83"/>
-      <c r="AF46" s="83"/>
-      <c r="AG46" s="83"/>
-      <c r="AH46" s="83"/>
-      <c r="AI46" s="83"/>
-      <c r="AJ46" s="83"/>
-      <c r="AK46" s="83"/>
-      <c r="AL46" s="83"/>
-      <c r="AM46" s="83"/>
-      <c r="AN46" s="83"/>
-      <c r="AO46" s="83"/>
-      <c r="AP46" s="83"/>
-      <c r="AQ46" s="83"/>
-      <c r="AR46" s="83"/>
-      <c r="AS46" s="83"/>
-      <c r="AT46" s="83"/>
-      <c r="AU46" s="83"/>
-      <c r="AV46" s="83"/>
-      <c r="AW46" s="83"/>
-      <c r="AX46" s="83"/>
-      <c r="AY46" s="83"/>
-      <c r="AZ46" s="83"/>
-      <c r="BA46" s="83"/>
-      <c r="BB46" s="83"/>
-      <c r="BC46" s="83"/>
-      <c r="BD46" s="83"/>
-      <c r="BE46" s="83"/>
-      <c r="BF46" s="83"/>
-      <c r="BG46" s="83"/>
-      <c r="BH46" s="83"/>
-      <c r="BI46" s="83"/>
-      <c r="BJ46" s="83"/>
-      <c r="BK46" s="83"/>
-      <c r="BL46" s="83"/>
-      <c r="BM46" s="83"/>
-      <c r="BN46" s="83"/>
-      <c r="BO46" s="83"/>
-      <c r="BP46" s="104"/>
-      <c r="BQ46" s="104"/>
-      <c r="BR46" s="104"/>
-      <c r="BS46" s="104"/>
-      <c r="BT46" s="104"/>
-      <c r="BU46" s="83"/>
-      <c r="BV46" s="83"/>
-      <c r="BW46" s="83"/>
-      <c r="BX46" s="83"/>
-      <c r="BY46" s="83"/>
-      <c r="BZ46" s="83"/>
-      <c r="CA46" s="83"/>
-      <c r="CB46" s="83"/>
-      <c r="CC46" s="83"/>
-      <c r="CD46" s="83"/>
-      <c r="CE46" s="85"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="133"/>
+      <c r="S46" s="133"/>
+      <c r="T46" s="133"/>
+      <c r="U46" s="133"/>
+      <c r="V46" s="133"/>
+      <c r="W46" s="133"/>
+      <c r="X46" s="133"/>
+      <c r="Y46" s="133"/>
+      <c r="Z46" s="133"/>
+      <c r="AA46" s="133"/>
+      <c r="AB46" s="133"/>
+      <c r="AC46" s="133"/>
+      <c r="AD46" s="133"/>
+      <c r="AE46" s="133"/>
+      <c r="AF46" s="133"/>
+      <c r="AG46" s="133"/>
+      <c r="AH46" s="133"/>
+      <c r="AI46" s="133"/>
+      <c r="AJ46" s="133"/>
+      <c r="AK46" s="133"/>
+      <c r="AL46" s="133"/>
+      <c r="AM46" s="133"/>
+      <c r="AN46" s="133"/>
+      <c r="AO46" s="133"/>
+      <c r="AP46" s="133"/>
+      <c r="AQ46" s="133"/>
+      <c r="AR46" s="133"/>
+      <c r="AS46" s="133"/>
+      <c r="AT46" s="133"/>
+      <c r="AU46" s="133"/>
+      <c r="AV46" s="133"/>
+      <c r="AW46" s="133"/>
+      <c r="AX46" s="133"/>
+      <c r="AY46" s="133"/>
+      <c r="AZ46" s="133"/>
+      <c r="BA46" s="133"/>
+      <c r="BB46" s="133"/>
+      <c r="BC46" s="133"/>
+      <c r="BD46" s="133"/>
+      <c r="BE46" s="133"/>
+      <c r="BF46" s="133"/>
+      <c r="BG46" s="133"/>
+      <c r="BH46" s="133"/>
+      <c r="BI46" s="133"/>
+      <c r="BJ46" s="133"/>
+      <c r="BK46" s="133"/>
+      <c r="BL46" s="133"/>
+      <c r="BM46" s="133"/>
+      <c r="BN46" s="133"/>
+      <c r="BO46" s="133"/>
+      <c r="BP46" s="134"/>
+      <c r="BQ46" s="134"/>
+      <c r="BR46" s="134"/>
+      <c r="BS46" s="134"/>
+      <c r="BT46" s="134"/>
+      <c r="BU46" s="133"/>
+      <c r="BV46" s="133"/>
+      <c r="BW46" s="133"/>
+      <c r="BX46" s="133"/>
+      <c r="BY46" s="133"/>
+      <c r="BZ46" s="133"/>
+      <c r="CA46" s="133"/>
+      <c r="CB46" s="133"/>
+      <c r="CC46" s="133"/>
+      <c r="CD46" s="133"/>
+      <c r="CE46" s="135"/>
     </row>
     <row r="47" spans="1:83" ht="14.25" customHeight="1">
       <c r="A47" s="74"/>
@@ -9857,34 +9943,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="BN44:BT44"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AL22:AQ22"/>
-    <mergeCell ref="AK23:AQ23"/>
-    <mergeCell ref="AN24:AS24"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="AD16:AK16"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="BA33:BF33"/>
+    <mergeCell ref="BF38:BL38"/>
+    <mergeCell ref="BK41:BS41"/>
+    <mergeCell ref="BM42:BS42"/>
+    <mergeCell ref="G34:CE34"/>
+    <mergeCell ref="BJ40:BO40"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="AG17:AK17"/>
     <mergeCell ref="BM43:BQ43"/>
@@ -9901,15 +9967,35 @@
     <mergeCell ref="AV31:AZ31"/>
     <mergeCell ref="AW32:BF32"/>
     <mergeCell ref="BB35:BE35"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BN44:BT44"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="AK21:AP21"/>
+    <mergeCell ref="AL22:AQ22"/>
+    <mergeCell ref="AK23:AQ23"/>
+    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="AD16:AK16"/>
     <mergeCell ref="BF36:BJ36"/>
     <mergeCell ref="BE37:BL37"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="BA33:BF33"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="BK41:BS41"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G34:CE34"/>
-    <mergeCell ref="BJ40:BO40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\Rendszerfejlesztés1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93E3B9D-1157-480A-A6D7-A9749609AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A350B1-16CE-402B-82C1-444703169A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -111,15 +111,6 @@
   </si>
   <si>
     <t>8.2.4. Egyed-kapcsolat diagram adatbázishoz</t>
-  </si>
-  <si>
-    <t>8.2.5. Package diagram</t>
-  </si>
-  <si>
-    <t>8.2.6. Képernyőtervek</t>
-  </si>
-  <si>
-    <t>8.2.7. Bemutató elkészítése</t>
   </si>
   <si>
     <t xml:space="preserve">3. Mérföldkő </t>
@@ -207,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ha szükséges, e fölött szúrj be új sort! </t>
+  </si>
+  <si>
+    <t>8.2.5. Adatbázis megtervezése</t>
+  </si>
+  <si>
+    <t>8.2.6. Package diagram</t>
+  </si>
+  <si>
+    <t>8.2.7. Képernyőtervek</t>
+  </si>
+  <si>
+    <t>8.2.8. Bemutató elkészítése</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +506,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC3D69B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF953735"/>
+        <bgColor rgb="FFC3D69B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -991,21 +1006,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1368,17 +1390,33 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1604,11 +1642,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE1000"/>
+  <dimension ref="A1:CE1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO11" sqref="AO11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN37" sqref="AN37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2920,11 +2958,11 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
       <c r="AB12" s="126"/>
-      <c r="AC12" s="142"/>
-      <c r="AD12" s="142"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="142"/>
-      <c r="AG12" s="143"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="142"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3013,15 +3051,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="146"/>
-      <c r="AK13" s="146"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="144"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="144"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3107,14 +3145,14 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="141"/>
-      <c r="AJ14" s="144"/>
-      <c r="AK14" s="145"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="137"/>
+      <c r="AH14" s="137"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
       <c r="AN14" s="40"/>
@@ -3164,19 +3202,19 @@
     </row>
     <row r="15" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="47">
-        <v>45218</v>
-      </c>
-      <c r="E15" s="47">
-        <v>45223</v>
-      </c>
-      <c r="F15" s="39"/>
+      <c r="B15" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="147">
+        <v>45222</v>
+      </c>
+      <c r="E15" s="147">
+        <v>45224</v>
+      </c>
+      <c r="F15" s="82"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -3199,16 +3237,16 @@
       <c r="Z15" s="40"/>
       <c r="AA15" s="40"/>
       <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="127"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="28"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="152"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
       <c r="AO15" s="40"/>
@@ -3258,16 +3296,16 @@
     <row r="16" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="45" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="47">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="E16" s="47">
-        <v>45224</v>
+        <v>45223</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="28"/>
@@ -3292,16 +3330,16 @@
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="28"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="123"/>
-      <c r="AJ16" s="123"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="83"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="143"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
       <c r="AN16" s="40"/>
       <c r="AO16" s="40"/>
@@ -3351,18 +3389,18 @@
     <row r="17" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="45" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="47">
-        <v>45220</v>
+        <v>45217</v>
       </c>
       <c r="E17" s="47">
-        <v>45225</v>
-      </c>
-      <c r="F17" s="130"/>
+        <v>45224</v>
+      </c>
+      <c r="F17" s="39"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -3385,11 +3423,11 @@
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="91"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="126"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
       <c r="AH17" s="123"/>
       <c r="AI17" s="123"/>
       <c r="AJ17" s="123"/>
@@ -3443,201 +3481,201 @@
     </row>
     <row r="18" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="82"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="82"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="52"/>
-      <c r="BP18" s="52"/>
-      <c r="BQ18" s="52"/>
-      <c r="BR18" s="52"/>
-      <c r="BS18" s="52"/>
-      <c r="BT18" s="52"/>
-      <c r="BU18" s="52"/>
-      <c r="BV18" s="52"/>
-      <c r="BW18" s="52"/>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="52"/>
-      <c r="CA18" s="52"/>
-      <c r="CB18" s="52"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
-      <c r="CE18" s="53"/>
+      <c r="B18" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="47">
+        <v>45220</v>
+      </c>
+      <c r="E18" s="47">
+        <v>45225</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="123"/>
+      <c r="AI18" s="123"/>
+      <c r="AJ18" s="123"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="40"/>
+      <c r="BJ18" s="40"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="40"/>
+      <c r="BQ18" s="40"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="40"/>
+      <c r="BX18" s="40"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="40"/>
+      <c r="CE18" s="40"/>
     </row>
     <row r="19" spans="1:83" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="89"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+      <c r="BO19" s="52"/>
+      <c r="BP19" s="52"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="52"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="52"/>
+      <c r="BU19" s="52"/>
+      <c r="BV19" s="52"/>
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="52"/>
+      <c r="CA19" s="52"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="53"/>
+    </row>
+    <row r="20" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="B20" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D20" s="56">
         <v>45222</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E20" s="56">
         <v>45227</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="28"/>
-      <c r="AR19" s="28"/>
-      <c r="AS19" s="28"/>
-      <c r="AT19" s="28"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="40"/>
-      <c r="BC19" s="40"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="40"/>
-      <c r="BJ19" s="40"/>
-      <c r="BK19" s="28"/>
-      <c r="BL19" s="28"/>
-      <c r="BM19" s="28"/>
-      <c r="BN19" s="28"/>
-      <c r="BO19" s="28"/>
-      <c r="BP19" s="40"/>
-      <c r="BQ19" s="40"/>
-      <c r="BR19" s="28"/>
-      <c r="BS19" s="28"/>
-      <c r="BT19" s="28"/>
-      <c r="BU19" s="28"/>
-      <c r="BV19" s="28"/>
-      <c r="BW19" s="40"/>
-      <c r="BX19" s="40"/>
-      <c r="BY19" s="28"/>
-      <c r="BZ19" s="28"/>
-      <c r="CA19" s="28"/>
-      <c r="CB19" s="28"/>
-      <c r="CC19" s="28"/>
-      <c r="CD19" s="40"/>
-      <c r="CE19" s="40"/>
-    </row>
-    <row r="20" spans="1:83" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="56">
-        <v>45223</v>
-      </c>
-      <c r="E20" s="56">
-        <v>45228</v>
-      </c>
-      <c r="F20" s="57"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -3665,15 +3703,15 @@
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
       <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="136"/>
-      <c r="AK20" s="123"/>
-      <c r="AL20" s="123"/>
-      <c r="AM20" s="123"/>
-      <c r="AN20" s="123"/>
-      <c r="AO20" s="124"/>
-      <c r="AP20" s="85"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="28"/>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
@@ -3719,16 +3757,16 @@
     <row r="21" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="56">
-        <v>45224</v>
+        <v>45223</v>
       </c>
       <c r="E21" s="56">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="28"/>
@@ -3759,15 +3797,15 @@
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="40"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="85"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="123"/>
+      <c r="AL21" s="123"/>
+      <c r="AM21" s="123"/>
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="28"/>
       <c r="AR21" s="28"/>
       <c r="AS21" s="28"/>
       <c r="AT21" s="28"/>
@@ -3812,16 +3850,16 @@
     <row r="22" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="1"/>
       <c r="B22" s="54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="56">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="E22" s="56">
-        <v>45230</v>
+        <v>45229</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="28"/>
@@ -3853,15 +3891,15 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="109"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="110"/>
-      <c r="AO22" s="110"/>
-      <c r="AP22" s="110"/>
-      <c r="AQ22" s="111"/>
-      <c r="AR22" s="83"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="112"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
       <c r="AU22" s="40"/>
@@ -3905,13 +3943,13 @@
     <row r="23" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="56">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="E23" s="56">
         <v>45230</v>
@@ -3946,16 +3984,16 @@
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="104"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="105"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="86"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="109"/>
+      <c r="AM23" s="110"/>
+      <c r="AN23" s="110"/>
+      <c r="AO23" s="110"/>
+      <c r="AP23" s="110"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="83"/>
+      <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
       <c r="AU23" s="40"/>
       <c r="AV23" s="40"/>
@@ -3998,16 +4036,16 @@
     <row r="24" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="1"/>
       <c r="B24" s="54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="56">
-        <v>45227</v>
+        <v>45224</v>
       </c>
       <c r="E24" s="56">
-        <v>45232</v>
+        <v>45230</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="28"/>
@@ -4039,17 +4077,17 @@
       <c r="AG24" s="40"/>
       <c r="AH24" s="40"/>
       <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="112"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="113"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="85"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="85"/>
+      <c r="AS24" s="86"/>
+      <c r="AT24" s="28"/>
       <c r="AU24" s="40"/>
       <c r="AV24" s="40"/>
       <c r="AW24" s="28"/>
@@ -4090,17 +4128,17 @@
     </row>
     <row r="25" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="58" t="s">
-        <v>34</v>
+      <c r="B25" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25" s="56">
-        <v>45228</v>
+        <v>45227</v>
       </c>
       <c r="E25" s="56">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="28"/>
@@ -4133,21 +4171,21 @@
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="95"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="123"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
-      <c r="AS25" s="123"/>
-      <c r="AT25" s="124"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="60"/>
-      <c r="AW25" s="86"/>
-      <c r="AX25" s="86"/>
-      <c r="AY25" s="86"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="92"/>
+      <c r="AN25" s="112"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="113"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="85"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
       <c r="BA25" s="28"/>
       <c r="BB25" s="40"/>
@@ -4184,16 +4222,16 @@
     <row r="26" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="1"/>
       <c r="B26" s="58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="56">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="E26" s="56">
-        <v>45238</v>
+        <v>45233</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="28"/>
@@ -4229,25 +4267,25 @@
       <c r="AK26" s="28"/>
       <c r="AL26" s="28"/>
       <c r="AM26" s="28"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="129"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="128"/>
+      <c r="AP26" s="123"/>
       <c r="AQ26" s="123"/>
       <c r="AR26" s="123"/>
       <c r="AS26" s="123"/>
-      <c r="AT26" s="123"/>
-      <c r="AU26" s="123"/>
-      <c r="AV26" s="123"/>
-      <c r="AW26" s="123"/>
-      <c r="AX26" s="123"/>
-      <c r="AY26" s="124"/>
-      <c r="AZ26" s="85"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="86"/>
-      <c r="BE26" s="86"/>
-      <c r="BF26" s="86"/>
+      <c r="AT26" s="124"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="86"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="86"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
       <c r="BG26" s="28"/>
       <c r="BH26" s="28"/>
       <c r="BI26" s="40"/>
@@ -4276,17 +4314,17 @@
     </row>
     <row r="27" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="54" t="s">
-        <v>36</v>
+      <c r="B27" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="56">
-        <v>45235</v>
+        <v>45229</v>
       </c>
       <c r="E27" s="56">
-        <v>45245</v>
+        <v>45238</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="28"/>
@@ -4323,25 +4361,25 @@
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="40"/>
-      <c r="AO27" s="40"/>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="98"/>
-      <c r="AV27" s="128"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="129"/>
+      <c r="AQ27" s="123"/>
+      <c r="AR27" s="123"/>
+      <c r="AS27" s="123"/>
+      <c r="AT27" s="123"/>
+      <c r="AU27" s="123"/>
+      <c r="AV27" s="123"/>
       <c r="AW27" s="123"/>
       <c r="AX27" s="123"/>
-      <c r="AY27" s="123"/>
-      <c r="AZ27" s="123"/>
-      <c r="BA27" s="123"/>
-      <c r="BB27" s="123"/>
-      <c r="BC27" s="123"/>
-      <c r="BD27" s="123"/>
-      <c r="BE27" s="123"/>
-      <c r="BF27" s="124"/>
-      <c r="BG27" s="83"/>
+      <c r="AY27" s="124"/>
+      <c r="AZ27" s="85"/>
+      <c r="BA27" s="86"/>
+      <c r="BB27" s="60"/>
+      <c r="BC27" s="60"/>
+      <c r="BD27" s="86"/>
+      <c r="BE27" s="86"/>
+      <c r="BF27" s="86"/>
+      <c r="BG27" s="28"/>
       <c r="BH27" s="28"/>
       <c r="BI27" s="40"/>
       <c r="BJ27" s="40"/>
@@ -4370,16 +4408,16 @@
     <row r="28" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
       <c r="B28" s="54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="56">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="E28" s="56">
-        <v>45241</v>
+        <v>45245</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="28"/>
@@ -4417,24 +4455,24 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="40"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="80"/>
-      <c r="AR28" s="125"/>
-      <c r="AS28" s="123"/>
-      <c r="AT28" s="123"/>
-      <c r="AU28" s="123"/>
-      <c r="AV28" s="123"/>
+      <c r="AP28" s="91"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94"/>
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="128"/>
       <c r="AW28" s="123"/>
       <c r="AX28" s="123"/>
       <c r="AY28" s="123"/>
       <c r="AZ28" s="123"/>
       <c r="BA28" s="123"/>
-      <c r="BB28" s="124"/>
-      <c r="BC28" s="100"/>
-      <c r="BD28" s="91"/>
-      <c r="BE28" s="91"/>
-      <c r="BF28" s="91"/>
-      <c r="BG28" s="28"/>
+      <c r="BB28" s="123"/>
+      <c r="BC28" s="123"/>
+      <c r="BD28" s="123"/>
+      <c r="BE28" s="123"/>
+      <c r="BF28" s="124"/>
+      <c r="BG28" s="83"/>
       <c r="BH28" s="28"/>
       <c r="BI28" s="40"/>
       <c r="BJ28" s="40"/>
@@ -4463,16 +4501,16 @@
     <row r="29" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="56">
-        <v>45232</v>
+        <v>45231</v>
       </c>
       <c r="E29" s="56">
-        <v>45242</v>
+        <v>45241</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="28"/>
@@ -4511,9 +4549,9 @@
       <c r="AN29" s="40"/>
       <c r="AO29" s="40"/>
       <c r="AP29" s="28"/>
-      <c r="AQ29" s="28"/>
-      <c r="AR29" s="92"/>
-      <c r="AS29" s="129"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="123"/>
       <c r="AT29" s="123"/>
       <c r="AU29" s="123"/>
       <c r="AV29" s="123"/>
@@ -4522,11 +4560,11 @@
       <c r="AY29" s="123"/>
       <c r="AZ29" s="123"/>
       <c r="BA29" s="123"/>
-      <c r="BB29" s="123"/>
-      <c r="BC29" s="124"/>
-      <c r="BD29" s="85"/>
-      <c r="BE29" s="28"/>
-      <c r="BF29" s="28"/>
+      <c r="BB29" s="124"/>
+      <c r="BC29" s="100"/>
+      <c r="BD29" s="91"/>
+      <c r="BE29" s="91"/>
+      <c r="BF29" s="91"/>
       <c r="BG29" s="28"/>
       <c r="BH29" s="28"/>
       <c r="BI29" s="40"/>
@@ -4556,16 +4594,16 @@
     <row r="30" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
       <c r="B30" s="54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="56">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="E30" s="56">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="28"/>
@@ -4605,9 +4643,9 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="92"/>
-      <c r="AT30" s="125"/>
+      <c r="AR30" s="92"/>
+      <c r="AS30" s="129"/>
+      <c r="AT30" s="123"/>
       <c r="AU30" s="123"/>
       <c r="AV30" s="123"/>
       <c r="AW30" s="123"/>
@@ -4616,9 +4654,9 @@
       <c r="AZ30" s="123"/>
       <c r="BA30" s="123"/>
       <c r="BB30" s="123"/>
-      <c r="BC30" s="123"/>
-      <c r="BD30" s="124"/>
-      <c r="BE30" s="83"/>
+      <c r="BC30" s="124"/>
+      <c r="BD30" s="85"/>
+      <c r="BE30" s="28"/>
       <c r="BF30" s="28"/>
       <c r="BG30" s="28"/>
       <c r="BH30" s="28"/>
@@ -4649,16 +4687,16 @@
     <row r="31" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="56">
-        <v>45234</v>
+        <v>45233</v>
       </c>
       <c r="E31" s="56">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="28"/>
@@ -4699,20 +4737,20 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="127"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="125"/>
+      <c r="AU31" s="123"/>
+      <c r="AV31" s="123"/>
       <c r="AW31" s="123"/>
       <c r="AX31" s="123"/>
       <c r="AY31" s="123"/>
-      <c r="AZ31" s="124"/>
-      <c r="BA31" s="93"/>
-      <c r="BB31" s="99"/>
-      <c r="BC31" s="99"/>
-      <c r="BD31" s="94"/>
-      <c r="BE31" s="86"/>
-      <c r="BF31" s="86"/>
+      <c r="AZ31" s="123"/>
+      <c r="BA31" s="123"/>
+      <c r="BB31" s="123"/>
+      <c r="BC31" s="123"/>
+      <c r="BD31" s="124"/>
+      <c r="BE31" s="83"/>
+      <c r="BF31" s="28"/>
       <c r="BG31" s="28"/>
       <c r="BH31" s="28"/>
       <c r="BI31" s="40"/>
@@ -4741,112 +4779,112 @@
     </row>
     <row r="32" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="58" t="s">
-        <v>41</v>
+      <c r="B32" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" s="56">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="E32" s="56">
-        <v>45245</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="60"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="103"/>
-      <c r="AX32" s="104"/>
-      <c r="AY32" s="104"/>
-      <c r="AZ32" s="104"/>
-      <c r="BA32" s="104"/>
-      <c r="BB32" s="104"/>
-      <c r="BC32" s="104"/>
-      <c r="BD32" s="104"/>
-      <c r="BE32" s="104"/>
-      <c r="BF32" s="105"/>
-      <c r="BG32" s="85"/>
-      <c r="BH32" s="59"/>
-      <c r="BI32" s="60"/>
-      <c r="BJ32" s="60"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="59"/>
-      <c r="BP32" s="60"/>
-      <c r="BQ32" s="60"/>
-      <c r="BR32" s="59"/>
-      <c r="BS32" s="59"/>
-      <c r="BT32" s="59"/>
-      <c r="BU32" s="59"/>
-      <c r="BV32" s="59"/>
-      <c r="BW32" s="60"/>
-      <c r="BX32" s="60"/>
-      <c r="BY32" s="59"/>
-      <c r="BZ32" s="59"/>
-      <c r="CA32" s="59"/>
-      <c r="CB32" s="59"/>
-      <c r="CC32" s="59"/>
-      <c r="CD32" s="60"/>
-      <c r="CE32" s="60"/>
+        <v>45239</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="40"/>
+      <c r="AO32" s="40"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="127"/>
+      <c r="AW32" s="123"/>
+      <c r="AX32" s="123"/>
+      <c r="AY32" s="123"/>
+      <c r="AZ32" s="124"/>
+      <c r="BA32" s="93"/>
+      <c r="BB32" s="99"/>
+      <c r="BC32" s="99"/>
+      <c r="BD32" s="94"/>
+      <c r="BE32" s="86"/>
+      <c r="BF32" s="86"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="40"/>
+      <c r="BJ32" s="40"/>
+      <c r="BK32" s="28"/>
+      <c r="BL32" s="28"/>
+      <c r="BM32" s="28"/>
+      <c r="BN32" s="28"/>
+      <c r="BO32" s="28"/>
+      <c r="BP32" s="40"/>
+      <c r="BQ32" s="40"/>
+      <c r="BR32" s="28"/>
+      <c r="BS32" s="28"/>
+      <c r="BT32" s="28"/>
+      <c r="BU32" s="28"/>
+      <c r="BV32" s="28"/>
+      <c r="BW32" s="40"/>
+      <c r="BX32" s="40"/>
+      <c r="BY32" s="28"/>
+      <c r="BZ32" s="28"/>
+      <c r="CA32" s="28"/>
+      <c r="CB32" s="28"/>
+      <c r="CC32" s="28"/>
+      <c r="CD32" s="40"/>
+      <c r="CE32" s="40"/>
     </row>
     <row r="33" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="54" t="s">
-        <v>42</v>
+      <c r="B33" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D33" s="56">
-        <v>45240</v>
+        <v>45236</v>
       </c>
       <c r="E33" s="56">
         <v>45245</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="59"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
@@ -4888,17 +4926,17 @@
       <c r="AS33" s="59"/>
       <c r="AT33" s="59"/>
       <c r="AU33" s="60"/>
-      <c r="AV33" s="60"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
-      <c r="BA33" s="138"/>
-      <c r="BB33" s="123"/>
-      <c r="BC33" s="123"/>
-      <c r="BD33" s="123"/>
-      <c r="BE33" s="123"/>
-      <c r="BF33" s="124"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="103"/>
+      <c r="AX33" s="104"/>
+      <c r="AY33" s="104"/>
+      <c r="AZ33" s="104"/>
+      <c r="BA33" s="104"/>
+      <c r="BB33" s="104"/>
+      <c r="BC33" s="104"/>
+      <c r="BD33" s="104"/>
+      <c r="BE33" s="104"/>
+      <c r="BF33" s="105"/>
       <c r="BG33" s="85"/>
       <c r="BH33" s="59"/>
       <c r="BI33" s="60"/>
@@ -4927,199 +4965,199 @@
     </row>
     <row r="34" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="133"/>
-      <c r="T34" s="133"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="133"/>
-      <c r="W34" s="133"/>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="133"/>
-      <c r="Z34" s="133"/>
-      <c r="AA34" s="133"/>
-      <c r="AB34" s="133"/>
-      <c r="AC34" s="133"/>
-      <c r="AD34" s="133"/>
-      <c r="AE34" s="133"/>
-      <c r="AF34" s="133"/>
-      <c r="AG34" s="133"/>
-      <c r="AH34" s="133"/>
-      <c r="AI34" s="133"/>
-      <c r="AJ34" s="133"/>
-      <c r="AK34" s="133"/>
-      <c r="AL34" s="133"/>
-      <c r="AM34" s="133"/>
-      <c r="AN34" s="133"/>
-      <c r="AO34" s="133"/>
-      <c r="AP34" s="133"/>
-      <c r="AQ34" s="133"/>
-      <c r="AR34" s="133"/>
-      <c r="AS34" s="133"/>
-      <c r="AT34" s="133"/>
-      <c r="AU34" s="133"/>
-      <c r="AV34" s="133"/>
-      <c r="AW34" s="133"/>
-      <c r="AX34" s="133"/>
-      <c r="AY34" s="133"/>
-      <c r="AZ34" s="133"/>
-      <c r="BA34" s="134"/>
-      <c r="BB34" s="137"/>
-      <c r="BC34" s="137"/>
-      <c r="BD34" s="137"/>
-      <c r="BE34" s="137"/>
-      <c r="BF34" s="134"/>
-      <c r="BG34" s="133"/>
-      <c r="BH34" s="133"/>
-      <c r="BI34" s="133"/>
-      <c r="BJ34" s="133"/>
-      <c r="BK34" s="133"/>
-      <c r="BL34" s="133"/>
-      <c r="BM34" s="133"/>
-      <c r="BN34" s="133"/>
-      <c r="BO34" s="133"/>
-      <c r="BP34" s="133"/>
-      <c r="BQ34" s="133"/>
-      <c r="BR34" s="133"/>
-      <c r="BS34" s="133"/>
-      <c r="BT34" s="133"/>
-      <c r="BU34" s="133"/>
-      <c r="BV34" s="133"/>
-      <c r="BW34" s="133"/>
-      <c r="BX34" s="133"/>
-      <c r="BY34" s="133"/>
-      <c r="BZ34" s="133"/>
-      <c r="CA34" s="133"/>
-      <c r="CB34" s="133"/>
-      <c r="CC34" s="133"/>
-      <c r="CD34" s="133"/>
-      <c r="CE34" s="135"/>
+      <c r="B34" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="56">
+        <v>45240</v>
+      </c>
+      <c r="E34" s="56">
+        <v>45245</v>
+      </c>
+      <c r="F34" s="130"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="60"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="92"/>
+      <c r="BA34" s="138"/>
+      <c r="BB34" s="123"/>
+      <c r="BC34" s="123"/>
+      <c r="BD34" s="123"/>
+      <c r="BE34" s="123"/>
+      <c r="BF34" s="124"/>
+      <c r="BG34" s="85"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="60"/>
+      <c r="BJ34" s="60"/>
+      <c r="BK34" s="59"/>
+      <c r="BL34" s="59"/>
+      <c r="BM34" s="59"/>
+      <c r="BN34" s="59"/>
+      <c r="BO34" s="59"/>
+      <c r="BP34" s="60"/>
+      <c r="BQ34" s="60"/>
+      <c r="BR34" s="59"/>
+      <c r="BS34" s="59"/>
+      <c r="BT34" s="59"/>
+      <c r="BU34" s="59"/>
+      <c r="BV34" s="59"/>
+      <c r="BW34" s="60"/>
+      <c r="BX34" s="60"/>
+      <c r="BY34" s="59"/>
+      <c r="BZ34" s="59"/>
+      <c r="CA34" s="59"/>
+      <c r="CB34" s="59"/>
+      <c r="CC34" s="59"/>
+      <c r="CD34" s="60"/>
+      <c r="CE34" s="60"/>
     </row>
     <row r="35" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="68">
-        <v>45241</v>
-      </c>
-      <c r="E35" s="68">
-        <v>45244</v>
-      </c>
-      <c r="F35" s="131"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="40"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="40"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="28"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28"/>
-      <c r="AT35" s="28"/>
-      <c r="AU35" s="40"/>
-      <c r="AV35" s="40"/>
-      <c r="AW35" s="28"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28"/>
-      <c r="AZ35" s="28"/>
-      <c r="BA35" s="80"/>
-      <c r="BB35" s="112"/>
-      <c r="BC35" s="113"/>
-      <c r="BD35" s="113"/>
-      <c r="BE35" s="114"/>
-      <c r="BF35" s="85"/>
-      <c r="BG35" s="86"/>
-      <c r="BH35" s="86"/>
-      <c r="BI35" s="60"/>
-      <c r="BJ35" s="60"/>
-      <c r="BK35" s="28"/>
-      <c r="BL35" s="28"/>
-      <c r="BM35" s="28"/>
-      <c r="BN35" s="28"/>
-      <c r="BO35" s="28"/>
-      <c r="BP35" s="40"/>
-      <c r="BQ35" s="40"/>
-      <c r="BR35" s="28"/>
-      <c r="BS35" s="28"/>
-      <c r="BT35" s="28"/>
-      <c r="BU35" s="28"/>
-      <c r="BV35" s="28"/>
-      <c r="BW35" s="40"/>
-      <c r="BX35" s="40"/>
-      <c r="BY35" s="40"/>
-      <c r="BZ35" s="28"/>
-      <c r="CA35" s="28"/>
-      <c r="CB35" s="28"/>
-      <c r="CC35" s="28"/>
-      <c r="CD35" s="40"/>
-      <c r="CE35" s="40"/>
+      <c r="B35" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
+      <c r="AC35" s="133"/>
+      <c r="AD35" s="133"/>
+      <c r="AE35" s="133"/>
+      <c r="AF35" s="133"/>
+      <c r="AG35" s="133"/>
+      <c r="AH35" s="133"/>
+      <c r="AI35" s="133"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="133"/>
+      <c r="AL35" s="133"/>
+      <c r="AM35" s="133"/>
+      <c r="AN35" s="133"/>
+      <c r="AO35" s="133"/>
+      <c r="AP35" s="133"/>
+      <c r="AQ35" s="133"/>
+      <c r="AR35" s="133"/>
+      <c r="AS35" s="133"/>
+      <c r="AT35" s="133"/>
+      <c r="AU35" s="133"/>
+      <c r="AV35" s="133"/>
+      <c r="AW35" s="133"/>
+      <c r="AX35" s="133"/>
+      <c r="AY35" s="133"/>
+      <c r="AZ35" s="133"/>
+      <c r="BA35" s="134"/>
+      <c r="BB35" s="137"/>
+      <c r="BC35" s="137"/>
+      <c r="BD35" s="137"/>
+      <c r="BE35" s="137"/>
+      <c r="BF35" s="134"/>
+      <c r="BG35" s="133"/>
+      <c r="BH35" s="133"/>
+      <c r="BI35" s="133"/>
+      <c r="BJ35" s="133"/>
+      <c r="BK35" s="133"/>
+      <c r="BL35" s="133"/>
+      <c r="BM35" s="133"/>
+      <c r="BN35" s="133"/>
+      <c r="BO35" s="133"/>
+      <c r="BP35" s="133"/>
+      <c r="BQ35" s="133"/>
+      <c r="BR35" s="133"/>
+      <c r="BS35" s="133"/>
+      <c r="BT35" s="133"/>
+      <c r="BU35" s="133"/>
+      <c r="BV35" s="133"/>
+      <c r="BW35" s="133"/>
+      <c r="BX35" s="133"/>
+      <c r="BY35" s="133"/>
+      <c r="BZ35" s="133"/>
+      <c r="CA35" s="133"/>
+      <c r="CB35" s="133"/>
+      <c r="CC35" s="133"/>
+      <c r="CD35" s="133"/>
+      <c r="CE35" s="135"/>
     </row>
     <row r="36" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
       <c r="B36" s="66" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" s="67" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="68">
-        <v>45245</v>
+        <v>45241</v>
       </c>
       <c r="E36" s="68">
-        <v>45249</v>
-      </c>
-      <c r="F36" s="39"/>
+        <v>45244</v>
+      </c>
+      <c r="F36" s="131"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -5166,18 +5204,18 @@
       <c r="AX36" s="28"/>
       <c r="AY36" s="28"/>
       <c r="AZ36" s="28"/>
-      <c r="BA36" s="28"/>
-      <c r="BB36" s="96"/>
-      <c r="BC36" s="96"/>
-      <c r="BD36" s="91"/>
-      <c r="BE36" s="97"/>
-      <c r="BF36" s="112"/>
-      <c r="BG36" s="113"/>
-      <c r="BH36" s="113"/>
-      <c r="BI36" s="113"/>
-      <c r="BJ36" s="114"/>
-      <c r="BK36" s="85"/>
-      <c r="BL36" s="86"/>
+      <c r="BA36" s="80"/>
+      <c r="BB36" s="112"/>
+      <c r="BC36" s="113"/>
+      <c r="BD36" s="113"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="85"/>
+      <c r="BG36" s="86"/>
+      <c r="BH36" s="86"/>
+      <c r="BI36" s="60"/>
+      <c r="BJ36" s="60"/>
+      <c r="BK36" s="28"/>
+      <c r="BL36" s="28"/>
       <c r="BM36" s="28"/>
       <c r="BN36" s="28"/>
       <c r="BO36" s="28"/>
@@ -5201,16 +5239,16 @@
     <row r="37" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
       <c r="B37" s="66" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="68">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="E37" s="68">
-        <v>45251</v>
+        <v>45249</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="28"/>
@@ -5260,18 +5298,18 @@
       <c r="AY37" s="28"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="28"/>
-      <c r="BB37" s="40"/>
-      <c r="BC37" s="40"/>
-      <c r="BD37" s="80"/>
-      <c r="BE37" s="103"/>
-      <c r="BF37" s="104"/>
-      <c r="BG37" s="104"/>
-      <c r="BH37" s="104"/>
-      <c r="BI37" s="104"/>
-      <c r="BJ37" s="104"/>
-      <c r="BK37" s="104"/>
-      <c r="BL37" s="105"/>
-      <c r="BM37" s="83"/>
+      <c r="BB37" s="96"/>
+      <c r="BC37" s="96"/>
+      <c r="BD37" s="91"/>
+      <c r="BE37" s="97"/>
+      <c r="BF37" s="112"/>
+      <c r="BG37" s="113"/>
+      <c r="BH37" s="113"/>
+      <c r="BI37" s="113"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="85"/>
+      <c r="BL37" s="86"/>
+      <c r="BM37" s="28"/>
       <c r="BN37" s="28"/>
       <c r="BO37" s="28"/>
       <c r="BP37" s="40"/>
@@ -5294,13 +5332,13 @@
     <row r="38" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
       <c r="B38" s="66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" s="68">
-        <v>45245</v>
+        <v>45244</v>
       </c>
       <c r="E38" s="68">
         <v>45251</v>
@@ -5355,18 +5393,18 @@
       <c r="BA38" s="28"/>
       <c r="BB38" s="40"/>
       <c r="BC38" s="40"/>
-      <c r="BD38" s="28"/>
-      <c r="BE38" s="92"/>
-      <c r="BF38" s="139"/>
-      <c r="BG38" s="123"/>
-      <c r="BH38" s="123"/>
-      <c r="BI38" s="123"/>
-      <c r="BJ38" s="123"/>
-      <c r="BK38" s="123"/>
-      <c r="BL38" s="124"/>
-      <c r="BM38" s="85"/>
-      <c r="BN38" s="88"/>
-      <c r="BO38" s="86"/>
+      <c r="BD38" s="80"/>
+      <c r="BE38" s="103"/>
+      <c r="BF38" s="104"/>
+      <c r="BG38" s="104"/>
+      <c r="BH38" s="104"/>
+      <c r="BI38" s="104"/>
+      <c r="BJ38" s="104"/>
+      <c r="BK38" s="104"/>
+      <c r="BL38" s="105"/>
+      <c r="BM38" s="83"/>
+      <c r="BN38" s="28"/>
+      <c r="BO38" s="28"/>
       <c r="BP38" s="40"/>
       <c r="BQ38" s="40"/>
       <c r="BR38" s="28"/>
@@ -5387,16 +5425,16 @@
     <row r="39" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="66" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="68">
-        <v>45248</v>
+        <v>45245</v>
       </c>
       <c r="E39" s="68">
-        <v>44524</v>
+        <v>45251</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="28"/>
@@ -5449,18 +5487,18 @@
       <c r="BB39" s="40"/>
       <c r="BC39" s="40"/>
       <c r="BD39" s="28"/>
-      <c r="BE39" s="28"/>
-      <c r="BF39" s="91"/>
-      <c r="BG39" s="91"/>
-      <c r="BH39" s="92"/>
-      <c r="BI39" s="125"/>
+      <c r="BE39" s="92"/>
+      <c r="BF39" s="139"/>
+      <c r="BG39" s="123"/>
+      <c r="BH39" s="123"/>
+      <c r="BI39" s="123"/>
       <c r="BJ39" s="123"/>
       <c r="BK39" s="123"/>
-      <c r="BL39" s="123"/>
-      <c r="BM39" s="123"/>
-      <c r="BN39" s="123"/>
-      <c r="BO39" s="124"/>
-      <c r="BP39" s="84"/>
+      <c r="BL39" s="124"/>
+      <c r="BM39" s="85"/>
+      <c r="BN39" s="88"/>
+      <c r="BO39" s="86"/>
+      <c r="BP39" s="40"/>
       <c r="BQ39" s="40"/>
       <c r="BR39" s="28"/>
       <c r="BS39" s="28"/>
@@ -5480,13 +5518,13 @@
     <row r="40" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
       <c r="B40" s="66" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D40" s="68">
-        <v>45249</v>
+        <v>45248</v>
       </c>
       <c r="E40" s="68">
         <v>44524</v>
@@ -5543,20 +5581,20 @@
       <c r="BC40" s="40"/>
       <c r="BD40" s="28"/>
       <c r="BE40" s="28"/>
-      <c r="BF40" s="28"/>
-      <c r="BG40" s="28"/>
-      <c r="BH40" s="28"/>
-      <c r="BI40" s="95"/>
-      <c r="BJ40" s="109"/>
-      <c r="BK40" s="110"/>
-      <c r="BL40" s="110"/>
-      <c r="BM40" s="110"/>
-      <c r="BN40" s="110"/>
-      <c r="BO40" s="111"/>
-      <c r="BP40" s="87"/>
-      <c r="BQ40" s="60"/>
-      <c r="BR40" s="86"/>
-      <c r="BS40" s="86"/>
+      <c r="BF40" s="91"/>
+      <c r="BG40" s="91"/>
+      <c r="BH40" s="92"/>
+      <c r="BI40" s="125"/>
+      <c r="BJ40" s="123"/>
+      <c r="BK40" s="123"/>
+      <c r="BL40" s="123"/>
+      <c r="BM40" s="123"/>
+      <c r="BN40" s="123"/>
+      <c r="BO40" s="124"/>
+      <c r="BP40" s="84"/>
+      <c r="BQ40" s="40"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="28"/>
       <c r="BT40" s="28"/>
       <c r="BU40" s="28"/>
       <c r="BV40" s="28"/>
@@ -5573,16 +5611,16 @@
     <row r="41" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="1"/>
       <c r="B41" s="66" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D41" s="68">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="E41" s="68">
-        <v>44528</v>
+        <v>44524</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="28"/>
@@ -5639,18 +5677,18 @@
       <c r="BF41" s="28"/>
       <c r="BG41" s="28"/>
       <c r="BH41" s="28"/>
-      <c r="BI41" s="40"/>
-      <c r="BJ41" s="95"/>
-      <c r="BK41" s="127"/>
-      <c r="BL41" s="123"/>
-      <c r="BM41" s="123"/>
-      <c r="BN41" s="123"/>
-      <c r="BO41" s="123"/>
-      <c r="BP41" s="123"/>
-      <c r="BQ41" s="123"/>
-      <c r="BR41" s="123"/>
-      <c r="BS41" s="124"/>
-      <c r="BT41" s="83"/>
+      <c r="BI41" s="95"/>
+      <c r="BJ41" s="109"/>
+      <c r="BK41" s="110"/>
+      <c r="BL41" s="110"/>
+      <c r="BM41" s="110"/>
+      <c r="BN41" s="110"/>
+      <c r="BO41" s="111"/>
+      <c r="BP41" s="87"/>
+      <c r="BQ41" s="60"/>
+      <c r="BR41" s="86"/>
+      <c r="BS41" s="86"/>
+      <c r="BT41" s="28"/>
       <c r="BU41" s="28"/>
       <c r="BV41" s="28"/>
       <c r="BW41" s="40"/>
@@ -5666,13 +5704,13 @@
     <row r="42" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
       <c r="B42" s="66" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="68">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="E42" s="68">
         <v>44528</v>
@@ -5733,10 +5771,10 @@
       <c r="BG42" s="28"/>
       <c r="BH42" s="28"/>
       <c r="BI42" s="40"/>
-      <c r="BJ42" s="40"/>
-      <c r="BK42" s="91"/>
-      <c r="BL42" s="92"/>
-      <c r="BM42" s="129"/>
+      <c r="BJ42" s="95"/>
+      <c r="BK42" s="127"/>
+      <c r="BL42" s="123"/>
+      <c r="BM42" s="123"/>
       <c r="BN42" s="123"/>
       <c r="BO42" s="123"/>
       <c r="BP42" s="123"/>
@@ -5759,16 +5797,16 @@
     <row r="43" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="66" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" s="68">
         <v>45252</v>
       </c>
       <c r="E43" s="68">
-        <v>44524</v>
+        <v>44528</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="28"/>
@@ -5827,16 +5865,16 @@
       <c r="BH43" s="28"/>
       <c r="BI43" s="40"/>
       <c r="BJ43" s="40"/>
-      <c r="BK43" s="28"/>
-      <c r="BL43" s="80"/>
-      <c r="BM43" s="127"/>
+      <c r="BK43" s="91"/>
+      <c r="BL43" s="92"/>
+      <c r="BM43" s="129"/>
       <c r="BN43" s="123"/>
       <c r="BO43" s="123"/>
       <c r="BP43" s="123"/>
-      <c r="BQ43" s="124"/>
-      <c r="BR43" s="93"/>
-      <c r="BS43" s="94"/>
-      <c r="BT43" s="86"/>
+      <c r="BQ43" s="123"/>
+      <c r="BR43" s="123"/>
+      <c r="BS43" s="124"/>
+      <c r="BT43" s="83"/>
       <c r="BU43" s="28"/>
       <c r="BV43" s="28"/>
       <c r="BW43" s="40"/>
@@ -5851,17 +5889,17 @@
     </row>
     <row r="44" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="69" t="s">
-        <v>53</v>
+      <c r="B44" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44" s="68">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="E44" s="68">
-        <v>45259</v>
+        <v>44524</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="28"/>
@@ -5921,16 +5959,16 @@
       <c r="BI44" s="40"/>
       <c r="BJ44" s="40"/>
       <c r="BK44" s="28"/>
-      <c r="BL44" s="28"/>
-      <c r="BM44" s="92"/>
-      <c r="BN44" s="103"/>
-      <c r="BO44" s="104"/>
-      <c r="BP44" s="104"/>
-      <c r="BQ44" s="104"/>
-      <c r="BR44" s="104"/>
-      <c r="BS44" s="104"/>
-      <c r="BT44" s="105"/>
-      <c r="BU44" s="83"/>
+      <c r="BL44" s="80"/>
+      <c r="BM44" s="127"/>
+      <c r="BN44" s="123"/>
+      <c r="BO44" s="123"/>
+      <c r="BP44" s="123"/>
+      <c r="BQ44" s="124"/>
+      <c r="BR44" s="93"/>
+      <c r="BS44" s="94"/>
+      <c r="BT44" s="86"/>
+      <c r="BU44" s="28"/>
       <c r="BV44" s="28"/>
       <c r="BW44" s="40"/>
       <c r="BX44" s="40"/>
@@ -5944,17 +5982,17 @@
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="66" t="s">
-        <v>54</v>
+      <c r="B45" s="69" t="s">
+        <v>50</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D45" s="68">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="E45" s="68">
-        <v>44529</v>
+        <v>45259</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="28"/>
@@ -6015,14 +6053,14 @@
       <c r="BJ45" s="40"/>
       <c r="BK45" s="28"/>
       <c r="BL45" s="28"/>
-      <c r="BM45" s="28"/>
-      <c r="BN45" s="91"/>
-      <c r="BO45" s="92"/>
-      <c r="BP45" s="126"/>
-      <c r="BQ45" s="123"/>
-      <c r="BR45" s="123"/>
-      <c r="BS45" s="123"/>
-      <c r="BT45" s="124"/>
+      <c r="BM45" s="92"/>
+      <c r="BN45" s="103"/>
+      <c r="BO45" s="104"/>
+      <c r="BP45" s="104"/>
+      <c r="BQ45" s="104"/>
+      <c r="BR45" s="104"/>
+      <c r="BS45" s="104"/>
+      <c r="BT45" s="105"/>
       <c r="BU45" s="83"/>
       <c r="BV45" s="28"/>
       <c r="BW45" s="40"/>
@@ -6037,163 +6075,252 @@
     </row>
     <row r="46" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="133"/>
-      <c r="Q46" s="133"/>
-      <c r="R46" s="133"/>
-      <c r="S46" s="133"/>
-      <c r="T46" s="133"/>
-      <c r="U46" s="133"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="133"/>
-      <c r="AE46" s="133"/>
-      <c r="AF46" s="133"/>
-      <c r="AG46" s="133"/>
-      <c r="AH46" s="133"/>
-      <c r="AI46" s="133"/>
-      <c r="AJ46" s="133"/>
-      <c r="AK46" s="133"/>
-      <c r="AL46" s="133"/>
-      <c r="AM46" s="133"/>
-      <c r="AN46" s="133"/>
-      <c r="AO46" s="133"/>
-      <c r="AP46" s="133"/>
-      <c r="AQ46" s="133"/>
-      <c r="AR46" s="133"/>
-      <c r="AS46" s="133"/>
-      <c r="AT46" s="133"/>
-      <c r="AU46" s="133"/>
-      <c r="AV46" s="133"/>
-      <c r="AW46" s="133"/>
-      <c r="AX46" s="133"/>
-      <c r="AY46" s="133"/>
-      <c r="AZ46" s="133"/>
-      <c r="BA46" s="133"/>
-      <c r="BB46" s="133"/>
-      <c r="BC46" s="133"/>
-      <c r="BD46" s="133"/>
-      <c r="BE46" s="133"/>
-      <c r="BF46" s="133"/>
-      <c r="BG46" s="133"/>
-      <c r="BH46" s="133"/>
-      <c r="BI46" s="133"/>
-      <c r="BJ46" s="133"/>
-      <c r="BK46" s="133"/>
-      <c r="BL46" s="133"/>
-      <c r="BM46" s="133"/>
-      <c r="BN46" s="133"/>
-      <c r="BO46" s="133"/>
-      <c r="BP46" s="134"/>
-      <c r="BQ46" s="134"/>
-      <c r="BR46" s="134"/>
-      <c r="BS46" s="134"/>
-      <c r="BT46" s="134"/>
-      <c r="BU46" s="133"/>
-      <c r="BV46" s="133"/>
-      <c r="BW46" s="133"/>
-      <c r="BX46" s="133"/>
-      <c r="BY46" s="133"/>
-      <c r="BZ46" s="133"/>
-      <c r="CA46" s="133"/>
-      <c r="CB46" s="133"/>
-      <c r="CC46" s="133"/>
-      <c r="CD46" s="133"/>
-      <c r="CE46" s="135"/>
-    </row>
-    <row r="47" spans="1:83" ht="14.25" customHeight="1">
-      <c r="A47" s="74"/>
-      <c r="D47" s="75"/>
-    </row>
-    <row r="48" spans="1:83" ht="30" customHeight="1">
+      <c r="B46" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="68">
+        <v>45255</v>
+      </c>
+      <c r="E46" s="68">
+        <v>44529</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="40"/>
+      <c r="AO46" s="40"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
+      <c r="AY46" s="28"/>
+      <c r="AZ46" s="28"/>
+      <c r="BA46" s="28"/>
+      <c r="BB46" s="40"/>
+      <c r="BC46" s="40"/>
+      <c r="BD46" s="28"/>
+      <c r="BE46" s="28"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="28"/>
+      <c r="BH46" s="28"/>
+      <c r="BI46" s="40"/>
+      <c r="BJ46" s="40"/>
+      <c r="BK46" s="28"/>
+      <c r="BL46" s="28"/>
+      <c r="BM46" s="28"/>
+      <c r="BN46" s="91"/>
+      <c r="BO46" s="92"/>
+      <c r="BP46" s="126"/>
+      <c r="BQ46" s="123"/>
+      <c r="BR46" s="123"/>
+      <c r="BS46" s="123"/>
+      <c r="BT46" s="124"/>
+      <c r="BU46" s="83"/>
+      <c r="BV46" s="28"/>
+      <c r="BW46" s="40"/>
+      <c r="BX46" s="40"/>
+      <c r="BY46" s="40"/>
+      <c r="BZ46" s="28"/>
+      <c r="CA46" s="28"/>
+      <c r="CB46" s="28"/>
+      <c r="CC46" s="28"/>
+      <c r="CD46" s="40"/>
+      <c r="CE46" s="40"/>
+    </row>
+    <row r="47" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="133"/>
+      <c r="P47" s="133"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="133"/>
+      <c r="S47" s="133"/>
+      <c r="T47" s="133"/>
+      <c r="U47" s="133"/>
+      <c r="V47" s="133"/>
+      <c r="W47" s="133"/>
+      <c r="X47" s="133"/>
+      <c r="Y47" s="133"/>
+      <c r="Z47" s="133"/>
+      <c r="AA47" s="133"/>
+      <c r="AB47" s="133"/>
+      <c r="AC47" s="133"/>
+      <c r="AD47" s="133"/>
+      <c r="AE47" s="133"/>
+      <c r="AF47" s="133"/>
+      <c r="AG47" s="133"/>
+      <c r="AH47" s="133"/>
+      <c r="AI47" s="133"/>
+      <c r="AJ47" s="133"/>
+      <c r="AK47" s="133"/>
+      <c r="AL47" s="133"/>
+      <c r="AM47" s="133"/>
+      <c r="AN47" s="133"/>
+      <c r="AO47" s="133"/>
+      <c r="AP47" s="133"/>
+      <c r="AQ47" s="133"/>
+      <c r="AR47" s="133"/>
+      <c r="AS47" s="133"/>
+      <c r="AT47" s="133"/>
+      <c r="AU47" s="133"/>
+      <c r="AV47" s="133"/>
+      <c r="AW47" s="133"/>
+      <c r="AX47" s="133"/>
+      <c r="AY47" s="133"/>
+      <c r="AZ47" s="133"/>
+      <c r="BA47" s="133"/>
+      <c r="BB47" s="133"/>
+      <c r="BC47" s="133"/>
+      <c r="BD47" s="133"/>
+      <c r="BE47" s="133"/>
+      <c r="BF47" s="133"/>
+      <c r="BG47" s="133"/>
+      <c r="BH47" s="133"/>
+      <c r="BI47" s="133"/>
+      <c r="BJ47" s="133"/>
+      <c r="BK47" s="133"/>
+      <c r="BL47" s="133"/>
+      <c r="BM47" s="133"/>
+      <c r="BN47" s="133"/>
+      <c r="BO47" s="133"/>
+      <c r="BP47" s="134"/>
+      <c r="BQ47" s="134"/>
+      <c r="BR47" s="134"/>
+      <c r="BS47" s="134"/>
+      <c r="BT47" s="134"/>
+      <c r="BU47" s="133"/>
+      <c r="BV47" s="133"/>
+      <c r="BW47" s="133"/>
+      <c r="BX47" s="133"/>
+      <c r="BY47" s="133"/>
+      <c r="BZ47" s="133"/>
+      <c r="CA47" s="133"/>
+      <c r="CB47" s="133"/>
+      <c r="CC47" s="133"/>
+      <c r="CD47" s="133"/>
+      <c r="CE47" s="135"/>
+    </row>
+    <row r="48" spans="1:83" ht="14.25" customHeight="1">
       <c r="A48" s="74"/>
-      <c r="C48" s="76"/>
       <c r="D48" s="75"/>
-      <c r="E48" s="77"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1">
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49" s="74"/>
-      <c r="C49" s="78"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="75"/>
-    </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1">
+      <c r="E49" s="77"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="74"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="75"/>
     </row>
-    <row r="51" spans="1:4" ht="14.25" customHeight="1">
+    <row r="51" spans="1:5" ht="14.25" customHeight="1">
       <c r="A51" s="74"/>
       <c r="D51" s="75"/>
     </row>
-    <row r="52" spans="1:4" ht="14.25" customHeight="1">
+    <row r="52" spans="1:5" ht="14.25" customHeight="1">
       <c r="A52" s="74"/>
       <c r="D52" s="75"/>
     </row>
-    <row r="53" spans="1:4" ht="14.25" customHeight="1">
+    <row r="53" spans="1:5" ht="14.25" customHeight="1">
       <c r="A53" s="74"/>
       <c r="D53" s="75"/>
     </row>
-    <row r="54" spans="1:4" ht="14.25" customHeight="1">
+    <row r="54" spans="1:5" ht="14.25" customHeight="1">
       <c r="A54" s="74"/>
       <c r="D54" s="75"/>
     </row>
-    <row r="55" spans="1:4" ht="14.25" customHeight="1">
+    <row r="55" spans="1:5" ht="14.25" customHeight="1">
       <c r="A55" s="74"/>
       <c r="D55" s="75"/>
     </row>
-    <row r="56" spans="1:4" ht="14.25" customHeight="1">
+    <row r="56" spans="1:5" ht="14.25" customHeight="1">
       <c r="A56" s="74"/>
       <c r="D56" s="75"/>
     </row>
-    <row r="57" spans="1:4" ht="14.25" customHeight="1">
+    <row r="57" spans="1:5" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
       <c r="D57" s="75"/>
     </row>
-    <row r="58" spans="1:4" ht="14.25" customHeight="1">
+    <row r="58" spans="1:5" ht="14.25" customHeight="1">
       <c r="A58" s="74"/>
       <c r="D58" s="75"/>
     </row>
-    <row r="59" spans="1:4" ht="14.25" customHeight="1">
+    <row r="59" spans="1:5" ht="14.25" customHeight="1">
       <c r="A59" s="74"/>
       <c r="D59" s="75"/>
     </row>
-    <row r="60" spans="1:4" ht="14.25" customHeight="1">
+    <row r="60" spans="1:5" ht="14.25" customHeight="1">
       <c r="A60" s="74"/>
       <c r="D60" s="75"/>
     </row>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1">
+    <row r="61" spans="1:5" ht="14.25" customHeight="1">
       <c r="A61" s="74"/>
       <c r="D61" s="75"/>
     </row>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1">
+    <row r="62" spans="1:5" ht="14.25" customHeight="1">
       <c r="A62" s="74"/>
       <c r="D62" s="75"/>
     </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1">
+    <row r="63" spans="1:5" ht="14.25" customHeight="1">
       <c r="A63" s="74"/>
       <c r="D63" s="75"/>
     </row>
-    <row r="64" spans="1:4" ht="14.25" customHeight="1">
+    <row r="64" spans="1:5" ht="14.25" customHeight="1">
       <c r="A64" s="74"/>
       <c r="D64" s="75"/>
     </row>
@@ -9941,32 +10068,37 @@
       <c r="A1000" s="74"/>
       <c r="D1000" s="75"/>
     </row>
+    <row r="1001" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1001" s="74"/>
+      <c r="D1001" s="75"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="BA33:BF33"/>
-    <mergeCell ref="BF38:BL38"/>
-    <mergeCell ref="BK41:BS41"/>
-    <mergeCell ref="BM42:BS42"/>
-    <mergeCell ref="G34:CE34"/>
-    <mergeCell ref="BJ40:BO40"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="BM43:BQ43"/>
-    <mergeCell ref="BP45:BT45"/>
-    <mergeCell ref="G46:CE46"/>
-    <mergeCell ref="AJ20:AO20"/>
-    <mergeCell ref="AO25:AT25"/>
-    <mergeCell ref="AP26:AY26"/>
-    <mergeCell ref="AV27:BF27"/>
-    <mergeCell ref="BI39:BO39"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="AS29:BC29"/>
-    <mergeCell ref="AT30:BD30"/>
-    <mergeCell ref="AV31:AZ31"/>
-    <mergeCell ref="AW32:BF32"/>
-    <mergeCell ref="BB35:BE35"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="BA34:BF34"/>
+    <mergeCell ref="BF39:BL39"/>
+    <mergeCell ref="BK42:BS42"/>
+    <mergeCell ref="BM43:BS43"/>
+    <mergeCell ref="G35:CE35"/>
+    <mergeCell ref="BJ41:BO41"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BM44:BQ44"/>
+    <mergeCell ref="BP46:BT46"/>
+    <mergeCell ref="G47:CE47"/>
+    <mergeCell ref="AJ21:AO21"/>
+    <mergeCell ref="AO26:AT26"/>
+    <mergeCell ref="AP27:AY27"/>
+    <mergeCell ref="AV28:BF28"/>
+    <mergeCell ref="BI40:BO40"/>
+    <mergeCell ref="AR29:BB29"/>
+    <mergeCell ref="AS30:BC30"/>
+    <mergeCell ref="AT31:BD31"/>
+    <mergeCell ref="AV32:AZ32"/>
+    <mergeCell ref="AW33:BF33"/>
+    <mergeCell ref="BB36:BE36"/>
     <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="D2:E2"/>
@@ -9981,21 +10113,21 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BN44:BT44"/>
+    <mergeCell ref="BN45:BT45"/>
     <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AL22:AQ22"/>
-    <mergeCell ref="AK23:AQ23"/>
-    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="AK22:AP22"/>
+    <mergeCell ref="AL23:AQ23"/>
+    <mergeCell ref="AK24:AQ24"/>
+    <mergeCell ref="AN25:AS25"/>
     <mergeCell ref="V9:Z9"/>
     <mergeCell ref="AA11:AH11"/>
     <mergeCell ref="AB12:AG12"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="AD16:AK16"/>
-    <mergeCell ref="BF36:BJ36"/>
-    <mergeCell ref="BE37:BL37"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="BF37:BJ37"/>
+    <mergeCell ref="BE38:BL38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\Rendszerfejlesztés1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A350B1-16CE-402B-82C1-444703169A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="task_end" localSheetId="0">'Gantt-diagram'!$E$1</definedName>
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -140,9 +134,6 @@
     <t>8.3.8. Bemutatkozó oldal</t>
   </si>
   <si>
-    <t>8.3.9. Páciensek lecke oldala</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.3.10. Email-es kiértesítés új időpontfoglalás esetén </t>
   </si>
   <si>
@@ -156,9 +147,6 @@
   </si>
   <si>
     <t>8.3.14. A prototípus kitelepítése éles környezetbe</t>
-  </si>
-  <si>
-    <t>8.3.15. Bemutató elkészítése</t>
   </si>
   <si>
     <t xml:space="preserve">4. Mérföldkő </t>
@@ -211,18 +199,54 @@
   <si>
     <t>8.2.8. Bemutató elkészítése</t>
   </si>
+  <si>
+    <t>8.3.15 Bejelentkező oldal</t>
+  </si>
+  <si>
+    <t>8.3.16 Regisztrációs oldal</t>
+  </si>
+  <si>
+    <t>8.3.17 Admin oldal</t>
+  </si>
+  <si>
+    <t>8.3.18 Ptofil oldal</t>
+  </si>
+  <si>
+    <t>8.3.9. Regisztráltak lecke oldala</t>
+  </si>
+  <si>
+    <t>8.3.19 időpont foglaló oldal</t>
+  </si>
+  <si>
+    <t>8.3.20 Cikkek oldala</t>
+  </si>
+  <si>
+    <t>8.3.0 Táblákat létre hozó SQL kódok létrehozása DB-hez</t>
+  </si>
+  <si>
+    <t>2-5 adat a táblákba</t>
+  </si>
+  <si>
+    <t>8.3.22 Adatbázis feltöltése ( min pár adat a táblákba)</t>
+  </si>
+  <si>
+    <t>8.3.21 Felpakolás Ocean-re</t>
+  </si>
+  <si>
+    <t>8.3.23. Bemutató elkészítése</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/\ mmm/\ d/"/>
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,8 +378,34 @@
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +568,18 @@
         <bgColor rgb="FFC3D69B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -724,17 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
@@ -836,19 +885,6 @@
       <left/>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD8D8D8"/>
       </right>
       <top style="medium">
         <color rgb="FFD9D9D9"/>
@@ -1023,11 +1059,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD8D8D8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD8D8D8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1171,16 +1271,16 @@
     <xf numFmtId="167" fontId="5" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,7 +1295,7 @@
     <xf numFmtId="166" fontId="14" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,13 +1332,55 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,94 +1389,93 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,78 +1491,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="45" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="46" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Jelölőszín (5)" xfId="3" builtinId="45"/>
+    <cellStyle name="Kimenet" xfId="1" builtinId="21"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Számítás" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1638,24 +1805,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE1001"/>
+  <dimension ref="A1:CE1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN37" sqref="AN37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="80.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="83" width="2.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="83" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:83" ht="25.5" customHeight="1">
@@ -1769,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="119"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -1856,10 +2023,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="118">
+      <c r="D3" s="135">
         <v>45197</v>
       </c>
-      <c r="E3" s="119"/>
+      <c r="E3" s="136"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1945,117 +2112,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="115">
+      <c r="F4" s="137"/>
+      <c r="G4" s="132">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="115">
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="132">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="115">
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="132">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="115">
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="132">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="115">
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="132">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="115">
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="132">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="115">
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="132">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="117"/>
-      <c r="BD4" s="115">
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="132">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="117"/>
-      <c r="BK4" s="115">
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="132">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="117"/>
-      <c r="BR4" s="115">
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="133"/>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="134"/>
+      <c r="BR4" s="132">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="116"/>
-      <c r="BT4" s="116"/>
-      <c r="BU4" s="116"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="117"/>
-      <c r="BY4" s="115">
+      <c r="BS4" s="133"/>
+      <c r="BT4" s="133"/>
+      <c r="BU4" s="133"/>
+      <c r="BV4" s="133"/>
+      <c r="BW4" s="133"/>
+      <c r="BX4" s="134"/>
+      <c r="BY4" s="132">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="116"/>
-      <c r="CA4" s="116"/>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="117"/>
+      <c r="BZ4" s="133"/>
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="133"/>
+      <c r="CD4" s="133"/>
+      <c r="CE4" s="134"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -2071,7 +2238,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="121"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2572,18 +2739,18 @@
       <c r="G8" s="102"/>
       <c r="H8" s="83"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="108"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="141"/>
       <c r="V8" s="85"/>
       <c r="W8" s="86"/>
       <c r="X8" s="86"/>
@@ -2678,11 +2845,11 @@
       <c r="S9" s="96"/>
       <c r="T9" s="96"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="124"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="115"/>
       <c r="AA9" s="84"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -2864,13 +3031,13 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="81"/>
       <c r="AA11" s="125"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="124"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
+      <c r="AD11" s="114"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="114"/>
+      <c r="AH11" s="115"/>
       <c r="AI11" s="83"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
@@ -2957,12 +3124,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="142"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="144"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3051,15 +3218,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="144"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="144"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3145,13 +3312,13 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="149"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="146"/>
       <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -3202,16 +3369,16 @@
     </row>
     <row r="15" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="146" t="s">
+      <c r="B15" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="147">
+      <c r="D15" s="106">
         <v>45222</v>
       </c>
-      <c r="E15" s="147">
+      <c r="E15" s="106">
         <v>45224</v>
       </c>
       <c r="F15" s="82"/>
@@ -3238,14 +3405,14 @@
       <c r="AA15" s="40"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="92"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
-      <c r="AJ15" s="152"/>
-      <c r="AK15" s="152"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="109"/>
+      <c r="AJ15" s="109"/>
+      <c r="AK15" s="109"/>
       <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3296,7 +3463,7 @@
     <row r="16" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>5</v>
@@ -3332,12 +3499,12 @@
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="150"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="143"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="148"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="148"/>
+      <c r="AI16" s="148"/>
+      <c r="AJ16" s="149"/>
       <c r="AK16" s="93"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -3389,7 +3556,7 @@
     <row r="17" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>3</v>
@@ -3424,14 +3591,14 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="123"/>
-      <c r="AH17" s="123"/>
-      <c r="AI17" s="123"/>
-      <c r="AJ17" s="123"/>
-      <c r="AK17" s="124"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="115"/>
       <c r="AL17" s="83"/>
       <c r="AM17" s="28"/>
       <c r="AN17" s="40"/>
@@ -3482,7 +3649,7 @@
     <row r="18" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>1</v>
@@ -3493,7 +3660,7 @@
       <c r="E18" s="47">
         <v>45225</v>
       </c>
-      <c r="F18" s="130"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3520,11 +3687,11 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="123"/>
-      <c r="AI18" s="123"/>
-      <c r="AJ18" s="123"/>
-      <c r="AK18" s="124"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="115"/>
       <c r="AL18" s="83"/>
       <c r="AM18" s="28"/>
       <c r="AN18" s="40"/>
@@ -3580,7 +3747,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="131"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3660,22 +3827,20 @@
       <c r="CE19" s="53"/>
     </row>
     <row r="20" spans="1:83" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="56">
-        <v>45222</v>
-      </c>
-      <c r="E20" s="56">
-        <v>45227</v>
-      </c>
-      <c r="F20" s="39"/>
+      <c r="D20" s="153">
+        <v>45229</v>
+      </c>
+      <c r="E20" s="153">
+        <v>45230</v>
+      </c>
+      <c r="F20" s="82"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -3704,15 +3869,15 @@
       <c r="AF20" s="28"/>
       <c r="AG20" s="40"/>
       <c r="AH20" s="81"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
+      <c r="AI20" s="164"/>
+      <c r="AJ20" s="164"/>
+      <c r="AK20" s="164"/>
+      <c r="AL20" s="164"/>
+      <c r="AM20" s="165"/>
+      <c r="AN20" s="165"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="168"/>
+      <c r="AQ20" s="169"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
@@ -3755,20 +3920,22 @@
       <c r="CE20" s="40"/>
     </row>
     <row r="21" spans="1:83" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
       <c r="B21" s="54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="56">
-        <v>45223</v>
+        <v>45222</v>
       </c>
       <c r="E21" s="56">
-        <v>45228</v>
-      </c>
-      <c r="F21" s="57"/>
+        <v>45227</v>
+      </c>
+      <c r="F21" s="39"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
@@ -3796,15 +3963,15 @@
       <c r="AE21" s="28"/>
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="123"/>
-      <c r="AL21" s="123"/>
-      <c r="AM21" s="123"/>
-      <c r="AN21" s="123"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="85"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="121"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
       <c r="AR21" s="28"/>
       <c r="AS21" s="28"/>
@@ -3850,16 +4017,16 @@
     <row r="22" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="1"/>
       <c r="B22" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="56">
-        <v>45224</v>
+        <v>45223</v>
       </c>
       <c r="E22" s="56">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="28"/>
@@ -3890,15 +4057,15 @@
       <c r="AF22" s="28"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="85"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="28"/>
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -3943,16 +4110,16 @@
     <row r="23" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="56">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="E23" s="56">
-        <v>45230</v>
+        <v>45229</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="28"/>
@@ -3984,15 +4151,15 @@
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="109"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="110"/>
-      <c r="AO23" s="110"/>
-      <c r="AP23" s="110"/>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="83"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="129"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
+      <c r="AN23" s="130"/>
+      <c r="AO23" s="130"/>
+      <c r="AP23" s="131"/>
+      <c r="AQ23" s="85"/>
+      <c r="AR23" s="28"/>
       <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
       <c r="AU23" s="40"/>
@@ -4036,13 +4203,13 @@
     <row r="24" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="1"/>
       <c r="B24" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="56">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="E24" s="56">
         <v>45230</v>
@@ -4077,16 +4244,16 @@
       <c r="AG24" s="40"/>
       <c r="AH24" s="40"/>
       <c r="AI24" s="28"/>
-      <c r="AJ24" s="80"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="104"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="105"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="86"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="97"/>
+      <c r="AL24" s="119"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="120"/>
+      <c r="AO24" s="120"/>
+      <c r="AP24" s="120"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="83"/>
+      <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
       <c r="AU24" s="40"/>
       <c r="AV24" s="40"/>
@@ -4129,16 +4296,16 @@
     <row r="25" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="56">
-        <v>45227</v>
+        <v>45224</v>
       </c>
       <c r="E25" s="56">
-        <v>45232</v>
+        <v>45225</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="28"/>
@@ -4170,17 +4337,17 @@
       <c r="AG25" s="40"/>
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="92"/>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
-      <c r="AR25" s="113"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="85"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="86"/>
+      <c r="AT25" s="28"/>
       <c r="AU25" s="40"/>
       <c r="AV25" s="40"/>
       <c r="AW25" s="28"/>
@@ -4221,17 +4388,17 @@
     </row>
     <row r="26" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="58" t="s">
-        <v>31</v>
+      <c r="B26" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26" s="56">
-        <v>45228</v>
+        <v>45227</v>
       </c>
       <c r="E26" s="56">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="28"/>
@@ -4264,21 +4431,21 @@
       <c r="AH26" s="40"/>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="28"/>
-      <c r="AK26" s="28"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="28"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="128"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="123"/>
-      <c r="AS26" s="123"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="60"/>
-      <c r="AW26" s="86"/>
-      <c r="AX26" s="86"/>
-      <c r="AY26" s="86"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="92"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="130"/>
+      <c r="AP26" s="130"/>
+      <c r="AQ26" s="130"/>
+      <c r="AR26" s="130"/>
+      <c r="AS26" s="131"/>
+      <c r="AT26" s="85"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="28"/>
       <c r="BB26" s="40"/>
@@ -4315,16 +4482,16 @@
     <row r="27" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
       <c r="B27" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="56">
-        <v>45229</v>
+        <v>45228</v>
       </c>
       <c r="E27" s="56">
-        <v>45238</v>
+        <v>45233</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="28"/>
@@ -4360,25 +4527,25 @@
       <c r="AK27" s="28"/>
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
-      <c r="AN27" s="40"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="129"/>
-      <c r="AQ27" s="123"/>
-      <c r="AR27" s="123"/>
-      <c r="AS27" s="123"/>
-      <c r="AT27" s="123"/>
-      <c r="AU27" s="123"/>
-      <c r="AV27" s="123"/>
-      <c r="AW27" s="123"/>
-      <c r="AX27" s="123"/>
-      <c r="AY27" s="124"/>
-      <c r="AZ27" s="85"/>
-      <c r="BA27" s="86"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="86"/>
-      <c r="BE27" s="86"/>
-      <c r="BF27" s="86"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="124"/>
+      <c r="AP27" s="162"/>
+      <c r="AQ27" s="162"/>
+      <c r="AR27" s="162"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="163"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="60"/>
+      <c r="AW27" s="86"/>
+      <c r="AX27" s="86"/>
+      <c r="AY27" s="86"/>
+      <c r="AZ27" s="28"/>
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
       <c r="BG27" s="28"/>
       <c r="BH27" s="28"/>
       <c r="BI27" s="40"/>
@@ -4407,17 +4574,17 @@
     </row>
     <row r="28" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="54" t="s">
-        <v>33</v>
+      <c r="B28" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="56">
-        <v>45235</v>
+        <v>45229</v>
       </c>
       <c r="E28" s="56">
-        <v>45245</v>
+        <v>45238</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="28"/>
@@ -4454,25 +4621,25 @@
       <c r="AL28" s="28"/>
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="98"/>
-      <c r="AV28" s="128"/>
-      <c r="AW28" s="123"/>
-      <c r="AX28" s="123"/>
-      <c r="AY28" s="123"/>
-      <c r="AZ28" s="123"/>
-      <c r="BA28" s="123"/>
-      <c r="BB28" s="123"/>
-      <c r="BC28" s="123"/>
-      <c r="BD28" s="123"/>
-      <c r="BE28" s="123"/>
-      <c r="BF28" s="124"/>
-      <c r="BG28" s="83"/>
+      <c r="AO28" s="95"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="160"/>
+      <c r="AR28" s="160"/>
+      <c r="AS28" s="160"/>
+      <c r="AT28" s="160"/>
+      <c r="AU28" s="160"/>
+      <c r="AV28" s="160"/>
+      <c r="AW28" s="160"/>
+      <c r="AX28" s="160"/>
+      <c r="AY28" s="161"/>
+      <c r="AZ28" s="85"/>
+      <c r="BA28" s="86"/>
+      <c r="BB28" s="60"/>
+      <c r="BC28" s="60"/>
+      <c r="BD28" s="86"/>
+      <c r="BE28" s="86"/>
+      <c r="BF28" s="86"/>
+      <c r="BG28" s="28"/>
       <c r="BH28" s="28"/>
       <c r="BI28" s="40"/>
       <c r="BJ28" s="40"/>
@@ -4501,16 +4668,16 @@
     <row r="29" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="54" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="56">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="E29" s="56">
-        <v>45241</v>
+        <v>45245</v>
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="28"/>
@@ -4548,24 +4715,24 @@
       <c r="AM29" s="28"/>
       <c r="AN29" s="40"/>
       <c r="AO29" s="40"/>
-      <c r="AP29" s="28"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="125"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="123"/>
-      <c r="AW29" s="123"/>
-      <c r="AX29" s="123"/>
-      <c r="AY29" s="123"/>
-      <c r="AZ29" s="123"/>
-      <c r="BA29" s="123"/>
-      <c r="BB29" s="124"/>
-      <c r="BC29" s="100"/>
-      <c r="BD29" s="91"/>
-      <c r="BE29" s="91"/>
-      <c r="BF29" s="91"/>
-      <c r="BG29" s="28"/>
+      <c r="AP29" s="91"/>
+      <c r="AQ29" s="91"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="124"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="115"/>
+      <c r="BG29" s="83"/>
       <c r="BH29" s="28"/>
       <c r="BI29" s="40"/>
       <c r="BJ29" s="40"/>
@@ -4594,16 +4761,16 @@
     <row r="30" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
       <c r="B30" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="56">
-        <v>45232</v>
+        <v>45231</v>
       </c>
       <c r="E30" s="56">
-        <v>45242</v>
+        <v>45241</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="28"/>
@@ -4642,22 +4809,22 @@
       <c r="AN30" s="40"/>
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="92"/>
-      <c r="AS30" s="129"/>
-      <c r="AT30" s="123"/>
-      <c r="AU30" s="123"/>
-      <c r="AV30" s="123"/>
-      <c r="AW30" s="123"/>
-      <c r="AX30" s="123"/>
-      <c r="AY30" s="123"/>
-      <c r="AZ30" s="123"/>
-      <c r="BA30" s="123"/>
-      <c r="BB30" s="123"/>
-      <c r="BC30" s="124"/>
-      <c r="BD30" s="85"/>
-      <c r="BE30" s="28"/>
-      <c r="BF30" s="28"/>
+      <c r="AQ30" s="80"/>
+      <c r="AR30" s="125"/>
+      <c r="AS30" s="158"/>
+      <c r="AT30" s="158"/>
+      <c r="AU30" s="158"/>
+      <c r="AV30" s="158"/>
+      <c r="AW30" s="158"/>
+      <c r="AX30" s="158"/>
+      <c r="AY30" s="158"/>
+      <c r="AZ30" s="158"/>
+      <c r="BA30" s="158"/>
+      <c r="BB30" s="159"/>
+      <c r="BC30" s="100"/>
+      <c r="BD30" s="91"/>
+      <c r="BE30" s="91"/>
+      <c r="BF30" s="91"/>
       <c r="BG30" s="28"/>
       <c r="BH30" s="28"/>
       <c r="BI30" s="40"/>
@@ -4687,16 +4854,16 @@
     <row r="31" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="56">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="E31" s="56">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="28"/>
@@ -4736,20 +4903,20 @@
       <c r="AO31" s="40"/>
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="92"/>
-      <c r="AT31" s="125"/>
-      <c r="AU31" s="123"/>
-      <c r="AV31" s="123"/>
-      <c r="AW31" s="123"/>
-      <c r="AX31" s="123"/>
-      <c r="AY31" s="123"/>
-      <c r="AZ31" s="123"/>
-      <c r="BA31" s="123"/>
-      <c r="BB31" s="123"/>
-      <c r="BC31" s="123"/>
-      <c r="BD31" s="124"/>
-      <c r="BE31" s="83"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="118"/>
+      <c r="AT31" s="160"/>
+      <c r="AU31" s="160"/>
+      <c r="AV31" s="160"/>
+      <c r="AW31" s="160"/>
+      <c r="AX31" s="160"/>
+      <c r="AY31" s="160"/>
+      <c r="AZ31" s="160"/>
+      <c r="BA31" s="160"/>
+      <c r="BB31" s="160"/>
+      <c r="BC31" s="161"/>
+      <c r="BD31" s="85"/>
+      <c r="BE31" s="28"/>
       <c r="BF31" s="28"/>
       <c r="BG31" s="28"/>
       <c r="BH31" s="28"/>
@@ -4780,16 +4947,16 @@
     <row r="32" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="56">
-        <v>45234</v>
+        <v>45233</v>
       </c>
       <c r="E32" s="56">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="28"/>
@@ -4830,20 +4997,20 @@
       <c r="AP32" s="28"/>
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="127"/>
-      <c r="AW32" s="123"/>
-      <c r="AX32" s="123"/>
-      <c r="AY32" s="123"/>
-      <c r="AZ32" s="124"/>
-      <c r="BA32" s="93"/>
-      <c r="BB32" s="99"/>
-      <c r="BC32" s="99"/>
-      <c r="BD32" s="94"/>
-      <c r="BE32" s="86"/>
-      <c r="BF32" s="86"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="125"/>
+      <c r="AU32" s="158"/>
+      <c r="AV32" s="158"/>
+      <c r="AW32" s="158"/>
+      <c r="AX32" s="158"/>
+      <c r="AY32" s="158"/>
+      <c r="AZ32" s="158"/>
+      <c r="BA32" s="158"/>
+      <c r="BB32" s="158"/>
+      <c r="BC32" s="158"/>
+      <c r="BD32" s="159"/>
+      <c r="BE32" s="83"/>
+      <c r="BF32" s="28"/>
       <c r="BG32" s="28"/>
       <c r="BH32" s="28"/>
       <c r="BI32" s="40"/>
@@ -4872,112 +5039,112 @@
     </row>
     <row r="33" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="58" t="s">
-        <v>38</v>
+      <c r="B33" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="56">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="E33" s="56">
-        <v>45245</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
-      <c r="AU33" s="60"/>
-      <c r="AV33" s="98"/>
-      <c r="AW33" s="103"/>
-      <c r="AX33" s="104"/>
-      <c r="AY33" s="104"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="104"/>
-      <c r="BB33" s="104"/>
-      <c r="BC33" s="104"/>
-      <c r="BD33" s="104"/>
-      <c r="BE33" s="104"/>
-      <c r="BF33" s="105"/>
-      <c r="BG33" s="85"/>
-      <c r="BH33" s="59"/>
-      <c r="BI33" s="60"/>
-      <c r="BJ33" s="60"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="59"/>
-      <c r="BM33" s="59"/>
-      <c r="BN33" s="59"/>
-      <c r="BO33" s="59"/>
-      <c r="BP33" s="60"/>
-      <c r="BQ33" s="60"/>
-      <c r="BR33" s="59"/>
-      <c r="BS33" s="59"/>
-      <c r="BT33" s="59"/>
-      <c r="BU33" s="59"/>
-      <c r="BV33" s="59"/>
-      <c r="BW33" s="60"/>
-      <c r="BX33" s="60"/>
-      <c r="BY33" s="59"/>
-      <c r="BZ33" s="59"/>
-      <c r="CA33" s="59"/>
-      <c r="CB33" s="59"/>
-      <c r="CC33" s="59"/>
-      <c r="CD33" s="60"/>
-      <c r="CE33" s="60"/>
+        <v>45239</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="40"/>
+      <c r="AO33" s="40"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="117"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="115"/>
+      <c r="BA33" s="93"/>
+      <c r="BB33" s="99"/>
+      <c r="BC33" s="99"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="86"/>
+      <c r="BF33" s="86"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="40"/>
+      <c r="BJ33" s="40"/>
+      <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
+      <c r="BM33" s="28"/>
+      <c r="BN33" s="28"/>
+      <c r="BO33" s="28"/>
+      <c r="BP33" s="40"/>
+      <c r="BQ33" s="40"/>
+      <c r="BR33" s="28"/>
+      <c r="BS33" s="28"/>
+      <c r="BT33" s="28"/>
+      <c r="BU33" s="28"/>
+      <c r="BV33" s="28"/>
+      <c r="BW33" s="40"/>
+      <c r="BX33" s="40"/>
+      <c r="BY33" s="28"/>
+      <c r="BZ33" s="28"/>
+      <c r="CA33" s="28"/>
+      <c r="CB33" s="28"/>
+      <c r="CC33" s="28"/>
+      <c r="CD33" s="40"/>
+      <c r="CE33" s="40"/>
     </row>
     <row r="34" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="54" t="s">
-        <v>39</v>
+      <c r="B34" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" s="56">
-        <v>45240</v>
+        <v>45236</v>
       </c>
       <c r="E34" s="56">
         <v>45245</v>
       </c>
-      <c r="F34" s="130"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="59"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
@@ -5012,24 +5179,24 @@
       <c r="AL34" s="59"/>
       <c r="AM34" s="59"/>
       <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="60"/>
-      <c r="AV34" s="60"/>
-      <c r="AW34" s="91"/>
-      <c r="AX34" s="91"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
-      <c r="BA34" s="138"/>
-      <c r="BB34" s="123"/>
-      <c r="BC34" s="123"/>
-      <c r="BD34" s="123"/>
-      <c r="BE34" s="123"/>
-      <c r="BF34" s="124"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="98"/>
+      <c r="AW34" s="126"/>
+      <c r="AX34" s="127"/>
+      <c r="AY34" s="127"/>
+      <c r="AZ34" s="127"/>
+      <c r="BA34" s="127"/>
+      <c r="BB34" s="127"/>
+      <c r="BC34" s="127"/>
+      <c r="BD34" s="127"/>
+      <c r="BE34" s="127"/>
+      <c r="BF34" s="128"/>
       <c r="BG34" s="85"/>
       <c r="BH34" s="59"/>
       <c r="BI34" s="60"/>
@@ -5058,106 +5225,106 @@
     </row>
     <row r="35" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="133"/>
-      <c r="AC35" s="133"/>
-      <c r="AD35" s="133"/>
-      <c r="AE35" s="133"/>
-      <c r="AF35" s="133"/>
-      <c r="AG35" s="133"/>
-      <c r="AH35" s="133"/>
-      <c r="AI35" s="133"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="133"/>
-      <c r="AL35" s="133"/>
-      <c r="AM35" s="133"/>
-      <c r="AN35" s="133"/>
-      <c r="AO35" s="133"/>
-      <c r="AP35" s="133"/>
-      <c r="AQ35" s="133"/>
-      <c r="AR35" s="133"/>
-      <c r="AS35" s="133"/>
-      <c r="AT35" s="133"/>
-      <c r="AU35" s="133"/>
-      <c r="AV35" s="133"/>
-      <c r="AW35" s="133"/>
-      <c r="AX35" s="133"/>
-      <c r="AY35" s="133"/>
-      <c r="AZ35" s="133"/>
-      <c r="BA35" s="134"/>
-      <c r="BB35" s="137"/>
-      <c r="BC35" s="137"/>
-      <c r="BD35" s="137"/>
-      <c r="BE35" s="137"/>
-      <c r="BF35" s="134"/>
-      <c r="BG35" s="133"/>
-      <c r="BH35" s="133"/>
-      <c r="BI35" s="133"/>
-      <c r="BJ35" s="133"/>
-      <c r="BK35" s="133"/>
-      <c r="BL35" s="133"/>
-      <c r="BM35" s="133"/>
-      <c r="BN35" s="133"/>
-      <c r="BO35" s="133"/>
-      <c r="BP35" s="133"/>
-      <c r="BQ35" s="133"/>
-      <c r="BR35" s="133"/>
-      <c r="BS35" s="133"/>
-      <c r="BT35" s="133"/>
-      <c r="BU35" s="133"/>
-      <c r="BV35" s="133"/>
-      <c r="BW35" s="133"/>
-      <c r="BX35" s="133"/>
-      <c r="BY35" s="133"/>
-      <c r="BZ35" s="133"/>
-      <c r="CA35" s="133"/>
-      <c r="CB35" s="133"/>
-      <c r="CC35" s="133"/>
-      <c r="CD35" s="133"/>
-      <c r="CE35" s="135"/>
+      <c r="B35" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="153">
+        <v>45233</v>
+      </c>
+      <c r="E35" s="153">
+        <v>45240</v>
+      </c>
+      <c r="F35" s="82"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="172"/>
+      <c r="AV35" s="169"/>
+      <c r="AW35" s="169"/>
+      <c r="AX35" s="169"/>
+      <c r="AY35" s="169"/>
+      <c r="AZ35" s="169"/>
+      <c r="BA35" s="169"/>
+      <c r="BB35" s="40"/>
+      <c r="BC35" s="40"/>
+      <c r="BD35" s="28"/>
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="28"/>
+      <c r="BG35" s="28"/>
+      <c r="BH35" s="28"/>
+      <c r="BI35" s="40"/>
+      <c r="BJ35" s="40"/>
+      <c r="BK35" s="28"/>
+      <c r="BL35" s="28"/>
+      <c r="BM35" s="28"/>
+      <c r="BN35" s="28"/>
+      <c r="BO35" s="28"/>
+      <c r="BP35" s="40"/>
+      <c r="BQ35" s="40"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="28"/>
+      <c r="BT35" s="28"/>
+      <c r="BU35" s="28"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="40"/>
+      <c r="BX35" s="40"/>
+      <c r="BY35" s="28"/>
+      <c r="BZ35" s="28"/>
+      <c r="CA35" s="28"/>
+      <c r="CB35" s="28"/>
+      <c r="CC35" s="28"/>
+      <c r="CD35" s="40"/>
+      <c r="CE35" s="40"/>
     </row>
     <row r="36" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="68">
-        <v>45241</v>
-      </c>
-      <c r="E36" s="68">
-        <v>45244</v>
-      </c>
-      <c r="F36" s="131"/>
+      <c r="B36" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="152"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -5185,35 +5352,35 @@
       <c r="AE36" s="28"/>
       <c r="AF36" s="28"/>
       <c r="AG36" s="40"/>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28"/>
-      <c r="AN36" s="40"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="60"/>
       <c r="AO36" s="40"/>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28"/>
       <c r="AR36" s="28"/>
       <c r="AS36" s="28"/>
-      <c r="AT36" s="28"/>
-      <c r="AU36" s="40"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="95"/>
       <c r="AV36" s="40"/>
       <c r="AW36" s="28"/>
       <c r="AX36" s="28"/>
       <c r="AY36" s="28"/>
       <c r="AZ36" s="28"/>
-      <c r="BA36" s="80"/>
-      <c r="BB36" s="112"/>
-      <c r="BC36" s="113"/>
-      <c r="BD36" s="113"/>
-      <c r="BE36" s="114"/>
-      <c r="BF36" s="85"/>
-      <c r="BG36" s="86"/>
-      <c r="BH36" s="86"/>
-      <c r="BI36" s="60"/>
-      <c r="BJ36" s="60"/>
+      <c r="BA36" s="28"/>
+      <c r="BB36" s="40"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="28"/>
+      <c r="BE36" s="28"/>
+      <c r="BF36" s="28"/>
+      <c r="BG36" s="28"/>
+      <c r="BH36" s="28"/>
+      <c r="BI36" s="40"/>
+      <c r="BJ36" s="40"/>
       <c r="BK36" s="28"/>
       <c r="BL36" s="28"/>
       <c r="BM36" s="28"/>
@@ -5228,7 +5395,7 @@
       <c r="BV36" s="28"/>
       <c r="BW36" s="40"/>
       <c r="BX36" s="40"/>
-      <c r="BY36" s="40"/>
+      <c r="BY36" s="28"/>
       <c r="BZ36" s="28"/>
       <c r="CA36" s="28"/>
       <c r="CB36" s="28"/>
@@ -5238,19 +5405,13 @@
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="68">
-        <v>45245</v>
-      </c>
-      <c r="E37" s="68">
-        <v>45249</v>
-      </c>
-      <c r="F37" s="39"/>
+      <c r="B37" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="152"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -5278,37 +5439,37 @@
       <c r="AE37" s="28"/>
       <c r="AF37" s="28"/>
       <c r="AG37" s="40"/>
-      <c r="AH37" s="40"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28"/>
-      <c r="AN37" s="40"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="60"/>
       <c r="AO37" s="40"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28"/>
       <c r="AR37" s="28"/>
       <c r="AS37" s="28"/>
-      <c r="AT37" s="28"/>
-      <c r="AU37" s="40"/>
+      <c r="AT37" s="91"/>
+      <c r="AU37" s="95"/>
       <c r="AV37" s="40"/>
       <c r="AW37" s="28"/>
       <c r="AX37" s="28"/>
       <c r="AY37" s="28"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="28"/>
-      <c r="BB37" s="96"/>
-      <c r="BC37" s="96"/>
-      <c r="BD37" s="91"/>
-      <c r="BE37" s="97"/>
-      <c r="BF37" s="112"/>
-      <c r="BG37" s="113"/>
-      <c r="BH37" s="113"/>
-      <c r="BI37" s="113"/>
-      <c r="BJ37" s="114"/>
-      <c r="BK37" s="85"/>
-      <c r="BL37" s="86"/>
+      <c r="BB37" s="40"/>
+      <c r="BC37" s="40"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="40"/>
+      <c r="BJ37" s="40"/>
+      <c r="BK37" s="28"/>
+      <c r="BL37" s="28"/>
       <c r="BM37" s="28"/>
       <c r="BN37" s="28"/>
       <c r="BO37" s="28"/>
@@ -5321,7 +5482,7 @@
       <c r="BV37" s="28"/>
       <c r="BW37" s="40"/>
       <c r="BX37" s="40"/>
-      <c r="BY37" s="40"/>
+      <c r="BY37" s="28"/>
       <c r="BZ37" s="28"/>
       <c r="CA37" s="28"/>
       <c r="CB37" s="28"/>
@@ -5331,19 +5492,13 @@
     </row>
     <row r="38" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="68">
-        <v>45244</v>
-      </c>
-      <c r="E38" s="68">
-        <v>45251</v>
-      </c>
-      <c r="F38" s="39"/>
+      <c r="B38" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="152"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="82"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -5371,20 +5526,20 @@
       <c r="AE38" s="28"/>
       <c r="AF38" s="28"/>
       <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
-      <c r="AK38" s="28"/>
-      <c r="AL38" s="28"/>
-      <c r="AM38" s="28"/>
-      <c r="AN38" s="40"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="60"/>
       <c r="AO38" s="40"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28"/>
       <c r="AR38" s="28"/>
       <c r="AS38" s="28"/>
-      <c r="AT38" s="28"/>
-      <c r="AU38" s="40"/>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="95"/>
       <c r="AV38" s="40"/>
       <c r="AW38" s="28"/>
       <c r="AX38" s="28"/>
@@ -5393,16 +5548,16 @@
       <c r="BA38" s="28"/>
       <c r="BB38" s="40"/>
       <c r="BC38" s="40"/>
-      <c r="BD38" s="80"/>
-      <c r="BE38" s="103"/>
-      <c r="BF38" s="104"/>
-      <c r="BG38" s="104"/>
-      <c r="BH38" s="104"/>
-      <c r="BI38" s="104"/>
-      <c r="BJ38" s="104"/>
-      <c r="BK38" s="104"/>
-      <c r="BL38" s="105"/>
-      <c r="BM38" s="83"/>
+      <c r="BD38" s="28"/>
+      <c r="BE38" s="28"/>
+      <c r="BF38" s="28"/>
+      <c r="BG38" s="28"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="40"/>
+      <c r="BJ38" s="40"/>
+      <c r="BK38" s="28"/>
+      <c r="BL38" s="28"/>
+      <c r="BM38" s="28"/>
       <c r="BN38" s="28"/>
       <c r="BO38" s="28"/>
       <c r="BP38" s="40"/>
@@ -5414,7 +5569,7 @@
       <c r="BV38" s="28"/>
       <c r="BW38" s="40"/>
       <c r="BX38" s="40"/>
-      <c r="BY38" s="40"/>
+      <c r="BY38" s="28"/>
       <c r="BZ38" s="28"/>
       <c r="CA38" s="28"/>
       <c r="CB38" s="28"/>
@@ -5424,19 +5579,13 @@
     </row>
     <row r="39" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="68">
-        <v>45245</v>
-      </c>
-      <c r="E39" s="68">
-        <v>45251</v>
-      </c>
-      <c r="F39" s="39"/>
+      <c r="B39" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="152"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="82"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -5464,20 +5613,20 @@
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
       <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
-      <c r="AK39" s="28"/>
-      <c r="AL39" s="28"/>
-      <c r="AM39" s="28"/>
-      <c r="AN39" s="40"/>
+      <c r="AH39" s="81"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="60"/>
       <c r="AO39" s="40"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28"/>
       <c r="AR39" s="28"/>
       <c r="AS39" s="28"/>
-      <c r="AT39" s="28"/>
-      <c r="AU39" s="40"/>
+      <c r="AT39" s="91"/>
+      <c r="AU39" s="95"/>
       <c r="AV39" s="40"/>
       <c r="AW39" s="28"/>
       <c r="AX39" s="28"/>
@@ -5487,17 +5636,17 @@
       <c r="BB39" s="40"/>
       <c r="BC39" s="40"/>
       <c r="BD39" s="28"/>
-      <c r="BE39" s="92"/>
-      <c r="BF39" s="139"/>
-      <c r="BG39" s="123"/>
-      <c r="BH39" s="123"/>
-      <c r="BI39" s="123"/>
-      <c r="BJ39" s="123"/>
-      <c r="BK39" s="123"/>
-      <c r="BL39" s="124"/>
-      <c r="BM39" s="85"/>
-      <c r="BN39" s="88"/>
-      <c r="BO39" s="86"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="28"/>
+      <c r="BH39" s="28"/>
+      <c r="BI39" s="40"/>
+      <c r="BJ39" s="40"/>
+      <c r="BK39" s="28"/>
+      <c r="BL39" s="28"/>
+      <c r="BM39" s="28"/>
+      <c r="BN39" s="28"/>
+      <c r="BO39" s="28"/>
       <c r="BP39" s="40"/>
       <c r="BQ39" s="40"/>
       <c r="BR39" s="28"/>
@@ -5507,7 +5656,7 @@
       <c r="BV39" s="28"/>
       <c r="BW39" s="40"/>
       <c r="BX39" s="40"/>
-      <c r="BY39" s="40"/>
+      <c r="BY39" s="28"/>
       <c r="BZ39" s="28"/>
       <c r="CA39" s="28"/>
       <c r="CB39" s="28"/>
@@ -5517,19 +5666,13 @@
     </row>
     <row r="40" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="68">
-        <v>45248</v>
-      </c>
-      <c r="E40" s="68">
-        <v>44524</v>
-      </c>
-      <c r="F40" s="39"/>
+      <c r="B40" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="152"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -5557,20 +5700,20 @@
       <c r="AE40" s="28"/>
       <c r="AF40" s="28"/>
       <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="28"/>
-      <c r="AN40" s="40"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="60"/>
       <c r="AO40" s="40"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
       <c r="AR40" s="28"/>
       <c r="AS40" s="28"/>
-      <c r="AT40" s="28"/>
-      <c r="AU40" s="40"/>
+      <c r="AT40" s="91"/>
+      <c r="AU40" s="95"/>
       <c r="AV40" s="40"/>
       <c r="AW40" s="28"/>
       <c r="AX40" s="28"/>
@@ -5581,17 +5724,17 @@
       <c r="BC40" s="40"/>
       <c r="BD40" s="28"/>
       <c r="BE40" s="28"/>
-      <c r="BF40" s="91"/>
-      <c r="BG40" s="91"/>
-      <c r="BH40" s="92"/>
-      <c r="BI40" s="125"/>
-      <c r="BJ40" s="123"/>
-      <c r="BK40" s="123"/>
-      <c r="BL40" s="123"/>
-      <c r="BM40" s="123"/>
-      <c r="BN40" s="123"/>
-      <c r="BO40" s="124"/>
-      <c r="BP40" s="84"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="40"/>
+      <c r="BJ40" s="40"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="28"/>
+      <c r="BN40" s="28"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="40"/>
       <c r="BQ40" s="40"/>
       <c r="BR40" s="28"/>
       <c r="BS40" s="28"/>
@@ -5600,7 +5743,7 @@
       <c r="BV40" s="28"/>
       <c r="BW40" s="40"/>
       <c r="BX40" s="40"/>
-      <c r="BY40" s="40"/>
+      <c r="BY40" s="28"/>
       <c r="BZ40" s="28"/>
       <c r="CA40" s="28"/>
       <c r="CB40" s="28"/>
@@ -5609,20 +5752,16 @@
       <c r="CE40" s="40"/>
     </row>
     <row r="41" spans="1:83" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="68">
-        <v>45249</v>
-      </c>
-      <c r="E41" s="68">
-        <v>44524</v>
-      </c>
-      <c r="F41" s="39"/>
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="152"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="82"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -5650,20 +5789,20 @@
       <c r="AE41" s="28"/>
       <c r="AF41" s="28"/>
       <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="40"/>
+      <c r="AH41" s="81"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="60"/>
       <c r="AO41" s="40"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="28"/>
       <c r="AR41" s="28"/>
       <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="40"/>
+      <c r="AT41" s="91"/>
+      <c r="AU41" s="95"/>
       <c r="AV41" s="40"/>
       <c r="AW41" s="28"/>
       <c r="AX41" s="28"/>
@@ -5677,23 +5816,23 @@
       <c r="BF41" s="28"/>
       <c r="BG41" s="28"/>
       <c r="BH41" s="28"/>
-      <c r="BI41" s="95"/>
-      <c r="BJ41" s="109"/>
-      <c r="BK41" s="110"/>
-      <c r="BL41" s="110"/>
-      <c r="BM41" s="110"/>
-      <c r="BN41" s="110"/>
-      <c r="BO41" s="111"/>
-      <c r="BP41" s="87"/>
-      <c r="BQ41" s="60"/>
-      <c r="BR41" s="86"/>
-      <c r="BS41" s="86"/>
+      <c r="BI41" s="40"/>
+      <c r="BJ41" s="40"/>
+      <c r="BK41" s="28"/>
+      <c r="BL41" s="28"/>
+      <c r="BM41" s="28"/>
+      <c r="BN41" s="28"/>
+      <c r="BO41" s="28"/>
+      <c r="BP41" s="40"/>
+      <c r="BQ41" s="40"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="28"/>
       <c r="BT41" s="28"/>
       <c r="BU41" s="28"/>
       <c r="BV41" s="28"/>
       <c r="BW41" s="40"/>
       <c r="BX41" s="40"/>
-      <c r="BY41" s="40"/>
+      <c r="BY41" s="28"/>
       <c r="BZ41" s="28"/>
       <c r="CA41" s="28"/>
       <c r="CB41" s="28"/>
@@ -5703,298 +5842,286 @@
     </row>
     <row r="42" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="68">
-        <v>45250</v>
-      </c>
-      <c r="E42" s="68">
-        <v>44528</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28"/>
-      <c r="AN42" s="40"/>
+      <c r="B42" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="152"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="86"/>
+      <c r="AD42" s="86"/>
+      <c r="AE42" s="86"/>
+      <c r="AF42" s="86"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="166"/>
+      <c r="AI42" s="86"/>
+      <c r="AJ42" s="86"/>
+      <c r="AK42" s="86"/>
+      <c r="AL42" s="86"/>
+      <c r="AM42" s="86"/>
+      <c r="AN42" s="60"/>
       <c r="AO42" s="40"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28"/>
       <c r="AR42" s="28"/>
       <c r="AS42" s="28"/>
-      <c r="AT42" s="28"/>
-      <c r="AU42" s="40"/>
-      <c r="AV42" s="40"/>
-      <c r="AW42" s="28"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28"/>
-      <c r="AZ42" s="28"/>
-      <c r="BA42" s="28"/>
-      <c r="BB42" s="40"/>
-      <c r="BC42" s="40"/>
+      <c r="AT42" s="91"/>
+      <c r="AU42" s="95"/>
+      <c r="AV42" s="60"/>
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="91"/>
+      <c r="AY42" s="91"/>
+      <c r="AZ42" s="92"/>
+      <c r="BA42" s="167"/>
+      <c r="BB42" s="154"/>
+      <c r="BC42" s="154"/>
       <c r="BD42" s="28"/>
       <c r="BE42" s="28"/>
       <c r="BF42" s="28"/>
       <c r="BG42" s="28"/>
-      <c r="BH42" s="28"/>
-      <c r="BI42" s="40"/>
-      <c r="BJ42" s="95"/>
-      <c r="BK42" s="127"/>
-      <c r="BL42" s="123"/>
-      <c r="BM42" s="123"/>
-      <c r="BN42" s="123"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="124"/>
-      <c r="BT42" s="83"/>
-      <c r="BU42" s="28"/>
-      <c r="BV42" s="28"/>
-      <c r="BW42" s="40"/>
-      <c r="BX42" s="40"/>
-      <c r="BY42" s="40"/>
-      <c r="BZ42" s="28"/>
-      <c r="CA42" s="28"/>
-      <c r="CB42" s="28"/>
-      <c r="CC42" s="28"/>
-      <c r="CD42" s="40"/>
-      <c r="CE42" s="40"/>
+      <c r="BH42" s="86"/>
+      <c r="BI42" s="60"/>
+      <c r="BJ42" s="60"/>
+      <c r="BK42" s="86"/>
+      <c r="BL42" s="86"/>
+      <c r="BM42" s="86"/>
+      <c r="BN42" s="86"/>
+      <c r="BO42" s="86"/>
+      <c r="BP42" s="60"/>
+      <c r="BQ42" s="60"/>
+      <c r="BR42" s="86"/>
+      <c r="BS42" s="86"/>
+      <c r="BT42" s="86"/>
+      <c r="BU42" s="86"/>
+      <c r="BV42" s="86"/>
+      <c r="BW42" s="60"/>
+      <c r="BX42" s="60"/>
+      <c r="BY42" s="86"/>
+      <c r="BZ42" s="86"/>
+      <c r="CA42" s="86"/>
+      <c r="CB42" s="86"/>
+      <c r="CC42" s="86"/>
+      <c r="CD42" s="60"/>
+      <c r="CE42" s="60"/>
     </row>
     <row r="43" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="68">
-        <v>45252</v>
-      </c>
-      <c r="E43" s="68">
-        <v>44528</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="40"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28"/>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="28"/>
-      <c r="AN43" s="40"/>
+      <c r="B43" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="56">
+        <v>45240</v>
+      </c>
+      <c r="E43" s="56">
+        <v>45245</v>
+      </c>
+      <c r="F43" s="103"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="60"/>
       <c r="AO43" s="40"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28"/>
       <c r="AR43" s="28"/>
       <c r="AS43" s="28"/>
-      <c r="AT43" s="28"/>
-      <c r="AU43" s="40"/>
-      <c r="AV43" s="40"/>
-      <c r="AW43" s="28"/>
-      <c r="AX43" s="28"/>
-      <c r="AY43" s="28"/>
-      <c r="AZ43" s="28"/>
-      <c r="BA43" s="28"/>
-      <c r="BB43" s="40"/>
-      <c r="BC43" s="40"/>
-      <c r="BD43" s="28"/>
-      <c r="BE43" s="28"/>
-      <c r="BF43" s="28"/>
-      <c r="BG43" s="28"/>
-      <c r="BH43" s="28"/>
-      <c r="BI43" s="40"/>
-      <c r="BJ43" s="40"/>
-      <c r="BK43" s="91"/>
-      <c r="BL43" s="92"/>
-      <c r="BM43" s="129"/>
-      <c r="BN43" s="123"/>
-      <c r="BO43" s="123"/>
-      <c r="BP43" s="123"/>
-      <c r="BQ43" s="123"/>
-      <c r="BR43" s="123"/>
-      <c r="BS43" s="124"/>
-      <c r="BT43" s="83"/>
-      <c r="BU43" s="28"/>
-      <c r="BV43" s="28"/>
-      <c r="BW43" s="40"/>
-      <c r="BX43" s="40"/>
-      <c r="BY43" s="40"/>
-      <c r="BZ43" s="28"/>
-      <c r="CA43" s="28"/>
-      <c r="CB43" s="28"/>
-      <c r="CC43" s="28"/>
-      <c r="CD43" s="40"/>
-      <c r="CE43" s="40"/>
+      <c r="AT43" s="91"/>
+      <c r="AU43" s="95"/>
+      <c r="AV43" s="60"/>
+      <c r="AW43" s="91"/>
+      <c r="AX43" s="91"/>
+      <c r="AY43" s="91"/>
+      <c r="AZ43" s="92"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="170"/>
+      <c r="BC43" s="170"/>
+      <c r="BD43" s="170"/>
+      <c r="BE43" s="170"/>
+      <c r="BF43" s="171"/>
+      <c r="BG43" s="85"/>
+      <c r="BH43" s="59"/>
+      <c r="BI43" s="60"/>
+      <c r="BJ43" s="60"/>
+      <c r="BK43" s="59"/>
+      <c r="BL43" s="59"/>
+      <c r="BM43" s="59"/>
+      <c r="BN43" s="59"/>
+      <c r="BO43" s="59"/>
+      <c r="BP43" s="60"/>
+      <c r="BQ43" s="60"/>
+      <c r="BR43" s="59"/>
+      <c r="BS43" s="59"/>
+      <c r="BT43" s="59"/>
+      <c r="BU43" s="59"/>
+      <c r="BV43" s="59"/>
+      <c r="BW43" s="60"/>
+      <c r="BX43" s="60"/>
+      <c r="BY43" s="59"/>
+      <c r="BZ43" s="59"/>
+      <c r="CA43" s="59"/>
+      <c r="CB43" s="59"/>
+      <c r="CC43" s="59"/>
+      <c r="CD43" s="60"/>
+      <c r="CE43" s="60"/>
     </row>
     <row r="44" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="68">
-        <v>45252</v>
-      </c>
-      <c r="E44" s="68">
-        <v>44524</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="40"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28"/>
-      <c r="AN44" s="40"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="28"/>
-      <c r="AQ44" s="28"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="28"/>
-      <c r="AT44" s="28"/>
-      <c r="AU44" s="40"/>
-      <c r="AV44" s="40"/>
-      <c r="AW44" s="28"/>
-      <c r="AX44" s="28"/>
-      <c r="AY44" s="28"/>
-      <c r="AZ44" s="28"/>
-      <c r="BA44" s="28"/>
-      <c r="BB44" s="40"/>
-      <c r="BC44" s="40"/>
-      <c r="BD44" s="28"/>
-      <c r="BE44" s="28"/>
-      <c r="BF44" s="28"/>
-      <c r="BG44" s="28"/>
-      <c r="BH44" s="28"/>
-      <c r="BI44" s="40"/>
-      <c r="BJ44" s="40"/>
-      <c r="BK44" s="28"/>
-      <c r="BL44" s="80"/>
-      <c r="BM44" s="127"/>
-      <c r="BN44" s="123"/>
-      <c r="BO44" s="123"/>
-      <c r="BP44" s="123"/>
-      <c r="BQ44" s="124"/>
-      <c r="BR44" s="93"/>
-      <c r="BS44" s="94"/>
-      <c r="BT44" s="86"/>
-      <c r="BU44" s="28"/>
-      <c r="BV44" s="28"/>
-      <c r="BW44" s="40"/>
-      <c r="BX44" s="40"/>
-      <c r="BY44" s="40"/>
-      <c r="BZ44" s="28"/>
-      <c r="CA44" s="28"/>
-      <c r="CB44" s="28"/>
-      <c r="CC44" s="28"/>
-      <c r="CD44" s="40"/>
-      <c r="CE44" s="40"/>
+      <c r="B44" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="150"/>
+      <c r="S44" s="150"/>
+      <c r="T44" s="150"/>
+      <c r="U44" s="150"/>
+      <c r="V44" s="150"/>
+      <c r="W44" s="150"/>
+      <c r="X44" s="150"/>
+      <c r="Y44" s="150"/>
+      <c r="Z44" s="150"/>
+      <c r="AA44" s="150"/>
+      <c r="AB44" s="150"/>
+      <c r="AC44" s="150"/>
+      <c r="AD44" s="150"/>
+      <c r="AE44" s="150"/>
+      <c r="AF44" s="150"/>
+      <c r="AG44" s="150"/>
+      <c r="AH44" s="150"/>
+      <c r="AI44" s="150"/>
+      <c r="AJ44" s="150"/>
+      <c r="AK44" s="150"/>
+      <c r="AL44" s="150"/>
+      <c r="AM44" s="150"/>
+      <c r="AN44" s="150"/>
+      <c r="AO44" s="150"/>
+      <c r="AP44" s="150"/>
+      <c r="AQ44" s="150"/>
+      <c r="AR44" s="150"/>
+      <c r="AS44" s="150"/>
+      <c r="AT44" s="150"/>
+      <c r="AU44" s="150"/>
+      <c r="AV44" s="150"/>
+      <c r="AW44" s="150"/>
+      <c r="AX44" s="150"/>
+      <c r="AY44" s="150"/>
+      <c r="AZ44" s="150"/>
+      <c r="BA44" s="150"/>
+      <c r="BB44" s="150"/>
+      <c r="BC44" s="150"/>
+      <c r="BD44" s="150"/>
+      <c r="BE44" s="150"/>
+      <c r="BF44" s="150"/>
+      <c r="BG44" s="150"/>
+      <c r="BH44" s="150"/>
+      <c r="BI44" s="150"/>
+      <c r="BJ44" s="150"/>
+      <c r="BK44" s="150"/>
+      <c r="BL44" s="150"/>
+      <c r="BM44" s="150"/>
+      <c r="BN44" s="150"/>
+      <c r="BO44" s="150"/>
+      <c r="BP44" s="150"/>
+      <c r="BQ44" s="150"/>
+      <c r="BR44" s="150"/>
+      <c r="BS44" s="150"/>
+      <c r="BT44" s="150"/>
+      <c r="BU44" s="150"/>
+      <c r="BV44" s="150"/>
+      <c r="BW44" s="150"/>
+      <c r="BX44" s="150"/>
+      <c r="BY44" s="150"/>
+      <c r="BZ44" s="150"/>
+      <c r="CA44" s="150"/>
+      <c r="CB44" s="150"/>
+      <c r="CC44" s="150"/>
+      <c r="CD44" s="150"/>
+      <c r="CE44" s="157"/>
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="69" t="s">
-        <v>50</v>
+      <c r="B45" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="68">
-        <v>45253</v>
+        <v>45241</v>
       </c>
       <c r="E45" s="68">
-        <v>45259</v>
-      </c>
-      <c r="F45" s="39"/>
+        <v>45244</v>
+      </c>
+      <c r="F45" s="112"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -6041,27 +6168,27 @@
       <c r="AX45" s="28"/>
       <c r="AY45" s="28"/>
       <c r="AZ45" s="28"/>
-      <c r="BA45" s="28"/>
-      <c r="BB45" s="40"/>
-      <c r="BC45" s="40"/>
-      <c r="BD45" s="28"/>
-      <c r="BE45" s="28"/>
-      <c r="BF45" s="28"/>
-      <c r="BG45" s="28"/>
-      <c r="BH45" s="28"/>
-      <c r="BI45" s="40"/>
-      <c r="BJ45" s="40"/>
+      <c r="BA45" s="80"/>
+      <c r="BB45" s="129"/>
+      <c r="BC45" s="130"/>
+      <c r="BD45" s="130"/>
+      <c r="BE45" s="131"/>
+      <c r="BF45" s="85"/>
+      <c r="BG45" s="86"/>
+      <c r="BH45" s="86"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="60"/>
       <c r="BK45" s="28"/>
       <c r="BL45" s="28"/>
-      <c r="BM45" s="92"/>
-      <c r="BN45" s="103"/>
-      <c r="BO45" s="104"/>
-      <c r="BP45" s="104"/>
-      <c r="BQ45" s="104"/>
-      <c r="BR45" s="104"/>
-      <c r="BS45" s="104"/>
-      <c r="BT45" s="105"/>
-      <c r="BU45" s="83"/>
+      <c r="BM45" s="28"/>
+      <c r="BN45" s="28"/>
+      <c r="BO45" s="28"/>
+      <c r="BP45" s="40"/>
+      <c r="BQ45" s="40"/>
+      <c r="BR45" s="28"/>
+      <c r="BS45" s="28"/>
+      <c r="BT45" s="28"/>
+      <c r="BU45" s="28"/>
       <c r="BV45" s="28"/>
       <c r="BW45" s="40"/>
       <c r="BX45" s="40"/>
@@ -6076,16 +6203,16 @@
     <row r="46" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="1"/>
       <c r="B46" s="66" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46" s="68">
-        <v>45255</v>
+        <v>45245</v>
       </c>
       <c r="E46" s="68">
-        <v>44529</v>
+        <v>45249</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="28"/>
@@ -6135,26 +6262,26 @@
       <c r="AY46" s="28"/>
       <c r="AZ46" s="28"/>
       <c r="BA46" s="28"/>
-      <c r="BB46" s="40"/>
-      <c r="BC46" s="40"/>
-      <c r="BD46" s="28"/>
-      <c r="BE46" s="28"/>
-      <c r="BF46" s="28"/>
-      <c r="BG46" s="28"/>
-      <c r="BH46" s="28"/>
-      <c r="BI46" s="40"/>
-      <c r="BJ46" s="40"/>
-      <c r="BK46" s="28"/>
-      <c r="BL46" s="28"/>
+      <c r="BB46" s="96"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="91"/>
+      <c r="BE46" s="97"/>
+      <c r="BF46" s="129"/>
+      <c r="BG46" s="130"/>
+      <c r="BH46" s="130"/>
+      <c r="BI46" s="130"/>
+      <c r="BJ46" s="131"/>
+      <c r="BK46" s="85"/>
+      <c r="BL46" s="86"/>
       <c r="BM46" s="28"/>
-      <c r="BN46" s="91"/>
-      <c r="BO46" s="92"/>
-      <c r="BP46" s="126"/>
-      <c r="BQ46" s="123"/>
-      <c r="BR46" s="123"/>
-      <c r="BS46" s="123"/>
-      <c r="BT46" s="124"/>
-      <c r="BU46" s="83"/>
+      <c r="BN46" s="28"/>
+      <c r="BO46" s="28"/>
+      <c r="BP46" s="40"/>
+      <c r="BQ46" s="40"/>
+      <c r="BR46" s="28"/>
+      <c r="BS46" s="28"/>
+      <c r="BT46" s="28"/>
+      <c r="BU46" s="28"/>
       <c r="BV46" s="28"/>
       <c r="BW46" s="40"/>
       <c r="BX46" s="40"/>
@@ -6168,159 +6295,960 @@
     </row>
     <row r="47" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="133"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="133"/>
-      <c r="P47" s="133"/>
-      <c r="Q47" s="133"/>
-      <c r="R47" s="133"/>
-      <c r="S47" s="133"/>
-      <c r="T47" s="133"/>
-      <c r="U47" s="133"/>
-      <c r="V47" s="133"/>
-      <c r="W47" s="133"/>
-      <c r="X47" s="133"/>
-      <c r="Y47" s="133"/>
-      <c r="Z47" s="133"/>
-      <c r="AA47" s="133"/>
-      <c r="AB47" s="133"/>
-      <c r="AC47" s="133"/>
-      <c r="AD47" s="133"/>
-      <c r="AE47" s="133"/>
-      <c r="AF47" s="133"/>
-      <c r="AG47" s="133"/>
-      <c r="AH47" s="133"/>
-      <c r="AI47" s="133"/>
-      <c r="AJ47" s="133"/>
-      <c r="AK47" s="133"/>
-      <c r="AL47" s="133"/>
-      <c r="AM47" s="133"/>
-      <c r="AN47" s="133"/>
-      <c r="AO47" s="133"/>
-      <c r="AP47" s="133"/>
-      <c r="AQ47" s="133"/>
-      <c r="AR47" s="133"/>
-      <c r="AS47" s="133"/>
-      <c r="AT47" s="133"/>
-      <c r="AU47" s="133"/>
-      <c r="AV47" s="133"/>
-      <c r="AW47" s="133"/>
-      <c r="AX47" s="133"/>
-      <c r="AY47" s="133"/>
-      <c r="AZ47" s="133"/>
-      <c r="BA47" s="133"/>
-      <c r="BB47" s="133"/>
-      <c r="BC47" s="133"/>
-      <c r="BD47" s="133"/>
-      <c r="BE47" s="133"/>
-      <c r="BF47" s="133"/>
-      <c r="BG47" s="133"/>
-      <c r="BH47" s="133"/>
-      <c r="BI47" s="133"/>
-      <c r="BJ47" s="133"/>
-      <c r="BK47" s="133"/>
-      <c r="BL47" s="133"/>
-      <c r="BM47" s="133"/>
-      <c r="BN47" s="133"/>
-      <c r="BO47" s="133"/>
-      <c r="BP47" s="134"/>
-      <c r="BQ47" s="134"/>
-      <c r="BR47" s="134"/>
-      <c r="BS47" s="134"/>
-      <c r="BT47" s="134"/>
-      <c r="BU47" s="133"/>
-      <c r="BV47" s="133"/>
-      <c r="BW47" s="133"/>
-      <c r="BX47" s="133"/>
-      <c r="BY47" s="133"/>
-      <c r="BZ47" s="133"/>
-      <c r="CA47" s="133"/>
-      <c r="CB47" s="133"/>
-      <c r="CC47" s="133"/>
-      <c r="CD47" s="133"/>
-      <c r="CE47" s="135"/>
-    </row>
-    <row r="48" spans="1:83" ht="14.25" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="D48" s="75"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="77"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="75"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="D51" s="75"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="D52" s="75"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A53" s="74"/>
-      <c r="D53" s="75"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="D54" s="75"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A55" s="74"/>
-      <c r="D55" s="75"/>
-    </row>
-    <row r="56" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="D56" s="75"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.25" customHeight="1">
+      <c r="B47" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="68">
+        <v>45244</v>
+      </c>
+      <c r="E47" s="68">
+        <v>45251</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
+      <c r="AS47" s="28"/>
+      <c r="AT47" s="28"/>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="28"/>
+      <c r="AY47" s="28"/>
+      <c r="AZ47" s="28"/>
+      <c r="BA47" s="28"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="80"/>
+      <c r="BE47" s="126"/>
+      <c r="BF47" s="127"/>
+      <c r="BG47" s="127"/>
+      <c r="BH47" s="127"/>
+      <c r="BI47" s="127"/>
+      <c r="BJ47" s="127"/>
+      <c r="BK47" s="127"/>
+      <c r="BL47" s="128"/>
+      <c r="BM47" s="83"/>
+      <c r="BN47" s="28"/>
+      <c r="BO47" s="28"/>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40"/>
+      <c r="BR47" s="28"/>
+      <c r="BS47" s="28"/>
+      <c r="BT47" s="28"/>
+      <c r="BU47" s="28"/>
+      <c r="BV47" s="28"/>
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="BY47" s="40"/>
+      <c r="BZ47" s="28"/>
+      <c r="CA47" s="28"/>
+      <c r="CB47" s="28"/>
+      <c r="CC47" s="28"/>
+      <c r="CD47" s="40"/>
+      <c r="CE47" s="40"/>
+    </row>
+    <row r="48" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="68">
+        <v>45245</v>
+      </c>
+      <c r="E48" s="68">
+        <v>45251</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="40"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="40"/>
+      <c r="AO48" s="40"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
+      <c r="AS48" s="28"/>
+      <c r="AT48" s="28"/>
+      <c r="AU48" s="40"/>
+      <c r="AV48" s="40"/>
+      <c r="AW48" s="28"/>
+      <c r="AX48" s="28"/>
+      <c r="AY48" s="28"/>
+      <c r="AZ48" s="28"/>
+      <c r="BA48" s="28"/>
+      <c r="BB48" s="40"/>
+      <c r="BC48" s="40"/>
+      <c r="BD48" s="28"/>
+      <c r="BE48" s="92"/>
+      <c r="BF48" s="116"/>
+      <c r="BG48" s="114"/>
+      <c r="BH48" s="114"/>
+      <c r="BI48" s="114"/>
+      <c r="BJ48" s="114"/>
+      <c r="BK48" s="114"/>
+      <c r="BL48" s="115"/>
+      <c r="BM48" s="85"/>
+      <c r="BN48" s="88"/>
+      <c r="BO48" s="86"/>
+      <c r="BP48" s="40"/>
+      <c r="BQ48" s="40"/>
+      <c r="BR48" s="28"/>
+      <c r="BS48" s="28"/>
+      <c r="BT48" s="28"/>
+      <c r="BU48" s="28"/>
+      <c r="BV48" s="28"/>
+      <c r="BW48" s="40"/>
+      <c r="BX48" s="40"/>
+      <c r="BY48" s="40"/>
+      <c r="BZ48" s="28"/>
+      <c r="CA48" s="28"/>
+      <c r="CB48" s="28"/>
+      <c r="CC48" s="28"/>
+      <c r="CD48" s="40"/>
+      <c r="CE48" s="40"/>
+    </row>
+    <row r="49" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="68">
+        <v>45248</v>
+      </c>
+      <c r="E49" s="68">
+        <v>44524</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="40"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="40"/>
+      <c r="AO49" s="40"/>
+      <c r="AP49" s="28"/>
+      <c r="AQ49" s="28"/>
+      <c r="AR49" s="28"/>
+      <c r="AS49" s="28"/>
+      <c r="AT49" s="28"/>
+      <c r="AU49" s="40"/>
+      <c r="AV49" s="40"/>
+      <c r="AW49" s="28"/>
+      <c r="AX49" s="28"/>
+      <c r="AY49" s="28"/>
+      <c r="AZ49" s="28"/>
+      <c r="BA49" s="28"/>
+      <c r="BB49" s="40"/>
+      <c r="BC49" s="40"/>
+      <c r="BD49" s="28"/>
+      <c r="BE49" s="28"/>
+      <c r="BF49" s="91"/>
+      <c r="BG49" s="91"/>
+      <c r="BH49" s="92"/>
+      <c r="BI49" s="125"/>
+      <c r="BJ49" s="114"/>
+      <c r="BK49" s="114"/>
+      <c r="BL49" s="114"/>
+      <c r="BM49" s="114"/>
+      <c r="BN49" s="114"/>
+      <c r="BO49" s="115"/>
+      <c r="BP49" s="84"/>
+      <c r="BQ49" s="40"/>
+      <c r="BR49" s="28"/>
+      <c r="BS49" s="28"/>
+      <c r="BT49" s="28"/>
+      <c r="BU49" s="28"/>
+      <c r="BV49" s="28"/>
+      <c r="BW49" s="40"/>
+      <c r="BX49" s="40"/>
+      <c r="BY49" s="40"/>
+      <c r="BZ49" s="28"/>
+      <c r="CA49" s="28"/>
+      <c r="CB49" s="28"/>
+      <c r="CC49" s="28"/>
+      <c r="CD49" s="40"/>
+      <c r="CE49" s="40"/>
+    </row>
+    <row r="50" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="68">
+        <v>45249</v>
+      </c>
+      <c r="E50" s="68">
+        <v>44524</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="40"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="28"/>
+      <c r="AM50" s="28"/>
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="40"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="28"/>
+      <c r="AR50" s="28"/>
+      <c r="AS50" s="28"/>
+      <c r="AT50" s="28"/>
+      <c r="AU50" s="40"/>
+      <c r="AV50" s="40"/>
+      <c r="AW50" s="28"/>
+      <c r="AX50" s="28"/>
+      <c r="AY50" s="28"/>
+      <c r="AZ50" s="28"/>
+      <c r="BA50" s="28"/>
+      <c r="BB50" s="40"/>
+      <c r="BC50" s="40"/>
+      <c r="BD50" s="28"/>
+      <c r="BE50" s="28"/>
+      <c r="BF50" s="28"/>
+      <c r="BG50" s="28"/>
+      <c r="BH50" s="28"/>
+      <c r="BI50" s="95"/>
+      <c r="BJ50" s="119"/>
+      <c r="BK50" s="120"/>
+      <c r="BL50" s="120"/>
+      <c r="BM50" s="120"/>
+      <c r="BN50" s="120"/>
+      <c r="BO50" s="121"/>
+      <c r="BP50" s="87"/>
+      <c r="BQ50" s="60"/>
+      <c r="BR50" s="86"/>
+      <c r="BS50" s="86"/>
+      <c r="BT50" s="28"/>
+      <c r="BU50" s="28"/>
+      <c r="BV50" s="28"/>
+      <c r="BW50" s="40"/>
+      <c r="BX50" s="40"/>
+      <c r="BY50" s="40"/>
+      <c r="BZ50" s="28"/>
+      <c r="CA50" s="28"/>
+      <c r="CB50" s="28"/>
+      <c r="CC50" s="28"/>
+      <c r="CD50" s="40"/>
+      <c r="CE50" s="40"/>
+    </row>
+    <row r="51" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="68">
+        <v>45250</v>
+      </c>
+      <c r="E51" s="68">
+        <v>44528</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="40"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="40"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="28"/>
+      <c r="AS51" s="28"/>
+      <c r="AT51" s="28"/>
+      <c r="AU51" s="40"/>
+      <c r="AV51" s="40"/>
+      <c r="AW51" s="28"/>
+      <c r="AX51" s="28"/>
+      <c r="AY51" s="28"/>
+      <c r="AZ51" s="28"/>
+      <c r="BA51" s="28"/>
+      <c r="BB51" s="40"/>
+      <c r="BC51" s="40"/>
+      <c r="BD51" s="28"/>
+      <c r="BE51" s="28"/>
+      <c r="BF51" s="28"/>
+      <c r="BG51" s="28"/>
+      <c r="BH51" s="28"/>
+      <c r="BI51" s="40"/>
+      <c r="BJ51" s="95"/>
+      <c r="BK51" s="117"/>
+      <c r="BL51" s="114"/>
+      <c r="BM51" s="114"/>
+      <c r="BN51" s="114"/>
+      <c r="BO51" s="114"/>
+      <c r="BP51" s="114"/>
+      <c r="BQ51" s="114"/>
+      <c r="BR51" s="114"/>
+      <c r="BS51" s="115"/>
+      <c r="BT51" s="83"/>
+      <c r="BU51" s="28"/>
+      <c r="BV51" s="28"/>
+      <c r="BW51" s="40"/>
+      <c r="BX51" s="40"/>
+      <c r="BY51" s="40"/>
+      <c r="BZ51" s="28"/>
+      <c r="CA51" s="28"/>
+      <c r="CB51" s="28"/>
+      <c r="CC51" s="28"/>
+      <c r="CD51" s="40"/>
+      <c r="CE51" s="40"/>
+    </row>
+    <row r="52" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="68">
+        <v>45252</v>
+      </c>
+      <c r="E52" s="68">
+        <v>44528</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="40"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
+      <c r="AK52" s="28"/>
+      <c r="AL52" s="28"/>
+      <c r="AM52" s="28"/>
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="40"/>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="28"/>
+      <c r="AR52" s="28"/>
+      <c r="AS52" s="28"/>
+      <c r="AT52" s="28"/>
+      <c r="AU52" s="40"/>
+      <c r="AV52" s="40"/>
+      <c r="AW52" s="28"/>
+      <c r="AX52" s="28"/>
+      <c r="AY52" s="28"/>
+      <c r="AZ52" s="28"/>
+      <c r="BA52" s="28"/>
+      <c r="BB52" s="40"/>
+      <c r="BC52" s="40"/>
+      <c r="BD52" s="28"/>
+      <c r="BE52" s="28"/>
+      <c r="BF52" s="28"/>
+      <c r="BG52" s="28"/>
+      <c r="BH52" s="28"/>
+      <c r="BI52" s="40"/>
+      <c r="BJ52" s="40"/>
+      <c r="BK52" s="91"/>
+      <c r="BL52" s="92"/>
+      <c r="BM52" s="118"/>
+      <c r="BN52" s="114"/>
+      <c r="BO52" s="114"/>
+      <c r="BP52" s="114"/>
+      <c r="BQ52" s="114"/>
+      <c r="BR52" s="114"/>
+      <c r="BS52" s="115"/>
+      <c r="BT52" s="83"/>
+      <c r="BU52" s="28"/>
+      <c r="BV52" s="28"/>
+      <c r="BW52" s="40"/>
+      <c r="BX52" s="40"/>
+      <c r="BY52" s="40"/>
+      <c r="BZ52" s="28"/>
+      <c r="CA52" s="28"/>
+      <c r="CB52" s="28"/>
+      <c r="CC52" s="28"/>
+      <c r="CD52" s="40"/>
+      <c r="CE52" s="40"/>
+    </row>
+    <row r="53" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="68">
+        <v>45252</v>
+      </c>
+      <c r="E53" s="68">
+        <v>44524</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="40"/>
+      <c r="AH53" s="40"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28"/>
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="40"/>
+      <c r="AP53" s="28"/>
+      <c r="AQ53" s="28"/>
+      <c r="AR53" s="28"/>
+      <c r="AS53" s="28"/>
+      <c r="AT53" s="28"/>
+      <c r="AU53" s="40"/>
+      <c r="AV53" s="40"/>
+      <c r="AW53" s="28"/>
+      <c r="AX53" s="28"/>
+      <c r="AY53" s="28"/>
+      <c r="AZ53" s="28"/>
+      <c r="BA53" s="28"/>
+      <c r="BB53" s="40"/>
+      <c r="BC53" s="40"/>
+      <c r="BD53" s="28"/>
+      <c r="BE53" s="28"/>
+      <c r="BF53" s="28"/>
+      <c r="BG53" s="28"/>
+      <c r="BH53" s="28"/>
+      <c r="BI53" s="40"/>
+      <c r="BJ53" s="40"/>
+      <c r="BK53" s="28"/>
+      <c r="BL53" s="80"/>
+      <c r="BM53" s="117"/>
+      <c r="BN53" s="114"/>
+      <c r="BO53" s="114"/>
+      <c r="BP53" s="114"/>
+      <c r="BQ53" s="115"/>
+      <c r="BR53" s="93"/>
+      <c r="BS53" s="94"/>
+      <c r="BT53" s="86"/>
+      <c r="BU53" s="28"/>
+      <c r="BV53" s="28"/>
+      <c r="BW53" s="40"/>
+      <c r="BX53" s="40"/>
+      <c r="BY53" s="40"/>
+      <c r="BZ53" s="28"/>
+      <c r="CA53" s="28"/>
+      <c r="CB53" s="28"/>
+      <c r="CC53" s="28"/>
+      <c r="CD53" s="40"/>
+      <c r="CE53" s="40"/>
+    </row>
+    <row r="54" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="68">
+        <v>45253</v>
+      </c>
+      <c r="E54" s="68">
+        <v>45259</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="40"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
+      <c r="AS54" s="28"/>
+      <c r="AT54" s="28"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="28"/>
+      <c r="AX54" s="28"/>
+      <c r="AY54" s="28"/>
+      <c r="AZ54" s="28"/>
+      <c r="BA54" s="28"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="28"/>
+      <c r="BE54" s="28"/>
+      <c r="BF54" s="28"/>
+      <c r="BG54" s="28"/>
+      <c r="BH54" s="28"/>
+      <c r="BI54" s="40"/>
+      <c r="BJ54" s="40"/>
+      <c r="BK54" s="28"/>
+      <c r="BL54" s="28"/>
+      <c r="BM54" s="92"/>
+      <c r="BN54" s="126"/>
+      <c r="BO54" s="127"/>
+      <c r="BP54" s="127"/>
+      <c r="BQ54" s="127"/>
+      <c r="BR54" s="127"/>
+      <c r="BS54" s="127"/>
+      <c r="BT54" s="128"/>
+      <c r="BU54" s="83"/>
+      <c r="BV54" s="28"/>
+      <c r="BW54" s="40"/>
+      <c r="BX54" s="40"/>
+      <c r="BY54" s="40"/>
+      <c r="BZ54" s="28"/>
+      <c r="CA54" s="28"/>
+      <c r="CB54" s="28"/>
+      <c r="CC54" s="28"/>
+      <c r="CD54" s="40"/>
+      <c r="CE54" s="40"/>
+    </row>
+    <row r="55" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="68">
+        <v>45255</v>
+      </c>
+      <c r="E55" s="68">
+        <v>44529</v>
+      </c>
+      <c r="F55" s="39"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="40"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="40"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
+      <c r="AS55" s="28"/>
+      <c r="AT55" s="28"/>
+      <c r="AU55" s="40"/>
+      <c r="AV55" s="40"/>
+      <c r="AW55" s="28"/>
+      <c r="AX55" s="28"/>
+      <c r="AY55" s="28"/>
+      <c r="AZ55" s="28"/>
+      <c r="BA55" s="28"/>
+      <c r="BB55" s="40"/>
+      <c r="BC55" s="40"/>
+      <c r="BD55" s="28"/>
+      <c r="BE55" s="28"/>
+      <c r="BF55" s="28"/>
+      <c r="BG55" s="28"/>
+      <c r="BH55" s="28"/>
+      <c r="BI55" s="40"/>
+      <c r="BJ55" s="40"/>
+      <c r="BK55" s="28"/>
+      <c r="BL55" s="28"/>
+      <c r="BM55" s="28"/>
+      <c r="BN55" s="91"/>
+      <c r="BO55" s="92"/>
+      <c r="BP55" s="122"/>
+      <c r="BQ55" s="114"/>
+      <c r="BR55" s="114"/>
+      <c r="BS55" s="114"/>
+      <c r="BT55" s="115"/>
+      <c r="BU55" s="83"/>
+      <c r="BV55" s="28"/>
+      <c r="BW55" s="40"/>
+      <c r="BX55" s="40"/>
+      <c r="BY55" s="40"/>
+      <c r="BZ55" s="28"/>
+      <c r="CA55" s="28"/>
+      <c r="CB55" s="28"/>
+      <c r="CC55" s="28"/>
+      <c r="CD55" s="40"/>
+      <c r="CE55" s="40"/>
+    </row>
+    <row r="56" spans="1:83" ht="15" customHeight="1" thickBot="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="155"/>
+      <c r="W56" s="155"/>
+      <c r="X56" s="155"/>
+      <c r="Y56" s="155"/>
+      <c r="Z56" s="155"/>
+      <c r="AA56" s="155"/>
+      <c r="AB56" s="155"/>
+      <c r="AC56" s="155"/>
+      <c r="AD56" s="155"/>
+      <c r="AE56" s="155"/>
+      <c r="AF56" s="155"/>
+      <c r="AG56" s="155"/>
+      <c r="AH56" s="155"/>
+      <c r="AI56" s="155"/>
+      <c r="AJ56" s="155"/>
+      <c r="AK56" s="155"/>
+      <c r="AL56" s="155"/>
+      <c r="AM56" s="155"/>
+      <c r="AN56" s="155"/>
+      <c r="AO56" s="155"/>
+      <c r="AP56" s="155"/>
+      <c r="AQ56" s="155"/>
+      <c r="AR56" s="155"/>
+      <c r="AS56" s="155"/>
+      <c r="AT56" s="155"/>
+      <c r="AU56" s="155"/>
+      <c r="AV56" s="155"/>
+      <c r="AW56" s="155"/>
+      <c r="AX56" s="155"/>
+      <c r="AY56" s="155"/>
+      <c r="AZ56" s="155"/>
+      <c r="BA56" s="155"/>
+      <c r="BB56" s="155"/>
+      <c r="BC56" s="155"/>
+      <c r="BD56" s="155"/>
+      <c r="BE56" s="155"/>
+      <c r="BF56" s="155"/>
+      <c r="BG56" s="155"/>
+      <c r="BH56" s="155"/>
+      <c r="BI56" s="155"/>
+      <c r="BJ56" s="155"/>
+      <c r="BK56" s="155"/>
+      <c r="BL56" s="155"/>
+      <c r="BM56" s="155"/>
+      <c r="BN56" s="155"/>
+      <c r="BO56" s="155"/>
+      <c r="BP56" s="155"/>
+      <c r="BQ56" s="155"/>
+      <c r="BR56" s="155"/>
+      <c r="BS56" s="155"/>
+      <c r="BT56" s="155"/>
+      <c r="BU56" s="155"/>
+      <c r="BV56" s="155"/>
+      <c r="BW56" s="155"/>
+      <c r="BX56" s="155"/>
+      <c r="BY56" s="155"/>
+      <c r="BZ56" s="155"/>
+      <c r="CA56" s="155"/>
+      <c r="CB56" s="155"/>
+      <c r="CC56" s="155"/>
+      <c r="CD56" s="155"/>
+      <c r="CE56" s="156"/>
+    </row>
+    <row r="57" spans="1:83" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
       <c r="D57" s="75"/>
     </row>
-    <row r="58" spans="1:5" ht="14.25" customHeight="1">
+    <row r="58" spans="1:83" ht="30" customHeight="1">
       <c r="A58" s="74"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="75"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.25" customHeight="1">
+      <c r="E58" s="77"/>
+    </row>
+    <row r="59" spans="1:83" ht="30" customHeight="1">
       <c r="A59" s="74"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="75"/>
     </row>
-    <row r="60" spans="1:5" ht="14.25" customHeight="1">
+    <row r="60" spans="1:83" ht="14.25" customHeight="1">
       <c r="A60" s="74"/>
       <c r="D60" s="75"/>
     </row>
-    <row r="61" spans="1:5" ht="14.25" customHeight="1">
+    <row r="61" spans="1:83" ht="14.25" customHeight="1">
       <c r="A61" s="74"/>
       <c r="D61" s="75"/>
     </row>
-    <row r="62" spans="1:5" ht="14.25" customHeight="1">
+    <row r="62" spans="1:83" ht="14.25" customHeight="1">
       <c r="A62" s="74"/>
       <c r="D62" s="75"/>
     </row>
-    <row r="63" spans="1:5" ht="14.25" customHeight="1">
+    <row r="63" spans="1:83" ht="14.25" customHeight="1">
       <c r="A63" s="74"/>
       <c r="D63" s="75"/>
     </row>
-    <row r="64" spans="1:5" ht="14.25" customHeight="1">
+    <row r="64" spans="1:83" ht="14.25" customHeight="1">
       <c r="A64" s="74"/>
       <c r="D64" s="75"/>
     </row>
@@ -10072,33 +11000,65 @@
       <c r="A1001" s="74"/>
       <c r="D1001" s="75"/>
     </row>
+    <row r="1002" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1002" s="74"/>
+      <c r="D1002" s="75"/>
+    </row>
+    <row r="1003" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1003" s="74"/>
+      <c r="D1003" s="75"/>
+    </row>
+    <row r="1004" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1004" s="74"/>
+      <c r="D1004" s="75"/>
+    </row>
+    <row r="1005" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1005" s="74"/>
+      <c r="D1005" s="75"/>
+    </row>
+    <row r="1006" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1006" s="74"/>
+      <c r="D1006" s="75"/>
+    </row>
+    <row r="1007" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1007" s="74"/>
+      <c r="D1007" s="75"/>
+    </row>
+    <row r="1008" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1008" s="74"/>
+      <c r="D1008" s="75"/>
+    </row>
+    <row r="1009" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1009" s="74"/>
+      <c r="D1009" s="75"/>
+    </row>
+    <row r="1010" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A1010" s="74"/>
+      <c r="D1010" s="75"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="BA34:BF34"/>
-    <mergeCell ref="BF39:BL39"/>
-    <mergeCell ref="BK42:BS42"/>
-    <mergeCell ref="BM43:BS43"/>
-    <mergeCell ref="G35:CE35"/>
-    <mergeCell ref="BJ41:BO41"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="BM44:BQ44"/>
-    <mergeCell ref="BP46:BT46"/>
-    <mergeCell ref="G47:CE47"/>
-    <mergeCell ref="AJ21:AO21"/>
-    <mergeCell ref="AO26:AT26"/>
-    <mergeCell ref="AP27:AY27"/>
-    <mergeCell ref="AV28:BF28"/>
-    <mergeCell ref="BI40:BO40"/>
-    <mergeCell ref="AR29:BB29"/>
-    <mergeCell ref="AS30:BC30"/>
-    <mergeCell ref="AT31:BD31"/>
-    <mergeCell ref="AV32:AZ32"/>
-    <mergeCell ref="AW33:BF33"/>
-    <mergeCell ref="BB36:BE36"/>
+    <mergeCell ref="G56:CE56"/>
+    <mergeCell ref="AJ22:AO22"/>
+    <mergeCell ref="AK23:AP23"/>
+    <mergeCell ref="AL24:AQ24"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="AN26:AS26"/>
+    <mergeCell ref="AO27:AT27"/>
+    <mergeCell ref="AP28:AY28"/>
+    <mergeCell ref="AV29:BF29"/>
+    <mergeCell ref="AR30:BB30"/>
+    <mergeCell ref="AS31:BC31"/>
+    <mergeCell ref="AT32:BD32"/>
+    <mergeCell ref="AV33:AZ33"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
     <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="D2:E2"/>
@@ -10113,21 +11073,25 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BN45:BT45"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="AK22:AP22"/>
-    <mergeCell ref="AL23:AQ23"/>
-    <mergeCell ref="AK24:AQ24"/>
-    <mergeCell ref="AN25:AS25"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AD17:AK17"/>
-    <mergeCell ref="BF37:BJ37"/>
-    <mergeCell ref="BE38:BL38"/>
+    <mergeCell ref="BM53:BQ53"/>
+    <mergeCell ref="BP55:BT55"/>
+    <mergeCell ref="BI49:BO49"/>
+    <mergeCell ref="BB45:BE45"/>
+    <mergeCell ref="BN54:BT54"/>
+    <mergeCell ref="BK51:BS51"/>
+    <mergeCell ref="BM52:BS52"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="BJ50:BO50"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BF46:BJ46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="AW34:BF34"/>
+    <mergeCell ref="BA43:BF43"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="BF48:BL48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valaki\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-diagram" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="task_end" localSheetId="0">'Gantt-diagram'!$E$1</definedName>
     <definedName name="task_start" localSheetId="0">'Gantt-diagram'!$D$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -209,9 +214,6 @@
     <t>8.3.17 Admin oldal</t>
   </si>
   <si>
-    <t>8.3.18 Ptofil oldal</t>
-  </si>
-  <si>
     <t>8.3.9. Regisztráltak lecke oldala</t>
   </si>
   <si>
@@ -227,19 +229,22 @@
     <t>2-5 adat a táblákba</t>
   </si>
   <si>
-    <t>8.3.22 Adatbázis feltöltése ( min pár adat a táblákba)</t>
-  </si>
-  <si>
     <t>8.3.21 Felpakolás Ocean-re</t>
   </si>
   <si>
     <t>8.3.23. Bemutató elkészítése</t>
   </si>
+  <si>
+    <t>8.3.22 Adatbázis feltöltése (min. pár adat a táblákba)</t>
+  </si>
+  <si>
+    <t>8.3.18 Profil oldal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/\ mmm/\ d/"/>
     <numFmt numFmtId="165" formatCode="d"/>
@@ -1414,70 +1419,134 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="45" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="46" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1491,88 +1560,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="45" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="46" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,12 +1579,18 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Jelölőszín (5)" xfId="3" builtinId="45"/>
+    <cellStyle name="Jelölőszín 5" xfId="3" builtinId="45"/>
     <cellStyle name="Kimenet" xfId="1" builtinId="21"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Számítás" xfId="2" builtinId="22"/>
@@ -1805,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1813,7 +1818,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1936,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="136"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -2023,10 +2028,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="135">
+      <c r="D3" s="159">
         <v>45197</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2112,117 +2117,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="132">
+      <c r="F4" s="161"/>
+      <c r="G4" s="156">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="132">
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="156">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="132">
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="156">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="132">
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="156">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="132">
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="156">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="132">
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="156">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="132">
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="157"/>
+      <c r="AT4" s="157"/>
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="156">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="133"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="132">
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="157"/>
+      <c r="BA4" s="157"/>
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="158"/>
+      <c r="BD4" s="156">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="132">
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="157"/>
+      <c r="BH4" s="157"/>
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="158"/>
+      <c r="BK4" s="156">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="133"/>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="133"/>
-      <c r="BP4" s="133"/>
-      <c r="BQ4" s="134"/>
-      <c r="BR4" s="132">
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="157"/>
+      <c r="BO4" s="157"/>
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="158"/>
+      <c r="BR4" s="156">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="133"/>
-      <c r="BT4" s="133"/>
-      <c r="BU4" s="133"/>
-      <c r="BV4" s="133"/>
-      <c r="BW4" s="133"/>
-      <c r="BX4" s="134"/>
-      <c r="BY4" s="132">
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="157"/>
+      <c r="BV4" s="157"/>
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="158"/>
+      <c r="BY4" s="156">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="133"/>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="133"/>
-      <c r="CD4" s="133"/>
-      <c r="CE4" s="134"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="157"/>
+      <c r="CC4" s="157"/>
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="158"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -2238,7 +2243,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="138"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2739,18 +2744,18 @@
       <c r="G8" s="102"/>
       <c r="H8" s="83"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="141"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="145"/>
       <c r="V8" s="85"/>
       <c r="W8" s="86"/>
       <c r="X8" s="86"/>
@@ -2845,11 +2850,11 @@
       <c r="S9" s="96"/>
       <c r="T9" s="96"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="115"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="123"/>
       <c r="AA9" s="84"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
@@ -3030,14 +3035,14 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="81"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="115"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="123"/>
       <c r="AI11" s="83"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
@@ -3124,12 +3129,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="143"/>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="143"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="144"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="149"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3218,15 +3223,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="170"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="170"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="170"/>
+      <c r="AJ13" s="170"/>
+      <c r="AK13" s="170"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3312,13 +3317,13 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="145"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="111"/>
-      <c r="AJ14" s="146"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="152"/>
       <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -3410,9 +3415,9 @@
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
+      <c r="AI15" s="171"/>
+      <c r="AJ15" s="171"/>
+      <c r="AK15" s="171"/>
       <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3499,12 +3504,12 @@
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="147"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="149"/>
+      <c r="AE16" s="153"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="155"/>
       <c r="AK16" s="93"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -3591,14 +3596,14 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="114"/>
-      <c r="AH17" s="114"/>
-      <c r="AI17" s="114"/>
-      <c r="AJ17" s="114"/>
-      <c r="AK17" s="115"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="123"/>
       <c r="AL17" s="83"/>
       <c r="AM17" s="28"/>
       <c r="AN17" s="40"/>
@@ -3660,7 +3665,7 @@
       <c r="E18" s="47">
         <v>45225</v>
       </c>
-      <c r="F18" s="110"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3687,11 +3692,11 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="114"/>
-      <c r="AK18" s="115"/>
+      <c r="AG18" s="147"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="123"/>
       <c r="AL18" s="83"/>
       <c r="AM18" s="28"/>
       <c r="AN18" s="40"/>
@@ -3747,7 +3752,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="112"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3828,16 +3833,16 @@
     </row>
     <row r="20" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="152" t="s">
+      <c r="B20" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="110">
         <v>45229</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="110">
         <v>45230</v>
       </c>
       <c r="F20" s="82"/>
@@ -3869,15 +3874,15 @@
       <c r="AF20" s="28"/>
       <c r="AG20" s="40"/>
       <c r="AH20" s="81"/>
-      <c r="AI20" s="164"/>
-      <c r="AJ20" s="164"/>
-      <c r="AK20" s="164"/>
-      <c r="AL20" s="164"/>
-      <c r="AM20" s="165"/>
-      <c r="AN20" s="165"/>
-      <c r="AO20" s="154"/>
-      <c r="AP20" s="168"/>
-      <c r="AQ20" s="169"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="112"/>
+      <c r="AK20" s="112"/>
+      <c r="AL20" s="112"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="116"/>
+      <c r="AQ20" s="117"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
@@ -3964,12 +3969,12 @@
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="81"/>
-      <c r="AI21" s="119"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="120"/>
-      <c r="AN21" s="121"/>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="129"/>
       <c r="AO21" s="87"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
@@ -4058,12 +4063,12 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="92"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="114"/>
-      <c r="AM22" s="114"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="115"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="122"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="122"/>
+      <c r="AO22" s="123"/>
       <c r="AP22" s="85"/>
       <c r="AQ22" s="28"/>
       <c r="AR22" s="28"/>
@@ -4152,12 +4157,12 @@
       <c r="AH23" s="40"/>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="92"/>
-      <c r="AK23" s="129"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="130"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="131"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="125"/>
+      <c r="AM23" s="125"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="125"/>
+      <c r="AP23" s="126"/>
       <c r="AQ23" s="85"/>
       <c r="AR23" s="28"/>
       <c r="AS23" s="28"/>
@@ -4246,12 +4251,12 @@
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="97"/>
-      <c r="AL24" s="119"/>
-      <c r="AM24" s="120"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="121"/>
+      <c r="AL24" s="127"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="128"/>
+      <c r="AO24" s="128"/>
+      <c r="AP24" s="128"/>
+      <c r="AQ24" s="129"/>
       <c r="AR24" s="83"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -4338,13 +4343,13 @@
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="126"/>
-      <c r="AL25" s="127"/>
-      <c r="AM25" s="127"/>
-      <c r="AN25" s="127"/>
-      <c r="AO25" s="127"/>
-      <c r="AP25" s="127"/>
-      <c r="AQ25" s="128"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="131"/>
+      <c r="AM25" s="131"/>
+      <c r="AN25" s="131"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="132"/>
       <c r="AR25" s="85"/>
       <c r="AS25" s="86"/>
       <c r="AT25" s="28"/>
@@ -4434,12 +4439,12 @@
       <c r="AK26" s="91"/>
       <c r="AL26" s="91"/>
       <c r="AM26" s="92"/>
-      <c r="AN26" s="129"/>
-      <c r="AO26" s="130"/>
-      <c r="AP26" s="130"/>
-      <c r="AQ26" s="130"/>
-      <c r="AR26" s="130"/>
-      <c r="AS26" s="131"/>
+      <c r="AN26" s="124"/>
+      <c r="AO26" s="125"/>
+      <c r="AP26" s="125"/>
+      <c r="AQ26" s="125"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="126"/>
       <c r="AT26" s="85"/>
       <c r="AU26" s="40"/>
       <c r="AV26" s="40"/>
@@ -4528,12 +4533,12 @@
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="95"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="162"/>
-      <c r="AQ27" s="162"/>
-      <c r="AR27" s="162"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
+      <c r="AO27" s="133"/>
+      <c r="AP27" s="134"/>
+      <c r="AQ27" s="134"/>
+      <c r="AR27" s="134"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
       <c r="AU27" s="87"/>
       <c r="AV27" s="60"/>
       <c r="AW27" s="86"/>
@@ -4622,16 +4627,16 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="95"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="160"/>
-      <c r="AR28" s="160"/>
-      <c r="AS28" s="160"/>
-      <c r="AT28" s="160"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="160"/>
-      <c r="AW28" s="160"/>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="161"/>
+      <c r="AP28" s="136"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
+      <c r="AY28" s="138"/>
       <c r="AZ28" s="85"/>
       <c r="BA28" s="86"/>
       <c r="BB28" s="60"/>
@@ -4668,7 +4673,7 @@
     <row r="29" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>2</v>
@@ -4721,17 +4726,17 @@
       <c r="AS29" s="94"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="98"/>
-      <c r="AV29" s="124"/>
-      <c r="AW29" s="114"/>
-      <c r="AX29" s="114"/>
-      <c r="AY29" s="114"/>
-      <c r="AZ29" s="114"/>
-      <c r="BA29" s="114"/>
-      <c r="BB29" s="114"/>
-      <c r="BC29" s="114"/>
-      <c r="BD29" s="114"/>
-      <c r="BE29" s="114"/>
-      <c r="BF29" s="115"/>
+      <c r="AV29" s="133"/>
+      <c r="AW29" s="122"/>
+      <c r="AX29" s="122"/>
+      <c r="AY29" s="122"/>
+      <c r="AZ29" s="122"/>
+      <c r="BA29" s="122"/>
+      <c r="BB29" s="122"/>
+      <c r="BC29" s="122"/>
+      <c r="BD29" s="122"/>
+      <c r="BE29" s="122"/>
+      <c r="BF29" s="123"/>
       <c r="BG29" s="83"/>
       <c r="BH29" s="28"/>
       <c r="BI29" s="40"/>
@@ -4810,17 +4815,17 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="80"/>
-      <c r="AR30" s="125"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="158"/>
-      <c r="AV30" s="158"/>
-      <c r="AW30" s="158"/>
-      <c r="AX30" s="158"/>
-      <c r="AY30" s="158"/>
-      <c r="AZ30" s="158"/>
-      <c r="BA30" s="158"/>
-      <c r="BB30" s="159"/>
+      <c r="AR30" s="139"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="140"/>
+      <c r="AY30" s="140"/>
+      <c r="AZ30" s="140"/>
+      <c r="BA30" s="140"/>
+      <c r="BB30" s="141"/>
       <c r="BC30" s="100"/>
       <c r="BD30" s="91"/>
       <c r="BE30" s="91"/>
@@ -4856,9 +4861,7 @@
       <c r="B31" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>3</v>
-      </c>
+      <c r="C31" s="55"/>
       <c r="D31" s="56">
         <v>45232</v>
       </c>
@@ -4904,17 +4907,17 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="92"/>
-      <c r="AS31" s="118"/>
-      <c r="AT31" s="160"/>
-      <c r="AU31" s="160"/>
-      <c r="AV31" s="160"/>
-      <c r="AW31" s="160"/>
-      <c r="AX31" s="160"/>
-      <c r="AY31" s="160"/>
-      <c r="AZ31" s="160"/>
-      <c r="BA31" s="160"/>
-      <c r="BB31" s="160"/>
-      <c r="BC31" s="161"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="137"/>
+      <c r="AU31" s="137"/>
+      <c r="AV31" s="137"/>
+      <c r="AW31" s="137"/>
+      <c r="AX31" s="137"/>
+      <c r="AY31" s="137"/>
+      <c r="AZ31" s="137"/>
+      <c r="BA31" s="137"/>
+      <c r="BB31" s="137"/>
+      <c r="BC31" s="138"/>
       <c r="BD31" s="85"/>
       <c r="BE31" s="28"/>
       <c r="BF31" s="28"/>
@@ -4998,17 +5001,17 @@
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
       <c r="AS32" s="92"/>
-      <c r="AT32" s="125"/>
-      <c r="AU32" s="158"/>
-      <c r="AV32" s="158"/>
-      <c r="AW32" s="158"/>
-      <c r="AX32" s="158"/>
-      <c r="AY32" s="158"/>
-      <c r="AZ32" s="158"/>
-      <c r="BA32" s="158"/>
-      <c r="BB32" s="158"/>
-      <c r="BC32" s="158"/>
-      <c r="BD32" s="159"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
+      <c r="AX32" s="140"/>
+      <c r="AY32" s="140"/>
+      <c r="AZ32" s="140"/>
+      <c r="BA32" s="140"/>
+      <c r="BB32" s="140"/>
+      <c r="BC32" s="140"/>
+      <c r="BD32" s="141"/>
       <c r="BE32" s="83"/>
       <c r="BF32" s="28"/>
       <c r="BG32" s="28"/>
@@ -5093,11 +5096,11 @@
       <c r="AS33" s="28"/>
       <c r="AT33" s="91"/>
       <c r="AU33" s="95"/>
-      <c r="AV33" s="117"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="115"/>
+      <c r="AV33" s="142"/>
+      <c r="AW33" s="122"/>
+      <c r="AX33" s="122"/>
+      <c r="AY33" s="122"/>
+      <c r="AZ33" s="123"/>
       <c r="BA33" s="93"/>
       <c r="BB33" s="99"/>
       <c r="BC33" s="99"/>
@@ -5187,16 +5190,16 @@
       <c r="AT34" s="91"/>
       <c r="AU34" s="95"/>
       <c r="AV34" s="98"/>
-      <c r="AW34" s="126"/>
-      <c r="AX34" s="127"/>
-      <c r="AY34" s="127"/>
-      <c r="AZ34" s="127"/>
-      <c r="BA34" s="127"/>
-      <c r="BB34" s="127"/>
-      <c r="BC34" s="127"/>
-      <c r="BD34" s="127"/>
-      <c r="BE34" s="127"/>
-      <c r="BF34" s="128"/>
+      <c r="AW34" s="130"/>
+      <c r="AX34" s="131"/>
+      <c r="AY34" s="131"/>
+      <c r="AZ34" s="131"/>
+      <c r="BA34" s="131"/>
+      <c r="BB34" s="131"/>
+      <c r="BC34" s="131"/>
+      <c r="BD34" s="131"/>
+      <c r="BE34" s="131"/>
+      <c r="BF34" s="132"/>
       <c r="BG34" s="85"/>
       <c r="BH34" s="59"/>
       <c r="BI34" s="60"/>
@@ -5225,16 +5228,16 @@
     </row>
     <row r="35" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="153">
+      <c r="D35" s="110">
         <v>45233</v>
       </c>
-      <c r="E35" s="153">
+      <c r="E35" s="110">
         <v>45240</v>
       </c>
       <c r="F35" s="82"/>
@@ -5278,13 +5281,13 @@
       <c r="AR35" s="28"/>
       <c r="AS35" s="28"/>
       <c r="AT35" s="91"/>
-      <c r="AU35" s="172"/>
-      <c r="AV35" s="169"/>
-      <c r="AW35" s="169"/>
-      <c r="AX35" s="169"/>
-      <c r="AY35" s="169"/>
-      <c r="AZ35" s="169"/>
-      <c r="BA35" s="169"/>
+      <c r="AU35" s="118"/>
+      <c r="AV35" s="117"/>
+      <c r="AW35" s="117"/>
+      <c r="AX35" s="117"/>
+      <c r="AY35" s="117"/>
+      <c r="AZ35" s="117"/>
+      <c r="BA35" s="117"/>
       <c r="BB35" s="40"/>
       <c r="BC35" s="40"/>
       <c r="BD35" s="28"/>
@@ -5318,12 +5321,14 @@
     </row>
     <row r="36" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="152"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
+      <c r="C36" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="82"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -5405,12 +5410,12 @@
     </row>
     <row r="37" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="152"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="82"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -5492,12 +5497,12 @@
     </row>
     <row r="38" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
+      <c r="B38" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="109"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="82"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -5579,12 +5584,14 @@
     </row>
     <row r="39" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="151" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
+      <c r="B39" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="82"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -5666,12 +5673,14 @@
     </row>
     <row r="40" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="151" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="152"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
+      <c r="B40" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="82"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -5753,14 +5762,14 @@
     </row>
     <row r="41" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="151" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="82"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -5842,12 +5851,12 @@
     </row>
     <row r="42" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="152"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
+      <c r="B42" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="82"/>
       <c r="G42" s="86"/>
       <c r="H42" s="86"/>
@@ -5876,7 +5885,7 @@
       <c r="AE42" s="86"/>
       <c r="AF42" s="86"/>
       <c r="AG42" s="60"/>
-      <c r="AH42" s="166"/>
+      <c r="AH42" s="114"/>
       <c r="AI42" s="86"/>
       <c r="AJ42" s="86"/>
       <c r="AK42" s="86"/>
@@ -5895,9 +5904,9 @@
       <c r="AX42" s="91"/>
       <c r="AY42" s="91"/>
       <c r="AZ42" s="92"/>
-      <c r="BA42" s="167"/>
-      <c r="BB42" s="154"/>
-      <c r="BC42" s="154"/>
+      <c r="BA42" s="115"/>
+      <c r="BB42" s="111"/>
+      <c r="BC42" s="111"/>
       <c r="BD42" s="28"/>
       <c r="BE42" s="28"/>
       <c r="BF42" s="28"/>
@@ -5930,7 +5939,7 @@
     <row r="43" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>1</v>
@@ -5988,12 +5997,12 @@
       <c r="AX43" s="91"/>
       <c r="AY43" s="91"/>
       <c r="AZ43" s="92"/>
-      <c r="BA43" s="113"/>
-      <c r="BB43" s="170"/>
-      <c r="BC43" s="170"/>
-      <c r="BD43" s="170"/>
-      <c r="BE43" s="170"/>
-      <c r="BF43" s="171"/>
+      <c r="BA43" s="167"/>
+      <c r="BB43" s="168"/>
+      <c r="BC43" s="168"/>
+      <c r="BD43" s="168"/>
+      <c r="BE43" s="168"/>
+      <c r="BF43" s="169"/>
       <c r="BG43" s="85"/>
       <c r="BH43" s="59"/>
       <c r="BI43" s="60"/>
@@ -6028,84 +6037,84 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
       <c r="E44" s="64"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="150"/>
-      <c r="N44" s="150"/>
-      <c r="O44" s="150"/>
-      <c r="P44" s="150"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="150"/>
-      <c r="U44" s="150"/>
-      <c r="V44" s="150"/>
-      <c r="W44" s="150"/>
-      <c r="X44" s="150"/>
-      <c r="Y44" s="150"/>
-      <c r="Z44" s="150"/>
-      <c r="AA44" s="150"/>
-      <c r="AB44" s="150"/>
-      <c r="AC44" s="150"/>
-      <c r="AD44" s="150"/>
-      <c r="AE44" s="150"/>
-      <c r="AF44" s="150"/>
-      <c r="AG44" s="150"/>
-      <c r="AH44" s="150"/>
-      <c r="AI44" s="150"/>
-      <c r="AJ44" s="150"/>
-      <c r="AK44" s="150"/>
-      <c r="AL44" s="150"/>
-      <c r="AM44" s="150"/>
-      <c r="AN44" s="150"/>
-      <c r="AO44" s="150"/>
-      <c r="AP44" s="150"/>
-      <c r="AQ44" s="150"/>
-      <c r="AR44" s="150"/>
-      <c r="AS44" s="150"/>
-      <c r="AT44" s="150"/>
-      <c r="AU44" s="150"/>
-      <c r="AV44" s="150"/>
-      <c r="AW44" s="150"/>
-      <c r="AX44" s="150"/>
-      <c r="AY44" s="150"/>
-      <c r="AZ44" s="150"/>
-      <c r="BA44" s="150"/>
-      <c r="BB44" s="150"/>
-      <c r="BC44" s="150"/>
-      <c r="BD44" s="150"/>
-      <c r="BE44" s="150"/>
-      <c r="BF44" s="150"/>
-      <c r="BG44" s="150"/>
-      <c r="BH44" s="150"/>
-      <c r="BI44" s="150"/>
-      <c r="BJ44" s="150"/>
-      <c r="BK44" s="150"/>
-      <c r="BL44" s="150"/>
-      <c r="BM44" s="150"/>
-      <c r="BN44" s="150"/>
-      <c r="BO44" s="150"/>
-      <c r="BP44" s="150"/>
-      <c r="BQ44" s="150"/>
-      <c r="BR44" s="150"/>
-      <c r="BS44" s="150"/>
-      <c r="BT44" s="150"/>
-      <c r="BU44" s="150"/>
-      <c r="BV44" s="150"/>
-      <c r="BW44" s="150"/>
-      <c r="BX44" s="150"/>
-      <c r="BY44" s="150"/>
-      <c r="BZ44" s="150"/>
-      <c r="CA44" s="150"/>
-      <c r="CB44" s="150"/>
-      <c r="CC44" s="150"/>
-      <c r="CD44" s="150"/>
-      <c r="CE44" s="157"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="163"/>
+      <c r="M44" s="163"/>
+      <c r="N44" s="163"/>
+      <c r="O44" s="163"/>
+      <c r="P44" s="163"/>
+      <c r="Q44" s="163"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="163"/>
+      <c r="U44" s="163"/>
+      <c r="V44" s="163"/>
+      <c r="W44" s="163"/>
+      <c r="X44" s="163"/>
+      <c r="Y44" s="163"/>
+      <c r="Z44" s="163"/>
+      <c r="AA44" s="163"/>
+      <c r="AB44" s="163"/>
+      <c r="AC44" s="163"/>
+      <c r="AD44" s="163"/>
+      <c r="AE44" s="163"/>
+      <c r="AF44" s="163"/>
+      <c r="AG44" s="163"/>
+      <c r="AH44" s="163"/>
+      <c r="AI44" s="163"/>
+      <c r="AJ44" s="163"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="163"/>
+      <c r="AM44" s="163"/>
+      <c r="AN44" s="163"/>
+      <c r="AO44" s="163"/>
+      <c r="AP44" s="163"/>
+      <c r="AQ44" s="163"/>
+      <c r="AR44" s="163"/>
+      <c r="AS44" s="163"/>
+      <c r="AT44" s="163"/>
+      <c r="AU44" s="163"/>
+      <c r="AV44" s="163"/>
+      <c r="AW44" s="163"/>
+      <c r="AX44" s="163"/>
+      <c r="AY44" s="163"/>
+      <c r="AZ44" s="163"/>
+      <c r="BA44" s="163"/>
+      <c r="BB44" s="163"/>
+      <c r="BC44" s="163"/>
+      <c r="BD44" s="163"/>
+      <c r="BE44" s="163"/>
+      <c r="BF44" s="163"/>
+      <c r="BG44" s="163"/>
+      <c r="BH44" s="163"/>
+      <c r="BI44" s="163"/>
+      <c r="BJ44" s="163"/>
+      <c r="BK44" s="163"/>
+      <c r="BL44" s="163"/>
+      <c r="BM44" s="163"/>
+      <c r="BN44" s="163"/>
+      <c r="BO44" s="163"/>
+      <c r="BP44" s="163"/>
+      <c r="BQ44" s="163"/>
+      <c r="BR44" s="163"/>
+      <c r="BS44" s="163"/>
+      <c r="BT44" s="163"/>
+      <c r="BU44" s="163"/>
+      <c r="BV44" s="163"/>
+      <c r="BW44" s="163"/>
+      <c r="BX44" s="163"/>
+      <c r="BY44" s="163"/>
+      <c r="BZ44" s="163"/>
+      <c r="CA44" s="163"/>
+      <c r="CB44" s="163"/>
+      <c r="CC44" s="163"/>
+      <c r="CD44" s="163"/>
+      <c r="CE44" s="164"/>
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
@@ -6121,7 +6130,7 @@
       <c r="E45" s="68">
         <v>45244</v>
       </c>
-      <c r="F45" s="112"/>
+      <c r="F45" s="166"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -6169,10 +6178,10 @@
       <c r="AY45" s="28"/>
       <c r="AZ45" s="28"/>
       <c r="BA45" s="80"/>
-      <c r="BB45" s="129"/>
-      <c r="BC45" s="130"/>
-      <c r="BD45" s="130"/>
-      <c r="BE45" s="131"/>
+      <c r="BB45" s="124"/>
+      <c r="BC45" s="125"/>
+      <c r="BD45" s="125"/>
+      <c r="BE45" s="126"/>
       <c r="BF45" s="85"/>
       <c r="BG45" s="86"/>
       <c r="BH45" s="86"/>
@@ -6266,11 +6275,11 @@
       <c r="BC46" s="96"/>
       <c r="BD46" s="91"/>
       <c r="BE46" s="97"/>
-      <c r="BF46" s="129"/>
-      <c r="BG46" s="130"/>
-      <c r="BH46" s="130"/>
-      <c r="BI46" s="130"/>
-      <c r="BJ46" s="131"/>
+      <c r="BF46" s="124"/>
+      <c r="BG46" s="125"/>
+      <c r="BH46" s="125"/>
+      <c r="BI46" s="125"/>
+      <c r="BJ46" s="126"/>
       <c r="BK46" s="85"/>
       <c r="BL46" s="86"/>
       <c r="BM46" s="28"/>
@@ -6358,14 +6367,14 @@
       <c r="BB47" s="40"/>
       <c r="BC47" s="40"/>
       <c r="BD47" s="80"/>
-      <c r="BE47" s="126"/>
-      <c r="BF47" s="127"/>
-      <c r="BG47" s="127"/>
-      <c r="BH47" s="127"/>
-      <c r="BI47" s="127"/>
-      <c r="BJ47" s="127"/>
-      <c r="BK47" s="127"/>
-      <c r="BL47" s="128"/>
+      <c r="BE47" s="130"/>
+      <c r="BF47" s="131"/>
+      <c r="BG47" s="131"/>
+      <c r="BH47" s="131"/>
+      <c r="BI47" s="131"/>
+      <c r="BJ47" s="131"/>
+      <c r="BK47" s="131"/>
+      <c r="BL47" s="132"/>
       <c r="BM47" s="83"/>
       <c r="BN47" s="28"/>
       <c r="BO47" s="28"/>
@@ -6452,13 +6461,13 @@
       <c r="BC48" s="40"/>
       <c r="BD48" s="28"/>
       <c r="BE48" s="92"/>
-      <c r="BF48" s="116"/>
-      <c r="BG48" s="114"/>
-      <c r="BH48" s="114"/>
-      <c r="BI48" s="114"/>
-      <c r="BJ48" s="114"/>
-      <c r="BK48" s="114"/>
-      <c r="BL48" s="115"/>
+      <c r="BF48" s="172"/>
+      <c r="BG48" s="122"/>
+      <c r="BH48" s="122"/>
+      <c r="BI48" s="122"/>
+      <c r="BJ48" s="122"/>
+      <c r="BK48" s="122"/>
+      <c r="BL48" s="123"/>
       <c r="BM48" s="85"/>
       <c r="BN48" s="88"/>
       <c r="BO48" s="86"/>
@@ -6548,13 +6557,13 @@
       <c r="BF49" s="91"/>
       <c r="BG49" s="91"/>
       <c r="BH49" s="92"/>
-      <c r="BI49" s="125"/>
-      <c r="BJ49" s="114"/>
-      <c r="BK49" s="114"/>
-      <c r="BL49" s="114"/>
-      <c r="BM49" s="114"/>
-      <c r="BN49" s="114"/>
-      <c r="BO49" s="115"/>
+      <c r="BI49" s="139"/>
+      <c r="BJ49" s="122"/>
+      <c r="BK49" s="122"/>
+      <c r="BL49" s="122"/>
+      <c r="BM49" s="122"/>
+      <c r="BN49" s="122"/>
+      <c r="BO49" s="123"/>
       <c r="BP49" s="84"/>
       <c r="BQ49" s="40"/>
       <c r="BR49" s="28"/>
@@ -6642,12 +6651,12 @@
       <c r="BG50" s="28"/>
       <c r="BH50" s="28"/>
       <c r="BI50" s="95"/>
-      <c r="BJ50" s="119"/>
-      <c r="BK50" s="120"/>
-      <c r="BL50" s="120"/>
-      <c r="BM50" s="120"/>
-      <c r="BN50" s="120"/>
-      <c r="BO50" s="121"/>
+      <c r="BJ50" s="127"/>
+      <c r="BK50" s="128"/>
+      <c r="BL50" s="128"/>
+      <c r="BM50" s="128"/>
+      <c r="BN50" s="128"/>
+      <c r="BO50" s="129"/>
       <c r="BP50" s="87"/>
       <c r="BQ50" s="60"/>
       <c r="BR50" s="86"/>
@@ -6736,15 +6745,15 @@
       <c r="BH51" s="28"/>
       <c r="BI51" s="40"/>
       <c r="BJ51" s="95"/>
-      <c r="BK51" s="117"/>
-      <c r="BL51" s="114"/>
-      <c r="BM51" s="114"/>
-      <c r="BN51" s="114"/>
-      <c r="BO51" s="114"/>
-      <c r="BP51" s="114"/>
-      <c r="BQ51" s="114"/>
-      <c r="BR51" s="114"/>
-      <c r="BS51" s="115"/>
+      <c r="BK51" s="142"/>
+      <c r="BL51" s="122"/>
+      <c r="BM51" s="122"/>
+      <c r="BN51" s="122"/>
+      <c r="BO51" s="122"/>
+      <c r="BP51" s="122"/>
+      <c r="BQ51" s="122"/>
+      <c r="BR51" s="122"/>
+      <c r="BS51" s="123"/>
       <c r="BT51" s="83"/>
       <c r="BU51" s="28"/>
       <c r="BV51" s="28"/>
@@ -6831,13 +6840,13 @@
       <c r="BJ52" s="40"/>
       <c r="BK52" s="91"/>
       <c r="BL52" s="92"/>
-      <c r="BM52" s="118"/>
-      <c r="BN52" s="114"/>
-      <c r="BO52" s="114"/>
-      <c r="BP52" s="114"/>
-      <c r="BQ52" s="114"/>
-      <c r="BR52" s="114"/>
-      <c r="BS52" s="115"/>
+      <c r="BM52" s="136"/>
+      <c r="BN52" s="122"/>
+      <c r="BO52" s="122"/>
+      <c r="BP52" s="122"/>
+      <c r="BQ52" s="122"/>
+      <c r="BR52" s="122"/>
+      <c r="BS52" s="123"/>
       <c r="BT52" s="83"/>
       <c r="BU52" s="28"/>
       <c r="BV52" s="28"/>
@@ -6924,11 +6933,11 @@
       <c r="BJ53" s="40"/>
       <c r="BK53" s="28"/>
       <c r="BL53" s="80"/>
-      <c r="BM53" s="117"/>
-      <c r="BN53" s="114"/>
-      <c r="BO53" s="114"/>
-      <c r="BP53" s="114"/>
-      <c r="BQ53" s="115"/>
+      <c r="BM53" s="142"/>
+      <c r="BN53" s="122"/>
+      <c r="BO53" s="122"/>
+      <c r="BP53" s="122"/>
+      <c r="BQ53" s="123"/>
       <c r="BR53" s="93"/>
       <c r="BS53" s="94"/>
       <c r="BT53" s="86"/>
@@ -7018,13 +7027,13 @@
       <c r="BK54" s="28"/>
       <c r="BL54" s="28"/>
       <c r="BM54" s="92"/>
-      <c r="BN54" s="126"/>
-      <c r="BO54" s="127"/>
-      <c r="BP54" s="127"/>
-      <c r="BQ54" s="127"/>
-      <c r="BR54" s="127"/>
-      <c r="BS54" s="127"/>
-      <c r="BT54" s="128"/>
+      <c r="BN54" s="130"/>
+      <c r="BO54" s="131"/>
+      <c r="BP54" s="131"/>
+      <c r="BQ54" s="131"/>
+      <c r="BR54" s="131"/>
+      <c r="BS54" s="131"/>
+      <c r="BT54" s="132"/>
       <c r="BU54" s="83"/>
       <c r="BV54" s="28"/>
       <c r="BW54" s="40"/>
@@ -7113,11 +7122,11 @@
       <c r="BM55" s="28"/>
       <c r="BN55" s="91"/>
       <c r="BO55" s="92"/>
-      <c r="BP55" s="122"/>
-      <c r="BQ55" s="114"/>
-      <c r="BR55" s="114"/>
-      <c r="BS55" s="114"/>
-      <c r="BT55" s="115"/>
+      <c r="BP55" s="147"/>
+      <c r="BQ55" s="122"/>
+      <c r="BR55" s="122"/>
+      <c r="BS55" s="122"/>
+      <c r="BT55" s="123"/>
       <c r="BU55" s="83"/>
       <c r="BV55" s="28"/>
       <c r="BW55" s="40"/>
@@ -7139,83 +7148,83 @@
       <c r="D56" s="72"/>
       <c r="E56" s="73"/>
       <c r="F56" s="65"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155"/>
-      <c r="S56" s="155"/>
-      <c r="T56" s="155"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="155"/>
-      <c r="W56" s="155"/>
-      <c r="X56" s="155"/>
-      <c r="Y56" s="155"/>
-      <c r="Z56" s="155"/>
-      <c r="AA56" s="155"/>
-      <c r="AB56" s="155"/>
-      <c r="AC56" s="155"/>
-      <c r="AD56" s="155"/>
-      <c r="AE56" s="155"/>
-      <c r="AF56" s="155"/>
-      <c r="AG56" s="155"/>
-      <c r="AH56" s="155"/>
-      <c r="AI56" s="155"/>
-      <c r="AJ56" s="155"/>
-      <c r="AK56" s="155"/>
-      <c r="AL56" s="155"/>
-      <c r="AM56" s="155"/>
-      <c r="AN56" s="155"/>
-      <c r="AO56" s="155"/>
-      <c r="AP56" s="155"/>
-      <c r="AQ56" s="155"/>
-      <c r="AR56" s="155"/>
-      <c r="AS56" s="155"/>
-      <c r="AT56" s="155"/>
-      <c r="AU56" s="155"/>
-      <c r="AV56" s="155"/>
-      <c r="AW56" s="155"/>
-      <c r="AX56" s="155"/>
-      <c r="AY56" s="155"/>
-      <c r="AZ56" s="155"/>
-      <c r="BA56" s="155"/>
-      <c r="BB56" s="155"/>
-      <c r="BC56" s="155"/>
-      <c r="BD56" s="155"/>
-      <c r="BE56" s="155"/>
-      <c r="BF56" s="155"/>
-      <c r="BG56" s="155"/>
-      <c r="BH56" s="155"/>
-      <c r="BI56" s="155"/>
-      <c r="BJ56" s="155"/>
-      <c r="BK56" s="155"/>
-      <c r="BL56" s="155"/>
-      <c r="BM56" s="155"/>
-      <c r="BN56" s="155"/>
-      <c r="BO56" s="155"/>
-      <c r="BP56" s="155"/>
-      <c r="BQ56" s="155"/>
-      <c r="BR56" s="155"/>
-      <c r="BS56" s="155"/>
-      <c r="BT56" s="155"/>
-      <c r="BU56" s="155"/>
-      <c r="BV56" s="155"/>
-      <c r="BW56" s="155"/>
-      <c r="BX56" s="155"/>
-      <c r="BY56" s="155"/>
-      <c r="BZ56" s="155"/>
-      <c r="CA56" s="155"/>
-      <c r="CB56" s="155"/>
-      <c r="CC56" s="155"/>
-      <c r="CD56" s="155"/>
-      <c r="CE56" s="156"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="119"/>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119"/>
+      <c r="V56" s="119"/>
+      <c r="W56" s="119"/>
+      <c r="X56" s="119"/>
+      <c r="Y56" s="119"/>
+      <c r="Z56" s="119"/>
+      <c r="AA56" s="119"/>
+      <c r="AB56" s="119"/>
+      <c r="AC56" s="119"/>
+      <c r="AD56" s="119"/>
+      <c r="AE56" s="119"/>
+      <c r="AF56" s="119"/>
+      <c r="AG56" s="119"/>
+      <c r="AH56" s="119"/>
+      <c r="AI56" s="119"/>
+      <c r="AJ56" s="119"/>
+      <c r="AK56" s="119"/>
+      <c r="AL56" s="119"/>
+      <c r="AM56" s="119"/>
+      <c r="AN56" s="119"/>
+      <c r="AO56" s="119"/>
+      <c r="AP56" s="119"/>
+      <c r="AQ56" s="119"/>
+      <c r="AR56" s="119"/>
+      <c r="AS56" s="119"/>
+      <c r="AT56" s="119"/>
+      <c r="AU56" s="119"/>
+      <c r="AV56" s="119"/>
+      <c r="AW56" s="119"/>
+      <c r="AX56" s="119"/>
+      <c r="AY56" s="119"/>
+      <c r="AZ56" s="119"/>
+      <c r="BA56" s="119"/>
+      <c r="BB56" s="119"/>
+      <c r="BC56" s="119"/>
+      <c r="BD56" s="119"/>
+      <c r="BE56" s="119"/>
+      <c r="BF56" s="119"/>
+      <c r="BG56" s="119"/>
+      <c r="BH56" s="119"/>
+      <c r="BI56" s="119"/>
+      <c r="BJ56" s="119"/>
+      <c r="BK56" s="119"/>
+      <c r="BL56" s="119"/>
+      <c r="BM56" s="119"/>
+      <c r="BN56" s="119"/>
+      <c r="BO56" s="119"/>
+      <c r="BP56" s="119"/>
+      <c r="BQ56" s="119"/>
+      <c r="BR56" s="119"/>
+      <c r="BS56" s="119"/>
+      <c r="BT56" s="119"/>
+      <c r="BU56" s="119"/>
+      <c r="BV56" s="119"/>
+      <c r="BW56" s="119"/>
+      <c r="BX56" s="119"/>
+      <c r="BY56" s="119"/>
+      <c r="BZ56" s="119"/>
+      <c r="CA56" s="119"/>
+      <c r="CB56" s="119"/>
+      <c r="CC56" s="119"/>
+      <c r="CD56" s="119"/>
+      <c r="CE56" s="120"/>
     </row>
     <row r="57" spans="1:83" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
@@ -11038,27 +11047,20 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G56:CE56"/>
-    <mergeCell ref="AJ22:AO22"/>
-    <mergeCell ref="AK23:AP23"/>
-    <mergeCell ref="AL24:AQ24"/>
-    <mergeCell ref="AK25:AQ25"/>
-    <mergeCell ref="AN26:AS26"/>
-    <mergeCell ref="AO27:AT27"/>
-    <mergeCell ref="AP28:AY28"/>
-    <mergeCell ref="AV29:BF29"/>
-    <mergeCell ref="AR30:BB30"/>
-    <mergeCell ref="AS31:BC31"/>
-    <mergeCell ref="AT32:BD32"/>
-    <mergeCell ref="AV33:AZ33"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BF46:BJ46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="AW34:BF34"/>
+    <mergeCell ref="BA43:BF43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="BB45:BE45"/>
+    <mergeCell ref="BN54:BT54"/>
+    <mergeCell ref="BK51:BS51"/>
+    <mergeCell ref="BM52:BS52"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="BJ50:BO50"/>
+    <mergeCell ref="BF48:BL48"/>
     <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="D2:E2"/>
@@ -11073,25 +11075,32 @@
     <mergeCell ref="AW4:BC4"/>
     <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="G56:CE56"/>
+    <mergeCell ref="AJ22:AO22"/>
+    <mergeCell ref="AK23:AP23"/>
+    <mergeCell ref="AL24:AQ24"/>
+    <mergeCell ref="AK25:AQ25"/>
+    <mergeCell ref="AN26:AS26"/>
+    <mergeCell ref="AO27:AT27"/>
+    <mergeCell ref="AP28:AY28"/>
+    <mergeCell ref="AV29:BF29"/>
+    <mergeCell ref="AR30:BB30"/>
+    <mergeCell ref="AS31:BC31"/>
+    <mergeCell ref="AT32:BD32"/>
+    <mergeCell ref="AV33:AZ33"/>
     <mergeCell ref="BM53:BQ53"/>
     <mergeCell ref="BP55:BT55"/>
     <mergeCell ref="BI49:BO49"/>
-    <mergeCell ref="BB45:BE45"/>
-    <mergeCell ref="BN54:BT54"/>
-    <mergeCell ref="BK51:BS51"/>
-    <mergeCell ref="BM52:BS52"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="BJ50:BO50"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="BF46:BJ46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="AW34:BF34"/>
-    <mergeCell ref="BA43:BF43"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="BF48:BL48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -1452,13 +1452,11 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1472,6 +1470,37 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,45 +1510,22 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,7 +1538,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1540,52 +1546,46 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1818,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="CI25" sqref="CI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1941,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="159" t="s">
+      <c r="D2" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="160"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -2028,10 +2028,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="159">
+      <c r="D3" s="145">
         <v>45197</v>
       </c>
-      <c r="E3" s="160"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2117,117 +2117,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="156">
+      <c r="F4" s="147"/>
+      <c r="G4" s="142">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="156">
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="142">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="156">
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="142">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="156">
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="142">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="156">
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="142">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="157"/>
-      <c r="AM4" s="157"/>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="156">
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="142">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="157"/>
-      <c r="AT4" s="157"/>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="156">
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="142">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="157"/>
-      <c r="BA4" s="157"/>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="158"/>
-      <c r="BD4" s="156">
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="142">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="157"/>
-      <c r="BH4" s="157"/>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="158"/>
-      <c r="BK4" s="156">
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="142">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="157"/>
-      <c r="BO4" s="157"/>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="158"/>
-      <c r="BR4" s="156">
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="144"/>
+      <c r="BR4" s="142">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="157"/>
-      <c r="BV4" s="157"/>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="158"/>
-      <c r="BY4" s="156">
+      <c r="BS4" s="143"/>
+      <c r="BT4" s="143"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="143"/>
+      <c r="BX4" s="144"/>
+      <c r="BY4" s="142">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="157"/>
-      <c r="CC4" s="157"/>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="158"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="143"/>
+      <c r="CB4" s="143"/>
+      <c r="CC4" s="143"/>
+      <c r="CD4" s="143"/>
+      <c r="CE4" s="144"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -2243,7 +2243,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="162"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2744,18 +2744,18 @@
       <c r="G8" s="102"/>
       <c r="H8" s="83"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="145"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="151"/>
       <c r="V8" s="85"/>
       <c r="W8" s="86"/>
       <c r="X8" s="86"/>
@@ -2850,7 +2850,7 @@
       <c r="S9" s="96"/>
       <c r="T9" s="96"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="146"/>
+      <c r="V9" s="152"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -3035,7 +3035,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="81"/>
-      <c r="AA11" s="139"/>
+      <c r="AA11" s="153"/>
       <c r="AB11" s="122"/>
       <c r="AC11" s="122"/>
       <c r="AD11" s="122"/>
@@ -3129,12 +3129,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="149"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="155"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3223,15 +3223,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="170"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="170"/>
-      <c r="AJ13" s="170"/>
-      <c r="AK13" s="170"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3317,13 +3317,13 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="152"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="157"/>
       <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -3415,9 +3415,9 @@
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
-      <c r="AI15" s="171"/>
-      <c r="AJ15" s="171"/>
-      <c r="AK15" s="171"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="162"/>
       <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3504,12 +3504,12 @@
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="154"/>
-      <c r="AG16" s="154"/>
-      <c r="AH16" s="154"/>
-      <c r="AI16" s="154"/>
-      <c r="AJ16" s="155"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="160"/>
       <c r="AK16" s="93"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -3596,7 +3596,7 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="136"/>
+      <c r="AD17" s="135"/>
       <c r="AE17" s="122"/>
       <c r="AF17" s="122"/>
       <c r="AG17" s="122"/>
@@ -3665,7 +3665,7 @@
       <c r="E18" s="47">
         <v>45225</v>
       </c>
-      <c r="F18" s="165"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3692,7 +3692,7 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="147"/>
+      <c r="AG18" s="121"/>
       <c r="AH18" s="122"/>
       <c r="AI18" s="122"/>
       <c r="AJ18" s="122"/>
@@ -3752,7 +3752,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="166"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3969,12 +3969,12 @@
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="81"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="129"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="139"/>
+      <c r="AN21" s="140"/>
       <c r="AO21" s="87"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
@@ -4063,7 +4063,7 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="92"/>
-      <c r="AJ22" s="121"/>
+      <c r="AJ22" s="165"/>
       <c r="AK22" s="122"/>
       <c r="AL22" s="122"/>
       <c r="AM22" s="122"/>
@@ -4251,12 +4251,12 @@
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="97"/>
-      <c r="AL24" s="127"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="128"/>
-      <c r="AO24" s="128"/>
-      <c r="AP24" s="128"/>
-      <c r="AQ24" s="129"/>
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="139"/>
+      <c r="AN24" s="139"/>
+      <c r="AO24" s="139"/>
+      <c r="AP24" s="139"/>
+      <c r="AQ24" s="140"/>
       <c r="AR24" s="83"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -4343,13 +4343,13 @@
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="131"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="132"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="129"/>
       <c r="AR25" s="85"/>
       <c r="AS25" s="86"/>
       <c r="AT25" s="28"/>
@@ -4533,12 +4533,12 @@
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="95"/>
-      <c r="AO27" s="133"/>
-      <c r="AP27" s="134"/>
-      <c r="AQ27" s="134"/>
-      <c r="AR27" s="134"/>
-      <c r="AS27" s="134"/>
-      <c r="AT27" s="135"/>
+      <c r="AO27" s="166"/>
+      <c r="AP27" s="167"/>
+      <c r="AQ27" s="167"/>
+      <c r="AR27" s="167"/>
+      <c r="AS27" s="167"/>
+      <c r="AT27" s="168"/>
       <c r="AU27" s="87"/>
       <c r="AV27" s="60"/>
       <c r="AW27" s="86"/>
@@ -4627,16 +4627,16 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="95"/>
-      <c r="AP28" s="136"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="138"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="169"/>
+      <c r="AR28" s="169"/>
+      <c r="AS28" s="169"/>
+      <c r="AT28" s="169"/>
+      <c r="AU28" s="169"/>
+      <c r="AV28" s="169"/>
+      <c r="AW28" s="169"/>
+      <c r="AX28" s="169"/>
+      <c r="AY28" s="170"/>
       <c r="AZ28" s="85"/>
       <c r="BA28" s="86"/>
       <c r="BB28" s="60"/>
@@ -4726,7 +4726,7 @@
       <c r="AS29" s="94"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="98"/>
-      <c r="AV29" s="133"/>
+      <c r="AV29" s="166"/>
       <c r="AW29" s="122"/>
       <c r="AX29" s="122"/>
       <c r="AY29" s="122"/>
@@ -4815,17 +4815,17 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="80"/>
-      <c r="AR30" s="139"/>
-      <c r="AS30" s="140"/>
-      <c r="AT30" s="140"/>
-      <c r="AU30" s="140"/>
-      <c r="AV30" s="140"/>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="140"/>
-      <c r="AY30" s="140"/>
-      <c r="AZ30" s="140"/>
-      <c r="BA30" s="140"/>
-      <c r="BB30" s="141"/>
+      <c r="AR30" s="153"/>
+      <c r="AS30" s="171"/>
+      <c r="AT30" s="171"/>
+      <c r="AU30" s="171"/>
+      <c r="AV30" s="171"/>
+      <c r="AW30" s="171"/>
+      <c r="AX30" s="171"/>
+      <c r="AY30" s="171"/>
+      <c r="AZ30" s="171"/>
+      <c r="BA30" s="171"/>
+      <c r="BB30" s="172"/>
       <c r="BC30" s="100"/>
       <c r="BD30" s="91"/>
       <c r="BE30" s="91"/>
@@ -4907,17 +4907,17 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="92"/>
-      <c r="AS31" s="136"/>
-      <c r="AT31" s="137"/>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="137"/>
-      <c r="AW31" s="137"/>
-      <c r="AX31" s="137"/>
-      <c r="AY31" s="137"/>
-      <c r="AZ31" s="137"/>
-      <c r="BA31" s="137"/>
-      <c r="BB31" s="137"/>
-      <c r="BC31" s="138"/>
+      <c r="AS31" s="135"/>
+      <c r="AT31" s="169"/>
+      <c r="AU31" s="169"/>
+      <c r="AV31" s="169"/>
+      <c r="AW31" s="169"/>
+      <c r="AX31" s="169"/>
+      <c r="AY31" s="169"/>
+      <c r="AZ31" s="169"/>
+      <c r="BA31" s="169"/>
+      <c r="BB31" s="169"/>
+      <c r="BC31" s="170"/>
       <c r="BD31" s="85"/>
       <c r="BE31" s="28"/>
       <c r="BF31" s="28"/>
@@ -5001,17 +5001,17 @@
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
       <c r="AS32" s="92"/>
-      <c r="AT32" s="139"/>
-      <c r="AU32" s="140"/>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
-      <c r="AX32" s="140"/>
-      <c r="AY32" s="140"/>
-      <c r="AZ32" s="140"/>
-      <c r="BA32" s="140"/>
-      <c r="BB32" s="140"/>
-      <c r="BC32" s="140"/>
-      <c r="BD32" s="141"/>
+      <c r="AT32" s="153"/>
+      <c r="AU32" s="171"/>
+      <c r="AV32" s="171"/>
+      <c r="AW32" s="171"/>
+      <c r="AX32" s="171"/>
+      <c r="AY32" s="171"/>
+      <c r="AZ32" s="171"/>
+      <c r="BA32" s="171"/>
+      <c r="BB32" s="171"/>
+      <c r="BC32" s="171"/>
+      <c r="BD32" s="172"/>
       <c r="BE32" s="83"/>
       <c r="BF32" s="28"/>
       <c r="BG32" s="28"/>
@@ -5096,7 +5096,7 @@
       <c r="AS33" s="28"/>
       <c r="AT33" s="91"/>
       <c r="AU33" s="95"/>
-      <c r="AV33" s="142"/>
+      <c r="AV33" s="134"/>
       <c r="AW33" s="122"/>
       <c r="AX33" s="122"/>
       <c r="AY33" s="122"/>
@@ -5190,16 +5190,16 @@
       <c r="AT34" s="91"/>
       <c r="AU34" s="95"/>
       <c r="AV34" s="98"/>
-      <c r="AW34" s="130"/>
-      <c r="AX34" s="131"/>
-      <c r="AY34" s="131"/>
-      <c r="AZ34" s="131"/>
-      <c r="BA34" s="131"/>
-      <c r="BB34" s="131"/>
-      <c r="BC34" s="131"/>
-      <c r="BD34" s="131"/>
-      <c r="BE34" s="131"/>
-      <c r="BF34" s="132"/>
+      <c r="AW34" s="127"/>
+      <c r="AX34" s="128"/>
+      <c r="AY34" s="128"/>
+      <c r="AZ34" s="128"/>
+      <c r="BA34" s="128"/>
+      <c r="BB34" s="128"/>
+      <c r="BC34" s="128"/>
+      <c r="BD34" s="128"/>
+      <c r="BE34" s="128"/>
+      <c r="BF34" s="129"/>
       <c r="BG34" s="85"/>
       <c r="BH34" s="59"/>
       <c r="BI34" s="60"/>
@@ -5854,7 +5854,9 @@
       <c r="B42" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="109"/>
+      <c r="C42" s="109" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
       <c r="F42" s="82"/>
@@ -5997,12 +5999,12 @@
       <c r="AX43" s="91"/>
       <c r="AY43" s="91"/>
       <c r="AZ43" s="92"/>
-      <c r="BA43" s="167"/>
-      <c r="BB43" s="168"/>
-      <c r="BC43" s="168"/>
-      <c r="BD43" s="168"/>
-      <c r="BE43" s="168"/>
-      <c r="BF43" s="169"/>
+      <c r="BA43" s="130"/>
+      <c r="BB43" s="131"/>
+      <c r="BC43" s="131"/>
+      <c r="BD43" s="131"/>
+      <c r="BE43" s="131"/>
+      <c r="BF43" s="132"/>
       <c r="BG43" s="85"/>
       <c r="BH43" s="59"/>
       <c r="BI43" s="60"/>
@@ -6037,84 +6039,84 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
       <c r="E44" s="64"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="163"/>
-      <c r="M44" s="163"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163"/>
-      <c r="P44" s="163"/>
-      <c r="Q44" s="163"/>
-      <c r="R44" s="163"/>
-      <c r="S44" s="163"/>
-      <c r="T44" s="163"/>
-      <c r="U44" s="163"/>
-      <c r="V44" s="163"/>
-      <c r="W44" s="163"/>
-      <c r="X44" s="163"/>
-      <c r="Y44" s="163"/>
-      <c r="Z44" s="163"/>
-      <c r="AA44" s="163"/>
-      <c r="AB44" s="163"/>
-      <c r="AC44" s="163"/>
-      <c r="AD44" s="163"/>
-      <c r="AE44" s="163"/>
-      <c r="AF44" s="163"/>
-      <c r="AG44" s="163"/>
-      <c r="AH44" s="163"/>
-      <c r="AI44" s="163"/>
-      <c r="AJ44" s="163"/>
-      <c r="AK44" s="163"/>
-      <c r="AL44" s="163"/>
-      <c r="AM44" s="163"/>
-      <c r="AN44" s="163"/>
-      <c r="AO44" s="163"/>
-      <c r="AP44" s="163"/>
-      <c r="AQ44" s="163"/>
-      <c r="AR44" s="163"/>
-      <c r="AS44" s="163"/>
-      <c r="AT44" s="163"/>
-      <c r="AU44" s="163"/>
-      <c r="AV44" s="163"/>
-      <c r="AW44" s="163"/>
-      <c r="AX44" s="163"/>
-      <c r="AY44" s="163"/>
-      <c r="AZ44" s="163"/>
-      <c r="BA44" s="163"/>
-      <c r="BB44" s="163"/>
-      <c r="BC44" s="163"/>
-      <c r="BD44" s="163"/>
-      <c r="BE44" s="163"/>
-      <c r="BF44" s="163"/>
-      <c r="BG44" s="163"/>
-      <c r="BH44" s="163"/>
-      <c r="BI44" s="163"/>
-      <c r="BJ44" s="163"/>
-      <c r="BK44" s="163"/>
-      <c r="BL44" s="163"/>
-      <c r="BM44" s="163"/>
-      <c r="BN44" s="163"/>
-      <c r="BO44" s="163"/>
-      <c r="BP44" s="163"/>
-      <c r="BQ44" s="163"/>
-      <c r="BR44" s="163"/>
-      <c r="BS44" s="163"/>
-      <c r="BT44" s="163"/>
-      <c r="BU44" s="163"/>
-      <c r="BV44" s="163"/>
-      <c r="BW44" s="163"/>
-      <c r="BX44" s="163"/>
-      <c r="BY44" s="163"/>
-      <c r="BZ44" s="163"/>
-      <c r="CA44" s="163"/>
-      <c r="CB44" s="163"/>
-      <c r="CC44" s="163"/>
-      <c r="CD44" s="163"/>
-      <c r="CE44" s="164"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="136"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="136"/>
+      <c r="S44" s="136"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="136"/>
+      <c r="V44" s="136"/>
+      <c r="W44" s="136"/>
+      <c r="X44" s="136"/>
+      <c r="Y44" s="136"/>
+      <c r="Z44" s="136"/>
+      <c r="AA44" s="136"/>
+      <c r="AB44" s="136"/>
+      <c r="AC44" s="136"/>
+      <c r="AD44" s="136"/>
+      <c r="AE44" s="136"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="136"/>
+      <c r="AM44" s="136"/>
+      <c r="AN44" s="136"/>
+      <c r="AO44" s="136"/>
+      <c r="AP44" s="136"/>
+      <c r="AQ44" s="136"/>
+      <c r="AR44" s="136"/>
+      <c r="AS44" s="136"/>
+      <c r="AT44" s="136"/>
+      <c r="AU44" s="136"/>
+      <c r="AV44" s="136"/>
+      <c r="AW44" s="136"/>
+      <c r="AX44" s="136"/>
+      <c r="AY44" s="136"/>
+      <c r="AZ44" s="136"/>
+      <c r="BA44" s="136"/>
+      <c r="BB44" s="136"/>
+      <c r="BC44" s="136"/>
+      <c r="BD44" s="136"/>
+      <c r="BE44" s="136"/>
+      <c r="BF44" s="136"/>
+      <c r="BG44" s="136"/>
+      <c r="BH44" s="136"/>
+      <c r="BI44" s="136"/>
+      <c r="BJ44" s="136"/>
+      <c r="BK44" s="136"/>
+      <c r="BL44" s="136"/>
+      <c r="BM44" s="136"/>
+      <c r="BN44" s="136"/>
+      <c r="BO44" s="136"/>
+      <c r="BP44" s="136"/>
+      <c r="BQ44" s="136"/>
+      <c r="BR44" s="136"/>
+      <c r="BS44" s="136"/>
+      <c r="BT44" s="136"/>
+      <c r="BU44" s="136"/>
+      <c r="BV44" s="136"/>
+      <c r="BW44" s="136"/>
+      <c r="BX44" s="136"/>
+      <c r="BY44" s="136"/>
+      <c r="BZ44" s="136"/>
+      <c r="CA44" s="136"/>
+      <c r="CB44" s="136"/>
+      <c r="CC44" s="136"/>
+      <c r="CD44" s="136"/>
+      <c r="CE44" s="137"/>
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
@@ -6130,7 +6132,7 @@
       <c r="E45" s="68">
         <v>45244</v>
       </c>
-      <c r="F45" s="166"/>
+      <c r="F45" s="120"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -6367,14 +6369,14 @@
       <c r="BB47" s="40"/>
       <c r="BC47" s="40"/>
       <c r="BD47" s="80"/>
-      <c r="BE47" s="130"/>
-      <c r="BF47" s="131"/>
-      <c r="BG47" s="131"/>
-      <c r="BH47" s="131"/>
-      <c r="BI47" s="131"/>
-      <c r="BJ47" s="131"/>
-      <c r="BK47" s="131"/>
-      <c r="BL47" s="132"/>
+      <c r="BE47" s="127"/>
+      <c r="BF47" s="128"/>
+      <c r="BG47" s="128"/>
+      <c r="BH47" s="128"/>
+      <c r="BI47" s="128"/>
+      <c r="BJ47" s="128"/>
+      <c r="BK47" s="128"/>
+      <c r="BL47" s="129"/>
       <c r="BM47" s="83"/>
       <c r="BN47" s="28"/>
       <c r="BO47" s="28"/>
@@ -6461,7 +6463,7 @@
       <c r="BC48" s="40"/>
       <c r="BD48" s="28"/>
       <c r="BE48" s="92"/>
-      <c r="BF48" s="172"/>
+      <c r="BF48" s="141"/>
       <c r="BG48" s="122"/>
       <c r="BH48" s="122"/>
       <c r="BI48" s="122"/>
@@ -6557,7 +6559,7 @@
       <c r="BF49" s="91"/>
       <c r="BG49" s="91"/>
       <c r="BH49" s="92"/>
-      <c r="BI49" s="139"/>
+      <c r="BI49" s="153"/>
       <c r="BJ49" s="122"/>
       <c r="BK49" s="122"/>
       <c r="BL49" s="122"/>
@@ -6651,12 +6653,12 @@
       <c r="BG50" s="28"/>
       <c r="BH50" s="28"/>
       <c r="BI50" s="95"/>
-      <c r="BJ50" s="127"/>
-      <c r="BK50" s="128"/>
-      <c r="BL50" s="128"/>
-      <c r="BM50" s="128"/>
-      <c r="BN50" s="128"/>
-      <c r="BO50" s="129"/>
+      <c r="BJ50" s="138"/>
+      <c r="BK50" s="139"/>
+      <c r="BL50" s="139"/>
+      <c r="BM50" s="139"/>
+      <c r="BN50" s="139"/>
+      <c r="BO50" s="140"/>
       <c r="BP50" s="87"/>
       <c r="BQ50" s="60"/>
       <c r="BR50" s="86"/>
@@ -6745,7 +6747,7 @@
       <c r="BH51" s="28"/>
       <c r="BI51" s="40"/>
       <c r="BJ51" s="95"/>
-      <c r="BK51" s="142"/>
+      <c r="BK51" s="134"/>
       <c r="BL51" s="122"/>
       <c r="BM51" s="122"/>
       <c r="BN51" s="122"/>
@@ -6840,7 +6842,7 @@
       <c r="BJ52" s="40"/>
       <c r="BK52" s="91"/>
       <c r="BL52" s="92"/>
-      <c r="BM52" s="136"/>
+      <c r="BM52" s="135"/>
       <c r="BN52" s="122"/>
       <c r="BO52" s="122"/>
       <c r="BP52" s="122"/>
@@ -6933,7 +6935,7 @@
       <c r="BJ53" s="40"/>
       <c r="BK53" s="28"/>
       <c r="BL53" s="80"/>
-      <c r="BM53" s="142"/>
+      <c r="BM53" s="134"/>
       <c r="BN53" s="122"/>
       <c r="BO53" s="122"/>
       <c r="BP53" s="122"/>
@@ -7027,13 +7029,13 @@
       <c r="BK54" s="28"/>
       <c r="BL54" s="28"/>
       <c r="BM54" s="92"/>
-      <c r="BN54" s="130"/>
-      <c r="BO54" s="131"/>
-      <c r="BP54" s="131"/>
-      <c r="BQ54" s="131"/>
-      <c r="BR54" s="131"/>
-      <c r="BS54" s="131"/>
-      <c r="BT54" s="132"/>
+      <c r="BN54" s="127"/>
+      <c r="BO54" s="128"/>
+      <c r="BP54" s="128"/>
+      <c r="BQ54" s="128"/>
+      <c r="BR54" s="128"/>
+      <c r="BS54" s="128"/>
+      <c r="BT54" s="129"/>
       <c r="BU54" s="83"/>
       <c r="BV54" s="28"/>
       <c r="BW54" s="40"/>
@@ -7122,7 +7124,7 @@
       <c r="BM55" s="28"/>
       <c r="BN55" s="91"/>
       <c r="BO55" s="92"/>
-      <c r="BP55" s="147"/>
+      <c r="BP55" s="121"/>
       <c r="BQ55" s="122"/>
       <c r="BR55" s="122"/>
       <c r="BS55" s="122"/>
@@ -7148,83 +7150,83 @@
       <c r="D56" s="72"/>
       <c r="E56" s="73"/>
       <c r="F56" s="65"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="119"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="119"/>
-      <c r="V56" s="119"/>
-      <c r="W56" s="119"/>
-      <c r="X56" s="119"/>
-      <c r="Y56" s="119"/>
-      <c r="Z56" s="119"/>
-      <c r="AA56" s="119"/>
-      <c r="AB56" s="119"/>
-      <c r="AC56" s="119"/>
-      <c r="AD56" s="119"/>
-      <c r="AE56" s="119"/>
-      <c r="AF56" s="119"/>
-      <c r="AG56" s="119"/>
-      <c r="AH56" s="119"/>
-      <c r="AI56" s="119"/>
-      <c r="AJ56" s="119"/>
-      <c r="AK56" s="119"/>
-      <c r="AL56" s="119"/>
-      <c r="AM56" s="119"/>
-      <c r="AN56" s="119"/>
-      <c r="AO56" s="119"/>
-      <c r="AP56" s="119"/>
-      <c r="AQ56" s="119"/>
-      <c r="AR56" s="119"/>
-      <c r="AS56" s="119"/>
-      <c r="AT56" s="119"/>
-      <c r="AU56" s="119"/>
-      <c r="AV56" s="119"/>
-      <c r="AW56" s="119"/>
-      <c r="AX56" s="119"/>
-      <c r="AY56" s="119"/>
-      <c r="AZ56" s="119"/>
-      <c r="BA56" s="119"/>
-      <c r="BB56" s="119"/>
-      <c r="BC56" s="119"/>
-      <c r="BD56" s="119"/>
-      <c r="BE56" s="119"/>
-      <c r="BF56" s="119"/>
-      <c r="BG56" s="119"/>
-      <c r="BH56" s="119"/>
-      <c r="BI56" s="119"/>
-      <c r="BJ56" s="119"/>
-      <c r="BK56" s="119"/>
-      <c r="BL56" s="119"/>
-      <c r="BM56" s="119"/>
-      <c r="BN56" s="119"/>
-      <c r="BO56" s="119"/>
-      <c r="BP56" s="119"/>
-      <c r="BQ56" s="119"/>
-      <c r="BR56" s="119"/>
-      <c r="BS56" s="119"/>
-      <c r="BT56" s="119"/>
-      <c r="BU56" s="119"/>
-      <c r="BV56" s="119"/>
-      <c r="BW56" s="119"/>
-      <c r="BX56" s="119"/>
-      <c r="BY56" s="119"/>
-      <c r="BZ56" s="119"/>
-      <c r="CA56" s="119"/>
-      <c r="CB56" s="119"/>
-      <c r="CC56" s="119"/>
-      <c r="CD56" s="119"/>
-      <c r="CE56" s="120"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="163"/>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="P56" s="163"/>
+      <c r="Q56" s="163"/>
+      <c r="R56" s="163"/>
+      <c r="S56" s="163"/>
+      <c r="T56" s="163"/>
+      <c r="U56" s="163"/>
+      <c r="V56" s="163"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Y56" s="163"/>
+      <c r="Z56" s="163"/>
+      <c r="AA56" s="163"/>
+      <c r="AB56" s="163"/>
+      <c r="AC56" s="163"/>
+      <c r="AD56" s="163"/>
+      <c r="AE56" s="163"/>
+      <c r="AF56" s="163"/>
+      <c r="AG56" s="163"/>
+      <c r="AH56" s="163"/>
+      <c r="AI56" s="163"/>
+      <c r="AJ56" s="163"/>
+      <c r="AK56" s="163"/>
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="163"/>
+      <c r="AN56" s="163"/>
+      <c r="AO56" s="163"/>
+      <c r="AP56" s="163"/>
+      <c r="AQ56" s="163"/>
+      <c r="AR56" s="163"/>
+      <c r="AS56" s="163"/>
+      <c r="AT56" s="163"/>
+      <c r="AU56" s="163"/>
+      <c r="AV56" s="163"/>
+      <c r="AW56" s="163"/>
+      <c r="AX56" s="163"/>
+      <c r="AY56" s="163"/>
+      <c r="AZ56" s="163"/>
+      <c r="BA56" s="163"/>
+      <c r="BB56" s="163"/>
+      <c r="BC56" s="163"/>
+      <c r="BD56" s="163"/>
+      <c r="BE56" s="163"/>
+      <c r="BF56" s="163"/>
+      <c r="BG56" s="163"/>
+      <c r="BH56" s="163"/>
+      <c r="BI56" s="163"/>
+      <c r="BJ56" s="163"/>
+      <c r="BK56" s="163"/>
+      <c r="BL56" s="163"/>
+      <c r="BM56" s="163"/>
+      <c r="BN56" s="163"/>
+      <c r="BO56" s="163"/>
+      <c r="BP56" s="163"/>
+      <c r="BQ56" s="163"/>
+      <c r="BR56" s="163"/>
+      <c r="BS56" s="163"/>
+      <c r="BT56" s="163"/>
+      <c r="BU56" s="163"/>
+      <c r="BV56" s="163"/>
+      <c r="BW56" s="163"/>
+      <c r="BX56" s="163"/>
+      <c r="BY56" s="163"/>
+      <c r="BZ56" s="163"/>
+      <c r="CA56" s="163"/>
+      <c r="CB56" s="163"/>
+      <c r="CC56" s="163"/>
+      <c r="CD56" s="163"/>
+      <c r="CE56" s="164"/>
     </row>
     <row r="57" spans="1:83" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
@@ -11047,44 +11049,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="BF46:BJ46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="AW34:BF34"/>
-    <mergeCell ref="BA43:BF43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="BB45:BE45"/>
-    <mergeCell ref="BN54:BT54"/>
-    <mergeCell ref="BK51:BS51"/>
-    <mergeCell ref="BM52:BS52"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="BJ50:BO50"/>
-    <mergeCell ref="BF48:BL48"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AD17:AK17"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AI15:AK15"/>
     <mergeCell ref="G56:CE56"/>
     <mergeCell ref="AJ22:AO22"/>
     <mergeCell ref="AK23:AP23"/>
@@ -11101,6 +11065,44 @@
     <mergeCell ref="BM53:BQ53"/>
     <mergeCell ref="BP55:BT55"/>
     <mergeCell ref="BI49:BO49"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BN54:BT54"/>
+    <mergeCell ref="BK51:BS51"/>
+    <mergeCell ref="BM52:BS52"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="BJ50:BO50"/>
+    <mergeCell ref="BF48:BL48"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BF46:BJ46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="AW34:BF34"/>
+    <mergeCell ref="BA43:BF43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="BB45:BE45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -1452,11 +1452,13 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1470,6 +1472,15 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1479,38 +1490,67 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,66 +1566,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1818,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CI25" sqref="CI25"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1941,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="146"/>
+      <c r="E2" s="162"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -2028,10 +2028,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="145">
+      <c r="D3" s="161">
         <v>45197</v>
       </c>
-      <c r="E3" s="146"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2117,117 +2117,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="142">
+      <c r="F4" s="163"/>
+      <c r="G4" s="158">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="142">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="158">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="142">
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="158">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="142">
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="158">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="142">
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="158">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="142">
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="159"/>
+      <c r="AM4" s="159"/>
+      <c r="AN4" s="159"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="158">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="142">
+      <c r="AQ4" s="159"/>
+      <c r="AR4" s="159"/>
+      <c r="AS4" s="159"/>
+      <c r="AT4" s="159"/>
+      <c r="AU4" s="159"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="158">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="144"/>
-      <c r="BD4" s="142">
+      <c r="AX4" s="159"/>
+      <c r="AY4" s="159"/>
+      <c r="AZ4" s="159"/>
+      <c r="BA4" s="159"/>
+      <c r="BB4" s="159"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="158">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="143"/>
-      <c r="BI4" s="143"/>
-      <c r="BJ4" s="144"/>
-      <c r="BK4" s="142">
+      <c r="BE4" s="159"/>
+      <c r="BF4" s="159"/>
+      <c r="BG4" s="159"/>
+      <c r="BH4" s="159"/>
+      <c r="BI4" s="159"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="158">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="143"/>
-      <c r="BM4" s="143"/>
-      <c r="BN4" s="143"/>
-      <c r="BO4" s="143"/>
-      <c r="BP4" s="143"/>
-      <c r="BQ4" s="144"/>
-      <c r="BR4" s="142">
+      <c r="BL4" s="159"/>
+      <c r="BM4" s="159"/>
+      <c r="BN4" s="159"/>
+      <c r="BO4" s="159"/>
+      <c r="BP4" s="159"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="158">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="143"/>
-      <c r="BT4" s="143"/>
-      <c r="BU4" s="143"/>
-      <c r="BV4" s="143"/>
-      <c r="BW4" s="143"/>
-      <c r="BX4" s="144"/>
-      <c r="BY4" s="142">
+      <c r="BS4" s="159"/>
+      <c r="BT4" s="159"/>
+      <c r="BU4" s="159"/>
+      <c r="BV4" s="159"/>
+      <c r="BW4" s="159"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="158">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="143"/>
-      <c r="CA4" s="143"/>
-      <c r="CB4" s="143"/>
-      <c r="CC4" s="143"/>
-      <c r="CD4" s="143"/>
-      <c r="CE4" s="144"/>
+      <c r="BZ4" s="159"/>
+      <c r="CA4" s="159"/>
+      <c r="CB4" s="159"/>
+      <c r="CC4" s="159"/>
+      <c r="CD4" s="159"/>
+      <c r="CE4" s="160"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -2243,7 +2243,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2744,18 +2744,18 @@
       <c r="G8" s="102"/>
       <c r="H8" s="83"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="151"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="85"/>
       <c r="W8" s="86"/>
       <c r="X8" s="86"/>
@@ -2850,7 +2850,7 @@
       <c r="S9" s="96"/>
       <c r="T9" s="96"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="152"/>
+      <c r="V9" s="147"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -3035,7 +3035,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="81"/>
-      <c r="AA11" s="153"/>
+      <c r="AA11" s="139"/>
       <c r="AB11" s="122"/>
       <c r="AC11" s="122"/>
       <c r="AD11" s="122"/>
@@ -3129,12 +3129,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="154"/>
-      <c r="AG12" s="155"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="148"/>
+      <c r="AG12" s="149"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3223,15 +3223,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="161"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="161"/>
-      <c r="AI13" s="161"/>
-      <c r="AJ13" s="161"/>
-      <c r="AK13" s="161"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="156"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="156"/>
+      <c r="AK13" s="156"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3317,13 +3317,13 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="133"/>
-      <c r="AI14" s="133"/>
-      <c r="AJ14" s="157"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="152"/>
       <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -3415,9 +3415,9 @@
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
+      <c r="AI15" s="157"/>
+      <c r="AJ15" s="157"/>
+      <c r="AK15" s="157"/>
       <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3504,12 +3504,12 @@
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="158"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="159"/>
-      <c r="AJ16" s="160"/>
+      <c r="AE16" s="153"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="155"/>
       <c r="AK16" s="93"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -3596,7 +3596,7 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="135"/>
+      <c r="AD17" s="136"/>
       <c r="AE17" s="122"/>
       <c r="AF17" s="122"/>
       <c r="AG17" s="122"/>
@@ -3665,7 +3665,7 @@
       <c r="E18" s="47">
         <v>45225</v>
       </c>
-      <c r="F18" s="119"/>
+      <c r="F18" s="168"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3692,7 +3692,7 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="121"/>
+      <c r="AG18" s="143"/>
       <c r="AH18" s="122"/>
       <c r="AI18" s="122"/>
       <c r="AJ18" s="122"/>
@@ -3752,7 +3752,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="120"/>
+      <c r="F19" s="169"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3969,12 +3969,12 @@
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="81"/>
-      <c r="AI21" s="138"/>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="139"/>
-      <c r="AN21" s="140"/>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="129"/>
       <c r="AO21" s="87"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
@@ -4063,7 +4063,7 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="92"/>
-      <c r="AJ22" s="165"/>
+      <c r="AJ22" s="121"/>
       <c r="AK22" s="122"/>
       <c r="AL22" s="122"/>
       <c r="AM22" s="122"/>
@@ -4251,12 +4251,12 @@
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="97"/>
-      <c r="AL24" s="138"/>
-      <c r="AM24" s="139"/>
-      <c r="AN24" s="139"/>
-      <c r="AO24" s="139"/>
-      <c r="AP24" s="139"/>
-      <c r="AQ24" s="140"/>
+      <c r="AL24" s="127"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="128"/>
+      <c r="AO24" s="128"/>
+      <c r="AP24" s="128"/>
+      <c r="AQ24" s="129"/>
       <c r="AR24" s="83"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -4343,13 +4343,13 @@
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="127"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
-      <c r="AQ25" s="129"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="131"/>
+      <c r="AM25" s="131"/>
+      <c r="AN25" s="131"/>
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="131"/>
+      <c r="AQ25" s="132"/>
       <c r="AR25" s="85"/>
       <c r="AS25" s="86"/>
       <c r="AT25" s="28"/>
@@ -4533,12 +4533,12 @@
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="95"/>
-      <c r="AO27" s="166"/>
-      <c r="AP27" s="167"/>
-      <c r="AQ27" s="167"/>
-      <c r="AR27" s="167"/>
-      <c r="AS27" s="167"/>
-      <c r="AT27" s="168"/>
+      <c r="AO27" s="133"/>
+      <c r="AP27" s="134"/>
+      <c r="AQ27" s="134"/>
+      <c r="AR27" s="134"/>
+      <c r="AS27" s="134"/>
+      <c r="AT27" s="135"/>
       <c r="AU27" s="87"/>
       <c r="AV27" s="60"/>
       <c r="AW27" s="86"/>
@@ -4627,16 +4627,16 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="95"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="169"/>
-      <c r="AR28" s="169"/>
-      <c r="AS28" s="169"/>
-      <c r="AT28" s="169"/>
-      <c r="AU28" s="169"/>
-      <c r="AV28" s="169"/>
-      <c r="AW28" s="169"/>
-      <c r="AX28" s="169"/>
-      <c r="AY28" s="170"/>
+      <c r="AP28" s="136"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
+      <c r="AY28" s="138"/>
       <c r="AZ28" s="85"/>
       <c r="BA28" s="86"/>
       <c r="BB28" s="60"/>
@@ -4726,7 +4726,7 @@
       <c r="AS29" s="94"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="98"/>
-      <c r="AV29" s="166"/>
+      <c r="AV29" s="133"/>
       <c r="AW29" s="122"/>
       <c r="AX29" s="122"/>
       <c r="AY29" s="122"/>
@@ -4815,17 +4815,17 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="80"/>
-      <c r="AR30" s="153"/>
-      <c r="AS30" s="171"/>
-      <c r="AT30" s="171"/>
-      <c r="AU30" s="171"/>
-      <c r="AV30" s="171"/>
-      <c r="AW30" s="171"/>
-      <c r="AX30" s="171"/>
-      <c r="AY30" s="171"/>
-      <c r="AZ30" s="171"/>
-      <c r="BA30" s="171"/>
-      <c r="BB30" s="172"/>
+      <c r="AR30" s="139"/>
+      <c r="AS30" s="140"/>
+      <c r="AT30" s="140"/>
+      <c r="AU30" s="140"/>
+      <c r="AV30" s="140"/>
+      <c r="AW30" s="140"/>
+      <c r="AX30" s="140"/>
+      <c r="AY30" s="140"/>
+      <c r="AZ30" s="140"/>
+      <c r="BA30" s="140"/>
+      <c r="BB30" s="141"/>
       <c r="BC30" s="100"/>
       <c r="BD30" s="91"/>
       <c r="BE30" s="91"/>
@@ -4907,17 +4907,17 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="92"/>
-      <c r="AS31" s="135"/>
-      <c r="AT31" s="169"/>
-      <c r="AU31" s="169"/>
-      <c r="AV31" s="169"/>
-      <c r="AW31" s="169"/>
-      <c r="AX31" s="169"/>
-      <c r="AY31" s="169"/>
-      <c r="AZ31" s="169"/>
-      <c r="BA31" s="169"/>
-      <c r="BB31" s="169"/>
-      <c r="BC31" s="170"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="137"/>
+      <c r="AU31" s="137"/>
+      <c r="AV31" s="137"/>
+      <c r="AW31" s="137"/>
+      <c r="AX31" s="137"/>
+      <c r="AY31" s="137"/>
+      <c r="AZ31" s="137"/>
+      <c r="BA31" s="137"/>
+      <c r="BB31" s="137"/>
+      <c r="BC31" s="138"/>
       <c r="BD31" s="85"/>
       <c r="BE31" s="28"/>
       <c r="BF31" s="28"/>
@@ -5001,17 +5001,17 @@
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
       <c r="AS32" s="92"/>
-      <c r="AT32" s="153"/>
-      <c r="AU32" s="171"/>
-      <c r="AV32" s="171"/>
-      <c r="AW32" s="171"/>
-      <c r="AX32" s="171"/>
-      <c r="AY32" s="171"/>
-      <c r="AZ32" s="171"/>
-      <c r="BA32" s="171"/>
-      <c r="BB32" s="171"/>
-      <c r="BC32" s="171"/>
-      <c r="BD32" s="172"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
+      <c r="AX32" s="140"/>
+      <c r="AY32" s="140"/>
+      <c r="AZ32" s="140"/>
+      <c r="BA32" s="140"/>
+      <c r="BB32" s="140"/>
+      <c r="BC32" s="140"/>
+      <c r="BD32" s="141"/>
       <c r="BE32" s="83"/>
       <c r="BF32" s="28"/>
       <c r="BG32" s="28"/>
@@ -5096,7 +5096,7 @@
       <c r="AS33" s="28"/>
       <c r="AT33" s="91"/>
       <c r="AU33" s="95"/>
-      <c r="AV33" s="134"/>
+      <c r="AV33" s="142"/>
       <c r="AW33" s="122"/>
       <c r="AX33" s="122"/>
       <c r="AY33" s="122"/>
@@ -5190,16 +5190,16 @@
       <c r="AT34" s="91"/>
       <c r="AU34" s="95"/>
       <c r="AV34" s="98"/>
-      <c r="AW34" s="127"/>
-      <c r="AX34" s="128"/>
-      <c r="AY34" s="128"/>
-      <c r="AZ34" s="128"/>
-      <c r="BA34" s="128"/>
-      <c r="BB34" s="128"/>
-      <c r="BC34" s="128"/>
-      <c r="BD34" s="128"/>
-      <c r="BE34" s="128"/>
-      <c r="BF34" s="129"/>
+      <c r="AW34" s="130"/>
+      <c r="AX34" s="131"/>
+      <c r="AY34" s="131"/>
+      <c r="AZ34" s="131"/>
+      <c r="BA34" s="131"/>
+      <c r="BB34" s="131"/>
+      <c r="BC34" s="131"/>
+      <c r="BD34" s="131"/>
+      <c r="BE34" s="131"/>
+      <c r="BF34" s="132"/>
       <c r="BG34" s="85"/>
       <c r="BH34" s="59"/>
       <c r="BI34" s="60"/>
@@ -5413,7 +5413,9 @@
       <c r="B37" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="109"/>
+      <c r="C37" s="109" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="110"/>
       <c r="E37" s="110"/>
       <c r="F37" s="82"/>
@@ -5999,12 +6001,12 @@
       <c r="AX43" s="91"/>
       <c r="AY43" s="91"/>
       <c r="AZ43" s="92"/>
-      <c r="BA43" s="130"/>
-      <c r="BB43" s="131"/>
-      <c r="BC43" s="131"/>
-      <c r="BD43" s="131"/>
-      <c r="BE43" s="131"/>
-      <c r="BF43" s="132"/>
+      <c r="BA43" s="170"/>
+      <c r="BB43" s="171"/>
+      <c r="BC43" s="171"/>
+      <c r="BD43" s="171"/>
+      <c r="BE43" s="171"/>
+      <c r="BF43" s="172"/>
       <c r="BG43" s="85"/>
       <c r="BH43" s="59"/>
       <c r="BI43" s="60"/>
@@ -6039,84 +6041,84 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
       <c r="E44" s="64"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="136"/>
-      <c r="O44" s="136"/>
-      <c r="P44" s="136"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="136"/>
-      <c r="S44" s="136"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="136"/>
-      <c r="V44" s="136"/>
-      <c r="W44" s="136"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="136"/>
-      <c r="AC44" s="136"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="136"/>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="136"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="136"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="136"/>
-      <c r="AN44" s="136"/>
-      <c r="AO44" s="136"/>
-      <c r="AP44" s="136"/>
-      <c r="AQ44" s="136"/>
-      <c r="AR44" s="136"/>
-      <c r="AS44" s="136"/>
-      <c r="AT44" s="136"/>
-      <c r="AU44" s="136"/>
-      <c r="AV44" s="136"/>
-      <c r="AW44" s="136"/>
-      <c r="AX44" s="136"/>
-      <c r="AY44" s="136"/>
-      <c r="AZ44" s="136"/>
-      <c r="BA44" s="136"/>
-      <c r="BB44" s="136"/>
-      <c r="BC44" s="136"/>
-      <c r="BD44" s="136"/>
-      <c r="BE44" s="136"/>
-      <c r="BF44" s="136"/>
-      <c r="BG44" s="136"/>
-      <c r="BH44" s="136"/>
-      <c r="BI44" s="136"/>
-      <c r="BJ44" s="136"/>
-      <c r="BK44" s="136"/>
-      <c r="BL44" s="136"/>
-      <c r="BM44" s="136"/>
-      <c r="BN44" s="136"/>
-      <c r="BO44" s="136"/>
-      <c r="BP44" s="136"/>
-      <c r="BQ44" s="136"/>
-      <c r="BR44" s="136"/>
-      <c r="BS44" s="136"/>
-      <c r="BT44" s="136"/>
-      <c r="BU44" s="136"/>
-      <c r="BV44" s="136"/>
-      <c r="BW44" s="136"/>
-      <c r="BX44" s="136"/>
-      <c r="BY44" s="136"/>
-      <c r="BZ44" s="136"/>
-      <c r="CA44" s="136"/>
-      <c r="CB44" s="136"/>
-      <c r="CC44" s="136"/>
-      <c r="CD44" s="136"/>
-      <c r="CE44" s="137"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="165"/>
+      <c r="R44" s="165"/>
+      <c r="S44" s="165"/>
+      <c r="T44" s="165"/>
+      <c r="U44" s="165"/>
+      <c r="V44" s="165"/>
+      <c r="W44" s="165"/>
+      <c r="X44" s="165"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="165"/>
+      <c r="AA44" s="165"/>
+      <c r="AB44" s="165"/>
+      <c r="AC44" s="165"/>
+      <c r="AD44" s="165"/>
+      <c r="AE44" s="165"/>
+      <c r="AF44" s="165"/>
+      <c r="AG44" s="165"/>
+      <c r="AH44" s="165"/>
+      <c r="AI44" s="165"/>
+      <c r="AJ44" s="165"/>
+      <c r="AK44" s="165"/>
+      <c r="AL44" s="165"/>
+      <c r="AM44" s="165"/>
+      <c r="AN44" s="165"/>
+      <c r="AO44" s="165"/>
+      <c r="AP44" s="165"/>
+      <c r="AQ44" s="165"/>
+      <c r="AR44" s="165"/>
+      <c r="AS44" s="165"/>
+      <c r="AT44" s="165"/>
+      <c r="AU44" s="165"/>
+      <c r="AV44" s="165"/>
+      <c r="AW44" s="165"/>
+      <c r="AX44" s="165"/>
+      <c r="AY44" s="165"/>
+      <c r="AZ44" s="165"/>
+      <c r="BA44" s="165"/>
+      <c r="BB44" s="165"/>
+      <c r="BC44" s="165"/>
+      <c r="BD44" s="165"/>
+      <c r="BE44" s="165"/>
+      <c r="BF44" s="165"/>
+      <c r="BG44" s="165"/>
+      <c r="BH44" s="165"/>
+      <c r="BI44" s="165"/>
+      <c r="BJ44" s="165"/>
+      <c r="BK44" s="165"/>
+      <c r="BL44" s="165"/>
+      <c r="BM44" s="165"/>
+      <c r="BN44" s="165"/>
+      <c r="BO44" s="165"/>
+      <c r="BP44" s="165"/>
+      <c r="BQ44" s="165"/>
+      <c r="BR44" s="165"/>
+      <c r="BS44" s="165"/>
+      <c r="BT44" s="165"/>
+      <c r="BU44" s="165"/>
+      <c r="BV44" s="165"/>
+      <c r="BW44" s="165"/>
+      <c r="BX44" s="165"/>
+      <c r="BY44" s="165"/>
+      <c r="BZ44" s="165"/>
+      <c r="CA44" s="165"/>
+      <c r="CB44" s="165"/>
+      <c r="CC44" s="165"/>
+      <c r="CD44" s="165"/>
+      <c r="CE44" s="166"/>
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
@@ -6132,7 +6134,7 @@
       <c r="E45" s="68">
         <v>45244</v>
       </c>
-      <c r="F45" s="120"/>
+      <c r="F45" s="169"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -6369,14 +6371,14 @@
       <c r="BB47" s="40"/>
       <c r="BC47" s="40"/>
       <c r="BD47" s="80"/>
-      <c r="BE47" s="127"/>
-      <c r="BF47" s="128"/>
-      <c r="BG47" s="128"/>
-      <c r="BH47" s="128"/>
-      <c r="BI47" s="128"/>
-      <c r="BJ47" s="128"/>
-      <c r="BK47" s="128"/>
-      <c r="BL47" s="129"/>
+      <c r="BE47" s="130"/>
+      <c r="BF47" s="131"/>
+      <c r="BG47" s="131"/>
+      <c r="BH47" s="131"/>
+      <c r="BI47" s="131"/>
+      <c r="BJ47" s="131"/>
+      <c r="BK47" s="131"/>
+      <c r="BL47" s="132"/>
       <c r="BM47" s="83"/>
       <c r="BN47" s="28"/>
       <c r="BO47" s="28"/>
@@ -6463,7 +6465,7 @@
       <c r="BC48" s="40"/>
       <c r="BD48" s="28"/>
       <c r="BE48" s="92"/>
-      <c r="BF48" s="141"/>
+      <c r="BF48" s="167"/>
       <c r="BG48" s="122"/>
       <c r="BH48" s="122"/>
       <c r="BI48" s="122"/>
@@ -6559,7 +6561,7 @@
       <c r="BF49" s="91"/>
       <c r="BG49" s="91"/>
       <c r="BH49" s="92"/>
-      <c r="BI49" s="153"/>
+      <c r="BI49" s="139"/>
       <c r="BJ49" s="122"/>
       <c r="BK49" s="122"/>
       <c r="BL49" s="122"/>
@@ -6653,12 +6655,12 @@
       <c r="BG50" s="28"/>
       <c r="BH50" s="28"/>
       <c r="BI50" s="95"/>
-      <c r="BJ50" s="138"/>
-      <c r="BK50" s="139"/>
-      <c r="BL50" s="139"/>
-      <c r="BM50" s="139"/>
-      <c r="BN50" s="139"/>
-      <c r="BO50" s="140"/>
+      <c r="BJ50" s="127"/>
+      <c r="BK50" s="128"/>
+      <c r="BL50" s="128"/>
+      <c r="BM50" s="128"/>
+      <c r="BN50" s="128"/>
+      <c r="BO50" s="129"/>
       <c r="BP50" s="87"/>
       <c r="BQ50" s="60"/>
       <c r="BR50" s="86"/>
@@ -6747,7 +6749,7 @@
       <c r="BH51" s="28"/>
       <c r="BI51" s="40"/>
       <c r="BJ51" s="95"/>
-      <c r="BK51" s="134"/>
+      <c r="BK51" s="142"/>
       <c r="BL51" s="122"/>
       <c r="BM51" s="122"/>
       <c r="BN51" s="122"/>
@@ -6842,7 +6844,7 @@
       <c r="BJ52" s="40"/>
       <c r="BK52" s="91"/>
       <c r="BL52" s="92"/>
-      <c r="BM52" s="135"/>
+      <c r="BM52" s="136"/>
       <c r="BN52" s="122"/>
       <c r="BO52" s="122"/>
       <c r="BP52" s="122"/>
@@ -6935,7 +6937,7 @@
       <c r="BJ53" s="40"/>
       <c r="BK53" s="28"/>
       <c r="BL53" s="80"/>
-      <c r="BM53" s="134"/>
+      <c r="BM53" s="142"/>
       <c r="BN53" s="122"/>
       <c r="BO53" s="122"/>
       <c r="BP53" s="122"/>
@@ -7029,13 +7031,13 @@
       <c r="BK54" s="28"/>
       <c r="BL54" s="28"/>
       <c r="BM54" s="92"/>
-      <c r="BN54" s="127"/>
-      <c r="BO54" s="128"/>
-      <c r="BP54" s="128"/>
-      <c r="BQ54" s="128"/>
-      <c r="BR54" s="128"/>
-      <c r="BS54" s="128"/>
-      <c r="BT54" s="129"/>
+      <c r="BN54" s="130"/>
+      <c r="BO54" s="131"/>
+      <c r="BP54" s="131"/>
+      <c r="BQ54" s="131"/>
+      <c r="BR54" s="131"/>
+      <c r="BS54" s="131"/>
+      <c r="BT54" s="132"/>
       <c r="BU54" s="83"/>
       <c r="BV54" s="28"/>
       <c r="BW54" s="40"/>
@@ -7124,7 +7126,7 @@
       <c r="BM55" s="28"/>
       <c r="BN55" s="91"/>
       <c r="BO55" s="92"/>
-      <c r="BP55" s="121"/>
+      <c r="BP55" s="143"/>
       <c r="BQ55" s="122"/>
       <c r="BR55" s="122"/>
       <c r="BS55" s="122"/>
@@ -7150,83 +7152,83 @@
       <c r="D56" s="72"/>
       <c r="E56" s="73"/>
       <c r="F56" s="65"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
-      <c r="Q56" s="163"/>
-      <c r="R56" s="163"/>
-      <c r="S56" s="163"/>
-      <c r="T56" s="163"/>
-      <c r="U56" s="163"/>
-      <c r="V56" s="163"/>
-      <c r="W56" s="163"/>
-      <c r="X56" s="163"/>
-      <c r="Y56" s="163"/>
-      <c r="Z56" s="163"/>
-      <c r="AA56" s="163"/>
-      <c r="AB56" s="163"/>
-      <c r="AC56" s="163"/>
-      <c r="AD56" s="163"/>
-      <c r="AE56" s="163"/>
-      <c r="AF56" s="163"/>
-      <c r="AG56" s="163"/>
-      <c r="AH56" s="163"/>
-      <c r="AI56" s="163"/>
-      <c r="AJ56" s="163"/>
-      <c r="AK56" s="163"/>
-      <c r="AL56" s="163"/>
-      <c r="AM56" s="163"/>
-      <c r="AN56" s="163"/>
-      <c r="AO56" s="163"/>
-      <c r="AP56" s="163"/>
-      <c r="AQ56" s="163"/>
-      <c r="AR56" s="163"/>
-      <c r="AS56" s="163"/>
-      <c r="AT56" s="163"/>
-      <c r="AU56" s="163"/>
-      <c r="AV56" s="163"/>
-      <c r="AW56" s="163"/>
-      <c r="AX56" s="163"/>
-      <c r="AY56" s="163"/>
-      <c r="AZ56" s="163"/>
-      <c r="BA56" s="163"/>
-      <c r="BB56" s="163"/>
-      <c r="BC56" s="163"/>
-      <c r="BD56" s="163"/>
-      <c r="BE56" s="163"/>
-      <c r="BF56" s="163"/>
-      <c r="BG56" s="163"/>
-      <c r="BH56" s="163"/>
-      <c r="BI56" s="163"/>
-      <c r="BJ56" s="163"/>
-      <c r="BK56" s="163"/>
-      <c r="BL56" s="163"/>
-      <c r="BM56" s="163"/>
-      <c r="BN56" s="163"/>
-      <c r="BO56" s="163"/>
-      <c r="BP56" s="163"/>
-      <c r="BQ56" s="163"/>
-      <c r="BR56" s="163"/>
-      <c r="BS56" s="163"/>
-      <c r="BT56" s="163"/>
-      <c r="BU56" s="163"/>
-      <c r="BV56" s="163"/>
-      <c r="BW56" s="163"/>
-      <c r="BX56" s="163"/>
-      <c r="BY56" s="163"/>
-      <c r="BZ56" s="163"/>
-      <c r="CA56" s="163"/>
-      <c r="CB56" s="163"/>
-      <c r="CC56" s="163"/>
-      <c r="CD56" s="163"/>
-      <c r="CE56" s="164"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="119"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="119"/>
+      <c r="S56" s="119"/>
+      <c r="T56" s="119"/>
+      <c r="U56" s="119"/>
+      <c r="V56" s="119"/>
+      <c r="W56" s="119"/>
+      <c r="X56" s="119"/>
+      <c r="Y56" s="119"/>
+      <c r="Z56" s="119"/>
+      <c r="AA56" s="119"/>
+      <c r="AB56" s="119"/>
+      <c r="AC56" s="119"/>
+      <c r="AD56" s="119"/>
+      <c r="AE56" s="119"/>
+      <c r="AF56" s="119"/>
+      <c r="AG56" s="119"/>
+      <c r="AH56" s="119"/>
+      <c r="AI56" s="119"/>
+      <c r="AJ56" s="119"/>
+      <c r="AK56" s="119"/>
+      <c r="AL56" s="119"/>
+      <c r="AM56" s="119"/>
+      <c r="AN56" s="119"/>
+      <c r="AO56" s="119"/>
+      <c r="AP56" s="119"/>
+      <c r="AQ56" s="119"/>
+      <c r="AR56" s="119"/>
+      <c r="AS56" s="119"/>
+      <c r="AT56" s="119"/>
+      <c r="AU56" s="119"/>
+      <c r="AV56" s="119"/>
+      <c r="AW56" s="119"/>
+      <c r="AX56" s="119"/>
+      <c r="AY56" s="119"/>
+      <c r="AZ56" s="119"/>
+      <c r="BA56" s="119"/>
+      <c r="BB56" s="119"/>
+      <c r="BC56" s="119"/>
+      <c r="BD56" s="119"/>
+      <c r="BE56" s="119"/>
+      <c r="BF56" s="119"/>
+      <c r="BG56" s="119"/>
+      <c r="BH56" s="119"/>
+      <c r="BI56" s="119"/>
+      <c r="BJ56" s="119"/>
+      <c r="BK56" s="119"/>
+      <c r="BL56" s="119"/>
+      <c r="BM56" s="119"/>
+      <c r="BN56" s="119"/>
+      <c r="BO56" s="119"/>
+      <c r="BP56" s="119"/>
+      <c r="BQ56" s="119"/>
+      <c r="BR56" s="119"/>
+      <c r="BS56" s="119"/>
+      <c r="BT56" s="119"/>
+      <c r="BU56" s="119"/>
+      <c r="BV56" s="119"/>
+      <c r="BW56" s="119"/>
+      <c r="BX56" s="119"/>
+      <c r="BY56" s="119"/>
+      <c r="BZ56" s="119"/>
+      <c r="CA56" s="119"/>
+      <c r="CB56" s="119"/>
+      <c r="CC56" s="119"/>
+      <c r="CD56" s="119"/>
+      <c r="CE56" s="120"/>
     </row>
     <row r="57" spans="1:83" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
@@ -11049,6 +11051,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BF46:BJ46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="AW34:BF34"/>
+    <mergeCell ref="BA43:BF43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="BB45:BE45"/>
+    <mergeCell ref="BN54:BT54"/>
+    <mergeCell ref="BK51:BS51"/>
+    <mergeCell ref="BM52:BS52"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="BJ50:BO50"/>
+    <mergeCell ref="BF48:BL48"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AI15:AK15"/>
     <mergeCell ref="G56:CE56"/>
     <mergeCell ref="AJ22:AO22"/>
     <mergeCell ref="AK23:AP23"/>
@@ -11065,44 +11105,6 @@
     <mergeCell ref="BM53:BQ53"/>
     <mergeCell ref="BP55:BT55"/>
     <mergeCell ref="BI49:BO49"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AD17:AK17"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BN54:BT54"/>
-    <mergeCell ref="BK51:BS51"/>
-    <mergeCell ref="BM52:BS52"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="BJ50:BO50"/>
-    <mergeCell ref="BF48:BL48"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="BF46:BJ46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="AW34:BF34"/>
-    <mergeCell ref="BA43:BF43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="BB45:BE45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -1452,13 +1452,11 @@
     <xf numFmtId="0" fontId="27" fillId="29" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1472,6 +1470,37 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,66 +1510,42 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,39 +1558,34 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,7 +1818,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1941,10 +1941,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="162"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18"/>
       <c r="H2" s="6"/>
@@ -2028,10 +2028,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="161">
+      <c r="D3" s="145">
         <v>45197</v>
       </c>
-      <c r="E3" s="162"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2117,117 +2117,117 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="158">
+      <c r="F4" s="147"/>
+      <c r="G4" s="142">
         <f>G5</f>
         <v>45194</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="158">
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="142">
         <f>N5</f>
         <v>45201</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="158">
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="142">
         <f>U5</f>
         <v>45208</v>
       </c>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="158">
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="142">
         <f>AB5</f>
         <v>45215</v>
       </c>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="158">
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="142">
         <f>AI5</f>
         <v>45222</v>
       </c>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="159"/>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="158">
+      <c r="AJ4" s="143"/>
+      <c r="AK4" s="143"/>
+      <c r="AL4" s="143"/>
+      <c r="AM4" s="143"/>
+      <c r="AN4" s="143"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="142">
         <f>AP5</f>
         <v>45229</v>
       </c>
-      <c r="AQ4" s="159"/>
-      <c r="AR4" s="159"/>
-      <c r="AS4" s="159"/>
-      <c r="AT4" s="159"/>
-      <c r="AU4" s="159"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="158">
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="142">
         <f>AW5</f>
         <v>45236</v>
       </c>
-      <c r="AX4" s="159"/>
-      <c r="AY4" s="159"/>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="159"/>
-      <c r="BB4" s="159"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="158">
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="142">
         <f>BD5</f>
         <v>45243</v>
       </c>
-      <c r="BE4" s="159"/>
-      <c r="BF4" s="159"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="159"/>
-      <c r="BI4" s="159"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="158">
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="142">
         <f>BK5</f>
         <v>45250</v>
       </c>
-      <c r="BL4" s="159"/>
-      <c r="BM4" s="159"/>
-      <c r="BN4" s="159"/>
-      <c r="BO4" s="159"/>
-      <c r="BP4" s="159"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="158">
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="144"/>
+      <c r="BR4" s="142">
         <f>BR5</f>
         <v>45257</v>
       </c>
-      <c r="BS4" s="159"/>
-      <c r="BT4" s="159"/>
-      <c r="BU4" s="159"/>
-      <c r="BV4" s="159"/>
-      <c r="BW4" s="159"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="158">
+      <c r="BS4" s="143"/>
+      <c r="BT4" s="143"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="143"/>
+      <c r="BX4" s="144"/>
+      <c r="BY4" s="142">
         <f>BY5</f>
         <v>45264</v>
       </c>
-      <c r="BZ4" s="159"/>
-      <c r="CA4" s="159"/>
-      <c r="CB4" s="159"/>
-      <c r="CC4" s="159"/>
-      <c r="CD4" s="159"/>
-      <c r="CE4" s="160"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="143"/>
+      <c r="CB4" s="143"/>
+      <c r="CC4" s="143"/>
+      <c r="CD4" s="143"/>
+      <c r="CE4" s="144"/>
     </row>
     <row r="5" spans="1:83" ht="25.5" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
@@ -2243,7 +2243,7 @@
       <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="164"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="22">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2</f>
         <v>45194</v>
@@ -2744,18 +2744,18 @@
       <c r="G8" s="102"/>
       <c r="H8" s="83"/>
       <c r="I8" s="80"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="146"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="151"/>
       <c r="V8" s="85"/>
       <c r="W8" s="86"/>
       <c r="X8" s="86"/>
@@ -2850,7 +2850,7 @@
       <c r="S9" s="96"/>
       <c r="T9" s="96"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="147"/>
+      <c r="V9" s="152"/>
       <c r="W9" s="122"/>
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
@@ -3035,7 +3035,7 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="81"/>
-      <c r="AA11" s="139"/>
+      <c r="AA11" s="153"/>
       <c r="AB11" s="122"/>
       <c r="AC11" s="122"/>
       <c r="AD11" s="122"/>
@@ -3129,12 +3129,12 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="95"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="149"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="155"/>
       <c r="AH12" s="100"/>
       <c r="AI12" s="86"/>
       <c r="AJ12" s="86"/>
@@ -3223,15 +3223,15 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="92"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="156"/>
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="161"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="161"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="161"/>
+      <c r="AJ13" s="161"/>
+      <c r="AK13" s="161"/>
       <c r="AL13" s="83"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="40"/>
@@ -3317,13 +3317,13 @@
       <c r="AA14" s="40"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="92"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="152"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="157"/>
       <c r="AK14" s="93"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
@@ -3415,9 +3415,9 @@
       <c r="AF15" s="107"/>
       <c r="AG15" s="107"/>
       <c r="AH15" s="107"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="162"/>
       <c r="AL15" s="83"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="40"/>
@@ -3504,12 +3504,12 @@
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="154"/>
-      <c r="AG16" s="154"/>
-      <c r="AH16" s="154"/>
-      <c r="AI16" s="154"/>
-      <c r="AJ16" s="155"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="160"/>
       <c r="AK16" s="93"/>
       <c r="AL16" s="28"/>
       <c r="AM16" s="28"/>
@@ -3596,7 +3596,7 @@
       <c r="AA17" s="40"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="80"/>
-      <c r="AD17" s="136"/>
+      <c r="AD17" s="135"/>
       <c r="AE17" s="122"/>
       <c r="AF17" s="122"/>
       <c r="AG17" s="122"/>
@@ -3665,7 +3665,7 @@
       <c r="E18" s="47">
         <v>45225</v>
       </c>
-      <c r="F18" s="168"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
@@ -3692,7 +3692,7 @@
       <c r="AD18" s="91"/>
       <c r="AE18" s="91"/>
       <c r="AF18" s="92"/>
-      <c r="AG18" s="143"/>
+      <c r="AG18" s="121"/>
       <c r="AH18" s="122"/>
       <c r="AI18" s="122"/>
       <c r="AJ18" s="122"/>
@@ -3752,7 +3752,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="51"/>
-      <c r="F19" s="169"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -3969,12 +3969,12 @@
       <c r="AF21" s="28"/>
       <c r="AG21" s="40"/>
       <c r="AH21" s="81"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="129"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="139"/>
+      <c r="AN21" s="140"/>
       <c r="AO21" s="87"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28"/>
@@ -4063,7 +4063,7 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="92"/>
-      <c r="AJ22" s="121"/>
+      <c r="AJ22" s="165"/>
       <c r="AK22" s="122"/>
       <c r="AL22" s="122"/>
       <c r="AM22" s="122"/>
@@ -4251,12 +4251,12 @@
       <c r="AI24" s="28"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="97"/>
-      <c r="AL24" s="127"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="128"/>
-      <c r="AO24" s="128"/>
-      <c r="AP24" s="128"/>
-      <c r="AQ24" s="129"/>
+      <c r="AL24" s="138"/>
+      <c r="AM24" s="139"/>
+      <c r="AN24" s="139"/>
+      <c r="AO24" s="139"/>
+      <c r="AP24" s="139"/>
+      <c r="AQ24" s="140"/>
       <c r="AR24" s="83"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -4343,13 +4343,13 @@
       <c r="AH25" s="40"/>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="131"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="132"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="129"/>
       <c r="AR25" s="85"/>
       <c r="AS25" s="86"/>
       <c r="AT25" s="28"/>
@@ -4533,12 +4533,12 @@
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="95"/>
-      <c r="AO27" s="133"/>
-      <c r="AP27" s="134"/>
-      <c r="AQ27" s="134"/>
-      <c r="AR27" s="134"/>
-      <c r="AS27" s="134"/>
-      <c r="AT27" s="135"/>
+      <c r="AO27" s="166"/>
+      <c r="AP27" s="167"/>
+      <c r="AQ27" s="167"/>
+      <c r="AR27" s="167"/>
+      <c r="AS27" s="167"/>
+      <c r="AT27" s="168"/>
       <c r="AU27" s="87"/>
       <c r="AV27" s="60"/>
       <c r="AW27" s="86"/>
@@ -4627,16 +4627,16 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="95"/>
-      <c r="AP28" s="136"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="138"/>
+      <c r="AP28" s="135"/>
+      <c r="AQ28" s="169"/>
+      <c r="AR28" s="169"/>
+      <c r="AS28" s="169"/>
+      <c r="AT28" s="169"/>
+      <c r="AU28" s="169"/>
+      <c r="AV28" s="169"/>
+      <c r="AW28" s="169"/>
+      <c r="AX28" s="169"/>
+      <c r="AY28" s="170"/>
       <c r="AZ28" s="85"/>
       <c r="BA28" s="86"/>
       <c r="BB28" s="60"/>
@@ -4726,7 +4726,7 @@
       <c r="AS29" s="94"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="98"/>
-      <c r="AV29" s="133"/>
+      <c r="AV29" s="166"/>
       <c r="AW29" s="122"/>
       <c r="AX29" s="122"/>
       <c r="AY29" s="122"/>
@@ -4815,17 +4815,17 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="28"/>
       <c r="AQ30" s="80"/>
-      <c r="AR30" s="139"/>
-      <c r="AS30" s="140"/>
-      <c r="AT30" s="140"/>
-      <c r="AU30" s="140"/>
-      <c r="AV30" s="140"/>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="140"/>
-      <c r="AY30" s="140"/>
-      <c r="AZ30" s="140"/>
-      <c r="BA30" s="140"/>
-      <c r="BB30" s="141"/>
+      <c r="AR30" s="153"/>
+      <c r="AS30" s="171"/>
+      <c r="AT30" s="171"/>
+      <c r="AU30" s="171"/>
+      <c r="AV30" s="171"/>
+      <c r="AW30" s="171"/>
+      <c r="AX30" s="171"/>
+      <c r="AY30" s="171"/>
+      <c r="AZ30" s="171"/>
+      <c r="BA30" s="171"/>
+      <c r="BB30" s="172"/>
       <c r="BC30" s="100"/>
       <c r="BD30" s="91"/>
       <c r="BE30" s="91"/>
@@ -4907,17 +4907,17 @@
       <c r="AP31" s="28"/>
       <c r="AQ31" s="28"/>
       <c r="AR31" s="92"/>
-      <c r="AS31" s="136"/>
-      <c r="AT31" s="137"/>
-      <c r="AU31" s="137"/>
-      <c r="AV31" s="137"/>
-      <c r="AW31" s="137"/>
-      <c r="AX31" s="137"/>
-      <c r="AY31" s="137"/>
-      <c r="AZ31" s="137"/>
-      <c r="BA31" s="137"/>
-      <c r="BB31" s="137"/>
-      <c r="BC31" s="138"/>
+      <c r="AS31" s="135"/>
+      <c r="AT31" s="169"/>
+      <c r="AU31" s="169"/>
+      <c r="AV31" s="169"/>
+      <c r="AW31" s="169"/>
+      <c r="AX31" s="169"/>
+      <c r="AY31" s="169"/>
+      <c r="AZ31" s="169"/>
+      <c r="BA31" s="169"/>
+      <c r="BB31" s="169"/>
+      <c r="BC31" s="170"/>
       <c r="BD31" s="85"/>
       <c r="BE31" s="28"/>
       <c r="BF31" s="28"/>
@@ -5001,17 +5001,17 @@
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
       <c r="AS32" s="92"/>
-      <c r="AT32" s="139"/>
-      <c r="AU32" s="140"/>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
-      <c r="AX32" s="140"/>
-      <c r="AY32" s="140"/>
-      <c r="AZ32" s="140"/>
-      <c r="BA32" s="140"/>
-      <c r="BB32" s="140"/>
-      <c r="BC32" s="140"/>
-      <c r="BD32" s="141"/>
+      <c r="AT32" s="153"/>
+      <c r="AU32" s="171"/>
+      <c r="AV32" s="171"/>
+      <c r="AW32" s="171"/>
+      <c r="AX32" s="171"/>
+      <c r="AY32" s="171"/>
+      <c r="AZ32" s="171"/>
+      <c r="BA32" s="171"/>
+      <c r="BB32" s="171"/>
+      <c r="BC32" s="171"/>
+      <c r="BD32" s="172"/>
       <c r="BE32" s="83"/>
       <c r="BF32" s="28"/>
       <c r="BG32" s="28"/>
@@ -5096,7 +5096,7 @@
       <c r="AS33" s="28"/>
       <c r="AT33" s="91"/>
       <c r="AU33" s="95"/>
-      <c r="AV33" s="142"/>
+      <c r="AV33" s="134"/>
       <c r="AW33" s="122"/>
       <c r="AX33" s="122"/>
       <c r="AY33" s="122"/>
@@ -5190,16 +5190,16 @@
       <c r="AT34" s="91"/>
       <c r="AU34" s="95"/>
       <c r="AV34" s="98"/>
-      <c r="AW34" s="130"/>
-      <c r="AX34" s="131"/>
-      <c r="AY34" s="131"/>
-      <c r="AZ34" s="131"/>
-      <c r="BA34" s="131"/>
-      <c r="BB34" s="131"/>
-      <c r="BC34" s="131"/>
-      <c r="BD34" s="131"/>
-      <c r="BE34" s="131"/>
-      <c r="BF34" s="132"/>
+      <c r="AW34" s="127"/>
+      <c r="AX34" s="128"/>
+      <c r="AY34" s="128"/>
+      <c r="AZ34" s="128"/>
+      <c r="BA34" s="128"/>
+      <c r="BB34" s="128"/>
+      <c r="BC34" s="128"/>
+      <c r="BD34" s="128"/>
+      <c r="BE34" s="128"/>
+      <c r="BF34" s="129"/>
       <c r="BG34" s="85"/>
       <c r="BH34" s="59"/>
       <c r="BI34" s="60"/>
@@ -5502,7 +5502,9 @@
       <c r="B38" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="109"/>
+      <c r="C38" s="109" t="s">
+        <v>7</v>
+      </c>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
       <c r="F38" s="82"/>
@@ -6001,12 +6003,12 @@
       <c r="AX43" s="91"/>
       <c r="AY43" s="91"/>
       <c r="AZ43" s="92"/>
-      <c r="BA43" s="170"/>
-      <c r="BB43" s="171"/>
-      <c r="BC43" s="171"/>
-      <c r="BD43" s="171"/>
-      <c r="BE43" s="171"/>
-      <c r="BF43" s="172"/>
+      <c r="BA43" s="130"/>
+      <c r="BB43" s="131"/>
+      <c r="BC43" s="131"/>
+      <c r="BD43" s="131"/>
+      <c r="BE43" s="131"/>
+      <c r="BF43" s="132"/>
       <c r="BG43" s="85"/>
       <c r="BH43" s="59"/>
       <c r="BI43" s="60"/>
@@ -6041,84 +6043,84 @@
       <c r="C44" s="62"/>
       <c r="D44" s="63"/>
       <c r="E44" s="64"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="165"/>
-      <c r="L44" s="165"/>
-      <c r="M44" s="165"/>
-      <c r="N44" s="165"/>
-      <c r="O44" s="165"/>
-      <c r="P44" s="165"/>
-      <c r="Q44" s="165"/>
-      <c r="R44" s="165"/>
-      <c r="S44" s="165"/>
-      <c r="T44" s="165"/>
-      <c r="U44" s="165"/>
-      <c r="V44" s="165"/>
-      <c r="W44" s="165"/>
-      <c r="X44" s="165"/>
-      <c r="Y44" s="165"/>
-      <c r="Z44" s="165"/>
-      <c r="AA44" s="165"/>
-      <c r="AB44" s="165"/>
-      <c r="AC44" s="165"/>
-      <c r="AD44" s="165"/>
-      <c r="AE44" s="165"/>
-      <c r="AF44" s="165"/>
-      <c r="AG44" s="165"/>
-      <c r="AH44" s="165"/>
-      <c r="AI44" s="165"/>
-      <c r="AJ44" s="165"/>
-      <c r="AK44" s="165"/>
-      <c r="AL44" s="165"/>
-      <c r="AM44" s="165"/>
-      <c r="AN44" s="165"/>
-      <c r="AO44" s="165"/>
-      <c r="AP44" s="165"/>
-      <c r="AQ44" s="165"/>
-      <c r="AR44" s="165"/>
-      <c r="AS44" s="165"/>
-      <c r="AT44" s="165"/>
-      <c r="AU44" s="165"/>
-      <c r="AV44" s="165"/>
-      <c r="AW44" s="165"/>
-      <c r="AX44" s="165"/>
-      <c r="AY44" s="165"/>
-      <c r="AZ44" s="165"/>
-      <c r="BA44" s="165"/>
-      <c r="BB44" s="165"/>
-      <c r="BC44" s="165"/>
-      <c r="BD44" s="165"/>
-      <c r="BE44" s="165"/>
-      <c r="BF44" s="165"/>
-      <c r="BG44" s="165"/>
-      <c r="BH44" s="165"/>
-      <c r="BI44" s="165"/>
-      <c r="BJ44" s="165"/>
-      <c r="BK44" s="165"/>
-      <c r="BL44" s="165"/>
-      <c r="BM44" s="165"/>
-      <c r="BN44" s="165"/>
-      <c r="BO44" s="165"/>
-      <c r="BP44" s="165"/>
-      <c r="BQ44" s="165"/>
-      <c r="BR44" s="165"/>
-      <c r="BS44" s="165"/>
-      <c r="BT44" s="165"/>
-      <c r="BU44" s="165"/>
-      <c r="BV44" s="165"/>
-      <c r="BW44" s="165"/>
-      <c r="BX44" s="165"/>
-      <c r="BY44" s="165"/>
-      <c r="BZ44" s="165"/>
-      <c r="CA44" s="165"/>
-      <c r="CB44" s="165"/>
-      <c r="CC44" s="165"/>
-      <c r="CD44" s="165"/>
-      <c r="CE44" s="166"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="136"/>
+      <c r="P44" s="136"/>
+      <c r="Q44" s="136"/>
+      <c r="R44" s="136"/>
+      <c r="S44" s="136"/>
+      <c r="T44" s="136"/>
+      <c r="U44" s="136"/>
+      <c r="V44" s="136"/>
+      <c r="W44" s="136"/>
+      <c r="X44" s="136"/>
+      <c r="Y44" s="136"/>
+      <c r="Z44" s="136"/>
+      <c r="AA44" s="136"/>
+      <c r="AB44" s="136"/>
+      <c r="AC44" s="136"/>
+      <c r="AD44" s="136"/>
+      <c r="AE44" s="136"/>
+      <c r="AF44" s="136"/>
+      <c r="AG44" s="136"/>
+      <c r="AH44" s="136"/>
+      <c r="AI44" s="136"/>
+      <c r="AJ44" s="136"/>
+      <c r="AK44" s="136"/>
+      <c r="AL44" s="136"/>
+      <c r="AM44" s="136"/>
+      <c r="AN44" s="136"/>
+      <c r="AO44" s="136"/>
+      <c r="AP44" s="136"/>
+      <c r="AQ44" s="136"/>
+      <c r="AR44" s="136"/>
+      <c r="AS44" s="136"/>
+      <c r="AT44" s="136"/>
+      <c r="AU44" s="136"/>
+      <c r="AV44" s="136"/>
+      <c r="AW44" s="136"/>
+      <c r="AX44" s="136"/>
+      <c r="AY44" s="136"/>
+      <c r="AZ44" s="136"/>
+      <c r="BA44" s="136"/>
+      <c r="BB44" s="136"/>
+      <c r="BC44" s="136"/>
+      <c r="BD44" s="136"/>
+      <c r="BE44" s="136"/>
+      <c r="BF44" s="136"/>
+      <c r="BG44" s="136"/>
+      <c r="BH44" s="136"/>
+      <c r="BI44" s="136"/>
+      <c r="BJ44" s="136"/>
+      <c r="BK44" s="136"/>
+      <c r="BL44" s="136"/>
+      <c r="BM44" s="136"/>
+      <c r="BN44" s="136"/>
+      <c r="BO44" s="136"/>
+      <c r="BP44" s="136"/>
+      <c r="BQ44" s="136"/>
+      <c r="BR44" s="136"/>
+      <c r="BS44" s="136"/>
+      <c r="BT44" s="136"/>
+      <c r="BU44" s="136"/>
+      <c r="BV44" s="136"/>
+      <c r="BW44" s="136"/>
+      <c r="BX44" s="136"/>
+      <c r="BY44" s="136"/>
+      <c r="BZ44" s="136"/>
+      <c r="CA44" s="136"/>
+      <c r="CB44" s="136"/>
+      <c r="CC44" s="136"/>
+      <c r="CD44" s="136"/>
+      <c r="CE44" s="137"/>
     </row>
     <row r="45" spans="1:83" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="1"/>
@@ -6134,7 +6136,7 @@
       <c r="E45" s="68">
         <v>45244</v>
       </c>
-      <c r="F45" s="169"/>
+      <c r="F45" s="120"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
@@ -6371,14 +6373,14 @@
       <c r="BB47" s="40"/>
       <c r="BC47" s="40"/>
       <c r="BD47" s="80"/>
-      <c r="BE47" s="130"/>
-      <c r="BF47" s="131"/>
-      <c r="BG47" s="131"/>
-      <c r="BH47" s="131"/>
-      <c r="BI47" s="131"/>
-      <c r="BJ47" s="131"/>
-      <c r="BK47" s="131"/>
-      <c r="BL47" s="132"/>
+      <c r="BE47" s="127"/>
+      <c r="BF47" s="128"/>
+      <c r="BG47" s="128"/>
+      <c r="BH47" s="128"/>
+      <c r="BI47" s="128"/>
+      <c r="BJ47" s="128"/>
+      <c r="BK47" s="128"/>
+      <c r="BL47" s="129"/>
       <c r="BM47" s="83"/>
       <c r="BN47" s="28"/>
       <c r="BO47" s="28"/>
@@ -6465,7 +6467,7 @@
       <c r="BC48" s="40"/>
       <c r="BD48" s="28"/>
       <c r="BE48" s="92"/>
-      <c r="BF48" s="167"/>
+      <c r="BF48" s="141"/>
       <c r="BG48" s="122"/>
       <c r="BH48" s="122"/>
       <c r="BI48" s="122"/>
@@ -6561,7 +6563,7 @@
       <c r="BF49" s="91"/>
       <c r="BG49" s="91"/>
       <c r="BH49" s="92"/>
-      <c r="BI49" s="139"/>
+      <c r="BI49" s="153"/>
       <c r="BJ49" s="122"/>
       <c r="BK49" s="122"/>
       <c r="BL49" s="122"/>
@@ -6655,12 +6657,12 @@
       <c r="BG50" s="28"/>
       <c r="BH50" s="28"/>
       <c r="BI50" s="95"/>
-      <c r="BJ50" s="127"/>
-      <c r="BK50" s="128"/>
-      <c r="BL50" s="128"/>
-      <c r="BM50" s="128"/>
-      <c r="BN50" s="128"/>
-      <c r="BO50" s="129"/>
+      <c r="BJ50" s="138"/>
+      <c r="BK50" s="139"/>
+      <c r="BL50" s="139"/>
+      <c r="BM50" s="139"/>
+      <c r="BN50" s="139"/>
+      <c r="BO50" s="140"/>
       <c r="BP50" s="87"/>
       <c r="BQ50" s="60"/>
       <c r="BR50" s="86"/>
@@ -6749,7 +6751,7 @@
       <c r="BH51" s="28"/>
       <c r="BI51" s="40"/>
       <c r="BJ51" s="95"/>
-      <c r="BK51" s="142"/>
+      <c r="BK51" s="134"/>
       <c r="BL51" s="122"/>
       <c r="BM51" s="122"/>
       <c r="BN51" s="122"/>
@@ -6844,7 +6846,7 @@
       <c r="BJ52" s="40"/>
       <c r="BK52" s="91"/>
       <c r="BL52" s="92"/>
-      <c r="BM52" s="136"/>
+      <c r="BM52" s="135"/>
       <c r="BN52" s="122"/>
       <c r="BO52" s="122"/>
       <c r="BP52" s="122"/>
@@ -6937,7 +6939,7 @@
       <c r="BJ53" s="40"/>
       <c r="BK53" s="28"/>
       <c r="BL53" s="80"/>
-      <c r="BM53" s="142"/>
+      <c r="BM53" s="134"/>
       <c r="BN53" s="122"/>
       <c r="BO53" s="122"/>
       <c r="BP53" s="122"/>
@@ -7031,13 +7033,13 @@
       <c r="BK54" s="28"/>
       <c r="BL54" s="28"/>
       <c r="BM54" s="92"/>
-      <c r="BN54" s="130"/>
-      <c r="BO54" s="131"/>
-      <c r="BP54" s="131"/>
-      <c r="BQ54" s="131"/>
-      <c r="BR54" s="131"/>
-      <c r="BS54" s="131"/>
-      <c r="BT54" s="132"/>
+      <c r="BN54" s="127"/>
+      <c r="BO54" s="128"/>
+      <c r="BP54" s="128"/>
+      <c r="BQ54" s="128"/>
+      <c r="BR54" s="128"/>
+      <c r="BS54" s="128"/>
+      <c r="BT54" s="129"/>
       <c r="BU54" s="83"/>
       <c r="BV54" s="28"/>
       <c r="BW54" s="40"/>
@@ -7126,7 +7128,7 @@
       <c r="BM55" s="28"/>
       <c r="BN55" s="91"/>
       <c r="BO55" s="92"/>
-      <c r="BP55" s="143"/>
+      <c r="BP55" s="121"/>
       <c r="BQ55" s="122"/>
       <c r="BR55" s="122"/>
       <c r="BS55" s="122"/>
@@ -7152,83 +7154,83 @@
       <c r="D56" s="72"/>
       <c r="E56" s="73"/>
       <c r="F56" s="65"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="119"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="119"/>
-      <c r="V56" s="119"/>
-      <c r="W56" s="119"/>
-      <c r="X56" s="119"/>
-      <c r="Y56" s="119"/>
-      <c r="Z56" s="119"/>
-      <c r="AA56" s="119"/>
-      <c r="AB56" s="119"/>
-      <c r="AC56" s="119"/>
-      <c r="AD56" s="119"/>
-      <c r="AE56" s="119"/>
-      <c r="AF56" s="119"/>
-      <c r="AG56" s="119"/>
-      <c r="AH56" s="119"/>
-      <c r="AI56" s="119"/>
-      <c r="AJ56" s="119"/>
-      <c r="AK56" s="119"/>
-      <c r="AL56" s="119"/>
-      <c r="AM56" s="119"/>
-      <c r="AN56" s="119"/>
-      <c r="AO56" s="119"/>
-      <c r="AP56" s="119"/>
-      <c r="AQ56" s="119"/>
-      <c r="AR56" s="119"/>
-      <c r="AS56" s="119"/>
-      <c r="AT56" s="119"/>
-      <c r="AU56" s="119"/>
-      <c r="AV56" s="119"/>
-      <c r="AW56" s="119"/>
-      <c r="AX56" s="119"/>
-      <c r="AY56" s="119"/>
-      <c r="AZ56" s="119"/>
-      <c r="BA56" s="119"/>
-      <c r="BB56" s="119"/>
-      <c r="BC56" s="119"/>
-      <c r="BD56" s="119"/>
-      <c r="BE56" s="119"/>
-      <c r="BF56" s="119"/>
-      <c r="BG56" s="119"/>
-      <c r="BH56" s="119"/>
-      <c r="BI56" s="119"/>
-      <c r="BJ56" s="119"/>
-      <c r="BK56" s="119"/>
-      <c r="BL56" s="119"/>
-      <c r="BM56" s="119"/>
-      <c r="BN56" s="119"/>
-      <c r="BO56" s="119"/>
-      <c r="BP56" s="119"/>
-      <c r="BQ56" s="119"/>
-      <c r="BR56" s="119"/>
-      <c r="BS56" s="119"/>
-      <c r="BT56" s="119"/>
-      <c r="BU56" s="119"/>
-      <c r="BV56" s="119"/>
-      <c r="BW56" s="119"/>
-      <c r="BX56" s="119"/>
-      <c r="BY56" s="119"/>
-      <c r="BZ56" s="119"/>
-      <c r="CA56" s="119"/>
-      <c r="CB56" s="119"/>
-      <c r="CC56" s="119"/>
-      <c r="CD56" s="119"/>
-      <c r="CE56" s="120"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="163"/>
+      <c r="M56" s="163"/>
+      <c r="N56" s="163"/>
+      <c r="O56" s="163"/>
+      <c r="P56" s="163"/>
+      <c r="Q56" s="163"/>
+      <c r="R56" s="163"/>
+      <c r="S56" s="163"/>
+      <c r="T56" s="163"/>
+      <c r="U56" s="163"/>
+      <c r="V56" s="163"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Y56" s="163"/>
+      <c r="Z56" s="163"/>
+      <c r="AA56" s="163"/>
+      <c r="AB56" s="163"/>
+      <c r="AC56" s="163"/>
+      <c r="AD56" s="163"/>
+      <c r="AE56" s="163"/>
+      <c r="AF56" s="163"/>
+      <c r="AG56" s="163"/>
+      <c r="AH56" s="163"/>
+      <c r="AI56" s="163"/>
+      <c r="AJ56" s="163"/>
+      <c r="AK56" s="163"/>
+      <c r="AL56" s="163"/>
+      <c r="AM56" s="163"/>
+      <c r="AN56" s="163"/>
+      <c r="AO56" s="163"/>
+      <c r="AP56" s="163"/>
+      <c r="AQ56" s="163"/>
+      <c r="AR56" s="163"/>
+      <c r="AS56" s="163"/>
+      <c r="AT56" s="163"/>
+      <c r="AU56" s="163"/>
+      <c r="AV56" s="163"/>
+      <c r="AW56" s="163"/>
+      <c r="AX56" s="163"/>
+      <c r="AY56" s="163"/>
+      <c r="AZ56" s="163"/>
+      <c r="BA56" s="163"/>
+      <c r="BB56" s="163"/>
+      <c r="BC56" s="163"/>
+      <c r="BD56" s="163"/>
+      <c r="BE56" s="163"/>
+      <c r="BF56" s="163"/>
+      <c r="BG56" s="163"/>
+      <c r="BH56" s="163"/>
+      <c r="BI56" s="163"/>
+      <c r="BJ56" s="163"/>
+      <c r="BK56" s="163"/>
+      <c r="BL56" s="163"/>
+      <c r="BM56" s="163"/>
+      <c r="BN56" s="163"/>
+      <c r="BO56" s="163"/>
+      <c r="BP56" s="163"/>
+      <c r="BQ56" s="163"/>
+      <c r="BR56" s="163"/>
+      <c r="BS56" s="163"/>
+      <c r="BT56" s="163"/>
+      <c r="BU56" s="163"/>
+      <c r="BV56" s="163"/>
+      <c r="BW56" s="163"/>
+      <c r="BX56" s="163"/>
+      <c r="BY56" s="163"/>
+      <c r="BZ56" s="163"/>
+      <c r="CA56" s="163"/>
+      <c r="CB56" s="163"/>
+      <c r="CC56" s="163"/>
+      <c r="CD56" s="163"/>
+      <c r="CE56" s="164"/>
     </row>
     <row r="57" spans="1:83" ht="14.25" customHeight="1">
       <c r="A57" s="74"/>
@@ -11051,44 +11053,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="BF46:BJ46"/>
-    <mergeCell ref="BE47:BL47"/>
-    <mergeCell ref="AW34:BF34"/>
-    <mergeCell ref="BA43:BF43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="BB45:BE45"/>
-    <mergeCell ref="BN54:BT54"/>
-    <mergeCell ref="BK51:BS51"/>
-    <mergeCell ref="BM52:BS52"/>
-    <mergeCell ref="G44:CE44"/>
-    <mergeCell ref="BJ50:BO50"/>
-    <mergeCell ref="BF48:BL48"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="J8:U8"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="AA11:AH11"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AD17:AK17"/>
-    <mergeCell ref="AC13:AK13"/>
-    <mergeCell ref="AI15:AK15"/>
     <mergeCell ref="G56:CE56"/>
     <mergeCell ref="AJ22:AO22"/>
     <mergeCell ref="AK23:AP23"/>
@@ -11105,6 +11069,44 @@
     <mergeCell ref="BM53:BQ53"/>
     <mergeCell ref="BP55:BT55"/>
     <mergeCell ref="BI49:BO49"/>
+    <mergeCell ref="J8:U8"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA11:AH11"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="AC13:AK13"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BN54:BT54"/>
+    <mergeCell ref="BK51:BS51"/>
+    <mergeCell ref="BM52:BS52"/>
+    <mergeCell ref="G44:CE44"/>
+    <mergeCell ref="BJ50:BO50"/>
+    <mergeCell ref="BF48:BL48"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="BF46:BJ46"/>
+    <mergeCell ref="BE47:BL47"/>
+    <mergeCell ref="AW34:BF34"/>
+    <mergeCell ref="BA43:BF43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="BB45:BE45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.34722222222222199" header="0" footer="0"/>

--- a/Gantt-diagram-A.xlsx
+++ b/Gantt-diagram-A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó Tímea\Desktop\Rendszerfejlesztés1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993AAA62-DD63-402D-A7A5-EB97B8F4B1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A236A-131A-4295-ADC0-535D6E97CE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Pszichológus oldal</t>
   </si>
@@ -141,18 +141,6 @@
   </si>
   <si>
     <t>8.4.6. Leckék kezelésének tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.7. Email-es funkciók tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.8. Biztonsági mentés tesztelése (TR)</t>
-  </si>
-  <si>
-    <t>8.4.9. A prototípus kitelepítésének frissítése</t>
-  </si>
-  <si>
-    <t>8.4.10. Bemutató elkészítése</t>
   </si>
   <si>
     <t>8.3.1. Táblákat létre hozó SQL kódok létrehozása DB-hez</t>
@@ -261,6 +249,21 @@
   </si>
   <si>
     <t>Színezd ki</t>
+  </si>
+  <si>
+    <t>8.4.7. Időpont foglalás kezelésének tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.8. Email-es funkciók tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.9. Biztonsági mentés tesztelése (TR)</t>
+  </si>
+  <si>
+    <t>8.4.10. A prototípus kitelepítésének frissítése</t>
+  </si>
+  <si>
+    <t>8.4.11. Bemutató elkészítése</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1360,77 +1363,213 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="34" xfId="0" applyFont="1" appl